--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="34880" windowHeight="19460" tabRatio="500"/>
+    <workbookView xWindow="3520" yWindow="460" windowWidth="34880" windowHeight="19460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="UI" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'角色模型，动作'!$A$5:$H$298</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'角色模型，动作'!$A$5:$H$298</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">特效!$C$7:$D$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'角色模型，动作'!$A$5:$H$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'角色模型，动作'!$A$5:$H$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">特效!$C$7:$D$114</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="1327">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -7941,6 +7941,202 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>hua'po</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月01日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panshen@shoukong.FBX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panshen16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultPanshenPre01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>../effects/ultPanshenPre</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>../effects/ultPanshenPre01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物大招30</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'zhao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物大招31</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'zhao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物大招32</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'zhao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>meidushasheyanjing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>../effects/meidushasheyanjing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>美杜莎-眼睛</t>
+    <rPh sb="0" eb="1">
+      <t>mei'du'sha</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan'jing</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>美杜莎-蛇眼睛</t>
+    <rPh sb="0" eb="1">
+      <t>mei'du'sha</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan'jing</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <rPh sb="0" eb="1">
+      <t>chang'jign</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>../effects/mh_shui</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景1</t>
+    <rPh sb="0" eb="1">
+      <t>chang'jing</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥河水特效</t>
+    <rPh sb="0" eb="1">
+      <t>ming'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>te'xiao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mh_shui</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月01日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新特效：美杜莎蛇眼，潘神大招，冥河水面</t>
+    <rPh sb="0" eb="1">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei'du'sha</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>she</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yan'jing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pan'shen</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ming'he'shui</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>huapo@dazhao.FBX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>huapo16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充潘神受控动作，花魄大招动作</t>
+    <rPh sb="0" eb="1">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pan'shen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou'kong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hua'p</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dong'zuo</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -8272,7 +8468,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8430,6 +8626,9 @@
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -8719,8 +8918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -8919,14 +9118,26 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="37" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="B26" s="37" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>1323</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
@@ -8989,13 +9200,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D257" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C278" sqref="C278"/>
+      <selection pane="bottomRight" activeCell="F252" sqref="F252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -14473,13 +14684,13 @@
         <v>1237</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>1221</v>
+        <v>1324</v>
       </c>
       <c r="D251" s="61" t="s">
         <v>1249</v>
       </c>
       <c r="E251" s="31">
-        <v>42247</v>
+        <v>42248</v>
       </c>
       <c r="F251" s="13" t="s">
         <v>298</v>
@@ -14495,7 +14706,7 @@
         <v>1238</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D252" s="61" t="s">
         <v>1249</v>
@@ -14517,7 +14728,7 @@
         <v>1239</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D253" s="61" t="s">
         <v>1249</v>
@@ -14539,10 +14750,10 @@
         <v>1240</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D254" s="61" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E254" s="31">
         <v>42247</v>
@@ -14561,10 +14772,10 @@
         <v>1241</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D255" s="61" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="E255" s="31">
         <v>42247</v>
@@ -14583,7 +14794,7 @@
         <v>1242</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D256" s="61" t="s">
         <v>1249</v>
@@ -14605,7 +14816,7 @@
         <v>1243</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D257" s="61" t="s">
         <v>1249</v>
@@ -14627,7 +14838,7 @@
         <v>1244</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D258" s="61" t="s">
         <v>1249</v>
@@ -14649,7 +14860,7 @@
         <v>1245</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D259" s="61" t="s">
         <v>1249</v>
@@ -14671,7 +14882,7 @@
         <v>1246</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D260" s="61" t="s">
         <v>1249</v>
@@ -14687,84 +14898,84 @@
       </c>
       <c r="H260" s="14"/>
     </row>
-    <row r="261" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="26"/>
-      <c r="B261" s="29" t="s">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="25"/>
+      <c r="B261" s="28" t="s">
         <v>1247</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="C261" s="12" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D261" s="61" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E261" s="31">
+        <v>42247</v>
+      </c>
+      <c r="F261" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G261" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H261" s="14"/>
+    </row>
+    <row r="262" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="26"/>
+      <c r="B262" s="29" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C262" s="17" t="s">
         <v>1231</v>
       </c>
-      <c r="D261" s="64" t="s">
+      <c r="D262" s="64" t="s">
         <v>1249</v>
       </c>
-      <c r="E261" s="32">
+      <c r="E262" s="32">
         <v>42247</v>
       </c>
-      <c r="F261" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="G261" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H261" s="19"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="24" t="s">
+      <c r="F262" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G262" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H262" s="19"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="24" t="s">
         <v>1056</v>
       </c>
-      <c r="B262" s="27" t="s">
+      <c r="B263" s="27" t="s">
         <v>1253</v>
       </c>
-      <c r="C262" s="58" t="s">
+      <c r="C263" s="58" t="s">
         <v>1282</v>
       </c>
-      <c r="D262" s="63" t="s">
+      <c r="D263" s="63" t="s">
         <v>1286</v>
       </c>
-      <c r="E262" s="30">
+      <c r="E263" s="30">
         <v>42247</v>
       </c>
-      <c r="F262" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G262" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H262" s="10"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="25"/>
-      <c r="B263" s="28" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C263" s="12" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D263" s="61" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E263" s="31">
-        <v>42247</v>
-      </c>
-      <c r="F263" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="G263" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H263" s="14"/>
+      <c r="F263" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H263" s="10"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="25"/>
       <c r="B264" s="28" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D264" s="61" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E264" s="31">
         <v>42247</v>
@@ -14780,10 +14991,10 @@
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="25"/>
       <c r="B265" s="28" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D265" s="61" t="s">
         <v>1283</v>
@@ -14802,10 +15013,10 @@
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="25"/>
       <c r="B266" s="28" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D266" s="61" t="s">
         <v>1283</v>
@@ -14824,10 +15035,10 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="25"/>
       <c r="B267" s="28" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D267" s="61" t="s">
         <v>1283</v>
@@ -14846,10 +15057,10 @@
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="25"/>
       <c r="B268" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D268" s="61" t="s">
         <v>1283</v>
@@ -14868,10 +15079,10 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="25"/>
       <c r="B269" s="28" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D269" s="61" t="s">
         <v>1283</v>
@@ -14890,10 +15101,10 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="25"/>
       <c r="B270" s="28" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D270" s="61" t="s">
         <v>1283</v>
@@ -14912,10 +15123,10 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="25"/>
       <c r="B271" s="28" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D271" s="61" t="s">
         <v>1283</v>
@@ -14934,10 +15145,10 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="25"/>
       <c r="B272" s="28" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D272" s="61" t="s">
         <v>1283</v>
@@ -14956,10 +15167,10 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="25"/>
       <c r="B273" s="28" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D273" s="61" t="s">
         <v>1283</v>
@@ -14978,10 +15189,10 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="25"/>
       <c r="B274" s="28" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D274" s="61" t="s">
         <v>1283</v>
@@ -15000,66 +15211,90 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="25"/>
       <c r="B275" s="28" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>1279</v>
+        <v>1303</v>
       </c>
       <c r="D275" s="61" t="s">
         <v>1283</v>
       </c>
       <c r="E275" s="31">
+        <v>42248</v>
+      </c>
+      <c r="F275" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G275" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H275" s="14"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="25"/>
+      <c r="B276" s="28" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D276" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E276" s="31">
         <v>42247</v>
       </c>
-      <c r="F275" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="G275" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H275" s="14"/>
-    </row>
-    <row r="276" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="26"/>
-      <c r="B276" s="29" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C276" s="17" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D276" s="64" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E276" s="32">
-        <v>42247</v>
-      </c>
-      <c r="F276" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="G276" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H276" s="19"/>
+      <c r="F276" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G276" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H276" s="14"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="25"/>
-      <c r="B277" s="28"/>
-      <c r="C277" s="12"/>
-      <c r="D277" s="12"/>
-      <c r="E277" s="31"/>
-      <c r="F277" s="13"/>
-      <c r="G277" s="13"/>
+      <c r="B277" s="28" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D277" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E277" s="31">
+        <v>42247</v>
+      </c>
+      <c r="F277" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G277" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="H277" s="14"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="25"/>
-      <c r="B278" s="28"/>
-      <c r="C278" s="12"/>
-      <c r="D278" s="12"/>
-      <c r="E278" s="31"/>
-      <c r="F278" s="13"/>
-      <c r="G278" s="13"/>
-      <c r="H278" s="14"/>
+    <row r="278" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="26"/>
+      <c r="B278" s="29" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C278" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D278" s="64" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E278" s="32">
+        <v>42247</v>
+      </c>
+      <c r="F278" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G278" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H278" s="19"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="25"/>
@@ -15251,25 +15486,46 @@
       <c r="G297" s="13"/>
       <c r="H297" s="14"/>
     </row>
-    <row r="298" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="26"/>
-      <c r="B298" s="29"/>
-      <c r="C298" s="17"/>
-      <c r="D298" s="17"/>
-      <c r="E298" s="18"/>
-      <c r="F298" s="18"/>
-      <c r="G298" s="18"/>
-      <c r="H298" s="19"/>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="25"/>
+      <c r="B298" s="28"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="31"/>
+      <c r="F298" s="13"/>
+      <c r="G298" s="13"/>
+      <c r="H298" s="14"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="25"/>
+      <c r="B299" s="28"/>
+      <c r="C299" s="12"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="31"/>
+      <c r="F299" s="13"/>
+      <c r="G299" s="13"/>
+      <c r="H299" s="14"/>
+    </row>
+    <row r="300" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="26"/>
+      <c r="B300" s="29"/>
+      <c r="C300" s="17"/>
+      <c r="D300" s="17"/>
+      <c r="E300" s="18"/>
+      <c r="F300" s="18"/>
+      <c r="G300" s="18"/>
+      <c r="H300" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:H298"/>
+  <autoFilter ref="A5:H300"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C93" r:id="rId1"/>
+    <hyperlink ref="C275" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15299,13 +15555,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
+      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -17312,10 +17568,18 @@
       <c r="D96" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
+      <c r="E96" s="56" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F96" s="31">
+        <v>42248</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>1288</v>
+      </c>
       <c r="I96" s="14"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -17324,20 +17588,22 @@
         <v>483</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D97" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="E97" s="12"/>
+        <v>164</v>
+      </c>
+      <c r="D97" s="74" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E97" s="56" t="s">
+        <v>1307</v>
+      </c>
       <c r="F97" s="31">
-        <v>42243</v>
+        <v>42248</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>497</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>495</v>
+        <v>1288</v>
       </c>
       <c r="I97" s="14"/>
     </row>
@@ -17347,10 +17613,10 @@
         <v>484</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="31">
@@ -17360,7 +17626,7 @@
         <v>497</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>968</v>
+        <v>495</v>
       </c>
       <c r="I98" s="14"/>
     </row>
@@ -17370,20 +17636,20 @@
         <v>485</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="31">
-        <v>42244</v>
+        <v>42243</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>497</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
       <c r="I99" s="14"/>
     </row>
@@ -17393,22 +17659,20 @@
         <v>486</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="D100" s="41" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>1150</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D100" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" s="12"/>
       <c r="F100" s="31">
-        <v>42245</v>
+        <v>42244</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>497</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="I100" s="14"/>
     </row>
@@ -17418,13 +17682,13 @@
         <v>487</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E101" s="41" t="s">
-        <v>1151</v>
+        <v>1148</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>1150</v>
       </c>
       <c r="F101" s="31">
         <v>42245</v>
@@ -17443,13 +17707,13 @@
         <v>488</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="D102" s="39" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>1149</v>
+        <v>170</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102" s="41" t="s">
+        <v>1151</v>
       </c>
       <c r="F102" s="31">
         <v>42245</v>
@@ -17468,65 +17732,63 @@
         <v>489</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D103" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="E103" s="12"/>
+        <v>1147</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>1149</v>
+      </c>
       <c r="F103" s="31">
-        <v>42243</v>
+        <v>42245</v>
       </c>
       <c r="G103" s="13" t="s">
         <v>497</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="I103" s="14"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
-        <v>308</v>
-      </c>
+      <c r="A104" s="22"/>
       <c r="B104" s="28" t="s">
         <v>490</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D104" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="E104" s="56" t="s">
-        <v>1287</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E104" s="12"/>
       <c r="F104" s="31">
-        <v>42247</v>
+        <v>42243</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>497</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>1288</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>1289</v>
-      </c>
+        <v>969</v>
+      </c>
+      <c r="I104" s="14"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
+      <c r="A105" s="22" t="s">
+        <v>308</v>
+      </c>
       <c r="B105" s="28" t="s">
         <v>491</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="D105" s="40" t="s">
-        <v>159</v>
+        <v>188</v>
+      </c>
+      <c r="D105" s="39" t="s">
+        <v>276</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="F105" s="31">
         <v>42247</v>
@@ -17537,7 +17799,9 @@
       <c r="H105" s="13" t="s">
         <v>1288</v>
       </c>
-      <c r="I105" s="14"/>
+      <c r="I105" s="14" t="s">
+        <v>1289</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="22"/>
@@ -17545,13 +17809,13 @@
         <v>492</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="D106" s="39" t="s">
-        <v>160</v>
+        <v>189</v>
+      </c>
+      <c r="D106" s="40" t="s">
+        <v>159</v>
       </c>
       <c r="E106" s="56" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F106" s="31">
         <v>42247</v>
@@ -17570,13 +17834,13 @@
         <v>493</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D107" s="39" t="s">
-        <v>1292</v>
+        <v>160</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F107" s="31">
         <v>42247</v>
@@ -17595,13 +17859,13 @@
         <v>494</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E108" s="56" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F108" s="31">
         <v>42247</v>
@@ -17616,15 +17880,19 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="74" t="s">
-        <v>1296</v>
+      <c r="B109" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109" s="39" t="s">
+        <v>1294</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F109" s="77">
+        <v>1295</v>
+      </c>
+      <c r="F109" s="31">
         <v>42247</v>
       </c>
       <c r="G109" s="13" t="s">
@@ -17633,56 +17901,72 @@
       <c r="H109" s="13" t="s">
         <v>1288</v>
       </c>
-      <c r="I109" s="14" t="s">
-        <v>1299</v>
-      </c>
+      <c r="I109" s="14"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
+      <c r="B110" s="28" t="s">
+        <v>971</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D110" s="74" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E110" s="56" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F110" s="77">
+        <v>42247</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>1288</v>
+      </c>
       <c r="I110" s="14" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
       <c r="B111" s="28" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="D111" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="31">
-        <v>42243</v>
+        <v>1314</v>
+      </c>
+      <c r="D111" s="74" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E111" s="56" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F111" s="77">
+        <v>42248</v>
       </c>
       <c r="G111" s="13" t="s">
         <v>497</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>955</v>
-      </c>
-      <c r="I111" s="14"/>
+        <v>1288</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>1300</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
       <c r="B112" s="28" t="s">
-        <v>971</v>
+        <v>1308</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="31">
@@ -17692,20 +17976,20 @@
         <v>497</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>495</v>
+        <v>955</v>
       </c>
       <c r="I112" s="14"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="28" t="s">
-        <v>972</v>
+        <v>1309</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="31">
@@ -17715,19 +17999,31 @@
         <v>497</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>956</v>
+        <v>495</v>
       </c>
       <c r="I113" s="14"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
-      <c r="B114" s="28"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="12"/>
+      <c r="B114" s="28" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>163</v>
+      </c>
       <c r="E114" s="12"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
+      <c r="F114" s="31">
+        <v>42243</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>956</v>
+      </c>
       <c r="I114" s="14"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -17741,7 +18037,7 @@
       <c r="H115" s="13"/>
       <c r="I115" s="14"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="22"/>
       <c r="B116" s="28"/>
       <c r="C116" s="41"/>
@@ -17753,15 +18049,31 @@
       <c r="I116" s="14"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="22"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="14"/>
+      <c r="A117" s="21" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C117" s="78" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F117" s="30">
+        <v>42248</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I117" s="10"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
@@ -17851,16 +18163,16 @@
       <c r="H125" s="13"/>
       <c r="I125" s="14"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="22"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="14"/>
+    <row r="126" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="23"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="22"/>
@@ -17928,19 +18240,27 @@
       <c r="H132" s="13"/>
       <c r="I132" s="14"/>
     </row>
-    <row r="133" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="23"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="19"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C134" s="41"/>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="14"/>
+    </row>
+    <row r="134" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="23"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="19"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C135" s="41"/>
@@ -17968,6 +18288,9 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C143" s="41"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C144" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="460" windowWidth="34880" windowHeight="19460" tabRatio="500"/>
+    <workbookView xWindow="2020" yWindow="460" windowWidth="34880" windowHeight="19460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1326">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -3975,13 +3975,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>卡戎24</t>
-    <rPh sb="0" eb="1">
-      <t>ka'rong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>新资源</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4160,45 +4153,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>zi'yuan</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>和2_chuchang是一个资源，命名错</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ming'ming</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>cuo</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>karong@2_emoxianshen.FBX</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>命名错，应为karong@2_emoxianshen.FBX</t>
-    <rPh sb="0" eb="1">
-      <t>ming'ming</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cuo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ying'wei</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -7197,22 +7151,6 @@
     <t>改切边，外发光缩小</t>
   </si>
   <si>
-    <t>改切边，外发光缩小</t>
-    <rPh sb="0" eb="1">
-      <t>gai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>qie'bian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wai'fa'guang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>suo'xiao</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UI调整：部分对局UI，buff、属性icon重做</t>
     <rPh sb="2" eb="3">
       <t>tiao'zheng</t>
@@ -7825,10 +7763,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>../effects/medusaDead</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>sf</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8137,6 +8071,34 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>dong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../effects/medusaDead</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月07日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做buff icon</t>
+    <rPh sb="0" eb="1">
+      <t>chong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源重做</t>
+  </si>
+  <si>
+    <t>资源重做</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chong'zuo</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -8918,8 +8880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -8998,21 +8960,21 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
+        <v>580</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>582</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>112</v>
@@ -9020,43 +8982,43 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="60" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>528</v>
@@ -9064,32 +9026,32 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>112</v>
@@ -9097,10 +9059,10 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>112</v>
@@ -9108,10 +9070,10 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>112</v>
@@ -9119,10 +9081,10 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>112</v>
@@ -9130,19 +9092,25 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="C26" s="37" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="37" t="s">
         <v>1322</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="C27" s="37" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="37" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
@@ -9203,10 +9171,10 @@
   <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D239" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F252" sqref="F252"/>
+      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -10919,7 +10887,7 @@
         <v>42237</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>8</v>
@@ -10981,7 +10949,7 @@
         <v>547</v>
       </c>
       <c r="D83" s="58" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E83" s="30">
         <v>42240</v>
@@ -10990,7 +10958,7 @@
         <v>297</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H83" s="10"/>
     </row>
@@ -11278,9 +11246,7 @@
       <c r="G96" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H96" s="14" t="s">
-        <v>607</v>
-      </c>
+      <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
@@ -11445,7 +11411,7 @@
         <v>553</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E104" s="31">
         <v>42240</v>
@@ -11471,37 +11437,31 @@
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
       <c r="H105" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="25"/>
-      <c r="B106" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="C106" s="59" t="s">
-        <v>606</v>
-      </c>
+      <c r="B106" s="28"/>
+      <c r="C106" s="59"/>
       <c r="D106" s="12"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="14" t="s">
-        <v>605</v>
-      </c>
+      <c r="H106" s="14"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E107" s="30">
         <v>42240</v>
@@ -11510,20 +11470,20 @@
         <v>297</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H107" s="10"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E108" s="31">
         <v>42240</v>
@@ -11539,13 +11499,13 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
       <c r="B109" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E109" s="31">
         <v>42240</v>
@@ -11561,13 +11521,13 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="B110" s="28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E110" s="31">
         <v>42240</v>
@@ -11583,13 +11543,13 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E111" s="31">
         <v>42240</v>
@@ -11605,13 +11565,13 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E112" s="31">
         <v>42240</v>
@@ -11627,13 +11587,13 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E113" s="31">
         <v>42240</v>
@@ -11649,13 +11609,13 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E114" s="31">
         <v>42240</v>
@@ -11671,13 +11631,13 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E115" s="31">
         <v>42240</v>
@@ -11693,13 +11653,13 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
       <c r="B116" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E116" s="31">
         <v>42240</v>
@@ -11715,13 +11675,13 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
       <c r="B117" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E117" s="31">
         <v>42240</v>
@@ -11737,13 +11697,13 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E118" s="31">
         <v>42240</v>
@@ -11759,13 +11719,13 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E119" s="31">
         <v>42240</v>
@@ -11781,13 +11741,13 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="B120" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E120" s="31">
         <v>42240</v>
@@ -11803,13 +11763,13 @@
     <row r="121" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="26"/>
       <c r="B121" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E121" s="32">
         <v>42240</v>
@@ -11824,16 +11784,16 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="24" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C122" s="58" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E122" s="30">
         <v>42242</v>
@@ -11849,13 +11809,13 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
       <c r="B123" s="28" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D123" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E123" s="31">
         <v>42242</v>
@@ -11871,13 +11831,13 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
       <c r="B124" s="28" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D124" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E124" s="31">
         <v>42242</v>
@@ -11893,13 +11853,13 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
       <c r="B125" s="28" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D125" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E125" s="31">
         <v>42242</v>
@@ -11915,13 +11875,13 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
       <c r="B126" s="28" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D126" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E126" s="31">
         <v>42242</v>
@@ -11937,13 +11897,13 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
       <c r="B127" s="28" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E127" s="31">
         <v>42242</v>
@@ -11959,13 +11919,13 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
       <c r="B128" s="28" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E128" s="31">
         <v>42242</v>
@@ -11981,13 +11941,13 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="B129" s="28" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E129" s="31">
         <v>42242</v>
@@ -12003,13 +11963,13 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
       <c r="B130" s="28" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D130" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E130" s="31">
         <v>42242</v>
@@ -12025,13 +11985,13 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
       <c r="B131" s="28" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D131" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E131" s="31">
         <v>42242</v>
@@ -12047,13 +12007,13 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="28" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D132" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E132" s="31">
         <v>42242</v>
@@ -12069,13 +12029,13 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="28" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E133" s="31">
         <v>42242</v>
@@ -12091,13 +12051,13 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="28" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D134" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E134" s="31">
         <v>42242</v>
@@ -12113,13 +12073,13 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="28" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D135" s="61" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E135" s="31">
         <v>42242</v>
@@ -12135,13 +12095,13 @@
     <row r="136" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="26"/>
       <c r="B136" s="29" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D136" s="64" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E136" s="32">
         <v>42242</v>
@@ -12156,16 +12116,16 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C137" s="56" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E137" s="31">
         <v>42242</v>
@@ -12181,13 +12141,13 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
       <c r="B138" s="28" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D138" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E138" s="31">
         <v>42242</v>
@@ -12203,13 +12163,13 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="B139" s="28" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E139" s="31">
         <v>42242</v>
@@ -12225,13 +12185,13 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="B140" s="28" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D140" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E140" s="31">
         <v>42242</v>
@@ -12247,13 +12207,13 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="B141" s="28" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D141" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E141" s="31">
         <v>42242</v>
@@ -12269,13 +12229,13 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="B142" s="28" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D142" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E142" s="31">
         <v>42242</v>
@@ -12291,13 +12251,13 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="B143" s="28" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D143" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E143" s="31">
         <v>42242</v>
@@ -12313,13 +12273,13 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="25"/>
       <c r="B144" s="28" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D144" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E144" s="31">
         <v>42242</v>
@@ -12335,13 +12295,13 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
       <c r="B145" s="28" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D145" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E145" s="31">
         <v>42242</v>
@@ -12357,13 +12317,13 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="B146" s="28" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D146" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E146" s="31">
         <v>42242</v>
@@ -12379,13 +12339,13 @@
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="B147" s="28" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D147" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E147" s="31">
         <v>42242</v>
@@ -12401,13 +12361,13 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="B148" s="28" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D148" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E148" s="31">
         <v>42242</v>
@@ -12423,13 +12383,13 @@
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="B149" s="28" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D149" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E149" s="31">
         <v>42242</v>
@@ -12445,13 +12405,13 @@
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="B150" s="28" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D150" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E150" s="31">
         <v>42242</v>
@@ -12467,13 +12427,13 @@
     <row r="151" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="25"/>
       <c r="B151" s="28" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D151" s="61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E151" s="31">
         <v>42242</v>
@@ -12488,16 +12448,16 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C152" s="63" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D152" s="65" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E152" s="30">
         <v>42242</v>
@@ -12513,13 +12473,13 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="28" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C153" s="61" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D153" s="62" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E153" s="31">
         <v>42242</v>
@@ -12535,13 +12495,13 @@
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="B154" s="28" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D154" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E154" s="31">
         <v>42242</v>
@@ -12557,13 +12517,13 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="28" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D155" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E155" s="31">
         <v>42242</v>
@@ -12579,13 +12539,13 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="B156" s="28" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D156" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E156" s="31">
         <v>42242</v>
@@ -12601,13 +12561,13 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="B157" s="28" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D157" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E157" s="31">
         <v>42242</v>
@@ -12623,13 +12583,13 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="25"/>
       <c r="B158" s="28" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D158" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E158" s="31">
         <v>42242</v>
@@ -12645,13 +12605,13 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="25"/>
       <c r="B159" s="28" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D159" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E159" s="31">
         <v>42242</v>
@@ -12667,13 +12627,13 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="B160" s="28" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D160" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E160" s="31">
         <v>42242</v>
@@ -12689,13 +12649,13 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="25"/>
       <c r="B161" s="28" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D161" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E161" s="31">
         <v>42242</v>
@@ -12711,13 +12671,13 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="25"/>
       <c r="B162" s="28" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D162" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E162" s="31">
         <v>42242</v>
@@ -12733,13 +12693,13 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="28" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D163" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E163" s="31">
         <v>42242</v>
@@ -12755,13 +12715,13 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="28" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D164" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E164" s="31">
         <v>42242</v>
@@ -12777,13 +12737,13 @@
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="B165" s="28" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D165" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E165" s="31">
         <v>42242</v>
@@ -12799,13 +12759,13 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="25"/>
       <c r="B166" s="28" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D166" s="62" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E166" s="31">
         <v>42242</v>
@@ -12821,13 +12781,13 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="28" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C167" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="D167" s="62" t="s">
         <v>708</v>
-      </c>
-      <c r="D167" s="62" t="s">
-        <v>712</v>
       </c>
       <c r="E167" s="31">
         <v>42242</v>
@@ -12843,13 +12803,13 @@
     <row r="168" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="26"/>
       <c r="B168" s="29" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D168" s="66" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E168" s="32">
         <v>42242</v>
@@ -12864,16 +12824,16 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D169" s="61" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E169" s="31">
         <v>42242</v>
@@ -12889,13 +12849,13 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="28" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D170" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E170" s="31">
         <v>42242</v>
@@ -12911,13 +12871,13 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="28" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D171" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E171" s="31">
         <v>42242</v>
@@ -12933,13 +12893,13 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="28" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D172" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E172" s="31">
         <v>42242</v>
@@ -12955,13 +12915,13 @@
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="28" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D173" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E173" s="31">
         <v>42242</v>
@@ -12977,13 +12937,13 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="28" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D174" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E174" s="31">
         <v>42242</v>
@@ -12999,13 +12959,13 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="28" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D175" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E175" s="31">
         <v>42242</v>
@@ -13021,13 +12981,13 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="28" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D176" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E176" s="31">
         <v>42242</v>
@@ -13043,13 +13003,13 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="28" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D177" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E177" s="31">
         <v>42242</v>
@@ -13065,13 +13025,13 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="28" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D178" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E178" s="31">
         <v>42242</v>
@@ -13087,13 +13047,13 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="28" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D179" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E179" s="31">
         <v>42242</v>
@@ -13109,13 +13069,13 @@
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="28" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D180" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E180" s="31">
         <v>42242</v>
@@ -13131,13 +13091,13 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="28" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C181" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="D181" s="61" t="s">
         <v>743</v>
-      </c>
-      <c r="D181" s="61" t="s">
-        <v>747</v>
       </c>
       <c r="E181" s="31">
         <v>42242</v>
@@ -13153,13 +13113,13 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="28" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D182" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E182" s="31">
         <v>42242</v>
@@ -13175,13 +13135,13 @@
     <row r="183" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="25"/>
       <c r="B183" s="28" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D183" s="61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E183" s="31">
         <v>42242</v>
@@ -13196,16 +13156,16 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="24" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C184" s="58" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D184" s="63" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E184" s="30">
         <v>42242</v>
@@ -13221,13 +13181,13 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="28" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D185" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E185" s="31">
         <v>42242</v>
@@ -13243,13 +13203,13 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="25"/>
       <c r="B186" s="28" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D186" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E186" s="31">
         <v>42242</v>
@@ -13265,13 +13225,13 @@
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
       <c r="B187" s="28" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D187" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E187" s="31">
         <v>42242</v>
@@ -13287,13 +13247,13 @@
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="28" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D188" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E188" s="31">
         <v>42242</v>
@@ -13309,13 +13269,13 @@
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="28" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D189" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E189" s="31">
         <v>42242</v>
@@ -13331,13 +13291,13 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="28" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D190" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E190" s="31">
         <v>42242</v>
@@ -13353,13 +13313,13 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="28" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D191" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E191" s="31">
         <v>42242</v>
@@ -13375,13 +13335,13 @@
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="28" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D192" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E192" s="31">
         <v>42242</v>
@@ -13397,13 +13357,13 @@
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="28" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D193" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E193" s="31">
         <v>42242</v>
@@ -13419,13 +13379,13 @@
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="28" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D194" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E194" s="31">
         <v>42242</v>
@@ -13441,13 +13401,13 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="28" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D195" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E195" s="31">
         <v>42242</v>
@@ -13463,13 +13423,13 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D196" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E196" s="31">
         <v>42242</v>
@@ -13485,13 +13445,13 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="28" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D197" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E197" s="31">
         <v>42242</v>
@@ -13507,13 +13467,13 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C198" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="D198" s="61" t="s">
         <v>792</v>
-      </c>
-      <c r="D198" s="61" t="s">
-        <v>796</v>
       </c>
       <c r="E198" s="31">
         <v>42242</v>
@@ -13529,13 +13489,13 @@
     <row r="199" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="26"/>
       <c r="B199" s="29" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D199" s="64" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E199" s="32">
         <v>42242</v>
@@ -13550,16 +13510,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="24" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D200" s="63" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="E200" s="31">
         <v>42245</v>
@@ -13575,13 +13535,13 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="25"/>
       <c r="B201" s="28" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="D201" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E201" s="31">
         <v>42245</v>
@@ -13597,13 +13557,13 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="25"/>
       <c r="B202" s="28" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="D202" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E202" s="31">
         <v>42245</v>
@@ -13619,13 +13579,13 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="25"/>
       <c r="B203" s="28" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D203" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E203" s="31">
         <v>42245</v>
@@ -13641,13 +13601,13 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="25"/>
       <c r="B204" s="28" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D204" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E204" s="31">
         <v>42245</v>
@@ -13663,13 +13623,13 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="25"/>
       <c r="B205" s="28" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D205" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E205" s="31">
         <v>42245</v>
@@ -13685,13 +13645,13 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="25"/>
       <c r="B206" s="28" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D206" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E206" s="31">
         <v>42245</v>
@@ -13707,13 +13667,13 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="25"/>
       <c r="B207" s="28" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D207" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E207" s="31">
         <v>42245</v>
@@ -13729,13 +13689,13 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="25"/>
       <c r="B208" s="28" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D208" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E208" s="31">
         <v>42245</v>
@@ -13751,13 +13711,13 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="25"/>
       <c r="B209" s="28" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="D209" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E209" s="31">
         <v>42245</v>
@@ -13773,19 +13733,19 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="25"/>
       <c r="B210" s="28" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D210" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E210" s="31">
         <v>42245</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="G210" s="13" t="s">
         <v>8</v>
@@ -13795,13 +13755,13 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="25"/>
       <c r="B211" s="28" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D211" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E211" s="31">
         <v>42245</v>
@@ -13817,13 +13777,13 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="25"/>
       <c r="B212" s="28" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C212" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D212" s="61" t="s">
         <v>1086</v>
-      </c>
-      <c r="D212" s="61" t="s">
-        <v>1090</v>
       </c>
       <c r="E212" s="31">
         <v>42245</v>
@@ -13839,13 +13799,13 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="25"/>
       <c r="B213" s="28" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D213" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E213" s="31">
         <v>42245</v>
@@ -13861,13 +13821,13 @@
     <row r="214" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="26"/>
       <c r="B214" s="29" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D214" s="61" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E214" s="31">
         <v>42245</v>
@@ -13882,16 +13842,16 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="24" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B215" s="27" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C215" s="75" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="D215" s="63" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="E215" s="30">
         <v>42245</v>
@@ -13907,13 +13867,13 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="25"/>
       <c r="B216" s="28" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D216" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E216" s="31">
         <v>42245</v>
@@ -13929,13 +13889,13 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="25"/>
       <c r="B217" s="28" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D217" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E217" s="31">
         <v>42245</v>
@@ -13951,13 +13911,13 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="25"/>
       <c r="B218" s="28" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="D218" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E218" s="31">
         <v>42245</v>
@@ -13973,13 +13933,13 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="25"/>
       <c r="B219" s="28" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D219" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E219" s="31">
         <v>42245</v>
@@ -13995,13 +13955,13 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="25"/>
       <c r="B220" s="28" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D220" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E220" s="31">
         <v>42245</v>
@@ -14017,13 +13977,13 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="25"/>
       <c r="B221" s="28" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D221" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E221" s="31">
         <v>42245</v>
@@ -14039,13 +13999,13 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="25"/>
       <c r="B222" s="28" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D222" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E222" s="31">
         <v>42245</v>
@@ -14061,13 +14021,13 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="25"/>
       <c r="B223" s="28" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D223" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E223" s="31">
         <v>42245</v>
@@ -14083,13 +14043,13 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="25"/>
       <c r="B224" s="28" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D224" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E224" s="31">
         <v>42245</v>
@@ -14105,13 +14065,13 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="25"/>
       <c r="B225" s="28" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D225" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E225" s="31">
         <v>42245</v>
@@ -14127,13 +14087,13 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="25"/>
       <c r="B226" s="28" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="D226" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E226" s="31">
         <v>42245</v>
@@ -14149,13 +14109,13 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="25"/>
       <c r="B227" s="28" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C227" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D227" s="61" t="s">
         <v>1104</v>
-      </c>
-      <c r="D227" s="61" t="s">
-        <v>1108</v>
       </c>
       <c r="E227" s="31">
         <v>42245</v>
@@ -14171,13 +14131,13 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="25"/>
       <c r="B228" s="28" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="D228" s="61" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E228" s="31">
         <v>42245</v>
@@ -14193,13 +14153,13 @@
     <row r="229" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="26"/>
       <c r="B229" s="29" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D229" s="64" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E229" s="32">
         <v>42245</v>
@@ -14214,16 +14174,16 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="24" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B230" s="27" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="D230" s="63" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="E230" s="30">
         <v>42247</v>
@@ -14239,13 +14199,13 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="25"/>
       <c r="B231" s="28" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="D231" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E231" s="31">
         <v>42247</v>
@@ -14261,13 +14221,13 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="25"/>
       <c r="B232" s="28" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="D232" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E232" s="31">
         <v>42247</v>
@@ -14283,13 +14243,13 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="25"/>
       <c r="B233" s="28" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="D233" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E233" s="31">
         <v>42247</v>
@@ -14305,13 +14265,13 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="25"/>
       <c r="B234" s="28" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="D234" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E234" s="31">
         <v>42247</v>
@@ -14327,13 +14287,13 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="25"/>
       <c r="B235" s="28" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="D235" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E235" s="31">
         <v>42247</v>
@@ -14349,13 +14309,13 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="25"/>
       <c r="B236" s="28" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="D236" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E236" s="31">
         <v>42247</v>
@@ -14371,13 +14331,13 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="25"/>
       <c r="B237" s="28" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="D237" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E237" s="31">
         <v>42247</v>
@@ -14393,13 +14353,13 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="25"/>
       <c r="B238" s="28" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="D238" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E238" s="31">
         <v>42247</v>
@@ -14415,13 +14375,13 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="25"/>
       <c r="B239" s="28" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="D239" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E239" s="31">
         <v>42247</v>
@@ -14437,13 +14397,13 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="25"/>
       <c r="B240" s="28" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="D240" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E240" s="31">
         <v>42247</v>
@@ -14459,13 +14419,13 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="25"/>
       <c r="B241" s="28" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="D241" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E241" s="31">
         <v>42247</v>
@@ -14481,13 +14441,13 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="25"/>
       <c r="B242" s="28" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="D242" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E242" s="31">
         <v>42247</v>
@@ -14503,13 +14463,13 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="25"/>
       <c r="B243" s="28" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="D243" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E243" s="31">
         <v>42247</v>
@@ -14525,13 +14485,13 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="25"/>
       <c r="B244" s="28" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="D244" s="61" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E244" s="31">
         <v>42247</v>
@@ -14547,13 +14507,13 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="25"/>
       <c r="B245" s="28" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D245" s="61" t="s">
         <v>1210</v>
-      </c>
-      <c r="C245" s="12" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D245" s="61" t="s">
-        <v>1215</v>
       </c>
       <c r="E245" s="31">
         <v>42247</v>
@@ -14569,13 +14529,13 @@
     <row r="246" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="26"/>
       <c r="B246" s="29" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="D246" s="64" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E246" s="32">
         <v>42247</v>
@@ -14590,16 +14550,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="24" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="B247" s="27" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="D247" s="63" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="E247" s="30">
         <v>42247</v>
@@ -14615,13 +14575,13 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="25"/>
       <c r="B248" s="28" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="D248" s="61" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="E248" s="31">
         <v>42247</v>
@@ -14637,13 +14597,13 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="25"/>
       <c r="B249" s="28" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="D249" s="61" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E249" s="31">
         <v>42247</v>
@@ -14659,13 +14619,13 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="25"/>
       <c r="B250" s="28" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="D250" s="61" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E250" s="31">
         <v>42247</v>
@@ -14681,13 +14641,13 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="25"/>
       <c r="B251" s="28" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="D251" s="61" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E251" s="31">
         <v>42248</v>
@@ -14703,13 +14663,13 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="25"/>
       <c r="B252" s="28" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="D252" s="61" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E252" s="31">
         <v>42247</v>
@@ -14725,13 +14685,13 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="25"/>
       <c r="B253" s="28" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="D253" s="61" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E253" s="31">
         <v>42247</v>
@@ -14747,13 +14707,13 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="25"/>
       <c r="B254" s="28" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="D254" s="61" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E254" s="31">
         <v>42247</v>
@@ -14769,13 +14729,13 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="25"/>
       <c r="B255" s="28" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="D255" s="61" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="E255" s="31">
         <v>42247</v>
@@ -14791,13 +14751,13 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="25"/>
       <c r="B256" s="28" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="D256" s="61" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E256" s="31">
         <v>42247</v>
@@ -14813,13 +14773,13 @@
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="25"/>
       <c r="B257" s="28" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="D257" s="61" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E257" s="31">
         <v>42247</v>
@@ -14835,13 +14795,13 @@
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="25"/>
       <c r="B258" s="28" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D258" s="61" t="s">
         <v>1244</v>
-      </c>
-      <c r="C258" s="12" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D258" s="61" t="s">
-        <v>1249</v>
       </c>
       <c r="E258" s="31">
         <v>42247</v>
@@ -14857,13 +14817,13 @@
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="25"/>
       <c r="B259" s="28" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="D259" s="61" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E259" s="31">
         <v>42247</v>
@@ -14879,13 +14839,13 @@
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="25"/>
       <c r="B260" s="28" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="D260" s="61" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E260" s="31">
         <v>42247</v>
@@ -14901,13 +14861,13 @@
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="25"/>
       <c r="B261" s="28" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="D261" s="61" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E261" s="31">
         <v>42247</v>
@@ -14923,13 +14883,13 @@
     <row r="262" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="26"/>
       <c r="B262" s="29" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="D262" s="64" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E262" s="32">
         <v>42247</v>
@@ -14944,16 +14904,16 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="24" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B263" s="27" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C263" s="58" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="D263" s="63" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="E263" s="30">
         <v>42247</v>
@@ -14969,13 +14929,13 @@
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="25"/>
       <c r="B264" s="28" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="D264" s="61" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="E264" s="31">
         <v>42247</v>
@@ -14991,13 +14951,13 @@
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="25"/>
       <c r="B265" s="28" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="D265" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E265" s="31">
         <v>42247</v>
@@ -15013,13 +14973,13 @@
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="25"/>
       <c r="B266" s="28" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="D266" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E266" s="31">
         <v>42247</v>
@@ -15035,13 +14995,13 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="25"/>
       <c r="B267" s="28" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="D267" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E267" s="31">
         <v>42247</v>
@@ -15057,13 +15017,13 @@
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="25"/>
       <c r="B268" s="28" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="D268" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E268" s="31">
         <v>42247</v>
@@ -15079,13 +15039,13 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="25"/>
       <c r="B269" s="28" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="D269" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E269" s="31">
         <v>42247</v>
@@ -15101,13 +15061,13 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="25"/>
       <c r="B270" s="28" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="D270" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E270" s="31">
         <v>42247</v>
@@ -15123,13 +15083,13 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="25"/>
       <c r="B271" s="28" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="D271" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E271" s="31">
         <v>42247</v>
@@ -15145,13 +15105,13 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="25"/>
       <c r="B272" s="28" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D272" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E272" s="31">
         <v>42247</v>
@@ -15167,13 +15127,13 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="25"/>
       <c r="B273" s="28" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="D273" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E273" s="31">
         <v>42247</v>
@@ -15189,13 +15149,13 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="25"/>
       <c r="B274" s="28" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="D274" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E274" s="31">
         <v>42247</v>
@@ -15211,13 +15171,13 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="25"/>
       <c r="B275" s="28" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="D275" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E275" s="31">
         <v>42248</v>
@@ -15233,13 +15193,13 @@
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="25"/>
       <c r="B276" s="28" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="C276" s="12" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D276" s="61" t="s">
         <v>1278</v>
-      </c>
-      <c r="D276" s="61" t="s">
-        <v>1283</v>
       </c>
       <c r="E276" s="31">
         <v>42247</v>
@@ -15255,13 +15215,13 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="25"/>
       <c r="B277" s="28" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="D277" s="61" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E277" s="31">
         <v>42247</v>
@@ -15277,13 +15237,13 @@
     <row r="278" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="26"/>
       <c r="B278" s="29" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="C278" s="17" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="D278" s="64" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E278" s="32">
         <v>42247</v>
@@ -15558,10 +15518,10 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomRight" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -16974,7 +16934,7 @@
         <v>372</v>
       </c>
       <c r="C69" s="54" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>283</v>
@@ -16996,7 +16956,7 @@
       <c r="B70" s="28"/>
       <c r="C70" s="54"/>
       <c r="D70" s="56" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="31"/>
@@ -17009,7 +16969,7 @@
       <c r="B71" s="28"/>
       <c r="C71" s="54"/>
       <c r="D71" s="56" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="31"/>
@@ -17200,7 +17160,7 @@
         <v>291</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="31">
@@ -17219,16 +17179,16 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="28" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D81" s="56" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>1142</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>1146</v>
       </c>
       <c r="F81" s="31">
         <v>42245</v>
@@ -17237,7 +17197,7 @@
         <v>497</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="I81" s="14"/>
     </row>
@@ -17273,10 +17233,10 @@
         <v>497</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -17298,7 +17258,7 @@
         <v>497</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I84" s="14"/>
     </row>
@@ -17321,7 +17281,7 @@
         <v>497</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="I85" s="14"/>
     </row>
@@ -17334,7 +17294,7 @@
         <v>176</v>
       </c>
       <c r="D86" s="74" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="31">
@@ -17344,7 +17304,7 @@
         <v>497</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="I86" s="14"/>
     </row>
@@ -17380,7 +17340,7 @@
         <v>177</v>
       </c>
       <c r="D88" s="74" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="31">
@@ -17390,7 +17350,7 @@
         <v>497</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="I88" s="14"/>
     </row>
@@ -17413,7 +17373,7 @@
         <v>497</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="I89" s="14"/>
     </row>
@@ -17436,7 +17396,7 @@
         <v>497</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="I90" s="14"/>
     </row>
@@ -17459,7 +17419,7 @@
         <v>497</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="I91" s="14"/>
     </row>
@@ -17482,7 +17442,7 @@
         <v>497</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="I92" s="14"/>
     </row>
@@ -17505,7 +17465,7 @@
         <v>497</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="I93" s="14"/>
     </row>
@@ -17518,7 +17478,7 @@
         <v>186</v>
       </c>
       <c r="D94" s="74" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="31">
@@ -17528,7 +17488,7 @@
         <v>497</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="I94" s="14"/>
     </row>
@@ -17544,7 +17504,7 @@
         <v>154</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="F95" s="31">
         <v>42247</v>
@@ -17553,7 +17513,7 @@
         <v>497</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="I95" s="14"/>
     </row>
@@ -17569,7 +17529,7 @@
         <v>155</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="F96" s="31">
         <v>42248</v>
@@ -17578,7 +17538,7 @@
         <v>497</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="I96" s="14"/>
     </row>
@@ -17591,10 +17551,10 @@
         <v>164</v>
       </c>
       <c r="D97" s="74" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="E97" s="56" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="F97" s="31">
         <v>42248</v>
@@ -17603,7 +17563,7 @@
         <v>497</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="I97" s="14"/>
     </row>
@@ -17649,7 +17609,7 @@
         <v>497</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I99" s="14"/>
     </row>
@@ -17672,7 +17632,7 @@
         <v>497</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="I100" s="14"/>
     </row>
@@ -17685,10 +17645,10 @@
         <v>171</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="F101" s="31">
         <v>42245</v>
@@ -17697,7 +17657,7 @@
         <v>497</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="I101" s="14"/>
     </row>
@@ -17713,7 +17673,7 @@
         <v>169</v>
       </c>
       <c r="E102" s="41" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F102" s="31">
         <v>42245</v>
@@ -17722,7 +17682,7 @@
         <v>497</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="I102" s="14"/>
     </row>
@@ -17735,10 +17695,10 @@
         <v>172</v>
       </c>
       <c r="D103" s="39" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F103" s="31">
         <v>42245</v>
@@ -17747,7 +17707,7 @@
         <v>497</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="I103" s="14"/>
     </row>
@@ -17770,7 +17730,7 @@
         <v>497</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="I104" s="14"/>
     </row>
@@ -17788,7 +17748,7 @@
         <v>276</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>1287</v>
+        <v>1321</v>
       </c>
       <c r="F105" s="31">
         <v>42247</v>
@@ -17797,10 +17757,10 @@
         <v>497</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -17815,7 +17775,7 @@
         <v>159</v>
       </c>
       <c r="E106" s="56" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="F106" s="31">
         <v>42247</v>
@@ -17824,7 +17784,7 @@
         <v>497</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="I106" s="14"/>
     </row>
@@ -17840,7 +17800,7 @@
         <v>160</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="F107" s="31">
         <v>42247</v>
@@ -17849,7 +17809,7 @@
         <v>497</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="I107" s="14"/>
     </row>
@@ -17862,10 +17822,10 @@
         <v>191</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E108" s="56" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="F108" s="31">
         <v>42247</v>
@@ -17874,23 +17834,23 @@
         <v>497</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="I108" s="14"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
       <c r="B109" s="28" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C109" s="41" t="s">
         <v>192</v>
       </c>
       <c r="D109" s="39" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="F109" s="31">
         <v>42247</v>
@@ -17899,23 +17859,23 @@
         <v>497</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="I109" s="14"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
       <c r="B110" s="28" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="D110" s="74" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="E110" s="56" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="F110" s="77">
         <v>42247</v>
@@ -17924,25 +17884,25 @@
         <v>497</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
       <c r="B111" s="28" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="D111" s="74" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="F111" s="77">
         <v>42248</v>
@@ -17951,16 +17911,16 @@
         <v>497</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
       <c r="B112" s="28" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="C112" s="41" t="s">
         <v>193</v>
@@ -17976,14 +17936,14 @@
         <v>497</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="I112" s="14"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="28" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C113" s="41" t="s">
         <v>194</v>
@@ -18006,7 +17966,7 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
       <c r="B114" s="28" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C114" s="41" t="s">
         <v>195</v>
@@ -18022,7 +17982,7 @@
         <v>497</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="I114" s="14"/>
     </row>
@@ -18050,19 +18010,19 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="C117" s="78" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="F117" s="30">
         <v>42248</v>
@@ -18071,7 +18031,7 @@
         <v>497</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="I117" s="10"/>
     </row>
@@ -18319,8 +18279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I115"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -18368,7 +18328,7 @@
         <v>295</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>126</v>
@@ -18397,13 +18357,13 @@
         <v>364</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F8" s="30">
         <v>42242</v>
@@ -18419,16 +18379,16 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="28" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F9" s="31">
         <v>42242</v>
@@ -18444,16 +18404,16 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="28" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F10" s="31">
         <v>42242</v>
@@ -18469,16 +18429,16 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="28" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F11" s="31">
         <v>42242</v>
@@ -18494,16 +18454,16 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="28" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F12" s="31">
         <v>42242</v>
@@ -18519,16 +18479,16 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="28" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F13" s="31">
         <v>42242</v>
@@ -18544,16 +18504,16 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="28" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F14" s="31">
         <v>42242</v>
@@ -18569,16 +18529,16 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="28" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F15" s="31">
         <v>42243</v>
@@ -18594,16 +18554,16 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="28" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F16" s="31">
         <v>42242</v>
@@ -18619,16 +18579,16 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="28" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F17" s="31">
         <v>42242</v>
@@ -18644,16 +18604,16 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="28" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F18" s="31">
         <v>42242</v>
@@ -18669,16 +18629,16 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="28" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F19" s="31">
         <v>42242</v>
@@ -18694,16 +18654,16 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="28" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F20" s="31">
         <v>42242</v>
@@ -18719,22 +18679,22 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="28" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F21" s="31">
         <v>42245</v>
       </c>
       <c r="G21" s="71" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>495</v>
@@ -18744,22 +18704,22 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="28" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F22" s="31">
         <v>42244</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>495</v>
@@ -18769,16 +18729,16 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="28" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F23" s="31">
         <v>42242</v>
@@ -18794,16 +18754,16 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="28" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F24" s="31">
         <v>42242</v>
@@ -18819,16 +18779,16 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="28" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F25" s="31">
         <v>42242</v>
@@ -18844,22 +18804,22 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="28" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F26" s="31">
         <v>42245</v>
       </c>
       <c r="G26" s="71" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>495</v>
@@ -18869,16 +18829,16 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="28" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F27" s="31">
         <v>42242</v>
@@ -18894,16 +18854,16 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="28" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F28" s="31">
         <v>42242</v>
@@ -18919,16 +18879,16 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="28" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F29" s="31">
         <v>42244</v>
@@ -18944,16 +18904,16 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="28" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F30" s="31">
         <v>42242</v>
@@ -18969,16 +18929,16 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="28" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F31" s="31">
         <v>42242</v>
@@ -18994,22 +18954,22 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="28" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F32" s="31">
         <v>42245</v>
       </c>
       <c r="G32" s="71" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>495</v>
@@ -19019,22 +18979,22 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="28" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F33" s="31">
         <v>42245</v>
       </c>
       <c r="G33" s="71" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>495</v>
@@ -19044,16 +19004,16 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="28" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F34" s="31">
         <v>42242</v>
@@ -19069,16 +19029,16 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="28" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F35" s="31">
         <v>42242</v>
@@ -19094,22 +19054,22 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="28" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F36" s="31">
         <v>42244</v>
       </c>
       <c r="G36" s="72" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>495</v>
@@ -19119,66 +19079,66 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="28" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F37" s="31">
         <v>42246</v>
       </c>
       <c r="G37" s="72" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="28" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F38" s="31">
         <v>42246</v>
       </c>
       <c r="G38" s="72" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="28" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F39" s="31">
         <v>42242</v>
@@ -19194,16 +19154,16 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="28" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F40" s="31">
         <v>42242</v>
@@ -19219,16 +19179,16 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="28" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F41" s="31">
         <v>42242</v>
@@ -19244,16 +19204,16 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="28" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F42" s="31">
         <v>42242</v>
@@ -19269,16 +19229,16 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="28" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F43" s="31">
         <v>42243</v>
@@ -19294,16 +19254,16 @@
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="28" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F44" s="31">
         <v>42242</v>
@@ -19319,16 +19279,16 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="28" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F45" s="31">
         <v>42242</v>
@@ -19344,16 +19304,16 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="28" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F46" s="31">
         <v>42242</v>
@@ -19369,20 +19329,20 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="28" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C47" s="67" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="72" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>495</v>
@@ -19392,16 +19352,16 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="28" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C48" s="67" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>841</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>845</v>
       </c>
       <c r="F48" s="31">
         <v>42242</v>
@@ -19417,16 +19377,16 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="28" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F49" s="31">
         <v>42242</v>
@@ -19442,16 +19402,16 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="28" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="F50" s="31">
         <v>42242</v>
@@ -19477,23 +19437,23 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E52" s="56" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="72" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>495</v>
@@ -19503,20 +19463,20 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="28" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E53" s="56" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="72" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>495</v>
@@ -19526,20 +19486,20 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="28" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E54" s="56" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="72" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>495</v>
@@ -19549,20 +19509,20 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="28" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E55" s="56" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="72" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>495</v>
@@ -19572,20 +19532,20 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="28" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E56" s="56" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="72" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>495</v>
@@ -19595,20 +19555,20 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="28" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="72" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>495</v>
@@ -19650,400 +19610,400 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F61" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G61" s="71" t="s">
-        <v>1156</v>
+        <v>1325</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="28" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F62" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G62" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="28" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F63" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G63" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="28" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F64" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G64" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="28" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F65" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G65" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="28" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F66" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G66" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I66" s="14"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="28" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F67" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G67" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="28" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F68" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G68" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I68" s="14"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="28" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F69" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G69" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I69" s="14"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="28" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F70" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G70" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I70" s="14"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="28" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F71" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G71" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I71" s="14"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="28" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F72" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G72" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I72" s="14"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="28" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F73" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G73" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I73" s="14"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="28" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F74" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G74" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I74" s="14"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="28" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F75" s="31">
-        <v>42245</v>
+        <v>42254</v>
       </c>
       <c r="G75" s="71" t="s">
-        <v>1156</v>
+        <v>1324</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I75" s="14"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="28" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C76" s="56" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F76" s="31">
         <v>42245</v>
       </c>
       <c r="G76" s="76" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>495</v>
@@ -20053,16 +20013,16 @@
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="28" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C77" s="56" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F77" s="31">
         <v>42242</v>
@@ -20078,22 +20038,22 @@
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="28" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C78" s="56" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F78" s="31">
         <v>42245</v>
       </c>
       <c r="G78" s="76" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>495</v>
@@ -20103,16 +20063,16 @@
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="28" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C79" s="56" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F79" s="31">
         <v>42242</v>
@@ -20128,16 +20088,16 @@
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="28" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C80" s="56" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F80" s="31">
         <v>42242</v>
@@ -20155,10 +20115,10 @@
       <c r="B81" s="28"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F81" s="31">
         <v>42242</v>
@@ -20207,16 +20167,16 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="28" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F85" s="31">
         <v>42245</v>
@@ -20232,16 +20192,16 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="28" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F86" s="31">
         <v>42245</v>
@@ -20257,16 +20217,16 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="28" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F87" s="31">
         <v>42245</v>
@@ -20282,16 +20242,16 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="28" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C88" s="56" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F88" s="31">
         <v>42245</v>
@@ -20307,16 +20267,16 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="28" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F89" s="31">
         <v>42245</v>
@@ -20332,16 +20292,16 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="28" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C90" s="56" t="s">
         <v>69</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F90" s="31">
         <v>42245</v>
@@ -20357,16 +20317,16 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="28" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C91" s="56" t="s">
         <v>529</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F91" s="31">
         <v>42245</v>
@@ -20382,16 +20342,16 @@
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="28" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C92" s="56" t="s">
         <v>44</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F92" s="31">
         <v>42245</v>
@@ -20407,16 +20367,16 @@
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="28" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F93" s="31">
         <v>42245</v>
@@ -20432,16 +20392,16 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="28" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C94" s="56" t="s">
         <v>87</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F94" s="31">
         <v>42245</v>
@@ -20457,16 +20417,16 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="28" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C95" s="56" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F95" s="31">
         <v>42245</v>
@@ -20482,16 +20442,16 @@
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="28" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C96" s="56" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F96" s="31">
         <v>42245</v>
@@ -20507,16 +20467,16 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="28" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C97" s="56" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F97" s="31">
         <v>42245</v>
@@ -20532,16 +20492,16 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="28" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C98" s="56" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F98" s="31">
         <v>42245</v>
@@ -20557,16 +20517,16 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="28" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C99" s="56" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F99" s="31">
         <v>42245</v>
@@ -20582,16 +20542,16 @@
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="28" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C100" s="56" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F100" s="31">
         <v>42245</v>
@@ -20607,16 +20567,16 @@
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="28" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C101" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F101" s="31">
         <v>42245</v>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="460" windowWidth="34880" windowHeight="19460" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="2020" yWindow="460" windowWidth="34880" windowHeight="19460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1332">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -8100,6 +8100,51 @@
     <rPh sb="2" eb="3">
       <t>chong'zuo</t>
     </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../effects/bd_wulijianmian</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>../effects//bd_mofajianmian</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改表现</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao'xian</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月09日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做物理、魔法减免护盾</t>
+    <rPh sb="0" eb="1">
+      <t>chong'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo'fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jian'mian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hu'dun</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8878,10 +8923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D35"/>
+  <dimension ref="B2:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -9113,9 +9158,15 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="60" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
@@ -9151,6 +9202,46 @@
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15518,10 +15609,10 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I80" sqref="I80"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -17116,15 +17207,17 @@
       <c r="D78" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="E78" s="12"/>
+      <c r="E78" s="12" t="s">
+        <v>1326</v>
+      </c>
       <c r="F78" s="31">
-        <v>42240</v>
+        <v>42256</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>497</v>
+        <v>1328</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>495</v>
+        <v>951</v>
       </c>
       <c r="I78" s="14"/>
     </row>
@@ -17139,12 +17232,14 @@
       <c r="D79" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E79" s="12"/>
+      <c r="E79" s="12" t="s">
+        <v>1327</v>
+      </c>
       <c r="F79" s="31">
-        <v>42240</v>
+        <v>42256</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>497</v>
+        <v>1328</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>495</v>
@@ -18279,7 +18374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/cms/ms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="1597">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -10306,6 +10306,500 @@
     <t>黑（卡戎 Charon）</t>
     <rPh sb="2" eb="3">
       <t>ka'rong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>monstericon_boss.png</t>
+  </si>
+  <si>
+    <t>monstericon_friend.png</t>
+  </si>
+  <si>
+    <t>suipian_1.png</t>
+  </si>
+  <si>
+    <t>suipian_2.png</t>
+  </si>
+  <si>
+    <t>suipian_3.png</t>
+  </si>
+  <si>
+    <t>suipian_4.png</t>
+  </si>
+  <si>
+    <t>suipian_5.png</t>
+  </si>
+  <si>
+    <t>suipian_6.png</t>
+  </si>
+  <si>
+    <t>anniu_guanbi_2.png</t>
+  </si>
+  <si>
+    <t>IM界面1</t>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_ditu.png</t>
+  </si>
+  <si>
+    <t>im_ditu_2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_fengexian.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_qipao.png</t>
+  </si>
+  <si>
+    <t>im_xitongtishiditu.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liebiao2_ditu2_waifaguang.png</t>
+  </si>
+  <si>
+    <t>im_zoumadengditu.png</t>
+  </si>
+  <si>
+    <t>chongwu_wuxing_ditu.png</t>
+  </si>
+  <si>
+    <t>chongwu_zhuangbeizhezhao.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片边框1</t>
+    <rPh sb="0" eb="1">
+      <t>sui'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片边框2</t>
+    <rPh sb="0" eb="1">
+      <t>sui'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片边框3</t>
+    <rPh sb="0" eb="1">
+      <t>sui'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片边框4</t>
+    <rPh sb="0" eb="1">
+      <t>sui'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片边框5</t>
+    <rPh sb="0" eb="1">
+      <t>sui'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片边框6</t>
+    <rPh sb="0" eb="1">
+      <t>sui'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物boss标记</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物好友标记</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao'you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物7</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物8</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物9</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物10</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物11</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物12</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物13</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物14</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM界面2</t>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM界面3</t>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM界面4</t>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM界面5</t>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM界面6</t>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM界面7</t>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物列表五行底图</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物_宠物属性装备遮罩</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhe'zhao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源样式变更</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yang'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bian'geng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表样式2_小框选中</t>
+    <rPh sb="0" eb="1">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yang'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'kuang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xuan'zhong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面50</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面51</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面52</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM_弹出界面关闭按钮</t>
+    <rPh sb="3" eb="4">
+      <t>tan'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan'bi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM_底图1</t>
+    <rPh sb="3" eb="4">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM_底图2</t>
+    <rPh sb="3" eb="4">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM_底图分割线</t>
+    <rPh sb="3" eb="4">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen'ge'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM_气泡</t>
+    <rPh sb="3" eb="4">
+      <t>qi'pao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM_系统提示底图</t>
+    <rPh sb="3" eb="4">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM_走马灯底图</t>
+    <rPh sb="3" eb="4">
+      <t>zou'ma'deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM界面</t>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月23日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：
+宠物界面：五行底图，宠物装备遮罩，列表选中发光
+提交：碎片icon边框，宠物icon上boss、好友标记
+新提交IM UI切图 7个</t>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wu'xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhe'zhao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xuan'zhong</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>fa'guang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>sui'p</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>bian'k</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>hao'you</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>biao'ji</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>xin'ti'jiao</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>qie'tu</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>g</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -10658,7 +11152,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10675,6 +11169,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10941,7 +11436,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -10956,6 +11451,7 @@
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="10"/>
     <cellStyle name="常规 4" xfId="11"/>
@@ -11250,7 +11746,7 @@
   <dimension ref="B2:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -11601,10 +12097,16 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+    <row r="40" spans="2:4" ht="68" x14ac:dyDescent="0.25">
+      <c r="B40" s="36" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C40" s="98" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="36"/>
@@ -20773,13 +21275,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J170"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A2:J192"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H132" sqref="H132"/>
+      <selection pane="bottomRight" activeCell="E104" sqref="E104:E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -20851,8 +21354,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f>ROW($A7)-6</f>
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -20881,8 +21385,9 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" ref="A8:A71" si="0">ROW($A8)-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="11"/>
@@ -20909,8 +21414,9 @@
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="11"/>
@@ -20937,8 +21443,9 @@
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="11"/>
@@ -20965,8 +21472,9 @@
       </c>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="11"/>
@@ -20993,8 +21501,9 @@
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="11"/>
@@ -21021,8 +21530,9 @@
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -21049,8 +21559,9 @@
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="11"/>
@@ -21077,8 +21588,9 @@
       </c>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -21105,8 +21617,9 @@
       </c>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B16" s="11"/>
@@ -21133,8 +21646,9 @@
       </c>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B17" s="11"/>
@@ -21161,8 +21675,9 @@
       </c>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B18" s="11"/>
@@ -21189,8 +21704,9 @@
       </c>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B19" s="11"/>
@@ -21217,8 +21733,9 @@
       </c>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B20" s="11"/>
@@ -21245,8 +21762,9 @@
       </c>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B21" s="11"/>
@@ -21273,8 +21791,9 @@
       </c>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B22" s="11"/>
@@ -21301,8 +21820,9 @@
       </c>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B23" s="11"/>
@@ -21329,8 +21849,9 @@
       </c>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B24" s="11"/>
@@ -21357,8 +21878,9 @@
       </c>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B25" s="11"/>
@@ -21385,8 +21907,9 @@
       </c>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B26" s="11"/>
@@ -21413,8 +21936,9 @@
       </c>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B27" s="11"/>
@@ -21441,8 +21965,9 @@
       </c>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B28" s="11"/>
@@ -21469,8 +21994,9 @@
       </c>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B29" s="11"/>
@@ -21497,8 +22023,9 @@
       </c>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B30" s="11"/>
@@ -21525,8 +22052,9 @@
       </c>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B31" s="11"/>
@@ -21553,8 +22081,9 @@
       </c>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B32" s="11"/>
@@ -21581,8 +22110,9 @@
       </c>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B33" s="11"/>
@@ -21609,8 +22139,9 @@
       </c>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B34" s="11"/>
@@ -21637,8 +22168,9 @@
       </c>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B35" s="11"/>
@@ -21665,8 +22197,9 @@
       </c>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B36" s="11"/>
@@ -21693,8 +22226,9 @@
       </c>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B37" s="11"/>
@@ -21721,8 +22255,9 @@
       </c>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B38" s="11"/>
@@ -21749,8 +22284,9 @@
       </c>
       <c r="J38" s="14"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B39" s="11"/>
@@ -21777,8 +22313,9 @@
       </c>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B40" s="11"/>
@@ -21805,8 +22342,9 @@
       </c>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B41" s="11"/>
@@ -21833,8 +22371,9 @@
       </c>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B42" s="11"/>
@@ -21861,8 +22400,9 @@
       </c>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B43" s="11"/>
@@ -21889,8 +22429,9 @@
       </c>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B44" s="11"/>
@@ -21917,8 +22458,9 @@
       </c>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B45" s="11"/>
@@ -21945,8 +22487,9 @@
       </c>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B46" s="11"/>
@@ -21973,8 +22516,9 @@
       </c>
       <c r="J46" s="14"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B47" s="11"/>
@@ -22001,8 +22545,9 @@
       </c>
       <c r="J47" s="14"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B48" s="11"/>
@@ -22029,8 +22574,9 @@
       </c>
       <c r="J48" s="14"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B49" s="11"/>
@@ -22059,6 +22605,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B50" s="11"/>
@@ -22071,8 +22618,9 @@
       <c r="I50" s="13"/>
       <c r="J50" s="14"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -22101,8 +22649,9 @@
       </c>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B52" s="11"/>
@@ -22129,8 +22678,9 @@
       </c>
       <c r="J52" s="14"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B53" s="11"/>
@@ -22157,8 +22707,9 @@
       </c>
       <c r="J53" s="14"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B54" s="11"/>
@@ -22185,8 +22736,9 @@
       </c>
       <c r="J54" s="14"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B55" s="11"/>
@@ -22213,8 +22765,9 @@
       </c>
       <c r="J55" s="14"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B56" s="11"/>
@@ -22241,8 +22794,9 @@
       </c>
       <c r="J56" s="14"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B57" s="11"/>
@@ -22269,8 +22823,9 @@
       </c>
       <c r="J57" s="14"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B58" s="11"/>
@@ -22297,8 +22852,9 @@
       </c>
       <c r="J58" s="14"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B59" s="11"/>
@@ -22325,8 +22881,9 @@
       </c>
       <c r="J59" s="14"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B60" s="11"/>
@@ -22353,8 +22910,9 @@
       </c>
       <c r="J60" s="14"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B61" s="11"/>
@@ -22381,8 +22939,9 @@
       </c>
       <c r="J61" s="14"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B62" s="11"/>
@@ -22409,8 +22968,9 @@
       </c>
       <c r="J62" s="14"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B63" s="11"/>
@@ -22437,8 +22997,9 @@
       </c>
       <c r="J63" s="14"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B64" s="11"/>
@@ -22465,8 +23026,9 @@
       </c>
       <c r="J64" s="14"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B65" s="11"/>
@@ -22493,8 +23055,9 @@
       </c>
       <c r="J65" s="14"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B66" s="11"/>
@@ -22521,8 +23084,9 @@
       </c>
       <c r="J66" s="14"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B67" s="11"/>
@@ -22549,8 +23113,9 @@
       </c>
       <c r="J67" s="14"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B68" s="11"/>
@@ -22577,8 +23142,9 @@
       </c>
       <c r="J68" s="14"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B69" s="11"/>
@@ -22605,8 +23171,9 @@
       </c>
       <c r="J69" s="14"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B70" s="11"/>
@@ -22633,8 +23200,9 @@
       </c>
       <c r="J70" s="14"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B71" s="11"/>
@@ -22661,8 +23229,9 @@
       </c>
       <c r="J71" s="14"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
+        <f t="shared" ref="A72:A135" si="1">ROW($A72)-6</f>
         <v>66</v>
       </c>
       <c r="B72" s="11"/>
@@ -22689,8 +23258,9 @@
       </c>
       <c r="J72" s="14"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B73" s="11"/>
@@ -22717,8 +23287,9 @@
       </c>
       <c r="J73" s="14"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B74" s="11"/>
@@ -22745,8 +23316,9 @@
       </c>
       <c r="J74" s="14"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B75" s="11"/>
@@ -22773,8 +23345,9 @@
       </c>
       <c r="J75" s="14"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B76" s="11"/>
@@ -22801,8 +23374,9 @@
       </c>
       <c r="J76" s="14"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B77" s="11"/>
@@ -22829,8 +23403,9 @@
       </c>
       <c r="J77" s="14"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B78" s="11"/>
@@ -22857,8 +23432,9 @@
       </c>
       <c r="J78" s="14"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B79" s="11"/>
@@ -22885,8 +23461,9 @@
       </c>
       <c r="J79" s="14"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B80" s="11"/>
@@ -22913,8 +23490,9 @@
       </c>
       <c r="J80" s="14"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B81" s="11"/>
@@ -22941,8 +23519,9 @@
       </c>
       <c r="J81" s="14"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B82" s="11"/>
@@ -22969,8 +23548,9 @@
       </c>
       <c r="J82" s="14"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B83" s="11"/>
@@ -22997,8 +23577,9 @@
       </c>
       <c r="J83" s="14"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B84" s="11"/>
@@ -23025,8 +23606,9 @@
       </c>
       <c r="J84" s="14"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B85" s="11"/>
@@ -23053,8 +23635,9 @@
       </c>
       <c r="J85" s="14"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B86" s="11"/>
@@ -23081,8 +23664,9 @@
       </c>
       <c r="J86" s="14"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B87" s="11"/>
@@ -23111,34 +23695,36 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="28" t="s">
         <v>1508</v>
       </c>
-      <c r="D88" s="113" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>1473</v>
+      <c r="D88" s="65" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E88" s="55" t="s">
+        <v>1554</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G88" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H88" s="69" t="s">
-        <v>1524</v>
+        <v>42270</v>
+      </c>
+      <c r="H88" s="70" t="s">
+        <v>1469</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J88" s="14"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B89" s="11"/>
@@ -23146,10 +23732,10 @@
         <v>1509</v>
       </c>
       <c r="D89" s="113" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>684</v>
@@ -23165,28 +23751,29 @@
       </c>
       <c r="J89" s="14"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="28" t="s">
         <v>1510</v>
       </c>
-      <c r="D90" s="65" t="s">
-        <v>1501</v>
+      <c r="D90" s="113" t="s">
+        <v>1488</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>1500</v>
+        <v>1474</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G90" s="31">
-        <v>42266</v>
+        <v>42268</v>
       </c>
       <c r="H90" s="69" t="s">
-        <v>235</v>
+        <v>1524</v>
       </c>
       <c r="I90" s="13" t="s">
         <v>431</v>
@@ -23195,34 +23782,36 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="28" t="s">
         <v>1511</v>
       </c>
-      <c r="D91" s="65" t="s">
-        <v>1502</v>
+      <c r="D91" s="113" t="s">
+        <v>1581</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>1475</v>
+        <v>1557</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G91" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H91" s="69" t="s">
-        <v>235</v>
+        <v>42270</v>
+      </c>
+      <c r="H91" s="70" t="s">
+        <v>1582</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J91" s="14"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B92" s="11"/>
@@ -23230,27 +23819,28 @@
         <v>1512</v>
       </c>
       <c r="D92" s="65" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>1476</v>
+        <v>1500</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G92" s="31">
-        <v>42268</v>
+        <v>42266</v>
       </c>
       <c r="H92" s="69" t="s">
-        <v>1522</v>
+        <v>235</v>
       </c>
       <c r="I92" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J92" s="14"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B93" s="11"/>
@@ -23258,10 +23848,10 @@
         <v>1513</v>
       </c>
       <c r="D93" s="65" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>684</v>
@@ -23277,8 +23867,9 @@
       </c>
       <c r="J93" s="14"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B94" s="11"/>
@@ -23286,27 +23877,28 @@
         <v>1514</v>
       </c>
       <c r="D94" s="65" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G94" s="31">
-        <v>42266</v>
+        <v>42268</v>
       </c>
       <c r="H94" s="69" t="s">
-        <v>235</v>
+        <v>1522</v>
       </c>
       <c r="I94" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J94" s="14"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B95" s="11"/>
@@ -23314,10 +23906,10 @@
         <v>1515</v>
       </c>
       <c r="D95" s="65" t="s">
-        <v>1497</v>
+        <v>1504</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>684</v>
@@ -23333,8 +23925,9 @@
       </c>
       <c r="J95" s="14"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B96" s="11"/>
@@ -23342,10 +23935,10 @@
         <v>1516</v>
       </c>
       <c r="D96" s="65" t="s">
-        <v>1499</v>
+        <v>1505</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>684</v>
@@ -23361,8 +23954,9 @@
       </c>
       <c r="J96" s="14"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B97" s="11"/>
@@ -23370,10 +23964,10 @@
         <v>1517</v>
       </c>
       <c r="D97" s="65" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>684</v>
@@ -23389,8 +23983,9 @@
       </c>
       <c r="J97" s="14"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B98" s="11"/>
@@ -23398,10 +23993,10 @@
         <v>1518</v>
       </c>
       <c r="D98" s="65" t="s">
-        <v>1483</v>
+        <v>1499</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>684</v>
@@ -23417,8 +24012,9 @@
       </c>
       <c r="J98" s="14"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B99" s="11"/>
@@ -23426,869 +24022,879 @@
         <v>1526</v>
       </c>
       <c r="D99" s="65" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E99" s="55" t="s">
-        <v>1523</v>
+        <v>1498</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>1481</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G99" s="31">
-        <v>42268</v>
+        <v>42266</v>
       </c>
       <c r="H99" s="69" t="s">
         <v>235</v>
       </c>
       <c r="I99" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="J99" s="14"/>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="28" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D100" s="65" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G100" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H100" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="J100" s="14"/>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="28" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D101" s="65" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E101" s="55" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G101" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H101" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="I101" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>94</v>
-      </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="69"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="14"/>
-    </row>
-    <row r="101" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>95</v>
-      </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="71"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="19"/>
+      <c r="J101" s="14"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>784</v>
-      </c>
+      <c r="B102" s="11"/>
       <c r="C102" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F102" s="55" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D102" s="65" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E102" s="55" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F102" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="G102" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H102" s="70" t="s">
-        <v>1470</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>431</v>
+      <c r="G102" s="75">
+        <v>42269</v>
+      </c>
+      <c r="H102" s="74" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I102" s="114" t="s">
+        <v>1519</v>
       </c>
       <c r="J102" s="14"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B103" s="11"/>
-      <c r="C103" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="F103" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G103" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H103" s="70" t="s">
-        <v>1469</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C103" s="28"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="13"/>
       <c r="J103" s="14"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B104" s="11"/>
+      <c r="B104" s="11" t="s">
+        <v>1594</v>
+      </c>
       <c r="C104" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>705</v>
+        <v>1548</v>
+      </c>
+      <c r="D104" s="65" t="s">
+        <v>1587</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F104" s="55" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F104" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G104" s="31">
-        <v>42266</v>
+        <v>42270</v>
       </c>
       <c r="H104" s="70" t="s">
         <v>1469</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J104" s="14"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F105" s="55" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D105" s="65" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E105" s="55" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F105" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G105" s="31">
-        <v>42266</v>
+        <v>42270</v>
       </c>
       <c r="H105" s="70" t="s">
         <v>1469</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J105" s="14"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="F106" s="55" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D106" s="65" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E106" s="55" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F106" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G106" s="31">
-        <v>42266</v>
+        <v>42270</v>
       </c>
       <c r="H106" s="70" t="s">
         <v>1469</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J106" s="14"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="28" t="s">
-        <v>769</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="F107" s="55" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D107" s="65" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E107" s="55" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F107" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G107" s="31">
-        <v>42266</v>
+        <v>42270</v>
       </c>
       <c r="H107" s="70" t="s">
         <v>1469</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J107" s="14"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B108" s="11"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="69"/>
-      <c r="I108" s="12"/>
+      <c r="C108" s="28" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D108" s="65" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E108" s="55" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G108" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H108" s="70" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J108" s="14"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="69"/>
-      <c r="I109" s="12"/>
+      <c r="C109" s="28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D109" s="65" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E109" s="55" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G109" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H109" s="70" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J109" s="14"/>
     </row>
-    <row r="110" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="19"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="11"/>
+      <c r="C110" s="28" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D110" s="65" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G110" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H110" s="70" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="14"/>
+    </row>
+    <row r="111" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G111" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H111" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I111" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J111" s="14"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="16"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="71"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="19"/>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B112" s="11"/>
+      <c r="B112" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C112" s="28" t="s">
-        <v>844</v>
+        <v>764</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>787</v>
+        <v>703</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>1350</v>
+        <v>656</v>
+      </c>
+      <c r="F112" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G112" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H112" s="70" t="s">
-        <v>1347</v>
+        <v>1470</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J112" s="14"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="28" t="s">
-        <v>845</v>
+        <v>765</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>788</v>
+        <v>704</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>1350</v>
+        <v>657</v>
+      </c>
+      <c r="F113" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G113" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H113" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J113" s="14"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="28" t="s">
-        <v>846</v>
+        <v>766</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>789</v>
+        <v>705</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>1350</v>
+        <v>658</v>
+      </c>
+      <c r="F114" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G114" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H114" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J114" s="14"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="28" t="s">
-        <v>847</v>
+        <v>767</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>1350</v>
+        <v>659</v>
+      </c>
+      <c r="F115" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G115" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H115" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J115" s="14"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="28" t="s">
-        <v>848</v>
+        <v>768</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>842</v>
+        <v>707</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>1350</v>
+        <v>660</v>
+      </c>
+      <c r="F116" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G116" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H116" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J116" s="14"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="28" t="s">
-        <v>849</v>
+        <v>769</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>832</v>
+        <v>708</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>822</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>1350</v>
+        <v>661</v>
+      </c>
+      <c r="F117" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G117" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H117" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J117" s="14"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="28" t="s">
-        <v>850</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>833</v>
+        <v>1566</v>
+      </c>
+      <c r="D118" s="55" t="s">
+        <v>1564</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>823</v>
+        <v>1539</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>1350</v>
+        <v>684</v>
       </c>
       <c r="G118" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H118" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J118" s="14"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="28" t="s">
-        <v>851</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>834</v>
+        <v>1567</v>
+      </c>
+      <c r="D119" s="55" t="s">
+        <v>1565</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>824</v>
+        <v>1540</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>1350</v>
+        <v>684</v>
       </c>
       <c r="G119" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H119" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J119" s="14"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="28" t="s">
-        <v>852</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>835</v>
+        <v>1568</v>
+      </c>
+      <c r="D120" s="55" t="s">
+        <v>1558</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>825</v>
+        <v>1541</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>1350</v>
+        <v>684</v>
       </c>
       <c r="G120" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H120" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J120" s="14"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B121" s="11"/>
       <c r="C121" s="28" t="s">
-        <v>853</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>836</v>
+        <v>1569</v>
+      </c>
+      <c r="D121" s="55" t="s">
+        <v>1559</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>826</v>
+        <v>1542</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>1350</v>
+        <v>684</v>
       </c>
       <c r="G121" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H121" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J121" s="14"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="28" t="s">
-        <v>854</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>837</v>
+        <v>1570</v>
+      </c>
+      <c r="D122" s="55" t="s">
+        <v>1560</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>827</v>
+        <v>1543</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>1350</v>
+        <v>684</v>
       </c>
       <c r="G122" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H122" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J122" s="14"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="28" t="s">
-        <v>855</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>838</v>
+        <v>1571</v>
+      </c>
+      <c r="D123" s="55" t="s">
+        <v>1561</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>828</v>
+        <v>1544</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>1350</v>
+        <v>684</v>
       </c>
       <c r="G123" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H123" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J123" s="14"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="28" t="s">
-        <v>856</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>839</v>
+        <v>1572</v>
+      </c>
+      <c r="D124" s="55" t="s">
+        <v>1562</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>829</v>
+        <v>1545</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>1350</v>
+        <v>684</v>
       </c>
       <c r="G124" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H124" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J124" s="14"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="28" t="s">
-        <v>857</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>840</v>
+        <v>1573</v>
+      </c>
+      <c r="D125" s="55" t="s">
+        <v>1563</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>830</v>
+        <v>1546</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>1350</v>
+        <v>684</v>
       </c>
       <c r="G125" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H125" s="70" t="s">
-        <v>1347</v>
+        <v>1469</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J125" s="14"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B126" s="11"/>
-      <c r="C126" s="28"/>
+      <c r="C126" s="22"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="31"/>
-      <c r="H126" s="70"/>
-      <c r="I126" s="13"/>
+      <c r="H126" s="69"/>
+      <c r="I126" s="12"/>
       <c r="J126" s="14"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B127" s="11"/>
-      <c r="C127" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D127" s="55" t="s">
-        <v>858</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>1530</v>
-      </c>
-      <c r="G127" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H127" s="74" t="s">
-        <v>1532</v>
-      </c>
-      <c r="I127" s="13" t="s">
-        <v>1531</v>
-      </c>
+      <c r="C127" s="22"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="69"/>
+      <c r="I127" s="12"/>
       <c r="J127" s="14"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B128" s="11"/>
-      <c r="C128" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="D128" s="55" t="s">
-        <v>859</v>
-      </c>
-      <c r="E128" s="12" t="s">
-        <v>773</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>1530</v>
-      </c>
-      <c r="G128" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H128" s="74" t="s">
-        <v>1532</v>
-      </c>
-      <c r="I128" s="13" t="s">
-        <v>1531</v>
-      </c>
+      <c r="C128" s="22"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="69"/>
+      <c r="I128" s="12"/>
       <c r="J128" s="14"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B129" s="11"/>
-      <c r="C129" s="28" t="s">
-        <v>781</v>
-      </c>
-      <c r="D129" s="55" t="s">
-        <v>860</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>1530</v>
-      </c>
-      <c r="G129" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H129" s="74" t="s">
-        <v>1532</v>
-      </c>
-      <c r="I129" s="13" t="s">
-        <v>1531</v>
-      </c>
+      <c r="C129" s="22"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="12"/>
       <c r="J129" s="14"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B130" s="11"/>
-      <c r="C130" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="D130" s="55" t="s">
-        <v>861</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>1530</v>
-      </c>
-      <c r="G130" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H130" s="74" t="s">
-        <v>1532</v>
-      </c>
-      <c r="I130" s="13" t="s">
-        <v>1531</v>
-      </c>
+      <c r="C130" s="22"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="69"/>
+      <c r="I130" s="12"/>
       <c r="J130" s="14"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B131" s="11"/>
-      <c r="C131" s="28" t="s">
-        <v>783</v>
-      </c>
-      <c r="D131" s="55" t="s">
-        <v>862</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>1530</v>
-      </c>
-      <c r="G131" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H131" s="74" t="s">
-        <v>1532</v>
-      </c>
-      <c r="I131" s="13" t="s">
-        <v>1531</v>
-      </c>
+      <c r="C131" s="22"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="69"/>
+      <c r="I131" s="12"/>
       <c r="J131" s="14"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="70"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="14"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="16"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="19"/>
+    </row>
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="55" t="s">
-        <v>1352</v>
+      <c r="B133" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>841</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>777</v>
+        <v>816</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G133" s="31">
         <v>42265</v>
@@ -24301,148 +24907,197 @@
       </c>
       <c r="J133" s="14"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="28" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D134" s="55" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E134" s="55" t="s">
-        <v>1460</v>
+        <v>844</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>817</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G134" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H134" s="70" t="s">
-        <v>235</v>
+        <v>1347</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J134" s="14"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="28" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D135" s="55" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E135" s="55" t="s">
-        <v>1461</v>
+        <v>845</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>818</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G135" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H135" s="70" t="s">
-        <v>235</v>
+        <v>1347</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J135" s="14"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
+        <f t="shared" ref="A136:A188" si="2">ROW($A136)-6</f>
         <v>130</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="28" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D136" s="55" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E136" s="55" t="s">
-        <v>1462</v>
+        <v>846</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>819</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G136" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H136" s="70" t="s">
-        <v>235</v>
+        <v>1347</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J136" s="14"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B137" s="11"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="55"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="70"/>
-      <c r="I137" s="13"/>
+      <c r="C137" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G137" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H137" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J137" s="14"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B138" s="11"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="55"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="70"/>
-      <c r="I138" s="13"/>
+      <c r="C138" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G138" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H138" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J138" s="14"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B139" s="11"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="55"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="70"/>
-      <c r="I139" s="13"/>
+      <c r="C139" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G139" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H139" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I139" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J139" s="14"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="28" t="s">
-        <v>892</v>
+        <v>850</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>885</v>
+        <v>833</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>868</v>
+        <v>823</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G140" s="31">
         <v>42265</v>
@@ -24455,22 +25110,23 @@
       </c>
       <c r="J140" s="14"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="28" t="s">
-        <v>893</v>
+        <v>851</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>547</v>
+        <v>834</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>869</v>
+        <v>824</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G141" s="31">
         <v>42265</v>
@@ -24483,22 +25139,23 @@
       </c>
       <c r="J141" s="14"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="28" t="s">
-        <v>894</v>
+        <v>852</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>566</v>
+        <v>835</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>870</v>
+        <v>825</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G142" s="31">
         <v>42265</v>
@@ -24511,22 +25168,23 @@
       </c>
       <c r="J142" s="14"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="28" t="s">
-        <v>895</v>
-      </c>
-      <c r="D143" s="55" t="s">
-        <v>501</v>
+        <v>853</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>836</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>871</v>
+        <v>826</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G143" s="31">
         <v>42265</v>
@@ -24539,22 +25197,23 @@
       </c>
       <c r="J143" s="14"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="28" t="s">
-        <v>896</v>
-      </c>
-      <c r="D144" s="55" t="s">
-        <v>886</v>
+        <v>854</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>837</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>872</v>
+        <v>827</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G144" s="31">
         <v>42265</v>
@@ -24567,22 +25226,23 @@
       </c>
       <c r="J144" s="14"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="28" t="s">
-        <v>897</v>
-      </c>
-      <c r="D145" s="55" t="s">
-        <v>32</v>
+        <v>855</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>838</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>873</v>
+        <v>828</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G145" s="31">
         <v>42265</v>
@@ -24595,22 +25255,23 @@
       </c>
       <c r="J145" s="14"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="28" t="s">
-        <v>898</v>
-      </c>
-      <c r="D146" s="55" t="s">
-        <v>465</v>
+        <v>856</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>839</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>874</v>
+        <v>829</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G146" s="31">
         <v>42265</v>
@@ -24623,22 +25284,23 @@
       </c>
       <c r="J146" s="14"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="28" t="s">
-        <v>899</v>
-      </c>
-      <c r="D147" s="55" t="s">
-        <v>19</v>
+        <v>857</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>840</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>875</v>
+        <v>830</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G147" s="31">
         <v>42265</v>
@@ -24653,216 +25315,194 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B148" s="11"/>
-      <c r="C148" s="28" t="s">
-        <v>900</v>
-      </c>
-      <c r="D148" s="55" t="s">
-        <v>887</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>876</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G148" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H148" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I148" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C148" s="28"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="70"/>
+      <c r="I148" s="13"/>
       <c r="J148" s="14"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="28" t="s">
-        <v>901</v>
+        <v>779</v>
       </c>
       <c r="D149" s="55" t="s">
-        <v>38</v>
+        <v>858</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>877</v>
+        <v>772</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>1346</v>
+        <v>1530</v>
       </c>
       <c r="G149" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H149" s="70" t="s">
-        <v>1347</v>
+        <v>42268</v>
+      </c>
+      <c r="H149" s="74" t="s">
+        <v>1532</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>815</v>
+        <v>1531</v>
       </c>
       <c r="J149" s="14"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="28" t="s">
-        <v>902</v>
+        <v>780</v>
       </c>
       <c r="D150" s="55" t="s">
-        <v>571</v>
+        <v>859</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>878</v>
+        <v>773</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>1346</v>
+        <v>1530</v>
       </c>
       <c r="G150" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H150" s="70" t="s">
-        <v>1347</v>
+        <v>42268</v>
+      </c>
+      <c r="H150" s="74" t="s">
+        <v>1532</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>815</v>
+        <v>1531</v>
       </c>
       <c r="J150" s="14"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="28" t="s">
-        <v>903</v>
+        <v>781</v>
       </c>
       <c r="D151" s="55" t="s">
-        <v>888</v>
+        <v>860</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>879</v>
+        <v>774</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>1346</v>
+        <v>1530</v>
       </c>
       <c r="G151" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H151" s="70" t="s">
-        <v>1347</v>
+        <v>42268</v>
+      </c>
+      <c r="H151" s="74" t="s">
+        <v>1532</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>815</v>
+        <v>1531</v>
       </c>
       <c r="J151" s="14"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="28" t="s">
-        <v>904</v>
+        <v>782</v>
       </c>
       <c r="D152" s="55" t="s">
-        <v>889</v>
+        <v>861</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>880</v>
+        <v>775</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>1346</v>
+        <v>1530</v>
       </c>
       <c r="G152" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H152" s="70" t="s">
-        <v>1347</v>
+        <v>42268</v>
+      </c>
+      <c r="H152" s="74" t="s">
+        <v>1532</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>815</v>
+        <v>1531</v>
       </c>
       <c r="J152" s="14"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="28" t="s">
-        <v>905</v>
+        <v>783</v>
       </c>
       <c r="D153" s="55" t="s">
-        <v>890</v>
+        <v>862</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>881</v>
+        <v>776</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>1346</v>
+        <v>1530</v>
       </c>
       <c r="G153" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H153" s="70" t="s">
-        <v>1347</v>
+        <v>42268</v>
+      </c>
+      <c r="H153" s="74" t="s">
+        <v>1532</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>815</v>
+        <v>1531</v>
       </c>
       <c r="J153" s="14"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B154" s="11"/>
-      <c r="C154" s="28" t="s">
-        <v>906</v>
-      </c>
-      <c r="D154" s="55" t="s">
-        <v>891</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="F154" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G154" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H154" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I154" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C154" s="28"/>
+      <c r="D154" s="55"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="70"/>
+      <c r="I154" s="13"/>
       <c r="J154" s="14"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B155" s="11"/>
-      <c r="C155" s="28" t="s">
-        <v>907</v>
-      </c>
+      <c r="C155" s="28"/>
       <c r="D155" s="55" t="s">
-        <v>617</v>
+        <v>1352</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>883</v>
+        <v>777</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G155" s="31">
         <v>42265</v>
@@ -24875,70 +25515,102 @@
       </c>
       <c r="J155" s="14"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="28" t="s">
-        <v>908</v>
+        <v>1463</v>
       </c>
       <c r="D156" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>884</v>
+        <v>1466</v>
+      </c>
+      <c r="E156" s="55" t="s">
+        <v>1460</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G156" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H156" s="70" t="s">
-        <v>1347</v>
+        <v>235</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J156" s="14"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B157" s="11"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="70"/>
-      <c r="I157" s="13"/>
+      <c r="C157" s="28" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D157" s="55" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E157" s="55" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G157" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H157" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I157" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J157" s="14"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B158" s="11"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="70"/>
-      <c r="I158" s="13"/>
+      <c r="C158" s="28" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D158" s="55" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E158" s="55" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G158" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H158" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I158" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J158" s="14"/>
     </row>
-    <row r="159" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="28"/>
       <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
+      <c r="E159" s="55"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
       <c r="H159" s="70"/>
@@ -24947,132 +25619,713 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C160" s="27" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G160" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H160" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I160" s="9" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J160" s="10"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="55"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="70"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="14"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="28"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="55"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
       <c r="H161" s="70"/>
       <c r="I161" s="13"/>
       <c r="J161" s="14"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B162" s="11"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="70"/>
-      <c r="I162" s="13"/>
+      <c r="C162" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G162" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H162" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I162" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J162" s="14"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B163" s="11"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="69"/>
-      <c r="I163" s="12"/>
+      <c r="C163" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G163" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H163" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I163" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J163" s="14"/>
     </row>
-    <row r="164" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B164" s="16"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="71"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="19"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="11"/>
+      <c r="C164" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G164" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H164" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I164" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J164" s="14"/>
+    </row>
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B165" s="11"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="69"/>
-      <c r="I165" s="12"/>
+      <c r="C165" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="D165" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G165" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H165" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I165" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J165" s="14"/>
     </row>
-    <row r="166" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B166" s="16"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="71"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="19"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C167" s="3"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C168" s="3"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C169" s="3"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C170" s="3"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="D166" s="55" t="s">
+        <v>886</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G166" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H166" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I166" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J166" s="14"/>
+    </row>
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B167" s="11"/>
+      <c r="C167" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="D167" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G167" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H167" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I167" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J167" s="14"/>
+    </row>
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B168" s="11"/>
+      <c r="C168" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="D168" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G168" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H168" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I168" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J168" s="14"/>
+    </row>
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B169" s="11"/>
+      <c r="C169" s="28" t="s">
+        <v>899</v>
+      </c>
+      <c r="D169" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G169" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H169" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I169" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J169" s="14"/>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B170" s="11"/>
+      <c r="C170" s="28" t="s">
+        <v>900</v>
+      </c>
+      <c r="D170" s="55" t="s">
+        <v>887</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G170" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H170" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I170" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J170" s="14"/>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B171" s="11"/>
+      <c r="C171" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="D171" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G171" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H171" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I171" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J171" s="14"/>
+    </row>
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B172" s="11"/>
+      <c r="C172" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="D172" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="F172" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G172" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H172" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I172" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J172" s="14"/>
+    </row>
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B173" s="11"/>
+      <c r="C173" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D173" s="55" t="s">
+        <v>888</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G173" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H173" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I173" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J173" s="14"/>
+    </row>
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B174" s="11"/>
+      <c r="C174" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="D174" s="55" t="s">
+        <v>889</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G174" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H174" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I174" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J174" s="14"/>
+    </row>
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B175" s="11"/>
+      <c r="C175" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="D175" s="55" t="s">
+        <v>890</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G175" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H175" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J175" s="14"/>
+    </row>
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B176" s="11"/>
+      <c r="C176" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="D176" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G176" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H176" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I176" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J176" s="14"/>
+    </row>
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B177" s="11"/>
+      <c r="C177" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D177" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G177" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H177" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J177" s="14"/>
+    </row>
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B178" s="11"/>
+      <c r="C178" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D178" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G178" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H178" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I178" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J178" s="14"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B179" s="11"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="70"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="14"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B180" s="11"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="70"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="14"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B181" s="11"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="70"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="14"/>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C182" s="27" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G182" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H182" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I182" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J182" s="10"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B183" s="11"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="14"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B184" s="11"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="70"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="14"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B185" s="11"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="69"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="14"/>
+    </row>
+    <row r="186" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B186" s="16"/>
+      <c r="C186" s="29"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="71"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="19"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="69"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="14"/>
+    </row>
+    <row r="188" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B188" s="16"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="71"/>
+      <c r="I188" s="17"/>
+      <c r="J188" s="19"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J166">
+  <autoFilter ref="A6:J188">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <dateGroupItem year="2015" month="9" day="22" dateTimeGrouping="day"/>
+        <dateGroupItem year="2015" month="9" day="23" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$197</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="1597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="1617">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -8805,12 +8805,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>baoshi_1_ditu.png</t>
-  </si>
-  <si>
-    <t>baoshi_lock.png</t>
-  </si>
-  <si>
     <t>chongwu_jiantou.png</t>
   </si>
   <si>
@@ -9695,9 +9689,6 @@
   </si>
   <si>
     <t>chongwu_dengjidikuang.png</t>
-  </si>
-  <si>
-    <t>baoshi_2_ditu.png</t>
   </si>
   <si>
     <t>anniu_jiahao.png</t>
@@ -10800,6 +10791,207 @@
     </rPh>
     <rPh sb="71" eb="72">
       <t>g</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshiditu_2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序需求，改名</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai'ming</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshiditu_1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月24日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月25日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交钻石icon</t>
+    <rPh sb="0" eb="1">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuan'shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_zuanshi.png</t>
+  </si>
+  <si>
+    <t>道具图标4</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石图标</t>
+    <rPh sb="0" eb="1">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshi_lock.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石底图改名，baoshi_lock.png改大小</t>
+    <rPh sb="0" eb="1">
+      <t>bao'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai'ming</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>da'xiao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序要求，修改为和宝石底图一样大</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bao'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yi'yang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>da</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月26日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交商店减价线，卖出标签</t>
+    <rPh sb="0" eb="1">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mai'chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao'qian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面1</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面2</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_soldout.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_jianjia.png</t>
+  </si>
+  <si>
+    <t>商店_售出</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'chu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店_减价线</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian'jia'xian</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -11152,7 +11344,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11169,6 +11361,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11436,7 +11629,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -11452,6 +11645,7 @@
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="10"/>
     <cellStyle name="常规 4" xfId="11"/>
@@ -11746,7 +11940,7 @@
   <dimension ref="B2:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12066,62 +12260,80 @@
     </row>
     <row r="37" spans="2:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B37" s="36" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C37" s="98" t="s">
         <v>1457</v>
       </c>
-      <c r="C37" s="98" t="s">
-        <v>1459</v>
-      </c>
       <c r="D37" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B38" s="36" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="36" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B40" s="36" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+      <c r="B41" s="36" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
+      <c r="B42" s="36" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>1601</v>
+      </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
+      <c r="B43" s="36" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="36"/>
@@ -21275,14 +21487,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:J192"/>
+  <dimension ref="A2:J201"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E104" sqref="E104:E110"/>
+      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -21326,7 +21537,7 @@
     <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67" t="s">
@@ -21354,7 +21565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>ROW($A7)-6</f>
         <v>1</v>
@@ -21385,7 +21596,7 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ref="A8:A71" si="0">ROW($A8)-6</f>
         <v>2</v>
@@ -21414,7 +21625,7 @@
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -21443,7 +21654,7 @@
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -21472,7 +21683,7 @@
       </c>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -21501,7 +21712,7 @@
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -21530,7 +21741,7 @@
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -21559,7 +21770,7 @@
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -21588,7 +21799,7 @@
       </c>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -21617,7 +21828,7 @@
       </c>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -21646,7 +21857,7 @@
       </c>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -21675,7 +21886,7 @@
       </c>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -21704,7 +21915,7 @@
       </c>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -21733,7 +21944,7 @@
       </c>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -21762,7 +21973,7 @@
       </c>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -21791,7 +22002,7 @@
       </c>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -21820,7 +22031,7 @@
       </c>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -21849,7 +22060,7 @@
       </c>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -21878,7 +22089,7 @@
       </c>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -21907,7 +22118,7 @@
       </c>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -21936,7 +22147,7 @@
       </c>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -21965,7 +22176,7 @@
       </c>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -21994,7 +22205,7 @@
       </c>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -22023,7 +22234,7 @@
       </c>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -22052,7 +22263,7 @@
       </c>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -22081,7 +22292,7 @@
       </c>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -22110,7 +22321,7 @@
       </c>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -22139,7 +22350,7 @@
       </c>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -22168,7 +22379,7 @@
       </c>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -22197,7 +22408,7 @@
       </c>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -22226,7 +22437,7 @@
       </c>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -22255,7 +22466,7 @@
       </c>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -22284,7 +22495,7 @@
       </c>
       <c r="J38" s="14"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -22313,7 +22524,7 @@
       </c>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -22342,7 +22553,7 @@
       </c>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -22371,7 +22582,7 @@
       </c>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -22400,7 +22611,7 @@
       </c>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -22429,7 +22640,7 @@
       </c>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -22458,7 +22669,7 @@
       </c>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -22487,7 +22698,7 @@
       </c>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -22509,14 +22720,14 @@
         <v>42265</v>
       </c>
       <c r="H46" s="70" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="J46" s="14"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -22529,7 +22740,7 @@
         <v>719</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>683</v>
@@ -22538,14 +22749,14 @@
         <v>42266</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="J47" s="14"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -22558,7 +22769,7 @@
         <v>720</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>683</v>
@@ -22567,14 +22778,14 @@
         <v>42242</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="J48" s="14"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -22587,7 +22798,7 @@
         <v>721</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>771</v>
@@ -22596,10 +22807,10 @@
         <v>42242</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="J49" s="14"/>
     </row>
@@ -22618,7 +22829,7 @@
       <c r="I50" s="13"/>
       <c r="J50" s="14"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -22627,10 +22838,10 @@
         <v>1353</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>1377</v>
@@ -22642,24 +22853,24 @@
         <v>42264</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="28" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>1359</v>
@@ -22671,24 +22882,24 @@
         <v>42264</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J52" s="14"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="28" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>1360</v>
@@ -22700,24 +22911,24 @@
         <v>42264</v>
       </c>
       <c r="H53" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J53" s="14"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="28" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D54" s="65" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>1361</v>
@@ -22729,24 +22940,24 @@
         <v>42264</v>
       </c>
       <c r="H54" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J54" s="14"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="28" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D55" s="65" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>1362</v>
@@ -22758,24 +22969,24 @@
         <v>42264</v>
       </c>
       <c r="H55" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J55" s="14"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="28" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D56" s="65" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>1363</v>
@@ -22787,24 +22998,24 @@
         <v>42264</v>
       </c>
       <c r="H56" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I56" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J56" s="14"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="28" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="D57" s="65" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>1364</v>
@@ -22816,24 +23027,24 @@
         <v>42264</v>
       </c>
       <c r="H57" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J57" s="14"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="28" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D58" s="65" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>1365</v>
@@ -22845,24 +23056,24 @@
         <v>42264</v>
       </c>
       <c r="H58" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J58" s="14"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="28" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D59" s="65" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>1366</v>
@@ -22874,24 +23085,24 @@
         <v>42264</v>
       </c>
       <c r="H59" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J59" s="14"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="28" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D60" s="65" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>1367</v>
@@ -22903,24 +23114,24 @@
         <v>42264</v>
       </c>
       <c r="H60" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J60" s="14"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="28" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D61" s="65" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>1368</v>
@@ -22932,24 +23143,24 @@
         <v>42264</v>
       </c>
       <c r="H61" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I61" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J61" s="14"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="28" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="D62" s="65" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>1369</v>
@@ -22961,24 +23172,24 @@
         <v>42264</v>
       </c>
       <c r="H62" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I62" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J62" s="14"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="28" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D63" s="65" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>1370</v>
@@ -22990,24 +23201,24 @@
         <v>42264</v>
       </c>
       <c r="H63" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J63" s="14"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="28" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D64" s="65" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>1371</v>
@@ -23019,24 +23230,24 @@
         <v>42264</v>
       </c>
       <c r="H64" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J64" s="14"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="28" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>1372</v>
@@ -23048,24 +23259,24 @@
         <v>42264</v>
       </c>
       <c r="H65" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J65" s="14"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="28" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="D66" s="65" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>1373</v>
@@ -23077,24 +23288,24 @@
         <v>42264</v>
       </c>
       <c r="H66" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I66" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J66" s="14"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="28" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="D67" s="65" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>1374</v>
@@ -23106,24 +23317,24 @@
         <v>42264</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I67" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J67" s="14"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="28" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D68" s="65" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>1375</v>
@@ -23135,24 +23346,24 @@
         <v>42264</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I68" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J68" s="14"/>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="28" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>1376</v>
@@ -23164,85 +23375,85 @@
         <v>42264</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I69" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J69" s="14"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="28" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D70" s="65" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>1378</v>
+        <v>1597</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>771</v>
+        <v>684</v>
       </c>
       <c r="G70" s="31">
-        <v>42264</v>
+        <v>42271</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1396</v>
+        <v>1596</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>431</v>
+        <v>1595</v>
       </c>
       <c r="J70" s="14"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="28" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>1379</v>
+        <v>1605</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G71" s="31">
-        <v>42264</v>
+        <v>42271</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1396</v>
+        <v>1607</v>
       </c>
       <c r="I71" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J71" s="14"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" ref="A72:A135" si="1">ROW($A72)-6</f>
+        <f t="shared" ref="A72:A144" si="1">ROW($A72)-6</f>
         <v>66</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="28" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="D72" s="65" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>771</v>
@@ -23251,27 +23462,27 @@
         <v>42264</v>
       </c>
       <c r="H72" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I72" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J72" s="14"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="28" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>771</v>
@@ -23280,27 +23491,27 @@
         <v>42264</v>
       </c>
       <c r="H73" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I73" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J73" s="14"/>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="28" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>771</v>
@@ -23309,27 +23520,27 @@
         <v>42264</v>
       </c>
       <c r="H74" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J74" s="14"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="28" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>771</v>
@@ -23338,27 +23549,27 @@
         <v>42264</v>
       </c>
       <c r="H75" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I75" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J75" s="14"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="28" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>771</v>
@@ -23367,27 +23578,27 @@
         <v>42266</v>
       </c>
       <c r="H76" s="74" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J76" s="14"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="28" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>771</v>
@@ -23396,27 +23607,27 @@
         <v>42264</v>
       </c>
       <c r="H77" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I77" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J77" s="14"/>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="28" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D78" s="65" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>771</v>
@@ -23425,27 +23636,27 @@
         <v>42266</v>
       </c>
       <c r="H78" s="74" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="I78" s="114" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="J78" s="14"/>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="28" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>771</v>
@@ -23454,27 +23665,27 @@
         <v>42264</v>
       </c>
       <c r="H79" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I79" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J79" s="14"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="28" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D80" s="65" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>771</v>
@@ -23483,27 +23694,27 @@
         <v>42264</v>
       </c>
       <c r="H80" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I80" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J80" s="14"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="28" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D81" s="65" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>771</v>
@@ -23512,27 +23723,27 @@
         <v>42264</v>
       </c>
       <c r="H81" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J81" s="14"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="28" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D82" s="65" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>771</v>
@@ -23541,27 +23752,27 @@
         <v>42264</v>
       </c>
       <c r="H82" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I82" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J82" s="14"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="28" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D83" s="65" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>771</v>
@@ -23570,27 +23781,27 @@
         <v>42264</v>
       </c>
       <c r="H83" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I83" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J83" s="14"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="28" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D84" s="65" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>771</v>
@@ -23599,27 +23810,27 @@
         <v>42264</v>
       </c>
       <c r="H84" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I84" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J84" s="14"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="28" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D85" s="65" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>684</v>
@@ -23635,20 +23846,20 @@
       </c>
       <c r="J85" s="14"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="28" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="D86" s="113" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>684</v>
@@ -23657,27 +23868,27 @@
         <v>42264</v>
       </c>
       <c r="H86" s="69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I86" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J86" s="14"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="28" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="D87" s="113" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>684</v>
@@ -23689,7 +23900,7 @@
         <v>234</v>
       </c>
       <c r="I87" s="114" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="J87" s="14"/>
     </row>
@@ -23700,13 +23911,13 @@
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="28" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="D88" s="65" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>684</v>
@@ -23715,27 +23926,27 @@
         <v>42270</v>
       </c>
       <c r="H88" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J88" s="14"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="28" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="D89" s="113" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>684</v>
@@ -23744,27 +23955,27 @@
         <v>42268</v>
       </c>
       <c r="H89" s="69" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="I89" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J89" s="14"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="28" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="D90" s="113" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>684</v>
@@ -23773,7 +23984,7 @@
         <v>42268</v>
       </c>
       <c r="H90" s="69" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="I90" s="13" t="s">
         <v>431</v>
@@ -23787,13 +23998,13 @@
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="28" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="D91" s="113" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>684</v>
@@ -23802,27 +24013,27 @@
         <v>42270</v>
       </c>
       <c r="H91" s="70" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="I91" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J91" s="14"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="D92" s="65" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>684</v>
@@ -23838,20 +24049,20 @@
       </c>
       <c r="J92" s="14"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="28" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="D93" s="65" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>684</v>
@@ -23867,20 +24078,20 @@
       </c>
       <c r="J93" s="14"/>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="28" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="D94" s="65" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>684</v>
@@ -23889,27 +24100,27 @@
         <v>42268</v>
       </c>
       <c r="H94" s="69" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="I94" s="13" t="s">
         <v>431</v>
       </c>
       <c r="J94" s="14"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="28" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="D95" s="65" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>684</v>
@@ -23925,20 +24136,20 @@
       </c>
       <c r="J95" s="14"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="28" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="D96" s="65" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>684</v>
@@ -23954,49 +24165,49 @@
       </c>
       <c r="J96" s="14"/>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="28" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="D97" s="65" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>1479</v>
+        <v>1594</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G97" s="31">
-        <v>42266</v>
+        <v>42271</v>
       </c>
       <c r="H97" s="69" t="s">
-        <v>235</v>
+        <v>1596</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>431</v>
+        <v>1595</v>
       </c>
       <c r="J97" s="14"/>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="28" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="D98" s="65" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>684</v>
@@ -24012,20 +24223,20 @@
       </c>
       <c r="J98" s="14"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="28" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="D99" s="65" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>684</v>
@@ -24041,20 +24252,20 @@
       </c>
       <c r="J99" s="14"/>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="28" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>684</v>
@@ -24070,20 +24281,20 @@
       </c>
       <c r="J100" s="14"/>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="28" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>684</v>
@@ -24106,13 +24317,13 @@
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="28" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>684</v>
@@ -24121,10 +24332,10 @@
         <v>42269</v>
       </c>
       <c r="H102" s="74" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I102" s="114" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="J102" s="14"/>
     </row>
@@ -24149,16 +24360,16 @@
         <v>98</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>684</v>
@@ -24167,7 +24378,7 @@
         <v>42270</v>
       </c>
       <c r="H104" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I104" s="13" t="s">
         <v>8</v>
@@ -24181,13 +24392,13 @@
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="28" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D105" s="65" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>684</v>
@@ -24196,7 +24407,7 @@
         <v>42270</v>
       </c>
       <c r="H105" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I105" s="13" t="s">
         <v>8</v>
@@ -24210,13 +24421,13 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="28" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D106" s="65" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>684</v>
@@ -24225,7 +24436,7 @@
         <v>42270</v>
       </c>
       <c r="H106" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I106" s="13" t="s">
         <v>8</v>
@@ -24239,13 +24450,13 @@
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="28" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="D107" s="65" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>684</v>
@@ -24254,7 +24465,7 @@
         <v>42270</v>
       </c>
       <c r="H107" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I107" s="13" t="s">
         <v>8</v>
@@ -24268,13 +24479,13 @@
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="28" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D108" s="65" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>684</v>
@@ -24283,7 +24494,7 @@
         <v>42270</v>
       </c>
       <c r="H108" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I108" s="13" t="s">
         <v>8</v>
@@ -24297,13 +24508,13 @@
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="28" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D109" s="65" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>684</v>
@@ -24312,7 +24523,7 @@
         <v>42270</v>
       </c>
       <c r="H109" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I109" s="13" t="s">
         <v>8</v>
@@ -24326,13 +24537,13 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="28" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="D110" s="65" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="E110" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>684</v>
@@ -24341,314 +24552,175 @@
         <v>42270</v>
       </c>
       <c r="H110" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I110" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J110" s="14"/>
     </row>
-    <row r="111" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="B111" s="16"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="19"/>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="11"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="65"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="14"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="11" t="s">
-        <v>784</v>
+        <v>1610</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F112" s="55" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D112" s="65" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F112" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G112" s="31">
-        <v>42266</v>
+        <v>42273</v>
       </c>
       <c r="H112" s="70" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J112" s="14"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" s="11"/>
       <c r="C113" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="F113" s="55" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D113" s="65" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F113" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G113" s="31">
-        <v>42266</v>
+        <v>42273</v>
       </c>
       <c r="H113" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J113" s="14"/>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" s="11"/>
-      <c r="C114" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F114" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G114" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H114" s="70" t="s">
-        <v>1469</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C114" s="28"/>
+      <c r="D114" s="65"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="70"/>
+      <c r="I114" s="13"/>
       <c r="J114" s="14"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" s="11"/>
-      <c r="C115" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F115" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G115" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H115" s="70" t="s">
-        <v>1469</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C115" s="28"/>
+      <c r="D115" s="65"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="13"/>
       <c r="J115" s="14"/>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116" s="11"/>
-      <c r="C116" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="F116" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G116" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H116" s="70" t="s">
-        <v>1469</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C116" s="28"/>
+      <c r="D116" s="65"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="13"/>
       <c r="J116" s="14"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B117" s="11"/>
-      <c r="C117" s="28" t="s">
-        <v>769</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="F117" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G117" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H117" s="70" t="s">
-        <v>1469</v>
-      </c>
-      <c r="I117" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C117" s="28"/>
+      <c r="D117" s="65"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="13"/>
       <c r="J117" s="14"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
       <c r="B118" s="11"/>
-      <c r="C118" s="28" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D118" s="55" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G118" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H118" s="70" t="s">
-        <v>1469</v>
-      </c>
-      <c r="I118" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C118" s="28"/>
+      <c r="D118" s="65"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="13"/>
       <c r="J118" s="14"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
       <c r="B119" s="11"/>
-      <c r="C119" s="28" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D119" s="55" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G119" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H119" s="70" t="s">
-        <v>1469</v>
-      </c>
-      <c r="I119" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C119" s="28"/>
+      <c r="D119" s="65"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="70"/>
+      <c r="I119" s="13"/>
       <c r="J119" s="14"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="28" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D120" s="55" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G120" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H120" s="70" t="s">
-        <v>1469</v>
-      </c>
-      <c r="I120" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J120" s="14"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="19"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B121" s="11"/>
+      <c r="B121" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C121" s="28" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D121" s="55" t="s">
-        <v>1559</v>
+        <v>764</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F121" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="F121" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G121" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H121" s="70" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="I121" s="13" t="s">
         <v>431</v>
@@ -24662,22 +24734,22 @@
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="28" t="s">
-        <v>1570</v>
-      </c>
-      <c r="D122" s="55" t="s">
-        <v>1560</v>
+        <v>765</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F122" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="F122" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G122" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H122" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I122" s="13" t="s">
         <v>431</v>
@@ -24691,22 +24763,22 @@
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="28" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D123" s="55" t="s">
-        <v>1561</v>
+        <v>766</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F123" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="F123" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G123" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H123" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I123" s="13" t="s">
         <v>431</v>
@@ -24720,22 +24792,22 @@
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="28" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D124" s="55" t="s">
-        <v>1562</v>
+        <v>767</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>706</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F124" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F124" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G124" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H124" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I124" s="13" t="s">
         <v>431</v>
@@ -24749,22 +24821,22 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="28" t="s">
-        <v>1573</v>
-      </c>
-      <c r="D125" s="55" t="s">
-        <v>1563</v>
+        <v>768</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F125" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="F125" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G125" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H125" s="70" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I125" s="13" t="s">
         <v>431</v>
@@ -24777,13 +24849,27 @@
         <v>120</v>
       </c>
       <c r="B126" s="11"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="69"/>
-      <c r="I126" s="12"/>
+      <c r="C126" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F126" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G126" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H126" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J126" s="14"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -24792,13 +24878,27 @@
         <v>121</v>
       </c>
       <c r="B127" s="11"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="69"/>
-      <c r="I127" s="12"/>
+      <c r="C127" s="28" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D127" s="55" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G127" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H127" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J127" s="14"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -24807,13 +24907,27 @@
         <v>122</v>
       </c>
       <c r="B128" s="11"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="69"/>
-      <c r="I128" s="12"/>
+      <c r="C128" s="28" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D128" s="55" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G128" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H128" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J128" s="14"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -24822,13 +24936,27 @@
         <v>123</v>
       </c>
       <c r="B129" s="11"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="12"/>
+      <c r="C129" s="28" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D129" s="55" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G129" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H129" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J129" s="14"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -24837,13 +24965,27 @@
         <v>124</v>
       </c>
       <c r="B130" s="11"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="69"/>
-      <c r="I130" s="12"/>
+      <c r="C130" s="28" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D130" s="55" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G130" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H130" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J130" s="14"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -24852,307 +24994,237 @@
         <v>125</v>
       </c>
       <c r="B131" s="11"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="69"/>
-      <c r="I131" s="12"/>
+      <c r="C131" s="28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D131" s="55" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G131" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H131" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J131" s="14"/>
     </row>
-    <row r="132" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B132" s="16"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="19"/>
-    </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="11"/>
+      <c r="C132" s="28" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D132" s="55" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G132" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H132" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="J132" s="14"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>785</v>
-      </c>
+      <c r="B133" s="11"/>
       <c r="C133" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>841</v>
+        <v>1569</v>
+      </c>
+      <c r="D133" s="55" t="s">
+        <v>1559</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>816</v>
+        <v>1542</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>1350</v>
+        <v>684</v>
       </c>
       <c r="G133" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H133" s="70" t="s">
-        <v>1347</v>
+        <v>1467</v>
       </c>
       <c r="I133" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J133" s="14"/>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>787</v>
+        <v>1570</v>
+      </c>
+      <c r="D134" s="55" t="s">
+        <v>1560</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>817</v>
+        <v>1543</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>1350</v>
+        <v>684</v>
       </c>
       <c r="G134" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H134" s="70" t="s">
-        <v>1347</v>
+        <v>1467</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J134" s="14"/>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B135" s="11"/>
-      <c r="C135" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G135" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H135" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C135" s="22"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="69"/>
+      <c r="I135" s="12"/>
       <c r="J135" s="14"/>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f t="shared" ref="A136:A188" si="2">ROW($A136)-6</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="B136" s="11"/>
-      <c r="C136" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G136" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H136" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I136" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C136" s="22"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="69"/>
+      <c r="I136" s="12"/>
       <c r="J136" s="14"/>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="B137" s="11"/>
-      <c r="C137" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G137" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H137" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I137" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C137" s="22"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="69"/>
+      <c r="I137" s="12"/>
       <c r="J137" s="14"/>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="B138" s="11"/>
-      <c r="C138" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G138" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H138" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I138" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C138" s="22"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="69"/>
+      <c r="I138" s="12"/>
       <c r="J138" s="14"/>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="B139" s="11"/>
-      <c r="C139" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>832</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>822</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G139" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H139" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I139" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C139" s="22"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="69"/>
+      <c r="I139" s="12"/>
       <c r="J139" s="14"/>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="B140" s="11"/>
-      <c r="C140" s="28" t="s">
-        <v>850</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>833</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>823</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G140" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H140" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I140" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C140" s="22"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="69"/>
+      <c r="I140" s="12"/>
       <c r="J140" s="14"/>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="B141" s="11"/>
-      <c r="C141" s="28" t="s">
-        <v>851</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>834</v>
-      </c>
-      <c r="E141" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G141" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H141" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I141" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J141" s="14"/>
-    </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="16"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="71"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="19"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="B142" s="11"/>
+      <c r="B142" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C142" s="28" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>1350</v>
@@ -25168,20 +25240,20 @@
       </c>
       <c r="J142" s="14"/>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="28" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>836</v>
+        <v>787</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>1350</v>
@@ -25197,20 +25269,20 @@
       </c>
       <c r="J143" s="14"/>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="28" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>837</v>
+        <v>788</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>1350</v>
@@ -25226,20 +25298,20 @@
       </c>
       <c r="J144" s="14"/>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A145:A197" si="2">ROW($A145)-6</f>
         <v>139</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="28" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>838</v>
+        <v>789</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>1350</v>
@@ -25255,20 +25327,20 @@
       </c>
       <c r="J145" s="14"/>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="28" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>839</v>
+        <v>790</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F146" s="12" t="s">
         <v>1350</v>
@@ -25284,20 +25356,20 @@
       </c>
       <c r="J146" s="14"/>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="28" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>1350</v>
@@ -25319,157 +25391,171 @@
         <v>142</v>
       </c>
       <c r="B148" s="11"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="70"/>
-      <c r="I148" s="13"/>
+      <c r="C148" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G148" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H148" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I148" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J148" s="14"/>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D149" s="55" t="s">
-        <v>858</v>
+        <v>850</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>833</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>772</v>
+        <v>823</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>1530</v>
+        <v>1350</v>
       </c>
       <c r="G149" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H149" s="74" t="s">
-        <v>1532</v>
+        <v>42265</v>
+      </c>
+      <c r="H149" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>1531</v>
+        <v>815</v>
       </c>
       <c r="J149" s="14"/>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="D150" s="55" t="s">
-        <v>859</v>
+        <v>851</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>834</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>773</v>
+        <v>824</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>1530</v>
+        <v>1350</v>
       </c>
       <c r="G150" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H150" s="74" t="s">
-        <v>1532</v>
+        <v>42265</v>
+      </c>
+      <c r="H150" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>1531</v>
+        <v>815</v>
       </c>
       <c r="J150" s="14"/>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="28" t="s">
-        <v>781</v>
-      </c>
-      <c r="D151" s="55" t="s">
-        <v>860</v>
+        <v>852</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>835</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>774</v>
+        <v>825</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>1530</v>
+        <v>1350</v>
       </c>
       <c r="G151" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H151" s="74" t="s">
-        <v>1532</v>
+        <v>42265</v>
+      </c>
+      <c r="H151" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>1531</v>
+        <v>815</v>
       </c>
       <c r="J151" s="14"/>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="D152" s="55" t="s">
-        <v>861</v>
+        <v>853</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>836</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>1530</v>
+        <v>1350</v>
       </c>
       <c r="G152" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H152" s="74" t="s">
-        <v>1532</v>
+        <v>42265</v>
+      </c>
+      <c r="H152" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>1531</v>
+        <v>815</v>
       </c>
       <c r="J152" s="14"/>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="28" t="s">
-        <v>783</v>
-      </c>
-      <c r="D153" s="55" t="s">
-        <v>862</v>
+        <v>854</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>837</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>776</v>
+        <v>827</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>1530</v>
+        <v>1350</v>
       </c>
       <c r="G153" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H153" s="74" t="s">
-        <v>1532</v>
+        <v>42265</v>
+      </c>
+      <c r="H153" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>1531</v>
+        <v>815</v>
       </c>
       <c r="J153" s="14"/>
     </row>
@@ -25479,30 +25565,46 @@
         <v>148</v>
       </c>
       <c r="B154" s="11"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="55"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="31"/>
-      <c r="H154" s="70"/>
-      <c r="I154" s="13"/>
+      <c r="C154" s="28" t="s">
+        <v>855</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G154" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H154" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I154" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J154" s="14"/>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B155" s="11"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="55" t="s">
-        <v>1352</v>
+      <c r="C155" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>839</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>777</v>
+        <v>829</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G155" s="31">
         <v>42265</v>
@@ -25515,90 +25617,76 @@
       </c>
       <c r="J155" s="14"/>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="28" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D156" s="55" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E156" s="55" t="s">
-        <v>1460</v>
+        <v>857</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>830</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G156" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H156" s="70" t="s">
-        <v>235</v>
+        <v>1347</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J156" s="14"/>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B157" s="11"/>
-      <c r="C157" s="28" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D157" s="55" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E157" s="55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G157" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H157" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I157" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C157" s="28"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="70"/>
+      <c r="I157" s="13"/>
       <c r="J157" s="14"/>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="28" t="s">
-        <v>1465</v>
+        <v>779</v>
       </c>
       <c r="D158" s="55" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E158" s="55" t="s">
-        <v>1462</v>
+        <v>858</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>772</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>1351</v>
+        <v>1527</v>
       </c>
       <c r="G158" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H158" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H158" s="74" t="s">
+        <v>1529</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>431</v>
+        <v>1528</v>
       </c>
       <c r="J158" s="14"/>
     </row>
@@ -25608,13 +25696,27 @@
         <v>153</v>
       </c>
       <c r="B159" s="11"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="55"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="70"/>
-      <c r="I159" s="13"/>
+      <c r="C159" s="28" t="s">
+        <v>780</v>
+      </c>
+      <c r="D159" s="55" t="s">
+        <v>859</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G159" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H159" s="74" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I159" s="13" t="s">
+        <v>1528</v>
+      </c>
       <c r="J159" s="14"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -25623,13 +25725,27 @@
         <v>154</v>
       </c>
       <c r="B160" s="11"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="55"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="70"/>
-      <c r="I160" s="13"/>
+      <c r="C160" s="28" t="s">
+        <v>781</v>
+      </c>
+      <c r="D160" s="55" t="s">
+        <v>860</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G160" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H160" s="74" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I160" s="13" t="s">
+        <v>1528</v>
+      </c>
       <c r="J160" s="14"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -25638,90 +25754,88 @@
         <v>155</v>
       </c>
       <c r="B161" s="11"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="55"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="70"/>
-      <c r="I161" s="13"/>
+      <c r="C161" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="D161" s="55" t="s">
+        <v>861</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G161" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H161" s="74" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I161" s="13" t="s">
+        <v>1528</v>
+      </c>
       <c r="J161" s="14"/>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>885</v>
+        <v>783</v>
+      </c>
+      <c r="D162" s="55" t="s">
+        <v>862</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>868</v>
+        <v>776</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>1346</v>
+        <v>1527</v>
       </c>
       <c r="G162" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H162" s="70" t="s">
-        <v>1347</v>
+        <v>42268</v>
+      </c>
+      <c r="H162" s="74" t="s">
+        <v>1529</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>815</v>
+        <v>1528</v>
       </c>
       <c r="J162" s="14"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B163" s="11"/>
-      <c r="C163" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="D163" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E163" s="12" t="s">
-        <v>869</v>
-      </c>
-      <c r="F163" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G163" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H163" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I163" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C163" s="28"/>
+      <c r="D163" s="55"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="70"/>
+      <c r="I163" s="13"/>
       <c r="J163" s="14"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="B164" s="11"/>
-      <c r="C164" s="28" t="s">
-        <v>894</v>
-      </c>
-      <c r="D164" s="12" t="s">
-        <v>566</v>
+      <c r="C164" s="28"/>
+      <c r="D164" s="55" t="s">
+        <v>1352</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>870</v>
+        <v>777</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G164" s="31">
         <v>42265</v>
@@ -25734,194 +25848,166 @@
       </c>
       <c r="J164" s="14"/>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="28" t="s">
-        <v>895</v>
+        <v>1461</v>
       </c>
       <c r="D165" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="E165" s="12" t="s">
-        <v>871</v>
+        <v>1464</v>
+      </c>
+      <c r="E165" s="55" t="s">
+        <v>1458</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G165" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H165" s="70" t="s">
-        <v>1347</v>
+        <v>235</v>
       </c>
       <c r="I165" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J165" s="14"/>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="28" t="s">
-        <v>896</v>
+        <v>1462</v>
       </c>
       <c r="D166" s="55" t="s">
-        <v>886</v>
-      </c>
-      <c r="E166" s="12" t="s">
-        <v>872</v>
+        <v>1465</v>
+      </c>
+      <c r="E166" s="55" t="s">
+        <v>1459</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G166" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H166" s="70" t="s">
-        <v>1347</v>
+        <v>235</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J166" s="14"/>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="28" t="s">
-        <v>897</v>
+        <v>1463</v>
       </c>
       <c r="D167" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E167" s="12" t="s">
-        <v>873</v>
+        <v>1466</v>
+      </c>
+      <c r="E167" s="55" t="s">
+        <v>1460</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G167" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H167" s="70" t="s">
-        <v>1347</v>
+        <v>235</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J167" s="14"/>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="28" t="s">
-        <v>898</v>
+        <v>1603</v>
       </c>
       <c r="D168" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="E168" s="12" t="s">
-        <v>874</v>
+        <v>1604</v>
+      </c>
+      <c r="E168" s="55" t="s">
+        <v>1602</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G168" s="31">
-        <v>42265</v>
+        <v>42272</v>
       </c>
       <c r="H168" s="70" t="s">
-        <v>1347</v>
+        <v>235</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J168" s="14"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="B169" s="11"/>
-      <c r="C169" s="28" t="s">
-        <v>899</v>
-      </c>
-      <c r="D169" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E169" s="12" t="s">
-        <v>875</v>
-      </c>
-      <c r="F169" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G169" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H169" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I169" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C169" s="28"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="55"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="70"/>
+      <c r="I169" s="13"/>
       <c r="J169" s="14"/>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="B170" s="11"/>
-      <c r="C170" s="28" t="s">
-        <v>900</v>
-      </c>
-      <c r="D170" s="55" t="s">
-        <v>887</v>
-      </c>
-      <c r="E170" s="12" t="s">
-        <v>876</v>
-      </c>
-      <c r="F170" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G170" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H170" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I170" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C170" s="28"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="55"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="70"/>
+      <c r="I170" s="13"/>
       <c r="J170" s="14"/>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="28" t="s">
-        <v>901</v>
-      </c>
-      <c r="D171" s="55" t="s">
-        <v>38</v>
+        <v>892</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>885</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="F171" s="12" t="s">
         <v>1346</v>
@@ -25937,20 +26023,20 @@
       </c>
       <c r="J171" s="14"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="28" t="s">
-        <v>902</v>
-      </c>
-      <c r="D172" s="55" t="s">
-        <v>571</v>
+        <v>893</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>547</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>1346</v>
@@ -25966,20 +26052,20 @@
       </c>
       <c r="J172" s="14"/>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="28" t="s">
-        <v>903</v>
-      </c>
-      <c r="D173" s="55" t="s">
-        <v>888</v>
+        <v>894</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="F173" s="12" t="s">
         <v>1346</v>
@@ -25995,20 +26081,20 @@
       </c>
       <c r="J173" s="14"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="28" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="D174" s="55" t="s">
-        <v>889</v>
+        <v>501</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>1346</v>
@@ -26024,20 +26110,20 @@
       </c>
       <c r="J174" s="14"/>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="28" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="D175" s="55" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="F175" s="12" t="s">
         <v>1346</v>
@@ -26053,20 +26139,20 @@
       </c>
       <c r="J175" s="14"/>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="28" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="D176" s="55" t="s">
-        <v>891</v>
+        <v>32</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>1346</v>
@@ -26082,20 +26168,20 @@
       </c>
       <c r="J176" s="14"/>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="28" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="D177" s="55" t="s">
-        <v>617</v>
+        <v>465</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>1346</v>
@@ -26111,20 +26197,20 @@
       </c>
       <c r="J177" s="14"/>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="28" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="D178" s="55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>1346</v>
@@ -26146,13 +26232,27 @@
         <v>173</v>
       </c>
       <c r="B179" s="11"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="70"/>
-      <c r="I179" s="13"/>
+      <c r="C179" s="28" t="s">
+        <v>900</v>
+      </c>
+      <c r="D179" s="55" t="s">
+        <v>887</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G179" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H179" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I179" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J179" s="14"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -26161,13 +26261,27 @@
         <v>174</v>
       </c>
       <c r="B180" s="11"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="70"/>
-      <c r="I180" s="13"/>
+      <c r="C180" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="D180" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G180" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H180" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I180" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J180" s="14"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -26176,45 +26290,57 @@
         <v>175</v>
       </c>
       <c r="B181" s="11"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="70"/>
-      <c r="I181" s="13"/>
+      <c r="C181" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="D181" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G181" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H181" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I181" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J181" s="14"/>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="B182" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C182" s="27" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F182" s="8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G182" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H182" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I182" s="9" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J182" s="10"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D182" s="55" t="s">
+        <v>888</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G182" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H182" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I182" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J182" s="14"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
@@ -26222,13 +26348,27 @@
         <v>177</v>
       </c>
       <c r="B183" s="11"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="12"/>
-      <c r="H183" s="70"/>
-      <c r="I183" s="13"/>
+      <c r="C183" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="D183" s="55" t="s">
+        <v>889</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G183" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H183" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I183" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J183" s="14"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -26237,13 +26377,27 @@
         <v>178</v>
       </c>
       <c r="B184" s="11"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="70"/>
-      <c r="I184" s="13"/>
+      <c r="C184" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="D184" s="55" t="s">
+        <v>890</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G184" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H184" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I184" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J184" s="14"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -26252,29 +26406,57 @@
         <v>179</v>
       </c>
       <c r="B185" s="11"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="12"/>
-      <c r="H185" s="69"/>
-      <c r="I185" s="12"/>
+      <c r="C185" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="D185" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G185" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H185" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I185" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J185" s="14"/>
     </row>
-    <row r="186" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="B186" s="16"/>
-      <c r="C186" s="29"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="17"/>
-      <c r="F186" s="17"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="71"/>
-      <c r="I186" s="17"/>
-      <c r="J186" s="19"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D186" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G186" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H186" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I186" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J186" s="14"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
@@ -26282,50 +26464,209 @@
         <v>181</v>
       </c>
       <c r="B187" s="11"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="69"/>
-      <c r="I187" s="12"/>
+      <c r="C187" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D187" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G187" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H187" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I187" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J187" s="14"/>
     </row>
-    <row r="188" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="B188" s="16"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="17"/>
-      <c r="F188" s="17"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="71"/>
-      <c r="I188" s="17"/>
-      <c r="J188" s="19"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="70"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="14"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C189" s="3"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C190" s="3"/>
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B189" s="11"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="70"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="14"/>
+    </row>
+    <row r="190" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B190" s="11"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="70"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="14"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C191" s="3"/>
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C191" s="27" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G191" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H191" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J191" s="10"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C192" s="3"/>
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B192" s="11"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="70"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="14"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B193" s="11"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="70"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="14"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B194" s="11"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="69"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="14"/>
+    </row>
+    <row r="195" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B195" s="16"/>
+      <c r="C195" s="29"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="71"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="19"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B196" s="11"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="69"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="14"/>
+    </row>
+    <row r="197" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B197" s="16"/>
+      <c r="C197" s="29"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="71"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="19"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J188">
-    <filterColumn colId="6">
-      <filters blank="1">
-        <dateGroupItem year="2015" month="9" day="22" dateTimeGrouping="day"/>
-        <dateGroupItem year="2015" month="9" day="23" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A6:J197">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>
@@ -26425,7 +26766,7 @@
         <v>1262</v>
       </c>
       <c r="C5" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1111</v>
@@ -26820,7 +27161,7 @@
         <v>1276</v>
       </c>
       <c r="C25" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>1259</v>
@@ -26835,7 +27176,7 @@
         <v>1275</v>
       </c>
       <c r="C26" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1259</v>
@@ -26850,7 +27191,7 @@
         <v>1281</v>
       </c>
       <c r="C27" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>1259</v>
@@ -26874,7 +27215,7 @@
         <v>1277</v>
       </c>
       <c r="C29" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>1111</v>
@@ -26886,7 +27227,7 @@
         <v>1141</v>
       </c>
       <c r="B30" s="84" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C30" t="s">
         <v>1115</v>
@@ -26985,7 +27326,7 @@
         <v>1283</v>
       </c>
       <c r="C35" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>1259</v>
@@ -27009,7 +27350,7 @@
         <v>1284</v>
       </c>
       <c r="C37" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>1111</v>
@@ -27117,7 +27458,7 @@
         <v>1164</v>
       </c>
       <c r="B45" s="84" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C45" t="s">
         <v>1165</v>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="460" windowWidth="36660" windowHeight="19440" tabRatio="500"/>
+    <workbookView xWindow="2640" yWindow="560" windowWidth="36660" windowHeight="19440" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$208</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1648">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -10992,6 +10992,322 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>jian'jia'xian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月29日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换资源</t>
+    <rPh sb="0" eb="1">
+      <t>geng'huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标5</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标6</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标7</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标8</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标9</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城钻石商品1</t>
+    <rPh sb="0" eb="1">
+      <t>shang'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'p</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城钻石商品2</t>
+    <rPh sb="0" eb="1">
+      <t>shang'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'p</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城钻石商品3</t>
+    <rPh sb="0" eb="1">
+      <t>shang'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'p</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城钻石商品4</t>
+    <rPh sb="0" eb="1">
+      <t>shang'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'p</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城钻石商品5</t>
+    <rPh sb="0" eb="1">
+      <t>shang'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'p</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城钻石商品6</t>
+    <rPh sb="0" eb="1">
+      <t>shang'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'p</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标10</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_shop_zuanshi1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_shop_zuanshi2.png</t>
+  </si>
+  <si>
+    <t>icon_shop_zuanshi3.png</t>
+  </si>
+  <si>
+    <t>icon_shop_zuanshi4.png</t>
+  </si>
+  <si>
+    <t>icon_shop_zuanshi5.png</t>
+  </si>
+  <si>
+    <t>icon_shop_zuanshi6.png</t>
+  </si>
+  <si>
+    <t>宠物界面53</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表样式1_中框底图</t>
+    <rPh sb="0" eb="1">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yang'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kuang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liebiao1_ditu_3.png</t>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_zuanshiditu.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面3</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店_钻石商品底图</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新钻石图标样式；提交公会币图标；提交商城钻石商品图标和底图；提交列表底图</t>
+    <rPh sb="0" eb="1">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tu'b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yang'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gong'hui'bi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tu'b</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shang'cheng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>tu'b</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>he</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会币图标</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui'bi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gonghuibi.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标11</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -11939,8 +12255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12335,10 +12651,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
+    <row r="44" spans="2:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="B44" s="36" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C44" s="98" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="36"/>
@@ -21487,13 +21809,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J201"/>
+  <dimension ref="A2:J212"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomRight" activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -23442,7 +23764,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" ref="A72:A144" si="1">ROW($A72)-6</f>
+        <f t="shared" ref="A72:A85" si="1">ROW($A72)-6</f>
         <v>66</v>
       </c>
       <c r="B72" s="11"/>
@@ -23827,48 +24149,48 @@
         <v>1429</v>
       </c>
       <c r="D85" s="65" t="s">
-        <v>1481</v>
+        <v>1638</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>1470</v>
+        <v>1639</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="G85" s="31">
-        <v>42266</v>
+        <v>42276</v>
       </c>
       <c r="H85" s="69" t="s">
         <v>235</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>431</v>
+        <v>1640</v>
       </c>
       <c r="J85" s="14"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A86:A145" si="2">ROW($A86)-6</f>
         <v>80</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="28" t="s">
         <v>1503</v>
       </c>
-      <c r="D86" s="113" t="s">
-        <v>1482</v>
+      <c r="D86" s="65" t="s">
+        <v>1481</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>1391</v>
+        <v>1470</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G86" s="31">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="H86" s="69" t="s">
-        <v>1394</v>
+        <v>235</v>
       </c>
       <c r="I86" s="13" t="s">
         <v>431</v>
@@ -23877,7 +24199,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B87" s="11"/>
@@ -23885,86 +24207,86 @@
         <v>1504</v>
       </c>
       <c r="D87" s="113" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>1469</v>
+        <v>1391</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G87" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H87" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="I87" s="114" t="s">
-        <v>1516</v>
+        <v>42264</v>
+      </c>
+      <c r="H87" s="69" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="J87" s="14"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="28" t="s">
         <v>1505</v>
       </c>
-      <c r="D88" s="65" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E88" s="55" t="s">
-        <v>1551</v>
+      <c r="D88" s="113" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>1469</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G88" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H88" s="70" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>8</v>
+        <v>42266</v>
+      </c>
+      <c r="H88" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="I88" s="114" t="s">
+        <v>1516</v>
       </c>
       <c r="J88" s="14"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="28" t="s">
         <v>1506</v>
       </c>
-      <c r="D89" s="113" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>1471</v>
+      <c r="D89" s="65" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E89" s="55" t="s">
+        <v>1551</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G89" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H89" s="69" t="s">
-        <v>1521</v>
+        <v>42270</v>
+      </c>
+      <c r="H89" s="70" t="s">
+        <v>1467</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J89" s="14"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B90" s="11"/>
@@ -23972,10 +24294,10 @@
         <v>1507</v>
       </c>
       <c r="D90" s="113" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>684</v>
@@ -23993,7 +24315,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B91" s="11"/>
@@ -24001,57 +24323,57 @@
         <v>1508</v>
       </c>
       <c r="D91" s="113" t="s">
-        <v>1578</v>
+        <v>1485</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>1554</v>
+        <v>1472</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G91" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H91" s="70" t="s">
-        <v>1579</v>
+        <v>42268</v>
+      </c>
+      <c r="H91" s="69" t="s">
+        <v>1521</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="J91" s="14"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="28" t="s">
         <v>1509</v>
       </c>
-      <c r="D92" s="65" t="s">
-        <v>1498</v>
+      <c r="D92" s="113" t="s">
+        <v>1578</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>1497</v>
+        <v>1554</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G92" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H92" s="69" t="s">
-        <v>235</v>
+        <v>42270</v>
+      </c>
+      <c r="H92" s="70" t="s">
+        <v>1579</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J92" s="14"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B93" s="11"/>
@@ -24059,10 +24381,10 @@
         <v>1510</v>
       </c>
       <c r="D93" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>1473</v>
+        <v>1497</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>684</v>
@@ -24080,7 +24402,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B94" s="11"/>
@@ -24088,19 +24410,19 @@
         <v>1511</v>
       </c>
       <c r="D94" s="65" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G94" s="31">
-        <v>42268</v>
+        <v>42266</v>
       </c>
       <c r="H94" s="69" t="s">
-        <v>1519</v>
+        <v>235</v>
       </c>
       <c r="I94" s="13" t="s">
         <v>431</v>
@@ -24109,7 +24431,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B95" s="11"/>
@@ -24117,19 +24439,19 @@
         <v>1512</v>
       </c>
       <c r="D95" s="65" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G95" s="31">
-        <v>42266</v>
+        <v>42268</v>
       </c>
       <c r="H95" s="69" t="s">
-        <v>235</v>
+        <v>1519</v>
       </c>
       <c r="I95" s="13" t="s">
         <v>431</v>
@@ -24138,7 +24460,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B96" s="11"/>
@@ -24146,10 +24468,10 @@
         <v>1513</v>
       </c>
       <c r="D96" s="65" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>684</v>
@@ -24167,7 +24489,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B97" s="11"/>
@@ -24175,28 +24497,28 @@
         <v>1514</v>
       </c>
       <c r="D97" s="65" t="s">
-        <v>1494</v>
+        <v>1502</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>1594</v>
+        <v>1476</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G97" s="31">
-        <v>42271</v>
+        <v>42266</v>
       </c>
       <c r="H97" s="69" t="s">
-        <v>1596</v>
+        <v>235</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>1595</v>
+        <v>431</v>
       </c>
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B98" s="11"/>
@@ -24204,28 +24526,28 @@
         <v>1515</v>
       </c>
       <c r="D98" s="65" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>1477</v>
+        <v>1594</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G98" s="31">
-        <v>42266</v>
+        <v>42271</v>
       </c>
       <c r="H98" s="69" t="s">
-        <v>235</v>
+        <v>1596</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>431</v>
+        <v>1595</v>
       </c>
       <c r="J98" s="14"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B99" s="11"/>
@@ -24233,10 +24555,10 @@
         <v>1523</v>
       </c>
       <c r="D99" s="65" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>684</v>
@@ -24254,7 +24576,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B100" s="11"/>
@@ -24262,10 +24584,10 @@
         <v>1581</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>1480</v>
+        <v>1495</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>684</v>
@@ -24283,7 +24605,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B101" s="11"/>
@@ -24291,28 +24613,28 @@
         <v>1582</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>1520</v>
+        <v>1480</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>1479</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G101" s="31">
-        <v>42268</v>
+        <v>42266</v>
       </c>
       <c r="H101" s="69" t="s">
         <v>235</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B102" s="11"/>
@@ -24320,85 +24642,85 @@
         <v>1583</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>1577</v>
+        <v>1522</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>1553</v>
+        <v>1520</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="G102" s="75">
-        <v>42269</v>
-      </c>
-      <c r="H102" s="74" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I102" s="114" t="s">
-        <v>1516</v>
+      <c r="G102" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H102" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="J102" s="14"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B103" s="11"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="69"/>
-      <c r="I103" s="13"/>
+      <c r="C103" s="28" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D103" s="65" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E103" s="55" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G103" s="75">
+        <v>42269</v>
+      </c>
+      <c r="H103" s="74" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I103" s="114" t="s">
+        <v>1516</v>
+      </c>
       <c r="J103" s="14"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D104" s="65" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G104" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H104" s="70" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="69"/>
+      <c r="I104" s="13"/>
       <c r="J104" s="14"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>1591</v>
+      </c>
       <c r="C105" s="28" t="s">
-        <v>1571</v>
+        <v>1545</v>
       </c>
       <c r="D105" s="65" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E105" s="55" t="s">
-        <v>1546</v>
+        <v>1584</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>1544</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>684</v>
@@ -24416,18 +24738,18 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="28" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D106" s="65" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>684</v>
@@ -24445,18 +24767,18 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="28" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D107" s="65" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>684</v>
@@ -24474,18 +24796,18 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="28" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D108" s="65" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>684</v>
@@ -24503,18 +24825,18 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="28" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D109" s="65" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>684</v>
@@ -24532,18 +24854,18 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="28" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D110" s="65" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1552</v>
+        <v>1589</v>
+      </c>
+      <c r="E110" s="55" t="s">
+        <v>1550</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>684</v>
@@ -24560,52 +24882,64 @@
       <c r="J110" s="14"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
       <c r="B111" s="11"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="65"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="13"/>
+      <c r="C111" s="28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D111" s="65" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G111" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H111" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J111" s="14"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="11" t="s">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="65"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="14"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>1610</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C113" s="28" t="s">
         <v>1611</v>
       </c>
-      <c r="D112" s="65" t="s">
+      <c r="D113" s="65" t="s">
         <v>1616</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>1614</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G112" s="31">
-        <v>42273</v>
-      </c>
-      <c r="H112" s="70" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J112" s="14"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="11"/>
-      <c r="C113" s="28" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D113" s="65" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1613</v>
       </c>
       <c r="F113" s="12" t="s">
         <v>684</v>
@@ -24622,26 +24956,68 @@
       <c r="J113" s="14"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
       <c r="B114" s="11"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="65"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="70"/>
-      <c r="I114" s="13"/>
+      <c r="C114" s="28" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D114" s="65" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G114" s="31">
+        <v>42273</v>
+      </c>
+      <c r="H114" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J114" s="14"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
       <c r="B115" s="11"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="65"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="70"/>
-      <c r="I115" s="13"/>
+      <c r="C115" s="28" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D115" s="65" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G115" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H115" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J115" s="14"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
       <c r="B116" s="11"/>
       <c r="C116" s="28"/>
       <c r="D116" s="65"/>
@@ -24652,6 +25028,10 @@
       <c r="J116" s="14"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
       <c r="B117" s="11"/>
       <c r="C117" s="28"/>
       <c r="D117" s="65"/>
@@ -24662,6 +25042,10 @@
       <c r="J117" s="14"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
       <c r="B118" s="11"/>
       <c r="C118" s="28"/>
       <c r="D118" s="65"/>
@@ -24672,6 +25056,10 @@
       <c r="J118" s="14"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
       <c r="B119" s="11"/>
       <c r="C119" s="28"/>
       <c r="D119" s="65"/>
@@ -24681,66 +25069,51 @@
       <c r="I119" s="13"/>
       <c r="J119" s="14"/>
     </row>
-    <row r="120" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="B120" s="16"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="19"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="11"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="65"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="70"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="14"/>
+    </row>
+    <row r="121" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F121" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G121" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H121" s="70" t="s">
-        <v>1468</v>
-      </c>
-      <c r="I121" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J121" s="14"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="19"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="B122" s="11"/>
+      <c r="B122" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C122" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F122" s="55" t="s">
         <v>684</v>
@@ -24749,7 +25122,7 @@
         <v>42266</v>
       </c>
       <c r="H122" s="70" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="I122" s="13" t="s">
         <v>431</v>
@@ -24758,18 +25131,18 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F123" s="55" t="s">
         <v>684</v>
@@ -24787,18 +25160,18 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="28" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F124" s="55" t="s">
         <v>684</v>
@@ -24816,18 +25189,18 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F125" s="55" t="s">
         <v>684</v>
@@ -24845,18 +25218,18 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F126" s="55" t="s">
         <v>684</v>
@@ -24874,24 +25247,24 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="28" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D127" s="55" t="s">
-        <v>1561</v>
+        <v>769</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F127" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F127" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G127" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H127" s="70" t="s">
         <v>1467</v>
@@ -24903,18 +25276,18 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="28" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D128" s="55" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>684</v>
@@ -24932,18 +25305,18 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="28" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D129" s="55" t="s">
-        <v>1555</v>
+        <v>1562</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>684</v>
@@ -24961,18 +25334,18 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="28" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D130" s="55" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>684</v>
@@ -24990,18 +25363,18 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="28" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D131" s="55" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>684</v>
@@ -25019,18 +25392,18 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="28" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D132" s="55" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>684</v>
@@ -25048,18 +25421,18 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="28" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D133" s="55" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>684</v>
@@ -25077,18 +25450,18 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="28" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D134" s="55" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>684</v>
@@ -25106,22 +25479,36 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B135" s="11"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="69"/>
-      <c r="I135" s="12"/>
+      <c r="C135" s="28" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D135" s="55" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G135" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H135" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J135" s="14"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B136" s="11"/>
@@ -25136,7 +25523,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B137" s="11"/>
@@ -25144,14 +25531,14 @@
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
+      <c r="G137" s="31"/>
       <c r="H137" s="69"/>
       <c r="I137" s="12"/>
       <c r="J137" s="14"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B138" s="11"/>
@@ -25166,7 +25553,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B139" s="11"/>
@@ -25181,7 +25568,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B140" s="11"/>
@@ -25194,66 +25581,52 @@
       <c r="I140" s="12"/>
       <c r="J140" s="14"/>
     </row>
-    <row r="141" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B141" s="16"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="71"/>
-      <c r="I141" s="17"/>
-      <c r="J141" s="19"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="11"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="69"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="14"/>
+    </row>
+    <row r="142" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="E142" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G142" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H142" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I142" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J142" s="14"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="71"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="19"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B143" s="11"/>
+      <c r="B143" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C143" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>787</v>
+        <v>841</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>1350</v>
@@ -25271,18 +25644,18 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>1350</v>
@@ -25300,18 +25673,18 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f t="shared" ref="A145:A197" si="2">ROW($A145)-6</f>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="28" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>1350</v>
@@ -25329,18 +25702,18 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A146:A208" si="3">ROW($A146)-6</f>
         <v>140</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F146" s="12" t="s">
         <v>1350</v>
@@ -25358,18 +25731,18 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>842</v>
+        <v>790</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>1350</v>
@@ -25387,18 +25760,18 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>1350</v>
@@ -25416,18 +25789,18 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>1350</v>
@@ -25445,18 +25818,18 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>1350</v>
@@ -25474,18 +25847,18 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>1350</v>
@@ -25503,18 +25876,18 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>1350</v>
@@ -25532,18 +25905,18 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>1350</v>
@@ -25561,18 +25934,18 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>1350</v>
@@ -25590,18 +25963,18 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>1350</v>
@@ -25619,18 +25992,18 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>1350</v>
@@ -25648,62 +26021,62 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
       <c r="B157" s="11"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="31"/>
-      <c r="H157" s="70"/>
-      <c r="I157" s="13"/>
+      <c r="C157" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G157" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H157" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I157" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J157" s="14"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="B158" s="11"/>
-      <c r="C158" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D158" s="55" t="s">
-        <v>858</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="F158" s="12" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G158" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H158" s="74" t="s">
-        <v>1529</v>
-      </c>
-      <c r="I158" s="13" t="s">
-        <v>1528</v>
-      </c>
+      <c r="C158" s="28"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="70"/>
+      <c r="I158" s="13"/>
       <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="28" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D159" s="55" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>1527</v>
@@ -25721,18 +26094,18 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="28" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D160" s="55" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>1527</v>
@@ -25750,18 +26123,18 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="28" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D161" s="55" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>1527</v>
@@ -25779,18 +26152,18 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D162" s="55" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>1527</v>
@@ -25808,89 +26181,89 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
       <c r="B163" s="11"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="55"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="70"/>
-      <c r="I163" s="13"/>
+      <c r="C163" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="D163" s="55" t="s">
+        <v>862</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G163" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H163" s="74" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I163" s="13" t="s">
+        <v>1528</v>
+      </c>
       <c r="J163" s="14"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="28"/>
-      <c r="D164" s="55" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E164" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="F164" s="12" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G164" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H164" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I164" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="D164" s="55"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="70"/>
+      <c r="I164" s="13"/>
       <c r="J164" s="14"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
       <c r="B165" s="11"/>
-      <c r="C165" s="28" t="s">
-        <v>1461</v>
-      </c>
+      <c r="C165" s="28"/>
       <c r="D165" s="55" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E165" s="55" t="s">
-        <v>1458</v>
+        <v>1352</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F165" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G165" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H165" s="70" t="s">
-        <v>235</v>
+        <v>1347</v>
       </c>
       <c r="I165" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J165" s="14"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="28" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D166" s="55" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E166" s="55" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>1351</v>
@@ -25908,18 +26281,18 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="28" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D167" s="55" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E167" s="55" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>1351</v>
@@ -25937,24 +26310,24 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="28" t="s">
-        <v>1603</v>
+        <v>1463</v>
       </c>
       <c r="D168" s="55" t="s">
-        <v>1604</v>
+        <v>1466</v>
       </c>
       <c r="E168" s="55" t="s">
-        <v>1602</v>
+        <v>1460</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G168" s="31">
-        <v>42272</v>
+        <v>42266</v>
       </c>
       <c r="H168" s="70" t="s">
         <v>235</v>
@@ -25966,367 +26339,325 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
       <c r="B169" s="11"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="55"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="12"/>
-      <c r="H169" s="70"/>
-      <c r="I169" s="13"/>
+      <c r="C169" s="28" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D169" s="55" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E169" s="55" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G169" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H169" s="70" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I169" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J169" s="14"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
       <c r="B170" s="11"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="55"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="70"/>
-      <c r="I170" s="13"/>
+      <c r="C170" s="28" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D170" s="55" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E170" s="55" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G170" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H170" s="70" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I170" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J170" s="14"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D171" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="E171" s="12" t="s">
-        <v>868</v>
+        <v>1620</v>
+      </c>
+      <c r="D171" s="55" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E171" s="55" t="s">
+        <v>1631</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G171" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H171" s="70" t="s">
-        <v>1347</v>
+        <v>1618</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J171" s="14"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E172" s="12" t="s">
-        <v>869</v>
+        <v>1621</v>
+      </c>
+      <c r="D172" s="55" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E172" s="55" t="s">
+        <v>1632</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G172" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H172" s="70" t="s">
-        <v>1347</v>
+        <v>1618</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J172" s="14"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>167</v>
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="28" t="s">
-        <v>894</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>870</v>
+        <v>1622</v>
+      </c>
+      <c r="D173" s="55" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E173" s="55" t="s">
+        <v>1633</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G173" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H173" s="70" t="s">
-        <v>1347</v>
+        <v>1618</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J173" s="14"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="28" t="s">
-        <v>895</v>
+        <v>1623</v>
       </c>
       <c r="D174" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="E174" s="12" t="s">
-        <v>871</v>
+        <v>1627</v>
+      </c>
+      <c r="E174" s="55" t="s">
+        <v>1634</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G174" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H174" s="70" t="s">
-        <v>1347</v>
+        <v>1618</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J174" s="14"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="28" t="s">
-        <v>896</v>
+        <v>1630</v>
       </c>
       <c r="D175" s="55" t="s">
-        <v>886</v>
-      </c>
-      <c r="E175" s="12" t="s">
-        <v>872</v>
+        <v>1628</v>
+      </c>
+      <c r="E175" s="55" t="s">
+        <v>1635</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G175" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H175" s="70" t="s">
-        <v>1347</v>
+        <v>1618</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J175" s="14"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="28" t="s">
-        <v>897</v>
+        <v>1647</v>
       </c>
       <c r="D176" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E176" s="12" t="s">
-        <v>873</v>
+        <v>1629</v>
+      </c>
+      <c r="E176" s="55" t="s">
+        <v>1636</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G176" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H176" s="70" t="s">
-        <v>1347</v>
+        <v>1618</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J176" s="14"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>171</v>
       </c>
       <c r="B177" s="11"/>
-      <c r="C177" s="28" t="s">
-        <v>898</v>
-      </c>
-      <c r="D177" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="E177" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="F177" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G177" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H177" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I177" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C177" s="28"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="55"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="31"/>
+      <c r="H177" s="70"/>
+      <c r="I177" s="13"/>
       <c r="J177" s="14"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>172</v>
       </c>
       <c r="B178" s="11"/>
-      <c r="C178" s="28" t="s">
-        <v>899</v>
-      </c>
-      <c r="D178" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>875</v>
-      </c>
-      <c r="F178" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G178" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H178" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I178" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C178" s="28"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="55"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="31"/>
+      <c r="H178" s="70"/>
+      <c r="I178" s="13"/>
       <c r="J178" s="14"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>173</v>
       </c>
       <c r="B179" s="11"/>
-      <c r="C179" s="28" t="s">
-        <v>900</v>
-      </c>
-      <c r="D179" s="55" t="s">
-        <v>887</v>
-      </c>
-      <c r="E179" s="12" t="s">
-        <v>876</v>
-      </c>
-      <c r="F179" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G179" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H179" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I179" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C179" s="28"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="31"/>
+      <c r="H179" s="70"/>
+      <c r="I179" s="13"/>
       <c r="J179" s="14"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
       <c r="B180" s="11"/>
-      <c r="C180" s="28" t="s">
-        <v>901</v>
-      </c>
-      <c r="D180" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E180" s="12" t="s">
-        <v>877</v>
-      </c>
-      <c r="F180" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G180" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H180" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I180" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C180" s="28"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="70"/>
+      <c r="I180" s="13"/>
       <c r="J180" s="14"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
       <c r="B181" s="11"/>
-      <c r="C181" s="28" t="s">
-        <v>902</v>
-      </c>
-      <c r="D181" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="E181" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="F181" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G181" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H181" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I181" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C181" s="28"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="70"/>
+      <c r="I181" s="13"/>
       <c r="J181" s="14"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>176</v>
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="28" t="s">
-        <v>903</v>
-      </c>
-      <c r="D182" s="55" t="s">
-        <v>888</v>
+        <v>892</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>885</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>1346</v>
@@ -26344,18 +26675,18 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>177</v>
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="28" t="s">
-        <v>904</v>
-      </c>
-      <c r="D183" s="55" t="s">
-        <v>889</v>
+        <v>893</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>547</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>1346</v>
@@ -26373,18 +26704,18 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>178</v>
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="28" t="s">
-        <v>905</v>
-      </c>
-      <c r="D184" s="55" t="s">
-        <v>890</v>
+        <v>894</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="F184" s="12" t="s">
         <v>1346</v>
@@ -26402,18 +26733,18 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>179</v>
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="28" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>891</v>
+        <v>501</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>1346</v>
@@ -26431,18 +26762,18 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="28" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="D186" s="55" t="s">
-        <v>617</v>
+        <v>886</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F186" s="12" t="s">
         <v>1346</v>
@@ -26460,18 +26791,18 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>181</v>
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="28" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="D187" s="55" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="F187" s="12" t="s">
         <v>1346</v>
@@ -26489,184 +26820,503 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>182</v>
       </c>
       <c r="B188" s="11"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="70"/>
-      <c r="I188" s="13"/>
+      <c r="C188" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="D188" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G188" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H188" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I188" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J188" s="14"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>183</v>
       </c>
       <c r="B189" s="11"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="70"/>
-      <c r="I189" s="13"/>
+      <c r="C189" s="28" t="s">
+        <v>899</v>
+      </c>
+      <c r="D189" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G189" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H189" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I189" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J189" s="14"/>
     </row>
-    <row r="190" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184</v>
       </c>
       <c r="B190" s="11"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="70"/>
-      <c r="I190" s="13"/>
+      <c r="C190" s="28" t="s">
+        <v>900</v>
+      </c>
+      <c r="D190" s="55" t="s">
+        <v>887</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G190" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H190" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I190" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J190" s="14"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>185</v>
       </c>
-      <c r="B191" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C191" s="27" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F191" s="8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G191" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H191" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I191" s="9" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J191" s="10"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="D191" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G191" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H191" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I191" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J191" s="14"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>186</v>
       </c>
       <c r="B192" s="11"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
-      <c r="G192" s="12"/>
-      <c r="H192" s="70"/>
-      <c r="I192" s="13"/>
+      <c r="C192" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="D192" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G192" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H192" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I192" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J192" s="14"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>187</v>
       </c>
       <c r="B193" s="11"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="12"/>
-      <c r="H193" s="70"/>
-      <c r="I193" s="13"/>
+      <c r="C193" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D193" s="55" t="s">
+        <v>888</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G193" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H193" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I193" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J193" s="14"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="B194" s="11"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
-      <c r="G194" s="12"/>
-      <c r="H194" s="69"/>
-      <c r="I194" s="12"/>
+      <c r="C194" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="D194" s="55" t="s">
+        <v>889</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G194" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H194" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I194" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J194" s="14"/>
     </row>
-    <row r="195" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
-      <c r="B195" s="16"/>
-      <c r="C195" s="29"/>
-      <c r="D195" s="16"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="17"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="71"/>
-      <c r="I195" s="17"/>
-      <c r="J195" s="19"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="D195" s="55" t="s">
+        <v>890</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G195" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H195" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I195" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J195" s="14"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="B196" s="11"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="12"/>
-      <c r="G196" s="12"/>
-      <c r="H196" s="69"/>
-      <c r="I196" s="12"/>
+      <c r="C196" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="D196" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G196" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H196" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I196" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J196" s="14"/>
     </row>
-    <row r="197" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="B197" s="16"/>
-      <c r="C197" s="29"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="17"/>
-      <c r="F197" s="17"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="71"/>
-      <c r="I197" s="17"/>
-      <c r="J197" s="19"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D197" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F197" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G197" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H197" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I197" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J197" s="14"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C198" s="3"/>
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="B198" s="11"/>
+      <c r="C198" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D198" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G198" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H198" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I198" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J198" s="14"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C199" s="3"/>
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+      <c r="B199" s="11"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="70"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="14"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C200" s="3"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C201" s="3"/>
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+      <c r="B200" s="11"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="70"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="14"/>
+    </row>
+    <row r="201" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="B201" s="11"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="70"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="14"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C202" s="27" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G202" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H202" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I202" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J202" s="10"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B203" s="11"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="70"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="14"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B204" s="11"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="70"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="14"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B205" s="11"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="69"/>
+      <c r="I205" s="12"/>
+      <c r="J205" s="14"/>
+    </row>
+    <row r="206" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B206" s="16"/>
+      <c r="C206" s="29"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="71"/>
+      <c r="I206" s="17"/>
+      <c r="J206" s="19"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B207" s="11"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="69"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="14"/>
+    </row>
+    <row r="208" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B208" s="16"/>
+      <c r="C208" s="29"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="17"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="71"/>
+      <c r="I208" s="17"/>
+      <c r="J208" s="19"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J197">
+  <autoFilter ref="A6:J208">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="560" windowWidth="36660" windowHeight="19440" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1740" yWindow="560" windowWidth="36660" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$215</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1678">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -9464,19 +9464,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>按钮_升级加号</t>
-    <rPh sb="0" eb="1">
-      <t>an'niu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>sheng'ji</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jia'hao</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>按钮_锁定</t>
     <rPh sb="0" eb="1">
       <t>an'niu</t>
@@ -9864,38 +9851,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>di'tu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮_加号1（用于强化）</t>
-    <rPh sb="0" eb="1">
-      <t>an'n</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jia'hao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yong'yu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>qiang'hua</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮_加号（金币加号）</t>
-    <rPh sb="0" eb="1">
-      <t>an'n</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jia'hao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jin'bi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jia'hao</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -11308,6 +11263,401 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月09日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算界面用，更新资源</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiesuan_caidai.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiesuan_ditu.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiesuan_fengexian.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiesuan_xing.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_ditu_1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_ditu_2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面1</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面2</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面3</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具tips1</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具tips2</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具tips</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面4</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面5</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算_彩带</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cai'dai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算_底图</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算_左右分隔线</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo'you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen'ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算_星星</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing'xing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算_升级箭头</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sheng'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian'tou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips底图内框</t>
+    <rPh sb="4" eb="5">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nei'kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips底图外框</t>
+    <rPh sb="4" eb="5">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wai'kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>anniu_jiahao_anxia.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面54</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮_升级加号（加金币复用）</t>
+    <rPh sb="0" eb="1">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sheng'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia'hao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin'b</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fu'yong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮_加号（用于宠物进阶等）</t>
+    <rPh sb="0" eb="1">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jin'jie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮_加号按下（用于宠物进阶等）</t>
+    <rPh sb="0" eb="1">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an'xia</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮_加号1（备用，暂未用到）</t>
+    <rPh sb="0" eb="1">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'hao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei'yong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zan'wei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yong'dao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiesuan_shengji.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈修改</t>
+    <rPh sb="0" eb="1">
+      <t>fan'kui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交宠物进阶加号按钮按下资源；（各类加号按钮说明修改）
+提交副本结算UI；道具tipsUI；更新victory资源
+更新角色制作统计-原画进度更新</t>
+    <rPh sb="0" eb="1">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia'hao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an'xia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ge'lei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jia'hao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>tong'ji</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>yuan'hua</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>jin'du</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>geng'x</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -12255,8 +12605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12576,43 +12926,43 @@
     </row>
     <row r="37" spans="2:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B37" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C37" s="98" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>1455</v>
-      </c>
-      <c r="C37" s="98" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B38" s="36" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="36" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B40" s="36" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>49</v>
@@ -12620,10 +12970,10 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="36" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>49</v>
@@ -12631,21 +12981,21 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="36" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="36" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>49</v>
@@ -12653,19 +13003,25 @@
     </row>
     <row r="44" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B44" s="36" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C44" s="98" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+    <row r="45" spans="2:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B45" s="36" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C45" s="98" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="36"/>
@@ -21809,13 +22165,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J212"/>
+  <dimension ref="A2:J219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E184" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C194" sqref="C194"/>
+      <selection pane="bottomRight" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -21859,7 +22215,7 @@
     <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67" t="s">
@@ -22604,10 +22960,10 @@
         <v>683</v>
       </c>
       <c r="G31" s="31">
-        <v>42245</v>
+        <v>42286</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>963</v>
+        <v>1647</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>431</v>
@@ -23062,7 +23418,7 @@
         <v>719</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>683</v>
@@ -23071,10 +23427,10 @@
         <v>42266</v>
       </c>
       <c r="H47" s="69" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I47" s="13" t="s">
         <v>1451</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>1452</v>
       </c>
       <c r="J47" s="14"/>
     </row>
@@ -23091,7 +23447,7 @@
         <v>720</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>683</v>
@@ -23100,10 +23456,10 @@
         <v>42242</v>
       </c>
       <c r="H48" s="69" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I48" s="13" t="s">
         <v>1451</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>1452</v>
       </c>
       <c r="J48" s="14"/>
     </row>
@@ -23120,7 +23476,7 @@
         <v>721</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>771</v>
@@ -23129,10 +23485,10 @@
         <v>42242</v>
       </c>
       <c r="H49" s="69" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>1451</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>1452</v>
       </c>
       <c r="J49" s="14"/>
     </row>
@@ -23424,7 +23780,7 @@
         <v>1404</v>
       </c>
       <c r="D60" s="65" t="s">
-        <v>1448</v>
+        <v>1671</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>1367</v>
@@ -23453,7 +23809,7 @@
         <v>1405</v>
       </c>
       <c r="D61" s="65" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>1368</v>
@@ -23482,7 +23838,7 @@
         <v>1406</v>
       </c>
       <c r="D62" s="65" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>1369</v>
@@ -23714,10 +24070,10 @@
         <v>1414</v>
       </c>
       <c r="D70" s="65" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>684</v>
@@ -23726,10 +24082,10 @@
         <v>42271</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="J70" s="14"/>
     </row>
@@ -23743,10 +24099,10 @@
         <v>1415</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>771</v>
@@ -23755,7 +24111,7 @@
         <v>42271</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="I71" s="13" t="s">
         <v>431</v>
@@ -23772,7 +24128,7 @@
         <v>1416</v>
       </c>
       <c r="D72" s="65" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>1378</v>
@@ -23801,7 +24157,7 @@
         <v>1417</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>1379</v>
@@ -23830,7 +24186,7 @@
         <v>1418</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>1380</v>
@@ -23859,7 +24215,7 @@
         <v>1419</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>1381</v>
@@ -23900,7 +24256,7 @@
         <v>42266</v>
       </c>
       <c r="H76" s="74" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>431</v>
@@ -23958,10 +24314,10 @@
         <v>42266</v>
       </c>
       <c r="H78" s="74" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="I78" s="114" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="J78" s="14"/>
     </row>
@@ -24004,7 +24360,7 @@
         <v>1424</v>
       </c>
       <c r="D80" s="65" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>1386</v>
@@ -24033,7 +24389,7 @@
         <v>1425</v>
       </c>
       <c r="D81" s="65" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>1387</v>
@@ -24149,10 +24505,10 @@
         <v>1429</v>
       </c>
       <c r="D85" s="65" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>771</v>
@@ -24164,24 +24520,24 @@
         <v>235</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="J85" s="14"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" ref="A86:A145" si="2">ROW($A86)-6</f>
+        <f t="shared" ref="A86:A152" si="2">ROW($A86)-6</f>
         <v>80</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="28" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="D86" s="65" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>684</v>
@@ -24204,10 +24560,10 @@
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="28" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="D87" s="113" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>1391</v>
@@ -24233,13 +24589,13 @@
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="28" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="D88" s="113" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>684</v>
@@ -24251,7 +24607,7 @@
         <v>234</v>
       </c>
       <c r="I88" s="114" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="J88" s="14"/>
     </row>
@@ -24262,13 +24618,13 @@
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="28" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="D89" s="65" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>684</v>
@@ -24277,7 +24633,7 @@
         <v>42270</v>
       </c>
       <c r="H89" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I89" s="13" t="s">
         <v>8</v>
@@ -24291,13 +24647,13 @@
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="28" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="D90" s="113" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>684</v>
@@ -24306,7 +24662,7 @@
         <v>42268</v>
       </c>
       <c r="H90" s="69" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="I90" s="13" t="s">
         <v>431</v>
@@ -24320,13 +24676,13 @@
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="28" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="D91" s="113" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>684</v>
@@ -24335,7 +24691,7 @@
         <v>42268</v>
       </c>
       <c r="H91" s="69" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="I91" s="13" t="s">
         <v>431</v>
@@ -24349,13 +24705,13 @@
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="28" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="D92" s="113" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>684</v>
@@ -24364,7 +24720,7 @@
         <v>42270</v>
       </c>
       <c r="H92" s="70" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="I92" s="13" t="s">
         <v>8</v>
@@ -24378,13 +24734,13 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="28" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="D93" s="65" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>684</v>
@@ -24407,13 +24763,13 @@
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="28" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="D94" s="65" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>684</v>
@@ -24436,13 +24792,13 @@
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="D95" s="65" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>684</v>
@@ -24451,7 +24807,7 @@
         <v>42268</v>
       </c>
       <c r="H95" s="69" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="I95" s="13" t="s">
         <v>431</v>
@@ -24465,13 +24821,13 @@
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="28" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="D96" s="65" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>684</v>
@@ -24494,13 +24850,13 @@
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="28" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="D97" s="65" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>684</v>
@@ -24523,13 +24879,13 @@
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="28" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="D98" s="65" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>684</v>
@@ -24538,10 +24894,10 @@
         <v>42271</v>
       </c>
       <c r="H98" s="69" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="J98" s="14"/>
     </row>
@@ -24552,13 +24908,13 @@
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="28" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="D99" s="65" t="s">
-        <v>1496</v>
+        <v>1672</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>684</v>
@@ -24581,19 +24937,19 @@
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="28" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>1495</v>
+        <v>1673</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>1478</v>
+        <v>1669</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G100" s="31">
-        <v>42266</v>
+        <v>42277</v>
       </c>
       <c r="H100" s="69" t="s">
         <v>235</v>
@@ -24610,13 +24966,13 @@
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="28" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>1480</v>
+        <v>1674</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>684</v>
@@ -24639,25 +24995,25 @@
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="28" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E102" s="55" t="s">
-        <v>1520</v>
+        <v>1479</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>1478</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G102" s="31">
-        <v>42268</v>
+        <v>42266</v>
       </c>
       <c r="H102" s="69" t="s">
         <v>235</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="J102" s="14"/>
     </row>
@@ -24668,25 +25024,25 @@
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="28" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D103" s="65" t="s">
-        <v>1577</v>
+        <v>1519</v>
       </c>
       <c r="E103" s="55" t="s">
-        <v>1553</v>
+        <v>1517</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="G103" s="75">
-        <v>42269</v>
-      </c>
-      <c r="H103" s="74" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I103" s="114" t="s">
-        <v>1516</v>
+      <c r="G103" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H103" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="J103" s="14"/>
     </row>
@@ -24696,13 +25052,27 @@
         <v>98</v>
       </c>
       <c r="B104" s="11"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="69"/>
-      <c r="I104" s="13"/>
+      <c r="C104" s="28" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D104" s="65" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E104" s="55" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G104" s="75">
+        <v>42269</v>
+      </c>
+      <c r="H104" s="74" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I104" s="114" t="s">
+        <v>1513</v>
+      </c>
       <c r="J104" s="14"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -24710,30 +25080,14 @@
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D105" s="65" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G105" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H105" s="70" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="13"/>
       <c r="J105" s="14"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -24741,15 +25095,17 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B106" s="11"/>
+      <c r="B106" s="11" t="s">
+        <v>1588</v>
+      </c>
       <c r="C106" s="28" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D106" s="65" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E106" s="55" t="s">
-        <v>1546</v>
+        <v>1581</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>1541</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>684</v>
@@ -24758,7 +25114,7 @@
         <v>42270</v>
       </c>
       <c r="H106" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I106" s="13" t="s">
         <v>8</v>
@@ -24772,13 +25128,13 @@
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="28" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="D107" s="65" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>684</v>
@@ -24787,7 +25143,7 @@
         <v>42270</v>
       </c>
       <c r="H107" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I107" s="13" t="s">
         <v>8</v>
@@ -24801,13 +25157,13 @@
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="28" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="D108" s="65" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>684</v>
@@ -24816,7 +25172,7 @@
         <v>42270</v>
       </c>
       <c r="H108" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I108" s="13" t="s">
         <v>8</v>
@@ -24830,13 +25186,13 @@
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="28" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="D109" s="65" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>684</v>
@@ -24845,7 +25201,7 @@
         <v>42270</v>
       </c>
       <c r="H109" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I109" s="13" t="s">
         <v>8</v>
@@ -24859,13 +25215,13 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="28" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="D110" s="65" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>684</v>
@@ -24874,7 +25230,7 @@
         <v>42270</v>
       </c>
       <c r="H110" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I110" s="13" t="s">
         <v>8</v>
@@ -24888,13 +25244,13 @@
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="28" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="D111" s="65" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1552</v>
+        <v>1586</v>
+      </c>
+      <c r="E111" s="55" t="s">
+        <v>1547</v>
       </c>
       <c r="F111" s="12" t="s">
         <v>684</v>
@@ -24903,7 +25259,7 @@
         <v>42270</v>
       </c>
       <c r="H111" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I111" s="13" t="s">
         <v>8</v>
@@ -24916,12 +25272,27 @@
         <v>106</v>
       </c>
       <c r="B112" s="11"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="65"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="13"/>
+      <c r="C112" s="28" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D112" s="65" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G112" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H112" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J112" s="14"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -24929,30 +25300,13 @@
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C113" s="28" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D113" s="65" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1614</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G113" s="31">
-        <v>42273</v>
-      </c>
-      <c r="H113" s="70" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="65"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="13"/>
       <c r="J113" s="14"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -24960,15 +25314,17 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B114" s="11"/>
+      <c r="B114" s="11" t="s">
+        <v>1607</v>
+      </c>
       <c r="C114" s="28" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D114" s="65" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E114" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>684</v>
@@ -24977,7 +25333,7 @@
         <v>42273</v>
       </c>
       <c r="H114" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I114" s="13" t="s">
         <v>8</v>
@@ -24991,22 +25347,22 @@
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="28" t="s">
-        <v>1642</v>
+        <v>1609</v>
       </c>
       <c r="D115" s="65" t="s">
-        <v>1643</v>
+        <v>1612</v>
       </c>
       <c r="E115" t="s">
-        <v>1641</v>
+        <v>1610</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G115" s="31">
-        <v>42276</v>
+        <v>42273</v>
       </c>
       <c r="H115" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I115" s="13" t="s">
         <v>8</v>
@@ -25019,12 +25375,27 @@
         <v>110</v>
       </c>
       <c r="B116" s="11"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="65"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="70"/>
-      <c r="I116" s="13"/>
+      <c r="C116" s="28" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D116" s="65" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G116" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H116" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J116" s="14"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -25046,13 +25417,30 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="65"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="13"/>
+      <c r="B118" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D118" s="65" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G118" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H118" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J118" s="14"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -25061,12 +25449,27 @@
         <v>113</v>
       </c>
       <c r="B119" s="11"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="65"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="70"/>
-      <c r="I119" s="13"/>
+      <c r="C119" s="28" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D119" s="65" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G119" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H119" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J119" s="14"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -25075,57 +25478,84 @@
         <v>114</v>
       </c>
       <c r="B120" s="11"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="65"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="70"/>
-      <c r="I120" s="13"/>
+      <c r="C120" s="28" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D120" s="65" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G120" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H120" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J120" s="14"/>
     </row>
-    <row r="121" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B121" s="16"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="19"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="28" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D121" s="65" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G121" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H121" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J121" s="14"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>784</v>
-      </c>
+      <c r="B122" s="11"/>
       <c r="C122" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F122" s="55" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D122" s="65" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F122" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G122" s="31">
-        <v>42266</v>
+        <v>42286</v>
       </c>
       <c r="H122" s="70" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J122" s="14"/>
     </row>
@@ -25135,27 +25565,12 @@
         <v>117</v>
       </c>
       <c r="B123" s="11"/>
-      <c r="C123" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="F123" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G123" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H123" s="70" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I123" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C123" s="28"/>
+      <c r="D123" s="65"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="13"/>
       <c r="J123" s="14"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -25163,27 +25578,29 @@
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="B124" s="11"/>
+      <c r="B124" s="11" t="s">
+        <v>1659</v>
+      </c>
       <c r="C124" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F124" s="55" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D124" s="65" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F124" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G124" s="31">
-        <v>42266</v>
+        <v>42286</v>
       </c>
       <c r="H124" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J124" s="14"/>
     </row>
@@ -25194,25 +25611,25 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F125" s="55" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D125" s="65" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F125" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G125" s="31">
-        <v>42266</v>
+        <v>42286</v>
       </c>
       <c r="H125" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J125" s="14"/>
     </row>
@@ -25222,27 +25639,12 @@
         <v>120</v>
       </c>
       <c r="B126" s="11"/>
-      <c r="C126" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="F126" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G126" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H126" s="70" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I126" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C126" s="28"/>
+      <c r="D126" s="65"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="70"/>
+      <c r="I126" s="13"/>
       <c r="J126" s="14"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -25251,78 +25653,51 @@
         <v>121</v>
       </c>
       <c r="B127" s="11"/>
-      <c r="C127" s="28" t="s">
-        <v>769</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="F127" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G127" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H127" s="70" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I127" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C127" s="28"/>
+      <c r="D127" s="65"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="13"/>
       <c r="J127" s="14"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="28" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D128" s="55" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E128" s="12" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G128" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H128" s="70" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I128" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J128" s="14"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="19"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="B129" s="11"/>
+      <c r="B129" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C129" s="28" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D129" s="55" t="s">
-        <v>1562</v>
+        <v>764</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F129" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="F129" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G129" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H129" s="70" t="s">
         <v>1467</v>
@@ -25339,22 +25714,22 @@
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="28" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D130" s="55" t="s">
-        <v>1555</v>
+        <v>765</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F130" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="F130" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G130" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H130" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I130" s="13" t="s">
         <v>431</v>
@@ -25368,22 +25743,22 @@
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="28" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D131" s="55" t="s">
-        <v>1556</v>
+        <v>766</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F131" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="F131" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G131" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H131" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I131" s="13" t="s">
         <v>431</v>
@@ -25397,22 +25772,22 @@
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="28" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D132" s="55" t="s">
-        <v>1557</v>
+        <v>767</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>706</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F132" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F132" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G132" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H132" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I132" s="13" t="s">
         <v>431</v>
@@ -25426,22 +25801,22 @@
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="28" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D133" s="55" t="s">
-        <v>1558</v>
+        <v>768</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F133" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="F133" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G133" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H133" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I133" s="13" t="s">
         <v>431</v>
@@ -25455,22 +25830,22 @@
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="28" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D134" s="55" t="s">
-        <v>1559</v>
+        <v>769</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F134" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F134" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G134" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H134" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I134" s="13" t="s">
         <v>431</v>
@@ -25484,13 +25859,13 @@
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="28" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="D135" s="55" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>684</v>
@@ -25499,7 +25874,7 @@
         <v>42270</v>
       </c>
       <c r="H135" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I135" s="13" t="s">
         <v>431</v>
@@ -25512,13 +25887,27 @@
         <v>130</v>
       </c>
       <c r="B136" s="11"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="31"/>
-      <c r="H136" s="69"/>
-      <c r="I136" s="12"/>
+      <c r="C136" s="28" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D136" s="55" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G136" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H136" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J136" s="14"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -25527,13 +25916,27 @@
         <v>131</v>
       </c>
       <c r="B137" s="11"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="69"/>
-      <c r="I137" s="12"/>
+      <c r="C137" s="28" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D137" s="55" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G137" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H137" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J137" s="14"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -25542,13 +25945,27 @@
         <v>132</v>
       </c>
       <c r="B138" s="11"/>
-      <c r="C138" s="22"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="69"/>
-      <c r="I138" s="12"/>
+      <c r="C138" s="28" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D138" s="55" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G138" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H138" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J138" s="14"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -25557,13 +25974,27 @@
         <v>133</v>
       </c>
       <c r="B139" s="11"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="69"/>
-      <c r="I139" s="12"/>
+      <c r="C139" s="28" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D139" s="55" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G139" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H139" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I139" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J139" s="14"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -25572,13 +26003,27 @@
         <v>134</v>
       </c>
       <c r="B140" s="11"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="69"/>
-      <c r="I140" s="12"/>
+      <c r="C140" s="28" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D140" s="55" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G140" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H140" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J140" s="14"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -25587,59 +26032,71 @@
         <v>135</v>
       </c>
       <c r="B141" s="11"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="69"/>
-      <c r="I141" s="12"/>
+      <c r="C141" s="28" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D141" s="55" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G141" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H141" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I141" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J141" s="14"/>
     </row>
-    <row r="142" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B142" s="16"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
-      <c r="G142" s="17"/>
-      <c r="H142" s="71"/>
-      <c r="I142" s="17"/>
-      <c r="J142" s="19"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D142" s="55" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G142" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H142" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I142" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="J142" s="14"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C143" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G143" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H143" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I143" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="69"/>
+      <c r="I143" s="12"/>
       <c r="J143" s="14"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -25648,27 +26105,13 @@
         <v>138</v>
       </c>
       <c r="B144" s="11"/>
-      <c r="C144" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="F144" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G144" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H144" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I144" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C144" s="22"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="69"/>
+      <c r="I144" s="12"/>
       <c r="J144" s="14"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -25677,159 +26120,91 @@
         <v>139</v>
       </c>
       <c r="B145" s="11"/>
-      <c r="C145" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="F145" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G145" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H145" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I145" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C145" s="22"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="69"/>
+      <c r="I145" s="12"/>
       <c r="J145" s="14"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f t="shared" ref="A146:A208" si="3">ROW($A146)-6</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B146" s="11"/>
-      <c r="C146" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G146" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H146" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I146" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C146" s="22"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="69"/>
+      <c r="I146" s="12"/>
       <c r="J146" s="14"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B147" s="11"/>
-      <c r="C147" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G147" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H147" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I147" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C147" s="22"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="69"/>
+      <c r="I147" s="12"/>
       <c r="J147" s="14"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B148" s="11"/>
-      <c r="C148" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G148" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H148" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I148" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C148" s="22"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="69"/>
+      <c r="I148" s="12"/>
       <c r="J148" s="14"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B149" s="11"/>
-      <c r="C149" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>832</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>822</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G149" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H149" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I149" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J149" s="14"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="71"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="19"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B150" s="11"/>
+      <c r="B150" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C150" s="28" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>1350</v>
@@ -25847,18 +26222,18 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="28" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>834</v>
+        <v>787</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>1350</v>
@@ -25876,18 +26251,18 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="28" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>835</v>
+        <v>788</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>1350</v>
@@ -25905,18 +26280,18 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A153:A215" si="3">ROW($A153)-6</f>
         <v>147</v>
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="28" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>836</v>
+        <v>789</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>1350</v>
@@ -25939,13 +26314,13 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="28" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>837</v>
+        <v>790</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>1350</v>
@@ -25968,13 +26343,13 @@
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="28" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>1350</v>
@@ -25997,13 +26372,13 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="28" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>1350</v>
@@ -26026,13 +26401,13 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="28" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>1350</v>
@@ -26054,13 +26429,27 @@
         <v>152</v>
       </c>
       <c r="B158" s="11"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="31"/>
-      <c r="H158" s="70"/>
-      <c r="I158" s="13"/>
+      <c r="C158" s="28" t="s">
+        <v>851</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G158" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H158" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I158" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -26070,25 +26459,25 @@
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D159" s="55" t="s">
-        <v>858</v>
+        <v>852</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>835</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>772</v>
+        <v>825</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>1527</v>
+        <v>1350</v>
       </c>
       <c r="G159" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H159" s="74" t="s">
-        <v>1529</v>
+        <v>42265</v>
+      </c>
+      <c r="H159" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>1528</v>
+        <v>815</v>
       </c>
       <c r="J159" s="14"/>
     </row>
@@ -26099,25 +26488,25 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="D160" s="55" t="s">
-        <v>859</v>
+        <v>853</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>836</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>773</v>
+        <v>826</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>1527</v>
+        <v>1350</v>
       </c>
       <c r="G160" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H160" s="74" t="s">
-        <v>1529</v>
+        <v>42265</v>
+      </c>
+      <c r="H160" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I160" s="13" t="s">
-        <v>1528</v>
+        <v>815</v>
       </c>
       <c r="J160" s="14"/>
     </row>
@@ -26128,25 +26517,25 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="28" t="s">
-        <v>781</v>
-      </c>
-      <c r="D161" s="55" t="s">
-        <v>860</v>
+        <v>854</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>837</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>1527</v>
+        <v>1350</v>
       </c>
       <c r="G161" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H161" s="74" t="s">
-        <v>1529</v>
+        <v>42265</v>
+      </c>
+      <c r="H161" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>1528</v>
+        <v>815</v>
       </c>
       <c r="J161" s="14"/>
     </row>
@@ -26157,25 +26546,25 @@
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="D162" s="55" t="s">
-        <v>861</v>
+        <v>855</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>838</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>775</v>
+        <v>828</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>1527</v>
+        <v>1350</v>
       </c>
       <c r="G162" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H162" s="74" t="s">
-        <v>1529</v>
+        <v>42265</v>
+      </c>
+      <c r="H162" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>1528</v>
+        <v>815</v>
       </c>
       <c r="J162" s="14"/>
     </row>
@@ -26186,25 +26575,25 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="28" t="s">
-        <v>783</v>
-      </c>
-      <c r="D163" s="55" t="s">
-        <v>862</v>
+        <v>856</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>839</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>776</v>
+        <v>829</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>1527</v>
+        <v>1350</v>
       </c>
       <c r="G163" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H163" s="74" t="s">
-        <v>1529</v>
+        <v>42265</v>
+      </c>
+      <c r="H163" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>1528</v>
+        <v>815</v>
       </c>
       <c r="J163" s="14"/>
     </row>
@@ -26214,13 +26603,27 @@
         <v>158</v>
       </c>
       <c r="B164" s="11"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="55"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="31"/>
-      <c r="H164" s="70"/>
-      <c r="I164" s="13"/>
+      <c r="C164" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G164" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H164" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I164" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J164" s="14"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -26230,24 +26633,12 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="28"/>
-      <c r="D165" s="55" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E165" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="F165" s="12" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G165" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H165" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I165" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="70"/>
+      <c r="I165" s="13"/>
       <c r="J165" s="14"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -26257,25 +26648,25 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="28" t="s">
-        <v>1461</v>
+        <v>779</v>
       </c>
       <c r="D166" s="55" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E166" s="55" t="s">
-        <v>1458</v>
+        <v>858</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>772</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>1351</v>
+        <v>1524</v>
       </c>
       <c r="G166" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H166" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H166" s="74" t="s">
+        <v>1526</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>431</v>
+        <v>1525</v>
       </c>
       <c r="J166" s="14"/>
     </row>
@@ -26286,25 +26677,25 @@
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="28" t="s">
-        <v>1462</v>
+        <v>780</v>
       </c>
       <c r="D167" s="55" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E167" s="55" t="s">
-        <v>1459</v>
+        <v>859</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>773</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>1351</v>
+        <v>1524</v>
       </c>
       <c r="G167" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H167" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H167" s="74" t="s">
+        <v>1526</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>431</v>
+        <v>1525</v>
       </c>
       <c r="J167" s="14"/>
     </row>
@@ -26315,25 +26706,25 @@
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="28" t="s">
-        <v>1463</v>
+        <v>781</v>
       </c>
       <c r="D168" s="55" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E168" s="55" t="s">
-        <v>1460</v>
+        <v>860</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>774</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>1351</v>
+        <v>1524</v>
       </c>
       <c r="G168" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H168" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H168" s="74" t="s">
+        <v>1526</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>431</v>
+        <v>1525</v>
       </c>
       <c r="J168" s="14"/>
     </row>
@@ -26344,25 +26735,25 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="28" t="s">
-        <v>1603</v>
+        <v>782</v>
       </c>
       <c r="D169" s="55" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E169" s="55" t="s">
-        <v>1602</v>
+        <v>861</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>775</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>1351</v>
+        <v>1524</v>
       </c>
       <c r="G169" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H169" s="70" t="s">
-        <v>1618</v>
+        <v>42268</v>
+      </c>
+      <c r="H169" s="74" t="s">
+        <v>1526</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>431</v>
+        <v>1525</v>
       </c>
       <c r="J169" s="14"/>
     </row>
@@ -26373,25 +26764,25 @@
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="28" t="s">
-        <v>1619</v>
+        <v>783</v>
       </c>
       <c r="D170" s="55" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E170" s="55" t="s">
-        <v>1646</v>
+        <v>862</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>1351</v>
+        <v>1524</v>
       </c>
       <c r="G170" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H170" s="70" t="s">
-        <v>1618</v>
+        <v>42268</v>
+      </c>
+      <c r="H170" s="74" t="s">
+        <v>1526</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>431</v>
+        <v>1525</v>
       </c>
       <c r="J170" s="14"/>
     </row>
@@ -26401,27 +26792,13 @@
         <v>165</v>
       </c>
       <c r="B171" s="11"/>
-      <c r="C171" s="28" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D171" s="55" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E171" s="55" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G171" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H171" s="70" t="s">
-        <v>1618</v>
-      </c>
-      <c r="I171" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C171" s="28"/>
+      <c r="D171" s="55"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="31"/>
+      <c r="H171" s="70"/>
+      <c r="I171" s="13"/>
       <c r="J171" s="14"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -26430,26 +26807,24 @@
         <v>166</v>
       </c>
       <c r="B172" s="11"/>
-      <c r="C172" s="28" t="s">
-        <v>1621</v>
-      </c>
+      <c r="C172" s="28"/>
       <c r="D172" s="55" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E172" s="55" t="s">
-        <v>1632</v>
+        <v>1352</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G172" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H172" s="70" t="s">
-        <v>1618</v>
+        <v>1347</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J172" s="14"/>
     </row>
@@ -26460,22 +26835,22 @@
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="28" t="s">
-        <v>1622</v>
+        <v>1460</v>
       </c>
       <c r="D173" s="55" t="s">
-        <v>1626</v>
+        <v>1463</v>
       </c>
       <c r="E173" s="55" t="s">
-        <v>1633</v>
+        <v>1457</v>
       </c>
       <c r="F173" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G173" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H173" s="70" t="s">
-        <v>1618</v>
+        <v>235</v>
       </c>
       <c r="I173" s="13" t="s">
         <v>431</v>
@@ -26489,22 +26864,22 @@
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="28" t="s">
-        <v>1623</v>
+        <v>1461</v>
       </c>
       <c r="D174" s="55" t="s">
-        <v>1627</v>
+        <v>1464</v>
       </c>
       <c r="E174" s="55" t="s">
-        <v>1634</v>
+        <v>1458</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G174" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H174" s="70" t="s">
-        <v>1618</v>
+        <v>235</v>
       </c>
       <c r="I174" s="13" t="s">
         <v>431</v>
@@ -26518,22 +26893,22 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="28" t="s">
-        <v>1630</v>
+        <v>1462</v>
       </c>
       <c r="D175" s="55" t="s">
-        <v>1628</v>
+        <v>1465</v>
       </c>
       <c r="E175" s="55" t="s">
-        <v>1635</v>
+        <v>1459</v>
       </c>
       <c r="F175" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G175" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H175" s="70" t="s">
-        <v>1618</v>
+        <v>235</v>
       </c>
       <c r="I175" s="13" t="s">
         <v>431</v>
@@ -26547,13 +26922,13 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="28" t="s">
-        <v>1647</v>
+        <v>1600</v>
       </c>
       <c r="D176" s="55" t="s">
-        <v>1629</v>
+        <v>1601</v>
       </c>
       <c r="E176" s="55" t="s">
-        <v>1636</v>
+        <v>1599</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>1351</v>
@@ -26562,7 +26937,7 @@
         <v>42276</v>
       </c>
       <c r="H176" s="70" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="I176" s="13" t="s">
         <v>431</v>
@@ -26575,13 +26950,27 @@
         <v>171</v>
       </c>
       <c r="B177" s="11"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="55"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="31"/>
-      <c r="H177" s="70"/>
-      <c r="I177" s="13"/>
+      <c r="C177" s="28" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D177" s="55" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E177" s="55" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G177" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H177" s="70" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J177" s="14"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -26590,13 +26979,27 @@
         <v>172</v>
       </c>
       <c r="B178" s="11"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="55"/>
-      <c r="F178" s="12"/>
-      <c r="G178" s="31"/>
-      <c r="H178" s="70"/>
-      <c r="I178" s="13"/>
+      <c r="C178" s="28" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D178" s="55" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E178" s="55" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G178" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H178" s="70" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I178" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J178" s="14"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -26605,13 +27008,27 @@
         <v>173</v>
       </c>
       <c r="B179" s="11"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="31"/>
-      <c r="H179" s="70"/>
-      <c r="I179" s="13"/>
+      <c r="C179" s="28" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D179" s="55" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E179" s="55" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G179" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H179" s="70" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I179" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J179" s="14"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -26620,13 +27037,27 @@
         <v>174</v>
       </c>
       <c r="B180" s="11"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="55"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="70"/>
-      <c r="I180" s="13"/>
+      <c r="C180" s="28" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D180" s="55" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E180" s="55" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G180" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H180" s="70" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I180" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J180" s="14"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -26635,13 +27066,27 @@
         <v>175</v>
       </c>
       <c r="B181" s="11"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="55"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="70"/>
-      <c r="I181" s="13"/>
+      <c r="C181" s="28" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D181" s="55" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E181" s="55" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G181" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H181" s="70" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I181" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J181" s="14"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -26651,25 +27096,25 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="E182" s="12" t="s">
-        <v>868</v>
+        <v>1627</v>
+      </c>
+      <c r="D182" s="55" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E182" s="55" t="s">
+        <v>1632</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G182" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H182" s="70" t="s">
-        <v>1347</v>
+        <v>1615</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J182" s="14"/>
     </row>
@@ -26680,25 +27125,25 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="D183" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E183" s="12" t="s">
-        <v>869</v>
+        <v>1644</v>
+      </c>
+      <c r="D183" s="55" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E183" s="55" t="s">
+        <v>1633</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G183" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H183" s="70" t="s">
-        <v>1347</v>
+        <v>1615</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J183" s="14"/>
     </row>
@@ -26708,27 +27153,13 @@
         <v>178</v>
       </c>
       <c r="B184" s="11"/>
-      <c r="C184" s="28" t="s">
-        <v>894</v>
-      </c>
-      <c r="D184" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="E184" s="12" t="s">
-        <v>870</v>
-      </c>
-      <c r="F184" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G184" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H184" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I184" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C184" s="28"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="70"/>
+      <c r="I184" s="13"/>
       <c r="J184" s="14"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -26737,27 +27168,13 @@
         <v>179</v>
       </c>
       <c r="B185" s="11"/>
-      <c r="C185" s="28" t="s">
-        <v>895</v>
-      </c>
-      <c r="D185" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="E185" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="F185" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G185" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H185" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I185" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C185" s="28"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="31"/>
+      <c r="H185" s="70"/>
+      <c r="I185" s="13"/>
       <c r="J185" s="14"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -26766,27 +27183,13 @@
         <v>180</v>
       </c>
       <c r="B186" s="11"/>
-      <c r="C186" s="28" t="s">
-        <v>896</v>
-      </c>
-      <c r="D186" s="55" t="s">
-        <v>886</v>
-      </c>
-      <c r="E186" s="12" t="s">
-        <v>872</v>
-      </c>
-      <c r="F186" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G186" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H186" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I186" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C186" s="28"/>
+      <c r="D186" s="55"/>
+      <c r="E186" s="55"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="70"/>
+      <c r="I186" s="13"/>
       <c r="J186" s="14"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -26795,27 +27198,13 @@
         <v>181</v>
       </c>
       <c r="B187" s="11"/>
-      <c r="C187" s="28" t="s">
-        <v>897</v>
-      </c>
-      <c r="D187" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E187" s="12" t="s">
-        <v>873</v>
-      </c>
-      <c r="F187" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G187" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H187" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I187" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C187" s="28"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="70"/>
+      <c r="I187" s="13"/>
       <c r="J187" s="14"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -26824,27 +27213,13 @@
         <v>182</v>
       </c>
       <c r="B188" s="11"/>
-      <c r="C188" s="28" t="s">
-        <v>898</v>
-      </c>
-      <c r="D188" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="E188" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="F188" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G188" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H188" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I188" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C188" s="28"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="55"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="70"/>
+      <c r="I188" s="13"/>
       <c r="J188" s="14"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -26854,13 +27229,13 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="28" t="s">
-        <v>899</v>
-      </c>
-      <c r="D189" s="55" t="s">
-        <v>19</v>
+        <v>892</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>885</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>1346</v>
@@ -26883,13 +27258,13 @@
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="28" t="s">
-        <v>900</v>
-      </c>
-      <c r="D190" s="55" t="s">
-        <v>887</v>
+        <v>893</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>547</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="F190" s="12" t="s">
         <v>1346</v>
@@ -26912,13 +27287,13 @@
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="28" t="s">
-        <v>901</v>
-      </c>
-      <c r="D191" s="55" t="s">
-        <v>38</v>
+        <v>894</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="F191" s="12" t="s">
         <v>1346</v>
@@ -26941,13 +27316,13 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="28" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D192" s="55" t="s">
-        <v>571</v>
+        <v>501</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>1346</v>
@@ -26970,13 +27345,13 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="28" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D193" s="55" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>1346</v>
@@ -26999,13 +27374,13 @@
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="28" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="D194" s="55" t="s">
-        <v>889</v>
+        <v>32</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>1346</v>
@@ -27028,13 +27403,13 @@
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="28" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D195" s="55" t="s">
-        <v>890</v>
+        <v>465</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>1346</v>
@@ -27057,13 +27432,13 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="28" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="D196" s="55" t="s">
-        <v>891</v>
+        <v>19</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>1346</v>
@@ -27086,13 +27461,13 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="28" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="D197" s="55" t="s">
-        <v>617</v>
+        <v>887</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>1346</v>
@@ -27115,13 +27490,13 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="28" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="D198" s="55" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>1346</v>
@@ -27143,13 +27518,27 @@
         <v>193</v>
       </c>
       <c r="B199" s="11"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="12"/>
-      <c r="H199" s="70"/>
-      <c r="I199" s="13"/>
+      <c r="C199" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="D199" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G199" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H199" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I199" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J199" s="14"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -27158,28 +27547,56 @@
         <v>194</v>
       </c>
       <c r="B200" s="11"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="12"/>
-      <c r="G200" s="12"/>
-      <c r="H200" s="70"/>
-      <c r="I200" s="13"/>
+      <c r="C200" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D200" s="55" t="s">
+        <v>888</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G200" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H200" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I200" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J200" s="14"/>
     </row>
-    <row r="201" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="B201" s="11"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="70"/>
-      <c r="I201" s="13"/>
+      <c r="C201" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="D201" s="55" t="s">
+        <v>889</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G201" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H201" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I201" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J201" s="14"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -27187,31 +27604,29 @@
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="B202" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C202" s="27" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F202" s="8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G202" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H202" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I202" s="9" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J202" s="10"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="D202" s="55" t="s">
+        <v>890</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G202" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H202" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I202" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J202" s="14"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -27219,13 +27634,27 @@
         <v>197</v>
       </c>
       <c r="B203" s="11"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="11"/>
-      <c r="E203" s="12"/>
-      <c r="F203" s="12"/>
-      <c r="G203" s="12"/>
-      <c r="H203" s="70"/>
-      <c r="I203" s="13"/>
+      <c r="C203" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="D203" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G203" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H203" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I203" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J203" s="14"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -27234,13 +27663,27 @@
         <v>198</v>
       </c>
       <c r="B204" s="11"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="12"/>
-      <c r="H204" s="70"/>
-      <c r="I204" s="13"/>
+      <c r="C204" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D204" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G204" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H204" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I204" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J204" s="14"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -27249,29 +27692,43 @@
         <v>199</v>
       </c>
       <c r="B205" s="11"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="11"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="12"/>
-      <c r="G205" s="12"/>
-      <c r="H205" s="69"/>
-      <c r="I205" s="12"/>
+      <c r="C205" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D205" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G205" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H205" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I205" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J205" s="14"/>
     </row>
-    <row r="206" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="B206" s="16"/>
-      <c r="C206" s="29"/>
-      <c r="D206" s="16"/>
-      <c r="E206" s="17"/>
-      <c r="F206" s="17"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="71"/>
-      <c r="I206" s="17"/>
-      <c r="J206" s="19"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="28"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="70"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="14"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -27284,8 +27741,8 @@
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
-      <c r="H207" s="69"/>
-      <c r="I207" s="12"/>
+      <c r="H207" s="70"/>
+      <c r="I207" s="13"/>
       <c r="J207" s="14"/>
     </row>
     <row r="208" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -27293,30 +27750,151 @@
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="B208" s="16"/>
-      <c r="C208" s="29"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="17"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="71"/>
-      <c r="I208" s="17"/>
-      <c r="J208" s="19"/>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C209" s="3"/>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C210" s="3"/>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C211" s="3"/>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C212" s="3"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="28"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="70"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="14"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C209" s="27" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G209" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H209" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I209" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J209" s="10"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="B210" s="11"/>
+      <c r="C210" s="28"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="70"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="14"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B211" s="11"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="70"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="14"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B212" s="11"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="69"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="14"/>
+    </row>
+    <row r="213" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B213" s="16"/>
+      <c r="C213" s="29"/>
+      <c r="D213" s="16"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="71"/>
+      <c r="I213" s="17"/>
+      <c r="J213" s="19"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B214" s="11"/>
+      <c r="C214" s="28"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="69"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="14"/>
+    </row>
+    <row r="215" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="B215" s="16"/>
+      <c r="C215" s="29"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="17"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="71"/>
+      <c r="I215" s="17"/>
+      <c r="J215" s="19"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J208">
+  <autoFilter ref="A6:J215">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>
@@ -27356,8 +27934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -27416,7 +27994,7 @@
         <v>1262</v>
       </c>
       <c r="C5" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1111</v>
@@ -27801,6 +28379,9 @@
       <c r="B24" s="86" t="s">
         <v>1286</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>1259</v>
+      </c>
       <c r="H24" s="101"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -27811,7 +28392,7 @@
         <v>1276</v>
       </c>
       <c r="C25" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>1259</v>
@@ -27826,10 +28407,10 @@
         <v>1275</v>
       </c>
       <c r="C26" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1259</v>
+        <v>1111</v>
       </c>
       <c r="H26" s="101"/>
     </row>
@@ -27841,10 +28422,10 @@
         <v>1281</v>
       </c>
       <c r="C27" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1259</v>
+        <v>1111</v>
       </c>
       <c r="H27" s="77"/>
     </row>
@@ -27865,7 +28446,7 @@
         <v>1277</v>
       </c>
       <c r="C29" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>1111</v>
@@ -27877,7 +28458,7 @@
         <v>1141</v>
       </c>
       <c r="B30" s="84" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C30" t="s">
         <v>1115</v>
@@ -27955,7 +28536,7 @@
         <v>1115</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1259</v>
+        <v>1676</v>
       </c>
       <c r="H33" s="101"/>
     </row>
@@ -27976,7 +28557,7 @@
         <v>1283</v>
       </c>
       <c r="C35" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>1259</v>
@@ -28000,7 +28581,7 @@
         <v>1284</v>
       </c>
       <c r="C37" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>1111</v>
@@ -28108,7 +28689,7 @@
         <v>1164</v>
       </c>
       <c r="B45" s="84" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="C45" t="s">
         <v>1165</v>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$221</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="1691">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -11658,6 +11658,115 @@
     </rPh>
     <rPh sb="71" eb="72">
       <t>geng'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月12日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交邮箱UI资源</t>
+    <rPh sb="0" eb="1">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱界面</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxiang_new.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxiang_baoguo.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxiang_youjian.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱界面1</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱界面2</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱界面3</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱_new标签</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao'qian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱_包裹图标</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱_邮件图标</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you'jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'b</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -12010,7 +12119,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -12027,6 +12136,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -12295,7 +12405,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="21">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -12312,6 +12422,7 @@
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="10"/>
     <cellStyle name="常规 4" xfId="11"/>
@@ -12605,8 +12716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -13024,9 +13135,15 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
+      <c r="B46" s="36" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>1680</v>
+      </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="36"/>
@@ -22165,13 +22282,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J219"/>
+  <dimension ref="A2:J225"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E123" sqref="E123"/>
+      <selection pane="bottomRight" activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -24526,7 +24643,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" ref="A86:A152" si="2">ROW($A86)-6</f>
+        <f t="shared" ref="A86:A158" si="2">ROW($A86)-6</f>
         <v>80</v>
       </c>
       <c r="B86" s="11"/>
@@ -25652,58 +25769,87 @@
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="65"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="70"/>
-      <c r="I127" s="13"/>
+      <c r="B127" s="11" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C127" s="28" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D127" s="65" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G127" s="31">
+        <v>42289</v>
+      </c>
+      <c r="H127" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J127" s="14"/>
     </row>
-    <row r="128" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="B128" s="16"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="19"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="28" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D128" s="65" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G128" s="31">
+        <v>42289</v>
+      </c>
+      <c r="H128" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J128" s="14"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>784</v>
-      </c>
+      <c r="B129" s="11"/>
       <c r="C129" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F129" s="55" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D129" s="65" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F129" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G129" s="31">
-        <v>42266</v>
+        <v>42289</v>
       </c>
       <c r="H129" s="70" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J129" s="14"/>
     </row>
@@ -25713,27 +25859,12 @@
         <v>124</v>
       </c>
       <c r="B130" s="11"/>
-      <c r="C130" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="F130" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G130" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H130" s="70" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I130" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C130" s="28"/>
+      <c r="D130" s="65"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="70"/>
+      <c r="I130" s="13"/>
       <c r="J130" s="14"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -25742,27 +25873,12 @@
         <v>125</v>
       </c>
       <c r="B131" s="11"/>
-      <c r="C131" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F131" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G131" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H131" s="70" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I131" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C131" s="28"/>
+      <c r="D131" s="65"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="70"/>
+      <c r="I131" s="13"/>
       <c r="J131" s="14"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -25771,27 +25887,12 @@
         <v>126</v>
       </c>
       <c r="B132" s="11"/>
-      <c r="C132" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F132" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G132" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H132" s="70" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I132" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C132" s="28"/>
+      <c r="D132" s="65"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="70"/>
+      <c r="I132" s="13"/>
       <c r="J132" s="14"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -25800,81 +25901,54 @@
         <v>127</v>
       </c>
       <c r="B133" s="11"/>
-      <c r="C133" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="F133" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G133" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H133" s="70" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I133" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C133" s="28"/>
+      <c r="D133" s="65"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="70"/>
+      <c r="I133" s="13"/>
       <c r="J133" s="14"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="28" t="s">
-        <v>769</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="F134" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G134" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H134" s="70" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I134" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J134" s="14"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="19"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="B135" s="11"/>
+      <c r="B135" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C135" s="28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D135" s="55" t="s">
-        <v>1558</v>
+        <v>764</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F135" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="F135" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G135" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H135" s="70" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="I135" s="13" t="s">
         <v>431</v>
@@ -25888,19 +25962,19 @@
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="28" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D136" s="55" t="s">
-        <v>1559</v>
+        <v>765</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F136" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="F136" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G136" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H136" s="70" t="s">
         <v>1466</v>
@@ -25917,19 +25991,19 @@
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="28" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D137" s="55" t="s">
-        <v>1552</v>
+        <v>766</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F137" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="F137" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G137" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H137" s="70" t="s">
         <v>1466</v>
@@ -25946,19 +26020,19 @@
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="28" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D138" s="55" t="s">
-        <v>1553</v>
+        <v>767</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>706</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F138" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F138" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G138" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H138" s="70" t="s">
         <v>1466</v>
@@ -25975,19 +26049,19 @@
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="28" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D139" s="55" t="s">
-        <v>1554</v>
+        <v>768</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F139" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="F139" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G139" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H139" s="70" t="s">
         <v>1466</v>
@@ -26004,19 +26078,19 @@
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="28" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D140" s="55" t="s">
-        <v>1555</v>
+        <v>769</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F140" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F140" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G140" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H140" s="70" t="s">
         <v>1466</v>
@@ -26033,13 +26107,13 @@
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="28" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="D141" s="55" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>684</v>
@@ -26062,13 +26136,13 @@
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="28" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="D142" s="55" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>684</v>
@@ -26090,13 +26164,27 @@
         <v>137</v>
       </c>
       <c r="B143" s="11"/>
-      <c r="C143" s="22"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="69"/>
-      <c r="I143" s="12"/>
+      <c r="C143" s="28" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D143" s="55" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G143" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H143" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I143" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J143" s="14"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -26105,13 +26193,27 @@
         <v>138</v>
       </c>
       <c r="B144" s="11"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="31"/>
-      <c r="H144" s="69"/>
-      <c r="I144" s="12"/>
+      <c r="C144" s="28" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D144" s="55" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G144" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H144" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J144" s="14"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -26120,13 +26222,27 @@
         <v>139</v>
       </c>
       <c r="B145" s="11"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="69"/>
-      <c r="I145" s="12"/>
+      <c r="C145" s="28" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D145" s="55" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G145" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H145" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I145" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J145" s="14"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -26135,13 +26251,27 @@
         <v>140</v>
       </c>
       <c r="B146" s="11"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="69"/>
-      <c r="I146" s="12"/>
+      <c r="C146" s="28" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D146" s="55" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G146" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H146" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I146" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J146" s="14"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -26150,13 +26280,27 @@
         <v>141</v>
       </c>
       <c r="B147" s="11"/>
-      <c r="C147" s="22"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="69"/>
-      <c r="I147" s="12"/>
+      <c r="C147" s="28" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D147" s="55" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G147" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H147" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I147" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J147" s="14"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -26165,59 +26309,57 @@
         <v>142</v>
       </c>
       <c r="B148" s="11"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="69"/>
-      <c r="I148" s="12"/>
+      <c r="C148" s="28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D148" s="55" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G148" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H148" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I148" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J148" s="14"/>
     </row>
-    <row r="149" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B149" s="16"/>
-      <c r="C149" s="23"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="19"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="69"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="14"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B150" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C150" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="F150" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G150" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H150" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I150" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="69"/>
+      <c r="I150" s="12"/>
       <c r="J150" s="14"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -26226,27 +26368,13 @@
         <v>145</v>
       </c>
       <c r="B151" s="11"/>
-      <c r="C151" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G151" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H151" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I151" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C151" s="22"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="69"/>
+      <c r="I151" s="12"/>
       <c r="J151" s="14"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -26255,130 +26383,76 @@
         <v>146</v>
       </c>
       <c r="B152" s="11"/>
-      <c r="C152" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G152" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H152" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I152" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C152" s="22"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="69"/>
+      <c r="I152" s="12"/>
       <c r="J152" s="14"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f t="shared" ref="A153:A215" si="3">ROW($A153)-6</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B153" s="11"/>
-      <c r="C153" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="E153" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="F153" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G153" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H153" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I153" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C153" s="22"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="69"/>
+      <c r="I153" s="12"/>
       <c r="J153" s="14"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B154" s="11"/>
-      <c r="C154" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="F154" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G154" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H154" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I154" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C154" s="22"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="69"/>
+      <c r="I154" s="12"/>
       <c r="J154" s="14"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G155" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H155" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I155" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J155" s="14"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="71"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="19"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B156" s="11"/>
+      <c r="B156" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C156" s="28" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>1350</v>
@@ -26396,18 +26470,18 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="28" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>833</v>
+        <v>787</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>1350</v>
@@ -26425,18 +26499,18 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="28" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>834</v>
+        <v>788</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>1350</v>
@@ -26454,18 +26528,18 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A159:A221" si="3">ROW($A159)-6</f>
         <v>153</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="28" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>835</v>
+        <v>789</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>1350</v>
@@ -26488,13 +26562,13 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="28" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>836</v>
+        <v>790</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>1350</v>
@@ -26517,13 +26591,13 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="28" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>1350</v>
@@ -26546,13 +26620,13 @@
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="28" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>1350</v>
@@ -26575,13 +26649,13 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="28" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>1350</v>
@@ -26604,13 +26678,13 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="28" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>1350</v>
@@ -26632,13 +26706,27 @@
         <v>159</v>
       </c>
       <c r="B165" s="11"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="31"/>
-      <c r="H165" s="70"/>
-      <c r="I165" s="13"/>
+      <c r="C165" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G165" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H165" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I165" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J165" s="14"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -26648,25 +26736,25 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D166" s="55" t="s">
-        <v>858</v>
+        <v>853</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>836</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>772</v>
+        <v>826</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>1524</v>
+        <v>1350</v>
       </c>
       <c r="G166" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H166" s="74" t="s">
-        <v>1526</v>
+        <v>42265</v>
+      </c>
+      <c r="H166" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>1525</v>
+        <v>815</v>
       </c>
       <c r="J166" s="14"/>
     </row>
@@ -26677,25 +26765,25 @@
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="D167" s="55" t="s">
-        <v>859</v>
+        <v>854</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>837</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>773</v>
+        <v>827</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>1524</v>
+        <v>1350</v>
       </c>
       <c r="G167" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H167" s="74" t="s">
-        <v>1526</v>
+        <v>42265</v>
+      </c>
+      <c r="H167" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>1525</v>
+        <v>815</v>
       </c>
       <c r="J167" s="14"/>
     </row>
@@ -26706,25 +26794,25 @@
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="28" t="s">
-        <v>781</v>
-      </c>
-      <c r="D168" s="55" t="s">
-        <v>860</v>
+        <v>855</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>838</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>774</v>
+        <v>828</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>1524</v>
+        <v>1350</v>
       </c>
       <c r="G168" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H168" s="74" t="s">
-        <v>1526</v>
+        <v>42265</v>
+      </c>
+      <c r="H168" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>1525</v>
+        <v>815</v>
       </c>
       <c r="J168" s="14"/>
     </row>
@@ -26735,25 +26823,25 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="D169" s="55" t="s">
-        <v>861</v>
+        <v>856</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>839</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>1524</v>
+        <v>1350</v>
       </c>
       <c r="G169" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H169" s="74" t="s">
-        <v>1526</v>
+        <v>42265</v>
+      </c>
+      <c r="H169" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>1525</v>
+        <v>815</v>
       </c>
       <c r="J169" s="14"/>
     </row>
@@ -26764,25 +26852,25 @@
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="28" t="s">
-        <v>783</v>
-      </c>
-      <c r="D170" s="55" t="s">
-        <v>862</v>
+        <v>857</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>840</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>776</v>
+        <v>830</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>1524</v>
+        <v>1350</v>
       </c>
       <c r="G170" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H170" s="74" t="s">
-        <v>1526</v>
+        <v>42265</v>
+      </c>
+      <c r="H170" s="70" t="s">
+        <v>1347</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>1525</v>
+        <v>815</v>
       </c>
       <c r="J170" s="14"/>
     </row>
@@ -26793,7 +26881,7 @@
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="28"/>
-      <c r="D171" s="55"/>
+      <c r="D171" s="12"/>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
       <c r="G171" s="31"/>
@@ -26807,24 +26895,26 @@
         <v>166</v>
       </c>
       <c r="B172" s="11"/>
-      <c r="C172" s="28"/>
+      <c r="C172" s="28" t="s">
+        <v>779</v>
+      </c>
       <c r="D172" s="55" t="s">
-        <v>1352</v>
+        <v>858</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>1351</v>
+        <v>1524</v>
       </c>
       <c r="G172" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H172" s="70" t="s">
-        <v>1347</v>
+        <v>42268</v>
+      </c>
+      <c r="H172" s="74" t="s">
+        <v>1526</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>815</v>
+        <v>1525</v>
       </c>
       <c r="J172" s="14"/>
     </row>
@@ -26835,25 +26925,25 @@
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="28" t="s">
-        <v>1460</v>
+        <v>780</v>
       </c>
       <c r="D173" s="55" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E173" s="55" t="s">
-        <v>1457</v>
+        <v>859</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>773</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>1351</v>
+        <v>1524</v>
       </c>
       <c r="G173" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H173" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H173" s="74" t="s">
+        <v>1526</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>431</v>
+        <v>1525</v>
       </c>
       <c r="J173" s="14"/>
     </row>
@@ -26864,25 +26954,25 @@
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="28" t="s">
-        <v>1461</v>
+        <v>781</v>
       </c>
       <c r="D174" s="55" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E174" s="55" t="s">
-        <v>1458</v>
+        <v>860</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>774</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>1351</v>
+        <v>1524</v>
       </c>
       <c r="G174" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H174" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H174" s="74" t="s">
+        <v>1526</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>431</v>
+        <v>1525</v>
       </c>
       <c r="J174" s="14"/>
     </row>
@@ -26893,25 +26983,25 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="28" t="s">
-        <v>1462</v>
+        <v>782</v>
       </c>
       <c r="D175" s="55" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E175" s="55" t="s">
-        <v>1459</v>
+        <v>861</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>775</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>1351</v>
+        <v>1524</v>
       </c>
       <c r="G175" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H175" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H175" s="74" t="s">
+        <v>1526</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>431</v>
+        <v>1525</v>
       </c>
       <c r="J175" s="14"/>
     </row>
@@ -26922,25 +27012,25 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="28" t="s">
-        <v>1600</v>
+        <v>783</v>
       </c>
       <c r="D176" s="55" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E176" s="55" t="s">
-        <v>1599</v>
+        <v>862</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>1351</v>
+        <v>1524</v>
       </c>
       <c r="G176" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H176" s="70" t="s">
-        <v>1615</v>
+        <v>42268</v>
+      </c>
+      <c r="H176" s="74" t="s">
+        <v>1526</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>431</v>
+        <v>1525</v>
       </c>
       <c r="J176" s="14"/>
     </row>
@@ -26950,27 +27040,13 @@
         <v>171</v>
       </c>
       <c r="B177" s="11"/>
-      <c r="C177" s="28" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D177" s="55" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E177" s="55" t="s">
-        <v>1643</v>
-      </c>
-      <c r="F177" s="12" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G177" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H177" s="70" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I177" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C177" s="28"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="31"/>
+      <c r="H177" s="70"/>
+      <c r="I177" s="13"/>
       <c r="J177" s="14"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -26979,26 +27055,24 @@
         <v>172</v>
       </c>
       <c r="B178" s="11"/>
-      <c r="C178" s="28" t="s">
-        <v>1617</v>
-      </c>
+      <c r="C178" s="28"/>
       <c r="D178" s="55" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E178" s="55" t="s">
-        <v>1628</v>
+        <v>1352</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G178" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H178" s="70" t="s">
-        <v>1615</v>
+        <v>1347</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J178" s="14"/>
     </row>
@@ -27009,22 +27083,22 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="28" t="s">
-        <v>1618</v>
+        <v>1460</v>
       </c>
       <c r="D179" s="55" t="s">
-        <v>1622</v>
+        <v>1463</v>
       </c>
       <c r="E179" s="55" t="s">
-        <v>1629</v>
+        <v>1457</v>
       </c>
       <c r="F179" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G179" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H179" s="70" t="s">
-        <v>1615</v>
+        <v>235</v>
       </c>
       <c r="I179" s="13" t="s">
         <v>431</v>
@@ -27038,22 +27112,22 @@
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="28" t="s">
-        <v>1619</v>
+        <v>1461</v>
       </c>
       <c r="D180" s="55" t="s">
-        <v>1623</v>
+        <v>1464</v>
       </c>
       <c r="E180" s="55" t="s">
-        <v>1630</v>
+        <v>1458</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G180" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H180" s="70" t="s">
-        <v>1615</v>
+        <v>235</v>
       </c>
       <c r="I180" s="13" t="s">
         <v>431</v>
@@ -27067,22 +27141,22 @@
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="28" t="s">
-        <v>1620</v>
+        <v>1462</v>
       </c>
       <c r="D181" s="55" t="s">
-        <v>1624</v>
+        <v>1465</v>
       </c>
       <c r="E181" s="55" t="s">
-        <v>1631</v>
+        <v>1459</v>
       </c>
       <c r="F181" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G181" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H181" s="70" t="s">
-        <v>1615</v>
+        <v>235</v>
       </c>
       <c r="I181" s="13" t="s">
         <v>431</v>
@@ -27096,13 +27170,13 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="28" t="s">
-        <v>1627</v>
+        <v>1600</v>
       </c>
       <c r="D182" s="55" t="s">
-        <v>1625</v>
+        <v>1601</v>
       </c>
       <c r="E182" s="55" t="s">
-        <v>1632</v>
+        <v>1599</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>1351</v>
@@ -27125,13 +27199,13 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="28" t="s">
-        <v>1644</v>
+        <v>1616</v>
       </c>
       <c r="D183" s="55" t="s">
-        <v>1626</v>
+        <v>1642</v>
       </c>
       <c r="E183" s="55" t="s">
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>1351</v>
@@ -27153,13 +27227,27 @@
         <v>178</v>
       </c>
       <c r="B184" s="11"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="55"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="31"/>
-      <c r="H184" s="70"/>
-      <c r="I184" s="13"/>
+      <c r="C184" s="28" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D184" s="55" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E184" s="55" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G184" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H184" s="70" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I184" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J184" s="14"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -27168,13 +27256,27 @@
         <v>179</v>
       </c>
       <c r="B185" s="11"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="55"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="31"/>
-      <c r="H185" s="70"/>
-      <c r="I185" s="13"/>
+      <c r="C185" s="28" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D185" s="55" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E185" s="55" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G185" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H185" s="70" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I185" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J185" s="14"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -27183,13 +27285,27 @@
         <v>180</v>
       </c>
       <c r="B186" s="11"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="55"/>
-      <c r="E186" s="55"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="31"/>
-      <c r="H186" s="70"/>
-      <c r="I186" s="13"/>
+      <c r="C186" s="28" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D186" s="55" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E186" s="55" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G186" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H186" s="70" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I186" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J186" s="14"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -27198,13 +27314,27 @@
         <v>181</v>
       </c>
       <c r="B187" s="11"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="55"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="70"/>
-      <c r="I187" s="13"/>
+      <c r="C187" s="28" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D187" s="55" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E187" s="55" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G187" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H187" s="70" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I187" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J187" s="14"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -27213,13 +27343,27 @@
         <v>182</v>
       </c>
       <c r="B188" s="11"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="55"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="70"/>
-      <c r="I188" s="13"/>
+      <c r="C188" s="28" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D188" s="55" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E188" s="55" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G188" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H188" s="70" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I188" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J188" s="14"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -27229,25 +27373,25 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D189" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="E189" s="12" t="s">
-        <v>868</v>
+        <v>1644</v>
+      </c>
+      <c r="D189" s="55" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E189" s="55" t="s">
+        <v>1633</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G189" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H189" s="70" t="s">
-        <v>1347</v>
+        <v>1615</v>
       </c>
       <c r="I189" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J189" s="14"/>
     </row>
@@ -27257,27 +27401,13 @@
         <v>184</v>
       </c>
       <c r="B190" s="11"/>
-      <c r="C190" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>869</v>
-      </c>
-      <c r="F190" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G190" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H190" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I190" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C190" s="28"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="55"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="31"/>
+      <c r="H190" s="70"/>
+      <c r="I190" s="13"/>
       <c r="J190" s="14"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -27286,27 +27416,13 @@
         <v>185</v>
       </c>
       <c r="B191" s="11"/>
-      <c r="C191" s="28" t="s">
-        <v>894</v>
-      </c>
-      <c r="D191" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="E191" s="12" t="s">
-        <v>870</v>
-      </c>
-      <c r="F191" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G191" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H191" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I191" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C191" s="28"/>
+      <c r="D191" s="55"/>
+      <c r="E191" s="55"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="31"/>
+      <c r="H191" s="70"/>
+      <c r="I191" s="13"/>
       <c r="J191" s="14"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -27315,27 +27431,13 @@
         <v>186</v>
       </c>
       <c r="B192" s="11"/>
-      <c r="C192" s="28" t="s">
-        <v>895</v>
-      </c>
-      <c r="D192" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="F192" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G192" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H192" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I192" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C192" s="28"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="55"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="31"/>
+      <c r="H192" s="70"/>
+      <c r="I192" s="13"/>
       <c r="J192" s="14"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -27344,27 +27446,13 @@
         <v>187</v>
       </c>
       <c r="B193" s="11"/>
-      <c r="C193" s="28" t="s">
-        <v>896</v>
-      </c>
-      <c r="D193" s="55" t="s">
-        <v>886</v>
-      </c>
-      <c r="E193" s="12" t="s">
-        <v>872</v>
-      </c>
-      <c r="F193" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G193" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H193" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I193" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C193" s="28"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="70"/>
+      <c r="I193" s="13"/>
       <c r="J193" s="14"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -27373,27 +27461,13 @@
         <v>188</v>
       </c>
       <c r="B194" s="11"/>
-      <c r="C194" s="28" t="s">
-        <v>897</v>
-      </c>
-      <c r="D194" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E194" s="12" t="s">
-        <v>873</v>
-      </c>
-      <c r="F194" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G194" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H194" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I194" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C194" s="28"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="70"/>
+      <c r="I194" s="13"/>
       <c r="J194" s="14"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -27403,13 +27477,13 @@
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="28" t="s">
-        <v>898</v>
-      </c>
-      <c r="D195" s="55" t="s">
-        <v>465</v>
+        <v>892</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>885</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>1346</v>
@@ -27432,13 +27506,13 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="28" t="s">
-        <v>899</v>
-      </c>
-      <c r="D196" s="55" t="s">
-        <v>19</v>
+        <v>893</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>547</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>1346</v>
@@ -27461,13 +27535,13 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="28" t="s">
-        <v>900</v>
-      </c>
-      <c r="D197" s="55" t="s">
-        <v>887</v>
+        <v>894</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>1346</v>
@@ -27490,13 +27564,13 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="28" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="D198" s="55" t="s">
-        <v>38</v>
+        <v>501</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>1346</v>
@@ -27519,13 +27593,13 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="28" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D199" s="55" t="s">
-        <v>571</v>
+        <v>886</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>1346</v>
@@ -27548,13 +27622,13 @@
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="28" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D200" s="55" t="s">
-        <v>888</v>
+        <v>32</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F200" s="12" t="s">
         <v>1346</v>
@@ -27577,13 +27651,13 @@
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="28" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D201" s="55" t="s">
-        <v>889</v>
+        <v>465</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>1346</v>
@@ -27606,13 +27680,13 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="28" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="D202" s="55" t="s">
-        <v>890</v>
+        <v>19</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="F202" s="12" t="s">
         <v>1346</v>
@@ -27635,13 +27709,13 @@
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="28" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D203" s="55" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="F203" s="12" t="s">
         <v>1346</v>
@@ -27664,13 +27738,13 @@
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="28" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D204" s="55" t="s">
-        <v>617</v>
+        <v>38</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>1346</v>
@@ -27693,13 +27767,13 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="D205" s="55" t="s">
-        <v>20</v>
+        <v>571</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>1346</v>
@@ -27721,13 +27795,27 @@
         <v>200</v>
       </c>
       <c r="B206" s="11"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
-      <c r="G206" s="12"/>
-      <c r="H206" s="70"/>
-      <c r="I206" s="13"/>
+      <c r="C206" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D206" s="55" t="s">
+        <v>888</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G206" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H206" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I206" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J206" s="14"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -27736,28 +27824,56 @@
         <v>201</v>
       </c>
       <c r="B207" s="11"/>
-      <c r="C207" s="28"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="12"/>
-      <c r="G207" s="12"/>
-      <c r="H207" s="70"/>
-      <c r="I207" s="13"/>
+      <c r="C207" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="D207" s="55" t="s">
+        <v>889</v>
+      </c>
+      <c r="E207" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G207" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H207" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I207" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J207" s="14"/>
     </row>
-    <row r="208" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="B208" s="11"/>
-      <c r="C208" s="28"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="12"/>
-      <c r="G208" s="12"/>
-      <c r="H208" s="70"/>
-      <c r="I208" s="13"/>
+      <c r="C208" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="D208" s="55" t="s">
+        <v>890</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="F208" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G208" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H208" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I208" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J208" s="14"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -27765,31 +27881,29 @@
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="B209" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C209" s="27" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G209" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H209" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I209" s="9" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J209" s="10"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="D209" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G209" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H209" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I209" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J209" s="14"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
@@ -27797,13 +27911,27 @@
         <v>204</v>
       </c>
       <c r="B210" s="11"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="12"/>
-      <c r="G210" s="12"/>
-      <c r="H210" s="70"/>
-      <c r="I210" s="13"/>
+      <c r="C210" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D210" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G210" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H210" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I210" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J210" s="14"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -27812,13 +27940,27 @@
         <v>205</v>
       </c>
       <c r="B211" s="11"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="12"/>
-      <c r="F211" s="12"/>
-      <c r="G211" s="12"/>
-      <c r="H211" s="70"/>
-      <c r="I211" s="13"/>
+      <c r="C211" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D211" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G211" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H211" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I211" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J211" s="14"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -27828,30 +27970,30 @@
       </c>
       <c r="B212" s="11"/>
       <c r="C212" s="28"/>
-      <c r="D212" s="11"/>
+      <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
-      <c r="H212" s="69"/>
-      <c r="I212" s="12"/>
+      <c r="H212" s="70"/>
+      <c r="I212" s="13"/>
       <c r="J212" s="14"/>
     </row>
-    <row r="213" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="B213" s="16"/>
-      <c r="C213" s="29"/>
-      <c r="D213" s="16"/>
-      <c r="E213" s="17"/>
-      <c r="F213" s="17"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="71"/>
-      <c r="I213" s="17"/>
-      <c r="J213" s="19"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="11"/>
+      <c r="C213" s="28"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="70"/>
+      <c r="I213" s="13"/>
+      <c r="J213" s="14"/>
+    </row>
+    <row r="214" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -27862,39 +28004,145 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
       <c r="G214" s="12"/>
-      <c r="H214" s="69"/>
-      <c r="I214" s="12"/>
+      <c r="H214" s="70"/>
+      <c r="I214" s="13"/>
       <c r="J214" s="14"/>
     </row>
-    <row r="215" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="B215" s="16"/>
-      <c r="C215" s="29"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="17"/>
-      <c r="F215" s="17"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="71"/>
-      <c r="I215" s="17"/>
-      <c r="J215" s="19"/>
+      <c r="B215" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C215" s="27" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G215" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H215" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I215" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J215" s="10"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C216" s="3"/>
+      <c r="A216">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B216" s="11"/>
+      <c r="C216" s="28"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="70"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="14"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C217" s="3"/>
+      <c r="A217">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="B217" s="11"/>
+      <c r="C217" s="28"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="70"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="14"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C218" s="3"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C219" s="3"/>
+      <c r="A218">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="B218" s="11"/>
+      <c r="C218" s="28"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="69"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="14"/>
+    </row>
+    <row r="219" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="B219" s="16"/>
+      <c r="C219" s="29"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="71"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="19"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="B220" s="11"/>
+      <c r="C220" s="28"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="69"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="14"/>
+    </row>
+    <row r="221" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="B221" s="16"/>
+      <c r="C221" s="29"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="71"/>
+      <c r="I221" s="17"/>
+      <c r="J221" s="19"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J215">
+  <autoFilter ref="A6:J221">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$222</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="1691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="1698">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -11767,6 +11767,88 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面55</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>anniu_jinyanjiahao_jinyong.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮_加号禁用</t>
+    <rPh sb="0" eb="1">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin'yong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补资源</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重切资源</t>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月14日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：补充经验加号禁用状态；重切中按钮资源</t>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing'yan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jia'hao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jin'yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhuang't</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chong'qie</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zi'yuan</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -12716,8 +12798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -13146,9 +13228,15 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="B47" s="36" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="36"/>
@@ -22282,13 +22370,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J225"/>
+  <dimension ref="A2:J226"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E131" sqref="E131"/>
+      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -22393,7 +22481,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ref="A8:A71" si="0">ROW($A8)-6</f>
+        <f t="shared" ref="A8:A72" si="0">ROW($A8)-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="11"/>
@@ -23897,22 +23985,22 @@
         <v>1404</v>
       </c>
       <c r="D60" s="65" t="s">
-        <v>1671</v>
+        <v>1693</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>1367</v>
+        <v>1692</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>771</v>
+        <v>684</v>
       </c>
       <c r="G60" s="31">
-        <v>42264</v>
+        <v>42289</v>
       </c>
       <c r="H60" s="69" t="s">
-        <v>1394</v>
+        <v>1694</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J60" s="14"/>
     </row>
@@ -23926,10 +24014,10 @@
         <v>1405</v>
       </c>
       <c r="D61" s="65" t="s">
-        <v>1448</v>
+        <v>1671</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>771</v>
@@ -23958,7 +24046,7 @@
         <v>1448</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>771</v>
@@ -23984,10 +24072,10 @@
         <v>1407</v>
       </c>
       <c r="D63" s="65" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>771</v>
@@ -24013,10 +24101,10 @@
         <v>1408</v>
       </c>
       <c r="D64" s="65" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>771</v>
@@ -24042,10 +24130,10 @@
         <v>1409</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>771</v>
@@ -24074,7 +24162,7 @@
         <v>1443</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>771</v>
@@ -24100,10 +24188,10 @@
         <v>1411</v>
       </c>
       <c r="D67" s="65" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>771</v>
@@ -24132,7 +24220,7 @@
         <v>1444</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>771</v>
@@ -24158,10 +24246,10 @@
         <v>1413</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>771</v>
@@ -24187,22 +24275,22 @@
         <v>1414</v>
       </c>
       <c r="D70" s="65" t="s">
-        <v>1487</v>
+        <v>1440</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>1594</v>
+        <v>1376</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="G70" s="31">
-        <v>42271</v>
+        <v>42289</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1593</v>
+        <v>1695</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>1592</v>
+        <v>431</v>
       </c>
       <c r="J70" s="14"/>
     </row>
@@ -24216,28 +24304,28 @@
         <v>1415</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>771</v>
+        <v>684</v>
       </c>
       <c r="G71" s="31">
         <v>42271</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>431</v>
+        <v>1592</v>
       </c>
       <c r="J71" s="14"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" ref="A72:A85" si="1">ROW($A72)-6</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B72" s="11"/>
@@ -24245,19 +24333,19 @@
         <v>1416</v>
       </c>
       <c r="D72" s="65" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>1378</v>
+        <v>1602</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G72" s="31">
-        <v>42264</v>
+        <v>42271</v>
       </c>
       <c r="H72" s="69" t="s">
-        <v>1394</v>
+        <v>1604</v>
       </c>
       <c r="I72" s="13" t="s">
         <v>431</v>
@@ -24266,7 +24354,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A73:A86" si="1">ROW($A73)-6</f>
         <v>67</v>
       </c>
       <c r="B73" s="11"/>
@@ -24274,10 +24362,10 @@
         <v>1417</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>771</v>
@@ -24303,10 +24391,10 @@
         <v>1418</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>771</v>
@@ -24332,10 +24420,10 @@
         <v>1419</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>771</v>
@@ -24361,19 +24449,19 @@
         <v>1420</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>1435</v>
+        <v>1490</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G76" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H76" s="74" t="s">
-        <v>1514</v>
+        <v>42264</v>
+      </c>
+      <c r="H76" s="69" t="s">
+        <v>1394</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>431</v>
@@ -24390,19 +24478,19 @@
         <v>1421</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G77" s="31">
-        <v>42264</v>
-      </c>
-      <c r="H77" s="69" t="s">
-        <v>1394</v>
+        <v>42266</v>
+      </c>
+      <c r="H77" s="74" t="s">
+        <v>1514</v>
       </c>
       <c r="I77" s="13" t="s">
         <v>431</v>
@@ -24419,22 +24507,22 @@
         <v>1422</v>
       </c>
       <c r="D78" s="65" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G78" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H78" s="74" t="s">
-        <v>1514</v>
-      </c>
-      <c r="I78" s="114" t="s">
-        <v>1513</v>
+        <v>42264</v>
+      </c>
+      <c r="H78" s="69" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="J78" s="14"/>
     </row>
@@ -24448,22 +24536,22 @@
         <v>1423</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G79" s="31">
-        <v>42264</v>
-      </c>
-      <c r="H79" s="69" t="s">
-        <v>1394</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>431</v>
+        <v>42266</v>
+      </c>
+      <c r="H79" s="74" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I79" s="114" t="s">
+        <v>1513</v>
       </c>
       <c r="J79" s="14"/>
     </row>
@@ -24477,10 +24565,10 @@
         <v>1424</v>
       </c>
       <c r="D80" s="65" t="s">
-        <v>1491</v>
+        <v>1438</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>771</v>
@@ -24506,10 +24594,10 @@
         <v>1425</v>
       </c>
       <c r="D81" s="65" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>771</v>
@@ -24535,10 +24623,10 @@
         <v>1426</v>
       </c>
       <c r="D82" s="65" t="s">
-        <v>1430</v>
+        <v>1492</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>771</v>
@@ -24564,10 +24652,10 @@
         <v>1427</v>
       </c>
       <c r="D83" s="65" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>771</v>
@@ -24593,10 +24681,10 @@
         <v>1428</v>
       </c>
       <c r="D84" s="65" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>771</v>
@@ -24622,28 +24710,28 @@
         <v>1429</v>
       </c>
       <c r="D85" s="65" t="s">
-        <v>1635</v>
+        <v>1432</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>1636</v>
+        <v>1390</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G85" s="31">
-        <v>42276</v>
+        <v>42264</v>
       </c>
       <c r="H85" s="69" t="s">
-        <v>235</v>
+        <v>1394</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>1637</v>
+        <v>431</v>
       </c>
       <c r="J85" s="14"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" ref="A86:A158" si="2">ROW($A86)-6</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B86" s="11"/>
@@ -24651,48 +24739,48 @@
         <v>1500</v>
       </c>
       <c r="D86" s="65" t="s">
-        <v>1480</v>
+        <v>1635</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>1469</v>
+        <v>1636</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="G86" s="31">
-        <v>42266</v>
+        <v>42276</v>
       </c>
       <c r="H86" s="69" t="s">
         <v>235</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>431</v>
+        <v>1637</v>
       </c>
       <c r="J86" s="14"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A87:A159" si="2">ROW($A87)-6</f>
         <v>81</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="28" t="s">
         <v>1501</v>
       </c>
-      <c r="D87" s="113" t="s">
-        <v>1481</v>
+      <c r="D87" s="65" t="s">
+        <v>1480</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>1391</v>
+        <v>1469</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G87" s="31">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="H87" s="69" t="s">
-        <v>1394</v>
+        <v>235</v>
       </c>
       <c r="I87" s="13" t="s">
         <v>431</v>
@@ -24709,22 +24797,22 @@
         <v>1502</v>
       </c>
       <c r="D88" s="113" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>1468</v>
+        <v>1391</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G88" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H88" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="I88" s="114" t="s">
-        <v>1513</v>
+        <v>42264</v>
+      </c>
+      <c r="H88" s="69" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="J88" s="14"/>
     </row>
@@ -24737,23 +24825,23 @@
       <c r="C89" s="28" t="s">
         <v>1503</v>
       </c>
-      <c r="D89" s="65" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E89" s="55" t="s">
-        <v>1548</v>
+      <c r="D89" s="113" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>1468</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G89" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H89" s="70" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>8</v>
+        <v>42266</v>
+      </c>
+      <c r="H89" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="I89" s="114" t="s">
+        <v>1513</v>
       </c>
       <c r="J89" s="14"/>
     </row>
@@ -24766,23 +24854,23 @@
       <c r="C90" s="28" t="s">
         <v>1504</v>
       </c>
-      <c r="D90" s="113" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>1470</v>
+      <c r="D90" s="65" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E90" s="55" t="s">
+        <v>1548</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G90" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H90" s="69" t="s">
-        <v>1518</v>
+        <v>42270</v>
+      </c>
+      <c r="H90" s="70" t="s">
+        <v>1466</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J90" s="14"/>
     </row>
@@ -24796,10 +24884,10 @@
         <v>1505</v>
       </c>
       <c r="D91" s="113" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>684</v>
@@ -24825,22 +24913,22 @@
         <v>1506</v>
       </c>
       <c r="D92" s="113" t="s">
-        <v>1575</v>
+        <v>1484</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>1551</v>
+        <v>1471</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G92" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H92" s="70" t="s">
-        <v>1576</v>
+        <v>42268</v>
+      </c>
+      <c r="H92" s="69" t="s">
+        <v>1518</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="J92" s="14"/>
     </row>
@@ -24853,23 +24941,23 @@
       <c r="C93" s="28" t="s">
         <v>1507</v>
       </c>
-      <c r="D93" s="65" t="s">
-        <v>1495</v>
+      <c r="D93" s="113" t="s">
+        <v>1575</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>1494</v>
+        <v>1551</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G93" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H93" s="69" t="s">
-        <v>235</v>
+        <v>42270</v>
+      </c>
+      <c r="H93" s="70" t="s">
+        <v>1576</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J93" s="14"/>
     </row>
@@ -24883,10 +24971,10 @@
         <v>1508</v>
       </c>
       <c r="D94" s="65" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>1472</v>
+        <v>1494</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>684</v>
@@ -24912,19 +25000,19 @@
         <v>1509</v>
       </c>
       <c r="D95" s="65" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G95" s="31">
-        <v>42268</v>
+        <v>42266</v>
       </c>
       <c r="H95" s="69" t="s">
-        <v>1516</v>
+        <v>235</v>
       </c>
       <c r="I95" s="13" t="s">
         <v>431</v>
@@ -24941,19 +25029,19 @@
         <v>1510</v>
       </c>
       <c r="D96" s="65" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G96" s="31">
-        <v>42266</v>
+        <v>42268</v>
       </c>
       <c r="H96" s="69" t="s">
-        <v>235</v>
+        <v>1516</v>
       </c>
       <c r="I96" s="13" t="s">
         <v>431</v>
@@ -24970,10 +25058,10 @@
         <v>1511</v>
       </c>
       <c r="D97" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>684</v>
@@ -24999,22 +25087,22 @@
         <v>1512</v>
       </c>
       <c r="D98" s="65" t="s">
-        <v>1493</v>
+        <v>1499</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>1591</v>
+        <v>1475</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G98" s="31">
-        <v>42271</v>
+        <v>42266</v>
       </c>
       <c r="H98" s="69" t="s">
-        <v>1593</v>
+        <v>235</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>1592</v>
+        <v>431</v>
       </c>
       <c r="J98" s="14"/>
     </row>
@@ -25028,22 +25116,22 @@
         <v>1520</v>
       </c>
       <c r="D99" s="65" t="s">
-        <v>1672</v>
+        <v>1493</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>1476</v>
+        <v>1591</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G99" s="31">
-        <v>42266</v>
+        <v>42271</v>
       </c>
       <c r="H99" s="69" t="s">
-        <v>235</v>
+        <v>1593</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>431</v>
+        <v>1592</v>
       </c>
       <c r="J99" s="14"/>
     </row>
@@ -25057,16 +25145,16 @@
         <v>1578</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>1669</v>
+        <v>1476</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G100" s="31">
-        <v>42277</v>
+        <v>42266</v>
       </c>
       <c r="H100" s="69" t="s">
         <v>235</v>
@@ -25086,16 +25174,16 @@
         <v>1579</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>1477</v>
+        <v>1669</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G101" s="31">
-        <v>42266</v>
+        <v>42277</v>
       </c>
       <c r="H101" s="69" t="s">
         <v>235</v>
@@ -25115,10 +25203,10 @@
         <v>1580</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>1479</v>
+        <v>1674</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>684</v>
@@ -25144,22 +25232,22 @@
         <v>1634</v>
       </c>
       <c r="D103" s="65" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E103" s="55" t="s">
-        <v>1517</v>
+        <v>1479</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>1478</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G103" s="31">
-        <v>42268</v>
+        <v>42266</v>
       </c>
       <c r="H103" s="69" t="s">
         <v>235</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="J103" s="14"/>
     </row>
@@ -25173,22 +25261,22 @@
         <v>1670</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>1574</v>
+        <v>1519</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>1550</v>
+        <v>1517</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="G104" s="75">
-        <v>42269</v>
-      </c>
-      <c r="H104" s="74" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I104" s="114" t="s">
-        <v>1513</v>
+      <c r="G104" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H104" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="J104" s="14"/>
     </row>
@@ -25198,13 +25286,27 @@
         <v>99</v>
       </c>
       <c r="B105" s="11"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="13"/>
+      <c r="C105" s="28" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D105" s="65" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E105" s="55" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G105" s="75">
+        <v>42269</v>
+      </c>
+      <c r="H105" s="74" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I105" s="114" t="s">
+        <v>1513</v>
+      </c>
       <c r="J105" s="14"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -25212,30 +25314,14 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D106" s="65" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G106" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H106" s="70" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="69"/>
+      <c r="I106" s="13"/>
       <c r="J106" s="14"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -25243,15 +25329,17 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B107" s="11"/>
+      <c r="B107" s="11" t="s">
+        <v>1588</v>
+      </c>
       <c r="C107" s="28" t="s">
-        <v>1568</v>
+        <v>1542</v>
       </c>
       <c r="D107" s="65" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E107" s="55" t="s">
-        <v>1543</v>
+        <v>1581</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>1541</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>684</v>
@@ -25274,13 +25362,13 @@
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="28" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D108" s="65" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>684</v>
@@ -25303,13 +25391,13 @@
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="28" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D109" s="65" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>684</v>
@@ -25332,13 +25420,13 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="28" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D110" s="65" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>684</v>
@@ -25361,13 +25449,13 @@
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="28" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D111" s="65" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F111" s="12" t="s">
         <v>684</v>
@@ -25390,13 +25478,13 @@
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="28" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D112" s="65" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1549</v>
+        <v>1586</v>
+      </c>
+      <c r="E112" s="55" t="s">
+        <v>1547</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>684</v>
@@ -25418,12 +25506,27 @@
         <v>107</v>
       </c>
       <c r="B113" s="11"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="65"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="13"/>
+      <c r="C113" s="28" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D113" s="65" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G113" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H113" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J113" s="14"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -25431,30 +25534,13 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D114" s="65" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G114" s="31">
-        <v>42273</v>
-      </c>
-      <c r="H114" s="70" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="65"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="70"/>
+      <c r="I114" s="13"/>
       <c r="J114" s="14"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -25462,15 +25548,17 @@
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B115" s="11"/>
+      <c r="B115" s="11" t="s">
+        <v>1607</v>
+      </c>
       <c r="C115" s="28" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D115" s="65" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="E115" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>684</v>
@@ -25493,19 +25581,19 @@
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="28" t="s">
-        <v>1639</v>
+        <v>1609</v>
       </c>
       <c r="D116" s="65" t="s">
-        <v>1640</v>
+        <v>1612</v>
       </c>
       <c r="E116" t="s">
-        <v>1638</v>
+        <v>1610</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G116" s="31">
-        <v>42276</v>
+        <v>42273</v>
       </c>
       <c r="H116" s="70" t="s">
         <v>1466</v>
@@ -25521,12 +25609,27 @@
         <v>111</v>
       </c>
       <c r="B117" s="11"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="65"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="70"/>
-      <c r="I117" s="13"/>
+      <c r="C117" s="28" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D117" s="65" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G117" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H117" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J117" s="14"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -25534,30 +25637,13 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D118" s="65" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1648</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G118" s="31">
-        <v>42286</v>
-      </c>
-      <c r="H118" s="70" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I118" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="65"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="13"/>
       <c r="J118" s="14"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -25565,15 +25651,17 @@
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="B119" s="11"/>
+      <c r="B119" s="11" t="s">
+        <v>1646</v>
+      </c>
       <c r="C119" s="28" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D119" s="65" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E119" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>684</v>
@@ -25596,13 +25684,13 @@
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="28" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D120" s="65" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E120" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>684</v>
@@ -25625,13 +25713,13 @@
       </c>
       <c r="B121" s="11"/>
       <c r="C121" s="28" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D121" s="65" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E121" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>684</v>
@@ -25654,13 +25742,13 @@
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="28" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D122" s="65" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E122" t="s">
-        <v>1675</v>
+        <v>1651</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>684</v>
@@ -25682,12 +25770,27 @@
         <v>117</v>
       </c>
       <c r="B123" s="11"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="65"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="70"/>
-      <c r="I123" s="13"/>
+      <c r="C123" s="28" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D123" s="65" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G123" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H123" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J123" s="14"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -25695,30 +25798,13 @@
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D124" s="65" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G124" s="31">
-        <v>42286</v>
-      </c>
-      <c r="H124" s="70" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="65"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="13"/>
       <c r="J124" s="14"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -25726,15 +25812,17 @@
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="B125" s="11"/>
+      <c r="B125" s="11" t="s">
+        <v>1659</v>
+      </c>
       <c r="C125" s="28" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D125" s="65" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="E125" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>684</v>
@@ -25756,12 +25844,27 @@
         <v>120</v>
       </c>
       <c r="B126" s="11"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="65"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="70"/>
-      <c r="I126" s="13"/>
+      <c r="C126" s="28" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D126" s="65" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G126" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H126" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J126" s="14"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -25769,30 +25872,13 @@
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D127" s="65" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G127" s="31">
-        <v>42289</v>
-      </c>
-      <c r="H127" s="70" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I127" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="65"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="13"/>
       <c r="J127" s="14"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -25800,15 +25886,17 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="B128" s="11"/>
+      <c r="B128" s="11" t="s">
+        <v>1681</v>
+      </c>
       <c r="C128" s="28" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D128" s="65" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E128" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>684</v>
@@ -25831,13 +25919,13 @@
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="28" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D129" s="65" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E129" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>684</v>
@@ -25859,12 +25947,27 @@
         <v>124</v>
       </c>
       <c r="B130" s="11"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="65"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="70"/>
-      <c r="I130" s="13"/>
+      <c r="C130" s="28" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D130" s="65" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G130" s="31">
+        <v>42289</v>
+      </c>
+      <c r="H130" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J130" s="14"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -25909,66 +26012,51 @@
       <c r="I133" s="13"/>
       <c r="J133" s="14"/>
     </row>
-    <row r="134" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="B134" s="16"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="19"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="11"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="65"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="70"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="14"/>
+    </row>
+    <row r="135" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F135" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G135" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H135" s="70" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J135" s="14"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="71"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="19"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="B136" s="11"/>
+      <c r="B136" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C136" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F136" s="55" t="s">
         <v>684</v>
@@ -25977,7 +26065,7 @@
         <v>42266</v>
       </c>
       <c r="H136" s="70" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="I136" s="13" t="s">
         <v>431</v>
@@ -25991,13 +26079,13 @@
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F137" s="55" t="s">
         <v>684</v>
@@ -26020,13 +26108,13 @@
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="28" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F138" s="55" t="s">
         <v>684</v>
@@ -26049,13 +26137,13 @@
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F139" s="55" t="s">
         <v>684</v>
@@ -26078,13 +26166,13 @@
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F140" s="55" t="s">
         <v>684</v>
@@ -26107,19 +26195,19 @@
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D141" s="55" t="s">
-        <v>1558</v>
+        <v>769</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F141" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F141" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G141" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H141" s="70" t="s">
         <v>1466</v>
@@ -26136,13 +26224,13 @@
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="28" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D142" s="55" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>684</v>
@@ -26165,13 +26253,13 @@
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="28" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D143" s="55" t="s">
-        <v>1552</v>
+        <v>1559</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>684</v>
@@ -26194,13 +26282,13 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="28" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D144" s="55" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>684</v>
@@ -26223,13 +26311,13 @@
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="28" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D145" s="55" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>684</v>
@@ -26252,13 +26340,13 @@
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="28" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D146" s="55" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F146" s="12" t="s">
         <v>684</v>
@@ -26281,13 +26369,13 @@
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="28" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D147" s="55" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>684</v>
@@ -26310,13 +26398,13 @@
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="28" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D148" s="55" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>684</v>
@@ -26338,13 +26426,27 @@
         <v>143</v>
       </c>
       <c r="B149" s="11"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="31"/>
-      <c r="H149" s="69"/>
-      <c r="I149" s="12"/>
+      <c r="C149" s="28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D149" s="55" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G149" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H149" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I149" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J149" s="14"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -26372,7 +26474,7 @@
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
+      <c r="G151" s="31"/>
       <c r="H151" s="69"/>
       <c r="I151" s="12"/>
       <c r="J151" s="14"/>
@@ -26422,66 +26524,52 @@
       <c r="I154" s="12"/>
       <c r="J154" s="14"/>
     </row>
-    <row r="155" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B155" s="16"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="71"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="19"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="11"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="69"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="14"/>
+    </row>
+    <row r="156" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B156" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C156" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G156" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H156" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I156" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J156" s="14"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="71"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="19"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B157" s="11"/>
+      <c r="B157" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C157" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>787</v>
+        <v>841</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>1350</v>
@@ -26504,13 +26592,13 @@
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>1350</v>
@@ -26528,18 +26616,18 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f t="shared" ref="A159:A221" si="3">ROW($A159)-6</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="28" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>1350</v>
@@ -26557,18 +26645,18 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A160:A222" si="3">ROW($A160)-6</f>
         <v>154</v>
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>1350</v>
@@ -26591,13 +26679,13 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>842</v>
+        <v>790</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>1350</v>
@@ -26620,13 +26708,13 @@
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>1350</v>
@@ -26649,13 +26737,13 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>1350</v>
@@ -26678,13 +26766,13 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>1350</v>
@@ -26707,13 +26795,13 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F165" s="12" t="s">
         <v>1350</v>
@@ -26736,13 +26824,13 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>1350</v>
@@ -26765,13 +26853,13 @@
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>1350</v>
@@ -26794,13 +26882,13 @@
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>1350</v>
@@ -26823,13 +26911,13 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>1350</v>
@@ -26852,13 +26940,13 @@
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F170" s="12" t="s">
         <v>1350</v>
@@ -26880,13 +26968,27 @@
         <v>165</v>
       </c>
       <c r="B171" s="11"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="31"/>
-      <c r="H171" s="70"/>
-      <c r="I171" s="13"/>
+      <c r="C171" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G171" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H171" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I171" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J171" s="14"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -26895,27 +26997,13 @@
         <v>166</v>
       </c>
       <c r="B172" s="11"/>
-      <c r="C172" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D172" s="55" t="s">
-        <v>858</v>
-      </c>
-      <c r="E172" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="F172" s="12" t="s">
-        <v>1524</v>
-      </c>
-      <c r="G172" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H172" s="74" t="s">
-        <v>1526</v>
-      </c>
-      <c r="I172" s="13" t="s">
-        <v>1525</v>
-      </c>
+      <c r="C172" s="28"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="31"/>
+      <c r="H172" s="70"/>
+      <c r="I172" s="13"/>
       <c r="J172" s="14"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -26925,13 +27013,13 @@
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="28" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D173" s="55" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F173" s="12" t="s">
         <v>1524</v>
@@ -26954,13 +27042,13 @@
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="28" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D174" s="55" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>1524</v>
@@ -26983,13 +27071,13 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="28" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D175" s="55" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F175" s="12" t="s">
         <v>1524</v>
@@ -27012,13 +27100,13 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D176" s="55" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>1524</v>
@@ -27040,13 +27128,27 @@
         <v>171</v>
       </c>
       <c r="B177" s="11"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="31"/>
-      <c r="H177" s="70"/>
-      <c r="I177" s="13"/>
+      <c r="C177" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="D177" s="55" t="s">
+        <v>862</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G177" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H177" s="74" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>1525</v>
+      </c>
       <c r="J177" s="14"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -27056,24 +27158,12 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="28"/>
-      <c r="D178" s="55" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="F178" s="12" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G178" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H178" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I178" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="D178" s="55"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="31"/>
+      <c r="H178" s="70"/>
+      <c r="I178" s="13"/>
       <c r="J178" s="14"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -27082,26 +27172,24 @@
         <v>173</v>
       </c>
       <c r="B179" s="11"/>
-      <c r="C179" s="28" t="s">
-        <v>1460</v>
-      </c>
+      <c r="C179" s="28"/>
       <c r="D179" s="55" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E179" s="55" t="s">
-        <v>1457</v>
+        <v>1352</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F179" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G179" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H179" s="70" t="s">
-        <v>235</v>
+        <v>1347</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J179" s="14"/>
     </row>
@@ -27112,13 +27200,13 @@
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="28" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D180" s="55" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E180" s="55" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>1351</v>
@@ -27141,13 +27229,13 @@
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="28" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D181" s="55" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E181" s="55" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F181" s="12" t="s">
         <v>1351</v>
@@ -27170,22 +27258,22 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="28" t="s">
-        <v>1600</v>
+        <v>1462</v>
       </c>
       <c r="D182" s="55" t="s">
-        <v>1601</v>
+        <v>1465</v>
       </c>
       <c r="E182" s="55" t="s">
-        <v>1599</v>
+        <v>1459</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="G182" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H182" s="70" t="s">
-        <v>1615</v>
+        <v>235</v>
       </c>
       <c r="I182" s="13" t="s">
         <v>431</v>
@@ -27199,13 +27287,13 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="28" t="s">
-        <v>1616</v>
+        <v>1600</v>
       </c>
       <c r="D183" s="55" t="s">
-        <v>1642</v>
+        <v>1601</v>
       </c>
       <c r="E183" s="55" t="s">
-        <v>1643</v>
+        <v>1599</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>1351</v>
@@ -27228,13 +27316,13 @@
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="28" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D184" s="55" t="s">
-        <v>1621</v>
+        <v>1642</v>
       </c>
       <c r="E184" s="55" t="s">
-        <v>1628</v>
+        <v>1643</v>
       </c>
       <c r="F184" s="12" t="s">
         <v>1351</v>
@@ -27257,13 +27345,13 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="28" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E185" s="55" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>1351</v>
@@ -27286,13 +27374,13 @@
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="28" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D186" s="55" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E186" s="55" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="F186" s="12" t="s">
         <v>1351</v>
@@ -27315,13 +27403,13 @@
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="28" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D187" s="55" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E187" s="55" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="F187" s="12" t="s">
         <v>1351</v>
@@ -27344,13 +27432,13 @@
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="28" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="D188" s="55" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E188" s="55" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="F188" s="12" t="s">
         <v>1351</v>
@@ -27373,13 +27461,13 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="28" t="s">
-        <v>1644</v>
+        <v>1627</v>
       </c>
       <c r="D189" s="55" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E189" s="55" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>1351</v>
@@ -27401,13 +27489,27 @@
         <v>184</v>
       </c>
       <c r="B190" s="11"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="55"/>
-      <c r="E190" s="55"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="31"/>
-      <c r="H190" s="70"/>
-      <c r="I190" s="13"/>
+      <c r="C190" s="28" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D190" s="55" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E190" s="55" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G190" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H190" s="70" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I190" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J190" s="14"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -27447,10 +27549,10 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="28"/>
-      <c r="D193" s="12"/>
+      <c r="D193" s="55"/>
       <c r="E193" s="55"/>
       <c r="F193" s="12"/>
-      <c r="G193" s="12"/>
+      <c r="G193" s="31"/>
       <c r="H193" s="70"/>
       <c r="I193" s="13"/>
       <c r="J193" s="14"/>
@@ -27476,27 +27578,13 @@
         <v>189</v>
       </c>
       <c r="B195" s="11"/>
-      <c r="C195" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D195" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="E195" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="F195" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G195" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H195" s="70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I195" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C195" s="28"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="55"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="70"/>
+      <c r="I195" s="13"/>
       <c r="J195" s="14"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -27506,13 +27594,13 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="28" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>547</v>
+        <v>885</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>1346</v>
@@ -27535,13 +27623,13 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>1346</v>
@@ -27564,13 +27652,13 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="28" t="s">
-        <v>895</v>
-      </c>
-      <c r="D198" s="55" t="s">
-        <v>501</v>
+        <v>894</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>1346</v>
@@ -27593,13 +27681,13 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D199" s="55" t="s">
-        <v>886</v>
+        <v>501</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>1346</v>
@@ -27622,13 +27710,13 @@
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="28" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D200" s="55" t="s">
-        <v>32</v>
+        <v>886</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F200" s="12" t="s">
         <v>1346</v>
@@ -27651,13 +27739,13 @@
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D201" s="55" t="s">
-        <v>465</v>
+        <v>32</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>1346</v>
@@ -27680,13 +27768,13 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D202" s="55" t="s">
-        <v>19</v>
+        <v>465</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F202" s="12" t="s">
         <v>1346</v>
@@ -27709,13 +27797,13 @@
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D203" s="55" t="s">
-        <v>887</v>
+        <v>19</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F203" s="12" t="s">
         <v>1346</v>
@@ -27738,13 +27826,13 @@
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D204" s="55" t="s">
-        <v>38</v>
+        <v>887</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>1346</v>
@@ -27767,13 +27855,13 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="28" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D205" s="55" t="s">
-        <v>571</v>
+        <v>38</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>1346</v>
@@ -27796,13 +27884,13 @@
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="28" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D206" s="55" t="s">
-        <v>888</v>
+        <v>571</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>1346</v>
@@ -27825,13 +27913,13 @@
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D207" s="55" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>1346</v>
@@ -27854,13 +27942,13 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D208" s="55" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F208" s="12" t="s">
         <v>1346</v>
@@ -27883,13 +27971,13 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D209" s="55" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F209" s="12" t="s">
         <v>1346</v>
@@ -27912,13 +28000,13 @@
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D210" s="55" t="s">
-        <v>617</v>
+        <v>891</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>1346</v>
@@ -27941,13 +28029,13 @@
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D211" s="55" t="s">
-        <v>20</v>
+        <v>617</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F211" s="12" t="s">
         <v>1346</v>
@@ -27969,13 +28057,27 @@
         <v>206</v>
       </c>
       <c r="B212" s="11"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="12"/>
-      <c r="G212" s="12"/>
-      <c r="H212" s="70"/>
-      <c r="I212" s="13"/>
+      <c r="C212" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D212" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F212" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G212" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H212" s="70" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I212" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J212" s="14"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -27993,7 +28095,7 @@
       <c r="I213" s="13"/>
       <c r="J213" s="14"/>
     </row>
-    <row r="214" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -28008,51 +28110,51 @@
       <c r="I214" s="13"/>
       <c r="J214" s="14"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="B215" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C215" s="27" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F215" s="8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G215" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H215" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I215" s="9" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J215" s="10"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="28"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="70"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="14"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="B216" s="11"/>
-      <c r="C216" s="28"/>
-      <c r="D216" s="11"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="12"/>
-      <c r="G216" s="12"/>
-      <c r="H216" s="70"/>
-      <c r="I216" s="13"/>
-      <c r="J216" s="14"/>
+      <c r="B216" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C216" s="27" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G216" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H216" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I216" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J216" s="10"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -28080,57 +28182,69 @@
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
       <c r="G218" s="12"/>
-      <c r="H218" s="69"/>
-      <c r="I218" s="12"/>
+      <c r="H218" s="70"/>
+      <c r="I218" s="13"/>
       <c r="J218" s="14"/>
     </row>
-    <row r="219" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="B219" s="16"/>
-      <c r="C219" s="29"/>
-      <c r="D219" s="16"/>
-      <c r="E219" s="17"/>
-      <c r="F219" s="17"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="71"/>
-      <c r="I219" s="17"/>
-      <c r="J219" s="19"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="11"/>
+      <c r="C219" s="28"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="69"/>
+      <c r="I219" s="12"/>
+      <c r="J219" s="14"/>
+    </row>
+    <row r="220" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
-      <c r="B220" s="11"/>
-      <c r="C220" s="28"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="69"/>
-      <c r="I220" s="12"/>
-      <c r="J220" s="14"/>
-    </row>
-    <row r="221" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="16"/>
+      <c r="C220" s="29"/>
+      <c r="D220" s="16"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="71"/>
+      <c r="I220" s="17"/>
+      <c r="J220" s="19"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-      <c r="B221" s="16"/>
-      <c r="C221" s="29"/>
-      <c r="D221" s="17"/>
-      <c r="E221" s="17"/>
-      <c r="F221" s="17"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="71"/>
-      <c r="I221" s="17"/>
-      <c r="J221" s="19"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C222" s="3"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="28"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="69"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="14"/>
+    </row>
+    <row r="222" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="B222" s="16"/>
+      <c r="C222" s="29"/>
+      <c r="D222" s="17"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="17"/>
+      <c r="H222" s="71"/>
+      <c r="I222" s="17"/>
+      <c r="J222" s="19"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C223" s="3"/>
@@ -28141,8 +28255,11 @@
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="3"/>
     </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J221">
+  <autoFilter ref="A6:J222">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="560" windowWidth="36660" windowHeight="19440" tabRatio="500"/>
+    <workbookView xWindow="39820" yWindow="460" windowWidth="36660" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="1710">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -11849,6 +11849,121 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月16日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_exp2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_jinbi2.png</t>
+  </si>
+  <si>
+    <t>icon_zuanshi2.png</t>
+  </si>
+  <si>
+    <t>道具图标12</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标13</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标14</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具用经验图标</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jing'yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具用金币图标</t>
+    <rPh sb="3" eb="4">
+      <t>jin'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具用钻石图标</t>
+    <rPh sb="3" eb="4">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：增加邮箱内道具钻石、金币、经验用icon</t>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jin'bi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jing'yan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yong</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -12798,8 +12913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -13239,9 +13354,15 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="B48" s="36" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>1699</v>
+      </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="36"/>
@@ -22373,10 +22494,10 @@
   <dimension ref="A2:J226"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
+      <selection pane="bottomRight" activeCell="H191" sqref="H191:I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -27518,13 +27639,27 @@
         <v>185</v>
       </c>
       <c r="B191" s="11"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="55"/>
-      <c r="E191" s="55"/>
-      <c r="F191" s="12"/>
-      <c r="G191" s="31"/>
-      <c r="H191" s="70"/>
-      <c r="I191" s="13"/>
+      <c r="C191" s="28" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D191" s="55" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E191" s="55" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G191" s="31">
+        <v>42293</v>
+      </c>
+      <c r="H191" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I191" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J191" s="14"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -27533,13 +27668,27 @@
         <v>186</v>
       </c>
       <c r="B192" s="11"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="55"/>
-      <c r="E192" s="55"/>
-      <c r="F192" s="12"/>
-      <c r="G192" s="31"/>
-      <c r="H192" s="70"/>
-      <c r="I192" s="13"/>
+      <c r="C192" s="28" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D192" s="55" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E192" s="55" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G192" s="31">
+        <v>42293</v>
+      </c>
+      <c r="H192" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I192" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J192" s="14"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -27548,13 +27697,27 @@
         <v>187</v>
       </c>
       <c r="B193" s="11"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="55"/>
-      <c r="E193" s="55"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="31"/>
-      <c r="H193" s="70"/>
-      <c r="I193" s="13"/>
+      <c r="C193" s="28" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D193" s="55" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E193" s="55" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G193" s="31">
+        <v>42293</v>
+      </c>
+      <c r="H193" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I193" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J193" s="14"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40160" yWindow="460" windowWidth="36660" windowHeight="19440" tabRatio="500"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="36660" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$239</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="1769">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -11991,7 +11991,475 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UI更新：宠物装备加号；宠物界面装备底图；商店首充和打折底图；背包出售选中图标；</t>
+    <t>chongwu_zhuangbei_ 1.png</t>
+  </si>
+  <si>
+    <t>chongwu_zhuangbei_ 2.png</t>
+  </si>
+  <si>
+    <t>chongwu_zhuangbei_ 3.png</t>
+  </si>
+  <si>
+    <t>chongwu_zhuangbei_ 4.png</t>
+  </si>
+  <si>
+    <t>chongwu_zhuangbei_ 5.png</t>
+  </si>
+  <si>
+    <t>chongwu_zhuangbei_ 6.png</t>
+  </si>
+  <si>
+    <t>宠物界面56</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面57</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面58</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面59</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面60</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面61</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备底图1</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备底图2</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备底图3</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备底图4</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备底图5</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备底图6</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换成亮色</t>
+    <rPh sb="0" eb="1">
+      <t>huan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang'se</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包界面</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包界面1</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包界面2</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包_出售单选框</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu'shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dan'xuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包_出售单选框选中</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu'shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dan'xuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kuang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xuan'zhong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beibao_duigou.png</t>
+  </si>
+  <si>
+    <t>beibao_duigou_1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面4</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面5</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店_首充底图</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店_打折底图</t>
+    <rPh sb="0" eb="1">
+      <t>shang'idan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'zhe</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_shouchongditu.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_dazheditu.png</t>
+  </si>
+  <si>
+    <t>beibao_baoxiangtishi.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beibao_baoxiangxuhao.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beibao_jiantou.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_baoxiang1.png</t>
+  </si>
+  <si>
+    <t>icon_baoxiang2.png</t>
+  </si>
+  <si>
+    <t>icon_baoxiang3.png</t>
+  </si>
+  <si>
+    <t>icon_baoxiang4.png</t>
+  </si>
+  <si>
+    <t>道具_宝箱1</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具_宝箱2</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具_宝箱3</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具_宝箱4</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标15</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标16</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标17</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标18</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包_开宝箱提示</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai'bao'xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti'shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包_开宝箱序号</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai'bao'xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu'hao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包_数量选择箭头</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jian'tou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包界面3</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包界面4</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包界面5</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月20日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：宠物装备加号；宠物界面装备底图；宠物装备遮罩按程序要求修改样式；商店首充和打折底图；背包出售选中图标；</t>
     <rPh sb="2" eb="3">
       <t>geng'x</t>
     </rPh>
@@ -12017,321 +12485,88 @@
       <t>di'tu</t>
     </rPh>
     <rPh sb="21" eb="22">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zhe'zhao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>an</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yang'shi</t>
+    </rPh>
+    <rPh sb="37" eb="38">
       <t>shang'dian</t>
     </rPh>
+    <rPh sb="39" eb="40">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>he</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>da'zhe</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>chu'shou</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>xuan'zhong</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：背包开宝箱提示、序号；数量选择箭头；宝箱icon</t>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai'bao'xiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>t'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xu'hao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jian'tou</t>
+    </rPh>
     <rPh sb="23" eb="24">
-      <t>shou</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>he</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>da'zhe</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>di'tu</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>bei'bao</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>chu'shou</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>xuan'zhong</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>tu'b</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>chongwu_zhuangbei_ 1.png</t>
-  </si>
-  <si>
-    <t>chongwu_zhuangbei_ 2.png</t>
-  </si>
-  <si>
-    <t>chongwu_zhuangbei_ 3.png</t>
-  </si>
-  <si>
-    <t>chongwu_zhuangbei_ 4.png</t>
-  </si>
-  <si>
-    <t>chongwu_zhuangbei_ 5.png</t>
-  </si>
-  <si>
-    <t>chongwu_zhuangbei_ 6.png</t>
-  </si>
-  <si>
-    <t>宠物界面56</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物界面57</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物界面58</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物界面59</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物界面60</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物界面61</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备底图1</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuang'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>di'tu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备底图2</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuang'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>di'tu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备底图3</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuang'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>di'tu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备底图4</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuang'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>di'tu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备底图5</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuang'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>di'tu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备底图6</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuang'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>di'tu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>换成亮色</t>
-    <rPh sb="0" eb="1">
-      <t>huan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>liang'se</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包界面</t>
-    <rPh sb="0" eb="1">
-      <t>bei'bao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包界面1</t>
-    <rPh sb="0" eb="1">
-      <t>bei'bao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包界面2</t>
-    <rPh sb="0" eb="1">
-      <t>bei'bao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包_出售单选框</t>
-    <rPh sb="0" eb="1">
-      <t>bei'bao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chu'shou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>dan'xuan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kuang</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包_出售单选框选中</t>
-    <rPh sb="0" eb="1">
-      <t>bei'bao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chu'shou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>dan'xuan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kuang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xuan'zhong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>beibao_duigou.png</t>
-  </si>
-  <si>
-    <t>beibao_duigou_1.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店界面4</t>
-    <rPh sb="0" eb="1">
-      <t>shang'dian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店界面5</t>
-    <rPh sb="0" eb="1">
-      <t>shang'dian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店_首充底图</t>
-    <rPh sb="0" eb="1">
-      <t>shang'dian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>di'tu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店_打折底图</t>
-    <rPh sb="0" eb="1">
-      <t>shang'idan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da'zhe</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>di'tu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_shouchongditu.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_dazheditu.png</t>
+      <t>bao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13282,7 +13517,7 @@
   <dimension ref="B2:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -13737,16 +13972,22 @@
         <v>1711</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>1713</v>
+        <v>1767</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>1712</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
+      <c r="B50" s="36" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="36"/>
@@ -22925,13 +23166,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J234"/>
+  <dimension ref="A2:J243"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H126" sqref="H126"/>
+      <selection pane="bottomRight" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -24987,7 +25228,7 @@
         <v>42296</v>
       </c>
       <c r="H75" s="69" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="I75" s="13" t="s">
         <v>431</v>
@@ -25315,7 +25556,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" ref="A87:A167" si="2">ROW($A87)-6</f>
+        <f t="shared" ref="A87:A171" si="2">ROW($A87)-6</f>
         <v>81</v>
       </c>
       <c r="B87" s="11"/>
@@ -25506,7 +25747,7 @@
         <v>684</v>
       </c>
       <c r="G93" s="31">
-        <v>42270</v>
+        <v>42296</v>
       </c>
       <c r="H93" s="70" t="s">
         <v>1574</v>
@@ -25871,13 +26112,13 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="28" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D106" s="65" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>684</v>
@@ -25900,13 +26141,13 @@
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="28" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D107" s="65" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>684</v>
@@ -25929,13 +26170,13 @@
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="28" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D108" s="65" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>684</v>
@@ -25958,13 +26199,13 @@
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="28" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D109" s="65" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>684</v>
@@ -25987,13 +26228,13 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="28" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D110" s="65" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>684</v>
@@ -26016,13 +26257,13 @@
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="28" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D111" s="65" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F111" s="12" t="s">
         <v>684</v>
@@ -26368,13 +26609,13 @@
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="28" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D124" s="65" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E124" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>684</v>
@@ -26397,13 +26638,13 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="28" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D125" s="65" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E125" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>684</v>
@@ -26777,16 +27018,16 @@
         <v>134</v>
       </c>
       <c r="B140" s="11" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C140" s="28" t="s">
         <v>1733</v>
       </c>
-      <c r="C140" s="28" t="s">
-        <v>1734</v>
-      </c>
       <c r="D140" s="65" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E140" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>684</v>
@@ -26809,13 +27050,13 @@
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="28" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D141" s="65" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E141" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>684</v>
@@ -26837,57 +27078,84 @@
         <v>136</v>
       </c>
       <c r="B142" s="11"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="65"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="31"/>
-      <c r="H142" s="70"/>
-      <c r="I142" s="13"/>
+      <c r="C142" s="28" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D142" s="65" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G142" s="31">
+        <v>42297</v>
+      </c>
+      <c r="H142" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I142" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J142" s="14"/>
     </row>
-    <row r="143" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B143" s="16"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="71"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="19"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="28" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D143" s="65" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G143" s="31">
+        <v>42297</v>
+      </c>
+      <c r="H143" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I143" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J143" s="14"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B144" s="11" t="s">
-        <v>784</v>
-      </c>
+      <c r="B144" s="11"/>
       <c r="C144" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F144" s="55" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D144" s="65" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F144" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G144" s="31">
-        <v>42266</v>
+        <v>42297</v>
       </c>
       <c r="H144" s="70" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J144" s="14"/>
     </row>
@@ -26897,27 +27165,12 @@
         <v>139</v>
       </c>
       <c r="B145" s="11"/>
-      <c r="C145" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="F145" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G145" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H145" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I145" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C145" s="28"/>
+      <c r="D145" s="65"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="70"/>
+      <c r="I145" s="13"/>
       <c r="J145" s="14"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -26926,72 +27179,45 @@
         <v>140</v>
       </c>
       <c r="B146" s="11"/>
-      <c r="C146" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F146" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G146" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H146" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I146" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C146" s="28"/>
+      <c r="D146" s="65"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="70"/>
+      <c r="I146" s="13"/>
       <c r="J146" s="14"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B147" s="11"/>
-      <c r="C147" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F147" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G147" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H147" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I147" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J147" s="14"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="71"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="19"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B148" s="11"/>
+      <c r="B148" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C148" s="28" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F148" s="55" t="s">
         <v>684</v>
@@ -27000,7 +27226,7 @@
         <v>42266</v>
       </c>
       <c r="H148" s="70" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="I148" s="13" t="s">
         <v>431</v>
@@ -27014,13 +27240,13 @@
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="28" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F149" s="55" t="s">
         <v>684</v>
@@ -27043,19 +27269,19 @@
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="28" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D150" s="55" t="s">
-        <v>1556</v>
+        <v>766</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F150" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="F150" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G150" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H150" s="70" t="s">
         <v>1464</v>
@@ -27072,19 +27298,19 @@
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="28" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D151" s="55" t="s">
-        <v>1557</v>
+        <v>767</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>706</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F151" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F151" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G151" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H151" s="70" t="s">
         <v>1464</v>
@@ -27101,19 +27327,19 @@
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D152" s="55" t="s">
-        <v>1550</v>
+        <v>768</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F152" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="F152" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G152" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H152" s="70" t="s">
         <v>1464</v>
@@ -27130,19 +27356,19 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="28" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D153" s="55" t="s">
-        <v>1551</v>
+        <v>769</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F153" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F153" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G153" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H153" s="70" t="s">
         <v>1464</v>
@@ -27159,13 +27385,13 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="28" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="D154" s="55" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>684</v>
@@ -27188,13 +27414,13 @@
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="28" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="D155" s="55" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>684</v>
@@ -27217,13 +27443,13 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="28" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="D156" s="55" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>684</v>
@@ -27246,13 +27472,13 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="28" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="D157" s="55" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>684</v>
@@ -27274,13 +27500,27 @@
         <v>152</v>
       </c>
       <c r="B158" s="11"/>
-      <c r="C158" s="22"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="31"/>
-      <c r="H158" s="69"/>
-      <c r="I158" s="12"/>
+      <c r="C158" s="28" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D158" s="55" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G158" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H158" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I158" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -27289,13 +27529,27 @@
         <v>153</v>
       </c>
       <c r="B159" s="11"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="31"/>
-      <c r="H159" s="69"/>
-      <c r="I159" s="12"/>
+      <c r="C159" s="28" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D159" s="55" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G159" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H159" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I159" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J159" s="14"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -27304,13 +27558,27 @@
         <v>154</v>
       </c>
       <c r="B160" s="11"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="69"/>
-      <c r="I160" s="12"/>
+      <c r="C160" s="28" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D160" s="55" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G160" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H160" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I160" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J160" s="14"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -27319,13 +27587,27 @@
         <v>155</v>
       </c>
       <c r="B161" s="11"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="69"/>
-      <c r="I161" s="12"/>
+      <c r="C161" s="28" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D161" s="55" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G161" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H161" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I161" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J161" s="14"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -27338,7 +27620,7 @@
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
+      <c r="G162" s="31"/>
       <c r="H162" s="69"/>
       <c r="I162" s="12"/>
       <c r="J162" s="14"/>
@@ -27353,55 +27635,39 @@
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
+      <c r="G163" s="31"/>
       <c r="H163" s="69"/>
       <c r="I163" s="12"/>
       <c r="J163" s="14"/>
     </row>
-    <row r="164" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B164" s="16"/>
-      <c r="C164" s="23"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="71"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="19"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="69"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="14"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B165" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C165" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="E165" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="F165" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G165" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H165" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I165" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="B165" s="11"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="69"/>
+      <c r="I165" s="12"/>
       <c r="J165" s="14"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -27410,27 +27676,13 @@
         <v>160</v>
       </c>
       <c r="B166" s="11"/>
-      <c r="C166" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="E166" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="F166" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G166" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H166" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I166" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C166" s="22"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="69"/>
+      <c r="I166" s="12"/>
       <c r="J166" s="14"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -27439,72 +27691,46 @@
         <v>161</v>
       </c>
       <c r="B167" s="11"/>
-      <c r="C167" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="E167" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="F167" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G167" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H167" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I167" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C167" s="22"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="69"/>
+      <c r="I167" s="12"/>
       <c r="J167" s="14"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <f t="shared" ref="A168:A230" si="3">ROW($A168)-6</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="B168" s="11"/>
-      <c r="C168" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="E168" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="F168" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G168" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H168" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I168" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J168" s="14"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="71"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="19"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B169" s="11"/>
+      <c r="B169" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C169" s="28" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>790</v>
+        <v>841</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>1348</v>
@@ -27522,18 +27748,18 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="28" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>842</v>
+        <v>787</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F170" s="12" t="s">
         <v>1348</v>
@@ -27551,18 +27777,18 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="28" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>832</v>
+        <v>788</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F171" s="12" t="s">
         <v>1348</v>
@@ -27580,18 +27806,18 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A172:A239" si="3">ROW($A172)-6</f>
         <v>166</v>
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="28" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>833</v>
+        <v>789</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>1348</v>
@@ -27614,13 +27840,13 @@
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="28" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>834</v>
+        <v>790</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F173" s="12" t="s">
         <v>1348</v>
@@ -27643,13 +27869,13 @@
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="28" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>1348</v>
@@ -27672,13 +27898,13 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="28" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F175" s="12" t="s">
         <v>1348</v>
@@ -27701,13 +27927,13 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="28" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>1348</v>
@@ -27730,13 +27956,13 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="28" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>1348</v>
@@ -27759,13 +27985,13 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="28" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>1348</v>
@@ -27788,13 +28014,13 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="28" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F179" s="12" t="s">
         <v>1348</v>
@@ -27816,13 +28042,27 @@
         <v>174</v>
       </c>
       <c r="B180" s="11"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="31"/>
-      <c r="H180" s="70"/>
-      <c r="I180" s="13"/>
+      <c r="C180" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G180" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H180" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I180" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J180" s="14"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -27832,25 +28072,25 @@
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D181" s="55" t="s">
-        <v>858</v>
+        <v>855</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>838</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>772</v>
+        <v>828</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G181" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H181" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H181" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J181" s="14"/>
     </row>
@@ -27861,25 +28101,25 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="D182" s="55" t="s">
-        <v>859</v>
+        <v>856</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>839</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>773</v>
+        <v>829</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G182" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H182" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H182" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J182" s="14"/>
     </row>
@@ -27890,25 +28130,25 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="28" t="s">
-        <v>781</v>
-      </c>
-      <c r="D183" s="55" t="s">
-        <v>860</v>
+        <v>857</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>840</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>774</v>
+        <v>830</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G183" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H183" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H183" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J183" s="14"/>
     </row>
@@ -27918,27 +28158,13 @@
         <v>178</v>
       </c>
       <c r="B184" s="11"/>
-      <c r="C184" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="D184" s="55" t="s">
-        <v>861</v>
-      </c>
-      <c r="E184" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="F184" s="12" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G184" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H184" s="74" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I184" s="13" t="s">
-        <v>1523</v>
-      </c>
+      <c r="C184" s="28"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="70"/>
+      <c r="I184" s="13"/>
       <c r="J184" s="14"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -27948,13 +28174,13 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>1522</v>
@@ -27976,13 +28202,27 @@
         <v>180</v>
       </c>
       <c r="B186" s="11"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="55"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="31"/>
-      <c r="H186" s="70"/>
-      <c r="I186" s="13"/>
+      <c r="C186" s="28" t="s">
+        <v>780</v>
+      </c>
+      <c r="D186" s="55" t="s">
+        <v>859</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G186" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H186" s="74" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I186" s="13" t="s">
+        <v>1523</v>
+      </c>
       <c r="J186" s="14"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -27991,24 +28231,26 @@
         <v>181</v>
       </c>
       <c r="B187" s="11"/>
-      <c r="C187" s="28"/>
+      <c r="C187" s="28" t="s">
+        <v>781</v>
+      </c>
       <c r="D187" s="55" t="s">
-        <v>1350</v>
+        <v>860</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G187" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H187" s="70" t="s">
-        <v>1345</v>
+        <v>42268</v>
+      </c>
+      <c r="H187" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I187" s="13" t="s">
-        <v>815</v>
+        <v>1523</v>
       </c>
       <c r="J187" s="14"/>
     </row>
@@ -28019,25 +28261,25 @@
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="28" t="s">
-        <v>1458</v>
+        <v>782</v>
       </c>
       <c r="D188" s="55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E188" s="55" t="s">
-        <v>1455</v>
+        <v>861</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>775</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G188" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H188" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H188" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I188" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J188" s="14"/>
     </row>
@@ -28048,25 +28290,25 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="28" t="s">
-        <v>1459</v>
+        <v>783</v>
       </c>
       <c r="D189" s="55" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E189" s="55" t="s">
-        <v>1456</v>
+        <v>862</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G189" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H189" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H189" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I189" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J189" s="14"/>
     </row>
@@ -28076,27 +28318,13 @@
         <v>184</v>
       </c>
       <c r="B190" s="11"/>
-      <c r="C190" s="28" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D190" s="55" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E190" s="55" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F190" s="12" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G190" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H190" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I190" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C190" s="28"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="31"/>
+      <c r="H190" s="70"/>
+      <c r="I190" s="13"/>
       <c r="J190" s="14"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -28105,26 +28333,24 @@
         <v>185</v>
       </c>
       <c r="B191" s="11"/>
-      <c r="C191" s="28" t="s">
-        <v>1598</v>
-      </c>
+      <c r="C191" s="28"/>
       <c r="D191" s="55" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E191" s="55" t="s">
-        <v>1597</v>
+        <v>1350</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F191" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G191" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H191" s="70" t="s">
-        <v>1613</v>
+        <v>1345</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J191" s="14"/>
     </row>
@@ -28135,22 +28361,22 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="28" t="s">
-        <v>1614</v>
+        <v>1458</v>
       </c>
       <c r="D192" s="55" t="s">
-        <v>1640</v>
+        <v>1461</v>
       </c>
       <c r="E192" s="55" t="s">
-        <v>1641</v>
+        <v>1455</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G192" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H192" s="70" t="s">
-        <v>1613</v>
+        <v>235</v>
       </c>
       <c r="I192" s="13" t="s">
         <v>431</v>
@@ -28164,22 +28390,22 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="28" t="s">
-        <v>1615</v>
+        <v>1459</v>
       </c>
       <c r="D193" s="55" t="s">
-        <v>1619</v>
+        <v>1462</v>
       </c>
       <c r="E193" s="55" t="s">
-        <v>1626</v>
+        <v>1456</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G193" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H193" s="70" t="s">
-        <v>1613</v>
+        <v>235</v>
       </c>
       <c r="I193" s="13" t="s">
         <v>431</v>
@@ -28193,22 +28419,22 @@
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="28" t="s">
-        <v>1616</v>
+        <v>1460</v>
       </c>
       <c r="D194" s="55" t="s">
-        <v>1620</v>
+        <v>1463</v>
       </c>
       <c r="E194" s="55" t="s">
-        <v>1627</v>
+        <v>1457</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G194" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H194" s="70" t="s">
-        <v>1613</v>
+        <v>235</v>
       </c>
       <c r="I194" s="13" t="s">
         <v>431</v>
@@ -28222,13 +28448,13 @@
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="28" t="s">
-        <v>1617</v>
+        <v>1598</v>
       </c>
       <c r="D195" s="55" t="s">
-        <v>1621</v>
+        <v>1599</v>
       </c>
       <c r="E195" s="55" t="s">
-        <v>1628</v>
+        <v>1597</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>1349</v>
@@ -28251,13 +28477,13 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="28" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="D196" s="55" t="s">
-        <v>1622</v>
+        <v>1640</v>
       </c>
       <c r="E196" s="55" t="s">
-        <v>1629</v>
+        <v>1641</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>1349</v>
@@ -28280,13 +28506,13 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="28" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="D197" s="55" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="E197" s="55" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>1349</v>
@@ -28309,13 +28535,13 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="28" t="s">
-        <v>1642</v>
+        <v>1616</v>
       </c>
       <c r="D198" s="55" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="E198" s="55" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>1349</v>
@@ -28338,22 +28564,22 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="28" t="s">
-        <v>1701</v>
+        <v>1617</v>
       </c>
       <c r="D199" s="55" t="s">
-        <v>1704</v>
+        <v>1621</v>
       </c>
       <c r="E199" s="55" t="s">
-        <v>1698</v>
+        <v>1628</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G199" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H199" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I199" s="13" t="s">
         <v>431</v>
@@ -28367,22 +28593,22 @@
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="28" t="s">
-        <v>1702</v>
+        <v>1618</v>
       </c>
       <c r="D200" s="55" t="s">
-        <v>1705</v>
+        <v>1622</v>
       </c>
       <c r="E200" s="55" t="s">
-        <v>1699</v>
+        <v>1629</v>
       </c>
       <c r="F200" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G200" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H200" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I200" s="13" t="s">
         <v>431</v>
@@ -28396,22 +28622,22 @@
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="28" t="s">
-        <v>1703</v>
+        <v>1625</v>
       </c>
       <c r="D201" s="55" t="s">
-        <v>1706</v>
+        <v>1623</v>
       </c>
       <c r="E201" s="55" t="s">
-        <v>1700</v>
+        <v>1630</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G201" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H201" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I201" s="13" t="s">
         <v>431</v>
@@ -28424,13 +28650,27 @@
         <v>196</v>
       </c>
       <c r="B202" s="11"/>
-      <c r="C202" s="28"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="55"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="12"/>
-      <c r="H202" s="70"/>
-      <c r="I202" s="13"/>
+      <c r="C202" s="28" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D202" s="55" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E202" s="55" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G202" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H202" s="70" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I202" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J202" s="14"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -28439,13 +28679,27 @@
         <v>197</v>
       </c>
       <c r="B203" s="11"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="55"/>
-      <c r="F203" s="12"/>
-      <c r="G203" s="12"/>
-      <c r="H203" s="70"/>
-      <c r="I203" s="13"/>
+      <c r="C203" s="28" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D203" s="55" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E203" s="55" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G203" s="31">
+        <v>42293</v>
+      </c>
+      <c r="H203" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I203" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J203" s="14"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -28455,25 +28709,25 @@
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D204" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="E204" s="12" t="s">
-        <v>868</v>
+        <v>1702</v>
+      </c>
+      <c r="D204" s="55" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E204" s="55" t="s">
+        <v>1699</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G204" s="31">
-        <v>42265</v>
+        <v>42293</v>
       </c>
       <c r="H204" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I204" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J204" s="14"/>
     </row>
@@ -28484,25 +28738,25 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="D205" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E205" s="12" t="s">
-        <v>869</v>
+        <v>1703</v>
+      </c>
+      <c r="D205" s="55" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E205" s="55" t="s">
+        <v>1700</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G205" s="31">
-        <v>42265</v>
+        <v>42293</v>
       </c>
       <c r="H205" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J205" s="14"/>
     </row>
@@ -28513,25 +28767,25 @@
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="28" t="s">
-        <v>894</v>
-      </c>
-      <c r="D206" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="E206" s="12" t="s">
-        <v>870</v>
+        <v>1756</v>
+      </c>
+      <c r="D206" s="55" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E206" s="55" t="s">
+        <v>1748</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G206" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H206" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I206" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J206" s="14"/>
     </row>
@@ -28542,25 +28796,25 @@
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="28" t="s">
-        <v>895</v>
+        <v>1757</v>
       </c>
       <c r="D207" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="E207" s="12" t="s">
-        <v>871</v>
+        <v>1753</v>
+      </c>
+      <c r="E207" s="55" t="s">
+        <v>1749</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G207" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H207" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I207" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J207" s="14"/>
     </row>
@@ -28571,25 +28825,25 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="28" t="s">
-        <v>896</v>
+        <v>1758</v>
       </c>
       <c r="D208" s="55" t="s">
-        <v>886</v>
-      </c>
-      <c r="E208" s="12" t="s">
-        <v>872</v>
+        <v>1754</v>
+      </c>
+      <c r="E208" s="55" t="s">
+        <v>1750</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G208" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H208" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I208" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J208" s="14"/>
     </row>
@@ -28600,25 +28854,25 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="28" t="s">
-        <v>897</v>
+        <v>1759</v>
       </c>
       <c r="D209" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E209" s="12" t="s">
-        <v>873</v>
+        <v>1755</v>
+      </c>
+      <c r="E209" s="55" t="s">
+        <v>1751</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G209" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H209" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I209" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J209" s="14"/>
     </row>
@@ -28628,27 +28882,13 @@
         <v>204</v>
       </c>
       <c r="B210" s="11"/>
-      <c r="C210" s="28" t="s">
-        <v>898</v>
-      </c>
-      <c r="D210" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="E210" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="F210" s="12" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G210" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H210" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I210" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C210" s="28"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="55"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="70"/>
+      <c r="I210" s="13"/>
       <c r="J210" s="14"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -28657,27 +28897,13 @@
         <v>205</v>
       </c>
       <c r="B211" s="11"/>
-      <c r="C211" s="28" t="s">
-        <v>899</v>
-      </c>
-      <c r="D211" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E211" s="12" t="s">
-        <v>875</v>
-      </c>
-      <c r="F211" s="12" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G211" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H211" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I211" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C211" s="28"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="55"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="70"/>
+      <c r="I211" s="13"/>
       <c r="J211" s="14"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -28686,27 +28912,13 @@
         <v>206</v>
       </c>
       <c r="B212" s="11"/>
-      <c r="C212" s="28" t="s">
-        <v>900</v>
-      </c>
-      <c r="D212" s="55" t="s">
-        <v>887</v>
-      </c>
-      <c r="E212" s="12" t="s">
-        <v>876</v>
-      </c>
-      <c r="F212" s="12" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G212" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H212" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I212" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C212" s="28"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="55"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="70"/>
+      <c r="I212" s="13"/>
       <c r="J212" s="14"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -28716,13 +28928,13 @@
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="28" t="s">
-        <v>901</v>
-      </c>
-      <c r="D213" s="55" t="s">
-        <v>38</v>
+        <v>892</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>885</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="F213" s="12" t="s">
         <v>1344</v>
@@ -28745,13 +28957,13 @@
       </c>
       <c r="B214" s="11"/>
       <c r="C214" s="28" t="s">
-        <v>902</v>
-      </c>
-      <c r="D214" s="55" t="s">
-        <v>571</v>
+        <v>893</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>547</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>1344</v>
@@ -28774,13 +28986,13 @@
       </c>
       <c r="B215" s="11"/>
       <c r="C215" s="28" t="s">
-        <v>903</v>
-      </c>
-      <c r="D215" s="55" t="s">
-        <v>888</v>
+        <v>894</v>
+      </c>
+      <c r="D215" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="F215" s="12" t="s">
         <v>1344</v>
@@ -28803,13 +29015,13 @@
       </c>
       <c r="B216" s="11"/>
       <c r="C216" s="28" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="D216" s="55" t="s">
-        <v>889</v>
+        <v>501</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="F216" s="12" t="s">
         <v>1344</v>
@@ -28832,13 +29044,13 @@
       </c>
       <c r="B217" s="11"/>
       <c r="C217" s="28" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="D217" s="55" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="F217" s="12" t="s">
         <v>1344</v>
@@ -28861,13 +29073,13 @@
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="28" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="D218" s="55" t="s">
-        <v>891</v>
+        <v>32</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="F218" s="12" t="s">
         <v>1344</v>
@@ -28890,13 +29102,13 @@
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="28" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="D219" s="55" t="s">
-        <v>617</v>
+        <v>465</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F219" s="12" t="s">
         <v>1344</v>
@@ -28919,13 +29131,13 @@
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="28" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="D220" s="55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>1344</v>
@@ -28947,13 +29159,27 @@
         <v>215</v>
       </c>
       <c r="B221" s="11"/>
-      <c r="C221" s="28"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="12"/>
-      <c r="G221" s="12"/>
-      <c r="H221" s="70"/>
-      <c r="I221" s="13"/>
+      <c r="C221" s="28" t="s">
+        <v>900</v>
+      </c>
+      <c r="D221" s="55" t="s">
+        <v>887</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="F221" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G221" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H221" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I221" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J221" s="14"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -28962,28 +29188,56 @@
         <v>216</v>
       </c>
       <c r="B222" s="11"/>
-      <c r="C222" s="28"/>
-      <c r="D222" s="12"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="70"/>
-      <c r="I222" s="13"/>
+      <c r="C222" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="D222" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="F222" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G222" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H222" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I222" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J222" s="14"/>
     </row>
-    <row r="223" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B223" s="11"/>
-      <c r="C223" s="28"/>
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
-      <c r="G223" s="12"/>
-      <c r="H223" s="70"/>
-      <c r="I223" s="13"/>
+      <c r="C223" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="D223" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="E223" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="F223" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G223" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H223" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I223" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J223" s="14"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -28991,31 +29245,29 @@
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-      <c r="B224" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C224" s="27" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E224" s="8" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F224" s="8" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G224" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H224" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I224" s="9" t="s">
-        <v>1355</v>
-      </c>
-      <c r="J224" s="10"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D224" s="55" t="s">
+        <v>888</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="F224" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G224" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H224" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I224" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J224" s="14"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
@@ -29023,13 +29275,27 @@
         <v>219</v>
       </c>
       <c r="B225" s="11"/>
-      <c r="C225" s="28"/>
-      <c r="D225" s="11"/>
-      <c r="E225" s="12"/>
-      <c r="F225" s="12"/>
-      <c r="G225" s="12"/>
-      <c r="H225" s="70"/>
-      <c r="I225" s="13"/>
+      <c r="C225" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="D225" s="55" t="s">
+        <v>889</v>
+      </c>
+      <c r="E225" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G225" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H225" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I225" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J225" s="14"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -29038,13 +29304,27 @@
         <v>220</v>
       </c>
       <c r="B226" s="11"/>
-      <c r="C226" s="28"/>
-      <c r="D226" s="11"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="12"/>
-      <c r="G226" s="12"/>
-      <c r="H226" s="70"/>
-      <c r="I226" s="13"/>
+      <c r="C226" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="D226" s="55" t="s">
+        <v>890</v>
+      </c>
+      <c r="E226" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G226" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H226" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I226" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J226" s="14"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -29053,29 +29333,57 @@
         <v>221</v>
       </c>
       <c r="B227" s="11"/>
-      <c r="C227" s="28"/>
-      <c r="D227" s="11"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="69"/>
-      <c r="I227" s="12"/>
+      <c r="C227" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="D227" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="E227" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G227" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H227" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I227" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J227" s="14"/>
     </row>
-    <row r="228" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="B228" s="16"/>
-      <c r="C228" s="29"/>
-      <c r="D228" s="16"/>
-      <c r="E228" s="17"/>
-      <c r="F228" s="17"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="71"/>
-      <c r="I228" s="17"/>
-      <c r="J228" s="19"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D228" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E228" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F228" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G228" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H228" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I228" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J228" s="14"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
@@ -29083,44 +29391,209 @@
         <v>223</v>
       </c>
       <c r="B229" s="11"/>
-      <c r="C229" s="28"/>
-      <c r="D229" s="12"/>
-      <c r="E229" s="12"/>
-      <c r="F229" s="12"/>
-      <c r="G229" s="12"/>
-      <c r="H229" s="69"/>
-      <c r="I229" s="12"/>
+      <c r="C229" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D229" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F229" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G229" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H229" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I229" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J229" s="14"/>
     </row>
-    <row r="230" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="B230" s="16"/>
-      <c r="C230" s="29"/>
-      <c r="D230" s="17"/>
-      <c r="E230" s="17"/>
-      <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="71"/>
-      <c r="I230" s="17"/>
-      <c r="J230" s="19"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="28"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="70"/>
+      <c r="I230" s="13"/>
+      <c r="J230" s="14"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C231" s="3"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C232" s="3"/>
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="B231" s="11"/>
+      <c r="C231" s="28"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="70"/>
+      <c r="I231" s="13"/>
+      <c r="J231" s="14"/>
+    </row>
+    <row r="232" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="B232" s="11"/>
+      <c r="C232" s="28"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="70"/>
+      <c r="I232" s="13"/>
+      <c r="J232" s="14"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C233" s="3"/>
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C233" s="27" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G233" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H233" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I233" s="9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J233" s="10"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C234" s="3"/>
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="B234" s="11"/>
+      <c r="C234" s="28"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="70"/>
+      <c r="I234" s="13"/>
+      <c r="J234" s="14"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="B235" s="11"/>
+      <c r="C235" s="28"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="70"/>
+      <c r="I235" s="13"/>
+      <c r="J235" s="14"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="B236" s="11"/>
+      <c r="C236" s="28"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="69"/>
+      <c r="I236" s="12"/>
+      <c r="J236" s="14"/>
+    </row>
+    <row r="237" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="B237" s="16"/>
+      <c r="C237" s="29"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17"/>
+      <c r="H237" s="71"/>
+      <c r="I237" s="17"/>
+      <c r="J237" s="19"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="B238" s="11"/>
+      <c r="C238" s="28"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
+      <c r="H238" s="69"/>
+      <c r="I238" s="12"/>
+      <c r="J238" s="14"/>
+    </row>
+    <row r="239" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="B239" s="16"/>
+      <c r="C239" s="29"/>
+      <c r="D239" s="17"/>
+      <c r="E239" s="17"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="17"/>
+      <c r="H239" s="71"/>
+      <c r="I239" s="17"/>
+      <c r="J239" s="19"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J230">
+  <autoFilter ref="A6:J239">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$243</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="1788">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -12565,6 +12565,195 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>bao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月26日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：合成分解资源提交</t>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen'jie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ti'jiao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hecheng_caidan_xiala.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hecheng_quan.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hecheng_sanjiao.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <rPh sb="0" eb="1">
+      <t>luo'yang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成分解界面1</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成分解界面2</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成分解界面3</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成分解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成_底图1</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成_底图2</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解_下拉菜单选中</t>
+    <rPh sb="0" eb="1">
+      <t>fen'jie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xia'la</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cai'dan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xuan'zhong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beibao_jiantou_jinyong.png</t>
+  </si>
+  <si>
+    <t>背包界面6</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包_数量选择箭头禁用</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jian'tou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin'yong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月27日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：补充背包选择数量箭头禁用样式</t>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jian'tou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jin'yong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yang'shi</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -12917,7 +13106,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -12934,6 +13123,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -13204,7 +13394,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="23">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -13223,6 +13413,7 @@
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="10"/>
     <cellStyle name="常规 4" xfId="11"/>
@@ -13516,8 +13707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -13990,14 +14181,26 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
+      <c r="B51" s="59" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>1771</v>
+      </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
+      <c r="B52" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="36"/>
@@ -23166,13 +23369,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J243"/>
+  <dimension ref="A2:J247"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G94" sqref="G94"/>
+      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -25556,7 +25759,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" ref="A87:A171" si="2">ROW($A87)-6</f>
+        <f t="shared" ref="A87:A175" si="2">ROW($A87)-6</f>
         <v>81</v>
       </c>
       <c r="B87" s="11"/>
@@ -27165,12 +27368,27 @@
         <v>139</v>
       </c>
       <c r="B145" s="11"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="65"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="31"/>
-      <c r="H145" s="70"/>
-      <c r="I145" s="13"/>
+      <c r="C145" s="28" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D145" s="65" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G145" s="31">
+        <v>42304</v>
+      </c>
+      <c r="H145" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I145" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J145" s="14"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -27187,49 +27405,63 @@
       <c r="I146" s="13"/>
       <c r="J146" s="14"/>
     </row>
-    <row r="147" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B147" s="16"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="71"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="19"/>
+      <c r="B147" s="11" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D147" s="65" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G147" s="31">
+        <v>42303</v>
+      </c>
+      <c r="H147" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I147" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J147" s="14"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B148" s="11" t="s">
-        <v>784</v>
-      </c>
+      <c r="B148" s="11"/>
       <c r="C148" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F148" s="55" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D148" s="65" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F148" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G148" s="31">
-        <v>42266</v>
+        <v>42303</v>
       </c>
       <c r="H148" s="70" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I148" s="13" t="s">
-        <v>431</v>
+        <v>1775</v>
       </c>
       <c r="J148" s="14"/>
     </row>
@@ -27240,25 +27472,25 @@
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="F149" s="55" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D149" s="65" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F149" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G149" s="31">
-        <v>42266</v>
+        <v>42303</v>
       </c>
       <c r="H149" s="70" t="s">
         <v>1464</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>431</v>
+        <v>1775</v>
       </c>
       <c r="J149" s="14"/>
     </row>
@@ -27268,72 +27500,45 @@
         <v>144</v>
       </c>
       <c r="B150" s="11"/>
-      <c r="C150" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F150" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G150" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H150" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I150" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C150" s="28"/>
+      <c r="D150" s="65"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="113"/>
+      <c r="H150" s="70"/>
+      <c r="I150" s="13"/>
       <c r="J150" s="14"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F151" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G151" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H151" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I151" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J151" s="14"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="71"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="19"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B152" s="11"/>
+      <c r="B152" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C152" s="28" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F152" s="55" t="s">
         <v>684</v>
@@ -27342,7 +27547,7 @@
         <v>42266</v>
       </c>
       <c r="H152" s="70" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="I152" s="13" t="s">
         <v>431</v>
@@ -27356,13 +27561,13 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="28" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F153" s="55" t="s">
         <v>684</v>
@@ -27385,19 +27590,19 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="28" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D154" s="55" t="s">
-        <v>1556</v>
+        <v>766</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F154" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="F154" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G154" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H154" s="70" t="s">
         <v>1464</v>
@@ -27414,19 +27619,19 @@
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="28" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D155" s="55" t="s">
-        <v>1557</v>
+        <v>767</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>706</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F155" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F155" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G155" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H155" s="70" t="s">
         <v>1464</v>
@@ -27443,19 +27648,19 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D156" s="55" t="s">
-        <v>1550</v>
+        <v>768</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F156" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="F156" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G156" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H156" s="70" t="s">
         <v>1464</v>
@@ -27472,19 +27677,19 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="28" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D157" s="55" t="s">
-        <v>1551</v>
+        <v>769</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F157" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F157" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G157" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H157" s="70" t="s">
         <v>1464</v>
@@ -27501,13 +27706,13 @@
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="28" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="D158" s="55" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>684</v>
@@ -27530,13 +27735,13 @@
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="28" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="D159" s="55" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>684</v>
@@ -27559,13 +27764,13 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="28" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="D160" s="55" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>684</v>
@@ -27588,13 +27793,13 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="28" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="D161" s="55" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>684</v>
@@ -27616,13 +27821,27 @@
         <v>156</v>
       </c>
       <c r="B162" s="11"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="31"/>
-      <c r="H162" s="69"/>
-      <c r="I162" s="12"/>
+      <c r="C162" s="28" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D162" s="55" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G162" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H162" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I162" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J162" s="14"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -27631,13 +27850,27 @@
         <v>157</v>
       </c>
       <c r="B163" s="11"/>
-      <c r="C163" s="22"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="69"/>
-      <c r="I163" s="12"/>
+      <c r="C163" s="28" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D163" s="55" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G163" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H163" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I163" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J163" s="14"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -27646,13 +27879,27 @@
         <v>158</v>
       </c>
       <c r="B164" s="11"/>
-      <c r="C164" s="22"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="69"/>
-      <c r="I164" s="12"/>
+      <c r="C164" s="28" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D164" s="55" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G164" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H164" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I164" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J164" s="14"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -27661,13 +27908,27 @@
         <v>159</v>
       </c>
       <c r="B165" s="11"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="69"/>
-      <c r="I165" s="12"/>
+      <c r="C165" s="28" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D165" s="55" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G165" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H165" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I165" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J165" s="14"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -27680,7 +27941,7 @@
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
       <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
+      <c r="G166" s="31"/>
       <c r="H166" s="69"/>
       <c r="I166" s="12"/>
       <c r="J166" s="14"/>
@@ -27695,55 +27956,39 @@
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
-      <c r="G167" s="12"/>
+      <c r="G167" s="31"/>
       <c r="H167" s="69"/>
       <c r="I167" s="12"/>
       <c r="J167" s="14"/>
     </row>
-    <row r="168" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="B168" s="16"/>
-      <c r="C168" s="23"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="71"/>
-      <c r="I168" s="17"/>
-      <c r="J168" s="19"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="69"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="14"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C169" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D169" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="E169" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="F169" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G169" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H169" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I169" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="B169" s="11"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="69"/>
+      <c r="I169" s="12"/>
       <c r="J169" s="14"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -27752,27 +27997,13 @@
         <v>164</v>
       </c>
       <c r="B170" s="11"/>
-      <c r="C170" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="E170" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="F170" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G170" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H170" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I170" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C170" s="22"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="69"/>
+      <c r="I170" s="12"/>
       <c r="J170" s="14"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -27781,72 +28012,46 @@
         <v>165</v>
       </c>
       <c r="B171" s="11"/>
-      <c r="C171" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="D171" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="E171" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G171" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H171" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I171" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C171" s="22"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="69"/>
+      <c r="I171" s="12"/>
       <c r="J171" s="14"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <f t="shared" ref="A172:A239" si="3">ROW($A172)-6</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B172" s="11"/>
-      <c r="C172" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="E172" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="F172" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G172" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H172" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I172" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J172" s="14"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="71"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="19"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="B173" s="11"/>
+      <c r="B173" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C173" s="28" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>790</v>
+        <v>841</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F173" s="12" t="s">
         <v>1348</v>
@@ -27864,18 +28069,18 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="28" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>842</v>
+        <v>787</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>1348</v>
@@ -27893,18 +28098,18 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="28" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>832</v>
+        <v>788</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F175" s="12" t="s">
         <v>1348</v>
@@ -27922,18 +28127,18 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A176:A243" si="3">ROW($A176)-6</f>
         <v>170</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="28" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>833</v>
+        <v>789</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>1348</v>
@@ -27956,13 +28161,13 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="28" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>834</v>
+        <v>790</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>1348</v>
@@ -27985,13 +28190,13 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="28" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>1348</v>
@@ -28014,13 +28219,13 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="28" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F179" s="12" t="s">
         <v>1348</v>
@@ -28043,13 +28248,13 @@
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="28" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>1348</v>
@@ -28072,13 +28277,13 @@
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="28" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F181" s="12" t="s">
         <v>1348</v>
@@ -28101,13 +28306,13 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="28" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>1348</v>
@@ -28130,13 +28335,13 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="28" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>1348</v>
@@ -28158,13 +28363,27 @@
         <v>178</v>
       </c>
       <c r="B184" s="11"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="31"/>
-      <c r="H184" s="70"/>
-      <c r="I184" s="13"/>
+      <c r="C184" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G184" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H184" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I184" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J184" s="14"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -28174,25 +28393,25 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D185" s="55" t="s">
-        <v>858</v>
+        <v>855</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>838</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>772</v>
+        <v>828</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G185" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H185" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H185" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J185" s="14"/>
     </row>
@@ -28203,25 +28422,25 @@
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="D186" s="55" t="s">
-        <v>859</v>
+        <v>856</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>839</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>773</v>
+        <v>829</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G186" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H186" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H186" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I186" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J186" s="14"/>
     </row>
@@ -28232,25 +28451,25 @@
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="28" t="s">
-        <v>781</v>
-      </c>
-      <c r="D187" s="55" t="s">
-        <v>860</v>
+        <v>857</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>840</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>774</v>
+        <v>830</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G187" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H187" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H187" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I187" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J187" s="14"/>
     </row>
@@ -28260,27 +28479,13 @@
         <v>182</v>
       </c>
       <c r="B188" s="11"/>
-      <c r="C188" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="D188" s="55" t="s">
-        <v>861</v>
-      </c>
-      <c r="E188" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="F188" s="12" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G188" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H188" s="74" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I188" s="13" t="s">
-        <v>1523</v>
-      </c>
+      <c r="C188" s="28"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="70"/>
+      <c r="I188" s="13"/>
       <c r="J188" s="14"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -28290,13 +28495,13 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D189" s="55" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>1522</v>
@@ -28318,13 +28523,27 @@
         <v>184</v>
       </c>
       <c r="B190" s="11"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="55"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="31"/>
-      <c r="H190" s="70"/>
-      <c r="I190" s="13"/>
+      <c r="C190" s="28" t="s">
+        <v>780</v>
+      </c>
+      <c r="D190" s="55" t="s">
+        <v>859</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G190" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H190" s="74" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I190" s="13" t="s">
+        <v>1523</v>
+      </c>
       <c r="J190" s="14"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -28333,24 +28552,26 @@
         <v>185</v>
       </c>
       <c r="B191" s="11"/>
-      <c r="C191" s="28"/>
+      <c r="C191" s="28" t="s">
+        <v>781</v>
+      </c>
       <c r="D191" s="55" t="s">
-        <v>1350</v>
+        <v>860</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G191" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H191" s="70" t="s">
-        <v>1345</v>
+        <v>42268</v>
+      </c>
+      <c r="H191" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>815</v>
+        <v>1523</v>
       </c>
       <c r="J191" s="14"/>
     </row>
@@ -28361,25 +28582,25 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="28" t="s">
-        <v>1458</v>
+        <v>782</v>
       </c>
       <c r="D192" s="55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E192" s="55" t="s">
-        <v>1455</v>
+        <v>861</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>775</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G192" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H192" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H192" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I192" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J192" s="14"/>
     </row>
@@ -28390,25 +28611,25 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="28" t="s">
-        <v>1459</v>
+        <v>783</v>
       </c>
       <c r="D193" s="55" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E193" s="55" t="s">
-        <v>1456</v>
+        <v>862</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="F193" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G193" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H193" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H193" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J193" s="14"/>
     </row>
@@ -28418,27 +28639,13 @@
         <v>188</v>
       </c>
       <c r="B194" s="11"/>
-      <c r="C194" s="28" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D194" s="55" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E194" s="55" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F194" s="12" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G194" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H194" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I194" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C194" s="28"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="31"/>
+      <c r="H194" s="70"/>
+      <c r="I194" s="13"/>
       <c r="J194" s="14"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -28447,26 +28654,24 @@
         <v>189</v>
       </c>
       <c r="B195" s="11"/>
-      <c r="C195" s="28" t="s">
-        <v>1598</v>
-      </c>
+      <c r="C195" s="28"/>
       <c r="D195" s="55" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E195" s="55" t="s">
-        <v>1597</v>
+        <v>1350</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G195" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H195" s="70" t="s">
-        <v>1613</v>
+        <v>1345</v>
       </c>
       <c r="I195" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J195" s="14"/>
     </row>
@@ -28477,22 +28682,22 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="28" t="s">
-        <v>1614</v>
+        <v>1458</v>
       </c>
       <c r="D196" s="55" t="s">
-        <v>1640</v>
+        <v>1461</v>
       </c>
       <c r="E196" s="55" t="s">
-        <v>1641</v>
+        <v>1455</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G196" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H196" s="70" t="s">
-        <v>1613</v>
+        <v>235</v>
       </c>
       <c r="I196" s="13" t="s">
         <v>431</v>
@@ -28506,22 +28711,22 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="28" t="s">
-        <v>1615</v>
+        <v>1459</v>
       </c>
       <c r="D197" s="55" t="s">
-        <v>1619</v>
+        <v>1462</v>
       </c>
       <c r="E197" s="55" t="s">
-        <v>1626</v>
+        <v>1456</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G197" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H197" s="70" t="s">
-        <v>1613</v>
+        <v>235</v>
       </c>
       <c r="I197" s="13" t="s">
         <v>431</v>
@@ -28535,22 +28740,22 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="28" t="s">
-        <v>1616</v>
+        <v>1460</v>
       </c>
       <c r="D198" s="55" t="s">
-        <v>1620</v>
+        <v>1463</v>
       </c>
       <c r="E198" s="55" t="s">
-        <v>1627</v>
+        <v>1457</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G198" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H198" s="70" t="s">
-        <v>1613</v>
+        <v>235</v>
       </c>
       <c r="I198" s="13" t="s">
         <v>431</v>
@@ -28564,13 +28769,13 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="28" t="s">
-        <v>1617</v>
+        <v>1598</v>
       </c>
       <c r="D199" s="55" t="s">
-        <v>1621</v>
+        <v>1599</v>
       </c>
       <c r="E199" s="55" t="s">
-        <v>1628</v>
+        <v>1597</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>1349</v>
@@ -28593,13 +28798,13 @@
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="28" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="D200" s="55" t="s">
-        <v>1622</v>
+        <v>1640</v>
       </c>
       <c r="E200" s="55" t="s">
-        <v>1629</v>
+        <v>1641</v>
       </c>
       <c r="F200" s="12" t="s">
         <v>1349</v>
@@ -28622,13 +28827,13 @@
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="28" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="D201" s="55" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="E201" s="55" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>1349</v>
@@ -28651,13 +28856,13 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="28" t="s">
-        <v>1642</v>
+        <v>1616</v>
       </c>
       <c r="D202" s="55" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="E202" s="55" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="F202" s="12" t="s">
         <v>1349</v>
@@ -28680,22 +28885,22 @@
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="28" t="s">
-        <v>1701</v>
+        <v>1617</v>
       </c>
       <c r="D203" s="55" t="s">
-        <v>1704</v>
+        <v>1621</v>
       </c>
       <c r="E203" s="55" t="s">
-        <v>1698</v>
+        <v>1628</v>
       </c>
       <c r="F203" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G203" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H203" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I203" s="13" t="s">
         <v>431</v>
@@ -28709,22 +28914,22 @@
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="28" t="s">
-        <v>1702</v>
+        <v>1618</v>
       </c>
       <c r="D204" s="55" t="s">
-        <v>1705</v>
+        <v>1622</v>
       </c>
       <c r="E204" s="55" t="s">
-        <v>1699</v>
+        <v>1629</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G204" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H204" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I204" s="13" t="s">
         <v>431</v>
@@ -28738,22 +28943,22 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="28" t="s">
-        <v>1703</v>
+        <v>1625</v>
       </c>
       <c r="D205" s="55" t="s">
-        <v>1706</v>
+        <v>1623</v>
       </c>
       <c r="E205" s="55" t="s">
-        <v>1700</v>
+        <v>1630</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G205" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H205" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I205" s="13" t="s">
         <v>431</v>
@@ -28767,22 +28972,22 @@
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="28" t="s">
-        <v>1756</v>
+        <v>1642</v>
       </c>
       <c r="D206" s="55" t="s">
-        <v>1752</v>
+        <v>1624</v>
       </c>
       <c r="E206" s="55" t="s">
-        <v>1748</v>
+        <v>1631</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G206" s="31">
-        <v>42297</v>
+        <v>42276</v>
       </c>
       <c r="H206" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I206" s="13" t="s">
         <v>431</v>
@@ -28796,19 +29001,19 @@
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="28" t="s">
-        <v>1757</v>
+        <v>1701</v>
       </c>
       <c r="D207" s="55" t="s">
-        <v>1753</v>
+        <v>1704</v>
       </c>
       <c r="E207" s="55" t="s">
-        <v>1749</v>
+        <v>1698</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G207" s="31">
-        <v>42297</v>
+        <v>42293</v>
       </c>
       <c r="H207" s="70" t="s">
         <v>235</v>
@@ -28825,19 +29030,19 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="28" t="s">
-        <v>1758</v>
+        <v>1702</v>
       </c>
       <c r="D208" s="55" t="s">
-        <v>1754</v>
+        <v>1705</v>
       </c>
       <c r="E208" s="55" t="s">
-        <v>1750</v>
+        <v>1699</v>
       </c>
       <c r="F208" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G208" s="31">
-        <v>42297</v>
+        <v>42293</v>
       </c>
       <c r="H208" s="70" t="s">
         <v>235</v>
@@ -28854,19 +29059,19 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="28" t="s">
-        <v>1759</v>
+        <v>1703</v>
       </c>
       <c r="D209" s="55" t="s">
-        <v>1755</v>
+        <v>1706</v>
       </c>
       <c r="E209" s="55" t="s">
-        <v>1751</v>
+        <v>1700</v>
       </c>
       <c r="F209" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G209" s="31">
-        <v>42297</v>
+        <v>42293</v>
       </c>
       <c r="H209" s="70" t="s">
         <v>235</v>
@@ -28882,13 +29087,27 @@
         <v>204</v>
       </c>
       <c r="B210" s="11"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="55"/>
-      <c r="F210" s="12"/>
-      <c r="G210" s="12"/>
-      <c r="H210" s="70"/>
-      <c r="I210" s="13"/>
+      <c r="C210" s="28" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D210" s="55" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E210" s="55" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G210" s="31">
+        <v>42297</v>
+      </c>
+      <c r="H210" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I210" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J210" s="14"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -28897,13 +29116,27 @@
         <v>205</v>
       </c>
       <c r="B211" s="11"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="55"/>
-      <c r="F211" s="12"/>
-      <c r="G211" s="12"/>
-      <c r="H211" s="70"/>
-      <c r="I211" s="13"/>
+      <c r="C211" s="28" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D211" s="55" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E211" s="55" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G211" s="31">
+        <v>42297</v>
+      </c>
+      <c r="H211" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I211" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J211" s="14"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -28912,13 +29145,27 @@
         <v>206</v>
       </c>
       <c r="B212" s="11"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="55"/>
-      <c r="F212" s="12"/>
-      <c r="G212" s="12"/>
-      <c r="H212" s="70"/>
-      <c r="I212" s="13"/>
+      <c r="C212" s="28" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D212" s="55" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E212" s="55" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F212" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G212" s="31">
+        <v>42297</v>
+      </c>
+      <c r="H212" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I212" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J212" s="14"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -28928,25 +29175,25 @@
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D213" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="E213" s="12" t="s">
-        <v>868</v>
+        <v>1759</v>
+      </c>
+      <c r="D213" s="55" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E213" s="55" t="s">
+        <v>1751</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G213" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H213" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I213" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J213" s="14"/>
     </row>
@@ -28956,27 +29203,13 @@
         <v>208</v>
       </c>
       <c r="B214" s="11"/>
-      <c r="C214" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="D214" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E214" s="12" t="s">
-        <v>869</v>
-      </c>
-      <c r="F214" s="12" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G214" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H214" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I214" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C214" s="28"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="55"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="70"/>
+      <c r="I214" s="13"/>
       <c r="J214" s="14"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -28985,27 +29218,13 @@
         <v>209</v>
       </c>
       <c r="B215" s="11"/>
-      <c r="C215" s="28" t="s">
-        <v>894</v>
-      </c>
-      <c r="D215" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="E215" s="12" t="s">
-        <v>870</v>
-      </c>
-      <c r="F215" s="12" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G215" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H215" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I215" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C215" s="28"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="55"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="70"/>
+      <c r="I215" s="13"/>
       <c r="J215" s="14"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -29014,27 +29233,13 @@
         <v>210</v>
       </c>
       <c r="B216" s="11"/>
-      <c r="C216" s="28" t="s">
-        <v>895</v>
-      </c>
-      <c r="D216" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="E216" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="F216" s="12" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G216" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H216" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I216" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C216" s="28"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="55"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="70"/>
+      <c r="I216" s="13"/>
       <c r="J216" s="14"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -29044,13 +29249,13 @@
       </c>
       <c r="B217" s="11"/>
       <c r="C217" s="28" t="s">
-        <v>896</v>
-      </c>
-      <c r="D217" s="55" t="s">
-        <v>886</v>
+        <v>892</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>885</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="F217" s="12" t="s">
         <v>1344</v>
@@ -29073,13 +29278,13 @@
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="28" t="s">
-        <v>897</v>
-      </c>
-      <c r="D218" s="55" t="s">
-        <v>32</v>
+        <v>893</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>547</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F218" s="12" t="s">
         <v>1344</v>
@@ -29102,13 +29307,13 @@
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="28" t="s">
-        <v>898</v>
-      </c>
-      <c r="D219" s="55" t="s">
-        <v>465</v>
+        <v>894</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F219" s="12" t="s">
         <v>1344</v>
@@ -29131,13 +29336,13 @@
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="28" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D220" s="55" t="s">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>1344</v>
@@ -29160,13 +29365,13 @@
       </c>
       <c r="B221" s="11"/>
       <c r="C221" s="28" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D221" s="55" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="F221" s="12" t="s">
         <v>1344</v>
@@ -29189,13 +29394,13 @@
       </c>
       <c r="B222" s="11"/>
       <c r="C222" s="28" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D222" s="55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>1344</v>
@@ -29218,13 +29423,13 @@
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="28" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D223" s="55" t="s">
-        <v>571</v>
+        <v>465</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>1344</v>
@@ -29247,13 +29452,13 @@
       </c>
       <c r="B224" s="11"/>
       <c r="C224" s="28" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D224" s="55" t="s">
-        <v>888</v>
+        <v>19</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F224" s="12" t="s">
         <v>1344</v>
@@ -29276,13 +29481,13 @@
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="28" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D225" s="55" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F225" s="12" t="s">
         <v>1344</v>
@@ -29305,13 +29510,13 @@
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="28" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D226" s="55" t="s">
-        <v>890</v>
+        <v>38</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>1344</v>
@@ -29334,13 +29539,13 @@
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="28" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D227" s="55" t="s">
-        <v>891</v>
+        <v>571</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>1344</v>
@@ -29363,13 +29568,13 @@
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="28" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D228" s="55" t="s">
-        <v>617</v>
+        <v>888</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F228" s="12" t="s">
         <v>1344</v>
@@ -29392,13 +29597,13 @@
       </c>
       <c r="B229" s="11"/>
       <c r="C229" s="28" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D229" s="55" t="s">
-        <v>20</v>
+        <v>889</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>1344</v>
@@ -29420,13 +29625,27 @@
         <v>224</v>
       </c>
       <c r="B230" s="11"/>
-      <c r="C230" s="28"/>
-      <c r="D230" s="12"/>
-      <c r="E230" s="12"/>
-      <c r="F230" s="12"/>
-      <c r="G230" s="12"/>
-      <c r="H230" s="70"/>
-      <c r="I230" s="13"/>
+      <c r="C230" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="D230" s="55" t="s">
+        <v>890</v>
+      </c>
+      <c r="E230" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="F230" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G230" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H230" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I230" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J230" s="14"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -29435,28 +29654,56 @@
         <v>225</v>
       </c>
       <c r="B231" s="11"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="12"/>
-      <c r="E231" s="12"/>
-      <c r="F231" s="12"/>
-      <c r="G231" s="12"/>
-      <c r="H231" s="70"/>
-      <c r="I231" s="13"/>
+      <c r="C231" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="D231" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="E231" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F231" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G231" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H231" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I231" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J231" s="14"/>
     </row>
-    <row r="232" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="B232" s="11"/>
-      <c r="C232" s="28"/>
-      <c r="D232" s="12"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="12"/>
-      <c r="G232" s="12"/>
-      <c r="H232" s="70"/>
-      <c r="I232" s="13"/>
+      <c r="C232" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D232" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E232" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F232" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G232" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H232" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I232" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J232" s="14"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -29464,31 +29711,29 @@
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="B233" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C233" s="27" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F233" s="8" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G233" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H233" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I233" s="9" t="s">
-        <v>1355</v>
-      </c>
-      <c r="J233" s="10"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D233" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E233" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F233" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G233" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H233" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I233" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J233" s="14"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -29497,7 +29742,7 @@
       </c>
       <c r="B234" s="11"/>
       <c r="C234" s="28"/>
-      <c r="D234" s="11"/>
+      <c r="D234" s="12"/>
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
       <c r="G234" s="12"/>
@@ -29512,7 +29757,7 @@
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="28"/>
-      <c r="D235" s="11"/>
+      <c r="D235" s="12"/>
       <c r="E235" s="12"/>
       <c r="F235" s="12"/>
       <c r="G235" s="12"/>
@@ -29520,35 +29765,51 @@
       <c r="I235" s="13"/>
       <c r="J235" s="14"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="28"/>
-      <c r="D236" s="11"/>
+      <c r="D236" s="12"/>
       <c r="E236" s="12"/>
       <c r="F236" s="12"/>
       <c r="G236" s="12"/>
-      <c r="H236" s="69"/>
-      <c r="I236" s="12"/>
+      <c r="H236" s="70"/>
+      <c r="I236" s="13"/>
       <c r="J236" s="14"/>
     </row>
-    <row r="237" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="B237" s="16"/>
-      <c r="C237" s="29"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="17"/>
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="71"/>
-      <c r="I237" s="17"/>
-      <c r="J237" s="19"/>
+      <c r="B237" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C237" s="27" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G237" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H237" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I237" s="9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J237" s="10"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -29557,43 +29818,103 @@
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="28"/>
-      <c r="D238" s="12"/>
+      <c r="D238" s="11"/>
       <c r="E238" s="12"/>
       <c r="F238" s="12"/>
       <c r="G238" s="12"/>
-      <c r="H238" s="69"/>
-      <c r="I238" s="12"/>
+      <c r="H238" s="70"/>
+      <c r="I238" s="13"/>
       <c r="J238" s="14"/>
     </row>
-    <row r="239" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
-      <c r="B239" s="16"/>
-      <c r="C239" s="29"/>
-      <c r="D239" s="17"/>
-      <c r="E239" s="17"/>
-      <c r="F239" s="17"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="71"/>
-      <c r="I239" s="17"/>
-      <c r="J239" s="19"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="28"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="70"/>
+      <c r="I239" s="13"/>
+      <c r="J239" s="14"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" s="3"/>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" s="3"/>
-    </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243" s="3"/>
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="B240" s="11"/>
+      <c r="C240" s="28"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="69"/>
+      <c r="I240" s="12"/>
+      <c r="J240" s="14"/>
+    </row>
+    <row r="241" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="B241" s="16"/>
+      <c r="C241" s="29"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="17"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="71"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="19"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="B242" s="11"/>
+      <c r="C242" s="28"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="12"/>
+      <c r="H242" s="69"/>
+      <c r="I242" s="12"/>
+      <c r="J242" s="14"/>
+    </row>
+    <row r="243" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="B243" s="16"/>
+      <c r="C243" s="29"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="17"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="71"/>
+      <c r="I243" s="17"/>
+      <c r="J243" s="19"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J239">
+  <autoFilter ref="A6:J243">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$6:$J$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$252</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -115,7 +115,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="1821">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -12754,6 +12754,303 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>yang'shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改资源尺寸</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chi'cun</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择1</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择_星级</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择_星级1</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择_加锁</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia'suo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择_宝箱</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择2</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择3</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择4</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fubenxuanze_xing1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fubenxuanze_xing2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fubenxuanze_suo.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fubenxuanze_baoxiang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fubenxuanze_huolizhi.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择_活力值</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo'li'zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择5</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择背景</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bei'jign</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本1</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林</t>
+    <rPh sb="0" eb="1">
+      <t>sen'lin</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥河</t>
+    <rPh sb="0" eb="1">
+      <t>ming'he</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fubenxuanze_minghe.png</t>
+  </si>
+  <si>
+    <t>fubenxuanze_senlin.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../instance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新资源</t>
+    <rPh sb="0" eb="1">
+      <t>xin'zi'y</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月05日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：小按钮，背包箭头修改资源尺寸
+副本选择界面资源提交</t>
+    <rPh sb="2" eb="3">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jian'tou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chi'cun</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ti'jiao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择背景图</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -13106,7 +13403,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -13123,6 +13420,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -13394,7 +13692,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="24">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -13414,6 +13712,7 @@
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="10"/>
     <cellStyle name="常规 4" xfId="11"/>
@@ -13708,7 +14007,7 @@
   <dimension ref="B2:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -14202,10 +14501,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
+    <row r="53" spans="2:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="B53" s="36" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C53" s="98" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>1818</v>
+      </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="36"/>
@@ -23369,17 +23674,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J247"/>
+  <dimension ref="A2:J256"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
@@ -23410,117 +23716,96 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>1513</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>ROW($A7)-6</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>723</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="G7" s="30">
-        <v>42242</v>
-      </c>
-      <c r="H7" s="68" t="s">
-        <v>432</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ref="A8:A72" si="0">ROW($A8)-6</f>
+        <f>ROW($A8)-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="28" t="s">
-        <v>724</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>722</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="G8" s="31">
+      <c r="B8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>723</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="G8" s="30">
         <v>42242</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="68" t="s">
         <v>432</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A9:A73" si="0">ROW($A9)-6</f>
         <v>3</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>685</v>
+        <v>722</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>683</v>
@@ -23543,13 +23828,13 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>683</v>
@@ -23572,13 +23857,13 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>683</v>
@@ -23601,13 +23886,13 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="28" t="s">
-        <v>728</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>692</v>
+        <v>727</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>687</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>683</v>
@@ -23630,13 +23915,13 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>693</v>
+        <v>728</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>692</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>688</v>
+        <v>646</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>683</v>
@@ -23659,19 +23944,19 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>699</v>
+        <v>729</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>693</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>647</v>
+        <v>688</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G14" s="31">
-        <v>42243</v>
+        <v>42242</v>
       </c>
       <c r="H14" s="69" t="s">
         <v>432</v>
@@ -23688,19 +23973,19 @@
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G15" s="31">
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="H15" s="69" t="s">
         <v>432</v>
@@ -23717,13 +24002,13 @@
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="28" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>683</v>
@@ -23746,13 +24031,13 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>683</v>
@@ -23775,13 +24060,13 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>683</v>
@@ -23804,13 +24089,13 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>683</v>
@@ -23833,22 +24118,22 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G20" s="31">
-        <v>42245</v>
+        <v>42242</v>
       </c>
       <c r="H20" s="69" t="s">
-        <v>962</v>
+        <v>432</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>431</v>
@@ -23862,22 +24147,22 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="28" t="s">
-        <v>737</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>709</v>
+        <v>736</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>700</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G21" s="31">
-        <v>42244</v>
-      </c>
-      <c r="H21" s="70" t="s">
-        <v>809</v>
+        <v>42245</v>
+      </c>
+      <c r="H21" s="69" t="s">
+        <v>962</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>431</v>
@@ -23891,22 +24176,22 @@
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G22" s="31">
-        <v>42242</v>
-      </c>
-      <c r="H22" s="69" t="s">
-        <v>432</v>
+        <v>42244</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>809</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>431</v>
@@ -23920,13 +24205,13 @@
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>683</v>
@@ -23949,13 +24234,13 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="28" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>683</v>
@@ -23978,22 +24263,22 @@
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G25" s="31">
-        <v>42245</v>
+        <v>42242</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>964</v>
+        <v>432</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>431</v>
@@ -24007,22 +24292,22 @@
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G26" s="31">
-        <v>42242</v>
+        <v>42245</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>432</v>
+        <v>964</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>431</v>
@@ -24036,13 +24321,13 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>683</v>
@@ -24065,19 +24350,19 @@
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>715</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>831</v>
+        <v>714</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>667</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G28" s="31">
-        <v>42244</v>
+        <v>42242</v>
       </c>
       <c r="H28" s="69" t="s">
         <v>432</v>
@@ -24094,19 +24379,19 @@
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>716</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>669</v>
+        <v>715</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>831</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G29" s="31">
-        <v>42242</v>
+        <v>42244</v>
       </c>
       <c r="H29" s="69" t="s">
         <v>432</v>
@@ -24123,13 +24408,13 @@
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>683</v>
@@ -24152,22 +24437,22 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="28" t="s">
-        <v>747</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>702</v>
+        <v>746</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>717</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G31" s="31">
-        <v>42286</v>
+        <v>42242</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>1645</v>
+        <v>432</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>431</v>
@@ -24181,22 +24466,22 @@
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="28" t="s">
-        <v>748</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>701</v>
+        <v>747</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>702</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G32" s="31">
-        <v>42245</v>
+        <v>42286</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>963</v>
+        <v>1645</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>431</v>
@@ -24210,22 +24495,22 @@
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="28" t="s">
-        <v>749</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>974</v>
+        <v>748</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>701</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G33" s="31">
-        <v>42242</v>
+        <v>42245</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>432</v>
+        <v>963</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>431</v>
@@ -24239,13 +24524,13 @@
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>683</v>
@@ -24268,22 +24553,22 @@
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G35" s="31">
-        <v>42244</v>
-      </c>
-      <c r="H35" s="70" t="s">
-        <v>810</v>
+        <v>42242</v>
+      </c>
+      <c r="H35" s="69" t="s">
+        <v>432</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>431</v>
@@ -24297,25 +24582,25 @@
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="28" t="s">
-        <v>752</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>976</v>
+        <v>751</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>969</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>967</v>
+        <v>674</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G36" s="31">
-        <v>42246</v>
+        <v>42244</v>
       </c>
       <c r="H36" s="70" t="s">
-        <v>970</v>
+        <v>810</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>972</v>
+        <v>431</v>
       </c>
       <c r="J36" s="14"/>
     </row>
@@ -24326,13 +24611,13 @@
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>683</v>
@@ -24341,10 +24626,10 @@
         <v>42246</v>
       </c>
       <c r="H37" s="70" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J37" s="14"/>
     </row>
@@ -24355,25 +24640,25 @@
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="28" t="s">
-        <v>754</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>978</v>
+        <v>753</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>977</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>675</v>
+        <v>968</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G38" s="31">
-        <v>42242</v>
-      </c>
-      <c r="H38" s="69" t="s">
-        <v>432</v>
+        <v>42246</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>971</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>431</v>
+        <v>973</v>
       </c>
       <c r="J38" s="14"/>
     </row>
@@ -24384,13 +24669,13 @@
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>683</v>
@@ -24413,13 +24698,13 @@
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>683</v>
@@ -24442,13 +24727,13 @@
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>683</v>
@@ -24471,19 +24756,19 @@
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="D42" s="65" t="s">
-        <v>984</v>
+        <v>757</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>981</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G42" s="31">
-        <v>42243</v>
+        <v>42242</v>
       </c>
       <c r="H42" s="69" t="s">
         <v>432</v>
@@ -24493,26 +24778,26 @@
       </c>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="28" t="s">
-        <v>759</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>689</v>
+        <v>758</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>984</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>679</v>
+        <v>648</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G43" s="31">
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="H43" s="69" t="s">
         <v>432</v>
@@ -24522,20 +24807,20 @@
       </c>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>683</v>
@@ -24558,13 +24843,13 @@
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>683</v>
@@ -24587,25 +24872,25 @@
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="28" t="s">
-        <v>762</v>
-      </c>
-      <c r="D46" s="65" t="s">
-        <v>691</v>
+        <v>761</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>718</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>645</v>
+        <v>681</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G46" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H46" s="70" t="s">
-        <v>1390</v>
+        <v>42242</v>
+      </c>
+      <c r="H46" s="69" t="s">
+        <v>432</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>1391</v>
+        <v>431</v>
       </c>
       <c r="J46" s="14"/>
     </row>
@@ -24616,25 +24901,25 @@
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D47" s="65" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>1447</v>
+        <v>645</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G47" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H47" s="69" t="s">
-        <v>1448</v>
+        <v>42265</v>
+      </c>
+      <c r="H47" s="70" t="s">
+        <v>1390</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>1449</v>
+        <v>1391</v>
       </c>
       <c r="J47" s="14"/>
     </row>
@@ -24645,19 +24930,19 @@
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="28" t="s">
-        <v>982</v>
+        <v>763</v>
       </c>
       <c r="D48" s="65" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G48" s="31">
-        <v>42242</v>
+        <v>42266</v>
       </c>
       <c r="H48" s="69" t="s">
         <v>1448</v>
@@ -24674,16 +24959,16 @@
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="28" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D49" s="65" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>771</v>
+        <v>683</v>
       </c>
       <c r="G49" s="31">
         <v>42242</v>
@@ -24702,13 +24987,27 @@
         <v>44</v>
       </c>
       <c r="B50" s="11"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="13"/>
+      <c r="C50" s="28" t="s">
+        <v>983</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>721</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="G50" s="31">
+        <v>42242</v>
+      </c>
+      <c r="H50" s="69" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>1449</v>
+      </c>
       <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -24716,30 +25015,14 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D51" s="65" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="G51" s="31">
-        <v>42264</v>
-      </c>
-      <c r="H51" s="69" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="14"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -24747,15 +25030,17 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B52" s="11"/>
+      <c r="B52" s="11" t="s">
+        <v>1351</v>
+      </c>
       <c r="C52" s="28" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>1357</v>
+        <v>1375</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>771</v>
@@ -24778,13 +25063,13 @@
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="28" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>771</v>
@@ -24807,13 +25092,13 @@
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="28" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D54" s="65" t="s">
         <v>1437</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>771</v>
@@ -24836,13 +25121,13 @@
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="28" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D55" s="65" t="s">
         <v>1437</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>771</v>
@@ -24865,13 +25150,13 @@
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="28" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D56" s="65" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>771</v>
@@ -24894,13 +25179,13 @@
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="28" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D57" s="65" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>771</v>
@@ -24923,13 +25208,13 @@
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="28" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D58" s="65" t="s">
         <v>1444</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>771</v>
@@ -24952,13 +25237,13 @@
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="28" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D59" s="65" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>771</v>
@@ -24981,25 +25266,25 @@
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="28" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D60" s="65" t="s">
-        <v>1691</v>
+        <v>1445</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>1690</v>
+        <v>1364</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="G60" s="31">
-        <v>42289</v>
+        <v>42264</v>
       </c>
       <c r="H60" s="69" t="s">
-        <v>1692</v>
+        <v>1392</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="J60" s="14"/>
     </row>
@@ -25010,25 +25295,25 @@
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="28" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D61" s="65" t="s">
-        <v>1669</v>
+        <v>1691</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>1365</v>
+        <v>1690</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>771</v>
+        <v>684</v>
       </c>
       <c r="G61" s="31">
-        <v>42264</v>
+        <v>42289</v>
       </c>
       <c r="H61" s="69" t="s">
-        <v>1392</v>
+        <v>1692</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J61" s="14"/>
     </row>
@@ -25039,13 +25324,13 @@
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="28" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D62" s="65" t="s">
-        <v>1446</v>
+        <v>1669</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>771</v>
@@ -25068,13 +25353,13 @@
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="28" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D63" s="65" t="s">
         <v>1446</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>771</v>
@@ -25097,13 +25382,13 @@
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D64" s="65" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>771</v>
@@ -25126,13 +25411,13 @@
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="28" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>771</v>
@@ -25155,22 +25440,22 @@
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="28" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D66" s="65" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G66" s="31">
-        <v>42264</v>
+        <v>42307</v>
       </c>
       <c r="H66" s="69" t="s">
-        <v>1392</v>
+        <v>1788</v>
       </c>
       <c r="I66" s="13" t="s">
         <v>431</v>
@@ -25184,13 +25469,13 @@
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="28" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D67" s="65" t="s">
         <v>1441</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>771</v>
@@ -25213,13 +25498,13 @@
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="28" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D68" s="65" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>771</v>
@@ -25242,13 +25527,13 @@
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="28" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D69" s="65" t="s">
         <v>1442</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>771</v>
@@ -25271,22 +25556,22 @@
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="28" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D70" s="65" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G70" s="31">
-        <v>42289</v>
+        <v>42264</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1693</v>
+        <v>1392</v>
       </c>
       <c r="I70" s="13" t="s">
         <v>431</v>
@@ -25300,25 +25585,25 @@
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="28" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>1485</v>
+        <v>1438</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>1592</v>
+        <v>1374</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="G71" s="31">
-        <v>42271</v>
+        <v>42289</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1591</v>
+        <v>1693</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>1590</v>
+        <v>431</v>
       </c>
       <c r="J71" s="14"/>
     </row>
@@ -25329,51 +25614,51 @@
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="28" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D72" s="65" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>771</v>
+        <v>684</v>
       </c>
       <c r="G72" s="31">
         <v>42271</v>
       </c>
       <c r="H72" s="69" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>431</v>
+        <v>1590</v>
       </c>
       <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" ref="A73:A86" si="1">ROW($A73)-6</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="28" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>1376</v>
+        <v>1600</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G73" s="31">
-        <v>42264</v>
+        <v>42271</v>
       </c>
       <c r="H73" s="69" t="s">
-        <v>1392</v>
+        <v>1602</v>
       </c>
       <c r="I73" s="13" t="s">
         <v>431</v>
@@ -25382,18 +25667,18 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A74:A87" si="1">ROW($A74)-6</f>
         <v>68</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="28" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>771</v>
@@ -25416,22 +25701,22 @@
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="28" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G75" s="31">
-        <v>42296</v>
+        <v>42264</v>
       </c>
       <c r="H75" s="69" t="s">
-        <v>1731</v>
+        <v>1392</v>
       </c>
       <c r="I75" s="13" t="s">
         <v>431</v>
@@ -25445,22 +25730,22 @@
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="28" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G76" s="31">
-        <v>42264</v>
+        <v>42296</v>
       </c>
       <c r="H76" s="69" t="s">
-        <v>1392</v>
+        <v>1731</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>431</v>
@@ -25474,22 +25759,22 @@
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="28" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>1433</v>
+        <v>1488</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G77" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H77" s="74" t="s">
-        <v>1512</v>
+        <v>42264</v>
+      </c>
+      <c r="H77" s="69" t="s">
+        <v>1392</v>
       </c>
       <c r="I77" s="13" t="s">
         <v>431</v>
@@ -25503,22 +25788,22 @@
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="28" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D78" s="65" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G78" s="31">
-        <v>42264</v>
-      </c>
-      <c r="H78" s="69" t="s">
-        <v>1392</v>
+        <v>42266</v>
+      </c>
+      <c r="H78" s="74" t="s">
+        <v>1512</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>431</v>
@@ -25532,25 +25817,25 @@
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="28" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G79" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H79" s="74" t="s">
-        <v>1512</v>
-      </c>
-      <c r="I79" s="114" t="s">
-        <v>1511</v>
+        <v>42264</v>
+      </c>
+      <c r="H79" s="69" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="J79" s="14"/>
     </row>
@@ -25561,25 +25846,25 @@
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="28" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D80" s="65" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G80" s="31">
-        <v>42264</v>
-      </c>
-      <c r="H80" s="69" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I80" s="13" t="s">
-        <v>431</v>
+        <v>42266</v>
+      </c>
+      <c r="H80" s="74" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I80" s="114" t="s">
+        <v>1511</v>
       </c>
       <c r="J80" s="14"/>
     </row>
@@ -25590,13 +25875,13 @@
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="28" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D81" s="65" t="s">
-        <v>1489</v>
+        <v>1436</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>771</v>
@@ -25619,13 +25904,13 @@
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="28" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D82" s="65" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>771</v>
@@ -25648,13 +25933,13 @@
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="28" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D83" s="65" t="s">
-        <v>1428</v>
+        <v>1490</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>771</v>
@@ -25677,13 +25962,13 @@
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="28" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D84" s="65" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>771</v>
@@ -25706,13 +25991,13 @@
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="28" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D85" s="65" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>771</v>
@@ -25735,80 +26020,80 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="28" t="s">
-        <v>1498</v>
+        <v>1427</v>
       </c>
       <c r="D86" s="65" t="s">
-        <v>1633</v>
+        <v>1430</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>1634</v>
+        <v>1388</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>771</v>
       </c>
       <c r="G86" s="31">
-        <v>42276</v>
+        <v>42264</v>
       </c>
       <c r="H86" s="69" t="s">
-        <v>235</v>
+        <v>1392</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>1635</v>
+        <v>431</v>
       </c>
       <c r="J86" s="14"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" ref="A87:A175" si="2">ROW($A87)-6</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="28" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D87" s="65" t="s">
-        <v>1478</v>
+        <v>1633</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>1467</v>
+        <v>1634</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="G87" s="31">
-        <v>42266</v>
+        <v>42276</v>
       </c>
       <c r="H87" s="69" t="s">
         <v>235</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>431</v>
+        <v>1635</v>
       </c>
       <c r="J87" s="14"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A88:A181" si="2">ROW($A88)-6</f>
         <v>82</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="28" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D88" s="113" t="s">
-        <v>1479</v>
+        <v>1499</v>
+      </c>
+      <c r="D88" s="65" t="s">
+        <v>1478</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>1389</v>
+        <v>1467</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G88" s="31">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="H88" s="69" t="s">
-        <v>1392</v>
+        <v>235</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>431</v>
@@ -25822,25 +26107,25 @@
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="28" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D89" s="113" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>1466</v>
+        <v>1389</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G89" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H89" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="I89" s="114" t="s">
-        <v>1511</v>
+        <v>42264</v>
+      </c>
+      <c r="H89" s="69" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="J89" s="14"/>
     </row>
@@ -25851,25 +26136,25 @@
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="28" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D90" s="65" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E90" s="55" t="s">
-        <v>1546</v>
+        <v>1501</v>
+      </c>
+      <c r="D90" s="113" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>1466</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G90" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H90" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>8</v>
+        <v>42266</v>
+      </c>
+      <c r="H90" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="I90" s="114" t="s">
+        <v>1511</v>
       </c>
       <c r="J90" s="14"/>
     </row>
@@ -25880,25 +26165,25 @@
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="28" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D91" s="113" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>1468</v>
+        <v>1502</v>
+      </c>
+      <c r="D91" s="65" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E91" s="55" t="s">
+        <v>1546</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G91" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H91" s="69" t="s">
-        <v>1516</v>
+        <v>42270</v>
+      </c>
+      <c r="H91" s="70" t="s">
+        <v>1464</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J91" s="14"/>
     </row>
@@ -25909,13 +26194,13 @@
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="28" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D92" s="113" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>684</v>
@@ -25938,25 +26223,25 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="28" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D93" s="113" t="s">
-        <v>1573</v>
+        <v>1482</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>1549</v>
+        <v>1469</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G93" s="31">
-        <v>42296</v>
-      </c>
-      <c r="H93" s="70" t="s">
-        <v>1574</v>
+        <v>42268</v>
+      </c>
+      <c r="H93" s="69" t="s">
+        <v>1516</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="J93" s="14"/>
     </row>
@@ -25967,25 +26252,25 @@
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="28" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D94" s="65" t="s">
-        <v>1493</v>
+        <v>1505</v>
+      </c>
+      <c r="D94" s="113" t="s">
+        <v>1573</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>1492</v>
+        <v>1549</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G94" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H94" s="69" t="s">
-        <v>235</v>
+        <v>42296</v>
+      </c>
+      <c r="H94" s="70" t="s">
+        <v>1574</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J94" s="14"/>
     </row>
@@ -25996,13 +26281,13 @@
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="28" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D95" s="65" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>1470</v>
+        <v>1492</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>684</v>
@@ -26025,22 +26310,22 @@
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="28" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D96" s="65" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G96" s="31">
-        <v>42268</v>
+        <v>42266</v>
       </c>
       <c r="H96" s="69" t="s">
-        <v>1514</v>
+        <v>235</v>
       </c>
       <c r="I96" s="13" t="s">
         <v>431</v>
@@ -26054,22 +26339,22 @@
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D97" s="65" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G97" s="31">
-        <v>42266</v>
+        <v>42268</v>
       </c>
       <c r="H97" s="69" t="s">
-        <v>235</v>
+        <v>1514</v>
       </c>
       <c r="I97" s="13" t="s">
         <v>431</v>
@@ -26083,13 +26368,13 @@
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="28" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D98" s="65" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>684</v>
@@ -26112,25 +26397,25 @@
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="28" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="D99" s="65" t="s">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>1589</v>
+        <v>1473</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G99" s="31">
-        <v>42271</v>
+        <v>42266</v>
       </c>
       <c r="H99" s="69" t="s">
-        <v>1591</v>
+        <v>235</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>1590</v>
+        <v>431</v>
       </c>
       <c r="J99" s="14"/>
     </row>
@@ -26141,25 +26426,25 @@
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="28" t="s">
-        <v>1576</v>
+        <v>1518</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>1670</v>
+        <v>1491</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>1474</v>
+        <v>1589</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G100" s="31">
-        <v>42266</v>
+        <v>42271</v>
       </c>
       <c r="H100" s="69" t="s">
-        <v>235</v>
+        <v>1591</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>431</v>
+        <v>1590</v>
       </c>
       <c r="J100" s="14"/>
     </row>
@@ -26170,19 +26455,19 @@
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="28" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>1667</v>
+        <v>1474</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G101" s="31">
-        <v>42277</v>
+        <v>42266</v>
       </c>
       <c r="H101" s="69" t="s">
         <v>235</v>
@@ -26199,19 +26484,19 @@
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="28" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>1475</v>
+        <v>1667</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G102" s="31">
-        <v>42266</v>
+        <v>42277</v>
       </c>
       <c r="H102" s="69" t="s">
         <v>235</v>
@@ -26228,13 +26513,13 @@
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="28" t="s">
-        <v>1632</v>
+        <v>1578</v>
       </c>
       <c r="D103" s="65" t="s">
-        <v>1477</v>
+        <v>1672</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>684</v>
@@ -26257,25 +26542,25 @@
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="28" t="s">
-        <v>1668</v>
+        <v>1632</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E104" s="55" t="s">
-        <v>1515</v>
+        <v>1477</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>1476</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G104" s="31">
-        <v>42268</v>
+        <v>42266</v>
       </c>
       <c r="H104" s="69" t="s">
         <v>235</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="J104" s="14"/>
     </row>
@@ -26286,25 +26571,25 @@
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="28" t="s">
-        <v>1689</v>
+        <v>1668</v>
       </c>
       <c r="D105" s="65" t="s">
-        <v>1572</v>
+        <v>1517</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>1548</v>
+        <v>1515</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="G105" s="75">
-        <v>42269</v>
-      </c>
-      <c r="H105" s="74" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I105" s="114" t="s">
-        <v>1511</v>
+      <c r="G105" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H105" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="J105" s="14"/>
     </row>
@@ -26315,25 +26600,25 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="28" t="s">
-        <v>1719</v>
+        <v>1689</v>
       </c>
       <c r="D106" s="65" t="s">
-        <v>1725</v>
+        <v>1572</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>1713</v>
+        <v>1548</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G106" s="75">
-        <v>42296</v>
-      </c>
-      <c r="H106" s="69" t="s">
-        <v>235</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>431</v>
+        <v>42269</v>
+      </c>
+      <c r="H106" s="74" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I106" s="114" t="s">
+        <v>1511</v>
       </c>
       <c r="J106" s="14"/>
     </row>
@@ -26344,13 +26629,13 @@
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="28" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D107" s="65" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>684</v>
@@ -26362,7 +26647,7 @@
         <v>235</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="J107" s="14"/>
     </row>
@@ -26373,13 +26658,13 @@
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="28" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D108" s="65" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>684</v>
@@ -26391,7 +26676,7 @@
         <v>235</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J108" s="14"/>
     </row>
@@ -26402,13 +26687,13 @@
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="28" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D109" s="65" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>684</v>
@@ -26420,7 +26705,7 @@
         <v>235</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="J109" s="14"/>
     </row>
@@ -26431,13 +26716,13 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="28" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D110" s="65" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>684</v>
@@ -26449,7 +26734,7 @@
         <v>235</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J110" s="14"/>
     </row>
@@ -26460,13 +26745,13 @@
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="28" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D111" s="65" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F111" s="12" t="s">
         <v>684</v>
@@ -26478,7 +26763,7 @@
         <v>235</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="J111" s="14"/>
     </row>
@@ -26488,13 +26773,27 @@
         <v>106</v>
       </c>
       <c r="B112" s="11"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="69"/>
-      <c r="I112" s="13"/>
+      <c r="C112" s="28" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D112" s="65" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E112" s="55" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G112" s="75">
+        <v>42296</v>
+      </c>
+      <c r="H112" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J112" s="14"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -26502,30 +26801,14 @@
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C113" s="28" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D113" s="65" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G113" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H113" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="69"/>
+      <c r="I113" s="13"/>
       <c r="J113" s="14"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -26533,15 +26816,17 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B114" s="11"/>
+      <c r="B114" s="11" t="s">
+        <v>1586</v>
+      </c>
       <c r="C114" s="28" t="s">
-        <v>1566</v>
+        <v>1540</v>
       </c>
       <c r="D114" s="65" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E114" s="55" t="s">
-        <v>1541</v>
+        <v>1579</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>1539</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>684</v>
@@ -26564,13 +26849,13 @@
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="28" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D115" s="65" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E115" s="55" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>684</v>
@@ -26593,13 +26878,13 @@
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="28" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D116" s="65" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E116" s="55" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>684</v>
@@ -26622,13 +26907,13 @@
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="28" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D117" s="65" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E117" s="55" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>684</v>
@@ -26651,13 +26936,13 @@
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="28" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D118" s="65" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E118" s="55" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>684</v>
@@ -26680,13 +26965,13 @@
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="28" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D119" s="65" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1547</v>
+        <v>1584</v>
+      </c>
+      <c r="E119" s="55" t="s">
+        <v>1545</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>684</v>
@@ -26708,12 +26993,27 @@
         <v>114</v>
       </c>
       <c r="B120" s="11"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="65"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="70"/>
-      <c r="I120" s="13"/>
+      <c r="C120" s="28" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D120" s="65" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G120" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H120" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J120" s="14"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -26721,30 +27021,13 @@
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D121" s="65" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1609</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G121" s="31">
-        <v>42273</v>
-      </c>
-      <c r="H121" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I121" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="65"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="70"/>
+      <c r="I121" s="13"/>
       <c r="J121" s="14"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -26752,15 +27035,17 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="B122" s="11"/>
+      <c r="B122" s="11" t="s">
+        <v>1605</v>
+      </c>
       <c r="C122" s="28" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D122" s="65" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="E122" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>684</v>
@@ -26783,19 +27068,19 @@
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="28" t="s">
-        <v>1637</v>
+        <v>1607</v>
       </c>
       <c r="D123" s="65" t="s">
-        <v>1638</v>
+        <v>1610</v>
       </c>
       <c r="E123" t="s">
-        <v>1636</v>
+        <v>1608</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G123" s="31">
-        <v>42276</v>
+        <v>42273</v>
       </c>
       <c r="H123" s="70" t="s">
         <v>1464</v>
@@ -26812,19 +27097,19 @@
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="28" t="s">
-        <v>1739</v>
+        <v>1637</v>
       </c>
       <c r="D124" s="65" t="s">
-        <v>1741</v>
+        <v>1638</v>
       </c>
       <c r="E124" t="s">
-        <v>1743</v>
+        <v>1636</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G124" s="31">
-        <v>42296</v>
+        <v>42276</v>
       </c>
       <c r="H124" s="70" t="s">
         <v>1464</v>
@@ -26841,13 +27126,13 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="28" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D125" s="65" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E125" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>684</v>
@@ -26869,12 +27154,27 @@
         <v>120</v>
       </c>
       <c r="B126" s="11"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="65"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="70"/>
-      <c r="I126" s="13"/>
+      <c r="C126" s="28" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D126" s="65" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G126" s="31">
+        <v>42296</v>
+      </c>
+      <c r="H126" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J126" s="14"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -26882,30 +27182,13 @@
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D127" s="65" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1646</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G127" s="31">
-        <v>42286</v>
-      </c>
-      <c r="H127" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I127" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="65"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="13"/>
       <c r="J127" s="14"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -26913,15 +27196,17 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="B128" s="11"/>
+      <c r="B128" s="11" t="s">
+        <v>1644</v>
+      </c>
       <c r="C128" s="28" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D128" s="65" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E128" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>684</v>
@@ -26944,13 +27229,13 @@
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="28" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D129" s="65" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E129" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>684</v>
@@ -26973,13 +27258,13 @@
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="28" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D130" s="65" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E130" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>684</v>
@@ -27002,13 +27287,13 @@
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="28" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D131" s="65" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E131" t="s">
-        <v>1673</v>
+        <v>1649</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>684</v>
@@ -27030,12 +27315,27 @@
         <v>126</v>
       </c>
       <c r="B132" s="11"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="65"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="70"/>
-      <c r="I132" s="13"/>
+      <c r="C132" s="28" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D132" s="65" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G132" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H132" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J132" s="14"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -27043,30 +27343,13 @@
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D133" s="65" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1650</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G133" s="31">
-        <v>42286</v>
-      </c>
-      <c r="H133" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I133" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B133" s="11"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="65"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="70"/>
+      <c r="I133" s="13"/>
       <c r="J133" s="14"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -27074,15 +27357,17 @@
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="B134" s="11"/>
+      <c r="B134" s="11" t="s">
+        <v>1657</v>
+      </c>
       <c r="C134" s="28" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D134" s="65" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="E134" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>684</v>
@@ -27104,12 +27389,27 @@
         <v>129</v>
       </c>
       <c r="B135" s="11"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="65"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="70"/>
-      <c r="I135" s="13"/>
+      <c r="C135" s="28" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D135" s="65" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G135" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H135" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J135" s="14"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -27117,30 +27417,13 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C136" s="28" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D136" s="65" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1680</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G136" s="31">
-        <v>42289</v>
-      </c>
-      <c r="H136" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I136" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="65"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="70"/>
+      <c r="I136" s="13"/>
       <c r="J136" s="14"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -27148,15 +27431,17 @@
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="B137" s="11"/>
+      <c r="B137" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="C137" s="28" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D137" s="65" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E137" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>684</v>
@@ -27179,13 +27464,13 @@
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="28" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D138" s="65" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E138" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>684</v>
@@ -27207,12 +27492,27 @@
         <v>133</v>
       </c>
       <c r="B139" s="11"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="65"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="70"/>
-      <c r="I139" s="13"/>
+      <c r="C139" s="28" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D139" s="65" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G139" s="31">
+        <v>42289</v>
+      </c>
+      <c r="H139" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I139" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J139" s="14"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -27220,30 +27520,13 @@
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C140" s="28" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D140" s="65" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G140" s="31">
-        <v>42296</v>
-      </c>
-      <c r="H140" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I140" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="65"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="70"/>
+      <c r="I140" s="13"/>
       <c r="J140" s="14"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -27251,15 +27534,17 @@
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B141" s="11"/>
+      <c r="B141" s="11" t="s">
+        <v>1732</v>
+      </c>
       <c r="C141" s="28" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D141" s="65" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E141" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>684</v>
@@ -27282,19 +27567,19 @@
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="28" t="s">
-        <v>1763</v>
+        <v>1734</v>
       </c>
       <c r="D142" s="65" t="s">
-        <v>1760</v>
+        <v>1736</v>
       </c>
       <c r="E142" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G142" s="31">
-        <v>42297</v>
+        <v>42296</v>
       </c>
       <c r="H142" s="70" t="s">
         <v>1464</v>
@@ -27311,13 +27596,13 @@
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="28" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D143" s="65" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E143" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>684</v>
@@ -27340,13 +27625,13 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="28" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D144" s="65" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E144" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>684</v>
@@ -27369,22 +27654,22 @@
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="28" t="s">
-        <v>1784</v>
+        <v>1765</v>
       </c>
       <c r="D145" s="65" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
       <c r="E145" t="s">
-        <v>1783</v>
+        <v>1747</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G145" s="31">
-        <v>42304</v>
+        <v>42307</v>
       </c>
       <c r="H145" s="70" t="s">
-        <v>1464</v>
+        <v>1788</v>
       </c>
       <c r="I145" s="13" t="s">
         <v>8</v>
@@ -27397,12 +27682,27 @@
         <v>140</v>
       </c>
       <c r="B146" s="11"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="65"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="31"/>
-      <c r="H146" s="70"/>
-      <c r="I146" s="13"/>
+      <c r="C146" s="28" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D146" s="65" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G146" s="31">
+        <v>42307</v>
+      </c>
+      <c r="H146" s="70" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I146" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J146" s="14"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -27410,30 +27710,13 @@
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B147" s="11" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C147" s="28" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D147" s="65" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1773</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G147" s="31">
-        <v>42303</v>
-      </c>
-      <c r="H147" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I147" s="13" t="s">
-        <v>1775</v>
-      </c>
+      <c r="B147" s="11"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="65"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="13"/>
       <c r="J147" s="14"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -27441,15 +27724,17 @@
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B148" s="11"/>
+      <c r="B148" s="11" t="s">
+        <v>1779</v>
+      </c>
       <c r="C148" s="28" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D148" s="65" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E148" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>684</v>
@@ -27472,13 +27757,13 @@
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="28" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D149" s="65" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E149" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>684</v>
@@ -27500,28 +27785,42 @@
         <v>144</v>
       </c>
       <c r="B150" s="11"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="65"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="113"/>
-      <c r="H150" s="70"/>
-      <c r="I150" s="13"/>
+      <c r="C150" s="28" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D150" s="65" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G150" s="31">
+        <v>42303</v>
+      </c>
+      <c r="H150" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I150" s="13" t="s">
+        <v>1775</v>
+      </c>
       <c r="J150" s="14"/>
     </row>
-    <row r="151" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B151" s="16"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="19"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="65"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="70"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="14"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -27529,28 +27828,28 @@
         <v>146</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>784</v>
+        <v>1805</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F152" s="55" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D152" s="65" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F152" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G152" s="31">
-        <v>42266</v>
+        <v>42313</v>
       </c>
       <c r="H152" s="70" t="s">
-        <v>1465</v>
+        <v>235</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>431</v>
+        <v>1804</v>
       </c>
       <c r="J152" s="14"/>
     </row>
@@ -27561,25 +27860,25 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E153" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="F153" s="55" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D153" s="65" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F153" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G153" s="31">
-        <v>42266</v>
+        <v>42314</v>
       </c>
       <c r="H153" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="J153" s="14"/>
     </row>
@@ -27590,25 +27889,25 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F154" s="55" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D154" s="65" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F154" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G154" s="31">
-        <v>42266</v>
+        <v>42315</v>
       </c>
       <c r="H154" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="J154" s="14"/>
     </row>
@@ -27619,25 +27918,25 @@
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F155" s="55" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D155" s="65" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F155" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G155" s="31">
-        <v>42266</v>
+        <v>42316</v>
       </c>
       <c r="H155" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="J155" s="14"/>
     </row>
@@ -27648,80 +27947,68 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="F156" s="55" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D156" s="65" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F156" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G156" s="31">
-        <v>42266</v>
+        <v>42317</v>
       </c>
       <c r="H156" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="J156" s="14"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B157" s="11"/>
-      <c r="C157" s="28" t="s">
-        <v>769</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="F157" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G157" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H157" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I157" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J157" s="14"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="71"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="19"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="B158" s="11"/>
+      <c r="B158" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C158" s="28" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D158" s="55" t="s">
-        <v>1556</v>
+        <v>764</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F158" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="F158" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G158" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H158" s="70" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="I158" s="13" t="s">
         <v>431</v>
@@ -27735,19 +28022,19 @@
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="28" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D159" s="55" t="s">
-        <v>1557</v>
+        <v>765</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F159" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="F159" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G159" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H159" s="70" t="s">
         <v>1464</v>
@@ -27764,19 +28051,19 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D160" s="55" t="s">
-        <v>1550</v>
+        <v>766</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F160" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="F160" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G160" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H160" s="70" t="s">
         <v>1464</v>
@@ -27793,19 +28080,19 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="28" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D161" s="55" t="s">
-        <v>1551</v>
+        <v>767</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>706</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F161" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F161" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G161" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H161" s="70" t="s">
         <v>1464</v>
@@ -27822,19 +28109,19 @@
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="28" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D162" s="55" t="s">
-        <v>1552</v>
+        <v>768</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F162" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="F162" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G162" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H162" s="70" t="s">
         <v>1464</v>
@@ -27851,19 +28138,19 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="28" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D163" s="55" t="s">
-        <v>1553</v>
+        <v>769</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F163" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F163" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G163" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H163" s="70" t="s">
         <v>1464</v>
@@ -27880,13 +28167,13 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="28" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="D164" s="55" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>684</v>
@@ -27909,13 +28196,13 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="28" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="D165" s="55" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="F165" s="12" t="s">
         <v>684</v>
@@ -27937,13 +28224,27 @@
         <v>160</v>
       </c>
       <c r="B166" s="11"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="31"/>
-      <c r="H166" s="69"/>
-      <c r="I166" s="12"/>
+      <c r="C166" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D166" s="55" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G166" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H166" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I166" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J166" s="14"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -27952,13 +28253,27 @@
         <v>161</v>
       </c>
       <c r="B167" s="11"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="31"/>
-      <c r="H167" s="69"/>
-      <c r="I167" s="12"/>
+      <c r="C167" s="28" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D167" s="55" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G167" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H167" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I167" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J167" s="14"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -27967,13 +28282,27 @@
         <v>162</v>
       </c>
       <c r="B168" s="11"/>
-      <c r="C168" s="22"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="69"/>
-      <c r="I168" s="12"/>
+      <c r="C168" s="28" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D168" s="55" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G168" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H168" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I168" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J168" s="14"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -27982,13 +28311,27 @@
         <v>163</v>
       </c>
       <c r="B169" s="11"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="12"/>
-      <c r="H169" s="69"/>
-      <c r="I169" s="12"/>
+      <c r="C169" s="28" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D169" s="55" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G169" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H169" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I169" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J169" s="14"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -27997,13 +28340,27 @@
         <v>164</v>
       </c>
       <c r="B170" s="11"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="69"/>
-      <c r="I170" s="12"/>
+      <c r="C170" s="28" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D170" s="55" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G170" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H170" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I170" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J170" s="14"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -28012,59 +28369,57 @@
         <v>165</v>
       </c>
       <c r="B171" s="11"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="69"/>
-      <c r="I171" s="12"/>
+      <c r="C171" s="28" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D171" s="55" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G171" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H171" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I171" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J171" s="14"/>
     </row>
-    <row r="172" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B172" s="16"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="17"/>
-      <c r="G172" s="17"/>
-      <c r="H172" s="71"/>
-      <c r="I172" s="17"/>
-      <c r="J172" s="19"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="31"/>
+      <c r="H172" s="69"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="14"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="B173" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C173" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="F173" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G173" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H173" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I173" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="B173" s="11"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="69"/>
+      <c r="I173" s="12"/>
       <c r="J173" s="14"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -28073,27 +28428,13 @@
         <v>168</v>
       </c>
       <c r="B174" s="11"/>
-      <c r="C174" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="E174" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="F174" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G174" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H174" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I174" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C174" s="22"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="69"/>
+      <c r="I174" s="12"/>
       <c r="J174" s="14"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -28102,130 +28443,76 @@
         <v>169</v>
       </c>
       <c r="B175" s="11"/>
-      <c r="C175" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="E175" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="F175" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G175" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H175" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I175" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C175" s="22"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="69"/>
+      <c r="I175" s="12"/>
       <c r="J175" s="14"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" ref="A176:A243" si="3">ROW($A176)-6</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B176" s="11"/>
-      <c r="C176" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D176" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="E176" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="F176" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G176" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H176" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I176" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C176" s="22"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="69"/>
+      <c r="I176" s="12"/>
       <c r="J176" s="14"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B177" s="11"/>
-      <c r="C177" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="D177" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="E177" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="F177" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G177" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H177" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I177" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C177" s="22"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="69"/>
+      <c r="I177" s="12"/>
       <c r="J177" s="14"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="B178" s="11"/>
-      <c r="C178" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="D178" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="F178" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G178" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H178" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I178" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J178" s="14"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="71"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="19"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="B179" s="11"/>
+      <c r="B179" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C179" s="28" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F179" s="12" t="s">
         <v>1348</v>
@@ -28243,18 +28530,18 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="28" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>833</v>
+        <v>787</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>1348</v>
@@ -28272,18 +28559,18 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="28" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>834</v>
+        <v>788</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F181" s="12" t="s">
         <v>1348</v>
@@ -28301,18 +28588,18 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A182:A252" si="3">ROW($A182)-6</f>
         <v>176</v>
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="28" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>835</v>
+        <v>789</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>1348</v>
@@ -28335,13 +28622,13 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="28" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>836</v>
+        <v>790</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>1348</v>
@@ -28364,13 +28651,13 @@
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="28" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F184" s="12" t="s">
         <v>1348</v>
@@ -28393,13 +28680,13 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="28" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>1348</v>
@@ -28422,13 +28709,13 @@
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="28" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F186" s="12" t="s">
         <v>1348</v>
@@ -28451,13 +28738,13 @@
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="28" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F187" s="12" t="s">
         <v>1348</v>
@@ -28479,13 +28766,27 @@
         <v>182</v>
       </c>
       <c r="B188" s="11"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="31"/>
-      <c r="H188" s="70"/>
-      <c r="I188" s="13"/>
+      <c r="C188" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G188" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H188" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I188" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J188" s="14"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -28495,25 +28796,25 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D189" s="55" t="s">
-        <v>858</v>
+        <v>853</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>836</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>772</v>
+        <v>826</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G189" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H189" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H189" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I189" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J189" s="14"/>
     </row>
@@ -28524,25 +28825,25 @@
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="D190" s="55" t="s">
-        <v>859</v>
+        <v>854</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>837</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>773</v>
+        <v>827</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G190" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H190" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H190" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J190" s="14"/>
     </row>
@@ -28553,25 +28854,25 @@
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="28" t="s">
-        <v>781</v>
-      </c>
-      <c r="D191" s="55" t="s">
-        <v>860</v>
+        <v>855</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>838</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>774</v>
+        <v>828</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G191" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H191" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H191" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J191" s="14"/>
     </row>
@@ -28582,25 +28883,25 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="D192" s="55" t="s">
-        <v>861</v>
+        <v>856</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>839</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G192" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H192" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H192" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I192" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J192" s="14"/>
     </row>
@@ -28611,25 +28912,25 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="28" t="s">
-        <v>783</v>
-      </c>
-      <c r="D193" s="55" t="s">
-        <v>862</v>
+        <v>857</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>840</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>776</v>
+        <v>830</v>
       </c>
       <c r="F193" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G193" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H193" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H193" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J193" s="14"/>
     </row>
@@ -28640,7 +28941,7 @@
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="28"/>
-      <c r="D194" s="55"/>
+      <c r="D194" s="12"/>
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
       <c r="G194" s="31"/>
@@ -28654,24 +28955,26 @@
         <v>189</v>
       </c>
       <c r="B195" s="11"/>
-      <c r="C195" s="28"/>
+      <c r="C195" s="28" t="s">
+        <v>779</v>
+      </c>
       <c r="D195" s="55" t="s">
-        <v>1350</v>
+        <v>858</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G195" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H195" s="70" t="s">
-        <v>1345</v>
+        <v>42268</v>
+      </c>
+      <c r="H195" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I195" s="13" t="s">
-        <v>815</v>
+        <v>1523</v>
       </c>
       <c r="J195" s="14"/>
     </row>
@@ -28682,25 +28985,25 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="28" t="s">
-        <v>1458</v>
+        <v>780</v>
       </c>
       <c r="D196" s="55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E196" s="55" t="s">
-        <v>1455</v>
+        <v>859</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>773</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G196" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H196" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H196" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I196" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J196" s="14"/>
     </row>
@@ -28711,25 +29014,25 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="28" t="s">
-        <v>1459</v>
+        <v>781</v>
       </c>
       <c r="D197" s="55" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E197" s="55" t="s">
-        <v>1456</v>
+        <v>860</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>774</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G197" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H197" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H197" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I197" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J197" s="14"/>
     </row>
@@ -28740,25 +29043,25 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="28" t="s">
-        <v>1460</v>
+        <v>782</v>
       </c>
       <c r="D198" s="55" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E198" s="55" t="s">
-        <v>1457</v>
+        <v>861</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>775</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G198" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H198" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H198" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I198" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J198" s="14"/>
     </row>
@@ -28769,25 +29072,25 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="28" t="s">
-        <v>1598</v>
+        <v>783</v>
       </c>
       <c r="D199" s="55" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E199" s="55" t="s">
-        <v>1597</v>
+        <v>862</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G199" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H199" s="70" t="s">
-        <v>1613</v>
+        <v>42268</v>
+      </c>
+      <c r="H199" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I199" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J199" s="14"/>
     </row>
@@ -28797,27 +29100,13 @@
         <v>194</v>
       </c>
       <c r="B200" s="11"/>
-      <c r="C200" s="28" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D200" s="55" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E200" s="55" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F200" s="12" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G200" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H200" s="70" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I200" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C200" s="28"/>
+      <c r="D200" s="55"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="31"/>
+      <c r="H200" s="70"/>
+      <c r="I200" s="13"/>
       <c r="J200" s="14"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -28826,26 +29115,24 @@
         <v>195</v>
       </c>
       <c r="B201" s="11"/>
-      <c r="C201" s="28" t="s">
-        <v>1615</v>
-      </c>
+      <c r="C201" s="28"/>
       <c r="D201" s="55" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E201" s="55" t="s">
-        <v>1626</v>
+        <v>1350</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G201" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H201" s="70" t="s">
-        <v>1613</v>
+        <v>1345</v>
       </c>
       <c r="I201" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J201" s="14"/>
     </row>
@@ -28856,22 +29143,22 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="28" t="s">
-        <v>1616</v>
+        <v>1458</v>
       </c>
       <c r="D202" s="55" t="s">
-        <v>1620</v>
+        <v>1461</v>
       </c>
       <c r="E202" s="55" t="s">
-        <v>1627</v>
+        <v>1455</v>
       </c>
       <c r="F202" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G202" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H202" s="70" t="s">
-        <v>1613</v>
+        <v>235</v>
       </c>
       <c r="I202" s="13" t="s">
         <v>431</v>
@@ -28885,22 +29172,22 @@
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="28" t="s">
-        <v>1617</v>
+        <v>1459</v>
       </c>
       <c r="D203" s="55" t="s">
-        <v>1621</v>
+        <v>1462</v>
       </c>
       <c r="E203" s="55" t="s">
-        <v>1628</v>
+        <v>1456</v>
       </c>
       <c r="F203" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G203" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H203" s="70" t="s">
-        <v>1613</v>
+        <v>235</v>
       </c>
       <c r="I203" s="13" t="s">
         <v>431</v>
@@ -28914,22 +29201,22 @@
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="28" t="s">
-        <v>1618</v>
+        <v>1460</v>
       </c>
       <c r="D204" s="55" t="s">
-        <v>1622</v>
+        <v>1463</v>
       </c>
       <c r="E204" s="55" t="s">
-        <v>1629</v>
+        <v>1457</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G204" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H204" s="70" t="s">
-        <v>1613</v>
+        <v>235</v>
       </c>
       <c r="I204" s="13" t="s">
         <v>431</v>
@@ -28943,13 +29230,13 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="28" t="s">
-        <v>1625</v>
+        <v>1598</v>
       </c>
       <c r="D205" s="55" t="s">
-        <v>1623</v>
+        <v>1599</v>
       </c>
       <c r="E205" s="55" t="s">
-        <v>1630</v>
+        <v>1597</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>1349</v>
@@ -28972,13 +29259,13 @@
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="28" t="s">
-        <v>1642</v>
+        <v>1614</v>
       </c>
       <c r="D206" s="55" t="s">
-        <v>1624</v>
+        <v>1640</v>
       </c>
       <c r="E206" s="55" t="s">
-        <v>1631</v>
+        <v>1641</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>1349</v>
@@ -29001,22 +29288,22 @@
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="28" t="s">
-        <v>1701</v>
+        <v>1615</v>
       </c>
       <c r="D207" s="55" t="s">
-        <v>1704</v>
+        <v>1619</v>
       </c>
       <c r="E207" s="55" t="s">
-        <v>1698</v>
+        <v>1626</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G207" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H207" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I207" s="13" t="s">
         <v>431</v>
@@ -29030,22 +29317,22 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="28" t="s">
-        <v>1702</v>
+        <v>1616</v>
       </c>
       <c r="D208" s="55" t="s">
-        <v>1705</v>
+        <v>1620</v>
       </c>
       <c r="E208" s="55" t="s">
-        <v>1699</v>
+        <v>1627</v>
       </c>
       <c r="F208" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G208" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H208" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I208" s="13" t="s">
         <v>431</v>
@@ -29059,22 +29346,22 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="28" t="s">
-        <v>1703</v>
+        <v>1617</v>
       </c>
       <c r="D209" s="55" t="s">
-        <v>1706</v>
+        <v>1621</v>
       </c>
       <c r="E209" s="55" t="s">
-        <v>1700</v>
+        <v>1628</v>
       </c>
       <c r="F209" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G209" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H209" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I209" s="13" t="s">
         <v>431</v>
@@ -29088,22 +29375,22 @@
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="28" t="s">
-        <v>1756</v>
+        <v>1618</v>
       </c>
       <c r="D210" s="55" t="s">
-        <v>1752</v>
+        <v>1622</v>
       </c>
       <c r="E210" s="55" t="s">
-        <v>1748</v>
+        <v>1629</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G210" s="31">
-        <v>42297</v>
+        <v>42276</v>
       </c>
       <c r="H210" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I210" s="13" t="s">
         <v>431</v>
@@ -29117,22 +29404,22 @@
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="28" t="s">
-        <v>1757</v>
+        <v>1625</v>
       </c>
       <c r="D211" s="55" t="s">
-        <v>1753</v>
+        <v>1623</v>
       </c>
       <c r="E211" s="55" t="s">
-        <v>1749</v>
+        <v>1630</v>
       </c>
       <c r="F211" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G211" s="31">
-        <v>42297</v>
+        <v>42276</v>
       </c>
       <c r="H211" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I211" s="13" t="s">
         <v>431</v>
@@ -29146,22 +29433,22 @@
       </c>
       <c r="B212" s="11"/>
       <c r="C212" s="28" t="s">
-        <v>1758</v>
+        <v>1642</v>
       </c>
       <c r="D212" s="55" t="s">
-        <v>1754</v>
+        <v>1624</v>
       </c>
       <c r="E212" s="55" t="s">
-        <v>1750</v>
+        <v>1631</v>
       </c>
       <c r="F212" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G212" s="31">
-        <v>42297</v>
+        <v>42276</v>
       </c>
       <c r="H212" s="70" t="s">
-        <v>235</v>
+        <v>1613</v>
       </c>
       <c r="I212" s="13" t="s">
         <v>431</v>
@@ -29175,19 +29462,19 @@
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="28" t="s">
-        <v>1759</v>
+        <v>1701</v>
       </c>
       <c r="D213" s="55" t="s">
-        <v>1755</v>
+        <v>1704</v>
       </c>
       <c r="E213" s="55" t="s">
-        <v>1751</v>
+        <v>1698</v>
       </c>
       <c r="F213" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G213" s="31">
-        <v>42297</v>
+        <v>42293</v>
       </c>
       <c r="H213" s="70" t="s">
         <v>235</v>
@@ -29203,13 +29490,27 @@
         <v>208</v>
       </c>
       <c r="B214" s="11"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="12"/>
-      <c r="E214" s="55"/>
-      <c r="F214" s="12"/>
-      <c r="G214" s="12"/>
-      <c r="H214" s="70"/>
-      <c r="I214" s="13"/>
+      <c r="C214" s="28" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D214" s="55" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E214" s="55" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F214" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G214" s="31">
+        <v>42293</v>
+      </c>
+      <c r="H214" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I214" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J214" s="14"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -29218,13 +29519,27 @@
         <v>209</v>
       </c>
       <c r="B215" s="11"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="12"/>
-      <c r="E215" s="55"/>
-      <c r="F215" s="12"/>
-      <c r="G215" s="12"/>
-      <c r="H215" s="70"/>
-      <c r="I215" s="13"/>
+      <c r="C215" s="28" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D215" s="55" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E215" s="55" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F215" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G215" s="31">
+        <v>42293</v>
+      </c>
+      <c r="H215" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I215" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J215" s="14"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -29233,13 +29548,27 @@
         <v>210</v>
       </c>
       <c r="B216" s="11"/>
-      <c r="C216" s="28"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="55"/>
-      <c r="F216" s="12"/>
-      <c r="G216" s="12"/>
-      <c r="H216" s="70"/>
-      <c r="I216" s="13"/>
+      <c r="C216" s="28" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D216" s="55" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E216" s="55" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F216" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G216" s="31">
+        <v>42297</v>
+      </c>
+      <c r="H216" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I216" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J216" s="14"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -29249,25 +29578,25 @@
       </c>
       <c r="B217" s="11"/>
       <c r="C217" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D217" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="E217" s="12" t="s">
-        <v>868</v>
+        <v>1757</v>
+      </c>
+      <c r="D217" s="55" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E217" s="55" t="s">
+        <v>1749</v>
       </c>
       <c r="F217" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G217" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H217" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I217" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J217" s="14"/>
     </row>
@@ -29278,25 +29607,25 @@
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="D218" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E218" s="12" t="s">
-        <v>869</v>
+        <v>1758</v>
+      </c>
+      <c r="D218" s="55" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E218" s="55" t="s">
+        <v>1750</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G218" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H218" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I218" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J218" s="14"/>
     </row>
@@ -29307,25 +29636,25 @@
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="28" t="s">
-        <v>894</v>
-      </c>
-      <c r="D219" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="E219" s="12" t="s">
-        <v>870</v>
+        <v>1759</v>
+      </c>
+      <c r="D219" s="55" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E219" s="55" t="s">
+        <v>1751</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G219" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H219" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I219" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J219" s="14"/>
     </row>
@@ -29335,27 +29664,13 @@
         <v>214</v>
       </c>
       <c r="B220" s="11"/>
-      <c r="C220" s="28" t="s">
-        <v>895</v>
-      </c>
-      <c r="D220" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="E220" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="F220" s="12" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G220" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H220" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I220" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C220" s="28"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="55"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="70"/>
+      <c r="I220" s="13"/>
       <c r="J220" s="14"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -29364,27 +29679,13 @@
         <v>215</v>
       </c>
       <c r="B221" s="11"/>
-      <c r="C221" s="28" t="s">
-        <v>896</v>
-      </c>
-      <c r="D221" s="55" t="s">
-        <v>886</v>
-      </c>
-      <c r="E221" s="12" t="s">
-        <v>872</v>
-      </c>
-      <c r="F221" s="12" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G221" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H221" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I221" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C221" s="28"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="55"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="70"/>
+      <c r="I221" s="13"/>
       <c r="J221" s="14"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -29393,27 +29694,13 @@
         <v>216</v>
       </c>
       <c r="B222" s="11"/>
-      <c r="C222" s="28" t="s">
-        <v>897</v>
-      </c>
-      <c r="D222" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E222" s="12" t="s">
-        <v>873</v>
-      </c>
-      <c r="F222" s="12" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G222" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H222" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I222" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C222" s="28"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="55"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="70"/>
+      <c r="I222" s="13"/>
       <c r="J222" s="14"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -29423,13 +29710,13 @@
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="28" t="s">
-        <v>898</v>
-      </c>
-      <c r="D223" s="55" t="s">
-        <v>465</v>
+        <v>892</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>885</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>1344</v>
@@ -29452,13 +29739,13 @@
       </c>
       <c r="B224" s="11"/>
       <c r="C224" s="28" t="s">
-        <v>899</v>
-      </c>
-      <c r="D224" s="55" t="s">
-        <v>19</v>
+        <v>893</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>547</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="F224" s="12" t="s">
         <v>1344</v>
@@ -29481,13 +29768,13 @@
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="28" t="s">
-        <v>900</v>
-      </c>
-      <c r="D225" s="55" t="s">
-        <v>887</v>
+        <v>894</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="F225" s="12" t="s">
         <v>1344</v>
@@ -29510,13 +29797,13 @@
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="28" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="D226" s="55" t="s">
-        <v>38</v>
+        <v>501</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>1344</v>
@@ -29539,13 +29826,13 @@
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="28" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D227" s="55" t="s">
-        <v>571</v>
+        <v>886</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>1344</v>
@@ -29568,13 +29855,13 @@
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="28" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D228" s="55" t="s">
-        <v>888</v>
+        <v>32</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F228" s="12" t="s">
         <v>1344</v>
@@ -29597,13 +29884,13 @@
       </c>
       <c r="B229" s="11"/>
       <c r="C229" s="28" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D229" s="55" t="s">
-        <v>889</v>
+        <v>465</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>1344</v>
@@ -29626,13 +29913,13 @@
       </c>
       <c r="B230" s="11"/>
       <c r="C230" s="28" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="D230" s="55" t="s">
-        <v>890</v>
+        <v>19</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="F230" s="12" t="s">
         <v>1344</v>
@@ -29655,13 +29942,13 @@
       </c>
       <c r="B231" s="11"/>
       <c r="C231" s="28" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D231" s="55" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="F231" s="12" t="s">
         <v>1344</v>
@@ -29684,13 +29971,13 @@
       </c>
       <c r="B232" s="11"/>
       <c r="C232" s="28" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D232" s="55" t="s">
-        <v>617</v>
+        <v>38</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="F232" s="12" t="s">
         <v>1344</v>
@@ -29713,13 +30000,13 @@
       </c>
       <c r="B233" s="11"/>
       <c r="C233" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="D233" s="55" t="s">
-        <v>20</v>
+        <v>571</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="F233" s="12" t="s">
         <v>1344</v>
@@ -29741,13 +30028,27 @@
         <v>228</v>
       </c>
       <c r="B234" s="11"/>
-      <c r="C234" s="28"/>
-      <c r="D234" s="12"/>
-      <c r="E234" s="12"/>
-      <c r="F234" s="12"/>
-      <c r="G234" s="12"/>
-      <c r="H234" s="70"/>
-      <c r="I234" s="13"/>
+      <c r="C234" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D234" s="55" t="s">
+        <v>888</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="F234" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G234" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H234" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I234" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J234" s="14"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -29756,28 +30057,56 @@
         <v>229</v>
       </c>
       <c r="B235" s="11"/>
-      <c r="C235" s="28"/>
-      <c r="D235" s="12"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="12"/>
-      <c r="G235" s="12"/>
-      <c r="H235" s="70"/>
-      <c r="I235" s="13"/>
+      <c r="C235" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="D235" s="55" t="s">
+        <v>889</v>
+      </c>
+      <c r="E235" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G235" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H235" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I235" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J235" s="14"/>
     </row>
-    <row r="236" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B236" s="11"/>
-      <c r="C236" s="28"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
-      <c r="F236" s="12"/>
-      <c r="G236" s="12"/>
-      <c r="H236" s="70"/>
-      <c r="I236" s="13"/>
+      <c r="C236" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="D236" s="55" t="s">
+        <v>890</v>
+      </c>
+      <c r="E236" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="F236" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G236" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H236" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I236" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J236" s="14"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -29785,31 +30114,29 @@
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="B237" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C237" s="27" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E237" s="8" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F237" s="8" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G237" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H237" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>1355</v>
-      </c>
-      <c r="J237" s="10"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="D237" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G237" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H237" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I237" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J237" s="14"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -29817,13 +30144,27 @@
         <v>232</v>
       </c>
       <c r="B238" s="11"/>
-      <c r="C238" s="28"/>
-      <c r="D238" s="11"/>
-      <c r="E238" s="12"/>
-      <c r="F238" s="12"/>
-      <c r="G238" s="12"/>
-      <c r="H238" s="70"/>
-      <c r="I238" s="13"/>
+      <c r="C238" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D238" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G238" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H238" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I238" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J238" s="14"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -29832,13 +30173,27 @@
         <v>233</v>
       </c>
       <c r="B239" s="11"/>
-      <c r="C239" s="28"/>
-      <c r="D239" s="11"/>
-      <c r="E239" s="12"/>
-      <c r="F239" s="12"/>
-      <c r="G239" s="12"/>
-      <c r="H239" s="70"/>
-      <c r="I239" s="13"/>
+      <c r="C239" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D239" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E239" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F239" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G239" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H239" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I239" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J239" s="14"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -29848,30 +30203,30 @@
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="28"/>
-      <c r="D240" s="11"/>
+      <c r="D240" s="12"/>
       <c r="E240" s="12"/>
       <c r="F240" s="12"/>
       <c r="G240" s="12"/>
-      <c r="H240" s="69"/>
-      <c r="I240" s="12"/>
+      <c r="H240" s="70"/>
+      <c r="I240" s="13"/>
       <c r="J240" s="14"/>
     </row>
-    <row r="241" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="B241" s="16"/>
-      <c r="C241" s="29"/>
-      <c r="D241" s="16"/>
-      <c r="E241" s="17"/>
-      <c r="F241" s="17"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="71"/>
-      <c r="I241" s="17"/>
-      <c r="J241" s="19"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B241" s="11"/>
+      <c r="C241" s="28"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="70"/>
+      <c r="I241" s="13"/>
+      <c r="J241" s="14"/>
+    </row>
+    <row r="242" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -29882,39 +30237,220 @@
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
-      <c r="H242" s="69"/>
-      <c r="I242" s="12"/>
+      <c r="H242" s="70"/>
+      <c r="I242" s="13"/>
       <c r="J242" s="14"/>
     </row>
-    <row r="243" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="B243" s="16"/>
-      <c r="C243" s="29"/>
-      <c r="D243" s="17"/>
-      <c r="E243" s="17"/>
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="71"/>
-      <c r="I243" s="17"/>
-      <c r="J243" s="19"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C244" s="3"/>
+      <c r="B243" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C243" s="27" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F243" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G243" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H243" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I243" s="9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J243" s="10"/>
+    </row>
+    <row r="244" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <f>ROW($A244)-6</f>
+        <v>238</v>
+      </c>
+      <c r="B244" s="11"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="70"/>
+      <c r="I244" s="13"/>
+      <c r="J244" s="14"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C245" s="3"/>
+      <c r="A245">
+        <f t="shared" ref="A245:A247" si="4">ROW($A245)-6</f>
+        <v>239</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C245" s="27" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G245" s="30">
+        <v>42313</v>
+      </c>
+      <c r="H245" s="112" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I245" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J245" s="10"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C246" s="3"/>
+      <c r="A246">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="B246" s="11"/>
+      <c r="C246" s="28" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E246" s="12" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F246" s="55" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G246" s="31">
+        <v>42313</v>
+      </c>
+      <c r="H246" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I246" s="13" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J246" s="14"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C247" s="3"/>
+      <c r="A247">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="B247" s="11"/>
+      <c r="C247" s="28"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="70"/>
+      <c r="I247" s="13"/>
+      <c r="J247" s="14"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="B248" s="11"/>
+      <c r="C248" s="28"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="70"/>
+      <c r="I248" s="13"/>
+      <c r="J248" s="14"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="B249" s="11"/>
+      <c r="C249" s="28"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="69"/>
+      <c r="I249" s="12"/>
+      <c r="J249" s="14"/>
+    </row>
+    <row r="250" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="B250" s="16"/>
+      <c r="C250" s="29"/>
+      <c r="D250" s="16"/>
+      <c r="E250" s="17"/>
+      <c r="F250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="71"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="19"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="B251" s="11"/>
+      <c r="C251" s="28"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12"/>
+      <c r="G251" s="12"/>
+      <c r="H251" s="69"/>
+      <c r="I251" s="12"/>
+      <c r="J251" s="14"/>
+    </row>
+    <row r="252" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="B252" s="16"/>
+      <c r="C252" s="29"/>
+      <c r="D252" s="17"/>
+      <c r="E252" s="17"/>
+      <c r="F252" s="17"/>
+      <c r="G252" s="17"/>
+      <c r="H252" s="71"/>
+      <c r="I252" s="17"/>
+      <c r="J252" s="19"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J243">
+  <autoFilter ref="A7:J252">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="36660" windowHeight="19440" tabRatio="500"/>
+    <workbookView xWindow="4540" yWindow="640" windowWidth="36660" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$273</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="1821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="1882">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -13051,6 +13051,602 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具_万能碎片</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan'nemg'su'ip</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sui'p</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具_活力1</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'li</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具_活力2</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'li</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具_活力3</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'li</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_huolizhi1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_huolizhi2.png</t>
+  </si>
+  <si>
+    <t>icon_huolizhi3.png</t>
+  </si>
+  <si>
+    <t>icon_wannengsuipian.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动目录</t>
+    <rPh sb="0" eb="1">
+      <t>yi'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标19</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标20</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标21</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标22</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成分解界面4</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成_结算文字</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen'z</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hecheng_jiesuan.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../common</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <rPh sb="0" eb="1">
+      <t>luo'yang</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhujiemian_juesexinxi.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改透明</t>
+    <rPh sb="0" eb="1">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tou'ming</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhujiemian_beibao.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhujiemian_chongwu.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhujiemian_chongzhi.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhujiemian_ditu.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhujiemian_qiandao.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhujiemian_renwu.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhujiemian_youjian.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhujiemian_zhuanniu.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉白色描边</t>
+    <rPh sb="0" eb="1">
+      <t>qu'diao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bai'se</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao'bian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改样式</t>
+    <rPh sb="0" eb="1">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yang'shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xialaliebiao_ditu.png</t>
+  </si>
+  <si>
+    <t>anniu_zhong_xiala.png</t>
+  </si>
+  <si>
+    <t>副本选择_选难度列表箭头</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan'nan'du</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian'tou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择_选难度列表底图</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan'nan'du</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择6</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择7</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面1</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面2</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面3</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面4</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面5</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面6</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面7</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面8</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面9</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面10</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面_展开按钮</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'kai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面_邮件</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'jian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面_任务</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面_签到</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qian'dao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面_地图</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面_充值</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面_宠物</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面_背包</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bei'bao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面_玩家等级</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面_角色信息</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhujiemian_wanjiadengjipng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月10日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：
+道具合成：合成结果界面文字提交
+背包界面：单选对勾样式修改
+副本选择界面：选难度列表箭头和底图，活力值图标提交
+道具icong：万能碎片，活力药3种提交
+主界面资源提交</t>
+    <rPh sb="2" eb="3">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'm</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wen'zi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dan'xuan</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>dui'gou</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>yang'shi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>xuan'nan'du</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>jian'tou'o</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>tou</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>he</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>huo'li'zhi</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>tu'b</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>wan'neng</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>sui'p</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>huo'li</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>zhogn</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ti'jiao</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -13403,7 +13999,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -13420,6 +14016,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -13692,7 +14289,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="25">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -13713,6 +14310,7 @@
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="10"/>
     <cellStyle name="常规 4" xfId="11"/>
@@ -14006,8 +14604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -14512,10 +15110,16 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
+    <row r="54" spans="2:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="B54" s="36" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C54" s="98" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>1880</v>
+      </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="36"/>
@@ -20911,10 +21515,10 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -23674,13 +24278,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J256"/>
+  <dimension ref="A2:J277"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -26073,7 +26677,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" ref="A88:A181" si="2">ROW($A88)-6</f>
+        <f t="shared" ref="A88:A196" si="2">ROW($A88)-6</f>
         <v>82</v>
       </c>
       <c r="B88" s="11"/>
@@ -27550,10 +28154,10 @@
         <v>684</v>
       </c>
       <c r="G141" s="31">
-        <v>42296</v>
+        <v>42317</v>
       </c>
       <c r="H141" s="70" t="s">
-        <v>1464</v>
+        <v>1850</v>
       </c>
       <c r="I141" s="13" t="s">
         <v>8</v>
@@ -27579,10 +28183,10 @@
         <v>684</v>
       </c>
       <c r="G142" s="31">
-        <v>42296</v>
+        <v>42317</v>
       </c>
       <c r="H142" s="70" t="s">
-        <v>1464</v>
+        <v>1850</v>
       </c>
       <c r="I142" s="13" t="s">
         <v>8</v>
@@ -27814,12 +28418,27 @@
         <v>145</v>
       </c>
       <c r="B151" s="11"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="65"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="31"/>
-      <c r="H151" s="70"/>
-      <c r="I151" s="13"/>
+      <c r="C151" s="28" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D151" s="65" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F151" s="55" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G151" s="31">
+        <v>42317</v>
+      </c>
+      <c r="H151" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I151" s="13" t="s">
+        <v>1775</v>
+      </c>
       <c r="J151" s="14"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -27827,30 +28446,13 @@
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D152" s="65" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1797</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G152" s="31">
-        <v>42313</v>
-      </c>
-      <c r="H152" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I152" s="13" t="s">
-        <v>1804</v>
-      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="65"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="70"/>
+      <c r="I152" s="13"/>
       <c r="J152" s="14"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -27858,27 +28460,29 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B153" s="11"/>
+      <c r="B153" s="11" t="s">
+        <v>1805</v>
+      </c>
       <c r="C153" s="28" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="D153" s="65" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E153" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G153" s="31">
-        <v>42314</v>
+        <v>42313</v>
       </c>
       <c r="H153" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>497</v>
+        <v>1804</v>
       </c>
       <c r="J153" s="14"/>
     </row>
@@ -27889,19 +28493,19 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="28" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D154" s="65" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E154" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G154" s="31">
-        <v>42315</v>
+        <v>42314</v>
       </c>
       <c r="H154" s="70" t="s">
         <v>235</v>
@@ -27918,19 +28522,19 @@
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="28" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D155" s="65" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E155" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G155" s="31">
-        <v>42316</v>
+        <v>42315</v>
       </c>
       <c r="H155" s="70" t="s">
         <v>235</v>
@@ -27947,19 +28551,19 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="28" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="D156" s="65" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="E156" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G156" s="31">
-        <v>42317</v>
+        <v>42316</v>
       </c>
       <c r="H156" s="70" t="s">
         <v>235</v>
@@ -27969,78 +28573,86 @@
       </c>
       <c r="J156" s="14"/>
     </row>
-    <row r="157" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B157" s="16"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="17"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="71"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="19"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="28" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D157" s="65" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G157" s="31">
+        <v>42317</v>
+      </c>
+      <c r="H157" s="70" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I157" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="J157" s="14"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="B158" s="11" t="s">
-        <v>784</v>
-      </c>
+      <c r="B158" s="11"/>
       <c r="C158" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F158" s="55" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D158" s="65" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F158" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G158" s="31">
-        <v>42266</v>
+        <v>42314</v>
       </c>
       <c r="H158" s="70" t="s">
-        <v>1465</v>
+        <v>235</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
       <c r="B159" s="11"/>
       <c r="C159" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="F159" s="55" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D159" s="65" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F159" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G159" s="31">
-        <v>42266</v>
+        <v>42314</v>
       </c>
       <c r="H159" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J159" s="14"/>
     </row>
@@ -28050,27 +28662,11 @@
         <v>154</v>
       </c>
       <c r="B160" s="11"/>
-      <c r="C160" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="E160" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F160" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G160" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H160" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I160" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C160" s="28"/>
+      <c r="D160" s="65"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="70"/>
+      <c r="I160" s="13"/>
       <c r="J160" s="14"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -28078,27 +28674,29 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="B161" s="11"/>
+      <c r="B161" s="11" t="s">
+        <v>1839</v>
+      </c>
       <c r="C161" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="D161" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F161" s="55" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D161" s="65" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F161" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G161" s="31">
-        <v>42266</v>
+        <v>42317</v>
       </c>
       <c r="H161" s="70" t="s">
-        <v>1464</v>
+        <v>1841</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J161" s="14"/>
     </row>
@@ -28109,25 +28707,25 @@
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="E162" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="F162" s="55" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D162" s="65" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F162" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G162" s="31">
-        <v>42266</v>
+        <v>42317</v>
       </c>
       <c r="H162" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J162" s="14"/>
     </row>
@@ -28138,25 +28736,25 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="28" t="s">
-        <v>769</v>
-      </c>
-      <c r="D163" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="E163" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="F163" s="55" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D163" s="65" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F163" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G163" s="31">
-        <v>42266</v>
+        <v>42318</v>
       </c>
       <c r="H163" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J163" s="14"/>
     </row>
@@ -28167,25 +28765,25 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="28" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D164" s="55" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E164" s="12" t="s">
-        <v>1531</v>
+        <v>1861</v>
+      </c>
+      <c r="D164" s="65" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1843</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G164" s="31">
-        <v>42270</v>
+        <v>42319</v>
       </c>
       <c r="H164" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J164" s="14"/>
     </row>
@@ -28196,25 +28794,25 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="28" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D165" s="55" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E165" s="12" t="s">
-        <v>1532</v>
+        <v>1862</v>
+      </c>
+      <c r="D165" s="65" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1844</v>
       </c>
       <c r="F165" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G165" s="31">
-        <v>42270</v>
+        <v>42320</v>
       </c>
       <c r="H165" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I165" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J165" s="14"/>
     </row>
@@ -28225,25 +28823,25 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D166" s="55" t="s">
-        <v>1550</v>
-      </c>
-      <c r="E166" s="12" t="s">
-        <v>1533</v>
+        <v>1863</v>
+      </c>
+      <c r="D166" s="65" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1845</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G166" s="31">
-        <v>42270</v>
+        <v>42321</v>
       </c>
       <c r="H166" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J166" s="14"/>
     </row>
@@ -28254,25 +28852,25 @@
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="28" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D167" s="55" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E167" s="12" t="s">
-        <v>1534</v>
+        <v>1864</v>
+      </c>
+      <c r="D167" s="65" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1846</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G167" s="31">
-        <v>42270</v>
+        <v>42322</v>
       </c>
       <c r="H167" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J167" s="14"/>
     </row>
@@ -28283,25 +28881,25 @@
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="28" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D168" s="55" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E168" s="12" t="s">
-        <v>1535</v>
+        <v>1865</v>
+      </c>
+      <c r="D168" s="65" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1847</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G168" s="31">
-        <v>42270</v>
+        <v>42323</v>
       </c>
       <c r="H168" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J168" s="14"/>
     </row>
@@ -28312,25 +28910,25 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="28" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D169" s="55" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E169" s="12" t="s">
-        <v>1536</v>
+        <v>1866</v>
+      </c>
+      <c r="D169" s="65" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1848</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G169" s="31">
-        <v>42270</v>
+        <v>42324</v>
       </c>
       <c r="H169" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J169" s="14"/>
     </row>
@@ -28341,25 +28939,25 @@
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="28" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D170" s="55" t="s">
-        <v>1554</v>
-      </c>
-      <c r="E170" s="12" t="s">
-        <v>1537</v>
+        <v>1867</v>
+      </c>
+      <c r="D170" s="65" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1849</v>
       </c>
       <c r="F170" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G170" s="31">
-        <v>42270</v>
+        <v>42325</v>
       </c>
       <c r="H170" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="J170" s="14"/>
     </row>
@@ -28369,57 +28967,58 @@
         <v>165</v>
       </c>
       <c r="B171" s="11"/>
-      <c r="C171" s="28" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D171" s="55" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E171" s="12" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G171" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H171" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I171" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C171" s="28"/>
+      <c r="D171" s="65"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="31"/>
+      <c r="H171" s="70"/>
+      <c r="I171" s="13"/>
       <c r="J171" s="14"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B172" s="11"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="31"/>
-      <c r="H172" s="69"/>
-      <c r="I172" s="12"/>
-      <c r="J172" s="14"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="71"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="19"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="B173" s="11"/>
-      <c r="C173" s="22"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="31"/>
-      <c r="H173" s="69"/>
-      <c r="I173" s="12"/>
+      <c r="B173" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="F173" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G173" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H173" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I173" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J173" s="14"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -28428,13 +29027,27 @@
         <v>168</v>
       </c>
       <c r="B174" s="11"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="69"/>
-      <c r="I174" s="12"/>
+      <c r="C174" s="28" t="s">
+        <v>765</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="F174" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G174" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H174" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I174" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J174" s="14"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -28443,13 +29056,27 @@
         <v>169</v>
       </c>
       <c r="B175" s="11"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="69"/>
-      <c r="I175" s="12"/>
+      <c r="C175" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="F175" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G175" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H175" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J175" s="14"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -28458,13 +29085,27 @@
         <v>170</v>
       </c>
       <c r="B176" s="11"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="69"/>
-      <c r="I176" s="12"/>
+      <c r="C176" s="28" t="s">
+        <v>767</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F176" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G176" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H176" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I176" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J176" s="14"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -28473,58 +29114,84 @@
         <v>171</v>
       </c>
       <c r="B177" s="11"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
-      <c r="H177" s="69"/>
-      <c r="I177" s="12"/>
+      <c r="C177" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="F177" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G177" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H177" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J177" s="14"/>
     </row>
-    <row r="178" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="B178" s="16"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="71"/>
-      <c r="I178" s="17"/>
-      <c r="J178" s="19"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F178" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G178" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H178" s="70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I178" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="J178" s="14"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="B179" s="11" t="s">
-        <v>785</v>
-      </c>
+      <c r="B179" s="11"/>
       <c r="C179" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D179" s="12" t="s">
-        <v>841</v>
+        <v>1558</v>
+      </c>
+      <c r="D179" s="55" t="s">
+        <v>1556</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>816</v>
+        <v>1531</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>1348</v>
+        <v>684</v>
       </c>
       <c r="G179" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H179" s="70" t="s">
-        <v>1345</v>
+        <v>1464</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J179" s="14"/>
     </row>
@@ -28535,25 +29202,25 @@
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D180" s="12" t="s">
-        <v>787</v>
+        <v>1559</v>
+      </c>
+      <c r="D180" s="55" t="s">
+        <v>1557</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>817</v>
+        <v>1532</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>1348</v>
+        <v>684</v>
       </c>
       <c r="G180" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H180" s="70" t="s">
-        <v>1345</v>
+        <v>1464</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J180" s="14"/>
     </row>
@@ -28564,475 +29231,393 @@
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="D181" s="12" t="s">
-        <v>788</v>
+        <v>1560</v>
+      </c>
+      <c r="D181" s="55" t="s">
+        <v>1550</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>818</v>
+        <v>1533</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>1348</v>
+        <v>684</v>
       </c>
       <c r="G181" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H181" s="70" t="s">
-        <v>1345</v>
+        <v>1464</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J181" s="14"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f t="shared" ref="A182:A252" si="3">ROW($A182)-6</f>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>789</v>
+        <v>1561</v>
+      </c>
+      <c r="D182" s="55" t="s">
+        <v>1551</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>819</v>
+        <v>1534</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>1348</v>
+        <v>684</v>
       </c>
       <c r="G182" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H182" s="70" t="s">
-        <v>1345</v>
+        <v>1464</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J182" s="14"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="D183" s="12" t="s">
-        <v>790</v>
+        <v>1562</v>
+      </c>
+      <c r="D183" s="55" t="s">
+        <v>1552</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>820</v>
+        <v>1535</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>1348</v>
+        <v>684</v>
       </c>
       <c r="G183" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H183" s="70" t="s">
-        <v>1345</v>
+        <v>1464</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J183" s="14"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="D184" s="12" t="s">
-        <v>842</v>
+        <v>1563</v>
+      </c>
+      <c r="D184" s="55" t="s">
+        <v>1553</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>821</v>
+        <v>1536</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>1348</v>
+        <v>684</v>
       </c>
       <c r="G184" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H184" s="70" t="s">
-        <v>1345</v>
+        <v>1464</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J184" s="14"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="D185" s="12" t="s">
-        <v>832</v>
+        <v>1564</v>
+      </c>
+      <c r="D185" s="55" t="s">
+        <v>1554</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>822</v>
+        <v>1537</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>1348</v>
+        <v>684</v>
       </c>
       <c r="G185" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H185" s="70" t="s">
-        <v>1345</v>
+        <v>1464</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J185" s="14"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="28" t="s">
-        <v>850</v>
-      </c>
-      <c r="D186" s="12" t="s">
-        <v>833</v>
+        <v>1565</v>
+      </c>
+      <c r="D186" s="55" t="s">
+        <v>1555</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>823</v>
+        <v>1538</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>1348</v>
+        <v>684</v>
       </c>
       <c r="G186" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H186" s="70" t="s">
-        <v>1345</v>
+        <v>1464</v>
       </c>
       <c r="I186" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J186" s="14"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="B187" s="11"/>
-      <c r="C187" s="28" t="s">
-        <v>851</v>
-      </c>
-      <c r="D187" s="12" t="s">
-        <v>834</v>
-      </c>
-      <c r="E187" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="F187" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G187" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H187" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I187" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C187" s="22"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="31"/>
+      <c r="H187" s="69"/>
+      <c r="I187" s="12"/>
       <c r="J187" s="14"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="B188" s="11"/>
-      <c r="C188" s="28" t="s">
-        <v>852</v>
-      </c>
-      <c r="D188" s="12" t="s">
-        <v>835</v>
-      </c>
-      <c r="E188" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="F188" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G188" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H188" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I188" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C188" s="22"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="69"/>
+      <c r="I188" s="12"/>
       <c r="J188" s="14"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="B189" s="11"/>
-      <c r="C189" s="28" t="s">
-        <v>853</v>
-      </c>
-      <c r="D189" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="E189" s="12" t="s">
-        <v>826</v>
-      </c>
-      <c r="F189" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G189" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H189" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I189" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C189" s="22"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="69"/>
+      <c r="I189" s="12"/>
       <c r="J189" s="14"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="B190" s="11"/>
-      <c r="C190" s="28" t="s">
-        <v>854</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>827</v>
-      </c>
-      <c r="F190" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G190" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H190" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I190" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C190" s="22"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="69"/>
+      <c r="I190" s="12"/>
       <c r="J190" s="14"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="B191" s="11"/>
-      <c r="C191" s="28" t="s">
-        <v>855</v>
-      </c>
-      <c r="D191" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="E191" s="12" t="s">
-        <v>828</v>
-      </c>
-      <c r="F191" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G191" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H191" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I191" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C191" s="22"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="69"/>
+      <c r="I191" s="12"/>
       <c r="J191" s="14"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="B192" s="11"/>
-      <c r="C192" s="28" t="s">
-        <v>856</v>
-      </c>
-      <c r="D192" s="12" t="s">
-        <v>839</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>829</v>
-      </c>
-      <c r="F192" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G192" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H192" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I192" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C192" s="22"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="69"/>
+      <c r="I192" s="12"/>
       <c r="J192" s="14"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="B193" s="11"/>
-      <c r="C193" s="28" t="s">
-        <v>857</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>840</v>
-      </c>
-      <c r="E193" s="12" t="s">
-        <v>830</v>
-      </c>
-      <c r="F193" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G193" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H193" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I193" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J193" s="14"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="17"/>
+      <c r="H193" s="71"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="19"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="B194" s="11"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
-      <c r="G194" s="31"/>
-      <c r="H194" s="70"/>
-      <c r="I194" s="13"/>
+      <c r="B194" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C194" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G194" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H194" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I194" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J194" s="14"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D195" s="55" t="s">
-        <v>858</v>
+        <v>844</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>787</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>772</v>
+        <v>817</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G195" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H195" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H195" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I195" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J195" s="14"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="D196" s="55" t="s">
-        <v>859</v>
+        <v>845</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>788</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>773</v>
+        <v>818</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G196" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H196" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H196" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I196" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J196" s="14"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A197:A273" si="3">ROW($A197)-6</f>
         <v>191</v>
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="28" t="s">
-        <v>781</v>
-      </c>
-      <c r="D197" s="55" t="s">
-        <v>860</v>
+        <v>846</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>789</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>774</v>
+        <v>819</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G197" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H197" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H197" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I197" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J197" s="14"/>
     </row>
@@ -29043,25 +29628,25 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="D198" s="55" t="s">
-        <v>861</v>
+        <v>847</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>790</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>775</v>
+        <v>820</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G198" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H198" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H198" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I198" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J198" s="14"/>
     </row>
@@ -29072,25 +29657,25 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="28" t="s">
-        <v>783</v>
-      </c>
-      <c r="D199" s="55" t="s">
-        <v>862</v>
+        <v>848</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>842</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>776</v>
+        <v>821</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="G199" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H199" s="74" t="s">
-        <v>1524</v>
+        <v>42265</v>
+      </c>
+      <c r="H199" s="70" t="s">
+        <v>1345</v>
       </c>
       <c r="I199" s="13" t="s">
-        <v>1523</v>
+        <v>815</v>
       </c>
       <c r="J199" s="14"/>
     </row>
@@ -29100,13 +29685,27 @@
         <v>194</v>
       </c>
       <c r="B200" s="11"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="55"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="12"/>
-      <c r="G200" s="31"/>
-      <c r="H200" s="70"/>
-      <c r="I200" s="13"/>
+      <c r="C200" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G200" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H200" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I200" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J200" s="14"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -29115,15 +29714,17 @@
         <v>195</v>
       </c>
       <c r="B201" s="11"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="55" t="s">
-        <v>1350</v>
+      <c r="C201" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>833</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>777</v>
+        <v>823</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G201" s="31">
         <v>42265</v>
@@ -29143,25 +29744,25 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="28" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D202" s="55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E202" s="55" t="s">
-        <v>1455</v>
+        <v>851</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>824</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G202" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H202" s="70" t="s">
-        <v>235</v>
+        <v>1345</v>
       </c>
       <c r="I202" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J202" s="14"/>
     </row>
@@ -29172,25 +29773,25 @@
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="28" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D203" s="55" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E203" s="55" t="s">
-        <v>1456</v>
+        <v>852</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>825</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G203" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H203" s="70" t="s">
-        <v>235</v>
+        <v>1345</v>
       </c>
       <c r="I203" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J203" s="14"/>
     </row>
@@ -29201,25 +29802,25 @@
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="28" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D204" s="55" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E204" s="55" t="s">
-        <v>1457</v>
+        <v>853</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>826</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G204" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H204" s="70" t="s">
-        <v>235</v>
+        <v>1345</v>
       </c>
       <c r="I204" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J204" s="14"/>
     </row>
@@ -29230,25 +29831,25 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="28" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D205" s="55" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E205" s="55" t="s">
-        <v>1597</v>
+        <v>854</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>827</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G205" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H205" s="70" t="s">
-        <v>1613</v>
+        <v>1345</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J205" s="14"/>
     </row>
@@ -29259,25 +29860,25 @@
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="28" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D206" s="55" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E206" s="55" t="s">
-        <v>1641</v>
+        <v>855</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>828</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G206" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H206" s="70" t="s">
-        <v>1613</v>
+        <v>1345</v>
       </c>
       <c r="I206" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J206" s="14"/>
     </row>
@@ -29288,25 +29889,25 @@
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="28" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D207" s="55" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E207" s="55" t="s">
-        <v>1626</v>
+        <v>856</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="E207" s="12" t="s">
+        <v>829</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G207" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H207" s="70" t="s">
-        <v>1613</v>
+        <v>1345</v>
       </c>
       <c r="I207" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J207" s="14"/>
     </row>
@@ -29317,25 +29918,25 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="28" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D208" s="55" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E208" s="55" t="s">
-        <v>1627</v>
+        <v>857</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>830</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G208" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H208" s="70" t="s">
-        <v>1613</v>
+        <v>1345</v>
       </c>
       <c r="I208" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J208" s="14"/>
     </row>
@@ -29345,27 +29946,13 @@
         <v>203</v>
       </c>
       <c r="B209" s="11"/>
-      <c r="C209" s="28" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D209" s="55" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E209" s="55" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F209" s="12" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G209" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H209" s="70" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I209" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C209" s="28"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="31"/>
+      <c r="H209" s="70"/>
+      <c r="I209" s="13"/>
       <c r="J209" s="14"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -29375,25 +29962,25 @@
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="28" t="s">
-        <v>1618</v>
+        <v>779</v>
       </c>
       <c r="D210" s="55" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E210" s="55" t="s">
-        <v>1629</v>
+        <v>858</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>772</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G210" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H210" s="70" t="s">
-        <v>1613</v>
+        <v>42268</v>
+      </c>
+      <c r="H210" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I210" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J210" s="14"/>
     </row>
@@ -29404,25 +29991,25 @@
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="28" t="s">
-        <v>1625</v>
+        <v>780</v>
       </c>
       <c r="D211" s="55" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E211" s="55" t="s">
-        <v>1630</v>
+        <v>859</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>773</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G211" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H211" s="70" t="s">
-        <v>1613</v>
+        <v>42268</v>
+      </c>
+      <c r="H211" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I211" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J211" s="14"/>
     </row>
@@ -29433,25 +30020,25 @@
       </c>
       <c r="B212" s="11"/>
       <c r="C212" s="28" t="s">
-        <v>1642</v>
+        <v>781</v>
       </c>
       <c r="D212" s="55" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E212" s="55" t="s">
-        <v>1631</v>
+        <v>860</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>774</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G212" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H212" s="70" t="s">
-        <v>1613</v>
+        <v>42268</v>
+      </c>
+      <c r="H212" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I212" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J212" s="14"/>
     </row>
@@ -29462,25 +30049,25 @@
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="28" t="s">
-        <v>1701</v>
+        <v>782</v>
       </c>
       <c r="D213" s="55" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E213" s="55" t="s">
-        <v>1698</v>
+        <v>861</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>775</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G213" s="31">
-        <v>42293</v>
-      </c>
-      <c r="H213" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H213" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I213" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J213" s="14"/>
     </row>
@@ -29491,25 +30078,25 @@
       </c>
       <c r="B214" s="11"/>
       <c r="C214" s="28" t="s">
-        <v>1702</v>
+        <v>783</v>
       </c>
       <c r="D214" s="55" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E214" s="55" t="s">
-        <v>1699</v>
+        <v>862</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>1349</v>
+        <v>1522</v>
       </c>
       <c r="G214" s="31">
-        <v>42293</v>
-      </c>
-      <c r="H214" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H214" s="74" t="s">
+        <v>1524</v>
       </c>
       <c r="I214" s="13" t="s">
-        <v>431</v>
+        <v>1523</v>
       </c>
       <c r="J214" s="14"/>
     </row>
@@ -29519,27 +30106,13 @@
         <v>209</v>
       </c>
       <c r="B215" s="11"/>
-      <c r="C215" s="28" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D215" s="55" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E215" s="55" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F215" s="12" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G215" s="31">
-        <v>42293</v>
-      </c>
-      <c r="H215" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I215" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C215" s="28"/>
+      <c r="D215" s="55"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="31"/>
+      <c r="H215" s="70"/>
+      <c r="I215" s="13"/>
       <c r="J215" s="14"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -29548,26 +30121,24 @@
         <v>210</v>
       </c>
       <c r="B216" s="11"/>
-      <c r="C216" s="28" t="s">
-        <v>1756</v>
-      </c>
+      <c r="C216" s="28"/>
       <c r="D216" s="55" t="s">
-        <v>1752</v>
-      </c>
-      <c r="E216" s="55" t="s">
-        <v>1748</v>
+        <v>1350</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F216" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G216" s="31">
-        <v>42297</v>
+        <v>42265</v>
       </c>
       <c r="H216" s="70" t="s">
-        <v>235</v>
+        <v>1345</v>
       </c>
       <c r="I216" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J216" s="14"/>
     </row>
@@ -29578,19 +30149,19 @@
       </c>
       <c r="B217" s="11"/>
       <c r="C217" s="28" t="s">
-        <v>1757</v>
+        <v>1458</v>
       </c>
       <c r="D217" s="55" t="s">
-        <v>1753</v>
+        <v>1461</v>
       </c>
       <c r="E217" s="55" t="s">
-        <v>1749</v>
+        <v>1455</v>
       </c>
       <c r="F217" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G217" s="31">
-        <v>42297</v>
+        <v>42266</v>
       </c>
       <c r="H217" s="70" t="s">
         <v>235</v>
@@ -29607,19 +30178,19 @@
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="28" t="s">
-        <v>1758</v>
+        <v>1459</v>
       </c>
       <c r="D218" s="55" t="s">
-        <v>1754</v>
+        <v>1462</v>
       </c>
       <c r="E218" s="55" t="s">
-        <v>1750</v>
+        <v>1456</v>
       </c>
       <c r="F218" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G218" s="31">
-        <v>42297</v>
+        <v>42266</v>
       </c>
       <c r="H218" s="70" t="s">
         <v>235</v>
@@ -29636,19 +30207,19 @@
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="28" t="s">
-        <v>1759</v>
+        <v>1460</v>
       </c>
       <c r="D219" s="55" t="s">
-        <v>1755</v>
+        <v>1463</v>
       </c>
       <c r="E219" s="55" t="s">
-        <v>1751</v>
+        <v>1457</v>
       </c>
       <c r="F219" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="G219" s="31">
-        <v>42297</v>
+        <v>42266</v>
       </c>
       <c r="H219" s="70" t="s">
         <v>235</v>
@@ -29664,13 +30235,27 @@
         <v>214</v>
       </c>
       <c r="B220" s="11"/>
-      <c r="C220" s="28"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="55"/>
-      <c r="F220" s="12"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="70"/>
-      <c r="I220" s="13"/>
+      <c r="C220" s="28" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D220" s="55" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E220" s="55" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F220" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G220" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H220" s="70" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I220" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J220" s="14"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -29679,13 +30264,27 @@
         <v>215</v>
       </c>
       <c r="B221" s="11"/>
-      <c r="C221" s="28"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="55"/>
-      <c r="F221" s="12"/>
-      <c r="G221" s="12"/>
-      <c r="H221" s="70"/>
-      <c r="I221" s="13"/>
+      <c r="C221" s="28" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D221" s="55" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E221" s="55" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F221" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G221" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H221" s="70" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I221" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J221" s="14"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -29694,13 +30293,27 @@
         <v>216</v>
       </c>
       <c r="B222" s="11"/>
-      <c r="C222" s="28"/>
-      <c r="D222" s="12"/>
-      <c r="E222" s="55"/>
-      <c r="F222" s="12"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="70"/>
-      <c r="I222" s="13"/>
+      <c r="C222" s="28" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D222" s="55" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E222" s="55" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F222" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G222" s="31">
+        <v>42276</v>
+      </c>
+      <c r="H222" s="70" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I222" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J222" s="14"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -29710,25 +30323,25 @@
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D223" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="E223" s="12" t="s">
-        <v>868</v>
+        <v>1616</v>
+      </c>
+      <c r="D223" s="55" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E223" s="55" t="s">
+        <v>1627</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G223" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H223" s="70" t="s">
-        <v>1345</v>
+        <v>1613</v>
       </c>
       <c r="I223" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J223" s="14"/>
     </row>
@@ -29739,25 +30352,25 @@
       </c>
       <c r="B224" s="11"/>
       <c r="C224" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="D224" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E224" s="12" t="s">
-        <v>869</v>
+        <v>1617</v>
+      </c>
+      <c r="D224" s="55" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E224" s="55" t="s">
+        <v>1628</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G224" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H224" s="70" t="s">
-        <v>1345</v>
+        <v>1613</v>
       </c>
       <c r="I224" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J224" s="14"/>
     </row>
@@ -29768,25 +30381,25 @@
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="28" t="s">
-        <v>894</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="E225" s="12" t="s">
-        <v>870</v>
+        <v>1618</v>
+      </c>
+      <c r="D225" s="55" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E225" s="55" t="s">
+        <v>1629</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G225" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H225" s="70" t="s">
-        <v>1345</v>
+        <v>1613</v>
       </c>
       <c r="I225" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J225" s="14"/>
     </row>
@@ -29797,25 +30410,25 @@
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="28" t="s">
-        <v>895</v>
+        <v>1625</v>
       </c>
       <c r="D226" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="E226" s="12" t="s">
-        <v>871</v>
+        <v>1623</v>
+      </c>
+      <c r="E226" s="55" t="s">
+        <v>1630</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G226" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H226" s="70" t="s">
-        <v>1345</v>
+        <v>1613</v>
       </c>
       <c r="I226" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J226" s="14"/>
     </row>
@@ -29826,25 +30439,25 @@
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="28" t="s">
-        <v>896</v>
+        <v>1642</v>
       </c>
       <c r="D227" s="55" t="s">
-        <v>886</v>
-      </c>
-      <c r="E227" s="12" t="s">
-        <v>872</v>
+        <v>1624</v>
+      </c>
+      <c r="E227" s="55" t="s">
+        <v>1631</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G227" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H227" s="70" t="s">
-        <v>1345</v>
+        <v>1613</v>
       </c>
       <c r="I227" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J227" s="14"/>
     </row>
@@ -29855,25 +30468,25 @@
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="28" t="s">
-        <v>897</v>
+        <v>1701</v>
       </c>
       <c r="D228" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E228" s="12" t="s">
-        <v>873</v>
+        <v>1704</v>
+      </c>
+      <c r="E228" s="55" t="s">
+        <v>1698</v>
       </c>
       <c r="F228" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G228" s="31">
-        <v>42265</v>
+        <v>42293</v>
       </c>
       <c r="H228" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I228" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J228" s="14"/>
     </row>
@@ -29884,25 +30497,25 @@
       </c>
       <c r="B229" s="11"/>
       <c r="C229" s="28" t="s">
-        <v>898</v>
+        <v>1702</v>
       </c>
       <c r="D229" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="E229" s="12" t="s">
-        <v>874</v>
+        <v>1705</v>
+      </c>
+      <c r="E229" s="55" t="s">
+        <v>1699</v>
       </c>
       <c r="F229" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G229" s="31">
-        <v>42265</v>
+        <v>42293</v>
       </c>
       <c r="H229" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I229" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J229" s="14"/>
     </row>
@@ -29913,25 +30526,25 @@
       </c>
       <c r="B230" s="11"/>
       <c r="C230" s="28" t="s">
-        <v>899</v>
+        <v>1703</v>
       </c>
       <c r="D230" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E230" s="12" t="s">
-        <v>875</v>
+        <v>1706</v>
+      </c>
+      <c r="E230" s="55" t="s">
+        <v>1700</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G230" s="31">
-        <v>42265</v>
+        <v>42293</v>
       </c>
       <c r="H230" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I230" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J230" s="14"/>
     </row>
@@ -29942,25 +30555,25 @@
       </c>
       <c r="B231" s="11"/>
       <c r="C231" s="28" t="s">
-        <v>900</v>
+        <v>1756</v>
       </c>
       <c r="D231" s="55" t="s">
-        <v>887</v>
-      </c>
-      <c r="E231" s="12" t="s">
-        <v>876</v>
+        <v>1752</v>
+      </c>
+      <c r="E231" s="55" t="s">
+        <v>1748</v>
       </c>
       <c r="F231" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G231" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H231" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I231" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J231" s="14"/>
     </row>
@@ -29971,25 +30584,25 @@
       </c>
       <c r="B232" s="11"/>
       <c r="C232" s="28" t="s">
-        <v>901</v>
+        <v>1757</v>
       </c>
       <c r="D232" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E232" s="12" t="s">
-        <v>877</v>
+        <v>1753</v>
+      </c>
+      <c r="E232" s="55" t="s">
+        <v>1749</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G232" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H232" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I232" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J232" s="14"/>
     </row>
@@ -30000,25 +30613,25 @@
       </c>
       <c r="B233" s="11"/>
       <c r="C233" s="28" t="s">
-        <v>902</v>
+        <v>1758</v>
       </c>
       <c r="D233" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="E233" s="12" t="s">
-        <v>878</v>
+        <v>1754</v>
+      </c>
+      <c r="E233" s="55" t="s">
+        <v>1750</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G233" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H233" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I233" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J233" s="14"/>
     </row>
@@ -30029,25 +30642,25 @@
       </c>
       <c r="B234" s="11"/>
       <c r="C234" s="28" t="s">
-        <v>903</v>
+        <v>1759</v>
       </c>
       <c r="D234" s="55" t="s">
-        <v>888</v>
-      </c>
-      <c r="E234" s="12" t="s">
-        <v>879</v>
+        <v>1755</v>
+      </c>
+      <c r="E234" s="55" t="s">
+        <v>1751</v>
       </c>
       <c r="F234" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G234" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H234" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I234" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J234" s="14"/>
     </row>
@@ -30058,25 +30671,25 @@
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="28" t="s">
-        <v>904</v>
+        <v>1830</v>
       </c>
       <c r="D235" s="55" t="s">
-        <v>889</v>
-      </c>
-      <c r="E235" s="12" t="s">
-        <v>880</v>
+        <v>1821</v>
+      </c>
+      <c r="E235" s="55" t="s">
+        <v>1828</v>
       </c>
       <c r="F235" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G235" s="31">
-        <v>42265</v>
+        <v>42318</v>
       </c>
       <c r="H235" s="70" t="s">
-        <v>1345</v>
+        <v>1829</v>
       </c>
       <c r="I235" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J235" s="14"/>
     </row>
@@ -30087,25 +30700,25 @@
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="28" t="s">
-        <v>905</v>
+        <v>1831</v>
       </c>
       <c r="D236" s="55" t="s">
-        <v>890</v>
-      </c>
-      <c r="E236" s="12" t="s">
-        <v>881</v>
+        <v>1822</v>
+      </c>
+      <c r="E236" s="55" t="s">
+        <v>1825</v>
       </c>
       <c r="F236" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G236" s="31">
-        <v>42265</v>
+        <v>42318</v>
       </c>
       <c r="H236" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I236" s="13" t="s">
-        <v>815</v>
+        <v>1838</v>
       </c>
       <c r="J236" s="14"/>
     </row>
@@ -30116,25 +30729,25 @@
       </c>
       <c r="B237" s="11"/>
       <c r="C237" s="28" t="s">
-        <v>906</v>
+        <v>1832</v>
       </c>
       <c r="D237" s="55" t="s">
-        <v>891</v>
-      </c>
-      <c r="E237" s="12" t="s">
-        <v>882</v>
+        <v>1823</v>
+      </c>
+      <c r="E237" s="55" t="s">
+        <v>1826</v>
       </c>
       <c r="F237" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G237" s="31">
-        <v>42265</v>
+        <v>42318</v>
       </c>
       <c r="H237" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I237" s="13" t="s">
-        <v>815</v>
+        <v>1838</v>
       </c>
       <c r="J237" s="14"/>
     </row>
@@ -30145,25 +30758,25 @@
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="28" t="s">
-        <v>907</v>
+        <v>1833</v>
       </c>
       <c r="D238" s="55" t="s">
-        <v>617</v>
-      </c>
-      <c r="E238" s="12" t="s">
-        <v>883</v>
+        <v>1824</v>
+      </c>
+      <c r="E238" s="55" t="s">
+        <v>1827</v>
       </c>
       <c r="F238" s="12" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G238" s="31">
-        <v>42265</v>
+        <v>42318</v>
       </c>
       <c r="H238" s="70" t="s">
-        <v>1345</v>
+        <v>235</v>
       </c>
       <c r="I238" s="13" t="s">
-        <v>815</v>
+        <v>1838</v>
       </c>
       <c r="J238" s="14"/>
     </row>
@@ -30173,27 +30786,13 @@
         <v>233</v>
       </c>
       <c r="B239" s="11"/>
-      <c r="C239" s="28" t="s">
-        <v>908</v>
-      </c>
-      <c r="D239" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E239" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="F239" s="12" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G239" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H239" s="70" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I239" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C239" s="28"/>
+      <c r="D239" s="55"/>
+      <c r="E239" s="55"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="31"/>
+      <c r="H239" s="70"/>
+      <c r="I239" s="13"/>
       <c r="J239" s="14"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -30203,10 +30802,10 @@
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="28"/>
-      <c r="D240" s="12"/>
-      <c r="E240" s="12"/>
+      <c r="D240" s="55"/>
+      <c r="E240" s="55"/>
       <c r="F240" s="12"/>
-      <c r="G240" s="12"/>
+      <c r="G240" s="31"/>
       <c r="H240" s="70"/>
       <c r="I240" s="13"/>
       <c r="J240" s="14"/>
@@ -30219,14 +30818,14 @@
       <c r="B241" s="11"/>
       <c r="C241" s="28"/>
       <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
+      <c r="E241" s="55"/>
       <c r="F241" s="12"/>
       <c r="G241" s="12"/>
       <c r="H241" s="70"/>
       <c r="I241" s="13"/>
       <c r="J241" s="14"/>
     </row>
-    <row r="242" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -30234,7 +30833,7 @@
       <c r="B242" s="11"/>
       <c r="C242" s="28"/>
       <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
+      <c r="E242" s="55"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
       <c r="H242" s="70"/>
@@ -30246,120 +30845,130 @@
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="B243" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C243" s="27" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E243" s="8" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F243" s="8" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G243" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H243" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>1355</v>
-      </c>
-      <c r="J243" s="10"/>
-    </row>
-    <row r="244" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="11"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="55"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="70"/>
+      <c r="I243" s="13"/>
+      <c r="J243" s="14"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
-        <f>ROW($A244)-6</f>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="B244" s="11"/>
-      <c r="C244" s="28"/>
-      <c r="D244" s="11"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="12"/>
-      <c r="G244" s="12"/>
-      <c r="H244" s="70"/>
-      <c r="I244" s="13"/>
+      <c r="C244" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="F244" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G244" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H244" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I244" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J244" s="14"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
-        <f t="shared" ref="A245:A247" si="4">ROW($A245)-6</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="B245" s="7" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C245" s="27" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>1809</v>
-      </c>
-      <c r="E245" s="8" t="s">
-        <v>1812</v>
-      </c>
-      <c r="F245" s="8" t="s">
-        <v>1813</v>
-      </c>
-      <c r="G245" s="30">
-        <v>42313</v>
-      </c>
-      <c r="H245" s="112" t="s">
-        <v>1814</v>
-      </c>
-      <c r="I245" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="J245" s="10"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="F245" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G245" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H245" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I245" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J245" s="14"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="28" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D246" s="11" t="s">
-        <v>1810</v>
+        <v>894</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>1811</v>
-      </c>
-      <c r="F246" s="55" t="s">
-        <v>1813</v>
+        <v>870</v>
+      </c>
+      <c r="F246" s="12" t="s">
+        <v>1344</v>
       </c>
       <c r="G246" s="31">
-        <v>42313</v>
+        <v>42265</v>
       </c>
       <c r="H246" s="70" t="s">
-        <v>235</v>
+        <v>1345</v>
       </c>
       <c r="I246" s="13" t="s">
-        <v>1815</v>
+        <v>815</v>
       </c>
       <c r="J246" s="14"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="B247" s="11"/>
-      <c r="C247" s="28"/>
-      <c r="D247" s="11"/>
-      <c r="E247" s="12"/>
-      <c r="F247" s="12"/>
-      <c r="G247" s="12"/>
-      <c r="H247" s="70"/>
-      <c r="I247" s="13"/>
+      <c r="C247" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="D247" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="F247" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G247" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H247" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I247" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J247" s="14"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -30368,13 +30977,27 @@
         <v>242</v>
       </c>
       <c r="B248" s="11"/>
-      <c r="C248" s="28"/>
-      <c r="D248" s="11"/>
-      <c r="E248" s="12"/>
-      <c r="F248" s="12"/>
-      <c r="G248" s="12"/>
-      <c r="H248" s="70"/>
-      <c r="I248" s="13"/>
+      <c r="C248" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="D248" s="55" t="s">
+        <v>886</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="F248" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G248" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H248" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I248" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J248" s="14"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -30383,29 +31006,57 @@
         <v>243</v>
       </c>
       <c r="B249" s="11"/>
-      <c r="C249" s="28"/>
-      <c r="D249" s="11"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="12"/>
-      <c r="G249" s="12"/>
-      <c r="H249" s="69"/>
-      <c r="I249" s="12"/>
+      <c r="C249" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="D249" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="F249" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G249" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H249" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I249" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J249" s="14"/>
     </row>
-    <row r="250" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
-      <c r="B250" s="16"/>
-      <c r="C250" s="29"/>
-      <c r="D250" s="16"/>
-      <c r="E250" s="17"/>
-      <c r="F250" s="17"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="71"/>
-      <c r="I250" s="17"/>
-      <c r="J250" s="19"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="D250" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="F250" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G250" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H250" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I250" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J250" s="14"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
@@ -30413,44 +31064,545 @@
         <v>245</v>
       </c>
       <c r="B251" s="11"/>
-      <c r="C251" s="28"/>
-      <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
-      <c r="F251" s="12"/>
-      <c r="G251" s="12"/>
-      <c r="H251" s="69"/>
-      <c r="I251" s="12"/>
+      <c r="C251" s="28" t="s">
+        <v>899</v>
+      </c>
+      <c r="D251" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G251" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H251" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I251" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J251" s="14"/>
     </row>
-    <row r="252" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="B252" s="16"/>
-      <c r="C252" s="29"/>
-      <c r="D252" s="17"/>
-      <c r="E252" s="17"/>
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="71"/>
-      <c r="I252" s="17"/>
-      <c r="J252" s="19"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="28" t="s">
+        <v>900</v>
+      </c>
+      <c r="D252" s="55" t="s">
+        <v>887</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G252" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H252" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I252" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J252" s="14"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C253" s="3"/>
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>247</v>
+      </c>
+      <c r="B253" s="11"/>
+      <c r="C253" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="D253" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="F253" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G253" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H253" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I253" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J253" s="14"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C254" s="3"/>
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
+      <c r="B254" s="11"/>
+      <c r="C254" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="D254" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G254" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H254" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I254" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J254" s="14"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C255" s="3"/>
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="B255" s="11"/>
+      <c r="C255" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D255" s="55" t="s">
+        <v>888</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G255" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H255" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I255" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J255" s="14"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C256" s="3"/>
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="B256" s="11"/>
+      <c r="C256" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="D256" s="55" t="s">
+        <v>889</v>
+      </c>
+      <c r="E256" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G256" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H256" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I256" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J256" s="14"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="B257" s="11"/>
+      <c r="C257" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="D257" s="55" t="s">
+        <v>890</v>
+      </c>
+      <c r="E257" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G257" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H257" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I257" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J257" s="14"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="B258" s="11"/>
+      <c r="C258" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="D258" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G258" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H258" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I258" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J258" s="14"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="B259" s="11"/>
+      <c r="C259" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D259" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G259" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H259" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I259" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J259" s="14"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="B260" s="11"/>
+      <c r="C260" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D260" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F260" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G260" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H260" s="70" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I260" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J260" s="14"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="B261" s="11"/>
+      <c r="C261" s="28"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
+      <c r="G261" s="12"/>
+      <c r="H261" s="70"/>
+      <c r="I261" s="13"/>
+      <c r="J261" s="14"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="B262" s="11"/>
+      <c r="C262" s="28"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="12"/>
+      <c r="H262" s="70"/>
+      <c r="I262" s="13"/>
+      <c r="J262" s="14"/>
+    </row>
+    <row r="263" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="B263" s="11"/>
+      <c r="C263" s="28"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
+      <c r="F263" s="12"/>
+      <c r="G263" s="12"/>
+      <c r="H263" s="70"/>
+      <c r="I263" s="13"/>
+      <c r="J263" s="14"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="3"/>
+        <v>258</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C264" s="27" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E264" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G264" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H264" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I264" s="9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J264" s="10"/>
+    </row>
+    <row r="265" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <f>ROW($A265)-6</f>
+        <v>259</v>
+      </c>
+      <c r="B265" s="11"/>
+      <c r="C265" s="28"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12"/>
+      <c r="G265" s="12"/>
+      <c r="H265" s="70"/>
+      <c r="I265" s="13"/>
+      <c r="J265" s="14"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <f t="shared" ref="A266:A268" si="4">ROW($A266)-6</f>
+        <v>260</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C266" s="27" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G266" s="30">
+        <v>42313</v>
+      </c>
+      <c r="H266" s="112" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I266" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J266" s="10"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="B267" s="11"/>
+      <c r="C267" s="28" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F267" s="55" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G267" s="31">
+        <v>42313</v>
+      </c>
+      <c r="H267" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I267" s="13" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J267" s="14"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="B268" s="11"/>
+      <c r="C268" s="28"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="12"/>
+      <c r="F268" s="12"/>
+      <c r="G268" s="12"/>
+      <c r="H268" s="70"/>
+      <c r="I268" s="13"/>
+      <c r="J268" s="14"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <f t="shared" si="3"/>
+        <v>263</v>
+      </c>
+      <c r="B269" s="11"/>
+      <c r="C269" s="28"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="12"/>
+      <c r="F269" s="12"/>
+      <c r="G269" s="12"/>
+      <c r="H269" s="70"/>
+      <c r="I269" s="13"/>
+      <c r="J269" s="14"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <f t="shared" si="3"/>
+        <v>264</v>
+      </c>
+      <c r="B270" s="11"/>
+      <c r="C270" s="28"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="12"/>
+      <c r="F270" s="12"/>
+      <c r="G270" s="12"/>
+      <c r="H270" s="69"/>
+      <c r="I270" s="12"/>
+      <c r="J270" s="14"/>
+    </row>
+    <row r="271" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <f t="shared" si="3"/>
+        <v>265</v>
+      </c>
+      <c r="B271" s="16"/>
+      <c r="C271" s="29"/>
+      <c r="D271" s="16"/>
+      <c r="E271" s="17"/>
+      <c r="F271" s="17"/>
+      <c r="G271" s="17"/>
+      <c r="H271" s="71"/>
+      <c r="I271" s="17"/>
+      <c r="J271" s="19"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <f t="shared" si="3"/>
+        <v>266</v>
+      </c>
+      <c r="B272" s="11"/>
+      <c r="C272" s="28"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="12"/>
+      <c r="F272" s="12"/>
+      <c r="G272" s="12"/>
+      <c r="H272" s="69"/>
+      <c r="I272" s="12"/>
+      <c r="J272" s="14"/>
+    </row>
+    <row r="273" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <f t="shared" si="3"/>
+        <v>267</v>
+      </c>
+      <c r="B273" s="16"/>
+      <c r="C273" s="29"/>
+      <c r="D273" s="17"/>
+      <c r="E273" s="17"/>
+      <c r="F273" s="17"/>
+      <c r="G273" s="17"/>
+      <c r="H273" s="71"/>
+      <c r="I273" s="17"/>
+      <c r="J273" s="19"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:J252">
+  <autoFilter ref="A7:J273">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41020" yWindow="580" windowWidth="27040" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="4760" yWindow="460" windowWidth="27040" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$291</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="1932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="1937">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -14254,6 +14254,83 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月21日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新角色制作统计进度
+UI更新：
+增加技能tips底图
+修改扫荡结算背景图</t>
+    <rPh sb="0" eb="1">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin'du</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>sao'dang</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>bei'jing'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_ditu.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择技能tips</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'neng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择4</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -15214,8 +15291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -15775,10 +15852,16 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
+    <row r="59" spans="2:4" ht="68" x14ac:dyDescent="0.25">
+      <c r="B59" s="36" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C59" s="98" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="36"/>
@@ -24912,13 +24995,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J293"/>
+  <dimension ref="A2:J295"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="F78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G89" sqref="G89"/>
+      <selection pane="bottomRight" activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -27340,7 +27423,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" ref="A89:A211" si="2">ROW($A89)-6</f>
+        <f t="shared" ref="A89:A213" si="2">ROW($A89)-6</f>
         <v>83</v>
       </c>
       <c r="B89" s="11"/>
@@ -28302,30 +28385,13 @@
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D123" s="65" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1608</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G123" s="31">
-        <v>42273</v>
-      </c>
-      <c r="H123" s="70" t="s">
-        <v>1463</v>
-      </c>
-      <c r="I123" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B123" s="11"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="65"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="13"/>
       <c r="J123" s="14"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -28333,15 +28399,17 @@
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="B124" s="11"/>
+      <c r="B124" s="11" t="s">
+        <v>1604</v>
+      </c>
       <c r="C124" s="28" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D124" s="65" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="E124" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>684</v>
@@ -28364,19 +28432,19 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="28" t="s">
-        <v>1636</v>
+        <v>1606</v>
       </c>
       <c r="D125" s="65" t="s">
-        <v>1637</v>
+        <v>1609</v>
       </c>
       <c r="E125" t="s">
-        <v>1635</v>
+        <v>1607</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G125" s="31">
-        <v>42276</v>
+        <v>42273</v>
       </c>
       <c r="H125" s="70" t="s">
         <v>1463</v>
@@ -28393,19 +28461,19 @@
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="28" t="s">
-        <v>1737</v>
+        <v>1636</v>
       </c>
       <c r="D126" s="65" t="s">
-        <v>1739</v>
+        <v>1637</v>
       </c>
       <c r="E126" t="s">
-        <v>1741</v>
+        <v>1635</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G126" s="31">
-        <v>42296</v>
+        <v>42276</v>
       </c>
       <c r="H126" s="70" t="s">
         <v>1463</v>
@@ -28422,13 +28490,13 @@
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="28" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D127" s="65" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E127" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>684</v>
@@ -28450,12 +28518,27 @@
         <v>122</v>
       </c>
       <c r="B128" s="11"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="65"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="70"/>
-      <c r="I128" s="13"/>
+      <c r="C128" s="28" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D128" s="65" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G128" s="31">
+        <v>42296</v>
+      </c>
+      <c r="H128" s="70" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J128" s="14"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -28463,30 +28546,13 @@
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D129" s="65" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G129" s="31">
-        <v>42286</v>
-      </c>
-      <c r="H129" s="70" t="s">
-        <v>1463</v>
-      </c>
-      <c r="I129" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="65"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="70"/>
+      <c r="I129" s="13"/>
       <c r="J129" s="14"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -28494,15 +28560,17 @@
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="B130" s="11"/>
+      <c r="B130" s="11" t="s">
+        <v>1643</v>
+      </c>
       <c r="C130" s="28" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D130" s="65" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E130" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>684</v>
@@ -28525,13 +28593,13 @@
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="28" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D131" s="65" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E131" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>684</v>
@@ -28554,13 +28622,13 @@
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="28" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="D132" s="65" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E132" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>684</v>
@@ -28583,13 +28651,13 @@
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="28" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D133" s="65" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E133" t="s">
-        <v>1672</v>
+        <v>1648</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>684</v>
@@ -28611,12 +28679,27 @@
         <v>128</v>
       </c>
       <c r="B134" s="11"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="65"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="70"/>
-      <c r="I134" s="13"/>
+      <c r="C134" s="28" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D134" s="65" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G134" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H134" s="70" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J134" s="14"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -28624,30 +28707,13 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D135" s="65" t="s">
-        <v>1665</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G135" s="31">
-        <v>42286</v>
-      </c>
-      <c r="H135" s="70" t="s">
-        <v>1463</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B135" s="11"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="65"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="13"/>
       <c r="J135" s="14"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -28655,15 +28721,17 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="B136" s="11"/>
+      <c r="B136" s="11" t="s">
+        <v>1656</v>
+      </c>
       <c r="C136" s="28" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D136" s="65" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="E136" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>684</v>
@@ -28685,12 +28753,27 @@
         <v>131</v>
       </c>
       <c r="B137" s="11"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="65"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="70"/>
-      <c r="I137" s="13"/>
+      <c r="C137" s="28" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D137" s="65" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G137" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H137" s="70" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J137" s="14"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -28698,30 +28781,13 @@
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C138" s="28" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D138" s="65" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E138" t="s">
-        <v>1678</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G138" s="31">
-        <v>42289</v>
-      </c>
-      <c r="H138" s="70" t="s">
-        <v>1463</v>
-      </c>
-      <c r="I138" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="65"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="70"/>
+      <c r="I138" s="13"/>
       <c r="J138" s="14"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -28729,15 +28795,17 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B139" s="11"/>
+      <c r="B139" s="11" t="s">
+        <v>1677</v>
+      </c>
       <c r="C139" s="28" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D139" s="65" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E139" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>684</v>
@@ -28760,13 +28828,13 @@
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="28" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D140" s="65" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E140" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>684</v>
@@ -28788,12 +28856,27 @@
         <v>135</v>
       </c>
       <c r="B141" s="11"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="65"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="31"/>
-      <c r="H141" s="70"/>
-      <c r="I141" s="13"/>
+      <c r="C141" s="28" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D141" s="65" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G141" s="31">
+        <v>42289</v>
+      </c>
+      <c r="H141" s="70" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I141" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J141" s="14"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -28801,30 +28884,13 @@
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D142" s="65" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1735</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G142" s="31">
-        <v>42317</v>
-      </c>
-      <c r="H142" s="70" t="s">
-        <v>1848</v>
-      </c>
-      <c r="I142" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="65"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="70"/>
+      <c r="I142" s="13"/>
       <c r="J142" s="14"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -28832,15 +28898,17 @@
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B143" s="11"/>
+      <c r="B143" s="11" t="s">
+        <v>1730</v>
+      </c>
       <c r="C143" s="28" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D143" s="65" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E143" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>684</v>
@@ -28863,22 +28931,22 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="28" t="s">
-        <v>1761</v>
+        <v>1732</v>
       </c>
       <c r="D144" s="65" t="s">
-        <v>1758</v>
+        <v>1734</v>
       </c>
       <c r="E144" t="s">
-        <v>1743</v>
+        <v>1736</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G144" s="31">
-        <v>42297</v>
+        <v>42317</v>
       </c>
       <c r="H144" s="70" t="s">
-        <v>1463</v>
+        <v>1848</v>
       </c>
       <c r="I144" s="13" t="s">
         <v>8</v>
@@ -28892,13 +28960,13 @@
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="28" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D145" s="65" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E145" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>684</v>
@@ -28921,22 +28989,22 @@
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="28" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D146" s="65" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E146" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F146" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G146" s="31">
-        <v>42307</v>
+        <v>42297</v>
       </c>
       <c r="H146" s="70" t="s">
-        <v>1786</v>
+        <v>1463</v>
       </c>
       <c r="I146" s="13" t="s">
         <v>8</v>
@@ -28950,13 +29018,13 @@
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="28" t="s">
-        <v>1782</v>
+        <v>1763</v>
       </c>
       <c r="D147" s="65" t="s">
-        <v>1783</v>
+        <v>1760</v>
       </c>
       <c r="E147" t="s">
-        <v>1781</v>
+        <v>1745</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>684</v>
@@ -28978,12 +29046,27 @@
         <v>142</v>
       </c>
       <c r="B148" s="11"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="65"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="70"/>
-      <c r="I148" s="13"/>
+      <c r="C148" s="28" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D148" s="65" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G148" s="31">
+        <v>42307</v>
+      </c>
+      <c r="H148" s="70" t="s">
+        <v>1786</v>
+      </c>
+      <c r="I148" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J148" s="14"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -28991,30 +29074,13 @@
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B149" s="11" t="s">
-        <v>1777</v>
-      </c>
-      <c r="C149" s="28" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D149" s="65" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G149" s="31">
-        <v>42303</v>
-      </c>
-      <c r="H149" s="70" t="s">
-        <v>1463</v>
-      </c>
-      <c r="I149" s="13" t="s">
-        <v>1773</v>
-      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="65"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="70"/>
+      <c r="I149" s="13"/>
       <c r="J149" s="14"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -29022,15 +29088,17 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B150" s="11"/>
+      <c r="B150" s="11" t="s">
+        <v>1777</v>
+      </c>
       <c r="C150" s="28" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D150" s="65" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E150" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>684</v>
@@ -29053,13 +29121,13 @@
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="28" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D151" s="65" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E151" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>684</v>
@@ -29082,22 +29150,22 @@
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="28" t="s">
-        <v>1832</v>
+        <v>1776</v>
       </c>
       <c r="D152" s="65" t="s">
-        <v>1833</v>
+        <v>1780</v>
       </c>
       <c r="E152" t="s">
-        <v>1834</v>
-      </c>
-      <c r="F152" s="55" t="s">
-        <v>1835</v>
+        <v>1770</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>684</v>
       </c>
       <c r="G152" s="31">
-        <v>42317</v>
+        <v>42303</v>
       </c>
       <c r="H152" s="70" t="s">
-        <v>235</v>
+        <v>1463</v>
       </c>
       <c r="I152" s="13" t="s">
         <v>1773</v>
@@ -29110,12 +29178,27 @@
         <v>147</v>
       </c>
       <c r="B153" s="11"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="65"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="31"/>
-      <c r="H153" s="70"/>
-      <c r="I153" s="13"/>
+      <c r="C153" s="28" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D153" s="65" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F153" s="55" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G153" s="31">
+        <v>42317</v>
+      </c>
+      <c r="H153" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I153" s="13" t="s">
+        <v>1773</v>
+      </c>
       <c r="J153" s="14"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -29123,30 +29206,13 @@
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B154" s="11" t="s">
-        <v>1803</v>
-      </c>
-      <c r="C154" s="28" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D154" s="65" t="s">
-        <v>1788</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F154" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G154" s="31">
-        <v>42313</v>
-      </c>
-      <c r="H154" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I154" s="13" t="s">
-        <v>1802</v>
-      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="65"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="70"/>
+      <c r="I154" s="13"/>
       <c r="J154" s="14"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -29154,27 +29220,29 @@
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B155" s="11"/>
+      <c r="B155" s="11" t="s">
+        <v>1803</v>
+      </c>
       <c r="C155" s="28" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="D155" s="65" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E155" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G155" s="31">
-        <v>42314</v>
+        <v>42313</v>
       </c>
       <c r="H155" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>497</v>
+        <v>1802</v>
       </c>
       <c r="J155" s="14"/>
     </row>
@@ -29185,19 +29253,19 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="28" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D156" s="65" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E156" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G156" s="31">
-        <v>42315</v>
+        <v>42314</v>
       </c>
       <c r="H156" s="70" t="s">
         <v>235</v>
@@ -29214,19 +29282,19 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="28" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D157" s="65" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E157" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G157" s="31">
-        <v>42316</v>
+        <v>42315</v>
       </c>
       <c r="H157" s="70" t="s">
         <v>235</v>
@@ -29243,22 +29311,22 @@
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="28" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
       <c r="D158" s="65" t="s">
-        <v>1800</v>
+        <v>1791</v>
       </c>
       <c r="E158" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G158" s="31">
-        <v>42317</v>
+        <v>42316</v>
       </c>
       <c r="H158" s="70" t="s">
-        <v>1849</v>
+        <v>235</v>
       </c>
       <c r="I158" s="13" t="s">
         <v>497</v>
@@ -29272,25 +29340,25 @@
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="28" t="s">
-        <v>1854</v>
+        <v>1801</v>
       </c>
       <c r="D159" s="65" t="s">
-        <v>1852</v>
+        <v>1800</v>
       </c>
       <c r="E159" t="s">
-        <v>1851</v>
+        <v>1799</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G159" s="31">
-        <v>42314</v>
+        <v>42317</v>
       </c>
       <c r="H159" s="70" t="s">
-        <v>235</v>
+        <v>1849</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>8</v>
+        <v>497</v>
       </c>
       <c r="J159" s="14"/>
     </row>
@@ -29301,13 +29369,13 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="28" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D160" s="65" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E160" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>684</v>
@@ -29330,25 +29398,25 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="28" t="s">
-        <v>1879</v>
+        <v>1855</v>
       </c>
       <c r="D161" s="65" t="s">
-        <v>1880</v>
+        <v>1853</v>
       </c>
       <c r="E161" t="s">
-        <v>1881</v>
+        <v>1850</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G161" s="31">
-        <v>42320</v>
+        <v>42314</v>
       </c>
       <c r="H161" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>1773</v>
+        <v>8</v>
       </c>
       <c r="J161" s="14"/>
     </row>
@@ -29358,12 +29426,27 @@
         <v>156</v>
       </c>
       <c r="B162" s="11"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="65"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="31"/>
-      <c r="H162" s="70"/>
-      <c r="I162" s="13"/>
+      <c r="C162" s="28" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D162" s="65" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G162" s="31">
+        <v>42320</v>
+      </c>
+      <c r="H162" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I162" s="13" t="s">
+        <v>1773</v>
+      </c>
       <c r="J162" s="14"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -29371,30 +29454,13 @@
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B163" s="11" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C163" s="28" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D163" s="65" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E163" t="s">
-        <v>1903</v>
-      </c>
-      <c r="F163" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G163" s="31">
-        <v>42324</v>
-      </c>
-      <c r="H163" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I163" s="13" t="s">
-        <v>1905</v>
-      </c>
+      <c r="B163" s="11"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="65"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="70"/>
+      <c r="I163" s="13"/>
       <c r="J163" s="14"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -29402,27 +29468,29 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B164" s="11"/>
+      <c r="B164" s="11" t="s">
+        <v>1898</v>
+      </c>
       <c r="C164" s="28" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D164" s="65" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E164" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G164" s="31">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="H164" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>1773</v>
+        <v>1905</v>
       </c>
       <c r="J164" s="14"/>
     </row>
@@ -29433,13 +29501,13 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="28" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D165" s="65" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="E165" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="F165" s="12" t="s">
         <v>684</v>
@@ -29461,11 +29529,27 @@
         <v>160</v>
       </c>
       <c r="B166" s="11"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="65"/>
-      <c r="G166" s="31"/>
-      <c r="H166" s="70"/>
-      <c r="I166" s="13"/>
+      <c r="C166" s="28" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D166" s="65" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G166" s="31">
+        <v>42324</v>
+      </c>
+      <c r="H166" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I166" s="13" t="s">
+        <v>1773</v>
+      </c>
       <c r="J166" s="14"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -29473,29 +29557,27 @@
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B167" s="11" t="s">
-        <v>1837</v>
-      </c>
+      <c r="B167" s="11"/>
       <c r="C167" s="28" t="s">
-        <v>1856</v>
+        <v>1936</v>
       </c>
       <c r="D167" s="65" t="s">
-        <v>1875</v>
+        <v>1935</v>
       </c>
       <c r="E167" t="s">
-        <v>1838</v>
+        <v>1934</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G167" s="31">
-        <v>42317</v>
+        <v>42329</v>
       </c>
       <c r="H167" s="70" t="s">
-        <v>1839</v>
+        <v>235</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>8</v>
+        <v>1773</v>
       </c>
       <c r="J167" s="14"/>
     </row>
@@ -29505,27 +29587,11 @@
         <v>162</v>
       </c>
       <c r="B168" s="11"/>
-      <c r="C168" s="28" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D168" s="65" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E168" t="s">
-        <v>1876</v>
-      </c>
-      <c r="F168" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G168" s="31">
-        <v>42317</v>
-      </c>
-      <c r="H168" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I168" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C168" s="28"/>
+      <c r="D168" s="65"/>
+      <c r="G168" s="31"/>
+      <c r="H168" s="70"/>
+      <c r="I168" s="13"/>
       <c r="J168" s="14"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -29533,15 +29599,17 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B169" s="11"/>
+      <c r="B169" s="11" t="s">
+        <v>1837</v>
+      </c>
       <c r="C169" s="28" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D169" s="65" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="E169" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>684</v>
@@ -29550,7 +29618,7 @@
         <v>42317</v>
       </c>
       <c r="H169" s="70" t="s">
-        <v>235</v>
+        <v>1839</v>
       </c>
       <c r="I169" s="13" t="s">
         <v>8</v>
@@ -29564,13 +29632,13 @@
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="28" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="D170" s="65" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="E170" t="s">
-        <v>1841</v>
+        <v>1876</v>
       </c>
       <c r="F170" s="12" t="s">
         <v>684</v>
@@ -29593,13 +29661,13 @@
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="28" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="D171" s="65" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="E171" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="F171" s="12" t="s">
         <v>684</v>
@@ -29622,13 +29690,13 @@
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="28" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="D172" s="65" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="E172" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>684</v>
@@ -29651,13 +29719,13 @@
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="28" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="D173" s="65" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="E173" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="F173" s="12" t="s">
         <v>684</v>
@@ -29680,13 +29748,13 @@
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="28" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="D174" s="65" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="E174" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>684</v>
@@ -29709,13 +29777,13 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="28" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D175" s="65" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="E175" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="F175" s="12" t="s">
         <v>684</v>
@@ -29738,13 +29806,13 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="28" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D176" s="65" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="E176" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>684</v>
@@ -29767,19 +29835,19 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="28" t="s">
-        <v>1882</v>
+        <v>1864</v>
       </c>
       <c r="D177" s="65" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
       <c r="E177" t="s">
-        <v>1884</v>
+        <v>1846</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G177" s="31">
-        <v>42319</v>
+        <v>42317</v>
       </c>
       <c r="H177" s="70" t="s">
         <v>235</v>
@@ -29796,19 +29864,19 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="28" t="s">
-        <v>1886</v>
+        <v>1865</v>
       </c>
       <c r="D178" s="65" t="s">
-        <v>1887</v>
+        <v>1866</v>
       </c>
       <c r="E178" t="s">
-        <v>1885</v>
+        <v>1847</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G178" s="31">
-        <v>42319</v>
+        <v>42317</v>
       </c>
       <c r="H178" s="70" t="s">
         <v>235</v>
@@ -29824,12 +29892,27 @@
         <v>173</v>
       </c>
       <c r="B179" s="11"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="65"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="31"/>
-      <c r="H179" s="70"/>
-      <c r="I179" s="13"/>
+      <c r="C179" s="28" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D179" s="65" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G179" s="31">
+        <v>42319</v>
+      </c>
+      <c r="H179" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I179" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J179" s="14"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -29837,29 +29920,27 @@
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="B180" s="11" t="s">
-        <v>1909</v>
-      </c>
+      <c r="B180" s="11"/>
       <c r="C180" s="28" t="s">
-        <v>1910</v>
+        <v>1886</v>
       </c>
       <c r="D180" s="65" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E180" s="65" t="s">
-        <v>1916</v>
+        <v>1887</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1885</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G180" s="31">
-        <v>42325</v>
+        <v>42319</v>
       </c>
       <c r="H180" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>1919</v>
+        <v>8</v>
       </c>
       <c r="J180" s="14"/>
     </row>
@@ -29869,27 +29950,12 @@
         <v>175</v>
       </c>
       <c r="B181" s="11"/>
-      <c r="C181" s="28" t="s">
-        <v>1911</v>
-      </c>
-      <c r="D181" s="65" t="s">
-        <v>1914</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1918</v>
-      </c>
-      <c r="F181" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G181" s="31">
-        <v>42325</v>
-      </c>
-      <c r="H181" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I181" s="13" t="s">
-        <v>1919</v>
-      </c>
+      <c r="C181" s="28"/>
+      <c r="D181" s="65"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="31"/>
+      <c r="H181" s="70"/>
+      <c r="I181" s="13"/>
       <c r="J181" s="14"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -29897,15 +29963,17 @@
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="B182" s="11"/>
+      <c r="B182" s="11" t="s">
+        <v>1909</v>
+      </c>
       <c r="C182" s="28" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="D182" s="65" t="s">
-        <v>1915</v>
-      </c>
-      <c r="E182" t="s">
-        <v>1917</v>
+        <v>1913</v>
+      </c>
+      <c r="E182" s="65" t="s">
+        <v>1916</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>684</v>
@@ -29927,12 +29995,27 @@
         <v>177</v>
       </c>
       <c r="B183" s="11"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="65"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="31"/>
-      <c r="H183" s="70"/>
-      <c r="I183" s="13"/>
+      <c r="C183" s="28" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D183" s="65" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G183" s="31">
+        <v>42325</v>
+      </c>
+      <c r="H183" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I183" s="13" t="s">
+        <v>1919</v>
+      </c>
       <c r="J183" s="14"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -29941,12 +30024,27 @@
         <v>178</v>
       </c>
       <c r="B184" s="11"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="65"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="31"/>
-      <c r="H184" s="70"/>
-      <c r="I184" s="13"/>
+      <c r="C184" s="28" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D184" s="65" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G184" s="31">
+        <v>42325</v>
+      </c>
+      <c r="H184" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I184" s="13" t="s">
+        <v>1919</v>
+      </c>
       <c r="J184" s="14"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -29977,95 +30075,65 @@
       <c r="I186" s="13"/>
       <c r="J186" s="14"/>
     </row>
-    <row r="187" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="B187" s="16"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="17"/>
-      <c r="F187" s="17"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="71"/>
-      <c r="I187" s="17"/>
-      <c r="J187" s="19"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="65"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="31"/>
+      <c r="H187" s="70"/>
+      <c r="I187" s="13"/>
+      <c r="J187" s="14"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="B188" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="C188" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D188" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E188" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F188" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G188" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H188" s="70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I188" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="B188" s="11"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="65"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="70"/>
+      <c r="I188" s="13"/>
       <c r="J188" s="14"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="B189" s="11"/>
-      <c r="C189" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="D189" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E189" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="F189" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G189" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H189" s="70" t="s">
-        <v>1463</v>
-      </c>
-      <c r="I189" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J189" s="14"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="71"/>
+      <c r="I189" s="17"/>
+      <c r="J189" s="19"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="B190" s="11"/>
+      <c r="B190" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C190" s="28" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F190" s="55" t="s">
         <v>684</v>
@@ -30074,7 +30142,7 @@
         <v>42266</v>
       </c>
       <c r="H190" s="70" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="I190" s="13" t="s">
         <v>431</v>
@@ -30088,13 +30156,13 @@
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="28" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F191" s="55" t="s">
         <v>684</v>
@@ -30117,13 +30185,13 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="28" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F192" s="55" t="s">
         <v>684</v>
@@ -30146,13 +30214,13 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="28" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F193" s="55" t="s">
         <v>684</v>
@@ -30175,19 +30243,19 @@
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="28" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D194" s="55" t="s">
-        <v>1555</v>
+        <v>768</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F194" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="F194" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G194" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H194" s="70" t="s">
         <v>1463</v>
@@ -30204,19 +30272,19 @@
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="28" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D195" s="55" t="s">
-        <v>1556</v>
+        <v>769</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F195" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F195" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G195" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H195" s="70" t="s">
         <v>1463</v>
@@ -30233,13 +30301,13 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="28" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D196" s="55" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>684</v>
@@ -30262,13 +30330,13 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="28" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D197" s="55" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>684</v>
@@ -30291,13 +30359,13 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="28" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="D198" s="55" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>684</v>
@@ -30320,13 +30388,13 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="28" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D199" s="55" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>684</v>
@@ -30349,13 +30417,13 @@
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="28" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D200" s="55" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="F200" s="12" t="s">
         <v>684</v>
@@ -30378,13 +30446,13 @@
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="28" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D201" s="55" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>684</v>
@@ -30406,13 +30474,27 @@
         <v>196</v>
       </c>
       <c r="B202" s="11"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="31"/>
-      <c r="H202" s="69"/>
-      <c r="I202" s="12"/>
+      <c r="C202" s="28" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D202" s="55" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G202" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H202" s="70" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I202" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J202" s="14"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -30421,13 +30503,27 @@
         <v>197</v>
       </c>
       <c r="B203" s="11"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="12"/>
-      <c r="F203" s="12"/>
-      <c r="G203" s="31"/>
-      <c r="H203" s="69"/>
-      <c r="I203" s="12"/>
+      <c r="C203" s="28" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D203" s="55" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G203" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H203" s="70" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I203" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J203" s="14"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -30440,7 +30536,7 @@
       <c r="D204" s="12"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
-      <c r="G204" s="12"/>
+      <c r="G204" s="31"/>
       <c r="H204" s="69"/>
       <c r="I204" s="12"/>
       <c r="J204" s="14"/>
@@ -30455,7 +30551,7 @@
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
-      <c r="G205" s="12"/>
+      <c r="G205" s="31"/>
       <c r="H205" s="69"/>
       <c r="I205" s="12"/>
       <c r="J205" s="14"/>
@@ -30490,95 +30586,67 @@
       <c r="I207" s="12"/>
       <c r="J207" s="14"/>
     </row>
-    <row r="208" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="B208" s="16"/>
-      <c r="C208" s="23"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="17"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="71"/>
-      <c r="I208" s="17"/>
-      <c r="J208" s="19"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="69"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="14"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="B209" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C209" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D209" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="E209" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="F209" s="12" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G209" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H209" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I209" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="B209" s="11"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="69"/>
+      <c r="I209" s="12"/>
       <c r="J209" s="14"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="B210" s="11"/>
-      <c r="C210" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D210" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="E210" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="F210" s="12" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G210" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H210" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I210" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J210" s="14"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="23"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="17"/>
+      <c r="G210" s="17"/>
+      <c r="H210" s="71"/>
+      <c r="I210" s="17"/>
+      <c r="J210" s="19"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="B211" s="11"/>
+      <c r="B211" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C211" s="28" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>788</v>
+        <v>841</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F211" s="12" t="s">
         <v>1347</v>
@@ -30596,18 +30664,18 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
-        <f t="shared" ref="A212:A289" si="3">ROW($A212)-6</f>
+        <f t="shared" si="2"/>
         <v>206</v>
       </c>
       <c r="B212" s="11"/>
       <c r="C212" s="28" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F212" s="12" t="s">
         <v>1347</v>
@@ -30625,18 +30693,18 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="28" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F213" s="12" t="s">
         <v>1347</v>
@@ -30654,18 +30722,18 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A214:A291" si="3">ROW($A214)-6</f>
         <v>208</v>
       </c>
       <c r="B214" s="11"/>
       <c r="C214" s="28" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>842</v>
+        <v>789</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>1347</v>
@@ -30688,13 +30756,13 @@
       </c>
       <c r="B215" s="11"/>
       <c r="C215" s="28" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F215" s="12" t="s">
         <v>1347</v>
@@ -30717,13 +30785,13 @@
       </c>
       <c r="B216" s="11"/>
       <c r="C216" s="28" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F216" s="12" t="s">
         <v>1347</v>
@@ -30746,13 +30814,13 @@
       </c>
       <c r="B217" s="11"/>
       <c r="C217" s="28" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F217" s="12" t="s">
         <v>1347</v>
@@ -30775,13 +30843,13 @@
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="28" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F218" s="12" t="s">
         <v>1347</v>
@@ -30804,13 +30872,13 @@
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="28" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F219" s="12" t="s">
         <v>1347</v>
@@ -30833,13 +30901,13 @@
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="28" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>1347</v>
@@ -30862,13 +30930,13 @@
       </c>
       <c r="B221" s="11"/>
       <c r="C221" s="28" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F221" s="12" t="s">
         <v>1347</v>
@@ -30891,13 +30959,13 @@
       </c>
       <c r="B222" s="11"/>
       <c r="C222" s="28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>1347</v>
@@ -30920,13 +30988,13 @@
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="28" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>1347</v>
@@ -30948,13 +31016,27 @@
         <v>218</v>
       </c>
       <c r="B224" s="11"/>
-      <c r="C224" s="28"/>
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="12"/>
-      <c r="G224" s="31"/>
-      <c r="H224" s="70"/>
-      <c r="I224" s="13"/>
+      <c r="C224" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="F224" s="12" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G224" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H224" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I224" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J224" s="14"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -30964,25 +31046,25 @@
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D225" s="55" t="s">
-        <v>858</v>
+        <v>857</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>840</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>772</v>
+        <v>830</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>1521</v>
+        <v>1347</v>
       </c>
       <c r="G225" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H225" s="74" t="s">
-        <v>1523</v>
+        <v>42265</v>
+      </c>
+      <c r="H225" s="70" t="s">
+        <v>1344</v>
       </c>
       <c r="I225" s="13" t="s">
-        <v>1522</v>
+        <v>815</v>
       </c>
       <c r="J225" s="14"/>
     </row>
@@ -30992,27 +31074,13 @@
         <v>220</v>
       </c>
       <c r="B226" s="11"/>
-      <c r="C226" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="D226" s="55" t="s">
-        <v>859</v>
-      </c>
-      <c r="E226" s="12" t="s">
-        <v>773</v>
-      </c>
-      <c r="F226" s="12" t="s">
-        <v>1521</v>
-      </c>
-      <c r="G226" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H226" s="74" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I226" s="13" t="s">
-        <v>1522</v>
-      </c>
+      <c r="C226" s="28"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="31"/>
+      <c r="H226" s="70"/>
+      <c r="I226" s="13"/>
       <c r="J226" s="14"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -31022,13 +31090,13 @@
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="28" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D227" s="55" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>1521</v>
@@ -31051,13 +31119,13 @@
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="28" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D228" s="55" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F228" s="12" t="s">
         <v>1521</v>
@@ -31080,13 +31148,13 @@
       </c>
       <c r="B229" s="11"/>
       <c r="C229" s="28" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D229" s="55" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>1521</v>
@@ -31109,25 +31177,25 @@
       </c>
       <c r="B230" s="11"/>
       <c r="C230" s="28" t="s">
-        <v>1921</v>
+        <v>782</v>
       </c>
       <c r="D230" s="55" t="s">
-        <v>1922</v>
+        <v>861</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>1923</v>
+        <v>775</v>
       </c>
       <c r="F230" s="12" t="s">
         <v>1521</v>
       </c>
       <c r="G230" s="31">
-        <v>42327</v>
+        <v>42268</v>
       </c>
       <c r="H230" s="74" t="s">
-        <v>1812</v>
+        <v>1523</v>
       </c>
       <c r="I230" s="13" t="s">
-        <v>1836</v>
+        <v>1522</v>
       </c>
       <c r="J230" s="14"/>
     </row>
@@ -31137,13 +31205,27 @@
         <v>225</v>
       </c>
       <c r="B231" s="11"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="55"/>
-      <c r="E231" s="12"/>
-      <c r="F231" s="12"/>
-      <c r="G231" s="31"/>
-      <c r="H231" s="70"/>
-      <c r="I231" s="13"/>
+      <c r="C231" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="D231" s="55" t="s">
+        <v>862</v>
+      </c>
+      <c r="E231" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="F231" s="12" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G231" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H231" s="74" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I231" s="13" t="s">
+        <v>1522</v>
+      </c>
       <c r="J231" s="14"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -31152,24 +31234,26 @@
         <v>226</v>
       </c>
       <c r="B232" s="11"/>
-      <c r="C232" s="28"/>
+      <c r="C232" s="28" t="s">
+        <v>1921</v>
+      </c>
       <c r="D232" s="55" t="s">
-        <v>1349</v>
+        <v>1922</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>777</v>
+        <v>1923</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>1348</v>
+        <v>1521</v>
       </c>
       <c r="G232" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H232" s="70" t="s">
-        <v>1344</v>
+        <v>42327</v>
+      </c>
+      <c r="H232" s="74" t="s">
+        <v>1812</v>
       </c>
       <c r="I232" s="13" t="s">
-        <v>815</v>
+        <v>1836</v>
       </c>
       <c r="J232" s="14"/>
     </row>
@@ -31179,27 +31263,13 @@
         <v>227</v>
       </c>
       <c r="B233" s="11"/>
-      <c r="C233" s="28" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D233" s="55" t="s">
-        <v>1460</v>
-      </c>
-      <c r="E233" s="55" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F233" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G233" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H233" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I233" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C233" s="28"/>
+      <c r="D233" s="55"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="31"/>
+      <c r="H233" s="70"/>
+      <c r="I233" s="13"/>
       <c r="J233" s="14"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -31208,26 +31278,24 @@
         <v>228</v>
       </c>
       <c r="B234" s="11"/>
-      <c r="C234" s="28" t="s">
-        <v>1458</v>
-      </c>
+      <c r="C234" s="28"/>
       <c r="D234" s="55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E234" s="55" t="s">
-        <v>1455</v>
+        <v>1349</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F234" s="12" t="s">
         <v>1348</v>
       </c>
       <c r="G234" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H234" s="70" t="s">
-        <v>235</v>
+        <v>1344</v>
       </c>
       <c r="I234" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J234" s="14"/>
     </row>
@@ -31238,13 +31306,13 @@
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="28" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D235" s="55" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="E235" s="55" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="F235" s="12" t="s">
         <v>1348</v>
@@ -31267,22 +31335,22 @@
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="28" t="s">
-        <v>1597</v>
+        <v>1458</v>
       </c>
       <c r="D236" s="55" t="s">
-        <v>1598</v>
+        <v>1461</v>
       </c>
       <c r="E236" s="55" t="s">
-        <v>1596</v>
+        <v>1455</v>
       </c>
       <c r="F236" s="12" t="s">
         <v>1348</v>
       </c>
       <c r="G236" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H236" s="70" t="s">
-        <v>1612</v>
+        <v>235</v>
       </c>
       <c r="I236" s="13" t="s">
         <v>431</v>
@@ -31296,22 +31364,22 @@
       </c>
       <c r="B237" s="11"/>
       <c r="C237" s="28" t="s">
-        <v>1613</v>
+        <v>1459</v>
       </c>
       <c r="D237" s="55" t="s">
-        <v>1639</v>
+        <v>1462</v>
       </c>
       <c r="E237" s="55" t="s">
-        <v>1640</v>
+        <v>1456</v>
       </c>
       <c r="F237" s="12" t="s">
         <v>1348</v>
       </c>
       <c r="G237" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H237" s="70" t="s">
-        <v>1612</v>
+        <v>235</v>
       </c>
       <c r="I237" s="13" t="s">
         <v>431</v>
@@ -31325,13 +31393,13 @@
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="28" t="s">
-        <v>1614</v>
+        <v>1597</v>
       </c>
       <c r="D238" s="55" t="s">
-        <v>1618</v>
+        <v>1598</v>
       </c>
       <c r="E238" s="55" t="s">
-        <v>1625</v>
+        <v>1596</v>
       </c>
       <c r="F238" s="12" t="s">
         <v>1348</v>
@@ -31354,13 +31422,13 @@
       </c>
       <c r="B239" s="11"/>
       <c r="C239" s="28" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D239" s="55" t="s">
-        <v>1619</v>
+        <v>1639</v>
       </c>
       <c r="E239" s="55" t="s">
-        <v>1626</v>
+        <v>1640</v>
       </c>
       <c r="F239" s="12" t="s">
         <v>1348</v>
@@ -31383,13 +31451,13 @@
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="28" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D240" s="55" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E240" s="55" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="F240" s="12" t="s">
         <v>1348</v>
@@ -31412,13 +31480,13 @@
       </c>
       <c r="B241" s="11"/>
       <c r="C241" s="28" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D241" s="55" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E241" s="55" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="F241" s="12" t="s">
         <v>1348</v>
@@ -31441,13 +31509,13 @@
       </c>
       <c r="B242" s="11"/>
       <c r="C242" s="28" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="D242" s="55" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="E242" s="55" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="F242" s="12" t="s">
         <v>1348</v>
@@ -31470,13 +31538,13 @@
       </c>
       <c r="B243" s="11"/>
       <c r="C243" s="28" t="s">
-        <v>1641</v>
+        <v>1617</v>
       </c>
       <c r="D243" s="55" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E243" s="55" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="F243" s="12" t="s">
         <v>1348</v>
@@ -31499,22 +31567,22 @@
       </c>
       <c r="B244" s="11"/>
       <c r="C244" s="28" t="s">
-        <v>1699</v>
+        <v>1624</v>
       </c>
       <c r="D244" s="55" t="s">
-        <v>1702</v>
+        <v>1622</v>
       </c>
       <c r="E244" s="55" t="s">
-        <v>1696</v>
+        <v>1629</v>
       </c>
       <c r="F244" s="12" t="s">
         <v>1348</v>
       </c>
       <c r="G244" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H244" s="70" t="s">
-        <v>235</v>
+        <v>1612</v>
       </c>
       <c r="I244" s="13" t="s">
         <v>431</v>
@@ -31528,22 +31596,22 @@
       </c>
       <c r="B245" s="11"/>
       <c r="C245" s="28" t="s">
-        <v>1700</v>
+        <v>1641</v>
       </c>
       <c r="D245" s="55" t="s">
-        <v>1703</v>
+        <v>1623</v>
       </c>
       <c r="E245" s="55" t="s">
-        <v>1697</v>
+        <v>1630</v>
       </c>
       <c r="F245" s="12" t="s">
         <v>1348</v>
       </c>
       <c r="G245" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H245" s="70" t="s">
-        <v>235</v>
+        <v>1612</v>
       </c>
       <c r="I245" s="13" t="s">
         <v>431</v>
@@ -31557,13 +31625,13 @@
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="28" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D246" s="55" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="E246" s="55" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="F246" s="12" t="s">
         <v>1348</v>
@@ -31586,19 +31654,19 @@
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="28" t="s">
-        <v>1754</v>
+        <v>1700</v>
       </c>
       <c r="D247" s="55" t="s">
-        <v>1750</v>
+        <v>1703</v>
       </c>
       <c r="E247" s="55" t="s">
-        <v>1746</v>
+        <v>1697</v>
       </c>
       <c r="F247" s="12" t="s">
         <v>1348</v>
       </c>
       <c r="G247" s="31">
-        <v>42297</v>
+        <v>42293</v>
       </c>
       <c r="H247" s="70" t="s">
         <v>235</v>
@@ -31615,19 +31683,19 @@
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="28" t="s">
-        <v>1755</v>
+        <v>1701</v>
       </c>
       <c r="D248" s="55" t="s">
-        <v>1751</v>
+        <v>1704</v>
       </c>
       <c r="E248" s="55" t="s">
-        <v>1747</v>
+        <v>1698</v>
       </c>
       <c r="F248" s="12" t="s">
         <v>1348</v>
       </c>
       <c r="G248" s="31">
-        <v>42297</v>
+        <v>42293</v>
       </c>
       <c r="H248" s="70" t="s">
         <v>235</v>
@@ -31644,13 +31712,13 @@
       </c>
       <c r="B249" s="11"/>
       <c r="C249" s="28" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="D249" s="55" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="E249" s="55" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="F249" s="12" t="s">
         <v>1348</v>
@@ -31673,13 +31741,13 @@
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="28" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="D250" s="55" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="E250" s="55" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="F250" s="12" t="s">
         <v>1348</v>
@@ -31702,22 +31770,22 @@
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="28" t="s">
-        <v>1828</v>
+        <v>1756</v>
       </c>
       <c r="D251" s="55" t="s">
-        <v>1819</v>
+        <v>1752</v>
       </c>
       <c r="E251" s="55" t="s">
-        <v>1826</v>
+        <v>1748</v>
       </c>
       <c r="F251" s="12" t="s">
         <v>1348</v>
       </c>
       <c r="G251" s="31">
-        <v>42318</v>
+        <v>42297</v>
       </c>
       <c r="H251" s="70" t="s">
-        <v>1827</v>
+        <v>235</v>
       </c>
       <c r="I251" s="13" t="s">
         <v>431</v>
@@ -31731,25 +31799,25 @@
       </c>
       <c r="B252" s="11"/>
       <c r="C252" s="28" t="s">
-        <v>1829</v>
+        <v>1757</v>
       </c>
       <c r="D252" s="55" t="s">
-        <v>1820</v>
+        <v>1753</v>
       </c>
       <c r="E252" s="55" t="s">
-        <v>1823</v>
+        <v>1749</v>
       </c>
       <c r="F252" s="12" t="s">
         <v>1348</v>
       </c>
       <c r="G252" s="31">
-        <v>42318</v>
+        <v>42297</v>
       </c>
       <c r="H252" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I252" s="13" t="s">
-        <v>1836</v>
+        <v>431</v>
       </c>
       <c r="J252" s="14"/>
     </row>
@@ -31760,13 +31828,13 @@
       </c>
       <c r="B253" s="11"/>
       <c r="C253" s="28" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="D253" s="55" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E253" s="55" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="F253" s="12" t="s">
         <v>1348</v>
@@ -31775,10 +31843,10 @@
         <v>42318</v>
       </c>
       <c r="H253" s="70" t="s">
-        <v>235</v>
+        <v>1827</v>
       </c>
       <c r="I253" s="13" t="s">
-        <v>1836</v>
+        <v>431</v>
       </c>
       <c r="J253" s="14"/>
     </row>
@@ -31789,13 +31857,13 @@
       </c>
       <c r="B254" s="11"/>
       <c r="C254" s="28" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D254" s="55" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="E254" s="55" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="F254" s="12" t="s">
         <v>1348</v>
@@ -31818,19 +31886,19 @@
       </c>
       <c r="B255" s="11"/>
       <c r="C255" s="28" t="s">
-        <v>1888</v>
+        <v>1830</v>
       </c>
       <c r="D255" s="55" t="s">
-        <v>1889</v>
+        <v>1821</v>
       </c>
       <c r="E255" s="55" t="s">
-        <v>1890</v>
+        <v>1824</v>
       </c>
       <c r="F255" s="12" t="s">
         <v>1348</v>
       </c>
       <c r="G255" s="31">
-        <v>42319</v>
+        <v>42318</v>
       </c>
       <c r="H255" s="70" t="s">
         <v>235</v>
@@ -31846,13 +31914,27 @@
         <v>250</v>
       </c>
       <c r="B256" s="11"/>
-      <c r="C256" s="28"/>
-      <c r="D256" s="55"/>
-      <c r="E256" s="55"/>
-      <c r="F256" s="12"/>
-      <c r="G256" s="31"/>
-      <c r="H256" s="70"/>
-      <c r="I256" s="13"/>
+      <c r="C256" s="28" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D256" s="55" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E256" s="55" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G256" s="31">
+        <v>42318</v>
+      </c>
+      <c r="H256" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I256" s="13" t="s">
+        <v>1836</v>
+      </c>
       <c r="J256" s="14"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -31861,13 +31943,27 @@
         <v>251</v>
       </c>
       <c r="B257" s="11"/>
-      <c r="C257" s="28"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="55"/>
-      <c r="F257" s="12"/>
-      <c r="G257" s="12"/>
-      <c r="H257" s="70"/>
-      <c r="I257" s="13"/>
+      <c r="C257" s="28" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D257" s="55" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E257" s="55" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G257" s="31">
+        <v>42319</v>
+      </c>
+      <c r="H257" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I257" s="13" t="s">
+        <v>1836</v>
+      </c>
       <c r="J257" s="14"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -31877,10 +31973,10 @@
       </c>
       <c r="B258" s="11"/>
       <c r="C258" s="28"/>
-      <c r="D258" s="12"/>
+      <c r="D258" s="55"/>
       <c r="E258" s="55"/>
       <c r="F258" s="12"/>
-      <c r="G258" s="12"/>
+      <c r="G258" s="31"/>
       <c r="H258" s="70"/>
       <c r="I258" s="13"/>
       <c r="J258" s="14"/>
@@ -31906,27 +32002,13 @@
         <v>254</v>
       </c>
       <c r="B260" s="11"/>
-      <c r="C260" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="E260" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="F260" s="12" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G260" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H260" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I260" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C260" s="28"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="55"/>
+      <c r="F260" s="12"/>
+      <c r="G260" s="12"/>
+      <c r="H260" s="70"/>
+      <c r="I260" s="13"/>
       <c r="J260" s="14"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -31935,27 +32017,13 @@
         <v>255</v>
       </c>
       <c r="B261" s="11"/>
-      <c r="C261" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="D261" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E261" s="12" t="s">
-        <v>869</v>
-      </c>
-      <c r="F261" s="12" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G261" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H261" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I261" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C261" s="28"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="55"/>
+      <c r="F261" s="12"/>
+      <c r="G261" s="12"/>
+      <c r="H261" s="70"/>
+      <c r="I261" s="13"/>
       <c r="J261" s="14"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -31965,13 +32033,13 @@
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="28" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>566</v>
+        <v>885</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F262" s="12" t="s">
         <v>1343</v>
@@ -31994,13 +32062,13 @@
       </c>
       <c r="B263" s="11"/>
       <c r="C263" s="28" t="s">
-        <v>895</v>
-      </c>
-      <c r="D263" s="55" t="s">
-        <v>501</v>
+        <v>893</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>547</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F263" s="12" t="s">
         <v>1343</v>
@@ -32023,13 +32091,13 @@
       </c>
       <c r="B264" s="11"/>
       <c r="C264" s="28" t="s">
-        <v>896</v>
-      </c>
-      <c r="D264" s="55" t="s">
-        <v>886</v>
+        <v>894</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F264" s="12" t="s">
         <v>1343</v>
@@ -32052,13 +32120,13 @@
       </c>
       <c r="B265" s="11"/>
       <c r="C265" s="28" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D265" s="55" t="s">
-        <v>32</v>
+        <v>501</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F265" s="12" t="s">
         <v>1343</v>
@@ -32081,13 +32149,13 @@
       </c>
       <c r="B266" s="11"/>
       <c r="C266" s="28" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D266" s="55" t="s">
-        <v>465</v>
+        <v>886</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F266" s="12" t="s">
         <v>1343</v>
@@ -32110,13 +32178,13 @@
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="28" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D267" s="55" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F267" s="12" t="s">
         <v>1343</v>
@@ -32139,13 +32207,13 @@
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="28" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D268" s="55" t="s">
-        <v>887</v>
+        <v>465</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F268" s="12" t="s">
         <v>1343</v>
@@ -32168,13 +32236,13 @@
       </c>
       <c r="B269" s="11"/>
       <c r="C269" s="28" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D269" s="55" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F269" s="12" t="s">
         <v>1343</v>
@@ -32197,13 +32265,13 @@
       </c>
       <c r="B270" s="11"/>
       <c r="C270" s="28" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D270" s="55" t="s">
-        <v>571</v>
+        <v>887</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F270" s="12" t="s">
         <v>1343</v>
@@ -32226,13 +32294,13 @@
       </c>
       <c r="B271" s="11"/>
       <c r="C271" s="28" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D271" s="55" t="s">
-        <v>888</v>
+        <v>38</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F271" s="12" t="s">
         <v>1343</v>
@@ -32255,13 +32323,13 @@
       </c>
       <c r="B272" s="11"/>
       <c r="C272" s="28" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D272" s="55" t="s">
-        <v>889</v>
+        <v>571</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F272" s="12" t="s">
         <v>1343</v>
@@ -32284,13 +32352,13 @@
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="28" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D273" s="55" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F273" s="12" t="s">
         <v>1343</v>
@@ -32313,13 +32381,13 @@
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="28" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D274" s="55" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F274" s="12" t="s">
         <v>1343</v>
@@ -32342,13 +32410,13 @@
       </c>
       <c r="B275" s="11"/>
       <c r="C275" s="28" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D275" s="55" t="s">
-        <v>617</v>
+        <v>890</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F275" s="12" t="s">
         <v>1343</v>
@@ -32371,13 +32439,13 @@
       </c>
       <c r="B276" s="11"/>
       <c r="C276" s="28" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D276" s="55" t="s">
-        <v>20</v>
+        <v>891</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F276" s="12" t="s">
         <v>1343</v>
@@ -32399,13 +32467,27 @@
         <v>271</v>
       </c>
       <c r="B277" s="11"/>
-      <c r="C277" s="28"/>
-      <c r="D277" s="12"/>
-      <c r="E277" s="12"/>
-      <c r="F277" s="12"/>
-      <c r="G277" s="12"/>
-      <c r="H277" s="70"/>
-      <c r="I277" s="13"/>
+      <c r="C277" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D277" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F277" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G277" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H277" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I277" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J277" s="14"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -32414,16 +32496,30 @@
         <v>272</v>
       </c>
       <c r="B278" s="11"/>
-      <c r="C278" s="28"/>
-      <c r="D278" s="12"/>
-      <c r="E278" s="12"/>
-      <c r="F278" s="12"/>
-      <c r="G278" s="12"/>
-      <c r="H278" s="70"/>
-      <c r="I278" s="13"/>
+      <c r="C278" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D278" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F278" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G278" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H278" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I278" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J278" s="14"/>
     </row>
-    <row r="279" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" si="3"/>
         <v>273</v>
@@ -32443,40 +32539,24 @@
         <f t="shared" si="3"/>
         <v>274</v>
       </c>
-      <c r="B280" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C280" s="27" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D280" s="7" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E280" s="8" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F280" s="8" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G280" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H280" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I280" s="9" t="s">
-        <v>1354</v>
-      </c>
-      <c r="J280" s="10"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="28"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
+      <c r="F280" s="12"/>
+      <c r="G280" s="12"/>
+      <c r="H280" s="70"/>
+      <c r="I280" s="13"/>
+      <c r="J280" s="14"/>
     </row>
     <row r="281" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281">
-        <f>ROW($A281)-6</f>
+        <f t="shared" si="3"/>
         <v>275</v>
       </c>
       <c r="B281" s="11"/>
       <c r="C281" s="28"/>
-      <c r="D281" s="11"/>
+      <c r="D281" s="12"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
@@ -32486,97 +32566,113 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282">
-        <f t="shared" ref="A282:A284" si="4">ROW($A282)-6</f>
+        <f t="shared" si="3"/>
         <v>276</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>1804</v>
+        <v>319</v>
       </c>
       <c r="C282" s="27" t="s">
-        <v>1805</v>
+        <v>1355</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>1807</v>
+        <v>1351</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>1810</v>
+        <v>1352</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>1811</v>
+        <v>1353</v>
       </c>
       <c r="G282" s="30">
-        <v>42313</v>
+        <v>42256</v>
       </c>
       <c r="H282" s="112" t="s">
-        <v>1812</v>
+        <v>235</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>497</v>
+        <v>1354</v>
       </c>
       <c r="J282" s="10"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283">
-        <f t="shared" si="4"/>
+        <f>ROW($A283)-6</f>
         <v>277</v>
       </c>
       <c r="B283" s="11"/>
-      <c r="C283" s="28" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D283" s="11" t="s">
-        <v>1808</v>
-      </c>
-      <c r="E283" s="12" t="s">
-        <v>1809</v>
-      </c>
-      <c r="F283" s="55" t="s">
-        <v>1811</v>
-      </c>
-      <c r="G283" s="31">
-        <v>42313</v>
-      </c>
-      <c r="H283" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I283" s="13" t="s">
-        <v>1813</v>
-      </c>
+      <c r="C283" s="28"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="12"/>
+      <c r="F283" s="12"/>
+      <c r="G283" s="12"/>
+      <c r="H283" s="70"/>
+      <c r="I283" s="13"/>
       <c r="J283" s="14"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
-        <f t="shared" si="4"/>
+        <f>ROW($A284)-6</f>
         <v>278</v>
       </c>
-      <c r="B284" s="11"/>
-      <c r="C284" s="28"/>
-      <c r="D284" s="11"/>
-      <c r="E284" s="12"/>
-      <c r="F284" s="12"/>
-      <c r="G284" s="12"/>
-      <c r="H284" s="70"/>
-      <c r="I284" s="13"/>
-      <c r="J284" s="14"/>
+      <c r="B284" s="7" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C284" s="27" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E284" s="8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F284" s="8" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G284" s="30">
+        <v>42313</v>
+      </c>
+      <c r="H284" s="112" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I284" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J284" s="10"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
-        <f t="shared" si="3"/>
+        <f>ROW($A285)-6</f>
         <v>279</v>
       </c>
       <c r="B285" s="11"/>
-      <c r="C285" s="28"/>
-      <c r="D285" s="11"/>
-      <c r="E285" s="12"/>
-      <c r="F285" s="12"/>
-      <c r="G285" s="12"/>
-      <c r="H285" s="70"/>
-      <c r="I285" s="13"/>
+      <c r="C285" s="28" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D285" s="11" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E285" s="12" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F285" s="55" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G285" s="31">
+        <v>42313</v>
+      </c>
+      <c r="H285" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I285" s="13" t="s">
+        <v>1813</v>
+      </c>
       <c r="J285" s="14"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
-        <f t="shared" si="3"/>
+        <f>ROW($A286)-6</f>
         <v>280</v>
       </c>
       <c r="B286" s="11"/>
@@ -32585,24 +32681,24 @@
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
-      <c r="H286" s="69"/>
-      <c r="I286" s="12"/>
+      <c r="H286" s="70"/>
+      <c r="I286" s="13"/>
       <c r="J286" s="14"/>
     </row>
-    <row r="287" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" si="3"/>
         <v>281</v>
       </c>
-      <c r="B287" s="16"/>
-      <c r="C287" s="29"/>
-      <c r="D287" s="16"/>
-      <c r="E287" s="17"/>
-      <c r="F287" s="17"/>
-      <c r="G287" s="17"/>
-      <c r="H287" s="71"/>
-      <c r="I287" s="17"/>
-      <c r="J287" s="19"/>
+      <c r="B287" s="11"/>
+      <c r="C287" s="28"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="12"/>
+      <c r="F287" s="12"/>
+      <c r="G287" s="12"/>
+      <c r="H287" s="70"/>
+      <c r="I287" s="13"/>
+      <c r="J287" s="14"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
@@ -32611,7 +32707,7 @@
       </c>
       <c r="B288" s="11"/>
       <c r="C288" s="28"/>
-      <c r="D288" s="12"/>
+      <c r="D288" s="11"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
@@ -32626,7 +32722,7 @@
       </c>
       <c r="B289" s="16"/>
       <c r="C289" s="29"/>
-      <c r="D289" s="17"/>
+      <c r="D289" s="16"/>
       <c r="E289" s="17"/>
       <c r="F289" s="17"/>
       <c r="G289" s="17"/>
@@ -32635,10 +32731,34 @@
       <c r="J289" s="19"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C290" s="3"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C291" s="3"/>
+      <c r="A290">
+        <f t="shared" si="3"/>
+        <v>284</v>
+      </c>
+      <c r="B290" s="11"/>
+      <c r="C290" s="28"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
+      <c r="F290" s="12"/>
+      <c r="G290" s="12"/>
+      <c r="H290" s="69"/>
+      <c r="I290" s="12"/>
+      <c r="J290" s="14"/>
+    </row>
+    <row r="291" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <f t="shared" si="3"/>
+        <v>285</v>
+      </c>
+      <c r="B291" s="16"/>
+      <c r="C291" s="29"/>
+      <c r="D291" s="17"/>
+      <c r="E291" s="17"/>
+      <c r="F291" s="17"/>
+      <c r="G291" s="17"/>
+      <c r="H291" s="71"/>
+      <c r="I291" s="17"/>
+      <c r="J291" s="19"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C292" s="3"/>
@@ -32646,8 +32766,14 @@
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C293" s="3"/>
     </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:J289">
+  <autoFilter ref="A7:J291">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>
@@ -32687,8 +32813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:D47"/>
+    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -33023,6 +33149,9 @@
       </c>
       <c r="D18" s="3" t="s">
         <v>1111</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1930</v>
       </c>
       <c r="H18" s="77"/>
     </row>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/ms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/cms/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="460" windowWidth="27040" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="5160" yWindow="660" windowWidth="27040" windowHeight="19620" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="1947">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -14333,13 +14333,43 @@
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>弱点</t>
+  </si>
+  <si>
+    <t>策划已给</t>
+  </si>
+  <si>
+    <t>基础动作</t>
+  </si>
+  <si>
+    <t>大招动作</t>
+  </si>
+  <si>
+    <t>换色</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>换色大招</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -14396,7 +14426,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14776,13 +14806,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14867,7 +14897,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14954,13 +14984,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14975,33 +15005,33 @@
     </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="10"/>
     <cellStyle name="常规 4" xfId="11"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -15291,7 +15321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
@@ -32811,10 +32841,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -32823,9 +32853,24 @@
     <col min="2" max="2" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1938</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1938</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1182</v>
       </c>
@@ -32847,8 +32892,23 @@
       <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>1106</v>
       </c>
@@ -32857,7 +32917,7 @@
       </c>
       <c r="H3" s="99"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>1107</v>
       </c>
@@ -32870,8 +32930,17 @@
       <c r="E4" s="3" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>1109</v>
       </c>
@@ -32889,9 +32958,17 @@
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
-      <c r="H5" s="79"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>1112</v>
       </c>
@@ -32914,8 +32991,11 @@
         <v>1111</v>
       </c>
       <c r="H6" s="79"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>1113</v>
       </c>
@@ -32931,9 +33011,11 @@
       <c r="E7" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="H7" s="80"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>1114</v>
       </c>
@@ -32956,8 +33038,14 @@
         <v>1111</v>
       </c>
       <c r="H8" s="80"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
         <v>1116</v>
       </c>
@@ -32980,8 +33068,11 @@
         <v>1111</v>
       </c>
       <c r="H9" s="77"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>1117</v>
       </c>
@@ -33004,8 +33095,14 @@
         <v>1111</v>
       </c>
       <c r="H10" s="77"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>1118</v>
       </c>
@@ -33028,8 +33125,11 @@
         <v>1111</v>
       </c>
       <c r="H11" s="77"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
         <v>1120</v>
       </c>
@@ -33046,8 +33146,11 @@
         <v>1111</v>
       </c>
       <c r="H12" s="77"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="82" t="s">
         <v>1121</v>
       </c>
@@ -33065,7 +33168,7 @@
       </c>
       <c r="H13" s="77"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="82" t="s">
         <v>1122</v>
       </c>
@@ -33074,7 +33177,7 @@
       </c>
       <c r="H14" s="77"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
         <v>1123</v>
       </c>
@@ -33097,8 +33200,11 @@
         <v>1111</v>
       </c>
       <c r="H15" s="77"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="80" t="s">
         <v>1124</v>
       </c>
@@ -33121,8 +33227,11 @@
         <v>1111</v>
       </c>
       <c r="H16" s="77"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="80" t="s">
         <v>1125</v>
       </c>
@@ -33138,9 +33247,11 @@
       <c r="E17" s="3" t="s">
         <v>1930</v>
       </c>
-      <c r="H17" s="77"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>1126</v>
       </c>
@@ -33153,9 +33264,14 @@
       <c r="E18" s="3" t="s">
         <v>1930</v>
       </c>
-      <c r="H18" s="77"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>1127</v>
       </c>
@@ -33178,8 +33294,14 @@
         <v>1111</v>
       </c>
       <c r="H19" s="80"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>1128</v>
       </c>
@@ -33195,9 +33317,11 @@
       <c r="E20" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="H20" s="80"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>1130</v>
       </c>
@@ -33220,8 +33344,11 @@
         <v>1111</v>
       </c>
       <c r="H21" s="100"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>1132</v>
       </c>
@@ -33244,8 +33371,11 @@
         <v>1111</v>
       </c>
       <c r="H22" s="100"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>1133</v>
       </c>
@@ -33268,8 +33398,11 @@
         <v>1111</v>
       </c>
       <c r="H23" s="101"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>1134</v>
       </c>
@@ -33282,9 +33415,11 @@
       <c r="E24" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="H24" s="101"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="80" t="s">
         <v>1135</v>
       </c>
@@ -33299,7 +33434,7 @@
       </c>
       <c r="H25" s="101"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="80" t="s">
         <v>1136</v>
       </c>
@@ -33315,9 +33450,11 @@
       <c r="E26" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="H26" s="101"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="80" t="s">
         <v>1137</v>
       </c>
@@ -33333,9 +33470,11 @@
       <c r="E27" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="H27" s="77"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
         <v>1138</v>
       </c>
@@ -33344,7 +33483,7 @@
       </c>
       <c r="H28" s="77"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="80" t="s">
         <v>1140</v>
       </c>
@@ -33360,9 +33499,11 @@
       <c r="E29" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="H29" s="77"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
         <v>1141</v>
       </c>
@@ -33385,8 +33526,14 @@
         <v>1111</v>
       </c>
       <c r="H30" s="77"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>1142</v>
       </c>
@@ -33410,7 +33557,7 @@
       </c>
       <c r="H31" s="77"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="82" t="s">
         <v>1143</v>
       </c>
@@ -33450,7 +33597,9 @@
       <c r="E33" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="H33" s="101"/>
+      <c r="H33" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="82" t="s">
@@ -33477,7 +33626,9 @@
       <c r="E35" s="3" t="s">
         <v>1930</v>
       </c>
-      <c r="H35" s="86"/>
+      <c r="H35" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
@@ -33504,7 +33655,9 @@
       <c r="E37" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="H37" s="102"/>
+      <c r="H37" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="84" t="s">

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/cms/ms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="660" windowWidth="27040" windowHeight="19620" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="32580" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="1947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="2030">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -13546,10 +13546,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fubenxuanze_baoxiang._dakai.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>主界面11</t>
     <rPh sb="0" eb="1">
       <t>zhu'jie'mian</t>
@@ -14311,57 +14307,841 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>阵容选择技能tips</t>
+    <t>阵容选择4</t>
     <rPh sb="0" eb="1">
       <t>zhen'rong</t>
     </rPh>
     <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点</t>
+  </si>
+  <si>
+    <t>策划已给</t>
+  </si>
+  <si>
+    <t>基础动作</t>
+  </si>
+  <si>
+    <t>大招动作</t>
+  </si>
+  <si>
+    <t>换色</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>换色大招</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>2015年11月25日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择5</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择_技能tips</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>xuan'z</t>
     </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'neng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择6</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择_开战按钮</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'zhan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择_开战按钮外框</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'zhan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wai'kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenrong_anniu.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenrong_anniuwaikuang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改名</t>
+    <rPh sb="0" eb="1">
+      <t>gai'ming</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔1</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新样式，修改透明度</t>
+    <rPh sb="0" eb="1">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yang'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tou'ming'du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_nandubeikuang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_boss.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_cleared.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_flag.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_lock.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_neiye2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_neiye_waifaguang2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_ready.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_waiban2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_waiban2_fangkuai.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_waiban2_suolian.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_waiban2_waikuang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_nanduban.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_nanduci.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_nandukulou1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_nandukulou2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_nandukulou3.png</t>
+  </si>
+  <si>
+    <t>tongtianta_neiye.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_neiye_waifaguang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_tengman1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_tengman2.png</t>
+  </si>
+  <si>
+    <t>tongtianta_waiban.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_waiban_fangkuai.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_难度板</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
     <rPh sb="4" eb="5">
-      <t>ji'neng</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵容选择4</t>
-    <rPh sb="0" eb="1">
+      <t>nan'du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban'zi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_难度刺</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nan'du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_难度骷髅1</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nan'du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ku'lou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_难度骷髅2</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nan'du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ku'lou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_难度骷髅3</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nan'du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ku'lou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_难度背框</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nan'du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔2</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔3</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔4</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔5</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔6</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔7</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔8</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔9</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔10</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔11</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔12</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔13</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔14</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔15</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔16</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔17</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔18</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔19</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔20</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔21</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔22</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔23</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fubenxuanze_baoxiang_dakai.png</t>
+  </si>
+  <si>
+    <t>大小和原图不一致，未进客户端</t>
+    <rPh sb="0" eb="1">
+      <t>da'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan'tu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'yi'zh</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ke'hd'uuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源未使用，未进客户端</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei'jin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_boss图标</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_clear图标</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_层数图标</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ceng'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_锁图标</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_boss内页栏</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nei'ye</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_boss内页栏选中</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xuan'zhong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_当前层图标</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_boss外板</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wai'ban'b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ban'zi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_boss外板内框</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wai'ban'b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ban'zi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>nei'kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_boss外板锁链</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wai'ban'b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ban'zi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>suo'lian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_外板角</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wai'ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ban'zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_试炼内页栏</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'lian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_试炼内页栏选中</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'lian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xuan'zhong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_试炼藤蔓1</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>teng'man</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_试炼藤蔓2</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>teng'man</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_试炼外板</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wai'ban</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ban'zi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_试炼外板选中</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wai'ban</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ban'zi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xuan'zhong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：
+阵容选择：增加开战按钮两个资源
+通天塔资源提交
+道具tips更新资源 tips_ditu_1.png
+活力值图标更新（尺寸有问题，待处理）</t>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
       <t>zhen'rong</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="8" eb="9">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点</t>
-  </si>
-  <si>
-    <t>策划已给</t>
-  </si>
-  <si>
-    <t>基础动作</t>
-  </si>
-  <si>
-    <t>大招动作</t>
-  </si>
-  <si>
-    <t>换色</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>换色大招</t>
-  </si>
-  <si>
-    <t>绿</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>红</t>
+    <rPh sb="11" eb="12">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kai'zhan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>liang'g</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>huo'li'zhi</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>tu'b</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>chi'cun</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>you</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>dai'chu'li</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14369,7 +15149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -14426,7 +15206,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14745,7 +15525,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -14806,13 +15586,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14897,7 +15677,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14984,13 +15764,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15003,35 +15783,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="10"/>
     <cellStyle name="常规 4" xfId="11"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -15319,10 +16100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D65"/>
+  <dimension ref="B2:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -15832,7 +16613,7 @@
         <v>1877</v>
       </c>
       <c r="C54" s="98" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D54" s="36" t="s">
         <v>1878</v>
@@ -15840,10 +16621,10 @@
     </row>
     <row r="55" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B55" s="36" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C55" s="98" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D55" s="36" t="s">
         <v>49</v>
@@ -15851,10 +16632,10 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="36" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D56" s="36" t="s">
         <v>49</v>
@@ -15862,10 +16643,10 @@
     </row>
     <row r="57" spans="2:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B57" s="36" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C57" s="98" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>49</v>
@@ -15873,30 +16654,36 @@
     </row>
     <row r="58" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B58" s="36" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C58" s="98" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D58" s="36" t="s">
         <v>1927</v>
-      </c>
-      <c r="C58" s="98" t="s">
-        <v>1929</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C59" s="98" t="s">
         <v>1932</v>
-      </c>
-      <c r="C59" s="98" t="s">
-        <v>1933</v>
       </c>
       <c r="D59" s="36" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
+    <row r="60" spans="2:4" ht="85" x14ac:dyDescent="0.25">
+      <c r="B60" s="36" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C60" s="98" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="36"/>
@@ -15922,6 +16709,56 @@
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
       <c r="D65" s="36"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -25025,13 +25862,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J295"/>
+  <dimension ref="A2:J323"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D122" sqref="D122"/>
+      <selection pane="bottomRight" activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -27432,10 +28269,10 @@
         <v>1498</v>
       </c>
       <c r="D88" s="65" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>1925</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>1926</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>684</v>
@@ -27453,7 +28290,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" ref="A89:A213" si="2">ROW($A89)-6</f>
+        <f t="shared" ref="A89:A241" si="2">ROW($A89)-6</f>
         <v>83</v>
       </c>
       <c r="B89" s="11"/>
@@ -28154,7 +28991,7 @@
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="28" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D113" s="65" t="s">
         <v>1728</v>
@@ -28767,13 +29604,13 @@
         <v>684</v>
       </c>
       <c r="G136" s="31">
-        <v>42286</v>
+        <v>42332</v>
       </c>
       <c r="H136" s="70" t="s">
-        <v>1463</v>
+        <v>1957</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>8</v>
+        <v>1773</v>
       </c>
       <c r="J136" s="14"/>
     </row>
@@ -29382,7 +30219,7 @@
         <v>684</v>
       </c>
       <c r="G159" s="31">
-        <v>42317</v>
+        <v>42333</v>
       </c>
       <c r="H159" s="70" t="s">
         <v>1849</v>
@@ -29390,7 +30227,9 @@
       <c r="I159" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="J159" s="14"/>
+      <c r="J159" s="115" t="s">
+        <v>2010</v>
+      </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -29463,7 +30302,7 @@
         <v>1880</v>
       </c>
       <c r="E162" t="s">
-        <v>1881</v>
+        <v>2009</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>684</v>
@@ -29499,16 +30338,16 @@
         <v>158</v>
       </c>
       <c r="B164" s="11" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C164" s="28" t="s">
         <v>1898</v>
       </c>
-      <c r="C164" s="28" t="s">
-        <v>1899</v>
-      </c>
       <c r="D164" s="65" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E164" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>684</v>
@@ -29520,7 +30359,7 @@
         <v>235</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="J164" s="14"/>
     </row>
@@ -29531,13 +30370,13 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="28" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D165" s="65" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E165" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="F165" s="12" t="s">
         <v>684</v>
@@ -29560,13 +30399,13 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="28" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D166" s="65" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="E166" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>684</v>
@@ -29589,13 +30428,13 @@
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="28" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D167" s="65" t="s">
-        <v>1935</v>
+        <v>1947</v>
       </c>
       <c r="E167" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>684</v>
@@ -29617,43 +30456,61 @@
         <v>162</v>
       </c>
       <c r="B168" s="11"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="65"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="70"/>
-      <c r="I168" s="13"/>
-      <c r="J168" s="14"/>
+      <c r="C168" s="28" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D168" s="65" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G168" s="31">
+        <v>42333</v>
+      </c>
+      <c r="H168" s="70" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I168" s="13" t="s">
+        <v>1954</v>
+      </c>
+      <c r="J168" s="115" t="s">
+        <v>2011</v>
+      </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>1837</v>
-      </c>
+      <c r="B169" s="11"/>
       <c r="C169" s="28" t="s">
-        <v>1856</v>
+        <v>1948</v>
       </c>
       <c r="D169" s="65" t="s">
-        <v>1875</v>
+        <v>1950</v>
       </c>
       <c r="E169" t="s">
-        <v>1838</v>
+        <v>1952</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G169" s="31">
-        <v>42317</v>
+        <v>42333</v>
       </c>
       <c r="H169" s="70" t="s">
-        <v>1839</v>
+        <v>1953</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J169" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="J169" s="115" t="s">
+        <v>2011</v>
+      </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -29661,27 +30518,11 @@
         <v>164</v>
       </c>
       <c r="B170" s="11"/>
-      <c r="C170" s="28" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D170" s="65" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E170" t="s">
-        <v>1876</v>
-      </c>
-      <c r="F170" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G170" s="31">
-        <v>42317</v>
-      </c>
-      <c r="H170" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I170" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C170" s="28"/>
+      <c r="D170" s="65"/>
+      <c r="G170" s="31"/>
+      <c r="H170" s="70"/>
+      <c r="I170" s="13"/>
       <c r="J170" s="14"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -29689,15 +30530,17 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B171" s="11"/>
+      <c r="B171" s="11" t="s">
+        <v>1837</v>
+      </c>
       <c r="C171" s="28" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D171" s="65" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="E171" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="F171" s="12" t="s">
         <v>684</v>
@@ -29706,7 +30549,7 @@
         <v>42317</v>
       </c>
       <c r="H171" s="70" t="s">
-        <v>235</v>
+        <v>1839</v>
       </c>
       <c r="I171" s="13" t="s">
         <v>8</v>
@@ -29720,13 +30563,13 @@
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="28" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="D172" s="65" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="E172" t="s">
-        <v>1841</v>
+        <v>1876</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>684</v>
@@ -29749,13 +30592,13 @@
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="28" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="D173" s="65" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="E173" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="F173" s="12" t="s">
         <v>684</v>
@@ -29778,13 +30621,13 @@
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="28" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="D174" s="65" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="E174" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>684</v>
@@ -29807,13 +30650,13 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="28" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="D175" s="65" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="E175" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="F175" s="12" t="s">
         <v>684</v>
@@ -29836,13 +30679,13 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="28" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="D176" s="65" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="E176" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>684</v>
@@ -29865,13 +30708,13 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="28" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D177" s="65" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="E177" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>684</v>
@@ -29894,13 +30737,13 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="28" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D178" s="65" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="E178" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>684</v>
@@ -29923,19 +30766,19 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="28" t="s">
-        <v>1882</v>
+        <v>1864</v>
       </c>
       <c r="D179" s="65" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
       <c r="E179" t="s">
-        <v>1884</v>
+        <v>1846</v>
       </c>
       <c r="F179" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G179" s="31">
-        <v>42319</v>
+        <v>42317</v>
       </c>
       <c r="H179" s="70" t="s">
         <v>235</v>
@@ -29952,19 +30795,19 @@
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="28" t="s">
-        <v>1886</v>
+        <v>1865</v>
       </c>
       <c r="D180" s="65" t="s">
-        <v>1887</v>
+        <v>1866</v>
       </c>
       <c r="E180" t="s">
-        <v>1885</v>
+        <v>1847</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G180" s="31">
-        <v>42319</v>
+        <v>42317</v>
       </c>
       <c r="H180" s="70" t="s">
         <v>235</v>
@@ -29980,12 +30823,27 @@
         <v>175</v>
       </c>
       <c r="B181" s="11"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="65"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="31"/>
-      <c r="H181" s="70"/>
-      <c r="I181" s="13"/>
+      <c r="C181" s="28" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D181" s="65" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G181" s="31">
+        <v>42319</v>
+      </c>
+      <c r="H181" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I181" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J181" s="14"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -29993,29 +30851,27 @@
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="B182" s="11" t="s">
-        <v>1909</v>
-      </c>
+      <c r="B182" s="11"/>
       <c r="C182" s="28" t="s">
-        <v>1910</v>
+        <v>1885</v>
       </c>
       <c r="D182" s="65" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E182" s="65" t="s">
-        <v>1916</v>
+        <v>1886</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1884</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G182" s="31">
-        <v>42325</v>
+        <v>42319</v>
       </c>
       <c r="H182" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>1919</v>
+        <v>8</v>
       </c>
       <c r="J182" s="14"/>
     </row>
@@ -30025,27 +30881,12 @@
         <v>177</v>
       </c>
       <c r="B183" s="11"/>
-      <c r="C183" s="28" t="s">
-        <v>1911</v>
-      </c>
-      <c r="D183" s="65" t="s">
-        <v>1914</v>
-      </c>
-      <c r="E183" t="s">
-        <v>1918</v>
-      </c>
-      <c r="F183" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G183" s="31">
-        <v>42325</v>
-      </c>
-      <c r="H183" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I183" s="13" t="s">
-        <v>1919</v>
-      </c>
+      <c r="C183" s="28"/>
+      <c r="D183" s="65"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="31"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="13"/>
       <c r="J183" s="14"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -30053,15 +30894,17 @@
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="B184" s="11"/>
+      <c r="B184" s="11" t="s">
+        <v>1908</v>
+      </c>
       <c r="C184" s="28" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D184" s="65" t="s">
         <v>1912</v>
       </c>
-      <c r="D184" s="65" t="s">
+      <c r="E184" s="65" t="s">
         <v>1915</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1917</v>
       </c>
       <c r="F184" s="12" t="s">
         <v>684</v>
@@ -30073,7 +30916,7 @@
         <v>235</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="J184" s="14"/>
     </row>
@@ -30083,12 +30926,27 @@
         <v>179</v>
       </c>
       <c r="B185" s="11"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="65"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="31"/>
-      <c r="H185" s="70"/>
-      <c r="I185" s="13"/>
+      <c r="C185" s="28" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D185" s="65" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G185" s="31">
+        <v>42325</v>
+      </c>
+      <c r="H185" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I185" s="13" t="s">
+        <v>1918</v>
+      </c>
       <c r="J185" s="14"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -30097,12 +30955,27 @@
         <v>180</v>
       </c>
       <c r="B186" s="11"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="65"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="31"/>
-      <c r="H186" s="70"/>
-      <c r="I186" s="13"/>
+      <c r="C186" s="28" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D186" s="65" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G186" s="31">
+        <v>42325</v>
+      </c>
+      <c r="H186" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I186" s="13" t="s">
+        <v>1918</v>
+      </c>
       <c r="J186" s="14"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -30124,58 +30997,87 @@
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="B188" s="11"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="65"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="31"/>
-      <c r="H188" s="70"/>
-      <c r="I188" s="13"/>
+      <c r="B188" s="11" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C188" s="28" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D188" s="65" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G188" s="31">
+        <v>42332</v>
+      </c>
+      <c r="H188" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I188" s="13" t="s">
+        <v>1918</v>
+      </c>
       <c r="J188" s="14"/>
     </row>
-    <row r="189" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="B189" s="16"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="17"/>
-      <c r="F189" s="17"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="71"/>
-      <c r="I189" s="17"/>
-      <c r="J189" s="19"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="28" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D189" s="65" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G189" s="31">
+        <v>42332</v>
+      </c>
+      <c r="H189" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I189" s="13" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J189" s="14"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="B190" s="11" t="s">
-        <v>784</v>
-      </c>
+      <c r="B190" s="11"/>
       <c r="C190" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F190" s="55" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D190" s="65" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F190" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G190" s="31">
-        <v>42266</v>
+        <v>42332</v>
       </c>
       <c r="H190" s="70" t="s">
-        <v>1464</v>
+        <v>235</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J190" s="14"/>
     </row>
@@ -30186,25 +31088,25 @@
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="D191" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E191" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="F191" s="55" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D191" s="65" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F191" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G191" s="31">
-        <v>42266</v>
+        <v>42332</v>
       </c>
       <c r="H191" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J191" s="14"/>
     </row>
@@ -30215,25 +31117,25 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="D192" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F192" s="55" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D192" s="65" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F192" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G192" s="31">
-        <v>42266</v>
+        <v>42332</v>
       </c>
       <c r="H192" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I192" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J192" s="14"/>
     </row>
@@ -30244,25 +31146,25 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="E193" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F193" s="55" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D193" s="65" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F193" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G193" s="31">
-        <v>42266</v>
+        <v>42332</v>
       </c>
       <c r="H193" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J193" s="14"/>
     </row>
@@ -30273,25 +31175,25 @@
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="D194" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="E194" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="F194" s="55" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D194" s="65" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F194" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G194" s="31">
-        <v>42266</v>
+        <v>42332</v>
       </c>
       <c r="H194" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I194" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J194" s="14"/>
     </row>
@@ -30302,25 +31204,25 @@
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="28" t="s">
-        <v>769</v>
-      </c>
-      <c r="D195" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="E195" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="F195" s="55" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D195" s="65" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F195" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G195" s="31">
-        <v>42266</v>
+        <v>42332</v>
       </c>
       <c r="H195" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I195" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J195" s="14"/>
     </row>
@@ -30331,25 +31233,25 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="28" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D196" s="55" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E196" s="12" t="s">
-        <v>1530</v>
+        <v>1994</v>
+      </c>
+      <c r="D196" s="65" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1967</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G196" s="31">
-        <v>42270</v>
+        <v>42332</v>
       </c>
       <c r="H196" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I196" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J196" s="14"/>
     </row>
@@ -30360,25 +31262,25 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="28" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D197" s="55" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E197" s="12" t="s">
-        <v>1531</v>
+        <v>1995</v>
+      </c>
+      <c r="D197" s="65" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1968</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G197" s="31">
-        <v>42270</v>
+        <v>42332</v>
       </c>
       <c r="H197" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I197" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J197" s="14"/>
     </row>
@@ -30389,25 +31291,25 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="28" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D198" s="55" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E198" s="12" t="s">
-        <v>1532</v>
+        <v>1996</v>
+      </c>
+      <c r="D198" s="65" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1969</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G198" s="31">
-        <v>42270</v>
+        <v>42332</v>
       </c>
       <c r="H198" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I198" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J198" s="14"/>
     </row>
@@ -30418,25 +31320,25 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D199" s="55" t="s">
-        <v>1550</v>
-      </c>
-      <c r="E199" s="12" t="s">
-        <v>1533</v>
+        <v>1997</v>
+      </c>
+      <c r="D199" s="65" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1970</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G199" s="31">
-        <v>42270</v>
+        <v>42331</v>
       </c>
       <c r="H199" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I199" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J199" s="14"/>
     </row>
@@ -30447,25 +31349,25 @@
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="28" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D200" s="55" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E200" s="12" t="s">
-        <v>1534</v>
+        <v>1998</v>
+      </c>
+      <c r="D200" s="65" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1971</v>
       </c>
       <c r="F200" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G200" s="31">
-        <v>42270</v>
+        <v>42331</v>
       </c>
       <c r="H200" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I200" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J200" s="14"/>
     </row>
@@ -30476,25 +31378,25 @@
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="28" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D201" s="55" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E201" s="12" t="s">
-        <v>1535</v>
+        <v>1999</v>
+      </c>
+      <c r="D201" s="65" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1972</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G201" s="31">
-        <v>42270</v>
+        <v>42331</v>
       </c>
       <c r="H201" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I201" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J201" s="14"/>
     </row>
@@ -30505,25 +31407,25 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="28" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D202" s="55" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E202" s="12" t="s">
-        <v>1536</v>
+        <v>2000</v>
+      </c>
+      <c r="D202" s="65" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1973</v>
       </c>
       <c r="F202" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G202" s="31">
-        <v>42270</v>
+        <v>42331</v>
       </c>
       <c r="H202" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I202" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J202" s="14"/>
     </row>
@@ -30534,25 +31436,25 @@
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="28" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D203" s="55" t="s">
-        <v>1554</v>
-      </c>
-      <c r="E203" s="12" t="s">
-        <v>1537</v>
+        <v>2001</v>
+      </c>
+      <c r="D203" s="65" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1974</v>
       </c>
       <c r="F203" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G203" s="31">
-        <v>42270</v>
+        <v>42331</v>
       </c>
       <c r="H203" s="70" t="s">
-        <v>1463</v>
+        <v>235</v>
       </c>
       <c r="I203" s="13" t="s">
-        <v>431</v>
+        <v>1918</v>
       </c>
       <c r="J203" s="14"/>
     </row>
@@ -30562,13 +31464,27 @@
         <v>198</v>
       </c>
       <c r="B204" s="11"/>
-      <c r="C204" s="22"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="31"/>
-      <c r="H204" s="69"/>
-      <c r="I204" s="12"/>
+      <c r="C204" s="28" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D204" s="65" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G204" s="31">
+        <v>42331</v>
+      </c>
+      <c r="H204" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I204" s="13" t="s">
+        <v>1918</v>
+      </c>
       <c r="J204" s="14"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -30577,13 +31493,27 @@
         <v>199</v>
       </c>
       <c r="B205" s="11"/>
-      <c r="C205" s="22"/>
-      <c r="D205" s="12"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="12"/>
-      <c r="G205" s="31"/>
-      <c r="H205" s="69"/>
-      <c r="I205" s="12"/>
+      <c r="C205" s="28" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D205" s="65" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G205" s="31">
+        <v>42331</v>
+      </c>
+      <c r="H205" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I205" s="13" t="s">
+        <v>1918</v>
+      </c>
       <c r="J205" s="14"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -30592,13 +31522,27 @@
         <v>200</v>
       </c>
       <c r="B206" s="11"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
-      <c r="G206" s="12"/>
-      <c r="H206" s="69"/>
-      <c r="I206" s="12"/>
+      <c r="C206" s="28" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D206" s="65" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G206" s="31">
+        <v>42331</v>
+      </c>
+      <c r="H206" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I206" s="13" t="s">
+        <v>1918</v>
+      </c>
       <c r="J206" s="14"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -30607,13 +31551,27 @@
         <v>201</v>
       </c>
       <c r="B207" s="11"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="12"/>
-      <c r="G207" s="12"/>
-      <c r="H207" s="69"/>
-      <c r="I207" s="12"/>
+      <c r="C207" s="28" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D207" s="65" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G207" s="31">
+        <v>42331</v>
+      </c>
+      <c r="H207" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I207" s="13" t="s">
+        <v>1918</v>
+      </c>
       <c r="J207" s="14"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -30622,13 +31580,27 @@
         <v>202</v>
       </c>
       <c r="B208" s="11"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="12"/>
-      <c r="G208" s="12"/>
-      <c r="H208" s="69"/>
-      <c r="I208" s="12"/>
+      <c r="C208" s="28" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D208" s="65" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F208" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G208" s="31">
+        <v>42331</v>
+      </c>
+      <c r="H208" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I208" s="13" t="s">
+        <v>1918</v>
+      </c>
       <c r="J208" s="14"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -30637,59 +31609,69 @@
         <v>203</v>
       </c>
       <c r="B209" s="11"/>
-      <c r="C209" s="22"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="12"/>
-      <c r="F209" s="12"/>
-      <c r="G209" s="12"/>
-      <c r="H209" s="69"/>
-      <c r="I209" s="12"/>
+      <c r="C209" s="28" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D209" s="65" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G209" s="31">
+        <v>42331</v>
+      </c>
+      <c r="H209" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I209" s="13" t="s">
+        <v>1918</v>
+      </c>
       <c r="J209" s="14"/>
     </row>
-    <row r="210" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="B210" s="16"/>
-      <c r="C210" s="23"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="F210" s="17"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="71"/>
-      <c r="I210" s="17"/>
-      <c r="J210" s="19"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="28" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D210" s="65" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G210" s="31">
+        <v>42331</v>
+      </c>
+      <c r="H210" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I210" s="13" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J210" s="14"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="B211" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C211" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D211" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="E211" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="F211" s="12" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G211" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H211" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I211" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="B211" s="11"/>
+      <c r="C211" s="28"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="31"/>
+      <c r="H211" s="70"/>
+      <c r="I211" s="13"/>
       <c r="J211" s="14"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -30698,27 +31680,12 @@
         <v>206</v>
       </c>
       <c r="B212" s="11"/>
-      <c r="C212" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D212" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="E212" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="F212" s="12" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G212" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H212" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I212" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C212" s="28"/>
+      <c r="D212" s="65"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="31"/>
+      <c r="H212" s="70"/>
+      <c r="I212" s="13"/>
       <c r="J212" s="14"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -30727,837 +31694,699 @@
         <v>207</v>
       </c>
       <c r="B213" s="11"/>
-      <c r="C213" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="D213" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="E213" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="F213" s="12" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G213" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H213" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I213" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C213" s="28"/>
+      <c r="D213" s="65"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="31"/>
+      <c r="H213" s="70"/>
+      <c r="I213" s="13"/>
       <c r="J213" s="14"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
-        <f t="shared" ref="A214:A291" si="3">ROW($A214)-6</f>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="B214" s="11"/>
-      <c r="C214" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D214" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="E214" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="F214" s="12" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G214" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H214" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I214" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C214" s="28"/>
+      <c r="D214" s="65"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="31"/>
+      <c r="H214" s="70"/>
+      <c r="I214" s="13"/>
       <c r="J214" s="14"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="B215" s="11"/>
-      <c r="C215" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="D215" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="E215" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="F215" s="12" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G215" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H215" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I215" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C215" s="28"/>
+      <c r="D215" s="65"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="31"/>
+      <c r="H215" s="70"/>
+      <c r="I215" s="13"/>
       <c r="J215" s="14"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="B216" s="11"/>
-      <c r="C216" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="D216" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="E216" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="F216" s="12" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G216" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H216" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I216" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C216" s="28"/>
+      <c r="D216" s="65"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="31"/>
+      <c r="H216" s="70"/>
+      <c r="I216" s="13"/>
       <c r="J216" s="14"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="B217" s="11"/>
-      <c r="C217" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="D217" s="12" t="s">
-        <v>832</v>
-      </c>
-      <c r="E217" s="12" t="s">
-        <v>822</v>
-      </c>
-      <c r="F217" s="12" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G217" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H217" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I217" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="J217" s="14"/>
+      <c r="B217" s="16"/>
+      <c r="C217" s="29"/>
+      <c r="D217" s="17"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="71"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="19"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="B218" s="11"/>
+      <c r="B218" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C218" s="28" t="s">
-        <v>850</v>
+        <v>764</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>833</v>
+        <v>703</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>823</v>
-      </c>
-      <c r="F218" s="12" t="s">
-        <v>1347</v>
+        <v>656</v>
+      </c>
+      <c r="F218" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G218" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H218" s="70" t="s">
-        <v>1344</v>
+        <v>1464</v>
       </c>
       <c r="I218" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J218" s="14"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>213</v>
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="28" t="s">
-        <v>851</v>
+        <v>765</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>834</v>
+        <v>704</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="F219" s="12" t="s">
-        <v>1347</v>
+        <v>657</v>
+      </c>
+      <c r="F219" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G219" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H219" s="70" t="s">
-        <v>1344</v>
+        <v>1463</v>
       </c>
       <c r="I219" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J219" s="14"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="28" t="s">
-        <v>852</v>
+        <v>766</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>835</v>
+        <v>705</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="F220" s="12" t="s">
-        <v>1347</v>
+        <v>658</v>
+      </c>
+      <c r="F220" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G220" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H220" s="70" t="s">
-        <v>1344</v>
+        <v>1463</v>
       </c>
       <c r="I220" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J220" s="14"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>215</v>
       </c>
       <c r="B221" s="11"/>
       <c r="C221" s="28" t="s">
-        <v>853</v>
+        <v>767</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>836</v>
+        <v>706</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>826</v>
-      </c>
-      <c r="F221" s="12" t="s">
-        <v>1347</v>
+        <v>659</v>
+      </c>
+      <c r="F221" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G221" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H221" s="70" t="s">
-        <v>1344</v>
+        <v>1463</v>
       </c>
       <c r="I221" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J221" s="14"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="B222" s="11"/>
       <c r="C222" s="28" t="s">
-        <v>854</v>
+        <v>768</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>837</v>
+        <v>707</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>827</v>
-      </c>
-      <c r="F222" s="12" t="s">
-        <v>1347</v>
+        <v>660</v>
+      </c>
+      <c r="F222" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G222" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H222" s="70" t="s">
-        <v>1344</v>
+        <v>1463</v>
       </c>
       <c r="I222" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J222" s="14"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>217</v>
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="28" t="s">
-        <v>855</v>
+        <v>769</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>838</v>
+        <v>708</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>828</v>
-      </c>
-      <c r="F223" s="12" t="s">
-        <v>1347</v>
+        <v>661</v>
+      </c>
+      <c r="F223" s="55" t="s">
+        <v>684</v>
       </c>
       <c r="G223" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H223" s="70" t="s">
-        <v>1344</v>
+        <v>1463</v>
       </c>
       <c r="I223" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J223" s="14"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>218</v>
       </c>
       <c r="B224" s="11"/>
       <c r="C224" s="28" t="s">
-        <v>856</v>
-      </c>
-      <c r="D224" s="12" t="s">
-        <v>839</v>
+        <v>1557</v>
+      </c>
+      <c r="D224" s="55" t="s">
+        <v>1555</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>829</v>
+        <v>1530</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>1347</v>
+        <v>684</v>
       </c>
       <c r="G224" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H224" s="70" t="s">
-        <v>1344</v>
+        <v>1463</v>
       </c>
       <c r="I224" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J224" s="14"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>219</v>
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="28" t="s">
-        <v>857</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>840</v>
+        <v>1558</v>
+      </c>
+      <c r="D225" s="55" t="s">
+        <v>1556</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>830</v>
+        <v>1531</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>1347</v>
+        <v>684</v>
       </c>
       <c r="G225" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H225" s="70" t="s">
-        <v>1344</v>
+        <v>1463</v>
       </c>
       <c r="I225" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J225" s="14"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="B226" s="11"/>
-      <c r="C226" s="28"/>
-      <c r="D226" s="12"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="12"/>
-      <c r="G226" s="31"/>
-      <c r="H226" s="70"/>
-      <c r="I226" s="13"/>
+      <c r="C226" s="28" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D226" s="55" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E226" s="12" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G226" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H226" s="70" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I226" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J226" s="14"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>221</v>
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="28" t="s">
-        <v>779</v>
+        <v>1560</v>
       </c>
       <c r="D227" s="55" t="s">
-        <v>858</v>
+        <v>1550</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>772</v>
+        <v>1533</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>1521</v>
+        <v>684</v>
       </c>
       <c r="G227" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H227" s="74" t="s">
-        <v>1523</v>
+        <v>42270</v>
+      </c>
+      <c r="H227" s="70" t="s">
+        <v>1463</v>
       </c>
       <c r="I227" s="13" t="s">
-        <v>1522</v>
+        <v>431</v>
       </c>
       <c r="J227" s="14"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="28" t="s">
-        <v>780</v>
+        <v>1561</v>
       </c>
       <c r="D228" s="55" t="s">
-        <v>859</v>
+        <v>1551</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>773</v>
+        <v>1534</v>
       </c>
       <c r="F228" s="12" t="s">
-        <v>1521</v>
+        <v>684</v>
       </c>
       <c r="G228" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H228" s="74" t="s">
-        <v>1523</v>
+        <v>42270</v>
+      </c>
+      <c r="H228" s="70" t="s">
+        <v>1463</v>
       </c>
       <c r="I228" s="13" t="s">
-        <v>1522</v>
+        <v>431</v>
       </c>
       <c r="J228" s="14"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>223</v>
       </c>
       <c r="B229" s="11"/>
       <c r="C229" s="28" t="s">
-        <v>781</v>
+        <v>1562</v>
       </c>
       <c r="D229" s="55" t="s">
-        <v>860</v>
+        <v>1552</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>774</v>
+        <v>1535</v>
       </c>
       <c r="F229" s="12" t="s">
-        <v>1521</v>
+        <v>684</v>
       </c>
       <c r="G229" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H229" s="74" t="s">
-        <v>1523</v>
+        <v>42270</v>
+      </c>
+      <c r="H229" s="70" t="s">
+        <v>1463</v>
       </c>
       <c r="I229" s="13" t="s">
-        <v>1522</v>
+        <v>431</v>
       </c>
       <c r="J229" s="14"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
       <c r="B230" s="11"/>
       <c r="C230" s="28" t="s">
-        <v>782</v>
+        <v>1563</v>
       </c>
       <c r="D230" s="55" t="s">
-        <v>861</v>
+        <v>1553</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>775</v>
+        <v>1536</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>1521</v>
+        <v>684</v>
       </c>
       <c r="G230" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H230" s="74" t="s">
-        <v>1523</v>
+        <v>42270</v>
+      </c>
+      <c r="H230" s="70" t="s">
+        <v>1463</v>
       </c>
       <c r="I230" s="13" t="s">
-        <v>1522</v>
+        <v>431</v>
       </c>
       <c r="J230" s="14"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="B231" s="11"/>
       <c r="C231" s="28" t="s">
-        <v>783</v>
+        <v>1564</v>
       </c>
       <c r="D231" s="55" t="s">
-        <v>862</v>
+        <v>1554</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>776</v>
+        <v>1537</v>
       </c>
       <c r="F231" s="12" t="s">
-        <v>1521</v>
+        <v>684</v>
       </c>
       <c r="G231" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H231" s="74" t="s">
-        <v>1523</v>
+        <v>42270</v>
+      </c>
+      <c r="H231" s="70" t="s">
+        <v>1463</v>
       </c>
       <c r="I231" s="13" t="s">
-        <v>1522</v>
+        <v>431</v>
       </c>
       <c r="J231" s="14"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>226</v>
       </c>
       <c r="B232" s="11"/>
-      <c r="C232" s="28" t="s">
-        <v>1921</v>
-      </c>
-      <c r="D232" s="55" t="s">
-        <v>1922</v>
-      </c>
-      <c r="E232" s="12" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F232" s="12" t="s">
-        <v>1521</v>
-      </c>
-      <c r="G232" s="31">
-        <v>42327</v>
-      </c>
-      <c r="H232" s="74" t="s">
-        <v>1812</v>
-      </c>
-      <c r="I232" s="13" t="s">
-        <v>1836</v>
-      </c>
+      <c r="C232" s="22"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="31"/>
+      <c r="H232" s="69"/>
+      <c r="I232" s="12"/>
       <c r="J232" s="14"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>227</v>
       </c>
       <c r="B233" s="11"/>
-      <c r="C233" s="28"/>
-      <c r="D233" s="55"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="12"/>
       <c r="E233" s="12"/>
       <c r="F233" s="12"/>
       <c r="G233" s="31"/>
-      <c r="H233" s="70"/>
-      <c r="I233" s="13"/>
+      <c r="H233" s="69"/>
+      <c r="I233" s="12"/>
       <c r="J233" s="14"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>228</v>
       </c>
       <c r="B234" s="11"/>
-      <c r="C234" s="28"/>
-      <c r="D234" s="55" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E234" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="F234" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G234" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H234" s="70" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I234" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="C234" s="22"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="69"/>
+      <c r="I234" s="12"/>
       <c r="J234" s="14"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>229</v>
       </c>
       <c r="B235" s="11"/>
-      <c r="C235" s="28" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D235" s="55" t="s">
-        <v>1460</v>
-      </c>
-      <c r="E235" s="55" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F235" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G235" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H235" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I235" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C235" s="22"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="69"/>
+      <c r="I235" s="12"/>
       <c r="J235" s="14"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="B236" s="11"/>
-      <c r="C236" s="28" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D236" s="55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E236" s="55" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F236" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G236" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H236" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I236" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C236" s="22"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="69"/>
+      <c r="I236" s="12"/>
       <c r="J236" s="14"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>231</v>
       </c>
       <c r="B237" s="11"/>
-      <c r="C237" s="28" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D237" s="55" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E237" s="55" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F237" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G237" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H237" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I237" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C237" s="22"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="12"/>
+      <c r="H237" s="69"/>
+      <c r="I237" s="12"/>
       <c r="J237" s="14"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="B238" s="11"/>
-      <c r="C238" s="28" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D238" s="55" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E238" s="55" t="s">
-        <v>1596</v>
-      </c>
-      <c r="F238" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G238" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H238" s="70" t="s">
-        <v>1612</v>
-      </c>
-      <c r="I238" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J238" s="14"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="23"/>
+      <c r="D238" s="17"/>
+      <c r="E238" s="17"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="71"/>
+      <c r="I238" s="17"/>
+      <c r="J238" s="19"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="B239" s="11"/>
+      <c r="B239" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C239" s="28" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D239" s="55" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E239" s="55" t="s">
-        <v>1640</v>
+        <v>843</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="E239" s="12" t="s">
+        <v>816</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G239" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H239" s="70" t="s">
-        <v>1612</v>
+        <v>1344</v>
       </c>
       <c r="I239" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J239" s="14"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="28" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D240" s="55" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E240" s="55" t="s">
-        <v>1625</v>
+        <v>844</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>817</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G240" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H240" s="70" t="s">
-        <v>1612</v>
+        <v>1344</v>
       </c>
       <c r="I240" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J240" s="14"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>235</v>
       </c>
       <c r="B241" s="11"/>
       <c r="C241" s="28" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D241" s="55" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E241" s="55" t="s">
-        <v>1626</v>
+        <v>845</v>
+      </c>
+      <c r="D241" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>818</v>
       </c>
       <c r="F241" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G241" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H241" s="70" t="s">
-        <v>1612</v>
+        <v>1344</v>
       </c>
       <c r="I241" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J241" s="14"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A242:A319" si="3">ROW($A242)-6</f>
         <v>236</v>
       </c>
       <c r="B242" s="11"/>
       <c r="C242" s="28" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D242" s="55" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E242" s="55" t="s">
-        <v>1627</v>
+        <v>846</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>819</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G242" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H242" s="70" t="s">
-        <v>1612</v>
+        <v>1344</v>
       </c>
       <c r="I242" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J242" s="14"/>
     </row>
@@ -31568,25 +32397,25 @@
       </c>
       <c r="B243" s="11"/>
       <c r="C243" s="28" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D243" s="55" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E243" s="55" t="s">
-        <v>1628</v>
+        <v>847</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>820</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G243" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H243" s="70" t="s">
-        <v>1612</v>
+        <v>1344</v>
       </c>
       <c r="I243" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J243" s="14"/>
     </row>
@@ -31597,25 +32426,25 @@
       </c>
       <c r="B244" s="11"/>
       <c r="C244" s="28" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D244" s="55" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E244" s="55" t="s">
-        <v>1629</v>
+        <v>848</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>821</v>
       </c>
       <c r="F244" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G244" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H244" s="70" t="s">
-        <v>1612</v>
+        <v>1344</v>
       </c>
       <c r="I244" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J244" s="14"/>
     </row>
@@ -31626,25 +32455,25 @@
       </c>
       <c r="B245" s="11"/>
       <c r="C245" s="28" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D245" s="55" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E245" s="55" t="s">
-        <v>1630</v>
+        <v>849</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>822</v>
       </c>
       <c r="F245" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G245" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H245" s="70" t="s">
-        <v>1612</v>
+        <v>1344</v>
       </c>
       <c r="I245" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J245" s="14"/>
     </row>
@@ -31655,25 +32484,25 @@
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="28" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D246" s="55" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E246" s="55" t="s">
-        <v>1696</v>
+        <v>850</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="E246" s="12" t="s">
+        <v>823</v>
       </c>
       <c r="F246" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G246" s="31">
-        <v>42293</v>
+        <v>42265</v>
       </c>
       <c r="H246" s="70" t="s">
-        <v>235</v>
+        <v>1344</v>
       </c>
       <c r="I246" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J246" s="14"/>
     </row>
@@ -31684,25 +32513,25 @@
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="28" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D247" s="55" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E247" s="55" t="s">
-        <v>1697</v>
+        <v>851</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>824</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G247" s="31">
-        <v>42293</v>
+        <v>42265</v>
       </c>
       <c r="H247" s="70" t="s">
-        <v>235</v>
+        <v>1344</v>
       </c>
       <c r="I247" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J247" s="14"/>
     </row>
@@ -31713,25 +32542,25 @@
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="28" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D248" s="55" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E248" s="55" t="s">
-        <v>1698</v>
+        <v>852</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>825</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G248" s="31">
-        <v>42293</v>
+        <v>42265</v>
       </c>
       <c r="H248" s="70" t="s">
-        <v>235</v>
+        <v>1344</v>
       </c>
       <c r="I248" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J248" s="14"/>
     </row>
@@ -31742,25 +32571,25 @@
       </c>
       <c r="B249" s="11"/>
       <c r="C249" s="28" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D249" s="55" t="s">
-        <v>1750</v>
-      </c>
-      <c r="E249" s="55" t="s">
-        <v>1746</v>
+        <v>853</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>826</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G249" s="31">
-        <v>42297</v>
+        <v>42265</v>
       </c>
       <c r="H249" s="70" t="s">
-        <v>235</v>
+        <v>1344</v>
       </c>
       <c r="I249" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J249" s="14"/>
     </row>
@@ -31771,25 +32600,25 @@
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="28" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D250" s="55" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E250" s="55" t="s">
-        <v>1747</v>
+        <v>854</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>827</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G250" s="31">
-        <v>42297</v>
+        <v>42265</v>
       </c>
       <c r="H250" s="70" t="s">
-        <v>235</v>
+        <v>1344</v>
       </c>
       <c r="I250" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J250" s="14"/>
     </row>
@@ -31800,25 +32629,25 @@
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="28" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D251" s="55" t="s">
-        <v>1752</v>
-      </c>
-      <c r="E251" s="55" t="s">
-        <v>1748</v>
+        <v>855</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>828</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G251" s="31">
-        <v>42297</v>
+        <v>42265</v>
       </c>
       <c r="H251" s="70" t="s">
-        <v>235</v>
+        <v>1344</v>
       </c>
       <c r="I251" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J251" s="14"/>
     </row>
@@ -31829,25 +32658,25 @@
       </c>
       <c r="B252" s="11"/>
       <c r="C252" s="28" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D252" s="55" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E252" s="55" t="s">
-        <v>1749</v>
+        <v>856</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>829</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G252" s="31">
-        <v>42297</v>
+        <v>42265</v>
       </c>
       <c r="H252" s="70" t="s">
-        <v>235</v>
+        <v>1344</v>
       </c>
       <c r="I252" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J252" s="14"/>
     </row>
@@ -31858,25 +32687,25 @@
       </c>
       <c r="B253" s="11"/>
       <c r="C253" s="28" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D253" s="55" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E253" s="55" t="s">
-        <v>1826</v>
+        <v>857</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>830</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G253" s="31">
-        <v>42318</v>
+        <v>42265</v>
       </c>
       <c r="H253" s="70" t="s">
-        <v>1827</v>
+        <v>1344</v>
       </c>
       <c r="I253" s="13" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
       <c r="J253" s="14"/>
     </row>
@@ -31886,27 +32715,13 @@
         <v>248</v>
       </c>
       <c r="B254" s="11"/>
-      <c r="C254" s="28" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D254" s="55" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E254" s="55" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F254" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G254" s="31">
-        <v>42318</v>
-      </c>
-      <c r="H254" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I254" s="13" t="s">
-        <v>1836</v>
-      </c>
+      <c r="C254" s="28"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
+      <c r="G254" s="31"/>
+      <c r="H254" s="70"/>
+      <c r="I254" s="13"/>
       <c r="J254" s="14"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -31916,25 +32731,25 @@
       </c>
       <c r="B255" s="11"/>
       <c r="C255" s="28" t="s">
-        <v>1830</v>
+        <v>779</v>
       </c>
       <c r="D255" s="55" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E255" s="55" t="s">
-        <v>1824</v>
+        <v>858</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>772</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>1348</v>
+        <v>1521</v>
       </c>
       <c r="G255" s="31">
-        <v>42318</v>
-      </c>
-      <c r="H255" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H255" s="74" t="s">
+        <v>1523</v>
       </c>
       <c r="I255" s="13" t="s">
-        <v>1836</v>
+        <v>1522</v>
       </c>
       <c r="J255" s="14"/>
     </row>
@@ -31945,25 +32760,25 @@
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="28" t="s">
-        <v>1831</v>
+        <v>780</v>
       </c>
       <c r="D256" s="55" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E256" s="55" t="s">
-        <v>1825</v>
+        <v>859</v>
+      </c>
+      <c r="E256" s="12" t="s">
+        <v>773</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>1348</v>
+        <v>1521</v>
       </c>
       <c r="G256" s="31">
-        <v>42318</v>
-      </c>
-      <c r="H256" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H256" s="74" t="s">
+        <v>1523</v>
       </c>
       <c r="I256" s="13" t="s">
-        <v>1836</v>
+        <v>1522</v>
       </c>
       <c r="J256" s="14"/>
     </row>
@@ -31974,25 +32789,25 @@
       </c>
       <c r="B257" s="11"/>
       <c r="C257" s="28" t="s">
-        <v>1888</v>
+        <v>781</v>
       </c>
       <c r="D257" s="55" t="s">
-        <v>1889</v>
-      </c>
-      <c r="E257" s="55" t="s">
-        <v>1890</v>
+        <v>860</v>
+      </c>
+      <c r="E257" s="12" t="s">
+        <v>774</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>1348</v>
+        <v>1521</v>
       </c>
       <c r="G257" s="31">
-        <v>42319</v>
-      </c>
-      <c r="H257" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H257" s="74" t="s">
+        <v>1523</v>
       </c>
       <c r="I257" s="13" t="s">
-        <v>1836</v>
+        <v>1522</v>
       </c>
       <c r="J257" s="14"/>
     </row>
@@ -32002,13 +32817,27 @@
         <v>252</v>
       </c>
       <c r="B258" s="11"/>
-      <c r="C258" s="28"/>
-      <c r="D258" s="55"/>
-      <c r="E258" s="55"/>
-      <c r="F258" s="12"/>
-      <c r="G258" s="31"/>
-      <c r="H258" s="70"/>
-      <c r="I258" s="13"/>
+      <c r="C258" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="D258" s="55" t="s">
+        <v>861</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G258" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H258" s="74" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I258" s="13" t="s">
+        <v>1522</v>
+      </c>
       <c r="J258" s="14"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -32017,13 +32846,27 @@
         <v>253</v>
       </c>
       <c r="B259" s="11"/>
-      <c r="C259" s="28"/>
-      <c r="D259" s="12"/>
-      <c r="E259" s="55"/>
-      <c r="F259" s="12"/>
-      <c r="G259" s="12"/>
-      <c r="H259" s="70"/>
-      <c r="I259" s="13"/>
+      <c r="C259" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="D259" s="55" t="s">
+        <v>862</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G259" s="31">
+        <v>42268</v>
+      </c>
+      <c r="H259" s="74" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I259" s="13" t="s">
+        <v>1522</v>
+      </c>
       <c r="J259" s="14"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -32032,13 +32875,27 @@
         <v>254</v>
       </c>
       <c r="B260" s="11"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="12"/>
-      <c r="E260" s="55"/>
-      <c r="F260" s="12"/>
-      <c r="G260" s="12"/>
-      <c r="H260" s="70"/>
-      <c r="I260" s="13"/>
+      <c r="C260" s="28" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D260" s="55" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F260" s="12" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G260" s="31">
+        <v>42327</v>
+      </c>
+      <c r="H260" s="74" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I260" s="13" t="s">
+        <v>1836</v>
+      </c>
       <c r="J260" s="14"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -32048,10 +32905,10 @@
       </c>
       <c r="B261" s="11"/>
       <c r="C261" s="28"/>
-      <c r="D261" s="12"/>
-      <c r="E261" s="55"/>
+      <c r="D261" s="55"/>
+      <c r="E261" s="12"/>
       <c r="F261" s="12"/>
-      <c r="G261" s="12"/>
+      <c r="G261" s="31"/>
       <c r="H261" s="70"/>
       <c r="I261" s="13"/>
       <c r="J261" s="14"/>
@@ -32062,17 +32919,15 @@
         <v>256</v>
       </c>
       <c r="B262" s="11"/>
-      <c r="C262" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D262" s="12" t="s">
-        <v>885</v>
+      <c r="C262" s="28"/>
+      <c r="D262" s="55" t="s">
+        <v>1349</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>868</v>
+        <v>777</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G262" s="31">
         <v>42265</v>
@@ -32092,25 +32947,25 @@
       </c>
       <c r="B263" s="11"/>
       <c r="C263" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E263" s="12" t="s">
-        <v>869</v>
+        <v>1457</v>
+      </c>
+      <c r="D263" s="55" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E263" s="55" t="s">
+        <v>1454</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G263" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H263" s="70" t="s">
-        <v>1344</v>
+        <v>235</v>
       </c>
       <c r="I263" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J263" s="14"/>
     </row>
@@ -32121,25 +32976,25 @@
       </c>
       <c r="B264" s="11"/>
       <c r="C264" s="28" t="s">
-        <v>894</v>
-      </c>
-      <c r="D264" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="E264" s="12" t="s">
-        <v>870</v>
+        <v>1458</v>
+      </c>
+      <c r="D264" s="55" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E264" s="55" t="s">
+        <v>1455</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G264" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H264" s="70" t="s">
-        <v>1344</v>
+        <v>235</v>
       </c>
       <c r="I264" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J264" s="14"/>
     </row>
@@ -32150,25 +33005,25 @@
       </c>
       <c r="B265" s="11"/>
       <c r="C265" s="28" t="s">
-        <v>895</v>
+        <v>1459</v>
       </c>
       <c r="D265" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="E265" s="12" t="s">
-        <v>871</v>
+        <v>1462</v>
+      </c>
+      <c r="E265" s="55" t="s">
+        <v>1456</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G265" s="31">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="H265" s="70" t="s">
-        <v>1344</v>
+        <v>235</v>
       </c>
       <c r="I265" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J265" s="14"/>
     </row>
@@ -32179,25 +33034,25 @@
       </c>
       <c r="B266" s="11"/>
       <c r="C266" s="28" t="s">
-        <v>896</v>
+        <v>1597</v>
       </c>
       <c r="D266" s="55" t="s">
-        <v>886</v>
-      </c>
-      <c r="E266" s="12" t="s">
-        <v>872</v>
+        <v>1598</v>
+      </c>
+      <c r="E266" s="55" t="s">
+        <v>1596</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G266" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H266" s="70" t="s">
-        <v>1344</v>
+        <v>1612</v>
       </c>
       <c r="I266" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J266" s="14"/>
     </row>
@@ -32208,25 +33063,25 @@
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="28" t="s">
-        <v>897</v>
+        <v>1613</v>
       </c>
       <c r="D267" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E267" s="12" t="s">
-        <v>873</v>
+        <v>1639</v>
+      </c>
+      <c r="E267" s="55" t="s">
+        <v>1640</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G267" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H267" s="70" t="s">
-        <v>1344</v>
+        <v>1612</v>
       </c>
       <c r="I267" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J267" s="14"/>
     </row>
@@ -32237,25 +33092,25 @@
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="28" t="s">
-        <v>898</v>
+        <v>1614</v>
       </c>
       <c r="D268" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="E268" s="12" t="s">
-        <v>874</v>
+        <v>1618</v>
+      </c>
+      <c r="E268" s="55" t="s">
+        <v>1625</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G268" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H268" s="70" t="s">
-        <v>1344</v>
+        <v>1612</v>
       </c>
       <c r="I268" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J268" s="14"/>
     </row>
@@ -32266,25 +33121,25 @@
       </c>
       <c r="B269" s="11"/>
       <c r="C269" s="28" t="s">
-        <v>899</v>
+        <v>1615</v>
       </c>
       <c r="D269" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E269" s="12" t="s">
-        <v>875</v>
+        <v>1619</v>
+      </c>
+      <c r="E269" s="55" t="s">
+        <v>1626</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G269" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H269" s="70" t="s">
-        <v>1344</v>
+        <v>1612</v>
       </c>
       <c r="I269" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J269" s="14"/>
     </row>
@@ -32295,25 +33150,25 @@
       </c>
       <c r="B270" s="11"/>
       <c r="C270" s="28" t="s">
-        <v>900</v>
+        <v>1616</v>
       </c>
       <c r="D270" s="55" t="s">
-        <v>887</v>
-      </c>
-      <c r="E270" s="12" t="s">
-        <v>876</v>
+        <v>1620</v>
+      </c>
+      <c r="E270" s="55" t="s">
+        <v>1627</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G270" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H270" s="70" t="s">
-        <v>1344</v>
+        <v>1612</v>
       </c>
       <c r="I270" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J270" s="14"/>
     </row>
@@ -32324,25 +33179,25 @@
       </c>
       <c r="B271" s="11"/>
       <c r="C271" s="28" t="s">
-        <v>901</v>
+        <v>1617</v>
       </c>
       <c r="D271" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E271" s="12" t="s">
-        <v>877</v>
+        <v>1621</v>
+      </c>
+      <c r="E271" s="55" t="s">
+        <v>1628</v>
       </c>
       <c r="F271" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G271" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H271" s="70" t="s">
-        <v>1344</v>
+        <v>1612</v>
       </c>
       <c r="I271" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J271" s="14"/>
     </row>
@@ -32353,25 +33208,25 @@
       </c>
       <c r="B272" s="11"/>
       <c r="C272" s="28" t="s">
-        <v>902</v>
+        <v>1624</v>
       </c>
       <c r="D272" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="E272" s="12" t="s">
-        <v>878</v>
+        <v>1622</v>
+      </c>
+      <c r="E272" s="55" t="s">
+        <v>1629</v>
       </c>
       <c r="F272" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G272" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H272" s="70" t="s">
-        <v>1344</v>
+        <v>1612</v>
       </c>
       <c r="I272" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J272" s="14"/>
     </row>
@@ -32382,25 +33237,25 @@
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="28" t="s">
-        <v>903</v>
+        <v>1641</v>
       </c>
       <c r="D273" s="55" t="s">
-        <v>888</v>
-      </c>
-      <c r="E273" s="12" t="s">
-        <v>879</v>
+        <v>1623</v>
+      </c>
+      <c r="E273" s="55" t="s">
+        <v>1630</v>
       </c>
       <c r="F273" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G273" s="31">
-        <v>42265</v>
+        <v>42276</v>
       </c>
       <c r="H273" s="70" t="s">
-        <v>1344</v>
+        <v>1612</v>
       </c>
       <c r="I273" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J273" s="14"/>
     </row>
@@ -32411,25 +33266,25 @@
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="28" t="s">
-        <v>904</v>
+        <v>1699</v>
       </c>
       <c r="D274" s="55" t="s">
-        <v>889</v>
-      </c>
-      <c r="E274" s="12" t="s">
-        <v>880</v>
+        <v>1702</v>
+      </c>
+      <c r="E274" s="55" t="s">
+        <v>1696</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G274" s="31">
-        <v>42265</v>
+        <v>42293</v>
       </c>
       <c r="H274" s="70" t="s">
-        <v>1344</v>
+        <v>235</v>
       </c>
       <c r="I274" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J274" s="14"/>
     </row>
@@ -32440,25 +33295,25 @@
       </c>
       <c r="B275" s="11"/>
       <c r="C275" s="28" t="s">
-        <v>905</v>
+        <v>1700</v>
       </c>
       <c r="D275" s="55" t="s">
-        <v>890</v>
-      </c>
-      <c r="E275" s="12" t="s">
-        <v>881</v>
+        <v>1703</v>
+      </c>
+      <c r="E275" s="55" t="s">
+        <v>1697</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G275" s="31">
-        <v>42265</v>
+        <v>42293</v>
       </c>
       <c r="H275" s="70" t="s">
-        <v>1344</v>
+        <v>235</v>
       </c>
       <c r="I275" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J275" s="14"/>
     </row>
@@ -32469,25 +33324,25 @@
       </c>
       <c r="B276" s="11"/>
       <c r="C276" s="28" t="s">
-        <v>906</v>
+        <v>1701</v>
       </c>
       <c r="D276" s="55" t="s">
-        <v>891</v>
-      </c>
-      <c r="E276" s="12" t="s">
-        <v>882</v>
+        <v>1704</v>
+      </c>
+      <c r="E276" s="55" t="s">
+        <v>1698</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G276" s="31">
-        <v>42265</v>
+        <v>42293</v>
       </c>
       <c r="H276" s="70" t="s">
-        <v>1344</v>
+        <v>235</v>
       </c>
       <c r="I276" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J276" s="14"/>
     </row>
@@ -32498,25 +33353,25 @@
       </c>
       <c r="B277" s="11"/>
       <c r="C277" s="28" t="s">
-        <v>907</v>
+        <v>1754</v>
       </c>
       <c r="D277" s="55" t="s">
-        <v>617</v>
-      </c>
-      <c r="E277" s="12" t="s">
-        <v>883</v>
+        <v>1750</v>
+      </c>
+      <c r="E277" s="55" t="s">
+        <v>1746</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G277" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H277" s="70" t="s">
-        <v>1344</v>
+        <v>235</v>
       </c>
       <c r="I277" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J277" s="14"/>
     </row>
@@ -32527,25 +33382,25 @@
       </c>
       <c r="B278" s="11"/>
       <c r="C278" s="28" t="s">
-        <v>908</v>
+        <v>1755</v>
       </c>
       <c r="D278" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E278" s="12" t="s">
-        <v>884</v>
+        <v>1751</v>
+      </c>
+      <c r="E278" s="55" t="s">
+        <v>1747</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="G278" s="31">
-        <v>42265</v>
+        <v>42297</v>
       </c>
       <c r="H278" s="70" t="s">
-        <v>1344</v>
+        <v>235</v>
       </c>
       <c r="I278" s="13" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="J278" s="14"/>
     </row>
@@ -32555,13 +33410,27 @@
         <v>273</v>
       </c>
       <c r="B279" s="11"/>
-      <c r="C279" s="28"/>
-      <c r="D279" s="12"/>
-      <c r="E279" s="12"/>
-      <c r="F279" s="12"/>
-      <c r="G279" s="12"/>
-      <c r="H279" s="70"/>
-      <c r="I279" s="13"/>
+      <c r="C279" s="28" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D279" s="55" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E279" s="55" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F279" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G279" s="31">
+        <v>42297</v>
+      </c>
+      <c r="H279" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I279" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J279" s="14"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -32570,28 +33439,56 @@
         <v>274</v>
       </c>
       <c r="B280" s="11"/>
-      <c r="C280" s="28"/>
-      <c r="D280" s="12"/>
-      <c r="E280" s="12"/>
-      <c r="F280" s="12"/>
-      <c r="G280" s="12"/>
-      <c r="H280" s="70"/>
-      <c r="I280" s="13"/>
+      <c r="C280" s="28" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D280" s="55" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E280" s="55" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F280" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G280" s="31">
+        <v>42297</v>
+      </c>
+      <c r="H280" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I280" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J280" s="14"/>
     </row>
-    <row r="281" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" si="3"/>
         <v>275</v>
       </c>
       <c r="B281" s="11"/>
-      <c r="C281" s="28"/>
-      <c r="D281" s="12"/>
-      <c r="E281" s="12"/>
-      <c r="F281" s="12"/>
-      <c r="G281" s="12"/>
-      <c r="H281" s="70"/>
-      <c r="I281" s="13"/>
+      <c r="C281" s="28" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D281" s="55" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E281" s="55" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F281" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G281" s="31">
+        <v>42318</v>
+      </c>
+      <c r="H281" s="70" t="s">
+        <v>1827</v>
+      </c>
+      <c r="I281" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J281" s="14"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -32599,118 +33496,128 @@
         <f t="shared" si="3"/>
         <v>276</v>
       </c>
-      <c r="B282" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C282" s="27" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D282" s="7" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E282" s="8" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F282" s="8" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G282" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H282" s="112" t="s">
+      <c r="B282" s="11"/>
+      <c r="C282" s="28" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D282" s="55" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E282" s="55" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F282" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G282" s="31">
+        <v>42318</v>
+      </c>
+      <c r="H282" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="I282" s="9" t="s">
-        <v>1354</v>
-      </c>
-      <c r="J282" s="10"/>
-    </row>
-    <row r="283" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I282" s="13" t="s">
+        <v>1836</v>
+      </c>
+      <c r="J282" s="14"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283">
-        <f>ROW($A283)-6</f>
+        <f t="shared" si="3"/>
         <v>277</v>
       </c>
       <c r="B283" s="11"/>
-      <c r="C283" s="28"/>
-      <c r="D283" s="11"/>
-      <c r="E283" s="12"/>
-      <c r="F283" s="12"/>
-      <c r="G283" s="12"/>
-      <c r="H283" s="70"/>
-      <c r="I283" s="13"/>
+      <c r="C283" s="28" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D283" s="55" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E283" s="55" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F283" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G283" s="31">
+        <v>42318</v>
+      </c>
+      <c r="H283" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I283" s="13" t="s">
+        <v>1836</v>
+      </c>
       <c r="J283" s="14"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
-        <f>ROW($A284)-6</f>
+        <f t="shared" si="3"/>
         <v>278</v>
       </c>
-      <c r="B284" s="7" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C284" s="27" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D284" s="7" t="s">
-        <v>1807</v>
-      </c>
-      <c r="E284" s="8" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F284" s="8" t="s">
-        <v>1811</v>
-      </c>
-      <c r="G284" s="30">
-        <v>42313</v>
-      </c>
-      <c r="H284" s="112" t="s">
-        <v>1812</v>
-      </c>
-      <c r="I284" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="J284" s="10"/>
+      <c r="B284" s="11"/>
+      <c r="C284" s="28" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D284" s="55" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E284" s="55" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F284" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G284" s="31">
+        <v>42318</v>
+      </c>
+      <c r="H284" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I284" s="13" t="s">
+        <v>1836</v>
+      </c>
+      <c r="J284" s="14"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
-        <f>ROW($A285)-6</f>
+        <f t="shared" si="3"/>
         <v>279</v>
       </c>
       <c r="B285" s="11"/>
       <c r="C285" s="28" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D285" s="11" t="s">
-        <v>1808</v>
-      </c>
-      <c r="E285" s="12" t="s">
-        <v>1809</v>
-      </c>
-      <c r="F285" s="55" t="s">
-        <v>1811</v>
+        <v>1887</v>
+      </c>
+      <c r="D285" s="55" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E285" s="55" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F285" s="12" t="s">
+        <v>1348</v>
       </c>
       <c r="G285" s="31">
-        <v>42313</v>
+        <v>42319</v>
       </c>
       <c r="H285" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I285" s="13" t="s">
-        <v>1813</v>
+        <v>1836</v>
       </c>
       <c r="J285" s="14"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
-        <f>ROW($A286)-6</f>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="B286" s="11"/>
       <c r="C286" s="28"/>
-      <c r="D286" s="11"/>
-      <c r="E286" s="12"/>
+      <c r="D286" s="55"/>
+      <c r="E286" s="55"/>
       <c r="F286" s="12"/>
-      <c r="G286" s="12"/>
+      <c r="G286" s="31"/>
       <c r="H286" s="70"/>
       <c r="I286" s="13"/>
       <c r="J286" s="14"/>
@@ -32722,8 +33629,8 @@
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="28"/>
-      <c r="D287" s="11"/>
-      <c r="E287" s="12"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="55"/>
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
       <c r="H287" s="70"/>
@@ -32737,28 +33644,28 @@
       </c>
       <c r="B288" s="11"/>
       <c r="C288" s="28"/>
-      <c r="D288" s="11"/>
-      <c r="E288" s="12"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="55"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
-      <c r="H288" s="69"/>
-      <c r="I288" s="12"/>
+      <c r="H288" s="70"/>
+      <c r="I288" s="13"/>
       <c r="J288" s="14"/>
     </row>
-    <row r="289" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" si="3"/>
         <v>283</v>
       </c>
-      <c r="B289" s="16"/>
-      <c r="C289" s="29"/>
-      <c r="D289" s="16"/>
-      <c r="E289" s="17"/>
-      <c r="F289" s="17"/>
-      <c r="G289" s="17"/>
-      <c r="H289" s="71"/>
-      <c r="I289" s="17"/>
-      <c r="J289" s="19"/>
+      <c r="B289" s="11"/>
+      <c r="C289" s="28"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="55"/>
+      <c r="F289" s="12"/>
+      <c r="G289" s="12"/>
+      <c r="H289" s="70"/>
+      <c r="I289" s="13"/>
+      <c r="J289" s="14"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
@@ -32766,44 +33673,748 @@
         <v>284</v>
       </c>
       <c r="B290" s="11"/>
-      <c r="C290" s="28"/>
-      <c r="D290" s="12"/>
-      <c r="E290" s="12"/>
-      <c r="F290" s="12"/>
-      <c r="G290" s="12"/>
-      <c r="H290" s="69"/>
-      <c r="I290" s="12"/>
+      <c r="C290" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="F290" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G290" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H290" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I290" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="J290" s="14"/>
     </row>
-    <row r="291" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" si="3"/>
         <v>285</v>
       </c>
-      <c r="B291" s="16"/>
-      <c r="C291" s="29"/>
-      <c r="D291" s="17"/>
-      <c r="E291" s="17"/>
-      <c r="F291" s="17"/>
-      <c r="G291" s="17"/>
-      <c r="H291" s="71"/>
-      <c r="I291" s="17"/>
-      <c r="J291" s="19"/>
+      <c r="B291" s="11"/>
+      <c r="C291" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="F291" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G291" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H291" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I291" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J291" s="14"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C292" s="3"/>
+      <c r="A292">
+        <f t="shared" si="3"/>
+        <v>286</v>
+      </c>
+      <c r="B292" s="11"/>
+      <c r="C292" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="E292" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="F292" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G292" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H292" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I292" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J292" s="14"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C293" s="3"/>
+      <c r="A293">
+        <f t="shared" si="3"/>
+        <v>287</v>
+      </c>
+      <c r="B293" s="11"/>
+      <c r="C293" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="D293" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="E293" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="F293" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G293" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H293" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I293" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J293" s="14"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C294" s="3"/>
+      <c r="A294">
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="B294" s="11"/>
+      <c r="C294" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="D294" s="55" t="s">
+        <v>886</v>
+      </c>
+      <c r="E294" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="F294" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G294" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H294" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I294" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J294" s="14"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C295" s="3"/>
+      <c r="A295">
+        <f t="shared" si="3"/>
+        <v>289</v>
+      </c>
+      <c r="B295" s="11"/>
+      <c r="C295" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="D295" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="F295" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G295" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H295" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I295" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J295" s="14"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="B296" s="11"/>
+      <c r="C296" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="D296" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="E296" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="F296" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G296" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H296" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I296" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J296" s="14"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <f t="shared" si="3"/>
+        <v>291</v>
+      </c>
+      <c r="B297" s="11"/>
+      <c r="C297" s="28" t="s">
+        <v>899</v>
+      </c>
+      <c r="D297" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="F297" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G297" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H297" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I297" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J297" s="14"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <f t="shared" si="3"/>
+        <v>292</v>
+      </c>
+      <c r="B298" s="11"/>
+      <c r="C298" s="28" t="s">
+        <v>900</v>
+      </c>
+      <c r="D298" s="55" t="s">
+        <v>887</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="F298" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G298" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H298" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I298" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J298" s="14"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <f t="shared" si="3"/>
+        <v>293</v>
+      </c>
+      <c r="B299" s="11"/>
+      <c r="C299" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="D299" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="F299" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G299" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H299" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I299" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J299" s="14"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <f t="shared" si="3"/>
+        <v>294</v>
+      </c>
+      <c r="B300" s="11"/>
+      <c r="C300" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="D300" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="F300" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G300" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H300" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I300" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J300" s="14"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <f t="shared" si="3"/>
+        <v>295</v>
+      </c>
+      <c r="B301" s="11"/>
+      <c r="C301" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D301" s="55" t="s">
+        <v>888</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="F301" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G301" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H301" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I301" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J301" s="14"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="B302" s="11"/>
+      <c r="C302" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="D302" s="55" t="s">
+        <v>889</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="F302" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G302" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H302" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I302" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J302" s="14"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+      <c r="B303" s="11"/>
+      <c r="C303" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="D303" s="55" t="s">
+        <v>890</v>
+      </c>
+      <c r="E303" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="F303" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G303" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H303" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I303" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J303" s="14"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="B304" s="11"/>
+      <c r="C304" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="D304" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="E304" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F304" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G304" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H304" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I304" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J304" s="14"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <f t="shared" si="3"/>
+        <v>299</v>
+      </c>
+      <c r="B305" s="11"/>
+      <c r="C305" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D305" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E305" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F305" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G305" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H305" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I305" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J305" s="14"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="B306" s="11"/>
+      <c r="C306" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D306" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E306" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F306" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G306" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H306" s="70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I306" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="J306" s="14"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+      <c r="B307" s="11"/>
+      <c r="C307" s="28"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="12"/>
+      <c r="F307" s="12"/>
+      <c r="G307" s="12"/>
+      <c r="H307" s="70"/>
+      <c r="I307" s="13"/>
+      <c r="J307" s="14"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <f t="shared" si="3"/>
+        <v>302</v>
+      </c>
+      <c r="B308" s="11"/>
+      <c r="C308" s="28"/>
+      <c r="D308" s="12"/>
+      <c r="E308" s="12"/>
+      <c r="F308" s="12"/>
+      <c r="G308" s="12"/>
+      <c r="H308" s="70"/>
+      <c r="I308" s="13"/>
+      <c r="J308" s="14"/>
+    </row>
+    <row r="309" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <f t="shared" si="3"/>
+        <v>303</v>
+      </c>
+      <c r="B309" s="11"/>
+      <c r="C309" s="28"/>
+      <c r="D309" s="12"/>
+      <c r="E309" s="12"/>
+      <c r="F309" s="12"/>
+      <c r="G309" s="12"/>
+      <c r="H309" s="70"/>
+      <c r="I309" s="13"/>
+      <c r="J309" s="14"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C310" s="27" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E310" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F310" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G310" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H310" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I310" s="9" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J310" s="10"/>
+    </row>
+    <row r="311" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <f>ROW($A311)-6</f>
+        <v>305</v>
+      </c>
+      <c r="B311" s="11"/>
+      <c r="C311" s="28"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="12"/>
+      <c r="F311" s="12"/>
+      <c r="G311" s="12"/>
+      <c r="H311" s="70"/>
+      <c r="I311" s="13"/>
+      <c r="J311" s="14"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <f>ROW($A312)-6</f>
+        <v>306</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C312" s="27" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E312" s="8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F312" s="8" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G312" s="30">
+        <v>42313</v>
+      </c>
+      <c r="H312" s="112" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I312" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J312" s="10"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <f>ROW($A313)-6</f>
+        <v>307</v>
+      </c>
+      <c r="B313" s="11"/>
+      <c r="C313" s="28" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D313" s="11" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E313" s="12" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F313" s="55" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G313" s="31">
+        <v>42313</v>
+      </c>
+      <c r="H313" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I313" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J313" s="14"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <f>ROW($A314)-6</f>
+        <v>308</v>
+      </c>
+      <c r="B314" s="11"/>
+      <c r="C314" s="28"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="12"/>
+      <c r="F314" s="12"/>
+      <c r="G314" s="12"/>
+      <c r="H314" s="70"/>
+      <c r="I314" s="13"/>
+      <c r="J314" s="14"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <f t="shared" si="3"/>
+        <v>309</v>
+      </c>
+      <c r="B315" s="11"/>
+      <c r="C315" s="28"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="12"/>
+      <c r="F315" s="12"/>
+      <c r="G315" s="12"/>
+      <c r="H315" s="70"/>
+      <c r="I315" s="13"/>
+      <c r="J315" s="14"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="B316" s="11"/>
+      <c r="C316" s="28"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="12"/>
+      <c r="F316" s="12"/>
+      <c r="G316" s="12"/>
+      <c r="H316" s="69"/>
+      <c r="I316" s="12"/>
+      <c r="J316" s="14"/>
+    </row>
+    <row r="317" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <f t="shared" si="3"/>
+        <v>311</v>
+      </c>
+      <c r="B317" s="16"/>
+      <c r="C317" s="29"/>
+      <c r="D317" s="16"/>
+      <c r="E317" s="17"/>
+      <c r="F317" s="17"/>
+      <c r="G317" s="17"/>
+      <c r="H317" s="71"/>
+      <c r="I317" s="17"/>
+      <c r="J317" s="19"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <f t="shared" si="3"/>
+        <v>312</v>
+      </c>
+      <c r="B318" s="11"/>
+      <c r="C318" s="28"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
+      <c r="F318" s="12"/>
+      <c r="G318" s="12"/>
+      <c r="H318" s="69"/>
+      <c r="I318" s="12"/>
+      <c r="J318" s="14"/>
+    </row>
+    <row r="319" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <f t="shared" si="3"/>
+        <v>313</v>
+      </c>
+      <c r="B319" s="16"/>
+      <c r="C319" s="29"/>
+      <c r="D319" s="17"/>
+      <c r="E319" s="17"/>
+      <c r="F319" s="17"/>
+      <c r="G319" s="17"/>
+      <c r="H319" s="71"/>
+      <c r="I319" s="17"/>
+      <c r="J319" s="19"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:J291">
+  <autoFilter ref="A7:J319">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>
@@ -32843,8 +34454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -32858,16 +34469,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H1" s="3" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32893,19 +34504,19 @@
         <v>42</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>1937</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>1939</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>1940</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>1941</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -32925,10 +34536,10 @@
         <v>1184</v>
       </c>
       <c r="D4" s="114" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>1111</v>
@@ -32937,7 +34548,7 @@
         <v>1111</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -32965,7 +34576,7 @@
         <v>1111</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -33042,7 +34653,7 @@
         <v>1111</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -33099,7 +34710,7 @@
         <v>1111</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -33175,6 +34786,12 @@
       <c r="B14" s="84" t="s">
         <v>1265</v>
       </c>
+      <c r="C14" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1111</v>
+      </c>
       <c r="H14" s="77"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -33245,7 +34862,7 @@
         <v>1111</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>1111</v>
@@ -33262,7 +34879,7 @@
         <v>1111</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>1111</v>
@@ -33298,7 +34915,7 @@
         <v>1111</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -33530,7 +35147,7 @@
         <v>1111</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -33624,7 +35241,7 @@
         <v>1111</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>1111</v>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="36460" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="-160" yWindow="460" windowWidth="34700" windowHeight="19900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$363</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$364</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="2167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4538" uniqueCount="2180">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -14463,10 +14463,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>tongtianta_neiye_waifaguang.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tongtianta_tengman1.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -14968,25 +14964,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ban'zi</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔_试炼外板选中</t>
-    <rPh sb="0" eb="1">
-      <t>tong'tian'ta</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'lian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>wai'ban</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ban'zi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xuan'zhong</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -16249,6 +16226,203 @@
   </si>
   <si>
     <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_试炼外板方框</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wai'ban</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ban'zi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang'kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_neiye_waifaguang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动目录，与客户端保持一致</t>
+    <rPh sb="0" eb="1">
+      <t>yi'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bao'chi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../common/tower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年12月07日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔24</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔_难度框</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nan'du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_nandukuang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxiang_waifaguang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱选中</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'zhong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱1</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../common</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除无用资源（设计上无选中状态，多余资源）</t>
+    <rPh sb="0" eb="1">
+      <t>shan'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：
+通天塔UI资源移入common/tower，与客户端保持一致；补充一个遗漏未录入的资源；删除一个无用资源
+新增邮箱选中资源</t>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yi'ru</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ke'hd'uuan</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>bao'chi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yi'zhi</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>yi'g</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>yi'lou</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>lu'ru</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>de</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shan'chu</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>yi'g</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>wu'yong</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>xuan'zhong</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>zi'yuan</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -17214,8 +17388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -17791,7 +17965,7 @@
         <v>1922</v>
       </c>
       <c r="C60" s="98" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D60" s="36" t="s">
         <v>49</v>
@@ -17799,10 +17973,10 @@
     </row>
     <row r="61" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B61" s="36" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="D61" s="36" t="s">
         <v>464</v>
@@ -17810,19 +17984,25 @@
     </row>
     <row r="62" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B62" s="36" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C62" s="98" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D62" s="36" t="s">
         <v>2164</v>
       </c>
-      <c r="C62" s="98" t="s">
-        <v>2165</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
+    </row>
+    <row r="63" spans="2:4" ht="68" x14ac:dyDescent="0.25">
+      <c r="B63" s="36" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C63" s="98" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="36"/>
@@ -24222,11 +24402,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -26187,7 +26367,7 @@
         <v>123</v>
       </c>
       <c r="D94" s="116" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="31">
@@ -26986,13 +27166,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J367"/>
+  <dimension ref="A2:J368"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E288" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B360" sqref="B360"/>
+      <selection pane="bottomRight" activeCell="H224" sqref="H224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -27034,7 +27214,7 @@
         <v>1795</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -27738,7 +27918,7 @@
         <v>42340</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>431</v>
@@ -27767,7 +27947,7 @@
         <v>42340</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>431</v>
@@ -28332,13 +28512,13 @@
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="28" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>684</v>
@@ -28350,7 +28530,7 @@
         <v>235</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J51" s="14"/>
     </row>
@@ -28361,13 +28541,13 @@
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="28" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>684</v>
@@ -28379,7 +28559,7 @@
         <v>235</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J52" s="14"/>
     </row>
@@ -28390,13 +28570,13 @@
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="28" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>684</v>
@@ -28408,7 +28588,7 @@
         <v>235</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J53" s="14"/>
     </row>
@@ -28419,13 +28599,13 @@
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="28" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="D54" s="65" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>684</v>
@@ -28437,7 +28617,7 @@
         <v>235</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J54" s="14"/>
     </row>
@@ -28448,13 +28628,13 @@
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="28" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="D55" s="65" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>684</v>
@@ -28466,7 +28646,7 @@
         <v>235</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J55" s="14"/>
     </row>
@@ -28477,13 +28657,13 @@
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="28" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D56" s="65" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>684</v>
@@ -28495,7 +28675,7 @@
         <v>235</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J56" s="14"/>
     </row>
@@ -28506,13 +28686,13 @@
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="28" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="D57" s="65" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>684</v>
@@ -28524,7 +28704,7 @@
         <v>235</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J57" s="14"/>
     </row>
@@ -28535,13 +28715,13 @@
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="28" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D58" s="65" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>684</v>
@@ -28553,7 +28733,7 @@
         <v>235</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J58" s="14"/>
     </row>
@@ -28564,13 +28744,13 @@
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="28" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D59" s="65" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>684</v>
@@ -28582,7 +28762,7 @@
         <v>235</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J59" s="14"/>
     </row>
@@ -28593,13 +28773,13 @@
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="28" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="D60" s="65" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E60" s="55" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>684</v>
@@ -28611,7 +28791,7 @@
         <v>235</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J60" s="14"/>
     </row>
@@ -28622,13 +28802,13 @@
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="28" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="D61" s="65" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>684</v>
@@ -28640,7 +28820,7 @@
         <v>235</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J61" s="14"/>
     </row>
@@ -28651,13 +28831,13 @@
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="28" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="D62" s="65" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>684</v>
@@ -28669,7 +28849,7 @@
         <v>235</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="J62" s="14"/>
     </row>
@@ -29780,7 +29960,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" ref="A102:A257" si="2">ROW($A102)-6</f>
+        <f t="shared" ref="A102:A258" si="2">ROW($A102)-6</f>
         <v>96</v>
       </c>
       <c r="B102" s="11"/>
@@ -30342,7 +30522,7 @@
         <v>1700</v>
       </c>
       <c r="E121" s="55" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>684</v>
@@ -30510,13 +30690,13 @@
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="28" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D127" s="65" t="s">
         <v>2063</v>
       </c>
-      <c r="D127" s="65" t="s">
-        <v>2065</v>
-      </c>
       <c r="E127" s="55" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>684</v>
@@ -30528,7 +30708,7 @@
         <v>1930</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="J127" s="14"/>
     </row>
@@ -30539,13 +30719,13 @@
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="28" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D128" s="65" t="s">
         <v>2064</v>
       </c>
-      <c r="D128" s="65" t="s">
-        <v>2066</v>
-      </c>
       <c r="E128" s="55" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>684</v>
@@ -30557,7 +30737,7 @@
         <v>1930</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="J128" s="14"/>
     </row>
@@ -30941,7 +31121,7 @@
         <v>8</v>
       </c>
       <c r="J143" s="115" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -30972,7 +31152,7 @@
         <v>8</v>
       </c>
       <c r="J144" s="115" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -31795,7 +31975,7 @@
         <v>497</v>
       </c>
       <c r="J175" s="115" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -31869,7 +32049,7 @@
         <v>1857</v>
       </c>
       <c r="E178" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>684</v>
@@ -32045,7 +32225,7 @@
         <v>1931</v>
       </c>
       <c r="J184" s="115" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -32076,7 +32256,7 @@
         <v>49</v>
       </c>
       <c r="J185" s="115" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -32571,22 +32751,22 @@
         <v>1933</v>
       </c>
       <c r="D204" s="65" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E204" t="s">
         <v>1936</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G204" s="31">
-        <v>42332</v>
+        <v>42345</v>
       </c>
       <c r="H204" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I204" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J204" s="14"/>
     </row>
@@ -32597,25 +32777,25 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="28" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D205" s="65" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E205" t="s">
         <v>1937</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G205" s="31">
-        <v>42332</v>
+        <v>42345</v>
       </c>
       <c r="H205" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J205" s="14"/>
     </row>
@@ -32626,25 +32806,25 @@
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="28" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D206" s="65" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E206" t="s">
         <v>1938</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G206" s="31">
-        <v>42332</v>
+        <v>42345</v>
       </c>
       <c r="H206" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I206" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J206" s="14"/>
     </row>
@@ -32655,25 +32835,25 @@
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="28" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D207" s="65" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E207" t="s">
         <v>1939</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G207" s="31">
-        <v>42332</v>
+        <v>42345</v>
       </c>
       <c r="H207" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I207" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J207" s="14"/>
     </row>
@@ -32684,25 +32864,25 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="28" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D208" s="65" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E208" t="s">
         <v>1940</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G208" s="31">
-        <v>42332</v>
+        <v>42345</v>
       </c>
       <c r="H208" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I208" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J208" s="14"/>
     </row>
@@ -32713,25 +32893,25 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="28" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D209" s="65" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E209" t="s">
         <v>1941</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G209" s="31">
-        <v>42332</v>
+        <v>42345</v>
       </c>
       <c r="H209" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I209" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J209" s="14"/>
     </row>
@@ -32742,25 +32922,25 @@
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="28" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D210" s="65" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E210" t="s">
         <v>1942</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G210" s="31">
-        <v>42332</v>
+        <v>42345</v>
       </c>
       <c r="H210" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I210" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J210" s="14"/>
     </row>
@@ -32771,25 +32951,25 @@
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="28" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D211" s="65" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E211" t="s">
         <v>1943</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G211" s="31">
-        <v>42332</v>
+        <v>42345</v>
       </c>
       <c r="H211" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I211" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J211" s="14"/>
     </row>
@@ -32800,25 +32980,25 @@
       </c>
       <c r="B212" s="11"/>
       <c r="C212" s="28" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D212" s="65" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E212" t="s">
         <v>1944</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G212" s="31">
-        <v>42332</v>
+        <v>42345</v>
       </c>
       <c r="H212" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I212" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J212" s="14"/>
     </row>
@@ -32829,25 +33009,25 @@
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="28" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D213" s="65" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E213" t="s">
         <v>1945</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G213" s="31">
-        <v>42332</v>
+        <v>42345</v>
       </c>
       <c r="H213" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I213" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J213" s="14"/>
     </row>
@@ -32858,25 +33038,25 @@
       </c>
       <c r="B214" s="11"/>
       <c r="C214" s="28" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D214" s="65" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E214" t="s">
         <v>1946</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G214" s="31">
-        <v>42332</v>
+        <v>42345</v>
       </c>
       <c r="H214" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I214" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J214" s="14"/>
     </row>
@@ -32887,25 +33067,25 @@
       </c>
       <c r="B215" s="11"/>
       <c r="C215" s="28" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D215" s="65" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E215" t="s">
         <v>1947</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G215" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H215" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I215" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J215" s="14"/>
     </row>
@@ -32916,25 +33096,25 @@
       </c>
       <c r="B216" s="11"/>
       <c r="C216" s="28" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D216" s="65" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E216" t="s">
         <v>1948</v>
       </c>
       <c r="F216" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G216" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H216" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I216" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J216" s="14"/>
     </row>
@@ -32945,25 +33125,25 @@
       </c>
       <c r="B217" s="11"/>
       <c r="C217" s="28" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D217" s="65" t="s">
-        <v>1960</v>
+        <v>2171</v>
       </c>
       <c r="E217" t="s">
-        <v>1949</v>
+        <v>2172</v>
       </c>
       <c r="F217" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G217" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H217" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I217" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J217" s="14"/>
     </row>
@@ -32974,25 +33154,25 @@
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="28" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D218" s="65" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E218" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G218" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H218" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I218" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J218" s="14"/>
     </row>
@@ -33003,25 +33183,25 @@
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="28" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D219" s="65" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="E219" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G219" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H219" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I219" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J219" s="14"/>
     </row>
@@ -33032,25 +33212,25 @@
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="28" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D220" s="65" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="E220" t="s">
-        <v>1935</v>
+        <v>1951</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G220" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H220" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I220" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J220" s="14"/>
     </row>
@@ -33061,25 +33241,25 @@
       </c>
       <c r="B221" s="11"/>
       <c r="C221" s="28" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D221" s="65" t="s">
-        <v>2000</v>
+        <v>1962</v>
       </c>
       <c r="E221" t="s">
-        <v>1952</v>
+        <v>1935</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G221" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H221" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I221" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J221" s="14"/>
     </row>
@@ -33090,25 +33270,25 @@
       </c>
       <c r="B222" s="11"/>
       <c r="C222" s="28" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D222" s="65" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E222" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G222" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H222" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I222" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J222" s="14"/>
     </row>
@@ -33119,27 +33299,27 @@
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="28" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D223" s="65" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E223" t="s">
-        <v>1954</v>
+        <v>2166</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G223" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H223" s="70" t="s">
-        <v>235</v>
+        <v>2178</v>
       </c>
       <c r="I223" s="13" t="s">
-        <v>1895</v>
-      </c>
-      <c r="J223" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="J223" s="115"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -33148,25 +33328,25 @@
       </c>
       <c r="B224" s="11"/>
       <c r="C224" s="28" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D224" s="65" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E224" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G224" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H224" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I224" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J224" s="14"/>
     </row>
@@ -33177,25 +33357,25 @@
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="28" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D225" s="65" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E225" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G225" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H225" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I225" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J225" s="14"/>
     </row>
@@ -33206,25 +33386,25 @@
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="28" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D226" s="65" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E226" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>684</v>
+        <v>2168</v>
       </c>
       <c r="G226" s="31">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="H226" s="70" t="s">
-        <v>235</v>
+        <v>2167</v>
       </c>
       <c r="I226" s="13" t="s">
-        <v>1895</v>
+        <v>49</v>
       </c>
       <c r="J226" s="14"/>
     </row>
@@ -33234,11 +33414,27 @@
         <v>221</v>
       </c>
       <c r="B227" s="11"/>
-      <c r="C227" s="28"/>
-      <c r="F227" s="12"/>
-      <c r="G227" s="31"/>
-      <c r="H227" s="70"/>
-      <c r="I227" s="13"/>
+      <c r="C227" s="28" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D227" s="65" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G227" s="31">
+        <v>42345</v>
+      </c>
+      <c r="H227" s="70" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I227" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="J227" s="14"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -33248,7 +33444,6 @@
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="28"/>
-      <c r="D228" s="65"/>
       <c r="F228" s="12"/>
       <c r="G228" s="31"/>
       <c r="H228" s="70"/>
@@ -33260,13 +33455,30 @@
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-      <c r="B229" s="11"/>
-      <c r="C229" s="28"/>
-      <c r="D229" s="65"/>
-      <c r="F229" s="12"/>
-      <c r="G229" s="31"/>
-      <c r="H229" s="70"/>
-      <c r="I229" s="13"/>
+      <c r="B229" s="11" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C229" s="28" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D229" s="65" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E229" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F229" s="55" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G229" s="31">
+        <v>42345</v>
+      </c>
+      <c r="H229" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I229" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="J229" s="14"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -33311,66 +33523,51 @@
       <c r="I232" s="13"/>
       <c r="J232" s="14"/>
     </row>
-    <row r="233" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="B233" s="16"/>
-      <c r="C233" s="29"/>
-      <c r="D233" s="17"/>
-      <c r="E233" s="17"/>
-      <c r="F233" s="17"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="71"/>
-      <c r="I233" s="17"/>
-      <c r="J233" s="19"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B233" s="11"/>
+      <c r="C233" s="28"/>
+      <c r="D233" s="65"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="31"/>
+      <c r="H233" s="70"/>
+      <c r="I233" s="13"/>
+      <c r="J233" s="14"/>
+    </row>
+    <row r="234" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="B234" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="C234" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D234" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E234" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F234" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G234" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H234" s="70" t="s">
-        <v>1442</v>
-      </c>
-      <c r="I234" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J234" s="14"/>
+      <c r="B234" s="16"/>
+      <c r="C234" s="29"/>
+      <c r="D234" s="17"/>
+      <c r="E234" s="17"/>
+      <c r="F234" s="17"/>
+      <c r="G234" s="17"/>
+      <c r="H234" s="71"/>
+      <c r="I234" s="17"/>
+      <c r="J234" s="19"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="B235" s="11"/>
+      <c r="B235" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C235" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F235" s="55" t="s">
         <v>684</v>
@@ -33379,7 +33576,7 @@
         <v>42266</v>
       </c>
       <c r="H235" s="70" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="I235" s="13" t="s">
         <v>431</v>
@@ -33393,13 +33590,13 @@
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F236" s="55" t="s">
         <v>684</v>
@@ -33422,13 +33619,13 @@
       </c>
       <c r="B237" s="11"/>
       <c r="C237" s="28" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F237" s="55" t="s">
         <v>684</v>
@@ -33451,13 +33648,13 @@
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F238" s="55" t="s">
         <v>684</v>
@@ -33480,13 +33677,13 @@
       </c>
       <c r="B239" s="11"/>
       <c r="C239" s="28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F239" s="55" t="s">
         <v>684</v>
@@ -33509,19 +33706,19 @@
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="28" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D240" s="55" t="s">
-        <v>1533</v>
+        <v>769</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F240" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F240" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G240" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H240" s="70" t="s">
         <v>1441</v>
@@ -33538,13 +33735,13 @@
       </c>
       <c r="B241" s="11"/>
       <c r="C241" s="28" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D241" s="55" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F241" s="12" t="s">
         <v>684</v>
@@ -33567,13 +33764,13 @@
       </c>
       <c r="B242" s="11"/>
       <c r="C242" s="28" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D242" s="55" t="s">
-        <v>1527</v>
+        <v>1534</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F242" s="12" t="s">
         <v>684</v>
@@ -33596,13 +33793,13 @@
       </c>
       <c r="B243" s="11"/>
       <c r="C243" s="28" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D243" s="55" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F243" s="12" t="s">
         <v>684</v>
@@ -33625,13 +33822,13 @@
       </c>
       <c r="B244" s="11"/>
       <c r="C244" s="28" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D244" s="55" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F244" s="12" t="s">
         <v>684</v>
@@ -33654,13 +33851,13 @@
       </c>
       <c r="B245" s="11"/>
       <c r="C245" s="28" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D245" s="55" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F245" s="12" t="s">
         <v>684</v>
@@ -33683,13 +33880,13 @@
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="28" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D246" s="55" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F246" s="12" t="s">
         <v>684</v>
@@ -33712,13 +33909,13 @@
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="28" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D247" s="55" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F247" s="12" t="s">
         <v>684</v>
@@ -33740,13 +33937,27 @@
         <v>242</v>
       </c>
       <c r="B248" s="11"/>
-      <c r="C248" s="22"/>
-      <c r="D248" s="12"/>
-      <c r="E248" s="12"/>
-      <c r="F248" s="12"/>
-      <c r="G248" s="31"/>
-      <c r="H248" s="69"/>
-      <c r="I248" s="12"/>
+      <c r="C248" s="28" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D248" s="55" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F248" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G248" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H248" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I248" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J248" s="14"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -33774,7 +33985,7 @@
       <c r="D250" s="12"/>
       <c r="E250" s="12"/>
       <c r="F250" s="12"/>
-      <c r="G250" s="12"/>
+      <c r="G250" s="31"/>
       <c r="H250" s="69"/>
       <c r="I250" s="12"/>
       <c r="J250" s="14"/>
@@ -33824,66 +34035,52 @@
       <c r="I253" s="12"/>
       <c r="J253" s="14"/>
     </row>
-    <row r="254" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="B254" s="16"/>
-      <c r="C254" s="23"/>
-      <c r="D254" s="17"/>
-      <c r="E254" s="17"/>
-      <c r="F254" s="17"/>
-      <c r="G254" s="17"/>
-      <c r="H254" s="71"/>
-      <c r="I254" s="17"/>
-      <c r="J254" s="19"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B254" s="11"/>
+      <c r="C254" s="22"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
+      <c r="G254" s="12"/>
+      <c r="H254" s="69"/>
+      <c r="I254" s="12"/>
+      <c r="J254" s="14"/>
+    </row>
+    <row r="255" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="B255" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C255" s="28" t="s">
-        <v>842</v>
-      </c>
-      <c r="D255" s="12" t="s">
-        <v>840</v>
-      </c>
-      <c r="E255" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="F255" s="12" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G255" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H255" s="70" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I255" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="J255" s="14"/>
+      <c r="B255" s="16"/>
+      <c r="C255" s="23"/>
+      <c r="D255" s="17"/>
+      <c r="E255" s="17"/>
+      <c r="F255" s="17"/>
+      <c r="G255" s="17"/>
+      <c r="H255" s="71"/>
+      <c r="I255" s="17"/>
+      <c r="J255" s="19"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="B256" s="11"/>
+      <c r="B256" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C256" s="28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>787</v>
+        <v>840</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F256" s="12" t="s">
         <v>1325</v>
@@ -33906,13 +34103,13 @@
       </c>
       <c r="B257" s="11"/>
       <c r="C257" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F257" s="12" t="s">
         <v>1325</v>
@@ -33930,18 +34127,18 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
-        <f t="shared" ref="A258:A363" si="3">ROW($A258)-6</f>
+        <f t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="B258" s="11"/>
       <c r="C258" s="28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F258" s="12" t="s">
         <v>1325</v>
@@ -33959,18 +34156,18 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A259:A364" si="3">ROW($A259)-6</f>
         <v>253</v>
       </c>
       <c r="B259" s="11"/>
       <c r="C259" s="28" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F259" s="12" t="s">
         <v>1325</v>
@@ -33993,13 +34190,13 @@
       </c>
       <c r="B260" s="11"/>
       <c r="C260" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>841</v>
+        <v>790</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F260" s="12" t="s">
         <v>1325</v>
@@ -34022,13 +34219,13 @@
       </c>
       <c r="B261" s="11"/>
       <c r="C261" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F261" s="12" t="s">
         <v>1325</v>
@@ -34051,13 +34248,13 @@
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F262" s="12" t="s">
         <v>1325</v>
@@ -34080,13 +34277,13 @@
       </c>
       <c r="B263" s="11"/>
       <c r="C263" s="28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F263" s="12" t="s">
         <v>1325</v>
@@ -34109,13 +34306,13 @@
       </c>
       <c r="B264" s="11"/>
       <c r="C264" s="28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F264" s="12" t="s">
         <v>1325</v>
@@ -34138,13 +34335,13 @@
       </c>
       <c r="B265" s="11"/>
       <c r="C265" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F265" s="12" t="s">
         <v>1325</v>
@@ -34167,13 +34364,13 @@
       </c>
       <c r="B266" s="11"/>
       <c r="C266" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F266" s="12" t="s">
         <v>1325</v>
@@ -34196,13 +34393,13 @@
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F267" s="12" t="s">
         <v>1325</v>
@@ -34225,13 +34422,13 @@
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F268" s="12" t="s">
         <v>1325</v>
@@ -34254,13 +34451,13 @@
       </c>
       <c r="B269" s="11"/>
       <c r="C269" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F269" s="12" t="s">
         <v>1325</v>
@@ -34282,13 +34479,27 @@
         <v>264</v>
       </c>
       <c r="B270" s="11"/>
-      <c r="C270" s="28"/>
-      <c r="D270" s="12"/>
-      <c r="E270" s="12"/>
-      <c r="F270" s="12"/>
-      <c r="G270" s="31"/>
-      <c r="H270" s="70"/>
-      <c r="I270" s="13"/>
+      <c r="C270" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="E270" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="F270" s="12" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G270" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H270" s="70" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I270" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J270" s="14"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -34297,27 +34508,13 @@
         <v>265</v>
       </c>
       <c r="B271" s="11"/>
-      <c r="C271" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D271" s="55" t="s">
-        <v>857</v>
-      </c>
-      <c r="E271" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="F271" s="12" t="s">
-        <v>1499</v>
-      </c>
-      <c r="G271" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H271" s="74" t="s">
-        <v>1501</v>
-      </c>
-      <c r="I271" s="13" t="s">
-        <v>1500</v>
-      </c>
+      <c r="C271" s="28"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
+      <c r="F271" s="12"/>
+      <c r="G271" s="31"/>
+      <c r="H271" s="70"/>
+      <c r="I271" s="13"/>
       <c r="J271" s="14"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -34327,13 +34524,13 @@
       </c>
       <c r="B272" s="11"/>
       <c r="C272" s="28" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D272" s="55" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F272" s="12" t="s">
         <v>1499</v>
@@ -34356,13 +34553,13 @@
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="28" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D273" s="55" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F273" s="12" t="s">
         <v>1499</v>
@@ -34385,13 +34582,13 @@
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="28" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D274" s="55" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F274" s="12" t="s">
         <v>1499</v>
@@ -34414,13 +34611,13 @@
       </c>
       <c r="B275" s="11"/>
       <c r="C275" s="28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D275" s="55" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F275" s="12" t="s">
         <v>1499</v>
@@ -34443,25 +34640,25 @@
       </c>
       <c r="B276" s="11"/>
       <c r="C276" s="28" t="s">
-        <v>1897</v>
+        <v>783</v>
       </c>
       <c r="D276" s="55" t="s">
-        <v>1898</v>
+        <v>861</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>1899</v>
+        <v>776</v>
       </c>
       <c r="F276" s="12" t="s">
         <v>1499</v>
       </c>
       <c r="G276" s="31">
-        <v>42327</v>
+        <v>42268</v>
       </c>
       <c r="H276" s="74" t="s">
-        <v>1789</v>
+        <v>1501</v>
       </c>
       <c r="I276" s="13" t="s">
-        <v>1813</v>
+        <v>1500</v>
       </c>
       <c r="J276" s="14"/>
     </row>
@@ -34471,13 +34668,27 @@
         <v>271</v>
       </c>
       <c r="B277" s="11"/>
-      <c r="C277" s="28"/>
-      <c r="D277" s="55"/>
-      <c r="E277" s="12"/>
-      <c r="F277" s="12"/>
-      <c r="G277" s="31"/>
-      <c r="H277" s="70"/>
-      <c r="I277" s="13"/>
+      <c r="C277" s="28" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D277" s="55" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F277" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G277" s="31">
+        <v>42327</v>
+      </c>
+      <c r="H277" s="74" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I277" s="13" t="s">
+        <v>1813</v>
+      </c>
       <c r="J277" s="14"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -34487,24 +34698,12 @@
       </c>
       <c r="B278" s="11"/>
       <c r="C278" s="28"/>
-      <c r="D278" s="55" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E278" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="F278" s="12" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G278" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H278" s="70" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I278" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="D278" s="55"/>
+      <c r="E278" s="12"/>
+      <c r="F278" s="12"/>
+      <c r="G278" s="31"/>
+      <c r="H278" s="70"/>
+      <c r="I278" s="13"/>
       <c r="J278" s="14"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -34513,26 +34712,24 @@
         <v>273</v>
       </c>
       <c r="B279" s="11"/>
-      <c r="C279" s="28" t="s">
-        <v>1435</v>
-      </c>
+      <c r="C279" s="28"/>
       <c r="D279" s="55" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E279" s="55" t="s">
-        <v>1432</v>
+        <v>1327</v>
+      </c>
+      <c r="E279" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F279" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G279" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H279" s="70" t="s">
-        <v>235</v>
+        <v>1322</v>
       </c>
       <c r="I279" s="13" t="s">
-        <v>431</v>
+        <v>814</v>
       </c>
       <c r="J279" s="14"/>
     </row>
@@ -34543,13 +34740,13 @@
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="28" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D280" s="55" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E280" s="55" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F280" s="12" t="s">
         <v>1326</v>
@@ -34572,13 +34769,13 @@
       </c>
       <c r="B281" s="11"/>
       <c r="C281" s="28" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D281" s="55" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E281" s="55" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F281" s="12" t="s">
         <v>1326</v>
@@ -34601,22 +34798,22 @@
       </c>
       <c r="B282" s="11"/>
       <c r="C282" s="28" t="s">
-        <v>1575</v>
+        <v>1437</v>
       </c>
       <c r="D282" s="55" t="s">
-        <v>1576</v>
+        <v>1440</v>
       </c>
       <c r="E282" s="55" t="s">
-        <v>1574</v>
+        <v>1434</v>
       </c>
       <c r="F282" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G282" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H282" s="70" t="s">
-        <v>1590</v>
+        <v>235</v>
       </c>
       <c r="I282" s="13" t="s">
         <v>431</v>
@@ -34630,13 +34827,13 @@
       </c>
       <c r="B283" s="11"/>
       <c r="C283" s="28" t="s">
-        <v>1591</v>
+        <v>1575</v>
       </c>
       <c r="D283" s="55" t="s">
-        <v>1617</v>
+        <v>1576</v>
       </c>
       <c r="E283" s="55" t="s">
-        <v>1618</v>
+        <v>1574</v>
       </c>
       <c r="F283" s="12" t="s">
         <v>1326</v>
@@ -34659,13 +34856,13 @@
       </c>
       <c r="B284" s="11"/>
       <c r="C284" s="28" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D284" s="55" t="s">
-        <v>1596</v>
+        <v>1617</v>
       </c>
       <c r="E284" s="55" t="s">
-        <v>1603</v>
+        <v>1618</v>
       </c>
       <c r="F284" s="12" t="s">
         <v>1326</v>
@@ -34688,13 +34885,13 @@
       </c>
       <c r="B285" s="11"/>
       <c r="C285" s="28" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D285" s="55" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E285" s="55" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="F285" s="12" t="s">
         <v>1326</v>
@@ -34717,13 +34914,13 @@
       </c>
       <c r="B286" s="11"/>
       <c r="C286" s="28" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D286" s="55" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E286" s="55" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="F286" s="12" t="s">
         <v>1326</v>
@@ -34746,13 +34943,13 @@
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="28" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D287" s="55" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E287" s="55" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="F287" s="12" t="s">
         <v>1326</v>
@@ -34775,13 +34972,13 @@
       </c>
       <c r="B288" s="11"/>
       <c r="C288" s="28" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="D288" s="55" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E288" s="55" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="F288" s="12" t="s">
         <v>1326</v>
@@ -34804,13 +35001,13 @@
       </c>
       <c r="B289" s="11"/>
       <c r="C289" s="28" t="s">
-        <v>1619</v>
+        <v>1602</v>
       </c>
       <c r="D289" s="55" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E289" s="55" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F289" s="12" t="s">
         <v>1326</v>
@@ -34833,22 +35030,22 @@
       </c>
       <c r="B290" s="11"/>
       <c r="C290" s="28" t="s">
-        <v>1677</v>
+        <v>1619</v>
       </c>
       <c r="D290" s="55" t="s">
-        <v>1680</v>
+        <v>1601</v>
       </c>
       <c r="E290" s="55" t="s">
-        <v>1674</v>
+        <v>1608</v>
       </c>
       <c r="F290" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G290" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H290" s="70" t="s">
-        <v>235</v>
+        <v>1590</v>
       </c>
       <c r="I290" s="13" t="s">
         <v>431</v>
@@ -34862,13 +35059,13 @@
       </c>
       <c r="B291" s="11"/>
       <c r="C291" s="28" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D291" s="55" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E291" s="55" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F291" s="12" t="s">
         <v>1326</v>
@@ -34891,13 +35088,13 @@
       </c>
       <c r="B292" s="11"/>
       <c r="C292" s="28" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D292" s="55" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E292" s="55" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F292" s="12" t="s">
         <v>1326</v>
@@ -34920,19 +35117,19 @@
       </c>
       <c r="B293" s="11"/>
       <c r="C293" s="28" t="s">
-        <v>1731</v>
+        <v>1679</v>
       </c>
       <c r="D293" s="55" t="s">
-        <v>1727</v>
+        <v>1682</v>
       </c>
       <c r="E293" s="55" t="s">
-        <v>1723</v>
+        <v>1676</v>
       </c>
       <c r="F293" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G293" s="31">
-        <v>42297</v>
+        <v>42293</v>
       </c>
       <c r="H293" s="70" t="s">
         <v>235</v>
@@ -34949,13 +35146,13 @@
       </c>
       <c r="B294" s="11"/>
       <c r="C294" s="28" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D294" s="55" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E294" s="55" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F294" s="12" t="s">
         <v>1326</v>
@@ -34978,13 +35175,13 @@
       </c>
       <c r="B295" s="11"/>
       <c r="C295" s="28" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D295" s="55" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E295" s="55" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F295" s="12" t="s">
         <v>1326</v>
@@ -35007,13 +35204,13 @@
       </c>
       <c r="B296" s="11"/>
       <c r="C296" s="28" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D296" s="55" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E296" s="55" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F296" s="12" t="s">
         <v>1326</v>
@@ -35036,22 +35233,22 @@
       </c>
       <c r="B297" s="11"/>
       <c r="C297" s="28" t="s">
-        <v>1805</v>
+        <v>1734</v>
       </c>
       <c r="D297" s="55" t="s">
-        <v>1796</v>
+        <v>1730</v>
       </c>
       <c r="E297" s="55" t="s">
-        <v>1803</v>
+        <v>1726</v>
       </c>
       <c r="F297" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G297" s="31">
-        <v>42318</v>
+        <v>42297</v>
       </c>
       <c r="H297" s="70" t="s">
-        <v>1804</v>
+        <v>235</v>
       </c>
       <c r="I297" s="13" t="s">
         <v>431</v>
@@ -35065,13 +35262,13 @@
       </c>
       <c r="B298" s="11"/>
       <c r="C298" s="28" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D298" s="55" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E298" s="55" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="F298" s="12" t="s">
         <v>1326</v>
@@ -35080,10 +35277,10 @@
         <v>42318</v>
       </c>
       <c r="H298" s="70" t="s">
-        <v>235</v>
+        <v>1804</v>
       </c>
       <c r="I298" s="13" t="s">
-        <v>1813</v>
+        <v>431</v>
       </c>
       <c r="J298" s="14"/>
     </row>
@@ -35094,13 +35291,13 @@
       </c>
       <c r="B299" s="11"/>
       <c r="C299" s="28" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D299" s="55" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E299" s="55" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F299" s="12" t="s">
         <v>1326</v>
@@ -35123,13 +35320,13 @@
       </c>
       <c r="B300" s="11"/>
       <c r="C300" s="28" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D300" s="55" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E300" s="55" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F300" s="12" t="s">
         <v>1326</v>
@@ -35152,19 +35349,19 @@
       </c>
       <c r="B301" s="11"/>
       <c r="C301" s="28" t="s">
-        <v>1864</v>
+        <v>1808</v>
       </c>
       <c r="D301" s="55" t="s">
-        <v>1865</v>
+        <v>1799</v>
       </c>
       <c r="E301" s="55" t="s">
-        <v>1866</v>
+        <v>1802</v>
       </c>
       <c r="F301" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G301" s="31">
-        <v>42319</v>
+        <v>42318</v>
       </c>
       <c r="H301" s="70" t="s">
         <v>235</v>
@@ -35180,13 +35377,27 @@
         <v>296</v>
       </c>
       <c r="B302" s="11"/>
-      <c r="C302" s="28"/>
-      <c r="D302" s="55"/>
-      <c r="E302" s="55"/>
-      <c r="F302" s="12"/>
-      <c r="G302" s="31"/>
-      <c r="H302" s="70"/>
-      <c r="I302" s="13"/>
+      <c r="C302" s="28" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D302" s="55" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E302" s="55" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F302" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G302" s="31">
+        <v>42319</v>
+      </c>
+      <c r="H302" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I302" s="13" t="s">
+        <v>1813</v>
+      </c>
       <c r="J302" s="14"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -35196,10 +35407,10 @@
       </c>
       <c r="B303" s="11"/>
       <c r="C303" s="28"/>
-      <c r="D303" s="12"/>
+      <c r="D303" s="55"/>
       <c r="E303" s="55"/>
       <c r="F303" s="12"/>
-      <c r="G303" s="12"/>
+      <c r="G303" s="31"/>
       <c r="H303" s="70"/>
       <c r="I303" s="13"/>
       <c r="J303" s="14"/>
@@ -35240,27 +35451,13 @@
         <v>300</v>
       </c>
       <c r="B306" s="11"/>
-      <c r="C306" s="28" t="s">
-        <v>870</v>
-      </c>
-      <c r="D306" s="12" t="s">
-        <v>2113</v>
-      </c>
-      <c r="E306" s="12" t="s">
-        <v>2075</v>
-      </c>
-      <c r="F306" s="12" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G306" s="31">
-        <v>42341</v>
-      </c>
-      <c r="H306" s="70" t="s">
-        <v>2092</v>
-      </c>
-      <c r="I306" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C306" s="28"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="55"/>
+      <c r="F306" s="12"/>
+      <c r="G306" s="12"/>
+      <c r="H306" s="70"/>
+      <c r="I306" s="13"/>
       <c r="J306" s="14"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -35270,13 +35467,13 @@
       </c>
       <c r="B307" s="11"/>
       <c r="C307" s="28" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="E307" s="12" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="F307" s="12" t="s">
         <v>1321</v>
@@ -35285,7 +35482,7 @@
         <v>42341</v>
       </c>
       <c r="H307" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I307" s="13" t="s">
         <v>814</v>
@@ -35299,13 +35496,13 @@
       </c>
       <c r="B308" s="11"/>
       <c r="C308" s="28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="E308" s="12" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="F308" s="12" t="s">
         <v>1321</v>
@@ -35314,7 +35511,7 @@
         <v>42341</v>
       </c>
       <c r="H308" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I308" s="13" t="s">
         <v>814</v>
@@ -35328,13 +35525,13 @@
       </c>
       <c r="B309" s="11"/>
       <c r="C309" s="28" t="s">
-        <v>873</v>
-      </c>
-      <c r="D309" s="55" t="s">
-        <v>2116</v>
+        <v>872</v>
+      </c>
+      <c r="D309" s="12" t="s">
+        <v>2113</v>
       </c>
       <c r="E309" s="12" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="F309" s="12" t="s">
         <v>1321</v>
@@ -35343,7 +35540,7 @@
         <v>42341</v>
       </c>
       <c r="H309" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I309" s="13" t="s">
         <v>814</v>
@@ -35357,13 +35554,13 @@
       </c>
       <c r="B310" s="11"/>
       <c r="C310" s="28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D310" s="55" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="E310" s="12" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="F310" s="12" t="s">
         <v>1321</v>
@@ -35372,7 +35569,7 @@
         <v>42341</v>
       </c>
       <c r="H310" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I310" s="13" t="s">
         <v>814</v>
@@ -35386,13 +35583,13 @@
       </c>
       <c r="B311" s="11"/>
       <c r="C311" s="28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D311" s="55" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="F311" s="12" t="s">
         <v>1321</v>
@@ -35401,7 +35598,7 @@
         <v>42341</v>
       </c>
       <c r="H311" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I311" s="13" t="s">
         <v>814</v>
@@ -35415,13 +35612,13 @@
       </c>
       <c r="B312" s="11"/>
       <c r="C312" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D312" s="55" t="s">
-        <v>465</v>
+        <v>2116</v>
       </c>
       <c r="E312" s="12" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="F312" s="12" t="s">
         <v>1321</v>
@@ -35430,7 +35627,7 @@
         <v>42341</v>
       </c>
       <c r="H312" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I312" s="13" t="s">
         <v>814</v>
@@ -35444,13 +35641,13 @@
       </c>
       <c r="B313" s="11"/>
       <c r="C313" s="28" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D313" s="55" t="s">
-        <v>2119</v>
+        <v>465</v>
       </c>
       <c r="E313" s="12" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="F313" s="12" t="s">
         <v>1321</v>
@@ -35459,7 +35656,7 @@
         <v>42341</v>
       </c>
       <c r="H313" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I313" s="13" t="s">
         <v>814</v>
@@ -35473,13 +35670,13 @@
       </c>
       <c r="B314" s="11"/>
       <c r="C314" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D314" s="55" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="E314" s="12" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="F314" s="12" t="s">
         <v>1321</v>
@@ -35488,7 +35685,7 @@
         <v>42341</v>
       </c>
       <c r="H314" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I314" s="13" t="s">
         <v>814</v>
@@ -35502,13 +35699,13 @@
       </c>
       <c r="B315" s="11"/>
       <c r="C315" s="28" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D315" s="55" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="E315" s="12" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="F315" s="12" t="s">
         <v>1321</v>
@@ -35517,7 +35714,7 @@
         <v>42341</v>
       </c>
       <c r="H315" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I315" s="13" t="s">
         <v>814</v>
@@ -35531,13 +35728,13 @@
       </c>
       <c r="B316" s="11"/>
       <c r="C316" s="28" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D316" s="55" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="E316" s="12" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="F316" s="12" t="s">
         <v>1321</v>
@@ -35546,7 +35743,7 @@
         <v>42341</v>
       </c>
       <c r="H316" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I316" s="13" t="s">
         <v>814</v>
@@ -35560,13 +35757,13 @@
       </c>
       <c r="B317" s="11"/>
       <c r="C317" s="28" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D317" s="55" t="s">
-        <v>868</v>
+        <v>2120</v>
       </c>
       <c r="E317" s="12" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="F317" s="12" t="s">
         <v>1321</v>
@@ -35575,7 +35772,7 @@
         <v>42341</v>
       </c>
       <c r="H317" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I317" s="13" t="s">
         <v>814</v>
@@ -35589,13 +35786,13 @@
       </c>
       <c r="B318" s="11"/>
       <c r="C318" s="28" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D318" s="55" t="s">
-        <v>2123</v>
+        <v>868</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="F318" s="12" t="s">
         <v>1321</v>
@@ -35604,7 +35801,7 @@
         <v>42341</v>
       </c>
       <c r="H318" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I318" s="13" t="s">
         <v>814</v>
@@ -35618,13 +35815,13 @@
       </c>
       <c r="B319" s="11"/>
       <c r="C319" s="28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D319" s="55" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="E319" s="12" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="F319" s="12" t="s">
         <v>1321</v>
@@ -35633,7 +35830,7 @@
         <v>42341</v>
       </c>
       <c r="H319" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I319" s="13" t="s">
         <v>814</v>
@@ -35647,13 +35844,13 @@
       </c>
       <c r="B320" s="11"/>
       <c r="C320" s="28" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D320" s="55" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="E320" s="12" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="F320" s="12" t="s">
         <v>1321</v>
@@ -35662,7 +35859,7 @@
         <v>42341</v>
       </c>
       <c r="H320" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I320" s="13" t="s">
         <v>814</v>
@@ -35676,13 +35873,13 @@
       </c>
       <c r="B321" s="11"/>
       <c r="C321" s="28" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D321" s="55" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="E321" s="12" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="F321" s="12" t="s">
         <v>1321</v>
@@ -35691,7 +35888,7 @@
         <v>42341</v>
       </c>
       <c r="H321" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I321" s="13" t="s">
         <v>814</v>
@@ -35705,13 +35902,13 @@
       </c>
       <c r="B322" s="11"/>
       <c r="C322" s="28" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D322" s="55" t="s">
-        <v>20</v>
+        <v>2125</v>
       </c>
       <c r="E322" s="12" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="F322" s="12" t="s">
         <v>1321</v>
@@ -35720,7 +35917,7 @@
         <v>42341</v>
       </c>
       <c r="H322" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I322" s="13" t="s">
         <v>814</v>
@@ -35734,25 +35931,25 @@
       </c>
       <c r="B323" s="11"/>
       <c r="C323" s="28" t="s">
-        <v>2146</v>
+        <v>886</v>
       </c>
       <c r="D323" s="55" t="s">
-        <v>2128</v>
-      </c>
-      <c r="E323" s="117" t="s">
-        <v>2100</v>
+        <v>20</v>
+      </c>
+      <c r="E323" s="12" t="s">
+        <v>2089</v>
       </c>
       <c r="F323" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G323" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H323" s="70" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>2094</v>
+        <v>814</v>
       </c>
       <c r="J323" s="14"/>
     </row>
@@ -35763,25 +35960,25 @@
       </c>
       <c r="B324" s="11"/>
       <c r="C324" s="28" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="D324" s="55" t="s">
-        <v>2129</v>
-      </c>
-      <c r="E324" s="12" t="s">
-        <v>2101</v>
+        <v>2126</v>
+      </c>
+      <c r="E324" s="117" t="s">
+        <v>2098</v>
       </c>
       <c r="F324" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G324" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H324" s="70" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I324" s="13" t="s">
         <v>2092</v>
-      </c>
-      <c r="I324" s="13" t="s">
-        <v>814</v>
       </c>
       <c r="J324" s="14"/>
     </row>
@@ -35792,13 +35989,13 @@
       </c>
       <c r="B325" s="11"/>
       <c r="C325" s="28" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="D325" s="55" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="F325" s="12" t="s">
         <v>1321</v>
@@ -35807,7 +36004,7 @@
         <v>42341</v>
       </c>
       <c r="H325" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I325" s="13" t="s">
         <v>814</v>
@@ -35821,25 +36018,25 @@
       </c>
       <c r="B326" s="11"/>
       <c r="C326" s="28" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="D326" s="55" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="E326" s="12" t="s">
-        <v>2095</v>
+        <v>2100</v>
       </c>
       <c r="F326" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G326" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H326" s="70" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="I326" s="13" t="s">
-        <v>2094</v>
+        <v>814</v>
       </c>
       <c r="J326" s="14"/>
     </row>
@@ -35850,25 +36047,25 @@
       </c>
       <c r="B327" s="11"/>
       <c r="C327" s="28" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="D327" s="55" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="E327" s="12" t="s">
-        <v>2103</v>
+        <v>2093</v>
       </c>
       <c r="F327" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G327" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H327" s="70" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I327" s="13" t="s">
         <v>2092</v>
-      </c>
-      <c r="I327" s="13" t="s">
-        <v>814</v>
       </c>
       <c r="J327" s="14"/>
     </row>
@@ -35879,13 +36076,13 @@
       </c>
       <c r="B328" s="11"/>
       <c r="C328" s="28" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="D328" s="55" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="E328" s="12" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="F328" s="12" t="s">
         <v>1321</v>
@@ -35894,7 +36091,7 @@
         <v>42341</v>
       </c>
       <c r="H328" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I328" s="13" t="s">
         <v>814</v>
@@ -35908,25 +36105,25 @@
       </c>
       <c r="B329" s="11"/>
       <c r="C329" s="28" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="D329" s="55" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="E329" s="12" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="F329" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G329" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H329" s="70" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>2094</v>
+        <v>814</v>
       </c>
       <c r="J329" s="14"/>
     </row>
@@ -35937,13 +36134,13 @@
       </c>
       <c r="B330" s="11"/>
       <c r="C330" s="28" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="D330" s="55" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="E330" s="12" t="s">
-        <v>2096</v>
+        <v>2103</v>
       </c>
       <c r="F330" s="12" t="s">
         <v>1321</v>
@@ -35952,10 +36149,10 @@
         <v>42340</v>
       </c>
       <c r="H330" s="70" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="I330" s="13" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="J330" s="14"/>
     </row>
@@ -35966,25 +36163,25 @@
       </c>
       <c r="B331" s="11"/>
       <c r="C331" s="28" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="D331" s="55" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>2106</v>
+        <v>2094</v>
       </c>
       <c r="F331" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G331" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H331" s="70" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I331" s="13" t="s">
         <v>2092</v>
-      </c>
-      <c r="I331" s="13" t="s">
-        <v>814</v>
       </c>
       <c r="J331" s="14"/>
     </row>
@@ -35995,13 +36192,13 @@
       </c>
       <c r="B332" s="11"/>
       <c r="C332" s="28" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="D332" s="55" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="F332" s="12" t="s">
         <v>1321</v>
@@ -36010,7 +36207,7 @@
         <v>42341</v>
       </c>
       <c r="H332" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I332" s="13" t="s">
         <v>814</v>
@@ -36024,13 +36221,13 @@
       </c>
       <c r="B333" s="11"/>
       <c r="C333" s="28" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="D333" s="55" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="F333" s="12" t="s">
         <v>1321</v>
@@ -36039,7 +36236,7 @@
         <v>42341</v>
       </c>
       <c r="H333" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I333" s="13" t="s">
         <v>814</v>
@@ -36053,13 +36250,13 @@
       </c>
       <c r="B334" s="11"/>
       <c r="C334" s="28" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="D334" s="55" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="F334" s="12" t="s">
         <v>1321</v>
@@ -36068,7 +36265,7 @@
         <v>42341</v>
       </c>
       <c r="H334" s="70" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I334" s="13" t="s">
         <v>814</v>
@@ -36082,25 +36279,25 @@
       </c>
       <c r="B335" s="11"/>
       <c r="C335" s="28" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="D335" s="55" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="E335" s="12" t="s">
-        <v>2097</v>
+        <v>2107</v>
       </c>
       <c r="F335" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G335" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H335" s="70" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="I335" s="13" t="s">
-        <v>2094</v>
+        <v>814</v>
       </c>
       <c r="J335" s="14"/>
     </row>
@@ -36111,25 +36308,25 @@
       </c>
       <c r="B336" s="11"/>
       <c r="C336" s="28" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="D336" s="55" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="E336" s="12" t="s">
-        <v>2110</v>
+        <v>2095</v>
       </c>
       <c r="F336" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G336" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H336" s="70" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I336" s="13" t="s">
         <v>2092</v>
-      </c>
-      <c r="I336" s="13" t="s">
-        <v>814</v>
       </c>
       <c r="J336" s="14"/>
     </row>
@@ -36140,25 +36337,25 @@
       </c>
       <c r="B337" s="11"/>
       <c r="C337" s="28" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="D337" s="55" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="E337" s="12" t="s">
-        <v>2098</v>
+        <v>2108</v>
       </c>
       <c r="F337" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G337" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H337" s="70" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="I337" s="13" t="s">
-        <v>2094</v>
+        <v>814</v>
       </c>
       <c r="J337" s="14"/>
     </row>
@@ -36169,25 +36366,25 @@
       </c>
       <c r="B338" s="11"/>
       <c r="C338" s="28" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="D338" s="55" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="E338" s="12" t="s">
-        <v>2111</v>
+        <v>2096</v>
       </c>
       <c r="F338" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G338" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H338" s="70" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I338" s="13" t="s">
         <v>2092</v>
-      </c>
-      <c r="I338" s="13" t="s">
-        <v>814</v>
       </c>
       <c r="J338" s="14"/>
     </row>
@@ -36198,25 +36395,25 @@
       </c>
       <c r="B339" s="11"/>
       <c r="C339" s="28" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="D339" s="55" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="E339" s="12" t="s">
-        <v>2099</v>
+        <v>2109</v>
       </c>
       <c r="F339" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G339" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H339" s="70" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="I339" s="13" t="s">
-        <v>2094</v>
+        <v>814</v>
       </c>
       <c r="J339" s="14"/>
     </row>
@@ -36227,25 +36424,25 @@
       </c>
       <c r="B340" s="11"/>
       <c r="C340" s="28" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="D340" s="55" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="E340" s="12" t="s">
-        <v>2112</v>
+        <v>2097</v>
       </c>
       <c r="F340" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G340" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H340" s="70" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I340" s="13" t="s">
         <v>2092</v>
-      </c>
-      <c r="I340" s="13" t="s">
-        <v>814</v>
       </c>
       <c r="J340" s="14"/>
     </row>
@@ -36255,13 +36452,27 @@
         <v>335</v>
       </c>
       <c r="B341" s="11"/>
-      <c r="C341" s="28"/>
-      <c r="D341" s="55"/>
-      <c r="E341" s="12"/>
-      <c r="F341" s="12"/>
-      <c r="G341" s="31"/>
-      <c r="H341" s="70"/>
-      <c r="I341" s="13"/>
+      <c r="C341" s="28" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D341" s="55" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E341" s="12" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F341" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G341" s="31">
+        <v>42341</v>
+      </c>
+      <c r="H341" s="70" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I341" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J341" s="14"/>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -36286,10 +36497,10 @@
       </c>
       <c r="B343" s="11"/>
       <c r="C343" s="28"/>
-      <c r="D343" s="12"/>
+      <c r="D343" s="55"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
-      <c r="G343" s="12"/>
+      <c r="G343" s="31"/>
       <c r="H343" s="70"/>
       <c r="I343" s="13"/>
       <c r="J343" s="14"/>
@@ -36309,7 +36520,7 @@
       <c r="I344" s="13"/>
       <c r="J344" s="14"/>
     </row>
-    <row r="345" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345">
         <f t="shared" si="3"/>
         <v>339</v>
@@ -36324,111 +36535,97 @@
       <c r="I345" s="13"/>
       <c r="J345" s="14"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="B346" s="11"/>
+      <c r="C346" s="28"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
+      <c r="F346" s="12"/>
+      <c r="G346" s="12"/>
+      <c r="H346" s="70"/>
+      <c r="I346" s="13"/>
+      <c r="J346" s="14"/>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <f t="shared" si="3"/>
+        <v>341</v>
+      </c>
+      <c r="B347" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C346" s="27" t="s">
+      <c r="C347" s="27" t="s">
         <v>1333</v>
       </c>
-      <c r="D346" s="7" t="s">
+      <c r="D347" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="E346" s="8" t="s">
+      <c r="E347" s="8" t="s">
         <v>1330</v>
       </c>
-      <c r="F346" s="8" t="s">
+      <c r="F347" s="8" t="s">
         <v>1331</v>
       </c>
-      <c r="G346" s="30">
+      <c r="G347" s="30">
         <v>42256</v>
       </c>
-      <c r="H346" s="112" t="s">
+      <c r="H347" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="I346" s="9" t="s">
+      <c r="I347" s="9" t="s">
         <v>1332</v>
       </c>
-      <c r="J346" s="10"/>
-    </row>
-    <row r="347" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A347">
-        <f>ROW($A347)-6</f>
-        <v>341</v>
-      </c>
-      <c r="B347" s="11"/>
-      <c r="C347" s="28"/>
-      <c r="D347" s="11"/>
-      <c r="E347" s="12"/>
-      <c r="F347" s="12"/>
-      <c r="G347" s="12"/>
-      <c r="H347" s="70"/>
-      <c r="I347" s="13"/>
-      <c r="J347" s="14"/>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J347" s="10"/>
+    </row>
+    <row r="348" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <f>ROW($A348)-6</f>
         <v>342</v>
       </c>
-      <c r="B348" s="7" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C348" s="27" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D348" s="7" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E348" s="8" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F348" s="8" t="s">
-        <v>1788</v>
-      </c>
-      <c r="G348" s="30">
-        <v>42313</v>
-      </c>
-      <c r="H348" s="112" t="s">
-        <v>1789</v>
-      </c>
-      <c r="I348" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="J348" s="10"/>
+      <c r="B348" s="11"/>
+      <c r="C348" s="28"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="12"/>
+      <c r="F348" s="12"/>
+      <c r="G348" s="12"/>
+      <c r="H348" s="70"/>
+      <c r="I348" s="13"/>
+      <c r="J348" s="14"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
         <f>ROW($A349)-6</f>
         <v>343</v>
       </c>
-      <c r="B349" s="11"/>
-      <c r="C349" s="28" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D349" s="11" t="s">
-        <v>1785</v>
-      </c>
-      <c r="E349" s="12" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F349" s="55" t="s">
+      <c r="B349" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C349" s="27" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D349" s="7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E349" s="8" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F349" s="8" t="s">
         <v>1788</v>
       </c>
-      <c r="G349" s="31">
+      <c r="G349" s="30">
         <v>42313</v>
       </c>
-      <c r="H349" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I349" s="13" t="s">
-        <v>1790</v>
-      </c>
-      <c r="J349" s="14"/>
+      <c r="H349" s="112" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I349" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J349" s="10"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
@@ -36436,18 +36633,32 @@
         <v>344</v>
       </c>
       <c r="B350" s="11"/>
-      <c r="C350" s="28"/>
-      <c r="D350" s="11"/>
-      <c r="E350" s="12"/>
-      <c r="F350" s="12"/>
-      <c r="G350" s="12"/>
-      <c r="H350" s="70"/>
-      <c r="I350" s="13"/>
+      <c r="C350" s="28" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D350" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E350" s="12" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F350" s="55" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G350" s="31">
+        <v>42313</v>
+      </c>
+      <c r="H350" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I350" s="13" t="s">
+        <v>1790</v>
+      </c>
       <c r="J350" s="14"/>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
-        <f t="shared" si="3"/>
+        <f>ROW($A351)-6</f>
         <v>345</v>
       </c>
       <c r="B351" s="11"/>
@@ -36471,39 +36682,39 @@
       <c r="E352" s="12"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
-      <c r="H352" s="69"/>
-      <c r="I352" s="12"/>
+      <c r="H352" s="70"/>
+      <c r="I352" s="13"/>
       <c r="J352" s="14"/>
     </row>
-    <row r="353" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
-      <c r="B353" s="16"/>
-      <c r="C353" s="29"/>
-      <c r="D353" s="16"/>
-      <c r="E353" s="17"/>
-      <c r="F353" s="17"/>
-      <c r="G353" s="17"/>
-      <c r="H353" s="71"/>
-      <c r="I353" s="17"/>
-      <c r="J353" s="19"/>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B353" s="11"/>
+      <c r="C353" s="28"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="12"/>
+      <c r="F353" s="12"/>
+      <c r="G353" s="12"/>
+      <c r="H353" s="69"/>
+      <c r="I353" s="12"/>
+      <c r="J353" s="14"/>
+    </row>
+    <row r="354" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="B354" s="11"/>
-      <c r="C354" s="28"/>
-      <c r="D354" s="12"/>
-      <c r="E354" s="12"/>
-      <c r="F354" s="12"/>
-      <c r="G354" s="12"/>
-      <c r="H354" s="69"/>
-      <c r="I354" s="12"/>
-      <c r="J354" s="14"/>
+      <c r="B354" s="16"/>
+      <c r="C354" s="29"/>
+      <c r="D354" s="16"/>
+      <c r="E354" s="17"/>
+      <c r="F354" s="17"/>
+      <c r="G354" s="17"/>
+      <c r="H354" s="71"/>
+      <c r="I354" s="17"/>
+      <c r="J354" s="19"/>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
@@ -36625,23 +36836,35 @@
       <c r="I362" s="12"/>
       <c r="J362" s="14"/>
     </row>
-    <row r="363" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
-      <c r="B363" s="16"/>
-      <c r="C363" s="29"/>
-      <c r="D363" s="17"/>
-      <c r="E363" s="17"/>
-      <c r="F363" s="17"/>
-      <c r="G363" s="17"/>
-      <c r="H363" s="71"/>
-      <c r="I363" s="17"/>
-      <c r="J363" s="19"/>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C364" s="3"/>
+      <c r="B363" s="11"/>
+      <c r="C363" s="28"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="12"/>
+      <c r="F363" s="12"/>
+      <c r="G363" s="12"/>
+      <c r="H363" s="69"/>
+      <c r="I363" s="12"/>
+      <c r="J363" s="14"/>
+    </row>
+    <row r="364" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <f t="shared" si="3"/>
+        <v>358</v>
+      </c>
+      <c r="B364" s="16"/>
+      <c r="C364" s="29"/>
+      <c r="D364" s="17"/>
+      <c r="E364" s="17"/>
+      <c r="F364" s="17"/>
+      <c r="G364" s="17"/>
+      <c r="H364" s="71"/>
+      <c r="I364" s="17"/>
+      <c r="J364" s="19"/>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C365" s="3"/>
@@ -36652,8 +36875,11 @@
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C367" s="3"/>
     </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:J363">
+  <autoFilter ref="A7:J364">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>
@@ -40214,17 +40440,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -40239,107 +40465,107 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="460" windowWidth="34700" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34700" windowHeight="19900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$375</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4538" uniqueCount="2180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="2224">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -11154,16 +11154,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>公会币图标</t>
-    <rPh sb="0" eb="1">
-      <t>gong'hui'bi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>tu'b</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_gonghuibi.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -16306,10 +16296,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>youxiang_waifaguang.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>邮箱选中</t>
     <rPh sb="0" eb="1">
       <t>you'xiang</t>
@@ -16422,6 +16408,413 @@
     </rPh>
     <rPh sb="65" eb="66">
       <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruodianicon_dead.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新资源</t>
+    <rPh sb="0" eb="1">
+      <t>xin'z</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局56</t>
+  </si>
+  <si>
+    <t>2015年12月11日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会1</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会2</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会3</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会4</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会5</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会6</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会7</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会8</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会9</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会10</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面65</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物技能选中</t>
+    <rPh sb="0" eb="1">
+      <t>chogn'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xuan'zhong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui_sousuo.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui_xinxitiao.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui_ban1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui_ban2.png</t>
+  </si>
+  <si>
+    <t>gonghui_ban3.png</t>
+  </si>
+  <si>
+    <t>gonghui_duizhang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui_jiantou.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui_jiao.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui_jiao2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui_jiaren.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxiang_waifaguang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chongwu_jinengwaifaguang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_搜索图标</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sou'suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_列表标题栏</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao'ti</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_祈福标题</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi'fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao'ti</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_公会信息标题</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>biao'ti</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_公会信息标题</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_队长标</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dui'zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_箭头</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian'tou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_版式角</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ban'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_新带角版式</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban'shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_加人图标</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gonghuibi2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会币图标1</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui'bi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会币图标2</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui'bi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标24</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：
+新增对局UI弱点死亡icon
+新增宠物技能选中资源
+公会UI新资源提交
+icon增加了新一种公会币</t>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>si'wang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xuan'zhong</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>l</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>yi'zhong</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>gong'hui'bi</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -17388,8 +17781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -17797,10 +18190,10 @@
     </row>
     <row r="45" spans="2:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B45" s="36" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C45" s="98" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>49</v>
@@ -17808,21 +18201,21 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="36" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C46" s="36" t="s">
         <v>1652</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="D46" s="36" t="s">
         <v>1653</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="36" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C47" s="36" t="s">
         <v>1670</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>1671</v>
       </c>
       <c r="D47" s="36" t="s">
         <v>464</v>
@@ -17830,54 +18223,54 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="36" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D48" s="36" t="s">
         <v>1672</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B49" s="36" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C49" s="98" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D49" s="36" t="s">
         <v>1687</v>
-      </c>
-      <c r="C49" s="98" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="36" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="59" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C51" s="36" t="s">
         <v>1744</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="D51" s="36" t="s">
         <v>1745</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="36" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C52" s="36" t="s">
         <v>1761</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>1762</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>49</v>
@@ -17885,32 +18278,32 @@
     </row>
     <row r="53" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C53" s="98" t="s">
         <v>1791</v>
       </c>
-      <c r="C53" s="98" t="s">
+      <c r="D53" s="36" t="s">
         <v>1792</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="102" x14ac:dyDescent="0.25">
       <c r="B54" s="36" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C54" s="98" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D54" s="36" t="s">
         <v>1854</v>
-      </c>
-      <c r="C54" s="98" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B55" s="36" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C55" s="98" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D55" s="36" t="s">
         <v>49</v>
@@ -17918,10 +18311,10 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="36" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D56" s="36" t="s">
         <v>49</v>
@@ -17929,10 +18322,10 @@
     </row>
     <row r="57" spans="2:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B57" s="36" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C57" s="98" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>49</v>
@@ -17940,21 +18333,21 @@
     </row>
     <row r="58" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B58" s="36" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C58" s="98" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D58" s="36" t="s">
         <v>1903</v>
-      </c>
-      <c r="C58" s="98" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C59" s="98" t="s">
         <v>1908</v>
-      </c>
-      <c r="C59" s="98" t="s">
-        <v>1909</v>
       </c>
       <c r="D59" s="36" t="s">
         <v>464</v>
@@ -17962,10 +18355,10 @@
     </row>
     <row r="60" spans="2:4" ht="85" x14ac:dyDescent="0.25">
       <c r="B60" s="36" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C60" s="98" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D60" s="36" t="s">
         <v>49</v>
@@ -17973,10 +18366,10 @@
     </row>
     <row r="61" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B61" s="36" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D61" s="36" t="s">
         <v>464</v>
@@ -17984,30 +18377,36 @@
     </row>
     <row r="62" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B62" s="36" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C62" s="98" t="s">
         <v>2162</v>
       </c>
-      <c r="C62" s="98" t="s">
+      <c r="D62" s="36" t="s">
         <v>2163</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C63" s="98" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D63" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+    <row r="64" spans="2:4" ht="85" x14ac:dyDescent="0.25">
+      <c r="B64" s="36" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C64" s="98" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>2183</v>
+      </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="36"/>
@@ -26367,7 +26766,7 @@
         <v>123</v>
       </c>
       <c r="D94" s="116" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="31">
@@ -27166,13 +27565,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J368"/>
+  <dimension ref="A2:J379"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H224" sqref="H224"/>
+      <selection pane="bottomRight" activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -27208,13 +27607,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1794</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1795</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -27918,7 +28317,7 @@
         <v>42340</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>431</v>
@@ -27947,7 +28346,7 @@
         <v>42340</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>431</v>
@@ -27976,7 +28375,7 @@
         <v>42286</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>431</v>
@@ -28512,13 +28911,13 @@
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="28" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>684</v>
@@ -28530,7 +28929,7 @@
         <v>235</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J51" s="14"/>
     </row>
@@ -28541,13 +28940,13 @@
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="28" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>684</v>
@@ -28559,7 +28958,7 @@
         <v>235</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J52" s="14"/>
     </row>
@@ -28570,13 +28969,13 @@
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="28" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>684</v>
@@ -28588,7 +28987,7 @@
         <v>235</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J53" s="14"/>
     </row>
@@ -28599,13 +28998,13 @@
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="28" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D54" s="65" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>684</v>
@@ -28617,7 +29016,7 @@
         <v>235</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J54" s="14"/>
     </row>
@@ -28628,13 +29027,13 @@
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="28" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D55" s="65" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>684</v>
@@ -28646,7 +29045,7 @@
         <v>235</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J55" s="14"/>
     </row>
@@ -28657,13 +29056,13 @@
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="28" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D56" s="65" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>684</v>
@@ -28675,7 +29074,7 @@
         <v>235</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J56" s="14"/>
     </row>
@@ -28686,13 +29085,13 @@
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="28" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D57" s="65" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>684</v>
@@ -28704,7 +29103,7 @@
         <v>235</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J57" s="14"/>
     </row>
@@ -28715,13 +29114,13 @@
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="28" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D58" s="65" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>684</v>
@@ -28733,7 +29132,7 @@
         <v>235</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J58" s="14"/>
     </row>
@@ -28744,13 +29143,13 @@
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="28" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D59" s="65" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>684</v>
@@ -28762,7 +29161,7 @@
         <v>235</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J59" s="14"/>
     </row>
@@ -28773,13 +29172,13 @@
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="28" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D60" s="65" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E60" s="55" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>684</v>
@@ -28791,7 +29190,7 @@
         <v>235</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J60" s="14"/>
     </row>
@@ -28802,13 +29201,13 @@
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="28" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D61" s="65" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>684</v>
@@ -28820,7 +29219,7 @@
         <v>235</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J61" s="14"/>
     </row>
@@ -28831,13 +29230,13 @@
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="28" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D62" s="65" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>684</v>
@@ -28849,7 +29248,7 @@
         <v>235</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J62" s="14"/>
     </row>
@@ -28859,13 +29258,27 @@
         <v>57</v>
       </c>
       <c r="B63" s="11"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="13"/>
+      <c r="C63" s="28" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D63" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G63" s="31">
+        <v>42345</v>
+      </c>
+      <c r="H63" s="69" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>2180</v>
+      </c>
       <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -29156,10 +29569,10 @@
         <v>1379</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>684</v>
@@ -29168,7 +29581,7 @@
         <v>42289</v>
       </c>
       <c r="H74" s="69" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>8</v>
@@ -29185,7 +29598,7 @@
         <v>1380</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>1342</v>
@@ -29313,7 +29726,7 @@
         <v>42307</v>
       </c>
       <c r="H79" s="69" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I79" s="13" t="s">
         <v>431</v>
@@ -29458,7 +29871,7 @@
         <v>42289</v>
       </c>
       <c r="H84" s="69" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="I84" s="13" t="s">
         <v>431</v>
@@ -29603,7 +30016,7 @@
         <v>42296</v>
       </c>
       <c r="H89" s="69" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I89" s="13" t="s">
         <v>431</v>
@@ -29939,10 +30352,10 @@
         <v>1476</v>
       </c>
       <c r="D101" s="65" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="12" t="s">
         <v>1901</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>1902</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>684</v>
@@ -29954,13 +30367,13 @@
         <v>235</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" ref="A102:A258" si="2">ROW($A102)-6</f>
+        <f t="shared" ref="A102:A268" si="2">ROW($A102)-6</f>
         <v>96</v>
       </c>
       <c r="B102" s="11"/>
@@ -30345,7 +30758,7 @@
         <v>1554</v>
       </c>
       <c r="D115" s="65" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>1451</v>
@@ -30374,10 +30787,10 @@
         <v>1555</v>
       </c>
       <c r="D116" s="65" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>684</v>
@@ -30403,7 +30816,7 @@
         <v>1609</v>
       </c>
       <c r="D117" s="65" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>1452</v>
@@ -30429,7 +30842,7 @@
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="28" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D118" s="65" t="s">
         <v>1454</v>
@@ -30458,7 +30871,7 @@
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="28" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D119" s="65" t="s">
         <v>1494</v>
@@ -30487,7 +30900,7 @@
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="28" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D120" s="65" t="s">
         <v>1549</v>
@@ -30516,13 +30929,13 @@
       </c>
       <c r="B121" s="11"/>
       <c r="C121" s="28" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D121" s="65" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E121" s="55" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>684</v>
@@ -30545,13 +30958,13 @@
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="28" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D122" s="65" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E122" s="55" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>684</v>
@@ -30574,13 +30987,13 @@
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="28" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D123" s="65" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E123" s="55" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>684</v>
@@ -30603,13 +31016,13 @@
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="28" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D124" s="65" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E124" s="55" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>684</v>
@@ -30632,13 +31045,13 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="28" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D125" s="65" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E125" s="55" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>684</v>
@@ -30661,13 +31074,13 @@
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="28" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D126" s="65" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E126" s="55" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>684</v>
@@ -30690,13 +31103,13 @@
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="28" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D127" s="65" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E127" s="55" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>684</v>
@@ -30705,10 +31118,10 @@
         <v>42340</v>
       </c>
       <c r="H127" s="69" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="J127" s="14"/>
     </row>
@@ -30719,13 +31132,13 @@
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="28" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D128" s="65" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E128" s="55" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>684</v>
@@ -30734,10 +31147,10 @@
         <v>42340</v>
       </c>
       <c r="H128" s="69" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="J128" s="14"/>
     </row>
@@ -30747,13 +31160,27 @@
         <v>123</v>
       </c>
       <c r="B129" s="11"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="55"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="75"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="13"/>
+      <c r="C129" s="28" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D129" s="65" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E129" s="55" t="s">
+        <v>2208</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G129" s="75">
+        <v>42349</v>
+      </c>
+      <c r="H129" s="69" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>1749</v>
+      </c>
       <c r="J129" s="14"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -31100,13 +31527,13 @@
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="28" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D143" s="65" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E143" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>684</v>
@@ -31121,7 +31548,7 @@
         <v>8</v>
       </c>
       <c r="J143" s="115" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -31131,13 +31558,13 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="28" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D144" s="65" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E144" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>684</v>
@@ -31152,7 +31579,7 @@
         <v>8</v>
       </c>
       <c r="J144" s="115" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -31175,16 +31602,16 @@
         <v>140</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D146" s="65" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E146" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F146" s="12" t="s">
         <v>684</v>
@@ -31207,13 +31634,13 @@
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="28" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D147" s="65" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E147" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>684</v>
@@ -31236,13 +31663,13 @@
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="28" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D148" s="65" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E148" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>684</v>
@@ -31265,13 +31692,13 @@
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="28" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D149" s="65" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E149" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>684</v>
@@ -31294,13 +31721,13 @@
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="28" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D150" s="65" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E150" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>684</v>
@@ -31336,16 +31763,16 @@
         <v>146</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D152" s="65" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E152" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>684</v>
@@ -31354,10 +31781,10 @@
         <v>42332</v>
       </c>
       <c r="H152" s="70" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J152" s="14"/>
     </row>
@@ -31368,13 +31795,13 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="28" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D153" s="65" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E153" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>684</v>
@@ -31410,16 +31837,16 @@
         <v>149</v>
       </c>
       <c r="B155" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D155" s="65" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E155" t="s">
         <v>1655</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D155" s="65" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1656</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>684</v>
@@ -31442,13 +31869,13 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="28" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D156" s="65" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E156" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>684</v>
@@ -31471,13 +31898,13 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="28" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D157" s="65" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E157" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>684</v>
@@ -31513,16 +31940,16 @@
         <v>153</v>
       </c>
       <c r="B159" s="11" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C159" s="28" t="s">
         <v>1707</v>
       </c>
-      <c r="C159" s="28" t="s">
-        <v>1708</v>
-      </c>
       <c r="D159" s="65" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E159" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>684</v>
@@ -31531,7 +31958,7 @@
         <v>42317</v>
       </c>
       <c r="H159" s="70" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="I159" s="13" t="s">
         <v>8</v>
@@ -31545,13 +31972,13 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="28" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D160" s="65" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E160" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>684</v>
@@ -31560,7 +31987,7 @@
         <v>42317</v>
       </c>
       <c r="H160" s="70" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="I160" s="13" t="s">
         <v>8</v>
@@ -31574,13 +32001,13 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="28" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D161" s="65" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E161" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>684</v>
@@ -31603,13 +32030,13 @@
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="28" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D162" s="65" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E162" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>684</v>
@@ -31632,13 +32059,13 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="28" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D163" s="65" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E163" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>684</v>
@@ -31647,7 +32074,7 @@
         <v>42307</v>
       </c>
       <c r="H163" s="70" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I163" s="13" t="s">
         <v>8</v>
@@ -31661,13 +32088,13 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="28" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D164" s="65" t="s">
         <v>1759</v>
       </c>
-      <c r="D164" s="65" t="s">
-        <v>1760</v>
-      </c>
       <c r="E164" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>684</v>
@@ -31676,7 +32103,7 @@
         <v>42307</v>
       </c>
       <c r="H164" s="70" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I164" s="13" t="s">
         <v>8</v>
@@ -31703,16 +32130,16 @@
         <v>160</v>
       </c>
       <c r="B166" s="11" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D166" s="65" t="s">
         <v>1754</v>
       </c>
-      <c r="C166" s="28" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D166" s="65" t="s">
-        <v>1755</v>
-      </c>
       <c r="E166" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>684</v>
@@ -31724,7 +32151,7 @@
         <v>1441</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J166" s="14"/>
     </row>
@@ -31735,13 +32162,13 @@
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="28" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D167" s="65" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E167" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>684</v>
@@ -31753,7 +32180,7 @@
         <v>1441</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J167" s="14"/>
     </row>
@@ -31764,13 +32191,13 @@
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="28" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D168" s="65" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E168" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>684</v>
@@ -31782,7 +32209,7 @@
         <v>1441</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J168" s="14"/>
     </row>
@@ -31793,16 +32220,16 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="28" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D169" s="65" t="s">
         <v>1809</v>
       </c>
-      <c r="D169" s="65" t="s">
+      <c r="E169" t="s">
         <v>1810</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" s="55" t="s">
         <v>1811</v>
-      </c>
-      <c r="F169" s="55" t="s">
-        <v>1812</v>
       </c>
       <c r="G169" s="31">
         <v>42317</v>
@@ -31811,7 +32238,7 @@
         <v>235</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J169" s="14"/>
     </row>
@@ -31835,16 +32262,16 @@
         <v>165</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C171" s="28" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D171" s="65" t="s">
         <v>1764</v>
       </c>
-      <c r="D171" s="65" t="s">
-        <v>1765</v>
-      </c>
       <c r="E171" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F171" s="12" t="s">
         <v>684</v>
@@ -31856,7 +32283,7 @@
         <v>235</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="J171" s="14"/>
     </row>
@@ -31867,13 +32294,13 @@
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="28" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D172" s="65" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E172" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>684</v>
@@ -31896,13 +32323,13 @@
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="28" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D173" s="65" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E173" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="F173" s="12" t="s">
         <v>684</v>
@@ -31925,13 +32352,13 @@
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="28" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D174" s="65" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E174" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>684</v>
@@ -31954,13 +32381,13 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="28" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D175" s="65" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E175" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="F175" s="12" t="s">
         <v>684</v>
@@ -31969,13 +32396,13 @@
         <v>42333</v>
       </c>
       <c r="H175" s="70" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="I175" s="13" t="s">
         <v>497</v>
       </c>
       <c r="J175" s="115" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -31985,13 +32412,13 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="28" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D176" s="65" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E176" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>684</v>
@@ -32014,13 +32441,13 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="28" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D177" s="65" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E177" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>684</v>
@@ -32043,13 +32470,13 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="28" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D178" s="65" t="s">
         <v>1856</v>
       </c>
-      <c r="D178" s="65" t="s">
-        <v>1857</v>
-      </c>
       <c r="E178" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>684</v>
@@ -32061,7 +32488,7 @@
         <v>235</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J178" s="14"/>
     </row>
@@ -32085,16 +32512,16 @@
         <v>174</v>
       </c>
       <c r="B180" s="11" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C180" s="28" t="s">
         <v>1874</v>
       </c>
-      <c r="C180" s="28" t="s">
-        <v>1875</v>
-      </c>
       <c r="D180" s="65" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E180" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>684</v>
@@ -32106,7 +32533,7 @@
         <v>235</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="J180" s="14"/>
     </row>
@@ -32117,13 +32544,13 @@
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="28" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D181" s="65" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E181" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="F181" s="12" t="s">
         <v>684</v>
@@ -32135,7 +32562,7 @@
         <v>235</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J181" s="14"/>
     </row>
@@ -32146,13 +32573,13 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="28" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D182" s="65" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E182" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>684</v>
@@ -32164,7 +32591,7 @@
         <v>235</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J182" s="14"/>
     </row>
@@ -32175,13 +32602,13 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="28" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D183" s="65" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E183" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>684</v>
@@ -32193,7 +32620,7 @@
         <v>235</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J183" s="14"/>
     </row>
@@ -32204,13 +32631,13 @@
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="28" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D184" s="65" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="E184" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F184" s="12" t="s">
         <v>684</v>
@@ -32219,13 +32646,13 @@
         <v>42333</v>
       </c>
       <c r="H184" s="70" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I184" s="13" t="s">
         <v>1930</v>
       </c>
-      <c r="I184" s="13" t="s">
-        <v>1931</v>
-      </c>
       <c r="J184" s="115" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -32235,13 +32662,13 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="28" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D185" s="65" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="E185" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>684</v>
@@ -32250,13 +32677,13 @@
         <v>42333</v>
       </c>
       <c r="H185" s="70" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I185" s="13" t="s">
         <v>49</v>
       </c>
       <c r="J185" s="115" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -32278,16 +32705,16 @@
         <v>181</v>
       </c>
       <c r="B187" s="11" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D187" s="65" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E187" t="s">
         <v>1814</v>
-      </c>
-      <c r="C187" s="28" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D187" s="65" t="s">
-        <v>1852</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1815</v>
       </c>
       <c r="F187" s="12" t="s">
         <v>684</v>
@@ -32296,7 +32723,7 @@
         <v>42317</v>
       </c>
       <c r="H187" s="70" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="I187" s="13" t="s">
         <v>8</v>
@@ -32310,13 +32737,13 @@
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="28" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D188" s="65" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E188" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F188" s="12" t="s">
         <v>684</v>
@@ -32339,13 +32766,13 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="28" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D189" s="65" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E189" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>684</v>
@@ -32368,13 +32795,13 @@
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="28" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D190" s="65" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E190" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F190" s="12" t="s">
         <v>684</v>
@@ -32397,13 +32824,13 @@
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="28" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D191" s="65" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E191" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F191" s="12" t="s">
         <v>684</v>
@@ -32426,13 +32853,13 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="28" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D192" s="65" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E192" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>684</v>
@@ -32455,13 +32882,13 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="28" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D193" s="65" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E193" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>684</v>
@@ -32484,13 +32911,13 @@
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="28" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D194" s="65" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E194" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>684</v>
@@ -32513,13 +32940,13 @@
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="28" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D195" s="65" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E195" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>684</v>
@@ -32542,13 +32969,13 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="28" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D196" s="65" t="s">
         <v>1842</v>
       </c>
-      <c r="D196" s="65" t="s">
-        <v>1843</v>
-      </c>
       <c r="E196" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>684</v>
@@ -32571,13 +32998,13 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="28" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D197" s="65" t="s">
         <v>1858</v>
       </c>
-      <c r="D197" s="65" t="s">
+      <c r="E197" t="s">
         <v>1859</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1860</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>684</v>
@@ -32600,13 +33027,13 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="28" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D198" s="65" t="s">
         <v>1862</v>
       </c>
-      <c r="D198" s="65" t="s">
-        <v>1863</v>
-      </c>
       <c r="E198" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>684</v>
@@ -32642,16 +33069,16 @@
         <v>194</v>
       </c>
       <c r="B200" s="11" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C200" s="28" t="s">
         <v>1885</v>
       </c>
-      <c r="C200" s="28" t="s">
-        <v>1886</v>
-      </c>
       <c r="D200" s="65" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E200" s="65" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F200" s="12" t="s">
         <v>684</v>
@@ -32663,7 +33090,7 @@
         <v>235</v>
       </c>
       <c r="I200" s="13" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J200" s="14"/>
     </row>
@@ -32674,13 +33101,13 @@
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="28" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D201" s="65" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="E201" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>684</v>
@@ -32692,7 +33119,7 @@
         <v>235</v>
       </c>
       <c r="I201" s="13" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J201" s="14"/>
     </row>
@@ -32703,13 +33130,13 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="28" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D202" s="65" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E202" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F202" s="12" t="s">
         <v>684</v>
@@ -32721,7 +33148,7 @@
         <v>235</v>
       </c>
       <c r="I202" s="13" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J202" s="14"/>
     </row>
@@ -32745,25 +33172,25 @@
         <v>198</v>
       </c>
       <c r="B204" s="11" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C204" s="28" t="s">
         <v>1932</v>
       </c>
-      <c r="C204" s="28" t="s">
-        <v>1933</v>
-      </c>
       <c r="D204" s="65" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E204" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G204" s="31">
         <v>42345</v>
       </c>
       <c r="H204" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I204" s="13" t="s">
         <v>49</v>
@@ -32777,22 +33204,22 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="28" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D205" s="65" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E205" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G205" s="31">
         <v>42345</v>
       </c>
       <c r="H205" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I205" s="13" t="s">
         <v>49</v>
@@ -32806,22 +33233,22 @@
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="28" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D206" s="65" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E206" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G206" s="31">
         <v>42345</v>
       </c>
       <c r="H206" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I206" s="13" t="s">
         <v>49</v>
@@ -32835,22 +33262,22 @@
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="28" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D207" s="65" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E207" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G207" s="31">
         <v>42345</v>
       </c>
       <c r="H207" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I207" s="13" t="s">
         <v>49</v>
@@ -32864,22 +33291,22 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="28" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D208" s="65" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E208" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G208" s="31">
         <v>42345</v>
       </c>
       <c r="H208" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I208" s="13" t="s">
         <v>49</v>
@@ -32893,22 +33320,22 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="28" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D209" s="65" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E209" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G209" s="31">
         <v>42345</v>
       </c>
       <c r="H209" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I209" s="13" t="s">
         <v>49</v>
@@ -32922,22 +33349,22 @@
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="28" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D210" s="65" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E210" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G210" s="31">
         <v>42345</v>
       </c>
       <c r="H210" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I210" s="13" t="s">
         <v>49</v>
@@ -32951,22 +33378,22 @@
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="28" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D211" s="65" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E211" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G211" s="31">
         <v>42345</v>
       </c>
       <c r="H211" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I211" s="13" t="s">
         <v>49</v>
@@ -32980,22 +33407,22 @@
       </c>
       <c r="B212" s="11"/>
       <c r="C212" s="28" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D212" s="65" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E212" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G212" s="31">
         <v>42345</v>
       </c>
       <c r="H212" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I212" s="13" t="s">
         <v>49</v>
@@ -33009,22 +33436,22 @@
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="28" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D213" s="65" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E213" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G213" s="31">
         <v>42345</v>
       </c>
       <c r="H213" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I213" s="13" t="s">
         <v>49</v>
@@ -33038,22 +33465,22 @@
       </c>
       <c r="B214" s="11"/>
       <c r="C214" s="28" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D214" s="65" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E214" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G214" s="31">
         <v>42345</v>
       </c>
       <c r="H214" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I214" s="13" t="s">
         <v>49</v>
@@ -33067,22 +33494,22 @@
       </c>
       <c r="B215" s="11"/>
       <c r="C215" s="28" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D215" s="65" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E215" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G215" s="31">
         <v>42345</v>
       </c>
       <c r="H215" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I215" s="13" t="s">
         <v>49</v>
@@ -33096,22 +33523,22 @@
       </c>
       <c r="B216" s="11"/>
       <c r="C216" s="28" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D216" s="65" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E216" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F216" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G216" s="31">
         <v>42345</v>
       </c>
       <c r="H216" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I216" s="13" t="s">
         <v>49</v>
@@ -33125,22 +33552,22 @@
       </c>
       <c r="B217" s="11"/>
       <c r="C217" s="28" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D217" s="65" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E217" t="s">
         <v>2171</v>
       </c>
-      <c r="E217" t="s">
-        <v>2172</v>
-      </c>
       <c r="F217" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G217" s="31">
         <v>42345</v>
       </c>
       <c r="H217" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I217" s="13" t="s">
         <v>49</v>
@@ -33154,22 +33581,22 @@
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="28" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D218" s="65" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E218" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G218" s="31">
         <v>42345</v>
       </c>
       <c r="H218" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I218" s="13" t="s">
         <v>49</v>
@@ -33183,22 +33610,22 @@
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="28" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D219" s="65" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E219" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G219" s="31">
         <v>42345</v>
       </c>
       <c r="H219" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I219" s="13" t="s">
         <v>49</v>
@@ -33212,22 +33639,22 @@
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="28" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D220" s="65" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E220" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G220" s="31">
         <v>42345</v>
       </c>
       <c r="H220" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I220" s="13" t="s">
         <v>49</v>
@@ -33241,22 +33668,22 @@
       </c>
       <c r="B221" s="11"/>
       <c r="C221" s="28" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D221" s="65" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E221" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G221" s="31">
         <v>42345</v>
       </c>
       <c r="H221" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I221" s="13" t="s">
         <v>49</v>
@@ -33270,22 +33697,22 @@
       </c>
       <c r="B222" s="11"/>
       <c r="C222" s="28" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D222" s="65" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E222" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G222" s="31">
         <v>42345</v>
       </c>
       <c r="H222" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I222" s="13" t="s">
         <v>49</v>
@@ -33299,22 +33726,22 @@
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="28" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D223" s="65" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E223" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G223" s="31">
         <v>42345</v>
       </c>
       <c r="H223" s="70" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="I223" s="13" t="s">
         <v>49</v>
@@ -33328,22 +33755,22 @@
       </c>
       <c r="B224" s="11"/>
       <c r="C224" s="28" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D224" s="65" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E224" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G224" s="31">
         <v>42345</v>
       </c>
       <c r="H224" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I224" s="13" t="s">
         <v>49</v>
@@ -33357,22 +33784,22 @@
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="28" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D225" s="65" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E225" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G225" s="31">
         <v>42345</v>
       </c>
       <c r="H225" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I225" s="13" t="s">
         <v>49</v>
@@ -33386,22 +33813,22 @@
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="28" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D226" s="65" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E226" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G226" s="31">
         <v>42345</v>
       </c>
       <c r="H226" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I226" s="13" t="s">
         <v>49</v>
@@ -33415,22 +33842,22 @@
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="28" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D227" s="65" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E227" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G227" s="31">
         <v>42345</v>
       </c>
       <c r="H227" s="70" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I227" s="13" t="s">
         <v>49</v>
@@ -33456,19 +33883,19 @@
         <v>223</v>
       </c>
       <c r="B229" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C229" s="28" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D229" s="65" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E229" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F229" s="55" t="s">
         <v>2175</v>
-      </c>
-      <c r="C229" s="28" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D229" s="65" t="s">
-        <v>2174</v>
-      </c>
-      <c r="E229" t="s">
-        <v>2173</v>
-      </c>
-      <c r="F229" s="55" t="s">
-        <v>2177</v>
       </c>
       <c r="G229" s="31">
         <v>42345</v>
@@ -33477,7 +33904,7 @@
         <v>235</v>
       </c>
       <c r="I229" s="13" t="s">
-        <v>49</v>
+        <v>1749</v>
       </c>
       <c r="J229" s="14"/>
     </row>
@@ -33500,13 +33927,30 @@
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="B231" s="11"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="65"/>
-      <c r="F231" s="12"/>
-      <c r="G231" s="31"/>
-      <c r="H231" s="70"/>
-      <c r="I231" s="13"/>
+      <c r="B231" s="11" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C231" s="28" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D231" s="65" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E231" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F231" s="55" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G231" s="31">
+        <v>42347</v>
+      </c>
+      <c r="H231" s="70" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I231" s="13" t="s">
+        <v>1749</v>
+      </c>
       <c r="J231" s="14"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -33515,12 +33959,27 @@
         <v>226</v>
       </c>
       <c r="B232" s="11"/>
-      <c r="C232" s="28"/>
-      <c r="D232" s="65"/>
-      <c r="F232" s="12"/>
-      <c r="G232" s="31"/>
-      <c r="H232" s="70"/>
-      <c r="I232" s="13"/>
+      <c r="C232" s="28" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D232" s="65" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E232" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F232" s="55" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G232" s="31">
+        <v>42347</v>
+      </c>
+      <c r="H232" s="70" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I232" s="13" t="s">
+        <v>1749</v>
+      </c>
       <c r="J232" s="14"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -33529,57 +33988,84 @@
         <v>227</v>
       </c>
       <c r="B233" s="11"/>
-      <c r="C233" s="28"/>
-      <c r="D233" s="65"/>
-      <c r="F233" s="12"/>
-      <c r="G233" s="31"/>
-      <c r="H233" s="70"/>
-      <c r="I233" s="13"/>
+      <c r="C233" s="28" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D233" s="65" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E233" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F233" s="55" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G233" s="31">
+        <v>42348</v>
+      </c>
+      <c r="H233" s="70" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I233" s="13" t="s">
+        <v>1749</v>
+      </c>
       <c r="J233" s="14"/>
     </row>
-    <row r="234" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="B234" s="16"/>
-      <c r="C234" s="29"/>
-      <c r="D234" s="17"/>
-      <c r="E234" s="17"/>
-      <c r="F234" s="17"/>
-      <c r="G234" s="17"/>
-      <c r="H234" s="71"/>
-      <c r="I234" s="17"/>
-      <c r="J234" s="19"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="28" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D234" s="65" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E234" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F234" s="55" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G234" s="31">
+        <v>42348</v>
+      </c>
+      <c r="H234" s="70" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I234" s="13" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J234" s="14"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="B235" s="11" t="s">
-        <v>784</v>
-      </c>
+      <c r="B235" s="11"/>
       <c r="C235" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D235" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E235" s="12" t="s">
-        <v>656</v>
+        <v>2189</v>
+      </c>
+      <c r="D235" s="65" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E235" t="s">
+        <v>2201</v>
       </c>
       <c r="F235" s="55" t="s">
-        <v>684</v>
+        <v>2175</v>
       </c>
       <c r="G235" s="31">
-        <v>42266</v>
+        <v>42348</v>
       </c>
       <c r="H235" s="70" t="s">
-        <v>1442</v>
+        <v>1788</v>
       </c>
       <c r="I235" s="13" t="s">
-        <v>431</v>
+        <v>1749</v>
       </c>
       <c r="J235" s="14"/>
     </row>
@@ -33590,25 +34076,25 @@
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="D236" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E236" s="12" t="s">
-        <v>657</v>
+        <v>2190</v>
+      </c>
+      <c r="D236" s="65" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E236" t="s">
+        <v>2202</v>
       </c>
       <c r="F236" s="55" t="s">
-        <v>684</v>
+        <v>2175</v>
       </c>
       <c r="G236" s="31">
-        <v>42266</v>
+        <v>42348</v>
       </c>
       <c r="H236" s="70" t="s">
-        <v>1441</v>
+        <v>1788</v>
       </c>
       <c r="I236" s="13" t="s">
-        <v>431</v>
+        <v>1749</v>
       </c>
       <c r="J236" s="14"/>
     </row>
@@ -33619,25 +34105,25 @@
       </c>
       <c r="B237" s="11"/>
       <c r="C237" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="D237" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="E237" s="12" t="s">
-        <v>658</v>
+        <v>2191</v>
+      </c>
+      <c r="D237" s="65" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E237" t="s">
+        <v>2203</v>
       </c>
       <c r="F237" s="55" t="s">
-        <v>684</v>
+        <v>2175</v>
       </c>
       <c r="G237" s="31">
-        <v>42266</v>
+        <v>42348</v>
       </c>
       <c r="H237" s="70" t="s">
-        <v>1441</v>
+        <v>1788</v>
       </c>
       <c r="I237" s="13" t="s">
-        <v>431</v>
+        <v>1749</v>
       </c>
       <c r="J237" s="14"/>
     </row>
@@ -33648,25 +34134,25 @@
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="D238" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="E238" s="12" t="s">
-        <v>659</v>
+        <v>2192</v>
+      </c>
+      <c r="D238" s="65" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E238" t="s">
+        <v>2204</v>
       </c>
       <c r="F238" s="55" t="s">
-        <v>684</v>
+        <v>2175</v>
       </c>
       <c r="G238" s="31">
-        <v>42266</v>
+        <v>42348</v>
       </c>
       <c r="H238" s="70" t="s">
-        <v>1441</v>
+        <v>1788</v>
       </c>
       <c r="I238" s="13" t="s">
-        <v>431</v>
+        <v>1749</v>
       </c>
       <c r="J238" s="14"/>
     </row>
@@ -33677,25 +34163,25 @@
       </c>
       <c r="B239" s="11"/>
       <c r="C239" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="D239" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="E239" s="12" t="s">
-        <v>660</v>
+        <v>2193</v>
+      </c>
+      <c r="D239" s="65" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E239" t="s">
+        <v>2205</v>
       </c>
       <c r="F239" s="55" t="s">
-        <v>684</v>
+        <v>2175</v>
       </c>
       <c r="G239" s="31">
-        <v>42266</v>
+        <v>42348</v>
       </c>
       <c r="H239" s="70" t="s">
-        <v>1441</v>
+        <v>1788</v>
       </c>
       <c r="I239" s="13" t="s">
-        <v>431</v>
+        <v>1749</v>
       </c>
       <c r="J239" s="14"/>
     </row>
@@ -33706,25 +34192,25 @@
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="28" t="s">
-        <v>769</v>
-      </c>
-      <c r="D240" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="E240" s="12" t="s">
-        <v>661</v>
+        <v>2194</v>
+      </c>
+      <c r="D240" s="65" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E240" t="s">
+        <v>2206</v>
       </c>
       <c r="F240" s="55" t="s">
-        <v>684</v>
+        <v>2175</v>
       </c>
       <c r="G240" s="31">
-        <v>42266</v>
+        <v>42348</v>
       </c>
       <c r="H240" s="70" t="s">
-        <v>1441</v>
+        <v>1788</v>
       </c>
       <c r="I240" s="13" t="s">
-        <v>431</v>
+        <v>1749</v>
       </c>
       <c r="J240" s="14"/>
     </row>
@@ -33734,27 +34220,12 @@
         <v>235</v>
       </c>
       <c r="B241" s="11"/>
-      <c r="C241" s="28" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D241" s="55" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E241" s="12" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F241" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G241" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H241" s="70" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I241" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C241" s="28"/>
+      <c r="D241" s="65"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="31"/>
+      <c r="H241" s="70"/>
+      <c r="I241" s="13"/>
       <c r="J241" s="14"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -33763,27 +34234,12 @@
         <v>236</v>
       </c>
       <c r="B242" s="11"/>
-      <c r="C242" s="28" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D242" s="55" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E242" s="12" t="s">
-        <v>1509</v>
-      </c>
-      <c r="F242" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G242" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H242" s="70" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I242" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C242" s="28"/>
+      <c r="D242" s="65"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="31"/>
+      <c r="H242" s="70"/>
+      <c r="I242" s="13"/>
       <c r="J242" s="14"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -33792,81 +34248,54 @@
         <v>237</v>
       </c>
       <c r="B243" s="11"/>
-      <c r="C243" s="28" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D243" s="55" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E243" s="12" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F243" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G243" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H243" s="70" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I243" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C243" s="28"/>
+      <c r="D243" s="65"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="31"/>
+      <c r="H243" s="70"/>
+      <c r="I243" s="13"/>
       <c r="J243" s="14"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="B244" s="11"/>
-      <c r="C244" s="28" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D244" s="55" t="s">
-        <v>1528</v>
-      </c>
-      <c r="E244" s="12" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F244" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G244" s="31">
-        <v>42270</v>
-      </c>
-      <c r="H244" s="70" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I244" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J244" s="14"/>
+      <c r="B244" s="16"/>
+      <c r="C244" s="29"/>
+      <c r="D244" s="17"/>
+      <c r="E244" s="17"/>
+      <c r="F244" s="17"/>
+      <c r="G244" s="17"/>
+      <c r="H244" s="71"/>
+      <c r="I244" s="17"/>
+      <c r="J244" s="19"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="B245" s="11"/>
+      <c r="B245" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C245" s="28" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D245" s="55" t="s">
-        <v>1529</v>
+        <v>764</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F245" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="F245" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G245" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H245" s="70" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="I245" s="13" t="s">
         <v>431</v>
@@ -33880,19 +34309,19 @@
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="28" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D246" s="55" t="s">
-        <v>1530</v>
+        <v>765</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F246" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="F246" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G246" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H246" s="70" t="s">
         <v>1441</v>
@@ -33909,19 +34338,19 @@
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="28" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D247" s="55" t="s">
-        <v>1531</v>
+        <v>766</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>1514</v>
-      </c>
-      <c r="F247" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="F247" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G247" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H247" s="70" t="s">
         <v>1441</v>
@@ -33938,19 +34367,19 @@
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="28" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D248" s="55" t="s">
-        <v>1532</v>
+        <v>767</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>706</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F248" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F248" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G248" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H248" s="70" t="s">
         <v>1441</v>
@@ -33966,13 +34395,27 @@
         <v>243</v>
       </c>
       <c r="B249" s="11"/>
-      <c r="C249" s="22"/>
-      <c r="D249" s="12"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="12"/>
-      <c r="G249" s="31"/>
-      <c r="H249" s="69"/>
-      <c r="I249" s="12"/>
+      <c r="C249" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="F249" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G249" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H249" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I249" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J249" s="14"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -33981,13 +34424,27 @@
         <v>244</v>
       </c>
       <c r="B250" s="11"/>
-      <c r="C250" s="22"/>
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
-      <c r="F250" s="12"/>
-      <c r="G250" s="31"/>
-      <c r="H250" s="69"/>
-      <c r="I250" s="12"/>
+      <c r="C250" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F250" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G250" s="31">
+        <v>42266</v>
+      </c>
+      <c r="H250" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I250" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J250" s="14"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -33996,13 +34453,27 @@
         <v>245</v>
       </c>
       <c r="B251" s="11"/>
-      <c r="C251" s="22"/>
-      <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
-      <c r="F251" s="12"/>
-      <c r="G251" s="12"/>
-      <c r="H251" s="69"/>
-      <c r="I251" s="12"/>
+      <c r="C251" s="28" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D251" s="55" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G251" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H251" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I251" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J251" s="14"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -34011,13 +34482,27 @@
         <v>246</v>
       </c>
       <c r="B252" s="11"/>
-      <c r="C252" s="22"/>
-      <c r="D252" s="12"/>
-      <c r="E252" s="12"/>
-      <c r="F252" s="12"/>
-      <c r="G252" s="12"/>
-      <c r="H252" s="69"/>
-      <c r="I252" s="12"/>
+      <c r="C252" s="28" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D252" s="55" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G252" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H252" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I252" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J252" s="14"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -34026,13 +34511,27 @@
         <v>247</v>
       </c>
       <c r="B253" s="11"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="12"/>
-      <c r="E253" s="12"/>
-      <c r="F253" s="12"/>
-      <c r="G253" s="12"/>
-      <c r="H253" s="69"/>
-      <c r="I253" s="12"/>
+      <c r="C253" s="28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D253" s="55" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F253" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G253" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H253" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I253" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J253" s="14"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -34041,58 +34540,84 @@
         <v>248</v>
       </c>
       <c r="B254" s="11"/>
-      <c r="C254" s="22"/>
-      <c r="D254" s="12"/>
-      <c r="E254" s="12"/>
-      <c r="F254" s="12"/>
-      <c r="G254" s="12"/>
-      <c r="H254" s="69"/>
-      <c r="I254" s="12"/>
+      <c r="C254" s="28" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D254" s="55" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G254" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H254" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I254" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J254" s="14"/>
     </row>
-    <row r="255" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="B255" s="16"/>
-      <c r="C255" s="23"/>
-      <c r="D255" s="17"/>
-      <c r="E255" s="17"/>
-      <c r="F255" s="17"/>
-      <c r="G255" s="17"/>
-      <c r="H255" s="71"/>
-      <c r="I255" s="17"/>
-      <c r="J255" s="19"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="28" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D255" s="55" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G255" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H255" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I255" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="J255" s="14"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="B256" s="11" t="s">
-        <v>785</v>
-      </c>
+      <c r="B256" s="11"/>
       <c r="C256" s="28" t="s">
-        <v>842</v>
-      </c>
-      <c r="D256" s="12" t="s">
-        <v>840</v>
+        <v>1540</v>
+      </c>
+      <c r="D256" s="55" t="s">
+        <v>1530</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>815</v>
+        <v>1513</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>1325</v>
+        <v>684</v>
       </c>
       <c r="G256" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H256" s="70" t="s">
-        <v>1322</v>
+        <v>1441</v>
       </c>
       <c r="I256" s="13" t="s">
-        <v>814</v>
+        <v>431</v>
       </c>
       <c r="J256" s="14"/>
     </row>
@@ -34103,25 +34628,25 @@
       </c>
       <c r="B257" s="11"/>
       <c r="C257" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D257" s="12" t="s">
-        <v>787</v>
+        <v>1541</v>
+      </c>
+      <c r="D257" s="55" t="s">
+        <v>1531</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>816</v>
+        <v>1514</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>1325</v>
+        <v>684</v>
       </c>
       <c r="G257" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H257" s="70" t="s">
-        <v>1322</v>
+        <v>1441</v>
       </c>
       <c r="I257" s="13" t="s">
-        <v>814</v>
+        <v>431</v>
       </c>
       <c r="J257" s="14"/>
     </row>
@@ -34132,245 +34657,149 @@
       </c>
       <c r="B258" s="11"/>
       <c r="C258" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D258" s="12" t="s">
-        <v>788</v>
+        <v>1542</v>
+      </c>
+      <c r="D258" s="55" t="s">
+        <v>1532</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>817</v>
+        <v>1515</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>1325</v>
+        <v>684</v>
       </c>
       <c r="G258" s="31">
-        <v>42265</v>
+        <v>42270</v>
       </c>
       <c r="H258" s="70" t="s">
-        <v>1322</v>
+        <v>1441</v>
       </c>
       <c r="I258" s="13" t="s">
-        <v>814</v>
+        <v>431</v>
       </c>
       <c r="J258" s="14"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
-        <f t="shared" ref="A259:A364" si="3">ROW($A259)-6</f>
+        <f t="shared" si="2"/>
         <v>253</v>
       </c>
       <c r="B259" s="11"/>
-      <c r="C259" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="D259" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="E259" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="F259" s="12" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G259" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H259" s="70" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I259" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C259" s="22"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12"/>
+      <c r="G259" s="31"/>
+      <c r="H259" s="69"/>
+      <c r="I259" s="12"/>
       <c r="J259" s="14"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>254</v>
       </c>
       <c r="B260" s="11"/>
-      <c r="C260" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="E260" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="F260" s="12" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G260" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H260" s="70" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I260" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C260" s="22"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
+      <c r="G260" s="31"/>
+      <c r="H260" s="69"/>
+      <c r="I260" s="12"/>
       <c r="J260" s="14"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="B261" s="11"/>
-      <c r="C261" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="D261" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="E261" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="F261" s="12" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G261" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H261" s="70" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I261" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C261" s="22"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
+      <c r="G261" s="12"/>
+      <c r="H261" s="69"/>
+      <c r="I261" s="12"/>
       <c r="J261" s="14"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="B262" s="11"/>
-      <c r="C262" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="D262" s="12" t="s">
-        <v>831</v>
-      </c>
-      <c r="E262" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="F262" s="12" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G262" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H262" s="70" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I262" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C262" s="22"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="12"/>
+      <c r="H262" s="69"/>
+      <c r="I262" s="12"/>
       <c r="J262" s="14"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>257</v>
       </c>
       <c r="B263" s="11"/>
-      <c r="C263" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>832</v>
-      </c>
-      <c r="E263" s="12" t="s">
-        <v>822</v>
-      </c>
-      <c r="F263" s="12" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G263" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H263" s="70" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I263" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C263" s="22"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
+      <c r="F263" s="12"/>
+      <c r="G263" s="12"/>
+      <c r="H263" s="69"/>
+      <c r="I263" s="12"/>
       <c r="J263" s="14"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>258</v>
       </c>
       <c r="B264" s="11"/>
-      <c r="C264" s="28" t="s">
-        <v>850</v>
-      </c>
-      <c r="D264" s="12" t="s">
-        <v>833</v>
-      </c>
-      <c r="E264" s="12" t="s">
-        <v>823</v>
-      </c>
-      <c r="F264" s="12" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G264" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H264" s="70" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I264" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C264" s="22"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
+      <c r="F264" s="12"/>
+      <c r="G264" s="12"/>
+      <c r="H264" s="69"/>
+      <c r="I264" s="12"/>
       <c r="J264" s="14"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="B265" s="11"/>
-      <c r="C265" s="28" t="s">
-        <v>851</v>
-      </c>
-      <c r="D265" s="12" t="s">
-        <v>834</v>
-      </c>
-      <c r="E265" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="F265" s="12" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G265" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H265" s="70" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I265" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="J265" s="14"/>
+      <c r="B265" s="16"/>
+      <c r="C265" s="23"/>
+      <c r="D265" s="17"/>
+      <c r="E265" s="17"/>
+      <c r="F265" s="17"/>
+      <c r="G265" s="17"/>
+      <c r="H265" s="71"/>
+      <c r="I265" s="17"/>
+      <c r="J265" s="19"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="B266" s="11"/>
+      <c r="B266" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C266" s="28" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="F266" s="12" t="s">
         <v>1325</v>
@@ -34388,18 +34817,18 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>261</v>
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="28" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>836</v>
+        <v>787</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="F267" s="12" t="s">
         <v>1325</v>
@@ -34417,18 +34846,18 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>262</v>
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="28" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>837</v>
+        <v>788</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F268" s="12" t="s">
         <v>1325</v>
@@ -34446,18 +34875,18 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A269:A375" si="3">ROW($A269)-6</f>
         <v>263</v>
       </c>
       <c r="B269" s="11"/>
       <c r="C269" s="28" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>838</v>
+        <v>789</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="F269" s="12" t="s">
         <v>1325</v>
@@ -34480,13 +34909,13 @@
       </c>
       <c r="B270" s="11"/>
       <c r="C270" s="28" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>839</v>
+        <v>790</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="F270" s="12" t="s">
         <v>1325</v>
@@ -34508,13 +34937,27 @@
         <v>265</v>
       </c>
       <c r="B271" s="11"/>
-      <c r="C271" s="28"/>
-      <c r="D271" s="12"/>
-      <c r="E271" s="12"/>
-      <c r="F271" s="12"/>
-      <c r="G271" s="31"/>
-      <c r="H271" s="70"/>
-      <c r="I271" s="13"/>
+      <c r="C271" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="E271" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="F271" s="12" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G271" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H271" s="70" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I271" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J271" s="14"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -34524,25 +34967,25 @@
       </c>
       <c r="B272" s="11"/>
       <c r="C272" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D272" s="55" t="s">
-        <v>857</v>
+        <v>848</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>831</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>772</v>
+        <v>821</v>
       </c>
       <c r="F272" s="12" t="s">
-        <v>1499</v>
+        <v>1325</v>
       </c>
       <c r="G272" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H272" s="74" t="s">
-        <v>1501</v>
+        <v>42265</v>
+      </c>
+      <c r="H272" s="70" t="s">
+        <v>1322</v>
       </c>
       <c r="I272" s="13" t="s">
-        <v>1500</v>
+        <v>814</v>
       </c>
       <c r="J272" s="14"/>
     </row>
@@ -34553,25 +34996,25 @@
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="D273" s="55" t="s">
-        <v>858</v>
+        <v>849</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>832</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>773</v>
+        <v>822</v>
       </c>
       <c r="F273" s="12" t="s">
-        <v>1499</v>
+        <v>1325</v>
       </c>
       <c r="G273" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H273" s="74" t="s">
-        <v>1501</v>
+        <v>42265</v>
+      </c>
+      <c r="H273" s="70" t="s">
+        <v>1322</v>
       </c>
       <c r="I273" s="13" t="s">
-        <v>1500</v>
+        <v>814</v>
       </c>
       <c r="J273" s="14"/>
     </row>
@@ -34582,25 +35025,25 @@
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="28" t="s">
-        <v>781</v>
-      </c>
-      <c r="D274" s="55" t="s">
-        <v>859</v>
+        <v>850</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>833</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>774</v>
+        <v>823</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>1499</v>
+        <v>1325</v>
       </c>
       <c r="G274" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H274" s="74" t="s">
-        <v>1501</v>
+        <v>42265</v>
+      </c>
+      <c r="H274" s="70" t="s">
+        <v>1322</v>
       </c>
       <c r="I274" s="13" t="s">
-        <v>1500</v>
+        <v>814</v>
       </c>
       <c r="J274" s="14"/>
     </row>
@@ -34611,25 +35054,25 @@
       </c>
       <c r="B275" s="11"/>
       <c r="C275" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="D275" s="55" t="s">
-        <v>860</v>
+        <v>851</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>834</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>775</v>
+        <v>824</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>1499</v>
+        <v>1325</v>
       </c>
       <c r="G275" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H275" s="74" t="s">
-        <v>1501</v>
+        <v>42265</v>
+      </c>
+      <c r="H275" s="70" t="s">
+        <v>1322</v>
       </c>
       <c r="I275" s="13" t="s">
-        <v>1500</v>
+        <v>814</v>
       </c>
       <c r="J275" s="14"/>
     </row>
@@ -34640,25 +35083,25 @@
       </c>
       <c r="B276" s="11"/>
       <c r="C276" s="28" t="s">
-        <v>783</v>
-      </c>
-      <c r="D276" s="55" t="s">
-        <v>861</v>
+        <v>852</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>835</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>1499</v>
+        <v>1325</v>
       </c>
       <c r="G276" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H276" s="74" t="s">
-        <v>1501</v>
+        <v>42265</v>
+      </c>
+      <c r="H276" s="70" t="s">
+        <v>1322</v>
       </c>
       <c r="I276" s="13" t="s">
-        <v>1500</v>
+        <v>814</v>
       </c>
       <c r="J276" s="14"/>
     </row>
@@ -34669,25 +35112,25 @@
       </c>
       <c r="B277" s="11"/>
       <c r="C277" s="28" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D277" s="55" t="s">
-        <v>1898</v>
+        <v>853</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>836</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>1899</v>
+        <v>826</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>1499</v>
+        <v>1325</v>
       </c>
       <c r="G277" s="31">
-        <v>42327</v>
-      </c>
-      <c r="H277" s="74" t="s">
-        <v>1789</v>
+        <v>42265</v>
+      </c>
+      <c r="H277" s="70" t="s">
+        <v>1322</v>
       </c>
       <c r="I277" s="13" t="s">
-        <v>1813</v>
+        <v>814</v>
       </c>
       <c r="J277" s="14"/>
     </row>
@@ -34697,13 +35140,27 @@
         <v>272</v>
       </c>
       <c r="B278" s="11"/>
-      <c r="C278" s="28"/>
-      <c r="D278" s="55"/>
-      <c r="E278" s="12"/>
-      <c r="F278" s="12"/>
-      <c r="G278" s="31"/>
-      <c r="H278" s="70"/>
-      <c r="I278" s="13"/>
+      <c r="C278" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="F278" s="12" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G278" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H278" s="70" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I278" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J278" s="14"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -34712,15 +35169,17 @@
         <v>273</v>
       </c>
       <c r="B279" s="11"/>
-      <c r="C279" s="28"/>
-      <c r="D279" s="55" t="s">
-        <v>1327</v>
+      <c r="C279" s="28" t="s">
+        <v>855</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>838</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>777</v>
+        <v>828</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G279" s="31">
         <v>42265</v>
@@ -34740,25 +35199,25 @@
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="28" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D280" s="55" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E280" s="55" t="s">
-        <v>1432</v>
+        <v>856</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="E280" s="12" t="s">
+        <v>829</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G280" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H280" s="70" t="s">
-        <v>235</v>
+        <v>1322</v>
       </c>
       <c r="I280" s="13" t="s">
-        <v>431</v>
+        <v>814</v>
       </c>
       <c r="J280" s="14"/>
     </row>
@@ -34768,27 +35227,13 @@
         <v>275</v>
       </c>
       <c r="B281" s="11"/>
-      <c r="C281" s="28" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D281" s="55" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E281" s="55" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F281" s="12" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G281" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H281" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I281" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C281" s="28"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="12"/>
+      <c r="F281" s="12"/>
+      <c r="G281" s="31"/>
+      <c r="H281" s="70"/>
+      <c r="I281" s="13"/>
       <c r="J281" s="14"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -34798,25 +35243,25 @@
       </c>
       <c r="B282" s="11"/>
       <c r="C282" s="28" t="s">
-        <v>1437</v>
+        <v>779</v>
       </c>
       <c r="D282" s="55" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E282" s="55" t="s">
-        <v>1434</v>
+        <v>857</v>
+      </c>
+      <c r="E282" s="12" t="s">
+        <v>772</v>
       </c>
       <c r="F282" s="12" t="s">
-        <v>1326</v>
+        <v>1499</v>
       </c>
       <c r="G282" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H282" s="70" t="s">
-        <v>235</v>
+        <v>42268</v>
+      </c>
+      <c r="H282" s="74" t="s">
+        <v>1501</v>
       </c>
       <c r="I282" s="13" t="s">
-        <v>431</v>
+        <v>1500</v>
       </c>
       <c r="J282" s="14"/>
     </row>
@@ -34827,25 +35272,25 @@
       </c>
       <c r="B283" s="11"/>
       <c r="C283" s="28" t="s">
-        <v>1575</v>
+        <v>780</v>
       </c>
       <c r="D283" s="55" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E283" s="55" t="s">
-        <v>1574</v>
+        <v>858</v>
+      </c>
+      <c r="E283" s="12" t="s">
+        <v>773</v>
       </c>
       <c r="F283" s="12" t="s">
-        <v>1326</v>
+        <v>1499</v>
       </c>
       <c r="G283" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H283" s="70" t="s">
-        <v>1590</v>
+        <v>42268</v>
+      </c>
+      <c r="H283" s="74" t="s">
+        <v>1501</v>
       </c>
       <c r="I283" s="13" t="s">
-        <v>431</v>
+        <v>1500</v>
       </c>
       <c r="J283" s="14"/>
     </row>
@@ -34856,25 +35301,25 @@
       </c>
       <c r="B284" s="11"/>
       <c r="C284" s="28" t="s">
-        <v>1591</v>
+        <v>781</v>
       </c>
       <c r="D284" s="55" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E284" s="55" t="s">
-        <v>1618</v>
+        <v>859</v>
+      </c>
+      <c r="E284" s="12" t="s">
+        <v>774</v>
       </c>
       <c r="F284" s="12" t="s">
-        <v>1326</v>
+        <v>1499</v>
       </c>
       <c r="G284" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H284" s="70" t="s">
-        <v>1590</v>
+        <v>42268</v>
+      </c>
+      <c r="H284" s="74" t="s">
+        <v>1501</v>
       </c>
       <c r="I284" s="13" t="s">
-        <v>431</v>
+        <v>1500</v>
       </c>
       <c r="J284" s="14"/>
     </row>
@@ -34885,25 +35330,25 @@
       </c>
       <c r="B285" s="11"/>
       <c r="C285" s="28" t="s">
-        <v>1592</v>
+        <v>782</v>
       </c>
       <c r="D285" s="55" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E285" s="55" t="s">
-        <v>1603</v>
+        <v>860</v>
+      </c>
+      <c r="E285" s="12" t="s">
+        <v>775</v>
       </c>
       <c r="F285" s="12" t="s">
-        <v>1326</v>
+        <v>1499</v>
       </c>
       <c r="G285" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H285" s="70" t="s">
-        <v>1590</v>
+        <v>42268</v>
+      </c>
+      <c r="H285" s="74" t="s">
+        <v>1501</v>
       </c>
       <c r="I285" s="13" t="s">
-        <v>431</v>
+        <v>1500</v>
       </c>
       <c r="J285" s="14"/>
     </row>
@@ -34914,25 +35359,25 @@
       </c>
       <c r="B286" s="11"/>
       <c r="C286" s="28" t="s">
-        <v>1593</v>
+        <v>783</v>
       </c>
       <c r="D286" s="55" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E286" s="55" t="s">
-        <v>1604</v>
+        <v>861</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="F286" s="12" t="s">
-        <v>1326</v>
+        <v>1499</v>
       </c>
       <c r="G286" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H286" s="70" t="s">
-        <v>1590</v>
+        <v>42268</v>
+      </c>
+      <c r="H286" s="74" t="s">
+        <v>1501</v>
       </c>
       <c r="I286" s="13" t="s">
-        <v>431</v>
+        <v>1500</v>
       </c>
       <c r="J286" s="14"/>
     </row>
@@ -34943,25 +35388,25 @@
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="28" t="s">
-        <v>1594</v>
+        <v>1896</v>
       </c>
       <c r="D287" s="55" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E287" s="55" t="s">
-        <v>1605</v>
+        <v>1897</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>1898</v>
       </c>
       <c r="F287" s="12" t="s">
-        <v>1326</v>
+        <v>1499</v>
       </c>
       <c r="G287" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H287" s="70" t="s">
-        <v>1590</v>
+        <v>42327</v>
+      </c>
+      <c r="H287" s="74" t="s">
+        <v>1788</v>
       </c>
       <c r="I287" s="13" t="s">
-        <v>431</v>
+        <v>1812</v>
       </c>
       <c r="J287" s="14"/>
     </row>
@@ -34971,27 +35416,13 @@
         <v>282</v>
       </c>
       <c r="B288" s="11"/>
-      <c r="C288" s="28" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D288" s="55" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E288" s="55" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F288" s="12" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G288" s="31">
-        <v>42276</v>
-      </c>
-      <c r="H288" s="70" t="s">
-        <v>1590</v>
-      </c>
-      <c r="I288" s="13" t="s">
-        <v>431</v>
-      </c>
+      <c r="C288" s="28"/>
+      <c r="D288" s="55"/>
+      <c r="E288" s="12"/>
+      <c r="F288" s="12"/>
+      <c r="G288" s="31"/>
+      <c r="H288" s="70"/>
+      <c r="I288" s="13"/>
       <c r="J288" s="14"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -35000,26 +35431,24 @@
         <v>283</v>
       </c>
       <c r="B289" s="11"/>
-      <c r="C289" s="28" t="s">
-        <v>1602</v>
-      </c>
+      <c r="C289" s="28"/>
       <c r="D289" s="55" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E289" s="55" t="s">
-        <v>1607</v>
+        <v>1327</v>
+      </c>
+      <c r="E289" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F289" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G289" s="31">
-        <v>42276</v>
+        <v>42265</v>
       </c>
       <c r="H289" s="70" t="s">
-        <v>1590</v>
+        <v>1322</v>
       </c>
       <c r="I289" s="13" t="s">
-        <v>431</v>
+        <v>814</v>
       </c>
       <c r="J289" s="14"/>
     </row>
@@ -35030,22 +35459,22 @@
       </c>
       <c r="B290" s="11"/>
       <c r="C290" s="28" t="s">
-        <v>1619</v>
+        <v>1435</v>
       </c>
       <c r="D290" s="55" t="s">
-        <v>1601</v>
+        <v>1438</v>
       </c>
       <c r="E290" s="55" t="s">
-        <v>1608</v>
+        <v>1432</v>
       </c>
       <c r="F290" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G290" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H290" s="70" t="s">
-        <v>1590</v>
+        <v>235</v>
       </c>
       <c r="I290" s="13" t="s">
         <v>431</v>
@@ -35059,19 +35488,19 @@
       </c>
       <c r="B291" s="11"/>
       <c r="C291" s="28" t="s">
-        <v>1677</v>
+        <v>1436</v>
       </c>
       <c r="D291" s="55" t="s">
-        <v>1680</v>
+        <v>1439</v>
       </c>
       <c r="E291" s="55" t="s">
-        <v>1674</v>
+        <v>1433</v>
       </c>
       <c r="F291" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G291" s="31">
-        <v>42293</v>
+        <v>42266</v>
       </c>
       <c r="H291" s="70" t="s">
         <v>235</v>
@@ -35088,19 +35517,19 @@
       </c>
       <c r="B292" s="11"/>
       <c r="C292" s="28" t="s">
-        <v>1678</v>
+        <v>1437</v>
       </c>
       <c r="D292" s="55" t="s">
-        <v>1681</v>
+        <v>1440</v>
       </c>
       <c r="E292" s="55" t="s">
-        <v>1675</v>
+        <v>1434</v>
       </c>
       <c r="F292" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G292" s="31">
-        <v>42293</v>
+        <v>42266</v>
       </c>
       <c r="H292" s="70" t="s">
         <v>235</v>
@@ -35117,22 +35546,22 @@
       </c>
       <c r="B293" s="11"/>
       <c r="C293" s="28" t="s">
-        <v>1679</v>
+        <v>1575</v>
       </c>
       <c r="D293" s="55" t="s">
-        <v>1682</v>
+        <v>1576</v>
       </c>
       <c r="E293" s="55" t="s">
-        <v>1676</v>
+        <v>1574</v>
       </c>
       <c r="F293" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G293" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H293" s="70" t="s">
-        <v>235</v>
+        <v>1590</v>
       </c>
       <c r="I293" s="13" t="s">
         <v>431</v>
@@ -35146,22 +35575,22 @@
       </c>
       <c r="B294" s="11"/>
       <c r="C294" s="28" t="s">
-        <v>1731</v>
+        <v>1591</v>
       </c>
       <c r="D294" s="55" t="s">
-        <v>1727</v>
+        <v>2220</v>
       </c>
       <c r="E294" s="55" t="s">
-        <v>1723</v>
+        <v>1617</v>
       </c>
       <c r="F294" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G294" s="31">
-        <v>42297</v>
+        <v>42276</v>
       </c>
       <c r="H294" s="70" t="s">
-        <v>235</v>
+        <v>1590</v>
       </c>
       <c r="I294" s="13" t="s">
         <v>431</v>
@@ -35175,25 +35604,25 @@
       </c>
       <c r="B295" s="11"/>
       <c r="C295" s="28" t="s">
-        <v>1732</v>
+        <v>1592</v>
       </c>
       <c r="D295" s="55" t="s">
-        <v>1728</v>
+        <v>2221</v>
       </c>
       <c r="E295" s="55" t="s">
-        <v>1724</v>
+        <v>2219</v>
       </c>
       <c r="F295" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G295" s="31">
-        <v>42297</v>
+        <v>42349</v>
       </c>
       <c r="H295" s="70" t="s">
-        <v>235</v>
+        <v>2090</v>
       </c>
       <c r="I295" s="13" t="s">
-        <v>431</v>
+        <v>1749</v>
       </c>
       <c r="J295" s="14"/>
     </row>
@@ -35204,22 +35633,22 @@
       </c>
       <c r="B296" s="11"/>
       <c r="C296" s="28" t="s">
-        <v>1733</v>
+        <v>1593</v>
       </c>
       <c r="D296" s="55" t="s">
-        <v>1729</v>
+        <v>1596</v>
       </c>
       <c r="E296" s="55" t="s">
-        <v>1725</v>
+        <v>1603</v>
       </c>
       <c r="F296" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G296" s="31">
-        <v>42297</v>
+        <v>42276</v>
       </c>
       <c r="H296" s="70" t="s">
-        <v>235</v>
+        <v>1590</v>
       </c>
       <c r="I296" s="13" t="s">
         <v>431</v>
@@ -35233,22 +35662,22 @@
       </c>
       <c r="B297" s="11"/>
       <c r="C297" s="28" t="s">
-        <v>1734</v>
+        <v>1594</v>
       </c>
       <c r="D297" s="55" t="s">
-        <v>1730</v>
+        <v>1597</v>
       </c>
       <c r="E297" s="55" t="s">
-        <v>1726</v>
+        <v>1604</v>
       </c>
       <c r="F297" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G297" s="31">
-        <v>42297</v>
+        <v>42276</v>
       </c>
       <c r="H297" s="70" t="s">
-        <v>235</v>
+        <v>1590</v>
       </c>
       <c r="I297" s="13" t="s">
         <v>431</v>
@@ -35262,22 +35691,22 @@
       </c>
       <c r="B298" s="11"/>
       <c r="C298" s="28" t="s">
-        <v>1805</v>
+        <v>1595</v>
       </c>
       <c r="D298" s="55" t="s">
-        <v>1796</v>
+        <v>1598</v>
       </c>
       <c r="E298" s="55" t="s">
-        <v>1803</v>
+        <v>1605</v>
       </c>
       <c r="F298" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G298" s="31">
-        <v>42318</v>
+        <v>42276</v>
       </c>
       <c r="H298" s="70" t="s">
-        <v>1804</v>
+        <v>1590</v>
       </c>
       <c r="I298" s="13" t="s">
         <v>431</v>
@@ -35291,25 +35720,25 @@
       </c>
       <c r="B299" s="11"/>
       <c r="C299" s="28" t="s">
-        <v>1806</v>
+        <v>1602</v>
       </c>
       <c r="D299" s="55" t="s">
-        <v>1797</v>
+        <v>1599</v>
       </c>
       <c r="E299" s="55" t="s">
-        <v>1800</v>
+        <v>1606</v>
       </c>
       <c r="F299" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G299" s="31">
-        <v>42318</v>
+        <v>42276</v>
       </c>
       <c r="H299" s="70" t="s">
-        <v>235</v>
+        <v>1590</v>
       </c>
       <c r="I299" s="13" t="s">
-        <v>1813</v>
+        <v>431</v>
       </c>
       <c r="J299" s="14"/>
     </row>
@@ -35320,25 +35749,25 @@
       </c>
       <c r="B300" s="11"/>
       <c r="C300" s="28" t="s">
-        <v>1807</v>
+        <v>1618</v>
       </c>
       <c r="D300" s="55" t="s">
-        <v>1798</v>
+        <v>1600</v>
       </c>
       <c r="E300" s="55" t="s">
-        <v>1801</v>
+        <v>1607</v>
       </c>
       <c r="F300" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G300" s="31">
-        <v>42318</v>
+        <v>42276</v>
       </c>
       <c r="H300" s="70" t="s">
-        <v>235</v>
+        <v>1590</v>
       </c>
       <c r="I300" s="13" t="s">
-        <v>1813</v>
+        <v>431</v>
       </c>
       <c r="J300" s="14"/>
     </row>
@@ -35349,25 +35778,25 @@
       </c>
       <c r="B301" s="11"/>
       <c r="C301" s="28" t="s">
-        <v>1808</v>
+        <v>1676</v>
       </c>
       <c r="D301" s="55" t="s">
-        <v>1799</v>
+        <v>1601</v>
       </c>
       <c r="E301" s="55" t="s">
-        <v>1802</v>
+        <v>1608</v>
       </c>
       <c r="F301" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G301" s="31">
-        <v>42318</v>
+        <v>42276</v>
       </c>
       <c r="H301" s="70" t="s">
-        <v>235</v>
+        <v>1590</v>
       </c>
       <c r="I301" s="13" t="s">
-        <v>1813</v>
+        <v>431</v>
       </c>
       <c r="J301" s="14"/>
     </row>
@@ -35378,25 +35807,25 @@
       </c>
       <c r="B302" s="11"/>
       <c r="C302" s="28" t="s">
-        <v>1864</v>
+        <v>1677</v>
       </c>
       <c r="D302" s="55" t="s">
-        <v>1865</v>
+        <v>1679</v>
       </c>
       <c r="E302" s="55" t="s">
-        <v>1866</v>
+        <v>1673</v>
       </c>
       <c r="F302" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G302" s="31">
-        <v>42319</v>
+        <v>42293</v>
       </c>
       <c r="H302" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I302" s="13" t="s">
-        <v>1813</v>
+        <v>431</v>
       </c>
       <c r="J302" s="14"/>
     </row>
@@ -35406,13 +35835,27 @@
         <v>297</v>
       </c>
       <c r="B303" s="11"/>
-      <c r="C303" s="28"/>
-      <c r="D303" s="55"/>
-      <c r="E303" s="55"/>
-      <c r="F303" s="12"/>
-      <c r="G303" s="31"/>
-      <c r="H303" s="70"/>
-      <c r="I303" s="13"/>
+      <c r="C303" s="28" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D303" s="55" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E303" s="55" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F303" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G303" s="31">
+        <v>42293</v>
+      </c>
+      <c r="H303" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I303" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J303" s="14"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -35421,13 +35864,27 @@
         <v>298</v>
       </c>
       <c r="B304" s="11"/>
-      <c r="C304" s="28"/>
-      <c r="D304" s="12"/>
-      <c r="E304" s="55"/>
-      <c r="F304" s="12"/>
-      <c r="G304" s="12"/>
-      <c r="H304" s="70"/>
-      <c r="I304" s="13"/>
+      <c r="C304" s="28" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D304" s="55" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E304" s="55" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F304" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G304" s="31">
+        <v>42293</v>
+      </c>
+      <c r="H304" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I304" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J304" s="14"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -35436,13 +35893,27 @@
         <v>299</v>
       </c>
       <c r="B305" s="11"/>
-      <c r="C305" s="28"/>
-      <c r="D305" s="12"/>
-      <c r="E305" s="55"/>
-      <c r="F305" s="12"/>
-      <c r="G305" s="12"/>
-      <c r="H305" s="70"/>
-      <c r="I305" s="13"/>
+      <c r="C305" s="28" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D305" s="55" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E305" s="55" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F305" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G305" s="31">
+        <v>42297</v>
+      </c>
+      <c r="H305" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I305" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J305" s="14"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -35451,13 +35922,27 @@
         <v>300</v>
       </c>
       <c r="B306" s="11"/>
-      <c r="C306" s="28"/>
-      <c r="D306" s="12"/>
-      <c r="E306" s="55"/>
-      <c r="F306" s="12"/>
-      <c r="G306" s="12"/>
-      <c r="H306" s="70"/>
-      <c r="I306" s="13"/>
+      <c r="C306" s="28" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D306" s="55" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E306" s="55" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F306" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G306" s="31">
+        <v>42297</v>
+      </c>
+      <c r="H306" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I306" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J306" s="14"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -35467,25 +35952,25 @@
       </c>
       <c r="B307" s="11"/>
       <c r="C307" s="28" t="s">
-        <v>870</v>
-      </c>
-      <c r="D307" s="12" t="s">
-        <v>2111</v>
-      </c>
-      <c r="E307" s="12" t="s">
-        <v>2073</v>
+        <v>1733</v>
+      </c>
+      <c r="D307" s="55" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E307" s="55" t="s">
+        <v>1724</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="G307" s="31">
-        <v>42341</v>
+        <v>42297</v>
       </c>
       <c r="H307" s="70" t="s">
-        <v>2090</v>
+        <v>235</v>
       </c>
       <c r="I307" s="13" t="s">
-        <v>814</v>
+        <v>431</v>
       </c>
       <c r="J307" s="14"/>
     </row>
@@ -35496,25 +35981,25 @@
       </c>
       <c r="B308" s="11"/>
       <c r="C308" s="28" t="s">
-        <v>871</v>
-      </c>
-      <c r="D308" s="12" t="s">
-        <v>2112</v>
-      </c>
-      <c r="E308" s="12" t="s">
-        <v>2074</v>
+        <v>1804</v>
+      </c>
+      <c r="D308" s="55" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E308" s="55" t="s">
+        <v>1725</v>
       </c>
       <c r="F308" s="12" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="G308" s="31">
-        <v>42341</v>
+        <v>42297</v>
       </c>
       <c r="H308" s="70" t="s">
-        <v>2090</v>
+        <v>235</v>
       </c>
       <c r="I308" s="13" t="s">
-        <v>814</v>
+        <v>431</v>
       </c>
       <c r="J308" s="14"/>
     </row>
@@ -35525,25 +36010,25 @@
       </c>
       <c r="B309" s="11"/>
       <c r="C309" s="28" t="s">
-        <v>872</v>
-      </c>
-      <c r="D309" s="12" t="s">
-        <v>2113</v>
-      </c>
-      <c r="E309" s="12" t="s">
-        <v>2075</v>
+        <v>1805</v>
+      </c>
+      <c r="D309" s="55" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E309" s="55" t="s">
+        <v>1802</v>
       </c>
       <c r="F309" s="12" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="G309" s="31">
-        <v>42341</v>
+        <v>42318</v>
       </c>
       <c r="H309" s="70" t="s">
-        <v>2090</v>
+        <v>1803</v>
       </c>
       <c r="I309" s="13" t="s">
-        <v>814</v>
+        <v>431</v>
       </c>
       <c r="J309" s="14"/>
     </row>
@@ -35554,25 +36039,25 @@
       </c>
       <c r="B310" s="11"/>
       <c r="C310" s="28" t="s">
-        <v>873</v>
+        <v>1806</v>
       </c>
       <c r="D310" s="55" t="s">
-        <v>2114</v>
-      </c>
-      <c r="E310" s="12" t="s">
-        <v>2076</v>
+        <v>1796</v>
+      </c>
+      <c r="E310" s="55" t="s">
+        <v>1799</v>
       </c>
       <c r="F310" s="12" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="G310" s="31">
-        <v>42341</v>
+        <v>42318</v>
       </c>
       <c r="H310" s="70" t="s">
-        <v>2090</v>
+        <v>235</v>
       </c>
       <c r="I310" s="13" t="s">
-        <v>814</v>
+        <v>1812</v>
       </c>
       <c r="J310" s="14"/>
     </row>
@@ -35583,25 +36068,25 @@
       </c>
       <c r="B311" s="11"/>
       <c r="C311" s="28" t="s">
-        <v>874</v>
+        <v>1807</v>
       </c>
       <c r="D311" s="55" t="s">
-        <v>2115</v>
-      </c>
-      <c r="E311" s="12" t="s">
-        <v>2077</v>
+        <v>1797</v>
+      </c>
+      <c r="E311" s="55" t="s">
+        <v>1800</v>
       </c>
       <c r="F311" s="12" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="G311" s="31">
-        <v>42341</v>
+        <v>42318</v>
       </c>
       <c r="H311" s="70" t="s">
-        <v>2090</v>
+        <v>235</v>
       </c>
       <c r="I311" s="13" t="s">
-        <v>814</v>
+        <v>1812</v>
       </c>
       <c r="J311" s="14"/>
     </row>
@@ -35612,25 +36097,25 @@
       </c>
       <c r="B312" s="11"/>
       <c r="C312" s="28" t="s">
-        <v>875</v>
+        <v>1863</v>
       </c>
       <c r="D312" s="55" t="s">
-        <v>2116</v>
-      </c>
-      <c r="E312" s="12" t="s">
-        <v>2078</v>
+        <v>1798</v>
+      </c>
+      <c r="E312" s="55" t="s">
+        <v>1801</v>
       </c>
       <c r="F312" s="12" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="G312" s="31">
-        <v>42341</v>
+        <v>42318</v>
       </c>
       <c r="H312" s="70" t="s">
-        <v>2090</v>
+        <v>235</v>
       </c>
       <c r="I312" s="13" t="s">
-        <v>814</v>
+        <v>1812</v>
       </c>
       <c r="J312" s="14"/>
     </row>
@@ -35641,25 +36126,25 @@
       </c>
       <c r="B313" s="11"/>
       <c r="C313" s="28" t="s">
-        <v>876</v>
+        <v>2222</v>
       </c>
       <c r="D313" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="E313" s="12" t="s">
-        <v>2080</v>
+        <v>1864</v>
+      </c>
+      <c r="E313" s="55" t="s">
+        <v>1865</v>
       </c>
       <c r="F313" s="12" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="G313" s="31">
-        <v>42341</v>
+        <v>42319</v>
       </c>
       <c r="H313" s="70" t="s">
-        <v>2090</v>
+        <v>235</v>
       </c>
       <c r="I313" s="13" t="s">
-        <v>814</v>
+        <v>1812</v>
       </c>
       <c r="J313" s="14"/>
     </row>
@@ -35669,27 +36154,12 @@
         <v>308</v>
       </c>
       <c r="B314" s="11"/>
-      <c r="C314" s="28" t="s">
-        <v>877</v>
-      </c>
-      <c r="D314" s="55" t="s">
-        <v>2117</v>
-      </c>
-      <c r="E314" s="12" t="s">
-        <v>2079</v>
-      </c>
-      <c r="F314" s="12" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G314" s="31">
-        <v>42341</v>
-      </c>
-      <c r="H314" s="70" t="s">
-        <v>2090</v>
-      </c>
-      <c r="I314" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C314" s="28"/>
+      <c r="D314" s="55"/>
+      <c r="F314" s="12"/>
+      <c r="G314" s="31"/>
+      <c r="H314" s="70"/>
+      <c r="I314" s="13"/>
       <c r="J314" s="14"/>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -35698,27 +36168,13 @@
         <v>309</v>
       </c>
       <c r="B315" s="11"/>
-      <c r="C315" s="28" t="s">
-        <v>878</v>
-      </c>
-      <c r="D315" s="55" t="s">
-        <v>2118</v>
-      </c>
-      <c r="E315" s="12" t="s">
-        <v>2081</v>
-      </c>
-      <c r="F315" s="12" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G315" s="31">
-        <v>42341</v>
-      </c>
-      <c r="H315" s="70" t="s">
-        <v>2090</v>
-      </c>
-      <c r="I315" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C315" s="28"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="55"/>
+      <c r="F315" s="12"/>
+      <c r="G315" s="12"/>
+      <c r="H315" s="70"/>
+      <c r="I315" s="13"/>
       <c r="J315" s="14"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -35727,27 +36183,13 @@
         <v>310</v>
       </c>
       <c r="B316" s="11"/>
-      <c r="C316" s="28" t="s">
-        <v>879</v>
-      </c>
-      <c r="D316" s="55" t="s">
-        <v>2119</v>
-      </c>
-      <c r="E316" s="12" t="s">
-        <v>2082</v>
-      </c>
-      <c r="F316" s="12" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G316" s="31">
-        <v>42341</v>
-      </c>
-      <c r="H316" s="70" t="s">
-        <v>2090</v>
-      </c>
-      <c r="I316" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C316" s="28"/>
+      <c r="D316" s="12"/>
+      <c r="E316" s="55"/>
+      <c r="F316" s="12"/>
+      <c r="G316" s="12"/>
+      <c r="H316" s="70"/>
+      <c r="I316" s="13"/>
       <c r="J316" s="14"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -35756,27 +36198,13 @@
         <v>311</v>
       </c>
       <c r="B317" s="11"/>
-      <c r="C317" s="28" t="s">
-        <v>880</v>
-      </c>
-      <c r="D317" s="55" t="s">
-        <v>2120</v>
-      </c>
-      <c r="E317" s="12" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F317" s="12" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G317" s="31">
-        <v>42341</v>
-      </c>
-      <c r="H317" s="70" t="s">
-        <v>2090</v>
-      </c>
-      <c r="I317" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C317" s="28"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="55"/>
+      <c r="F317" s="12"/>
+      <c r="G317" s="12"/>
+      <c r="H317" s="70"/>
+      <c r="I317" s="13"/>
       <c r="J317" s="14"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -35786,13 +36214,13 @@
       </c>
       <c r="B318" s="11"/>
       <c r="C318" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="D318" s="55" t="s">
-        <v>868</v>
+        <v>870</v>
+      </c>
+      <c r="D318" s="12" t="s">
+        <v>2110</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>2084</v>
+        <v>2072</v>
       </c>
       <c r="F318" s="12" t="s">
         <v>1321</v>
@@ -35801,7 +36229,7 @@
         <v>42341</v>
       </c>
       <c r="H318" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I318" s="13" t="s">
         <v>814</v>
@@ -35815,13 +36243,13 @@
       </c>
       <c r="B319" s="11"/>
       <c r="C319" s="28" t="s">
-        <v>882</v>
-      </c>
-      <c r="D319" s="55" t="s">
-        <v>2121</v>
+        <v>871</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>2111</v>
       </c>
       <c r="E319" s="12" t="s">
-        <v>2085</v>
+        <v>2073</v>
       </c>
       <c r="F319" s="12" t="s">
         <v>1321</v>
@@ -35830,7 +36258,7 @@
         <v>42341</v>
       </c>
       <c r="H319" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I319" s="13" t="s">
         <v>814</v>
@@ -35844,13 +36272,13 @@
       </c>
       <c r="B320" s="11"/>
       <c r="C320" s="28" t="s">
-        <v>883</v>
-      </c>
-      <c r="D320" s="55" t="s">
-        <v>2122</v>
+        <v>872</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>2112</v>
       </c>
       <c r="E320" s="12" t="s">
-        <v>2086</v>
+        <v>2074</v>
       </c>
       <c r="F320" s="12" t="s">
         <v>1321</v>
@@ -35859,7 +36287,7 @@
         <v>42341</v>
       </c>
       <c r="H320" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I320" s="13" t="s">
         <v>814</v>
@@ -35873,13 +36301,13 @@
       </c>
       <c r="B321" s="11"/>
       <c r="C321" s="28" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="D321" s="55" t="s">
-        <v>2124</v>
+        <v>2113</v>
       </c>
       <c r="E321" s="12" t="s">
-        <v>2087</v>
+        <v>2075</v>
       </c>
       <c r="F321" s="12" t="s">
         <v>1321</v>
@@ -35888,7 +36316,7 @@
         <v>42341</v>
       </c>
       <c r="H321" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I321" s="13" t="s">
         <v>814</v>
@@ -35902,13 +36330,13 @@
       </c>
       <c r="B322" s="11"/>
       <c r="C322" s="28" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="D322" s="55" t="s">
-        <v>2125</v>
+        <v>2114</v>
       </c>
       <c r="E322" s="12" t="s">
-        <v>2088</v>
+        <v>2076</v>
       </c>
       <c r="F322" s="12" t="s">
         <v>1321</v>
@@ -35917,7 +36345,7 @@
         <v>42341</v>
       </c>
       <c r="H322" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I322" s="13" t="s">
         <v>814</v>
@@ -35931,13 +36359,13 @@
       </c>
       <c r="B323" s="11"/>
       <c r="C323" s="28" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="D323" s="55" t="s">
-        <v>20</v>
+        <v>2115</v>
       </c>
       <c r="E323" s="12" t="s">
-        <v>2089</v>
+        <v>2077</v>
       </c>
       <c r="F323" s="12" t="s">
         <v>1321</v>
@@ -35946,7 +36374,7 @@
         <v>42341</v>
       </c>
       <c r="H323" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I323" s="13" t="s">
         <v>814</v>
@@ -35960,25 +36388,25 @@
       </c>
       <c r="B324" s="11"/>
       <c r="C324" s="28" t="s">
-        <v>2144</v>
+        <v>876</v>
       </c>
       <c r="D324" s="55" t="s">
-        <v>2126</v>
-      </c>
-      <c r="E324" s="117" t="s">
-        <v>2098</v>
+        <v>465</v>
+      </c>
+      <c r="E324" s="12" t="s">
+        <v>2079</v>
       </c>
       <c r="F324" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G324" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H324" s="70" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="I324" s="13" t="s">
-        <v>2092</v>
+        <v>814</v>
       </c>
       <c r="J324" s="14"/>
     </row>
@@ -35989,13 +36417,13 @@
       </c>
       <c r="B325" s="11"/>
       <c r="C325" s="28" t="s">
-        <v>2145</v>
+        <v>877</v>
       </c>
       <c r="D325" s="55" t="s">
-        <v>2127</v>
+        <v>2116</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>2099</v>
+        <v>2078</v>
       </c>
       <c r="F325" s="12" t="s">
         <v>1321</v>
@@ -36004,7 +36432,7 @@
         <v>42341</v>
       </c>
       <c r="H325" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I325" s="13" t="s">
         <v>814</v>
@@ -36018,13 +36446,13 @@
       </c>
       <c r="B326" s="11"/>
       <c r="C326" s="28" t="s">
-        <v>2146</v>
+        <v>878</v>
       </c>
       <c r="D326" s="55" t="s">
-        <v>2128</v>
+        <v>2117</v>
       </c>
       <c r="E326" s="12" t="s">
-        <v>2100</v>
+        <v>2080</v>
       </c>
       <c r="F326" s="12" t="s">
         <v>1321</v>
@@ -36033,7 +36461,7 @@
         <v>42341</v>
       </c>
       <c r="H326" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I326" s="13" t="s">
         <v>814</v>
@@ -36047,25 +36475,25 @@
       </c>
       <c r="B327" s="11"/>
       <c r="C327" s="28" t="s">
-        <v>2147</v>
+        <v>879</v>
       </c>
       <c r="D327" s="55" t="s">
-        <v>2129</v>
+        <v>2118</v>
       </c>
       <c r="E327" s="12" t="s">
-        <v>2093</v>
+        <v>2081</v>
       </c>
       <c r="F327" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G327" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H327" s="70" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>2092</v>
+        <v>814</v>
       </c>
       <c r="J327" s="14"/>
     </row>
@@ -36076,13 +36504,13 @@
       </c>
       <c r="B328" s="11"/>
       <c r="C328" s="28" t="s">
-        <v>2148</v>
+        <v>880</v>
       </c>
       <c r="D328" s="55" t="s">
-        <v>2130</v>
+        <v>2119</v>
       </c>
       <c r="E328" s="12" t="s">
-        <v>2101</v>
+        <v>2082</v>
       </c>
       <c r="F328" s="12" t="s">
         <v>1321</v>
@@ -36091,7 +36519,7 @@
         <v>42341</v>
       </c>
       <c r="H328" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I328" s="13" t="s">
         <v>814</v>
@@ -36105,13 +36533,13 @@
       </c>
       <c r="B329" s="11"/>
       <c r="C329" s="28" t="s">
-        <v>2149</v>
+        <v>881</v>
       </c>
       <c r="D329" s="55" t="s">
-        <v>2131</v>
+        <v>868</v>
       </c>
       <c r="E329" s="12" t="s">
-        <v>2102</v>
+        <v>2083</v>
       </c>
       <c r="F329" s="12" t="s">
         <v>1321</v>
@@ -36120,7 +36548,7 @@
         <v>42341</v>
       </c>
       <c r="H329" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I329" s="13" t="s">
         <v>814</v>
@@ -36134,25 +36562,25 @@
       </c>
       <c r="B330" s="11"/>
       <c r="C330" s="28" t="s">
-        <v>2150</v>
+        <v>882</v>
       </c>
       <c r="D330" s="55" t="s">
-        <v>2132</v>
+        <v>2120</v>
       </c>
       <c r="E330" s="12" t="s">
-        <v>2103</v>
+        <v>2084</v>
       </c>
       <c r="F330" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G330" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H330" s="70" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="I330" s="13" t="s">
-        <v>2092</v>
+        <v>814</v>
       </c>
       <c r="J330" s="14"/>
     </row>
@@ -36163,25 +36591,25 @@
       </c>
       <c r="B331" s="11"/>
       <c r="C331" s="28" t="s">
-        <v>2151</v>
+        <v>883</v>
       </c>
       <c r="D331" s="55" t="s">
-        <v>2133</v>
+        <v>2121</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>2094</v>
+        <v>2085</v>
       </c>
       <c r="F331" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G331" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H331" s="70" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="I331" s="13" t="s">
-        <v>2092</v>
+        <v>814</v>
       </c>
       <c r="J331" s="14"/>
     </row>
@@ -36192,13 +36620,13 @@
       </c>
       <c r="B332" s="11"/>
       <c r="C332" s="28" t="s">
-        <v>2152</v>
+        <v>884</v>
       </c>
       <c r="D332" s="55" t="s">
-        <v>2134</v>
+        <v>2123</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>2104</v>
+        <v>2086</v>
       </c>
       <c r="F332" s="12" t="s">
         <v>1321</v>
@@ -36207,7 +36635,7 @@
         <v>42341</v>
       </c>
       <c r="H332" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I332" s="13" t="s">
         <v>814</v>
@@ -36221,13 +36649,13 @@
       </c>
       <c r="B333" s="11"/>
       <c r="C333" s="28" t="s">
-        <v>2153</v>
+        <v>885</v>
       </c>
       <c r="D333" s="55" t="s">
-        <v>2135</v>
+        <v>2124</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>2105</v>
+        <v>2087</v>
       </c>
       <c r="F333" s="12" t="s">
         <v>1321</v>
@@ -36236,7 +36664,7 @@
         <v>42341</v>
       </c>
       <c r="H333" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I333" s="13" t="s">
         <v>814</v>
@@ -36250,13 +36678,13 @@
       </c>
       <c r="B334" s="11"/>
       <c r="C334" s="28" t="s">
-        <v>2154</v>
+        <v>886</v>
       </c>
       <c r="D334" s="55" t="s">
-        <v>2136</v>
+        <v>20</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>2106</v>
+        <v>2088</v>
       </c>
       <c r="F334" s="12" t="s">
         <v>1321</v>
@@ -36265,7 +36693,7 @@
         <v>42341</v>
       </c>
       <c r="H334" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I334" s="13" t="s">
         <v>814</v>
@@ -36279,25 +36707,25 @@
       </c>
       <c r="B335" s="11"/>
       <c r="C335" s="28" t="s">
-        <v>2155</v>
+        <v>2143</v>
       </c>
       <c r="D335" s="55" t="s">
-        <v>2137</v>
-      </c>
-      <c r="E335" s="12" t="s">
-        <v>2107</v>
+        <v>2125</v>
+      </c>
+      <c r="E335" s="117" t="s">
+        <v>2097</v>
       </c>
       <c r="F335" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G335" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H335" s="70" t="s">
         <v>2090</v>
       </c>
       <c r="I335" s="13" t="s">
-        <v>814</v>
+        <v>2091</v>
       </c>
       <c r="J335" s="14"/>
     </row>
@@ -36308,25 +36736,25 @@
       </c>
       <c r="B336" s="11"/>
       <c r="C336" s="28" t="s">
-        <v>2156</v>
+        <v>2144</v>
       </c>
       <c r="D336" s="55" t="s">
-        <v>2138</v>
+        <v>2126</v>
       </c>
       <c r="E336" s="12" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="F336" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G336" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H336" s="70" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="I336" s="13" t="s">
-        <v>2092</v>
+        <v>814</v>
       </c>
       <c r="J336" s="14"/>
     </row>
@@ -36337,13 +36765,13 @@
       </c>
       <c r="B337" s="11"/>
       <c r="C337" s="28" t="s">
-        <v>2157</v>
+        <v>2145</v>
       </c>
       <c r="D337" s="55" t="s">
-        <v>2139</v>
+        <v>2127</v>
       </c>
       <c r="E337" s="12" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F337" s="12" t="s">
         <v>1321</v>
@@ -36352,7 +36780,7 @@
         <v>42341</v>
       </c>
       <c r="H337" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I337" s="13" t="s">
         <v>814</v>
@@ -36366,13 +36794,13 @@
       </c>
       <c r="B338" s="11"/>
       <c r="C338" s="28" t="s">
-        <v>2158</v>
+        <v>2146</v>
       </c>
       <c r="D338" s="55" t="s">
-        <v>2140</v>
+        <v>2128</v>
       </c>
       <c r="E338" s="12" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="F338" s="12" t="s">
         <v>1321</v>
@@ -36381,10 +36809,10 @@
         <v>42340</v>
       </c>
       <c r="H338" s="70" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I338" s="13" t="s">
         <v>2091</v>
-      </c>
-      <c r="I338" s="13" t="s">
-        <v>2092</v>
       </c>
       <c r="J338" s="14"/>
     </row>
@@ -36395,13 +36823,13 @@
       </c>
       <c r="B339" s="11"/>
       <c r="C339" s="28" t="s">
-        <v>2159</v>
+        <v>2147</v>
       </c>
       <c r="D339" s="55" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
       <c r="E339" s="12" t="s">
-        <v>2109</v>
+        <v>2100</v>
       </c>
       <c r="F339" s="12" t="s">
         <v>1321</v>
@@ -36410,7 +36838,7 @@
         <v>42341</v>
       </c>
       <c r="H339" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I339" s="13" t="s">
         <v>814</v>
@@ -36424,25 +36852,25 @@
       </c>
       <c r="B340" s="11"/>
       <c r="C340" s="28" t="s">
-        <v>2160</v>
+        <v>2148</v>
       </c>
       <c r="D340" s="55" t="s">
-        <v>2142</v>
+        <v>2130</v>
       </c>
       <c r="E340" s="12" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="F340" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G340" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H340" s="70" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="I340" s="13" t="s">
-        <v>2092</v>
+        <v>814</v>
       </c>
       <c r="J340" s="14"/>
     </row>
@@ -36453,25 +36881,25 @@
       </c>
       <c r="B341" s="11"/>
       <c r="C341" s="28" t="s">
-        <v>2161</v>
+        <v>2149</v>
       </c>
       <c r="D341" s="55" t="s">
-        <v>2143</v>
+        <v>2131</v>
       </c>
       <c r="E341" s="12" t="s">
-        <v>2110</v>
+        <v>2102</v>
       </c>
       <c r="F341" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G341" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H341" s="70" t="s">
         <v>2090</v>
       </c>
       <c r="I341" s="13" t="s">
-        <v>814</v>
+        <v>2091</v>
       </c>
       <c r="J341" s="14"/>
     </row>
@@ -36481,13 +36909,27 @@
         <v>336</v>
       </c>
       <c r="B342" s="11"/>
-      <c r="C342" s="28"/>
-      <c r="D342" s="55"/>
-      <c r="E342" s="12"/>
-      <c r="F342" s="12"/>
-      <c r="G342" s="31"/>
-      <c r="H342" s="70"/>
-      <c r="I342" s="13"/>
+      <c r="C342" s="28" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D342" s="55" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E342" s="12" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F342" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G342" s="31">
+        <v>42340</v>
+      </c>
+      <c r="H342" s="70" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I342" s="13" t="s">
+        <v>2091</v>
+      </c>
       <c r="J342" s="14"/>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -36496,13 +36938,27 @@
         <v>337</v>
       </c>
       <c r="B343" s="11"/>
-      <c r="C343" s="28"/>
-      <c r="D343" s="55"/>
-      <c r="E343" s="12"/>
-      <c r="F343" s="12"/>
-      <c r="G343" s="31"/>
-      <c r="H343" s="70"/>
-      <c r="I343" s="13"/>
+      <c r="C343" s="28" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D343" s="55" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E343" s="12" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F343" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G343" s="31">
+        <v>42341</v>
+      </c>
+      <c r="H343" s="70" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I343" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J343" s="14"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -36511,13 +36967,27 @@
         <v>338</v>
       </c>
       <c r="B344" s="11"/>
-      <c r="C344" s="28"/>
-      <c r="D344" s="12"/>
-      <c r="E344" s="12"/>
-      <c r="F344" s="12"/>
-      <c r="G344" s="12"/>
-      <c r="H344" s="70"/>
-      <c r="I344" s="13"/>
+      <c r="C344" s="28" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D344" s="55" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E344" s="12" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F344" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G344" s="31">
+        <v>42341</v>
+      </c>
+      <c r="H344" s="70" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I344" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J344" s="14"/>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -36526,28 +36996,56 @@
         <v>339</v>
       </c>
       <c r="B345" s="11"/>
-      <c r="C345" s="28"/>
-      <c r="D345" s="12"/>
-      <c r="E345" s="12"/>
-      <c r="F345" s="12"/>
-      <c r="G345" s="12"/>
-      <c r="H345" s="70"/>
-      <c r="I345" s="13"/>
+      <c r="C345" s="28" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D345" s="55" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E345" s="12" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F345" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G345" s="31">
+        <v>42341</v>
+      </c>
+      <c r="H345" s="70" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I345" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J345" s="14"/>
     </row>
-    <row r="346" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
       <c r="B346" s="11"/>
-      <c r="C346" s="28"/>
-      <c r="D346" s="12"/>
-      <c r="E346" s="12"/>
-      <c r="F346" s="12"/>
-      <c r="G346" s="12"/>
-      <c r="H346" s="70"/>
-      <c r="I346" s="13"/>
+      <c r="C346" s="28" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D346" s="55" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E346" s="12" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F346" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G346" s="31">
+        <v>42341</v>
+      </c>
+      <c r="H346" s="70" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I346" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J346" s="14"/>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -36555,120 +37053,144 @@
         <f t="shared" si="3"/>
         <v>341</v>
       </c>
-      <c r="B347" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C347" s="27" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D347" s="7" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E347" s="8" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F347" s="8" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G347" s="30">
-        <v>42256</v>
-      </c>
-      <c r="H347" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="I347" s="9" t="s">
-        <v>1332</v>
-      </c>
-      <c r="J347" s="10"/>
-    </row>
-    <row r="348" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="11"/>
+      <c r="C347" s="28" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D347" s="55" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E347" s="12" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F347" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G347" s="31">
+        <v>42340</v>
+      </c>
+      <c r="H347" s="70" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I347" s="13" t="s">
+        <v>2091</v>
+      </c>
+      <c r="J347" s="14"/>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348">
-        <f>ROW($A348)-6</f>
+        <f t="shared" si="3"/>
         <v>342</v>
       </c>
       <c r="B348" s="11"/>
-      <c r="C348" s="28"/>
-      <c r="D348" s="11"/>
-      <c r="E348" s="12"/>
-      <c r="F348" s="12"/>
-      <c r="G348" s="12"/>
-      <c r="H348" s="70"/>
-      <c r="I348" s="13"/>
+      <c r="C348" s="28" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D348" s="55" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E348" s="12" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F348" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G348" s="31">
+        <v>42341</v>
+      </c>
+      <c r="H348" s="70" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I348" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J348" s="14"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
-        <f>ROW($A349)-6</f>
+        <f t="shared" si="3"/>
         <v>343</v>
       </c>
-      <c r="B349" s="7" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C349" s="27" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D349" s="7" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E349" s="8" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F349" s="8" t="s">
-        <v>1788</v>
-      </c>
-      <c r="G349" s="30">
-        <v>42313</v>
-      </c>
-      <c r="H349" s="112" t="s">
-        <v>1789</v>
-      </c>
-      <c r="I349" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="J349" s="10"/>
+      <c r="B349" s="11"/>
+      <c r="C349" s="28" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D349" s="55" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E349" s="12" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F349" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G349" s="31">
+        <v>42340</v>
+      </c>
+      <c r="H349" s="70" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I349" s="13" t="s">
+        <v>2091</v>
+      </c>
+      <c r="J349" s="14"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
-        <f>ROW($A350)-6</f>
+        <f t="shared" si="3"/>
         <v>344</v>
       </c>
       <c r="B350" s="11"/>
       <c r="C350" s="28" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D350" s="11" t="s">
-        <v>1785</v>
+        <v>2158</v>
+      </c>
+      <c r="D350" s="55" t="s">
+        <v>2140</v>
       </c>
       <c r="E350" s="12" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F350" s="55" t="s">
-        <v>1788</v>
+        <v>2108</v>
+      </c>
+      <c r="F350" s="12" t="s">
+        <v>1321</v>
       </c>
       <c r="G350" s="31">
-        <v>42313</v>
+        <v>42341</v>
       </c>
       <c r="H350" s="70" t="s">
-        <v>235</v>
+        <v>2089</v>
       </c>
       <c r="I350" s="13" t="s">
-        <v>1790</v>
+        <v>814</v>
       </c>
       <c r="J350" s="14"/>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
-        <f>ROW($A351)-6</f>
+        <f t="shared" si="3"/>
         <v>345</v>
       </c>
       <c r="B351" s="11"/>
-      <c r="C351" s="28"/>
-      <c r="D351" s="11"/>
-      <c r="E351" s="12"/>
-      <c r="F351" s="12"/>
-      <c r="G351" s="12"/>
-      <c r="H351" s="70"/>
-      <c r="I351" s="13"/>
+      <c r="C351" s="28" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D351" s="55" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E351" s="12" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F351" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G351" s="31">
+        <v>42340</v>
+      </c>
+      <c r="H351" s="70" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I351" s="13" t="s">
+        <v>2091</v>
+      </c>
       <c r="J351" s="14"/>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -36677,13 +37199,27 @@
         <v>346</v>
       </c>
       <c r="B352" s="11"/>
-      <c r="C352" s="28"/>
-      <c r="D352" s="11"/>
-      <c r="E352" s="12"/>
-      <c r="F352" s="12"/>
-      <c r="G352" s="12"/>
-      <c r="H352" s="70"/>
-      <c r="I352" s="13"/>
+      <c r="C352" s="28" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D352" s="55" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E352" s="12" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F352" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G352" s="31">
+        <v>42341</v>
+      </c>
+      <c r="H352" s="70" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I352" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J352" s="14"/>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -36693,28 +37229,28 @@
       </c>
       <c r="B353" s="11"/>
       <c r="C353" s="28"/>
-      <c r="D353" s="11"/>
+      <c r="D353" s="55"/>
       <c r="E353" s="12"/>
       <c r="F353" s="12"/>
-      <c r="G353" s="12"/>
-      <c r="H353" s="69"/>
-      <c r="I353" s="12"/>
+      <c r="G353" s="31"/>
+      <c r="H353" s="70"/>
+      <c r="I353" s="13"/>
       <c r="J353" s="14"/>
     </row>
-    <row r="354" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="B354" s="16"/>
-      <c r="C354" s="29"/>
-      <c r="D354" s="16"/>
-      <c r="E354" s="17"/>
-      <c r="F354" s="17"/>
-      <c r="G354" s="17"/>
-      <c r="H354" s="71"/>
-      <c r="I354" s="17"/>
-      <c r="J354" s="19"/>
+      <c r="B354" s="11"/>
+      <c r="C354" s="28"/>
+      <c r="D354" s="55"/>
+      <c r="E354" s="12"/>
+      <c r="F354" s="12"/>
+      <c r="G354" s="31"/>
+      <c r="H354" s="70"/>
+      <c r="I354" s="13"/>
+      <c r="J354" s="14"/>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
@@ -36727,8 +37263,8 @@
       <c r="E355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
-      <c r="H355" s="69"/>
-      <c r="I355" s="12"/>
+      <c r="H355" s="70"/>
+      <c r="I355" s="13"/>
       <c r="J355" s="14"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -36742,11 +37278,11 @@
       <c r="E356" s="12"/>
       <c r="F356" s="12"/>
       <c r="G356" s="12"/>
-      <c r="H356" s="69"/>
-      <c r="I356" s="12"/>
+      <c r="H356" s="70"/>
+      <c r="I356" s="13"/>
       <c r="J356" s="14"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <f t="shared" si="3"/>
         <v>351</v>
@@ -36757,8 +37293,8 @@
       <c r="E357" s="12"/>
       <c r="F357" s="12"/>
       <c r="G357" s="12"/>
-      <c r="H357" s="69"/>
-      <c r="I357" s="12"/>
+      <c r="H357" s="70"/>
+      <c r="I357" s="13"/>
       <c r="J357" s="14"/>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -36766,74 +37302,120 @@
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
-      <c r="B358" s="11"/>
-      <c r="C358" s="28"/>
-      <c r="D358" s="12"/>
-      <c r="E358" s="12"/>
-      <c r="F358" s="12"/>
-      <c r="G358" s="12"/>
-      <c r="H358" s="69"/>
-      <c r="I358" s="12"/>
-      <c r="J358" s="14"/>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B358" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C358" s="27" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D358" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F358" s="8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G358" s="30">
+        <v>42256</v>
+      </c>
+      <c r="H358" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I358" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J358" s="10"/>
+    </row>
+    <row r="359" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359">
-        <f t="shared" si="3"/>
+        <f>ROW($A359)-6</f>
         <v>353</v>
       </c>
       <c r="B359" s="11"/>
       <c r="C359" s="28"/>
-      <c r="D359" s="12"/>
+      <c r="D359" s="11"/>
       <c r="E359" s="12"/>
       <c r="F359" s="12"/>
       <c r="G359" s="12"/>
-      <c r="H359" s="69"/>
-      <c r="I359" s="12"/>
+      <c r="H359" s="70"/>
+      <c r="I359" s="13"/>
       <c r="J359" s="14"/>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360">
-        <f t="shared" si="3"/>
+        <f>ROW($A360)-6</f>
         <v>354</v>
       </c>
-      <c r="B360" s="11"/>
-      <c r="C360" s="28"/>
-      <c r="D360" s="12"/>
-      <c r="E360" s="12"/>
-      <c r="F360" s="12"/>
-      <c r="G360" s="12"/>
-      <c r="H360" s="69"/>
-      <c r="I360" s="12"/>
-      <c r="J360" s="14"/>
+      <c r="B360" s="7" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C360" s="27" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D360" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E360" s="8" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F360" s="8" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G360" s="30">
+        <v>42313</v>
+      </c>
+      <c r="H360" s="112" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I360" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J360" s="10"/>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
-        <f t="shared" si="3"/>
+        <f>ROW($A361)-6</f>
         <v>355</v>
       </c>
       <c r="B361" s="11"/>
-      <c r="C361" s="28"/>
-      <c r="D361" s="12"/>
-      <c r="E361" s="12"/>
-      <c r="F361" s="12"/>
-      <c r="G361" s="12"/>
-      <c r="H361" s="69"/>
-      <c r="I361" s="12"/>
+      <c r="C361" s="28" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D361" s="11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E361" s="12" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F361" s="55" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G361" s="31">
+        <v>42313</v>
+      </c>
+      <c r="H361" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I361" s="13" t="s">
+        <v>1789</v>
+      </c>
       <c r="J361" s="14"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
-        <f t="shared" si="3"/>
+        <f>ROW($A362)-6</f>
         <v>356</v>
       </c>
       <c r="B362" s="11"/>
       <c r="C362" s="28"/>
-      <c r="D362" s="12"/>
+      <c r="D362" s="11"/>
       <c r="E362" s="12"/>
       <c r="F362" s="12"/>
       <c r="G362" s="12"/>
-      <c r="H362" s="69"/>
-      <c r="I362" s="12"/>
+      <c r="H362" s="70"/>
+      <c r="I362" s="13"/>
       <c r="J362" s="14"/>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -36843,43 +37425,208 @@
       </c>
       <c r="B363" s="11"/>
       <c r="C363" s="28"/>
-      <c r="D363" s="12"/>
+      <c r="D363" s="11"/>
       <c r="E363" s="12"/>
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
-      <c r="H363" s="69"/>
-      <c r="I363" s="12"/>
+      <c r="H363" s="70"/>
+      <c r="I363" s="13"/>
       <c r="J363" s="14"/>
     </row>
-    <row r="364" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
-      <c r="B364" s="16"/>
-      <c r="C364" s="29"/>
-      <c r="D364" s="17"/>
-      <c r="E364" s="17"/>
-      <c r="F364" s="17"/>
-      <c r="G364" s="17"/>
-      <c r="H364" s="71"/>
-      <c r="I364" s="17"/>
-      <c r="J364" s="19"/>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C365" s="3"/>
+      <c r="B364" s="11"/>
+      <c r="C364" s="28"/>
+      <c r="D364" s="11"/>
+      <c r="E364" s="12"/>
+      <c r="F364" s="12"/>
+      <c r="G364" s="12"/>
+      <c r="H364" s="69"/>
+      <c r="I364" s="12"/>
+      <c r="J364" s="14"/>
+    </row>
+    <row r="365" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <f t="shared" si="3"/>
+        <v>359</v>
+      </c>
+      <c r="B365" s="16"/>
+      <c r="C365" s="29"/>
+      <c r="D365" s="16"/>
+      <c r="E365" s="17"/>
+      <c r="F365" s="17"/>
+      <c r="G365" s="17"/>
+      <c r="H365" s="71"/>
+      <c r="I365" s="17"/>
+      <c r="J365" s="19"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C366" s="3"/>
+      <c r="A366">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="B366" s="11"/>
+      <c r="C366" s="28"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="12"/>
+      <c r="F366" s="12"/>
+      <c r="G366" s="12"/>
+      <c r="H366" s="69"/>
+      <c r="I366" s="12"/>
+      <c r="J366" s="14"/>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C367" s="3"/>
+      <c r="A367">
+        <f t="shared" si="3"/>
+        <v>361</v>
+      </c>
+      <c r="B367" s="11"/>
+      <c r="C367" s="28"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12"/>
+      <c r="F367" s="12"/>
+      <c r="G367" s="12"/>
+      <c r="H367" s="69"/>
+      <c r="I367" s="12"/>
+      <c r="J367" s="14"/>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C368" s="3"/>
+      <c r="A368">
+        <f t="shared" si="3"/>
+        <v>362</v>
+      </c>
+      <c r="B368" s="11"/>
+      <c r="C368" s="28"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
+      <c r="F368" s="12"/>
+      <c r="G368" s="12"/>
+      <c r="H368" s="69"/>
+      <c r="I368" s="12"/>
+      <c r="J368" s="14"/>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <f t="shared" si="3"/>
+        <v>363</v>
+      </c>
+      <c r="B369" s="11"/>
+      <c r="C369" s="28"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="12"/>
+      <c r="F369" s="12"/>
+      <c r="G369" s="12"/>
+      <c r="H369" s="69"/>
+      <c r="I369" s="12"/>
+      <c r="J369" s="14"/>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <f t="shared" si="3"/>
+        <v>364</v>
+      </c>
+      <c r="B370" s="11"/>
+      <c r="C370" s="28"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="12"/>
+      <c r="F370" s="12"/>
+      <c r="G370" s="12"/>
+      <c r="H370" s="69"/>
+      <c r="I370" s="12"/>
+      <c r="J370" s="14"/>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+      <c r="B371" s="11"/>
+      <c r="C371" s="28"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
+      <c r="F371" s="12"/>
+      <c r="G371" s="12"/>
+      <c r="H371" s="69"/>
+      <c r="I371" s="12"/>
+      <c r="J371" s="14"/>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <f t="shared" si="3"/>
+        <v>366</v>
+      </c>
+      <c r="B372" s="11"/>
+      <c r="C372" s="28"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="12"/>
+      <c r="F372" s="12"/>
+      <c r="G372" s="12"/>
+      <c r="H372" s="69"/>
+      <c r="I372" s="12"/>
+      <c r="J372" s="14"/>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <f t="shared" si="3"/>
+        <v>367</v>
+      </c>
+      <c r="B373" s="11"/>
+      <c r="C373" s="28"/>
+      <c r="D373" s="12"/>
+      <c r="E373" s="12"/>
+      <c r="F373" s="12"/>
+      <c r="G373" s="12"/>
+      <c r="H373" s="69"/>
+      <c r="I373" s="12"/>
+      <c r="J373" s="14"/>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <f t="shared" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="B374" s="11"/>
+      <c r="C374" s="28"/>
+      <c r="D374" s="12"/>
+      <c r="E374" s="12"/>
+      <c r="F374" s="12"/>
+      <c r="G374" s="12"/>
+      <c r="H374" s="69"/>
+      <c r="I374" s="12"/>
+      <c r="J374" s="14"/>
+    </row>
+    <row r="375" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <f t="shared" si="3"/>
+        <v>369</v>
+      </c>
+      <c r="B375" s="16"/>
+      <c r="C375" s="29"/>
+      <c r="D375" s="17"/>
+      <c r="E375" s="17"/>
+      <c r="F375" s="17"/>
+      <c r="G375" s="17"/>
+      <c r="H375" s="71"/>
+      <c r="I375" s="17"/>
+      <c r="J375" s="19"/>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:J364">
+  <autoFilter ref="A7:J375">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>
@@ -36934,16 +37681,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H1" s="3" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -36969,19 +37716,19 @@
         <v>42</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>1914</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>1915</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>1916</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -36989,10 +37736,10 @@
         <v>1084</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D3" s="114" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="H3" s="99"/>
     </row>
@@ -37004,10 +37751,10 @@
         <v>1162</v>
       </c>
       <c r="D4" s="114" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>1089</v>
@@ -37016,7 +37763,7 @@
         <v>1089</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -37044,7 +37791,7 @@
         <v>1089</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -37121,7 +37868,7 @@
         <v>1089</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -37178,7 +37925,7 @@
         <v>1089</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -37330,7 +38077,7 @@
         <v>1089</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>1089</v>
@@ -37347,7 +38094,7 @@
         <v>1089</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>1089</v>
@@ -37383,7 +38130,7 @@
         <v>1089</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -37615,7 +38362,7 @@
         <v>1089</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -37709,7 +38456,7 @@
         <v>1089</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>1089</v>
@@ -37818,7 +38565,7 @@
         <v>1136</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H42" s="102"/>
     </row>
@@ -37836,7 +38583,7 @@
         <v>1139</v>
       </c>
       <c r="B44" s="84" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H44" s="102"/>
     </row>
@@ -40440,132 +41187,132 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34700" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="3880" yWindow="460" windowWidth="34700" windowHeight="19900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$375</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$376</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="2224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="2242">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -16816,6 +16816,179 @@
     <rPh sb="52" eb="53">
       <t>gong'hui'bi</t>
     </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年12月16日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源更新</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui_xinxitiaofenge.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui_ban4.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiesuan_xing2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改名，改尺寸</t>
+    <rPh sb="0" eb="1">
+      <t>gai'ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chi'cun</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面6</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算_空星星</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing'xing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui_waifaguang.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁马</t>
+    <rPh sb="0" eb="1">
+      <t>tie'ma</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会11</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会12</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会13</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_公会列表标题</t>
+    <rPh sb="3" eb="4">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>biao'ti</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_列表选中</t>
+    <rPh sb="3" eb="4">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan'zhong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新：
+公会新增和修改部分UI资源
+副本结算新增空心星星</t>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xing'xing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -17782,7 +17955,7 @@
   <dimension ref="B2:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -18408,10 +18581,16 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
+    <row r="65" spans="2:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B65" s="36" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C65" s="98" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>2241</v>
+      </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="36"/>
@@ -27565,13 +27744,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J379"/>
+  <dimension ref="A2:J380"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B295" sqref="B295"/>
+      <selection pane="bottomRight" activeCell="E143" sqref="E143:J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -30373,7 +30552,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" ref="A102:A268" si="2">ROW($A102)-6</f>
+        <f t="shared" ref="A102:A269" si="2">ROW($A102)-6</f>
         <v>96</v>
       </c>
       <c r="B102" s="11"/>
@@ -31749,12 +31928,27 @@
         <v>145</v>
       </c>
       <c r="B151" s="11"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="65"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="31"/>
-      <c r="H151" s="70"/>
-      <c r="I151" s="13"/>
+      <c r="C151" s="28" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D151" s="65" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2228</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G151" s="31">
+        <v>42353</v>
+      </c>
+      <c r="H151" s="70" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I151" s="13" t="s">
+        <v>1749</v>
+      </c>
       <c r="J151" s="14"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -31762,30 +31956,13 @@
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D152" s="65" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G152" s="31">
-        <v>42332</v>
-      </c>
-      <c r="H152" s="70" t="s">
-        <v>1933</v>
-      </c>
-      <c r="I152" s="13" t="s">
-        <v>1749</v>
-      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="65"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="70"/>
+      <c r="I152" s="13"/>
       <c r="J152" s="14"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -31793,27 +31970,29 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B153" s="11"/>
+      <c r="B153" s="11" t="s">
+        <v>1633</v>
+      </c>
       <c r="C153" s="28" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D153" s="65" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="E153" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G153" s="31">
-        <v>42286</v>
+        <v>42332</v>
       </c>
       <c r="H153" s="70" t="s">
-        <v>1441</v>
+        <v>1933</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>8</v>
+        <v>1749</v>
       </c>
       <c r="J153" s="14"/>
     </row>
@@ -31823,12 +32002,27 @@
         <v>148</v>
       </c>
       <c r="B154" s="11"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="65"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="31"/>
-      <c r="H154" s="70"/>
-      <c r="I154" s="13"/>
+      <c r="C154" s="28" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D154" s="65" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G154" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H154" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I154" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J154" s="14"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -31836,30 +32030,13 @@
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D155" s="65" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G155" s="31">
-        <v>42289</v>
-      </c>
-      <c r="H155" s="70" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I155" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B155" s="11"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="65"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="70"/>
+      <c r="I155" s="13"/>
       <c r="J155" s="14"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -31867,15 +32044,17 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B156" s="11"/>
+      <c r="B156" s="11" t="s">
+        <v>1654</v>
+      </c>
       <c r="C156" s="28" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D156" s="65" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E156" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>684</v>
@@ -31898,13 +32077,13 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="28" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D157" s="65" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E157" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>684</v>
@@ -31926,12 +32105,27 @@
         <v>152</v>
       </c>
       <c r="B158" s="11"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="65"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="31"/>
-      <c r="H158" s="70"/>
-      <c r="I158" s="13"/>
+      <c r="C158" s="28" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D158" s="65" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G158" s="31">
+        <v>42289</v>
+      </c>
+      <c r="H158" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I158" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -31939,30 +32133,13 @@
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C159" s="28" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D159" s="65" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G159" s="31">
-        <v>42317</v>
-      </c>
-      <c r="H159" s="70" t="s">
-        <v>1824</v>
-      </c>
-      <c r="I159" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B159" s="11"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="65"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="70"/>
+      <c r="I159" s="13"/>
       <c r="J159" s="14"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -31970,15 +32147,17 @@
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B160" s="11"/>
+      <c r="B160" s="11" t="s">
+        <v>1706</v>
+      </c>
       <c r="C160" s="28" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D160" s="65" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E160" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>684</v>
@@ -32001,22 +32180,22 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="28" t="s">
-        <v>1737</v>
+        <v>1708</v>
       </c>
       <c r="D161" s="65" t="s">
-        <v>1734</v>
+        <v>1710</v>
       </c>
       <c r="E161" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G161" s="31">
-        <v>42297</v>
+        <v>42317</v>
       </c>
       <c r="H161" s="70" t="s">
-        <v>1441</v>
+        <v>1824</v>
       </c>
       <c r="I161" s="13" t="s">
         <v>8</v>
@@ -32030,13 +32209,13 @@
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="28" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D162" s="65" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E162" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>684</v>
@@ -32059,22 +32238,22 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="28" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D163" s="65" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E163" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G163" s="31">
-        <v>42307</v>
+        <v>42297</v>
       </c>
       <c r="H163" s="70" t="s">
-        <v>1762</v>
+        <v>1441</v>
       </c>
       <c r="I163" s="13" t="s">
         <v>8</v>
@@ -32088,13 +32267,13 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="28" t="s">
-        <v>1758</v>
+        <v>1739</v>
       </c>
       <c r="D164" s="65" t="s">
-        <v>1759</v>
+        <v>1736</v>
       </c>
       <c r="E164" t="s">
-        <v>1757</v>
+        <v>1721</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>684</v>
@@ -32116,12 +32295,27 @@
         <v>159</v>
       </c>
       <c r="B165" s="11"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="65"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="31"/>
-      <c r="H165" s="70"/>
-      <c r="I165" s="13"/>
+      <c r="C165" s="28" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D165" s="65" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G165" s="31">
+        <v>42307</v>
+      </c>
+      <c r="H165" s="70" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I165" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J165" s="14"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -32129,30 +32323,13 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B166" s="11" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C166" s="28" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D166" s="65" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E166" t="s">
-        <v>1747</v>
-      </c>
-      <c r="F166" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G166" s="31">
-        <v>42303</v>
-      </c>
-      <c r="H166" s="70" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I166" s="13" t="s">
-        <v>1749</v>
-      </c>
+      <c r="B166" s="11"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="65"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="31"/>
+      <c r="H166" s="70"/>
+      <c r="I166" s="13"/>
       <c r="J166" s="14"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -32160,15 +32337,17 @@
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B167" s="11"/>
+      <c r="B167" s="11" t="s">
+        <v>1753</v>
+      </c>
       <c r="C167" s="28" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D167" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E167" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>684</v>
@@ -32191,13 +32370,13 @@
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="28" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D168" s="65" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E168" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>684</v>
@@ -32220,22 +32399,22 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="28" t="s">
-        <v>1808</v>
+        <v>1752</v>
       </c>
       <c r="D169" s="65" t="s">
-        <v>1809</v>
+        <v>1756</v>
       </c>
       <c r="E169" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F169" s="55" t="s">
-        <v>1811</v>
+        <v>1746</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>684</v>
       </c>
       <c r="G169" s="31">
-        <v>42317</v>
+        <v>42303</v>
       </c>
       <c r="H169" s="70" t="s">
-        <v>235</v>
+        <v>1441</v>
       </c>
       <c r="I169" s="13" t="s">
         <v>1749</v>
@@ -32248,12 +32427,27 @@
         <v>164</v>
       </c>
       <c r="B170" s="11"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="65"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="31"/>
-      <c r="H170" s="70"/>
-      <c r="I170" s="13"/>
+      <c r="C170" s="28" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D170" s="65" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F170" s="55" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G170" s="31">
+        <v>42317</v>
+      </c>
+      <c r="H170" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I170" s="13" t="s">
+        <v>1749</v>
+      </c>
       <c r="J170" s="14"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -32261,30 +32455,13 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B171" s="11" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C171" s="28" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D171" s="65" t="s">
-        <v>1764</v>
-      </c>
-      <c r="E171" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G171" s="31">
-        <v>42313</v>
-      </c>
-      <c r="H171" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I171" s="13" t="s">
-        <v>1778</v>
-      </c>
+      <c r="B171" s="11"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="65"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="31"/>
+      <c r="H171" s="70"/>
+      <c r="I171" s="13"/>
       <c r="J171" s="14"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -32292,27 +32469,29 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B172" s="11"/>
+      <c r="B172" s="11" t="s">
+        <v>1779</v>
+      </c>
       <c r="C172" s="28" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="D172" s="65" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E172" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G172" s="31">
-        <v>42314</v>
+        <v>42313</v>
       </c>
       <c r="H172" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>497</v>
+        <v>1778</v>
       </c>
       <c r="J172" s="14"/>
     </row>
@@ -32323,19 +32502,19 @@
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="28" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D173" s="65" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E173" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="F173" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G173" s="31">
-        <v>42315</v>
+        <v>42314</v>
       </c>
       <c r="H173" s="70" t="s">
         <v>235</v>
@@ -32352,19 +32531,19 @@
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="28" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D174" s="65" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E174" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G174" s="31">
-        <v>42316</v>
+        <v>42315</v>
       </c>
       <c r="H174" s="70" t="s">
         <v>235</v>
@@ -32381,29 +32560,27 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="28" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="D175" s="65" t="s">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="E175" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="F175" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G175" s="31">
-        <v>42333</v>
+        <v>42316</v>
       </c>
       <c r="H175" s="70" t="s">
-        <v>1825</v>
+        <v>235</v>
       </c>
       <c r="I175" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="J175" s="115" t="s">
-        <v>1985</v>
-      </c>
+      <c r="J175" s="14"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
@@ -32412,27 +32589,29 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="28" t="s">
-        <v>1830</v>
+        <v>1777</v>
       </c>
       <c r="D176" s="65" t="s">
-        <v>1828</v>
+        <v>1776</v>
       </c>
       <c r="E176" t="s">
-        <v>1827</v>
+        <v>1775</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G176" s="31">
-        <v>42314</v>
+        <v>42333</v>
       </c>
       <c r="H176" s="70" t="s">
-        <v>235</v>
+        <v>1825</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J176" s="14"/>
+        <v>497</v>
+      </c>
+      <c r="J176" s="115" t="s">
+        <v>1985</v>
+      </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
@@ -32441,13 +32620,13 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="28" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D177" s="65" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E177" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>684</v>
@@ -32470,25 +32649,25 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="28" t="s">
-        <v>1855</v>
+        <v>1831</v>
       </c>
       <c r="D178" s="65" t="s">
-        <v>1856</v>
+        <v>1829</v>
       </c>
       <c r="E178" t="s">
-        <v>1984</v>
+        <v>1826</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G178" s="31">
-        <v>42320</v>
+        <v>42314</v>
       </c>
       <c r="H178" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>1749</v>
+        <v>8</v>
       </c>
       <c r="J178" s="14"/>
     </row>
@@ -32498,12 +32677,27 @@
         <v>173</v>
       </c>
       <c r="B179" s="11"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="65"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="31"/>
-      <c r="H179" s="70"/>
-      <c r="I179" s="13"/>
+      <c r="C179" s="28" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D179" s="65" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G179" s="31">
+        <v>42320</v>
+      </c>
+      <c r="H179" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I179" s="13" t="s">
+        <v>1749</v>
+      </c>
       <c r="J179" s="14"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -32511,30 +32705,13 @@
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="B180" s="11" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C180" s="28" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D180" s="65" t="s">
-        <v>1882</v>
-      </c>
-      <c r="E180" t="s">
-        <v>1878</v>
-      </c>
-      <c r="F180" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G180" s="31">
-        <v>42328</v>
-      </c>
-      <c r="H180" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I180" s="13" t="s">
-        <v>1880</v>
-      </c>
+      <c r="B180" s="11"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="65"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="31"/>
+      <c r="H180" s="70"/>
+      <c r="I180" s="13"/>
       <c r="J180" s="14"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -32542,27 +32719,29 @@
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="B181" s="11"/>
+      <c r="B181" s="11" t="s">
+        <v>1873</v>
+      </c>
       <c r="C181" s="28" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D181" s="65" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E181" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F181" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G181" s="31">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="H181" s="70" t="s">
         <v>235</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>1749</v>
+        <v>1880</v>
       </c>
       <c r="J181" s="14"/>
     </row>
@@ -32573,13 +32752,13 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="28" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D182" s="65" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="E182" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>684</v>
@@ -32602,19 +32781,19 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="28" t="s">
-        <v>1910</v>
+        <v>1876</v>
       </c>
       <c r="D183" s="65" t="s">
-        <v>1923</v>
+        <v>1883</v>
       </c>
       <c r="E183" t="s">
-        <v>1909</v>
+        <v>1879</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G183" s="31">
-        <v>42329</v>
+        <v>42324</v>
       </c>
       <c r="H183" s="70" t="s">
         <v>235</v>
@@ -32631,29 +32810,27 @@
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="28" t="s">
-        <v>1922</v>
+        <v>1910</v>
       </c>
       <c r="D184" s="65" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="E184" t="s">
-        <v>1927</v>
+        <v>1909</v>
       </c>
       <c r="F184" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G184" s="31">
-        <v>42333</v>
+        <v>42329</v>
       </c>
       <c r="H184" s="70" t="s">
-        <v>1929</v>
+        <v>235</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>1930</v>
-      </c>
-      <c r="J184" s="115" t="s">
-        <v>1986</v>
-      </c>
+        <v>1749</v>
+      </c>
+      <c r="J184" s="14"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -32662,13 +32839,13 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="28" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="D185" s="65" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="E185" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>684</v>
@@ -32680,7 +32857,7 @@
         <v>1929</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>49</v>
+        <v>1930</v>
       </c>
       <c r="J185" s="115" t="s">
         <v>1986</v>
@@ -32692,42 +32869,42 @@
         <v>180</v>
       </c>
       <c r="B186" s="11"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="65"/>
-      <c r="G186" s="31"/>
-      <c r="H186" s="70"/>
-      <c r="I186" s="13"/>
-      <c r="J186" s="14"/>
+      <c r="C186" s="28" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D186" s="65" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G186" s="31">
+        <v>42333</v>
+      </c>
+      <c r="H186" s="70" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I186" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J186" s="115" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="B187" s="11" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C187" s="28" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D187" s="65" t="s">
-        <v>1851</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1814</v>
-      </c>
-      <c r="F187" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G187" s="31">
-        <v>42317</v>
-      </c>
-      <c r="H187" s="70" t="s">
-        <v>1815</v>
-      </c>
-      <c r="I187" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="65"/>
+      <c r="G187" s="31"/>
+      <c r="H187" s="70"/>
+      <c r="I187" s="13"/>
       <c r="J187" s="14"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -32735,15 +32912,17 @@
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="B188" s="11"/>
+      <c r="B188" s="11" t="s">
+        <v>1813</v>
+      </c>
       <c r="C188" s="28" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D188" s="65" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="E188" t="s">
-        <v>1852</v>
+        <v>1814</v>
       </c>
       <c r="F188" s="12" t="s">
         <v>684</v>
@@ -32752,7 +32931,7 @@
         <v>42317</v>
       </c>
       <c r="H188" s="70" t="s">
-        <v>235</v>
+        <v>1815</v>
       </c>
       <c r="I188" s="13" t="s">
         <v>8</v>
@@ -32766,13 +32945,13 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="28" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D189" s="65" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E189" t="s">
-        <v>1816</v>
+        <v>1852</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>684</v>
@@ -32795,13 +32974,13 @@
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="28" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D190" s="65" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E190" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F190" s="12" t="s">
         <v>684</v>
@@ -32824,13 +33003,13 @@
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="28" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D191" s="65" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="E191" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F191" s="12" t="s">
         <v>684</v>
@@ -32853,13 +33032,13 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="28" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D192" s="65" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="E192" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>684</v>
@@ -32882,13 +33061,13 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="28" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D193" s="65" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="E193" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>684</v>
@@ -32911,13 +33090,13 @@
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="28" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D194" s="65" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E194" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>684</v>
@@ -32940,13 +33119,13 @@
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="28" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D195" s="65" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="E195" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>684</v>
@@ -32969,13 +33148,13 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="28" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D196" s="65" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="E196" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>684</v>
@@ -32998,19 +33177,19 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="28" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
       <c r="D197" s="65" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
       <c r="E197" t="s">
-        <v>1859</v>
+        <v>1823</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G197" s="31">
-        <v>42319</v>
+        <v>42317</v>
       </c>
       <c r="H197" s="70" t="s">
         <v>235</v>
@@ -33027,13 +33206,13 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="28" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="D198" s="65" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="E198" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>684</v>
@@ -33055,12 +33234,27 @@
         <v>193</v>
       </c>
       <c r="B199" s="11"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="65"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="31"/>
-      <c r="H199" s="70"/>
-      <c r="I199" s="13"/>
+      <c r="C199" s="28" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D199" s="65" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G199" s="31">
+        <v>42319</v>
+      </c>
+      <c r="H199" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I199" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J199" s="14"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -33068,30 +33262,13 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="B200" s="11" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C200" s="28" t="s">
-        <v>1885</v>
-      </c>
-      <c r="D200" s="65" t="s">
-        <v>1888</v>
-      </c>
-      <c r="E200" s="65" t="s">
-        <v>1891</v>
-      </c>
-      <c r="F200" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G200" s="31">
-        <v>42325</v>
-      </c>
-      <c r="H200" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I200" s="13" t="s">
-        <v>1894</v>
-      </c>
+      <c r="B200" s="11"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="65"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="31"/>
+      <c r="H200" s="70"/>
+      <c r="I200" s="13"/>
       <c r="J200" s="14"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -33099,15 +33276,17 @@
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="B201" s="11"/>
+      <c r="B201" s="11" t="s">
+        <v>1884</v>
+      </c>
       <c r="C201" s="28" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D201" s="65" t="s">
-        <v>1889</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1893</v>
+        <v>1888</v>
+      </c>
+      <c r="E201" s="65" t="s">
+        <v>1891</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>684</v>
@@ -33130,13 +33309,13 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="28" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D202" s="65" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="E202" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F202" s="12" t="s">
         <v>684</v>
@@ -33158,12 +33337,27 @@
         <v>197</v>
       </c>
       <c r="B203" s="11"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="65"/>
-      <c r="F203" s="12"/>
-      <c r="G203" s="31"/>
-      <c r="H203" s="70"/>
-      <c r="I203" s="13"/>
+      <c r="C203" s="28" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D203" s="65" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G203" s="31">
+        <v>42325</v>
+      </c>
+      <c r="H203" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I203" s="13" t="s">
+        <v>1894</v>
+      </c>
       <c r="J203" s="14"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -33171,30 +33365,13 @@
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>1931</v>
-      </c>
-      <c r="C204" s="28" t="s">
-        <v>1932</v>
-      </c>
-      <c r="D204" s="65" t="s">
-        <v>1987</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1935</v>
-      </c>
-      <c r="F204" s="12" t="s">
-        <v>2167</v>
-      </c>
-      <c r="G204" s="31">
-        <v>42345</v>
-      </c>
-      <c r="H204" s="70" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I204" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="B204" s="11"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="65"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="31"/>
+      <c r="H204" s="70"/>
+      <c r="I204" s="13"/>
       <c r="J204" s="14"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -33202,15 +33379,17 @@
         <f t="shared" si="2"/>
         <v>199</v>
       </c>
-      <c r="B205" s="11"/>
+      <c r="B205" s="11" t="s">
+        <v>1931</v>
+      </c>
       <c r="C205" s="28" t="s">
-        <v>1962</v>
+        <v>1932</v>
       </c>
       <c r="D205" s="65" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E205" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>2167</v>
@@ -33233,13 +33412,13 @@
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="28" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D206" s="65" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E206" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>2167</v>
@@ -33262,13 +33441,13 @@
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="28" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D207" s="65" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E207" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>2167</v>
@@ -33291,13 +33470,13 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="28" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D208" s="65" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E208" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F208" s="12" t="s">
         <v>2167</v>
@@ -33320,13 +33499,13 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="28" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D209" s="65" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E209" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F209" s="12" t="s">
         <v>2167</v>
@@ -33349,13 +33528,13 @@
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="28" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D210" s="65" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E210" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>2167</v>
@@ -33378,13 +33557,13 @@
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="28" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D211" s="65" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E211" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F211" s="12" t="s">
         <v>2167</v>
@@ -33407,13 +33586,13 @@
       </c>
       <c r="B212" s="11"/>
       <c r="C212" s="28" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D212" s="65" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E212" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F212" s="12" t="s">
         <v>2167</v>
@@ -33436,13 +33615,13 @@
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="28" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D213" s="65" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E213" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F213" s="12" t="s">
         <v>2167</v>
@@ -33465,13 +33644,13 @@
       </c>
       <c r="B214" s="11"/>
       <c r="C214" s="28" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D214" s="65" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E214" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>2167</v>
@@ -33494,13 +33673,13 @@
       </c>
       <c r="B215" s="11"/>
       <c r="C215" s="28" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D215" s="65" t="s">
-        <v>1956</v>
+        <v>1997</v>
       </c>
       <c r="E215" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F215" s="12" t="s">
         <v>2167</v>
@@ -33523,13 +33702,13 @@
       </c>
       <c r="B216" s="11"/>
       <c r="C216" s="28" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D216" s="65" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E216" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F216" s="12" t="s">
         <v>2167</v>
@@ -33552,13 +33731,13 @@
       </c>
       <c r="B217" s="11"/>
       <c r="C217" s="28" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D217" s="65" t="s">
-        <v>2170</v>
+        <v>1957</v>
       </c>
       <c r="E217" t="s">
-        <v>2171</v>
+        <v>1947</v>
       </c>
       <c r="F217" s="12" t="s">
         <v>2167</v>
@@ -33581,13 +33760,13 @@
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="28" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D218" s="65" t="s">
-        <v>1958</v>
+        <v>2170</v>
       </c>
       <c r="E218" t="s">
-        <v>1948</v>
+        <v>2171</v>
       </c>
       <c r="F218" s="12" t="s">
         <v>2167</v>
@@ -33610,13 +33789,13 @@
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="28" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D219" s="65" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E219" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F219" s="12" t="s">
         <v>2167</v>
@@ -33639,13 +33818,13 @@
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="28" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D220" s="65" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E220" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>2167</v>
@@ -33668,13 +33847,13 @@
       </c>
       <c r="B221" s="11"/>
       <c r="C221" s="28" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D221" s="65" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E221" t="s">
-        <v>1934</v>
+        <v>1950</v>
       </c>
       <c r="F221" s="12" t="s">
         <v>2167</v>
@@ -33697,13 +33876,13 @@
       </c>
       <c r="B222" s="11"/>
       <c r="C222" s="28" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D222" s="65" t="s">
-        <v>1998</v>
+        <v>1961</v>
       </c>
       <c r="E222" t="s">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>2167</v>
@@ -33726,13 +33905,13 @@
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="28" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D223" s="65" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E223" t="s">
-        <v>2165</v>
+        <v>1951</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>2167</v>
@@ -33741,12 +33920,12 @@
         <v>42345</v>
       </c>
       <c r="H223" s="70" t="s">
-        <v>2176</v>
+        <v>2166</v>
       </c>
       <c r="I223" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J223" s="115"/>
+      <c r="J223" s="14"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -33755,13 +33934,13 @@
       </c>
       <c r="B224" s="11"/>
       <c r="C224" s="28" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D224" s="65" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E224" t="s">
-        <v>1952</v>
+        <v>2165</v>
       </c>
       <c r="F224" s="12" t="s">
         <v>2167</v>
@@ -33770,12 +33949,12 @@
         <v>42345</v>
       </c>
       <c r="H224" s="70" t="s">
-        <v>2166</v>
+        <v>2176</v>
       </c>
       <c r="I224" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J224" s="14"/>
+      <c r="J224" s="115"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
@@ -33784,13 +33963,13 @@
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="28" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D225" s="65" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E225" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F225" s="12" t="s">
         <v>2167</v>
@@ -33813,13 +33992,13 @@
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="28" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D226" s="65" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E226" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>2167</v>
@@ -33842,13 +34021,13 @@
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="28" t="s">
-        <v>2169</v>
+        <v>1983</v>
       </c>
       <c r="D227" s="65" t="s">
-        <v>2164</v>
+        <v>2002</v>
       </c>
       <c r="E227" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>2167</v>
@@ -33870,11 +34049,27 @@
         <v>222</v>
       </c>
       <c r="B228" s="11"/>
-      <c r="C228" s="28"/>
-      <c r="F228" s="12"/>
-      <c r="G228" s="31"/>
-      <c r="H228" s="70"/>
-      <c r="I228" s="13"/>
+      <c r="C228" s="28" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D228" s="65" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F228" s="12" t="s">
+        <v>2167</v>
+      </c>
+      <c r="G228" s="31">
+        <v>42345</v>
+      </c>
+      <c r="H228" s="70" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I228" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="J228" s="14"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -33882,30 +34077,12 @@
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-      <c r="B229" s="11" t="s">
-        <v>2173</v>
-      </c>
-      <c r="C229" s="28" t="s">
-        <v>2174</v>
-      </c>
-      <c r="D229" s="65" t="s">
-        <v>2172</v>
-      </c>
-      <c r="E229" t="s">
-        <v>2207</v>
-      </c>
-      <c r="F229" s="55" t="s">
-        <v>2175</v>
-      </c>
-      <c r="G229" s="31">
-        <v>42345</v>
-      </c>
-      <c r="H229" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I229" s="13" t="s">
-        <v>1749</v>
-      </c>
+      <c r="B229" s="11"/>
+      <c r="C229" s="28"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="31"/>
+      <c r="H229" s="70"/>
+      <c r="I229" s="13"/>
       <c r="J229" s="14"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -33913,13 +34090,30 @@
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="B230" s="11"/>
-      <c r="C230" s="28"/>
-      <c r="D230" s="65"/>
-      <c r="F230" s="12"/>
-      <c r="G230" s="31"/>
-      <c r="H230" s="70"/>
-      <c r="I230" s="13"/>
+      <c r="B230" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C230" s="28" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D230" s="65" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E230" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F230" s="55" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G230" s="31">
+        <v>42345</v>
+      </c>
+      <c r="H230" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I230" s="13" t="s">
+        <v>1749</v>
+      </c>
       <c r="J230" s="14"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -33927,30 +34121,13 @@
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="B231" s="11" t="s">
-        <v>2185</v>
-      </c>
-      <c r="C231" s="28" t="s">
-        <v>2184</v>
-      </c>
-      <c r="D231" s="65" t="s">
-        <v>2209</v>
-      </c>
-      <c r="E231" t="s">
-        <v>2197</v>
-      </c>
-      <c r="F231" s="55" t="s">
-        <v>2175</v>
-      </c>
-      <c r="G231" s="31">
-        <v>42347</v>
-      </c>
-      <c r="H231" s="70" t="s">
-        <v>1788</v>
-      </c>
-      <c r="I231" s="13" t="s">
-        <v>1749</v>
-      </c>
+      <c r="B231" s="11"/>
+      <c r="C231" s="28"/>
+      <c r="D231" s="65"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="31"/>
+      <c r="H231" s="70"/>
+      <c r="I231" s="13"/>
       <c r="J231" s="14"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -33958,15 +34135,17 @@
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
-      <c r="B232" s="11"/>
+      <c r="B232" s="11" t="s">
+        <v>2185</v>
+      </c>
       <c r="C232" s="28" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="D232" s="65" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="E232" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F232" s="55" t="s">
         <v>2175</v>
@@ -33989,22 +34168,22 @@
       </c>
       <c r="B233" s="11"/>
       <c r="C233" s="28" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D233" s="65" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="E233" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F233" s="55" t="s">
         <v>2175</v>
       </c>
       <c r="G233" s="31">
-        <v>42348</v>
+        <v>42349</v>
       </c>
       <c r="H233" s="70" t="s">
-        <v>1788</v>
+        <v>2225</v>
       </c>
       <c r="I233" s="13" t="s">
         <v>1749</v>
@@ -34018,13 +34197,13 @@
       </c>
       <c r="B234" s="11"/>
       <c r="C234" s="28" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D234" s="65" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="E234" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="F234" s="55" t="s">
         <v>2175</v>
@@ -34047,13 +34226,13 @@
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="28" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D235" s="65" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="E235" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="F235" s="55" t="s">
         <v>2175</v>
@@ -34076,13 +34255,13 @@
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="28" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D236" s="65" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="E236" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="F236" s="55" t="s">
         <v>2175</v>
@@ -34105,13 +34284,13 @@
       </c>
       <c r="B237" s="11"/>
       <c r="C237" s="28" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D237" s="65" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E237" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="F237" s="55" t="s">
         <v>2175</v>
@@ -34134,13 +34313,13 @@
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="28" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D238" s="65" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E238" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F238" s="55" t="s">
         <v>2175</v>
@@ -34163,13 +34342,13 @@
       </c>
       <c r="B239" s="11"/>
       <c r="C239" s="28" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D239" s="65" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E239" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="F239" s="55" t="s">
         <v>2175</v>
@@ -34192,13 +34371,13 @@
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="28" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D240" s="65" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E240" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="F240" s="55" t="s">
         <v>2175</v>
@@ -34220,12 +34399,27 @@
         <v>235</v>
       </c>
       <c r="B241" s="11"/>
-      <c r="C241" s="28"/>
-      <c r="D241" s="65"/>
-      <c r="F241" s="12"/>
-      <c r="G241" s="31"/>
-      <c r="H241" s="70"/>
-      <c r="I241" s="13"/>
+      <c r="C241" s="28" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D241" s="65" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E241" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F241" s="55" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G241" s="31">
+        <v>42348</v>
+      </c>
+      <c r="H241" s="70" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I241" s="13" t="s">
+        <v>1749</v>
+      </c>
       <c r="J241" s="14"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -34234,12 +34428,27 @@
         <v>236</v>
       </c>
       <c r="B242" s="11"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="65"/>
-      <c r="F242" s="12"/>
-      <c r="G242" s="31"/>
-      <c r="H242" s="70"/>
-      <c r="I242" s="13"/>
+      <c r="C242" s="28" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D242" s="65" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E242" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F242" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G242" s="31">
+        <v>42354</v>
+      </c>
+      <c r="H242" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I242" s="13" t="s">
+        <v>1749</v>
+      </c>
       <c r="J242" s="14"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -34248,74 +34457,89 @@
         <v>237</v>
       </c>
       <c r="B243" s="11"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="65"/>
-      <c r="F243" s="12"/>
-      <c r="G243" s="31"/>
-      <c r="H243" s="70"/>
-      <c r="I243" s="13"/>
+      <c r="C243" s="28" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D243" s="65" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E243" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F243" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G243" s="31">
+        <v>42353</v>
+      </c>
+      <c r="H243" s="70" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I243" s="13" t="s">
+        <v>1749</v>
+      </c>
       <c r="J243" s="14"/>
     </row>
-    <row r="244" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="B244" s="16"/>
-      <c r="C244" s="29"/>
-      <c r="D244" s="17"/>
-      <c r="E244" s="17"/>
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="71"/>
-      <c r="I244" s="17"/>
-      <c r="J244" s="19"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B244" s="11"/>
+      <c r="C244" s="28" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D244" s="65" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E244" t="s">
+        <v>2232</v>
+      </c>
+      <c r="F244" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G244" s="31">
+        <v>42354</v>
+      </c>
+      <c r="H244" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I244" s="13" t="s">
+        <v>2233</v>
+      </c>
+      <c r="J244" s="14"/>
+    </row>
+    <row r="245" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="B245" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="C245" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="D245" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="E245" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F245" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G245" s="31">
-        <v>42266</v>
-      </c>
-      <c r="H245" s="70" t="s">
-        <v>1442</v>
-      </c>
-      <c r="I245" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J245" s="14"/>
+      <c r="B245" s="16"/>
+      <c r="C245" s="29"/>
+      <c r="D245" s="17"/>
+      <c r="E245" s="17"/>
+      <c r="F245" s="17"/>
+      <c r="G245" s="17"/>
+      <c r="H245" s="71"/>
+      <c r="I245" s="17"/>
+      <c r="J245" s="19"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="B246" s="11"/>
+      <c r="B246" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="C246" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F246" s="55" t="s">
         <v>684</v>
@@ -34324,7 +34548,7 @@
         <v>42266</v>
       </c>
       <c r="H246" s="70" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="I246" s="13" t="s">
         <v>431</v>
@@ -34338,13 +34562,13 @@
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F247" s="55" t="s">
         <v>684</v>
@@ -34367,13 +34591,13 @@
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="28" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F248" s="55" t="s">
         <v>684</v>
@@ -34396,13 +34620,13 @@
       </c>
       <c r="B249" s="11"/>
       <c r="C249" s="28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F249" s="55" t="s">
         <v>684</v>
@@ -34425,13 +34649,13 @@
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F250" s="55" t="s">
         <v>684</v>
@@ -34454,19 +34678,19 @@
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="28" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D251" s="55" t="s">
-        <v>1533</v>
+        <v>769</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F251" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F251" s="55" t="s">
         <v>684</v>
       </c>
       <c r="G251" s="31">
-        <v>42270</v>
+        <v>42266</v>
       </c>
       <c r="H251" s="70" t="s">
         <v>1441</v>
@@ -34483,13 +34707,13 @@
       </c>
       <c r="B252" s="11"/>
       <c r="C252" s="28" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D252" s="55" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F252" s="12" t="s">
         <v>684</v>
@@ -34512,13 +34736,13 @@
       </c>
       <c r="B253" s="11"/>
       <c r="C253" s="28" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D253" s="55" t="s">
-        <v>1527</v>
+        <v>1534</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F253" s="12" t="s">
         <v>684</v>
@@ -34541,13 +34765,13 @@
       </c>
       <c r="B254" s="11"/>
       <c r="C254" s="28" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D254" s="55" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F254" s="12" t="s">
         <v>684</v>
@@ -34570,13 +34794,13 @@
       </c>
       <c r="B255" s="11"/>
       <c r="C255" s="28" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D255" s="55" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F255" s="12" t="s">
         <v>684</v>
@@ -34599,13 +34823,13 @@
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="28" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D256" s="55" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F256" s="12" t="s">
         <v>684</v>
@@ -34628,13 +34852,13 @@
       </c>
       <c r="B257" s="11"/>
       <c r="C257" s="28" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D257" s="55" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F257" s="12" t="s">
         <v>684</v>
@@ -34657,13 +34881,13 @@
       </c>
       <c r="B258" s="11"/>
       <c r="C258" s="28" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D258" s="55" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F258" s="12" t="s">
         <v>684</v>
@@ -34685,13 +34909,27 @@
         <v>253</v>
       </c>
       <c r="B259" s="11"/>
-      <c r="C259" s="22"/>
-      <c r="D259" s="12"/>
-      <c r="E259" s="12"/>
-      <c r="F259" s="12"/>
-      <c r="G259" s="31"/>
-      <c r="H259" s="69"/>
-      <c r="I259" s="12"/>
+      <c r="C259" s="28" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D259" s="55" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G259" s="31">
+        <v>42270</v>
+      </c>
+      <c r="H259" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I259" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="J259" s="14"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -34719,7 +34957,7 @@
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
       <c r="F261" s="12"/>
-      <c r="G261" s="12"/>
+      <c r="G261" s="31"/>
       <c r="H261" s="69"/>
       <c r="I261" s="12"/>
       <c r="J261" s="14"/>
@@ -34769,66 +35007,52 @@
       <c r="I264" s="12"/>
       <c r="J264" s="14"/>
     </row>
-    <row r="265" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="B265" s="16"/>
-      <c r="C265" s="23"/>
-      <c r="D265" s="17"/>
-      <c r="E265" s="17"/>
-      <c r="F265" s="17"/>
-      <c r="G265" s="17"/>
-      <c r="H265" s="71"/>
-      <c r="I265" s="17"/>
-      <c r="J265" s="19"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B265" s="11"/>
+      <c r="C265" s="22"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12"/>
+      <c r="G265" s="12"/>
+      <c r="H265" s="69"/>
+      <c r="I265" s="12"/>
+      <c r="J265" s="14"/>
+    </row>
+    <row r="266" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="B266" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C266" s="28" t="s">
-        <v>842</v>
-      </c>
-      <c r="D266" s="12" t="s">
-        <v>840</v>
-      </c>
-      <c r="E266" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="F266" s="12" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G266" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H266" s="70" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I266" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="J266" s="14"/>
+      <c r="B266" s="16"/>
+      <c r="C266" s="23"/>
+      <c r="D266" s="17"/>
+      <c r="E266" s="17"/>
+      <c r="F266" s="17"/>
+      <c r="G266" s="17"/>
+      <c r="H266" s="71"/>
+      <c r="I266" s="17"/>
+      <c r="J266" s="19"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="B267" s="11"/>
+      <c r="B267" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="C267" s="28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>787</v>
+        <v>840</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F267" s="12" t="s">
         <v>1325</v>
@@ -34851,13 +35075,13 @@
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F268" s="12" t="s">
         <v>1325</v>
@@ -34875,18 +35099,18 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
-        <f t="shared" ref="A269:A375" si="3">ROW($A269)-6</f>
+        <f t="shared" si="2"/>
         <v>263</v>
       </c>
       <c r="B269" s="11"/>
       <c r="C269" s="28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F269" s="12" t="s">
         <v>1325</v>
@@ -34904,18 +35128,18 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A270:A376" si="3">ROW($A270)-6</f>
         <v>264</v>
       </c>
       <c r="B270" s="11"/>
       <c r="C270" s="28" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F270" s="12" t="s">
         <v>1325</v>
@@ -34938,13 +35162,13 @@
       </c>
       <c r="B271" s="11"/>
       <c r="C271" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>841</v>
+        <v>790</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F271" s="12" t="s">
         <v>1325</v>
@@ -34967,13 +35191,13 @@
       </c>
       <c r="B272" s="11"/>
       <c r="C272" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F272" s="12" t="s">
         <v>1325</v>
@@ -34996,13 +35220,13 @@
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F273" s="12" t="s">
         <v>1325</v>
@@ -35025,13 +35249,13 @@
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F274" s="12" t="s">
         <v>1325</v>
@@ -35054,13 +35278,13 @@
       </c>
       <c r="B275" s="11"/>
       <c r="C275" s="28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F275" s="12" t="s">
         <v>1325</v>
@@ -35083,13 +35307,13 @@
       </c>
       <c r="B276" s="11"/>
       <c r="C276" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F276" s="12" t="s">
         <v>1325</v>
@@ -35112,13 +35336,13 @@
       </c>
       <c r="B277" s="11"/>
       <c r="C277" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F277" s="12" t="s">
         <v>1325</v>
@@ -35141,13 +35365,13 @@
       </c>
       <c r="B278" s="11"/>
       <c r="C278" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F278" s="12" t="s">
         <v>1325</v>
@@ -35170,13 +35394,13 @@
       </c>
       <c r="B279" s="11"/>
       <c r="C279" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F279" s="12" t="s">
         <v>1325</v>
@@ -35199,13 +35423,13 @@
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F280" s="12" t="s">
         <v>1325</v>
@@ -35227,13 +35451,27 @@
         <v>275</v>
       </c>
       <c r="B281" s="11"/>
-      <c r="C281" s="28"/>
-      <c r="D281" s="12"/>
-      <c r="E281" s="12"/>
-      <c r="F281" s="12"/>
-      <c r="G281" s="31"/>
-      <c r="H281" s="70"/>
-      <c r="I281" s="13"/>
+      <c r="C281" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="E281" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="F281" s="12" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G281" s="31">
+        <v>42265</v>
+      </c>
+      <c r="H281" s="70" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I281" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J281" s="14"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -35242,27 +35480,13 @@
         <v>276</v>
       </c>
       <c r="B282" s="11"/>
-      <c r="C282" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D282" s="55" t="s">
-        <v>857</v>
-      </c>
-      <c r="E282" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="F282" s="12" t="s">
-        <v>1499</v>
-      </c>
-      <c r="G282" s="31">
-        <v>42268</v>
-      </c>
-      <c r="H282" s="74" t="s">
-        <v>1501</v>
-      </c>
-      <c r="I282" s="13" t="s">
-        <v>1500</v>
-      </c>
+      <c r="C282" s="28"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
+      <c r="F282" s="12"/>
+      <c r="G282" s="31"/>
+      <c r="H282" s="70"/>
+      <c r="I282" s="13"/>
       <c r="J282" s="14"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -35272,13 +35496,13 @@
       </c>
       <c r="B283" s="11"/>
       <c r="C283" s="28" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D283" s="55" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F283" s="12" t="s">
         <v>1499</v>
@@ -35301,13 +35525,13 @@
       </c>
       <c r="B284" s="11"/>
       <c r="C284" s="28" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D284" s="55" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F284" s="12" t="s">
         <v>1499</v>
@@ -35330,13 +35554,13 @@
       </c>
       <c r="B285" s="11"/>
       <c r="C285" s="28" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D285" s="55" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F285" s="12" t="s">
         <v>1499</v>
@@ -35359,13 +35583,13 @@
       </c>
       <c r="B286" s="11"/>
       <c r="C286" s="28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D286" s="55" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F286" s="12" t="s">
         <v>1499</v>
@@ -35388,25 +35612,25 @@
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="28" t="s">
-        <v>1896</v>
+        <v>783</v>
       </c>
       <c r="D287" s="55" t="s">
-        <v>1897</v>
+        <v>861</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>1898</v>
+        <v>776</v>
       </c>
       <c r="F287" s="12" t="s">
         <v>1499</v>
       </c>
       <c r="G287" s="31">
-        <v>42327</v>
+        <v>42268</v>
       </c>
       <c r="H287" s="74" t="s">
-        <v>1788</v>
+        <v>1501</v>
       </c>
       <c r="I287" s="13" t="s">
-        <v>1812</v>
+        <v>1500</v>
       </c>
       <c r="J287" s="14"/>
     </row>
@@ -35416,13 +35640,27 @@
         <v>282</v>
       </c>
       <c r="B288" s="11"/>
-      <c r="C288" s="28"/>
-      <c r="D288" s="55"/>
-      <c r="E288" s="12"/>
-      <c r="F288" s="12"/>
-      <c r="G288" s="31"/>
-      <c r="H288" s="70"/>
-      <c r="I288" s="13"/>
+      <c r="C288" s="28" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D288" s="55" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E288" s="12" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F288" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G288" s="31">
+        <v>42327</v>
+      </c>
+      <c r="H288" s="74" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I288" s="13" t="s">
+        <v>1812</v>
+      </c>
       <c r="J288" s="14"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -35432,24 +35670,12 @@
       </c>
       <c r="B289" s="11"/>
       <c r="C289" s="28"/>
-      <c r="D289" s="55" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E289" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="F289" s="12" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G289" s="31">
-        <v>42265</v>
-      </c>
-      <c r="H289" s="70" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I289" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="D289" s="55"/>
+      <c r="E289" s="12"/>
+      <c r="F289" s="12"/>
+      <c r="G289" s="31"/>
+      <c r="H289" s="70"/>
+      <c r="I289" s="13"/>
       <c r="J289" s="14"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -35458,26 +35684,24 @@
         <v>284</v>
       </c>
       <c r="B290" s="11"/>
-      <c r="C290" s="28" t="s">
-        <v>1435</v>
-      </c>
+      <c r="C290" s="28"/>
       <c r="D290" s="55" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E290" s="55" t="s">
-        <v>1432</v>
+        <v>1327</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="F290" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G290" s="31">
-        <v>42266</v>
+        <v>42265</v>
       </c>
       <c r="H290" s="70" t="s">
-        <v>235</v>
+        <v>1322</v>
       </c>
       <c r="I290" s="13" t="s">
-        <v>431</v>
+        <v>814</v>
       </c>
       <c r="J290" s="14"/>
     </row>
@@ -35488,13 +35712,13 @@
       </c>
       <c r="B291" s="11"/>
       <c r="C291" s="28" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D291" s="55" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E291" s="55" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F291" s="12" t="s">
         <v>1326</v>
@@ -35517,13 +35741,13 @@
       </c>
       <c r="B292" s="11"/>
       <c r="C292" s="28" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D292" s="55" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E292" s="55" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F292" s="12" t="s">
         <v>1326</v>
@@ -35546,22 +35770,22 @@
       </c>
       <c r="B293" s="11"/>
       <c r="C293" s="28" t="s">
-        <v>1575</v>
+        <v>1437</v>
       </c>
       <c r="D293" s="55" t="s">
-        <v>1576</v>
+        <v>1440</v>
       </c>
       <c r="E293" s="55" t="s">
-        <v>1574</v>
+        <v>1434</v>
       </c>
       <c r="F293" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G293" s="31">
-        <v>42276</v>
+        <v>42266</v>
       </c>
       <c r="H293" s="70" t="s">
-        <v>1590</v>
+        <v>235</v>
       </c>
       <c r="I293" s="13" t="s">
         <v>431</v>
@@ -35575,13 +35799,13 @@
       </c>
       <c r="B294" s="11"/>
       <c r="C294" s="28" t="s">
-        <v>1591</v>
+        <v>1575</v>
       </c>
       <c r="D294" s="55" t="s">
-        <v>2220</v>
+        <v>1576</v>
       </c>
       <c r="E294" s="55" t="s">
-        <v>1617</v>
+        <v>1574</v>
       </c>
       <c r="F294" s="12" t="s">
         <v>1326</v>
@@ -35604,25 +35828,25 @@
       </c>
       <c r="B295" s="11"/>
       <c r="C295" s="28" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D295" s="55" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E295" s="55" t="s">
-        <v>2219</v>
+        <v>1617</v>
       </c>
       <c r="F295" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G295" s="31">
-        <v>42349</v>
+        <v>42276</v>
       </c>
       <c r="H295" s="70" t="s">
-        <v>2090</v>
+        <v>1590</v>
       </c>
       <c r="I295" s="13" t="s">
-        <v>1749</v>
+        <v>431</v>
       </c>
       <c r="J295" s="14"/>
     </row>
@@ -35633,25 +35857,25 @@
       </c>
       <c r="B296" s="11"/>
       <c r="C296" s="28" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D296" s="55" t="s">
-        <v>1596</v>
+        <v>2221</v>
       </c>
       <c r="E296" s="55" t="s">
-        <v>1603</v>
+        <v>2219</v>
       </c>
       <c r="F296" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G296" s="31">
-        <v>42276</v>
+        <v>42349</v>
       </c>
       <c r="H296" s="70" t="s">
-        <v>1590</v>
+        <v>2090</v>
       </c>
       <c r="I296" s="13" t="s">
-        <v>431</v>
+        <v>1749</v>
       </c>
       <c r="J296" s="14"/>
     </row>
@@ -35662,13 +35886,13 @@
       </c>
       <c r="B297" s="11"/>
       <c r="C297" s="28" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D297" s="55" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E297" s="55" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="F297" s="12" t="s">
         <v>1326</v>
@@ -35691,13 +35915,13 @@
       </c>
       <c r="B298" s="11"/>
       <c r="C298" s="28" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D298" s="55" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E298" s="55" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="F298" s="12" t="s">
         <v>1326</v>
@@ -35720,13 +35944,13 @@
       </c>
       <c r="B299" s="11"/>
       <c r="C299" s="28" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="D299" s="55" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E299" s="55" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="F299" s="12" t="s">
         <v>1326</v>
@@ -35749,13 +35973,13 @@
       </c>
       <c r="B300" s="11"/>
       <c r="C300" s="28" t="s">
-        <v>1618</v>
+        <v>1602</v>
       </c>
       <c r="D300" s="55" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E300" s="55" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="F300" s="12" t="s">
         <v>1326</v>
@@ -35778,13 +36002,13 @@
       </c>
       <c r="B301" s="11"/>
       <c r="C301" s="28" t="s">
-        <v>1676</v>
+        <v>1618</v>
       </c>
       <c r="D301" s="55" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E301" s="55" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F301" s="12" t="s">
         <v>1326</v>
@@ -35807,22 +36031,22 @@
       </c>
       <c r="B302" s="11"/>
       <c r="C302" s="28" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D302" s="55" t="s">
-        <v>1679</v>
+        <v>1601</v>
       </c>
       <c r="E302" s="55" t="s">
-        <v>1673</v>
+        <v>1608</v>
       </c>
       <c r="F302" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G302" s="31">
-        <v>42293</v>
+        <v>42276</v>
       </c>
       <c r="H302" s="70" t="s">
-        <v>235</v>
+        <v>1590</v>
       </c>
       <c r="I302" s="13" t="s">
         <v>431</v>
@@ -35836,13 +36060,13 @@
       </c>
       <c r="B303" s="11"/>
       <c r="C303" s="28" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D303" s="55" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E303" s="55" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F303" s="12" t="s">
         <v>1326</v>
@@ -35865,13 +36089,13 @@
       </c>
       <c r="B304" s="11"/>
       <c r="C304" s="28" t="s">
-        <v>1730</v>
+        <v>1678</v>
       </c>
       <c r="D304" s="55" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E304" s="55" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F304" s="12" t="s">
         <v>1326</v>
@@ -35894,19 +36118,19 @@
       </c>
       <c r="B305" s="11"/>
       <c r="C305" s="28" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D305" s="55" t="s">
-        <v>1726</v>
+        <v>1681</v>
       </c>
       <c r="E305" s="55" t="s">
-        <v>1722</v>
+        <v>1675</v>
       </c>
       <c r="F305" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G305" s="31">
-        <v>42297</v>
+        <v>42293</v>
       </c>
       <c r="H305" s="70" t="s">
         <v>235</v>
@@ -35923,13 +36147,13 @@
       </c>
       <c r="B306" s="11"/>
       <c r="C306" s="28" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D306" s="55" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E306" s="55" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F306" s="12" t="s">
         <v>1326</v>
@@ -35952,13 +36176,13 @@
       </c>
       <c r="B307" s="11"/>
       <c r="C307" s="28" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D307" s="55" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E307" s="55" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F307" s="12" t="s">
         <v>1326</v>
@@ -35981,13 +36205,13 @@
       </c>
       <c r="B308" s="11"/>
       <c r="C308" s="28" t="s">
-        <v>1804</v>
+        <v>1733</v>
       </c>
       <c r="D308" s="55" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E308" s="55" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F308" s="12" t="s">
         <v>1326</v>
@@ -36010,22 +36234,22 @@
       </c>
       <c r="B309" s="11"/>
       <c r="C309" s="28" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D309" s="55" t="s">
-        <v>1795</v>
+        <v>1729</v>
       </c>
       <c r="E309" s="55" t="s">
-        <v>1802</v>
+        <v>1725</v>
       </c>
       <c r="F309" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G309" s="31">
-        <v>42318</v>
+        <v>42297</v>
       </c>
       <c r="H309" s="70" t="s">
-        <v>1803</v>
+        <v>235</v>
       </c>
       <c r="I309" s="13" t="s">
         <v>431</v>
@@ -36039,13 +36263,13 @@
       </c>
       <c r="B310" s="11"/>
       <c r="C310" s="28" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D310" s="55" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E310" s="55" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="F310" s="12" t="s">
         <v>1326</v>
@@ -36054,10 +36278,10 @@
         <v>42318</v>
       </c>
       <c r="H310" s="70" t="s">
-        <v>235</v>
+        <v>1803</v>
       </c>
       <c r="I310" s="13" t="s">
-        <v>1812</v>
+        <v>431</v>
       </c>
       <c r="J310" s="14"/>
     </row>
@@ -36068,13 +36292,13 @@
       </c>
       <c r="B311" s="11"/>
       <c r="C311" s="28" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D311" s="55" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E311" s="55" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F311" s="12" t="s">
         <v>1326</v>
@@ -36097,13 +36321,13 @@
       </c>
       <c r="B312" s="11"/>
       <c r="C312" s="28" t="s">
-        <v>1863</v>
+        <v>1807</v>
       </c>
       <c r="D312" s="55" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E312" s="55" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F312" s="12" t="s">
         <v>1326</v>
@@ -36126,19 +36350,19 @@
       </c>
       <c r="B313" s="11"/>
       <c r="C313" s="28" t="s">
-        <v>2222</v>
+        <v>1863</v>
       </c>
       <c r="D313" s="55" t="s">
-        <v>1864</v>
+        <v>1798</v>
       </c>
       <c r="E313" s="55" t="s">
-        <v>1865</v>
+        <v>1801</v>
       </c>
       <c r="F313" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="G313" s="31">
-        <v>42319</v>
+        <v>42318</v>
       </c>
       <c r="H313" s="70" t="s">
         <v>235</v>
@@ -36154,12 +36378,27 @@
         <v>308</v>
       </c>
       <c r="B314" s="11"/>
-      <c r="C314" s="28"/>
-      <c r="D314" s="55"/>
-      <c r="F314" s="12"/>
-      <c r="G314" s="31"/>
-      <c r="H314" s="70"/>
-      <c r="I314" s="13"/>
+      <c r="C314" s="28" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D314" s="55" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E314" s="55" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F314" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G314" s="31">
+        <v>42319</v>
+      </c>
+      <c r="H314" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I314" s="13" t="s">
+        <v>1812</v>
+      </c>
       <c r="J314" s="14"/>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -36169,10 +36408,9 @@
       </c>
       <c r="B315" s="11"/>
       <c r="C315" s="28"/>
-      <c r="D315" s="12"/>
-      <c r="E315" s="55"/>
+      <c r="D315" s="55"/>
       <c r="F315" s="12"/>
-      <c r="G315" s="12"/>
+      <c r="G315" s="31"/>
       <c r="H315" s="70"/>
       <c r="I315" s="13"/>
       <c r="J315" s="14"/>
@@ -36213,27 +36451,13 @@
         <v>312</v>
       </c>
       <c r="B318" s="11"/>
-      <c r="C318" s="28" t="s">
-        <v>870</v>
-      </c>
-      <c r="D318" s="12" t="s">
-        <v>2110</v>
-      </c>
-      <c r="E318" s="12" t="s">
-        <v>2072</v>
-      </c>
-      <c r="F318" s="12" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G318" s="31">
-        <v>42341</v>
-      </c>
-      <c r="H318" s="70" t="s">
-        <v>2089</v>
-      </c>
-      <c r="I318" s="13" t="s">
-        <v>814</v>
-      </c>
+      <c r="C318" s="28"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="55"/>
+      <c r="F318" s="12"/>
+      <c r="G318" s="12"/>
+      <c r="H318" s="70"/>
+      <c r="I318" s="13"/>
       <c r="J318" s="14"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -36243,13 +36467,13 @@
       </c>
       <c r="B319" s="11"/>
       <c r="C319" s="28" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E319" s="12" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="F319" s="12" t="s">
         <v>1321</v>
@@ -36272,13 +36496,13 @@
       </c>
       <c r="B320" s="11"/>
       <c r="C320" s="28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="E320" s="12" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="F320" s="12" t="s">
         <v>1321</v>
@@ -36301,13 +36525,13 @@
       </c>
       <c r="B321" s="11"/>
       <c r="C321" s="28" t="s">
-        <v>873</v>
-      </c>
-      <c r="D321" s="55" t="s">
-        <v>2113</v>
+        <v>872</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>2112</v>
       </c>
       <c r="E321" s="12" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="F321" s="12" t="s">
         <v>1321</v>
@@ -36330,13 +36554,13 @@
       </c>
       <c r="B322" s="11"/>
       <c r="C322" s="28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D322" s="55" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E322" s="12" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="F322" s="12" t="s">
         <v>1321</v>
@@ -36359,13 +36583,13 @@
       </c>
       <c r="B323" s="11"/>
       <c r="C323" s="28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D323" s="55" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E323" s="12" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="F323" s="12" t="s">
         <v>1321</v>
@@ -36388,13 +36612,13 @@
       </c>
       <c r="B324" s="11"/>
       <c r="C324" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D324" s="55" t="s">
-        <v>465</v>
+        <v>2115</v>
       </c>
       <c r="E324" s="12" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="F324" s="12" t="s">
         <v>1321</v>
@@ -36417,13 +36641,13 @@
       </c>
       <c r="B325" s="11"/>
       <c r="C325" s="28" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D325" s="55" t="s">
-        <v>2116</v>
+        <v>465</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="F325" s="12" t="s">
         <v>1321</v>
@@ -36446,13 +36670,13 @@
       </c>
       <c r="B326" s="11"/>
       <c r="C326" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D326" s="55" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E326" s="12" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="F326" s="12" t="s">
         <v>1321</v>
@@ -36475,13 +36699,13 @@
       </c>
       <c r="B327" s="11"/>
       <c r="C327" s="28" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D327" s="55" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E327" s="12" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="F327" s="12" t="s">
         <v>1321</v>
@@ -36504,13 +36728,13 @@
       </c>
       <c r="B328" s="11"/>
       <c r="C328" s="28" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D328" s="55" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="E328" s="12" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F328" s="12" t="s">
         <v>1321</v>
@@ -36533,13 +36757,13 @@
       </c>
       <c r="B329" s="11"/>
       <c r="C329" s="28" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D329" s="55" t="s">
-        <v>868</v>
+        <v>2119</v>
       </c>
       <c r="E329" s="12" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="F329" s="12" t="s">
         <v>1321</v>
@@ -36562,13 +36786,13 @@
       </c>
       <c r="B330" s="11"/>
       <c r="C330" s="28" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D330" s="55" t="s">
-        <v>2120</v>
+        <v>868</v>
       </c>
       <c r="E330" s="12" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="F330" s="12" t="s">
         <v>1321</v>
@@ -36591,13 +36815,13 @@
       </c>
       <c r="B331" s="11"/>
       <c r="C331" s="28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D331" s="55" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="F331" s="12" t="s">
         <v>1321</v>
@@ -36620,13 +36844,13 @@
       </c>
       <c r="B332" s="11"/>
       <c r="C332" s="28" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D332" s="55" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="F332" s="12" t="s">
         <v>1321</v>
@@ -36649,13 +36873,13 @@
       </c>
       <c r="B333" s="11"/>
       <c r="C333" s="28" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D333" s="55" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F333" s="12" t="s">
         <v>1321</v>
@@ -36678,13 +36902,13 @@
       </c>
       <c r="B334" s="11"/>
       <c r="C334" s="28" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D334" s="55" t="s">
-        <v>20</v>
+        <v>2124</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F334" s="12" t="s">
         <v>1321</v>
@@ -36707,25 +36931,25 @@
       </c>
       <c r="B335" s="11"/>
       <c r="C335" s="28" t="s">
-        <v>2143</v>
+        <v>886</v>
       </c>
       <c r="D335" s="55" t="s">
-        <v>2125</v>
-      </c>
-      <c r="E335" s="117" t="s">
-        <v>2097</v>
+        <v>20</v>
+      </c>
+      <c r="E335" s="12" t="s">
+        <v>2088</v>
       </c>
       <c r="F335" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G335" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H335" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I335" s="13" t="s">
-        <v>2091</v>
+        <v>814</v>
       </c>
       <c r="J335" s="14"/>
     </row>
@@ -36736,25 +36960,25 @@
       </c>
       <c r="B336" s="11"/>
       <c r="C336" s="28" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="D336" s="55" t="s">
-        <v>2126</v>
-      </c>
-      <c r="E336" s="12" t="s">
-        <v>2098</v>
+        <v>2125</v>
+      </c>
+      <c r="E336" s="117" t="s">
+        <v>2097</v>
       </c>
       <c r="F336" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G336" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H336" s="70" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="I336" s="13" t="s">
-        <v>814</v>
+        <v>2091</v>
       </c>
       <c r="J336" s="14"/>
     </row>
@@ -36765,13 +36989,13 @@
       </c>
       <c r="B337" s="11"/>
       <c r="C337" s="28" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="D337" s="55" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E337" s="12" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F337" s="12" t="s">
         <v>1321</v>
@@ -36794,25 +37018,25 @@
       </c>
       <c r="B338" s="11"/>
       <c r="C338" s="28" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D338" s="55" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E338" s="12" t="s">
-        <v>2092</v>
+        <v>2099</v>
       </c>
       <c r="F338" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G338" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H338" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I338" s="13" t="s">
-        <v>2091</v>
+        <v>814</v>
       </c>
       <c r="J338" s="14"/>
     </row>
@@ -36823,25 +37047,25 @@
       </c>
       <c r="B339" s="11"/>
       <c r="C339" s="28" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D339" s="55" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E339" s="12" t="s">
-        <v>2100</v>
+        <v>2092</v>
       </c>
       <c r="F339" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G339" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H339" s="70" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="I339" s="13" t="s">
-        <v>814</v>
+        <v>2091</v>
       </c>
       <c r="J339" s="14"/>
     </row>
@@ -36852,13 +37076,13 @@
       </c>
       <c r="B340" s="11"/>
       <c r="C340" s="28" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D340" s="55" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E340" s="12" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F340" s="12" t="s">
         <v>1321</v>
@@ -36881,25 +37105,25 @@
       </c>
       <c r="B341" s="11"/>
       <c r="C341" s="28" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D341" s="55" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E341" s="12" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F341" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G341" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H341" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I341" s="13" t="s">
-        <v>2091</v>
+        <v>814</v>
       </c>
       <c r="J341" s="14"/>
     </row>
@@ -36910,13 +37134,13 @@
       </c>
       <c r="B342" s="11"/>
       <c r="C342" s="28" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D342" s="55" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E342" s="12" t="s">
-        <v>2093</v>
+        <v>2102</v>
       </c>
       <c r="F342" s="12" t="s">
         <v>1321</v>
@@ -36939,25 +37163,25 @@
       </c>
       <c r="B343" s="11"/>
       <c r="C343" s="28" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D343" s="55" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>2103</v>
+        <v>2093</v>
       </c>
       <c r="F343" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G343" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H343" s="70" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="I343" s="13" t="s">
-        <v>814</v>
+        <v>2091</v>
       </c>
       <c r="J343" s="14"/>
     </row>
@@ -36968,13 +37192,13 @@
       </c>
       <c r="B344" s="11"/>
       <c r="C344" s="28" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D344" s="55" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E344" s="12" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="F344" s="12" t="s">
         <v>1321</v>
@@ -36997,13 +37221,13 @@
       </c>
       <c r="B345" s="11"/>
       <c r="C345" s="28" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D345" s="55" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E345" s="12" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="F345" s="12" t="s">
         <v>1321</v>
@@ -37026,13 +37250,13 @@
       </c>
       <c r="B346" s="11"/>
       <c r="C346" s="28" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D346" s="55" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E346" s="12" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="F346" s="12" t="s">
         <v>1321</v>
@@ -37055,25 +37279,25 @@
       </c>
       <c r="B347" s="11"/>
       <c r="C347" s="28" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D347" s="55" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E347" s="12" t="s">
-        <v>2094</v>
+        <v>2106</v>
       </c>
       <c r="F347" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G347" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H347" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I347" s="13" t="s">
-        <v>2091</v>
+        <v>814</v>
       </c>
       <c r="J347" s="14"/>
     </row>
@@ -37084,25 +37308,25 @@
       </c>
       <c r="B348" s="11"/>
       <c r="C348" s="28" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D348" s="55" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="E348" s="12" t="s">
-        <v>2107</v>
+        <v>2094</v>
       </c>
       <c r="F348" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G348" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H348" s="70" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="I348" s="13" t="s">
-        <v>814</v>
+        <v>2091</v>
       </c>
       <c r="J348" s="14"/>
     </row>
@@ -37113,25 +37337,25 @@
       </c>
       <c r="B349" s="11"/>
       <c r="C349" s="28" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D349" s="55" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="E349" s="12" t="s">
-        <v>2095</v>
+        <v>2107</v>
       </c>
       <c r="F349" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G349" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H349" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I349" s="13" t="s">
-        <v>2091</v>
+        <v>814</v>
       </c>
       <c r="J349" s="14"/>
     </row>
@@ -37142,25 +37366,25 @@
       </c>
       <c r="B350" s="11"/>
       <c r="C350" s="28" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D350" s="55" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="E350" s="12" t="s">
-        <v>2108</v>
+        <v>2095</v>
       </c>
       <c r="F350" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G350" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H350" s="70" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="I350" s="13" t="s">
-        <v>814</v>
+        <v>2091</v>
       </c>
       <c r="J350" s="14"/>
     </row>
@@ -37171,25 +37395,25 @@
       </c>
       <c r="B351" s="11"/>
       <c r="C351" s="28" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D351" s="55" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E351" s="12" t="s">
-        <v>2096</v>
+        <v>2108</v>
       </c>
       <c r="F351" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G351" s="31">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="H351" s="70" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I351" s="13" t="s">
-        <v>2091</v>
+        <v>814</v>
       </c>
       <c r="J351" s="14"/>
     </row>
@@ -37200,25 +37424,25 @@
       </c>
       <c r="B352" s="11"/>
       <c r="C352" s="28" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D352" s="55" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E352" s="12" t="s">
-        <v>2109</v>
+        <v>2096</v>
       </c>
       <c r="F352" s="12" t="s">
         <v>1321</v>
       </c>
       <c r="G352" s="31">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="H352" s="70" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="I352" s="13" t="s">
-        <v>814</v>
+        <v>2091</v>
       </c>
       <c r="J352" s="14"/>
     </row>
@@ -37228,13 +37452,27 @@
         <v>347</v>
       </c>
       <c r="B353" s="11"/>
-      <c r="C353" s="28"/>
-      <c r="D353" s="55"/>
-      <c r="E353" s="12"/>
-      <c r="F353" s="12"/>
-      <c r="G353" s="31"/>
-      <c r="H353" s="70"/>
-      <c r="I353" s="13"/>
+      <c r="C353" s="28" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D353" s="55" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E353" s="12" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F353" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G353" s="31">
+        <v>42341</v>
+      </c>
+      <c r="H353" s="70" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I353" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="J353" s="14"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -37259,10 +37497,10 @@
       </c>
       <c r="B355" s="11"/>
       <c r="C355" s="28"/>
-      <c r="D355" s="12"/>
+      <c r="D355" s="55"/>
       <c r="E355" s="12"/>
       <c r="F355" s="12"/>
-      <c r="G355" s="12"/>
+      <c r="G355" s="31"/>
       <c r="H355" s="70"/>
       <c r="I355" s="13"/>
       <c r="J355" s="14"/>
@@ -37282,7 +37520,7 @@
       <c r="I356" s="13"/>
       <c r="J356" s="14"/>
     </row>
-    <row r="357" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
         <f t="shared" si="3"/>
         <v>351</v>
@@ -37297,111 +37535,97 @@
       <c r="I357" s="13"/>
       <c r="J357" s="14"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="B358" s="11"/>
+      <c r="C358" s="28"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="12"/>
+      <c r="F358" s="12"/>
+      <c r="G358" s="12"/>
+      <c r="H358" s="70"/>
+      <c r="I358" s="13"/>
+      <c r="J358" s="14"/>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <f t="shared" si="3"/>
+        <v>353</v>
+      </c>
+      <c r="B359" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C358" s="27" t="s">
+      <c r="C359" s="27" t="s">
         <v>1333</v>
       </c>
-      <c r="D358" s="7" t="s">
+      <c r="D359" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="E358" s="8" t="s">
+      <c r="E359" s="8" t="s">
         <v>1330</v>
       </c>
-      <c r="F358" s="8" t="s">
+      <c r="F359" s="8" t="s">
         <v>1331</v>
       </c>
-      <c r="G358" s="30">
+      <c r="G359" s="30">
         <v>42256</v>
       </c>
-      <c r="H358" s="112" t="s">
+      <c r="H359" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="I358" s="9" t="s">
+      <c r="I359" s="9" t="s">
         <v>1332</v>
       </c>
-      <c r="J358" s="10"/>
-    </row>
-    <row r="359" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A359">
-        <f>ROW($A359)-6</f>
-        <v>353</v>
-      </c>
-      <c r="B359" s="11"/>
-      <c r="C359" s="28"/>
-      <c r="D359" s="11"/>
-      <c r="E359" s="12"/>
-      <c r="F359" s="12"/>
-      <c r="G359" s="12"/>
-      <c r="H359" s="70"/>
-      <c r="I359" s="13"/>
-      <c r="J359" s="14"/>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J359" s="10"/>
+    </row>
+    <row r="360" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <f>ROW($A360)-6</f>
         <v>354</v>
       </c>
-      <c r="B360" s="7" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C360" s="27" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D360" s="7" t="s">
-        <v>1783</v>
-      </c>
-      <c r="E360" s="8" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F360" s="8" t="s">
-        <v>1787</v>
-      </c>
-      <c r="G360" s="30">
-        <v>42313</v>
-      </c>
-      <c r="H360" s="112" t="s">
-        <v>1788</v>
-      </c>
-      <c r="I360" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="J360" s="10"/>
+      <c r="B360" s="11"/>
+      <c r="C360" s="28"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="12"/>
+      <c r="F360" s="12"/>
+      <c r="G360" s="12"/>
+      <c r="H360" s="70"/>
+      <c r="I360" s="13"/>
+      <c r="J360" s="14"/>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
         <f>ROW($A361)-6</f>
         <v>355</v>
       </c>
-      <c r="B361" s="11"/>
-      <c r="C361" s="28" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D361" s="11" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E361" s="12" t="s">
-        <v>1785</v>
-      </c>
-      <c r="F361" s="55" t="s">
+      <c r="B361" s="7" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C361" s="27" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D361" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F361" s="8" t="s">
         <v>1787</v>
       </c>
-      <c r="G361" s="31">
+      <c r="G361" s="30">
         <v>42313</v>
       </c>
-      <c r="H361" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I361" s="13" t="s">
-        <v>1789</v>
-      </c>
-      <c r="J361" s="14"/>
+      <c r="H361" s="112" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I361" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J361" s="10"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
@@ -37409,18 +37633,32 @@
         <v>356</v>
       </c>
       <c r="B362" s="11"/>
-      <c r="C362" s="28"/>
-      <c r="D362" s="11"/>
-      <c r="E362" s="12"/>
-      <c r="F362" s="12"/>
-      <c r="G362" s="12"/>
-      <c r="H362" s="70"/>
-      <c r="I362" s="13"/>
+      <c r="C362" s="28" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D362" s="11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E362" s="12" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F362" s="55" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G362" s="31">
+        <v>42313</v>
+      </c>
+      <c r="H362" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I362" s="13" t="s">
+        <v>1789</v>
+      </c>
       <c r="J362" s="14"/>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
-        <f t="shared" si="3"/>
+        <f>ROW($A363)-6</f>
         <v>357</v>
       </c>
       <c r="B363" s="11"/>
@@ -37444,39 +37682,39 @@
       <c r="E364" s="12"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
-      <c r="H364" s="69"/>
-      <c r="I364" s="12"/>
+      <c r="H364" s="70"/>
+      <c r="I364" s="13"/>
       <c r="J364" s="14"/>
     </row>
-    <row r="365" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
-      <c r="B365" s="16"/>
-      <c r="C365" s="29"/>
-      <c r="D365" s="16"/>
-      <c r="E365" s="17"/>
-      <c r="F365" s="17"/>
-      <c r="G365" s="17"/>
-      <c r="H365" s="71"/>
-      <c r="I365" s="17"/>
-      <c r="J365" s="19"/>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B365" s="11"/>
+      <c r="C365" s="28"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="12"/>
+      <c r="F365" s="12"/>
+      <c r="G365" s="12"/>
+      <c r="H365" s="69"/>
+      <c r="I365" s="12"/>
+      <c r="J365" s="14"/>
+    </row>
+    <row r="366" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="B366" s="11"/>
-      <c r="C366" s="28"/>
-      <c r="D366" s="12"/>
-      <c r="E366" s="12"/>
-      <c r="F366" s="12"/>
-      <c r="G366" s="12"/>
-      <c r="H366" s="69"/>
-      <c r="I366" s="12"/>
-      <c r="J366" s="14"/>
+      <c r="B366" s="16"/>
+      <c r="C366" s="29"/>
+      <c r="D366" s="16"/>
+      <c r="E366" s="17"/>
+      <c r="F366" s="17"/>
+      <c r="G366" s="17"/>
+      <c r="H366" s="71"/>
+      <c r="I366" s="17"/>
+      <c r="J366" s="19"/>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
@@ -37598,23 +37836,35 @@
       <c r="I374" s="12"/>
       <c r="J374" s="14"/>
     </row>
-    <row r="375" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
         <f t="shared" si="3"/>
         <v>369</v>
       </c>
-      <c r="B375" s="16"/>
-      <c r="C375" s="29"/>
-      <c r="D375" s="17"/>
-      <c r="E375" s="17"/>
-      <c r="F375" s="17"/>
-      <c r="G375" s="17"/>
-      <c r="H375" s="71"/>
-      <c r="I375" s="17"/>
-      <c r="J375" s="19"/>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C376" s="3"/>
+      <c r="B375" s="11"/>
+      <c r="C375" s="28"/>
+      <c r="D375" s="12"/>
+      <c r="E375" s="12"/>
+      <c r="F375" s="12"/>
+      <c r="G375" s="12"/>
+      <c r="H375" s="69"/>
+      <c r="I375" s="12"/>
+      <c r="J375" s="14"/>
+    </row>
+    <row r="376" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <f t="shared" si="3"/>
+        <v>370</v>
+      </c>
+      <c r="B376" s="16"/>
+      <c r="C376" s="29"/>
+      <c r="D376" s="17"/>
+      <c r="E376" s="17"/>
+      <c r="F376" s="17"/>
+      <c r="G376" s="17"/>
+      <c r="H376" s="71"/>
+      <c r="I376" s="17"/>
+      <c r="J376" s="19"/>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C377" s="3"/>
@@ -37625,8 +37875,11 @@
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C379" s="3"/>
     </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:J375">
+  <autoFilter ref="A7:J376">
     <sortState ref="A7:J166">
       <sortCondition ref="A6:A166"/>
     </sortState>

--- a/cms/ms/美术资源总表.xlsx
+++ b/cms/ms/美术资源总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="460" windowWidth="34700" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="3700" yWindow="460" windowWidth="34700" windowHeight="19900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$376</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$A$7:$J$394</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色模型,[1]动作!$A$5:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">角色制作统计!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特效!$C$7:$D$114</definedName>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="2242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="2278">
   <si>
     <t>每个怪物一个文件夹，存放怪物的模型、贴图、材质和动作</t>
   </si>
@@ -16929,10 +16929,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>公会_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>公会_列表选中</t>
     <rPh sb="3" eb="4">
       <t>lie'biao</t>
@@ -16989,6 +16985,314 @@
   </si>
   <si>
     <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录1</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会_公会信息标题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>denglu_bg1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading_bg_1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading_bg_2.png</t>
+  </si>
+  <si>
+    <t>tips_ditu_anxia.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_背景图</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei'jing'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_进入游戏</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin'ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_loading1</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_loading2</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录_服务器列表选中</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'w'q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xuan'zhong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录2</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录3</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录4</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录5</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>denglu_anniu_1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年12月19日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI更新： 
+商店界面新增，修改资源
+登录界面新增资源</t>
+    <rPh sb="2" eb="3">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zi'yaun</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录流程</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁马</t>
+    <rPh sb="0" eb="1">
+      <t>tie'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>anniu_da_2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>anniu_da_2_anxia.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>anniu_da_2_jinyong.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongyong_bg_1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_jinqian_ditu.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_ditu1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面6</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面7</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面8</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面9</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面10</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮_大号2</t>
+    <rPh sb="0" eb="1">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'hao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店_金币条底图</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin'bi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店_物品底图</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wu'p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用背景图1</t>
+    <rPh sb="0" eb="1">
+      <t>tong'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="1">
+      <t>bei'jing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景1</t>
+    <rPh sb="0" eb="1">
+      <t>bei'jing</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -17955,7 +18259,7 @@
   <dimension ref="B2:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -18586,16 +18890,22 @@
         <v>2224</v>
       </c>
       <c r="C65" s="98" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D65" s="36" t="s">
         <v>2240</v>
       </c>
-      <c r="D65" s="36" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
+    </row>
+    <row r="66" spans="2:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B66" s="59" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C66" s="98" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="36"/>
@@ -27744,13 +28054,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J380"/>
+  <dimension ref="A2:J398"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E143" sqref="E143:J144"/>
+      <selection pane="bottomRight" activeCell="B150" sqref="B150:I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -30552,7 +30862,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" ref="A102:A269" si="2">ROW($A102)-6</f>
+        <f t="shared" ref="A102:A287" si="2">ROW($A102)-6</f>
         <v>96</v>
       </c>
       <c r="B102" s="11"/>
@@ -31663,10 +31973,10 @@
         <v>42273</v>
       </c>
       <c r="H141" s="70" t="s">
-        <v>1441</v>
+        <v>1551</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>8</v>
+        <v>2260</v>
       </c>
       <c r="J141" s="14"/>
     </row>
@@ -31718,13 +32028,13 @@
         <v>684</v>
       </c>
       <c r="G143" s="31">
-        <v>42296</v>
+        <v>42356</v>
       </c>
       <c r="H143" s="70" t="s">
-        <v>1441</v>
+        <v>1551</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>8</v>
+        <v>2260</v>
       </c>
       <c r="J143" s="115" t="s">
         <v>2004</v>
@@ -31749,13 +32059,13 @@
         <v>684</v>
       </c>
       <c r="G144" s="31">
-        <v>42296</v>
+        <v>42356</v>
       </c>
       <c r="H144" s="70" t="s">
-        <v>1441</v>
+        <v>1551</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>8</v>
+        <v>2260</v>
       </c>
       <c r="J144" s="115" t="s">
         <v>2004</v>
@@ -31767,44 +32077,57 @@
         <v>139</v>
       </c>
       <c r="B145" s="11"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="65"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="31"/>
-      <c r="H145" s="70"/>
-      <c r="I145" s="13"/>
-      <c r="J145" s="14"/>
+      <c r="C145" s="28" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D145" s="65" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G145" s="31">
+        <v>42356</v>
+      </c>
+      <c r="H145" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I145" s="13" t="s">
+        <v>2260</v>
+      </c>
+      <c r="J145" s="115"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B146" s="11" t="s">
-        <v>1620</v>
-      </c>
+      <c r="B146" s="11"/>
       <c r="C146" s="28" t="s">
-        <v>1628</v>
+        <v>2268</v>
       </c>
       <c r="D146" s="65" t="s">
-        <v>1636</v>
+        <v>2272</v>
       </c>
       <c r="E146" t="s">
-        <v>1622</v>
+        <v>2262</v>
       </c>
       <c r="F146" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G146" s="31">
-        <v>42286</v>
+        <v>42356</v>
       </c>
       <c r="H146" s="70" t="s">
         <v>1441</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J146" s="14"/>
+        <v>2260</v>
+      </c>
+      <c r="J146" s="115"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -31813,27 +32136,27 @@
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="28" t="s">
-        <v>1629</v>
+        <v>2269</v>
       </c>
       <c r="D147" s="65" t="s">
-        <v>1637</v>
+        <v>2272</v>
       </c>
       <c r="E147" t="s">
-        <v>1623</v>
+        <v>2263</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G147" s="31">
-        <v>42286</v>
+        <v>42356</v>
       </c>
       <c r="H147" s="70" t="s">
         <v>1441</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J147" s="14"/>
+        <v>2260</v>
+      </c>
+      <c r="J147" s="115"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -31842,27 +32165,27 @@
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="28" t="s">
-        <v>1630</v>
+        <v>2270</v>
       </c>
       <c r="D148" s="65" t="s">
-        <v>1638</v>
+        <v>2273</v>
       </c>
       <c r="E148" t="s">
-        <v>1624</v>
+        <v>2265</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G148" s="31">
-        <v>42286</v>
+        <v>42357</v>
       </c>
       <c r="H148" s="70" t="s">
-        <v>1441</v>
+        <v>1929</v>
       </c>
       <c r="I148" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J148" s="14"/>
+        <v>2233</v>
+      </c>
+      <c r="J148" s="115"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -31871,27 +32194,27 @@
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="28" t="s">
-        <v>1634</v>
+        <v>2271</v>
       </c>
       <c r="D149" s="65" t="s">
-        <v>1639</v>
+        <v>2274</v>
       </c>
       <c r="E149" t="s">
-        <v>1625</v>
+        <v>2266</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G149" s="31">
-        <v>42286</v>
+        <v>42357</v>
       </c>
       <c r="H149" s="70" t="s">
-        <v>1441</v>
+        <v>1929</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J149" s="14"/>
+        <v>2260</v>
+      </c>
+      <c r="J149" s="115"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -31899,28 +32222,13 @@
         <v>144</v>
       </c>
       <c r="B150" s="11"/>
-      <c r="C150" s="28" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D150" s="65" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E150" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F150" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G150" s="31">
-        <v>42286</v>
-      </c>
-      <c r="H150" s="70" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I150" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J150" s="14"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="65"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="70"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="115"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -31928,28 +32236,13 @@
         <v>145</v>
       </c>
       <c r="B151" s="11"/>
-      <c r="C151" s="28" t="s">
-        <v>2230</v>
-      </c>
-      <c r="D151" s="65" t="s">
-        <v>2231</v>
-      </c>
-      <c r="E151" t="s">
-        <v>2228</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G151" s="31">
-        <v>42353</v>
-      </c>
-      <c r="H151" s="70" t="s">
-        <v>2229</v>
-      </c>
-      <c r="I151" s="13" t="s">
-        <v>1749</v>
-      </c>
-      <c r="J151" s="14"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="65"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="70"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="115"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -31971,28 +32264,28 @@
         <v>147</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D153" s="65" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="E153" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G153" s="31">
-        <v>42332</v>
+        <v>42286</v>
       </c>
       <c r="H153" s="70" t="s">
-        <v>1933</v>
+        <v>1441</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>1749</v>
+        <v>8</v>
       </c>
       <c r="J153" s="14"/>
     </row>
@@ -32003,13 +32296,13 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="28" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="D154" s="65" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="E154" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>684</v>
@@ -32031,12 +32324,27 @@
         <v>149</v>
       </c>
       <c r="B155" s="11"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="65"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="31"/>
-      <c r="H155" s="70"/>
-      <c r="I155" s="13"/>
+      <c r="C155" s="28" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D155" s="65" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G155" s="31">
+        <v>42286</v>
+      </c>
+      <c r="H155" s="70" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I155" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="J155" s="14"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -32044,23 +32352,21 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B156" s="11" t="s">
-        <v>1654</v>
-      </c>
+      <c r="B156" s="11"/>
       <c r="C156" s="28" t="s">
-        <v>1658</v>
+        <v>1634</v>
       </c>
       <c r="D156" s="65" t="s">
-        <v>1661</v>
+        <v>1639</v>
       </c>
       <c r="E156" t="s">
-        <v>1655</v>
+        <v>1625</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G156" s="31">
-        <v>42289</v>
+        <v>42286</v>
       </c>
       <c r="H156" s="70" t="s">
         <v>1441</v>
@@ -32077,19 +32383,19 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="28" t="s">
-        <v>1659</v>
+        <v>1635</v>
       </c>
       <c r="D157" s="65" t="s">
-        <v>1662</v>
+        <v>1640</v>
       </c>
       <c r="E157" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G157" s="31">
-        <v>42289</v>
+        <v>42286</v>
       </c>
       <c r="H157" s="70" t="s">
         <v>1441</v>
@@ -32106,25 +32412,25 @@
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="28" t="s">
-        <v>1660</v>
+        <v>2230</v>
       </c>
       <c r="D158" s="65" t="s">
-        <v>1663</v>
+        <v>2231</v>
       </c>
       <c r="E158" t="s">
-        <v>1657</v>
+        <v>2228</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G158" s="31">
-        <v>42289</v>
+        <v>42353</v>
       </c>
       <c r="H158" s="70" t="s">
-        <v>1441</v>
+        <v>2229</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>8</v>
+        <v>1749</v>
       </c>
       <c r="J158" s="14"/>
     </row>
@@ -32148,28 +32454,28 @@
         <v>154</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>1706</v>
+        <v>1633</v>
       </c>
       <c r="C160" s="28" t="s">
-        <v>1707</v>
+        <v>1631</v>
       </c>
       <c r="D160" s="65" t="s">
-        <v>1709</v>
+        <v>1642</v>
       </c>
       <c r="E160" t="s">
-        <v>1711</v>
+        <v>1626</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G160" s="31">
-        <v>42317</v>
+        <v>42332</v>
       </c>
       <c r="H160" s="70" t="s">
-        <v>1824</v>
+        <v>1933</v>
       </c>
       <c r="I160" s="13" t="s">
-        <v>8</v>
+        <v>1749</v>
       </c>
       <c r="J160" s="14"/>
     </row>
@@ -32180,22 +32486,22 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="28" t="s">
-        <v>1708</v>
+        <v>1632</v>
       </c>
       <c r="D161" s="65" t="s">
-        <v>1710</v>
+        <v>1641</v>
       </c>
       <c r="E161" t="s">
-        <v>1712</v>
+        <v>1627</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G161" s="31">
-        <v>42317</v>
+        <v>42286</v>
       </c>
       <c r="H161" s="70" t="s">
-        <v>1824</v>
+        <v>1441</v>
       </c>
       <c r="I161" s="13" t="s">
         <v>8</v>
@@ -32208,27 +32514,12 @@
         <v>156</v>
       </c>
       <c r="B162" s="11"/>
-      <c r="C162" s="28" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D162" s="65" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1719</v>
-      </c>
-      <c r="F162" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="G162" s="31">
-        <v>42297</v>
-      </c>
-      <c r="H162" s="70" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I162" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C162" s="28"/>
+      <c r="D162" s="65"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="31"/>
+      <c r="H162" s="70"/>
+      <c r="I162" s="13"/>
       <c r="J162" s="14"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -32236,21 +32527,23 @@
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B163" s="11"/>
+      <c r="B163" s="11" t="s">
+        <v>1654</v>
+      </c>
       <c r="C163" s="28" t="s">
-        <v>1738</v>
+        <v>1658</v>
       </c>
       <c r="D163" s="65" t="s">
-        <v>1735</v>
+        <v>1661</v>
       </c>
       <c r="E163" t="s">
-        <v>1720</v>
+        <v>1655</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G163" s="31">
-        <v>42297</v>
+        <v>42289</v>
       </c>
       <c r="H163" s="70" t="s">
         <v>1441</v>
@@ -32267,22 +32560,22 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="28" t="s">
-        <v>1739</v>
+        <v>1659</v>
       </c>
       <c r="D164" s="65" t="s">
-        <v>1736</v>
+        <v>1662</v>
       </c>
       <c r="E164" t="s">
-        <v>1721</v>
+        <v>1656</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G164" s="31">
-        <v>42307</v>
+        <v>42289</v>
       </c>
       <c r="H164" s="70" t="s">
-        <v>1762</v>
+        <v>1441</v>
       </c>
       <c r="I164" s="13" t="s">
         <v>8</v>
@@ -32296,22 +32589,22 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="28" t="s">
-        <v>1758</v>
+        <v>1660</v>
       </c>
       <c r="D165" s="65" t="s">
-        <v>1759</v>
+        <v>1663</v>
       </c>
       <c r="E165" t="s">
-        <v>1757</v>
+        <v>1657</v>
       </c>
       <c r="F165" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G165" s="31">
-        <v>42307</v>
+        <v>42289</v>
       </c>
       <c r="H165" s="70" t="s">
-        <v>1762</v>
+        <v>1441</v>
       </c>
       <c r="I165" s="13" t="s">
         <v>8</v>
@@ -32338,28 +32631,28 @@
         <v>161</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>1753</v>
+        <v>1706</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>1750</v>
+        <v>1707</v>
       </c>
       <c r="D167" s="65" t="s">
-        <v>1754</v>
+        <v>1709</v>
       </c>
       <c r="E167" t="s">
-        <v>1747</v>
+        <v>1711</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G167" s="31">
-        <v>42303</v>
+        <v>42317</v>
       </c>
       <c r="H167" s="70" t="s">
-        <v>1441</v>
+        <v>1824</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>1749</v>
+        <v>8</v>
       </c>
       <c r="J167" s="14"/>
     </row>
@@ -32370,25 +32663,25 @@
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="28" t="s">
-        <v>1751</v>
+        <v>1708</v>
       </c>
       <c r="D168" s="65" t="s">
-        <v>1755</v>
+        <v>1710</v>
       </c>
       <c r="E168" t="s">
-        <v>1748</v>
+        <v>1712</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G168" s="31">
-        <v>42303</v>
+        <v>42317</v>
       </c>
       <c r="H168" s="70" t="s">
-        <v>1441</v>
+        <v>1824</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>1749</v>
+        <v>8</v>
       </c>
       <c r="J168" s="14"/>
     </row>
@@ -32399,25 +32692,25 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="28" t="s">
-        <v>1752</v>
+        <v>1737</v>
       </c>
       <c r="D169" s="65" t="s">
-        <v>1756</v>
+        <v>1734</v>
       </c>
       <c r="E169" t="s">
-        <v>1746</v>
+        <v>1719</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G169" s="31">
-        <v>42303</v>
+        <v>42297</v>
       </c>
       <c r="H169" s="70" t="s">
         <v>1441</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>1749</v>
+        <v>8</v>
       </c>
       <c r="J169" s="14"/>
     </row>
@@ -32428,25 +32721,25 @@
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="28" t="s">
-        <v>1808</v>
+        <v>1738</v>
       </c>
       <c r="D170" s="65" t="s">
-        <v>1809</v>
+        <v>1735</v>
       </c>
       <c r="E170" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F170" s="55" t="s">
-        <v>1811</v>
+        <v>1720</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>684</v>
       </c>
       <c r="G170" s="31">
-        <v>42317</v>
+        <v>42297</v>
       </c>
       <c r="H170" s="70" t="s">
-        <v>235</v>
+        <v>1441</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>1749</v>
+        <v>8</v>
       </c>
       <c r="J170" s="14"/>
     </row>
@@ -32456,12 +32749,27 @@
         <v>165</v>
       </c>
       <c r="B171" s="11"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="65"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="31"/>
-      <c r="H171" s="70"/>
-      <c r="I171" s="13"/>
+      <c r="C171" s="28" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D171" s="65" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G171" s="31">
+        <v>42307</v>
+      </c>
+      <c r="H171" s="70" t="s">
+       